--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_weijing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27ACE6A-17A5-4D30-B519-5906D8A555EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00640580-3DDE-41DE-A201-52830F07B853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="480" windowWidth="27045" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -1228,9 +1228,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>62000101,62000102,62000103</t>
-  </si>
-  <si>
     <t>61000005</t>
   </si>
   <si>
@@ -1837,6 +1834,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>620001011,620001021,620001031</t>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5716,14 +5717,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AW388"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="I14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AN6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L58" sqref="L58"/>
+      <selection pane="bottomRight" activeCell="AQ11" sqref="AQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -5769,10 +5769,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:47" s="4" customFormat="1" ht="14.25"/>
-    <row r="2" spans="3:47" ht="13.5" hidden="1" customHeight="1">
+    <row r="2" spans="3:47" ht="13.5" customHeight="1">
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="3" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="8" t="s">
         <v>68</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>59</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL3" s="2" t="s">
         <v>60</v>
@@ -5904,10 +5904,10 @@
         <v>82</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="4" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="4" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="8" t="s">
         <v>69</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>25</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL4" s="3" t="s">
         <v>26</v>
@@ -6039,10 +6039,10 @@
         <v>83</v>
       </c>
       <c r="AU4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="5" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="5" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="6" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="7">
         <v>70001001</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AM6" s="11"/>
       <c r="AN6" s="7">
@@ -6306,7 +6306,7 @@
       <c r="AT6" s="7"/>
       <c r="AU6" s="7"/>
     </row>
-    <row r="7" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="7" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="7">
         <v>70001002</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="AL7" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AM7" s="11"/>
       <c r="AN7" s="7">
@@ -6435,7 +6435,7 @@
       <c r="AT7" s="7"/>
       <c r="AU7" s="7"/>
     </row>
-    <row r="8" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="8" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="7">
         <v>70001003</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AM8" s="11"/>
       <c r="AN8" s="7">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="AL9" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM9" s="11"/>
       <c r="AN9" s="7">
@@ -6684,7 +6684,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ9" s="11" t="s">
-        <v>151</v>
+        <v>333</v>
       </c>
       <c r="AR9" s="7"/>
       <c r="AS9" s="7">
@@ -6693,7 +6693,7 @@
       <c r="AT9" s="7"/>
       <c r="AU9" s="7"/>
     </row>
-    <row r="10" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="10" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="7">
         <v>70001005</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AM10" s="11"/>
       <c r="AN10" s="7">
@@ -6822,7 +6822,7 @@
       <c r="AT10" s="7"/>
       <c r="AU10" s="7"/>
     </row>
-    <row r="11" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="11" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="7">
         <v>70001006</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AM11" s="11"/>
       <c r="AN11" s="7">
@@ -6951,12 +6951,12 @@
       <c r="AT11" s="7"/>
       <c r="AU11" s="7"/>
     </row>
-    <row r="12" spans="3:47" s="17" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="12" spans="3:47" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="15">
         <v>70001007</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E12" s="15">
         <v>1</v>
@@ -7058,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AM12" s="16"/>
       <c r="AN12" s="15">
@@ -7071,7 +7071,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ12" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AR12" s="15"/>
       <c r="AS12" s="15">
@@ -7080,7 +7080,7 @@
       <c r="AT12" s="15"/>
       <c r="AU12" s="15"/>
     </row>
-    <row r="13" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="13" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="7">
         <v>70001010</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="AL13" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AM13" s="11"/>
       <c r="AN13" s="7">
@@ -7214,7 +7214,7 @@
         <v>70001011</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E14" s="7">
         <v>3</v>
@@ -7316,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AM14" s="11"/>
       <c r="AN14" s="7">
@@ -7329,7 +7329,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ14" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AR14" s="7"/>
       <c r="AS14" s="7">
@@ -7338,7 +7338,7 @@
       <c r="AT14" s="7"/>
       <c r="AU14" s="7"/>
     </row>
-    <row r="15" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="15" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="7">
         <v>70001101</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="AL15" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AM15" s="11"/>
       <c r="AN15" s="7">
@@ -7467,12 +7467,12 @@
       <c r="AT15" s="7"/>
       <c r="AU15" s="7"/>
     </row>
-    <row r="16" spans="3:47" s="17" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="16" spans="3:47" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="15">
         <v>70001102</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E16" s="15">
         <v>1</v>
@@ -7574,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AM16" s="16"/>
       <c r="AN16" s="15">
@@ -7596,12 +7596,12 @@
       <c r="AT16" s="15"/>
       <c r="AU16" s="15"/>
     </row>
-    <row r="17" spans="3:47" s="17" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="17" spans="3:47" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="15">
         <v>70001103</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="AL17" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AM17" s="16"/>
       <c r="AN17" s="15">
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AM18" s="11"/>
       <c r="AN18" s="7">
@@ -7845,7 +7845,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ18" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AR18" s="7"/>
       <c r="AS18" s="7">
@@ -7854,12 +7854,12 @@
       <c r="AT18" s="7"/>
       <c r="AU18" s="7"/>
     </row>
-    <row r="19" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="19" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="7">
         <v>70001201</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E19" s="7">
         <v>1</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="AL19" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AM19" s="11"/>
       <c r="AN19" s="7">
@@ -7983,12 +7983,12 @@
       <c r="AT19" s="7"/>
       <c r="AU19" s="7"/>
     </row>
-    <row r="20" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="20" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="7">
         <v>70001202</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E20" s="7">
         <v>1</v>
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AM20" s="11"/>
       <c r="AN20" s="7">
@@ -8112,12 +8112,12 @@
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
     </row>
-    <row r="21" spans="3:47" s="17" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="21" spans="3:47" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="15">
         <v>70001203</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="AL21" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AM21" s="16"/>
       <c r="AN21" s="15">
@@ -8241,12 +8241,12 @@
       <c r="AT21" s="15"/>
       <c r="AU21" s="15"/>
     </row>
-    <row r="22" spans="3:47" s="17" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="22" spans="3:47" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C22" s="15">
         <v>70001204</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E22" s="15">
         <v>1</v>
@@ -8348,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AM22" s="16"/>
       <c r="AN22" s="15">
@@ -8370,12 +8370,12 @@
       <c r="AT22" s="15"/>
       <c r="AU22" s="15"/>
     </row>
-    <row r="23" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="23" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C23" s="7">
         <v>70001205</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E23" s="7">
         <v>1</v>
@@ -8477,7 +8477,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AM23" s="11"/>
       <c r="AN23" s="7">
@@ -8490,7 +8490,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ23" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AR23" s="7"/>
       <c r="AS23" s="7">
@@ -8504,7 +8504,7 @@
         <v>70001206</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E24" s="7">
         <v>3</v>
@@ -8606,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM24" s="11"/>
       <c r="AN24" s="7">
@@ -8619,7 +8619,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ24" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AR24" s="7"/>
       <c r="AS24" s="7">
@@ -8628,12 +8628,12 @@
       <c r="AT24" s="7"/>
       <c r="AU24" s="7"/>
     </row>
-    <row r="25" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="25" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="7">
         <v>70001207</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E25" s="7">
         <v>1</v>
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AM25" s="11"/>
       <c r="AN25" s="7">
@@ -8757,12 +8757,12 @@
       <c r="AT25" s="7"/>
       <c r="AU25" s="7"/>
     </row>
-    <row r="26" spans="3:47" s="17" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="26" spans="3:47" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C26" s="15">
         <v>70001208</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E26" s="15">
         <v>1</v>
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="AL26" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AM26" s="16"/>
       <c r="AN26" s="15">
@@ -8891,7 +8891,7 @@
         <v>70001209</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E27" s="7">
         <v>3</v>
@@ -8993,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AM27" s="11"/>
       <c r="AN27" s="7">
@@ -9006,7 +9006,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ27" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AR27" s="7"/>
       <c r="AS27" s="7">
@@ -9015,7 +9015,7 @@
       <c r="AT27" s="7"/>
       <c r="AU27" s="7"/>
     </row>
-    <row r="28" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="28" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C28" s="7">
         <v>70002001</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AM28" s="11"/>
       <c r="AN28" s="7">
@@ -9144,7 +9144,7 @@
       <c r="AT28" s="7"/>
       <c r="AU28" s="7"/>
     </row>
-    <row r="29" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="29" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C29" s="7">
         <v>70002002</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AM29" s="11"/>
       <c r="AN29" s="7">
@@ -9380,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="AL30" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AM30" s="11"/>
       <c r="AN30" s="7">
@@ -9393,7 +9393,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ30" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AR30" s="7"/>
       <c r="AS30" s="7">
@@ -9402,12 +9402,12 @@
       <c r="AT30" s="7"/>
       <c r="AU30" s="12"/>
     </row>
-    <row r="31" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="31" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C31" s="7">
         <v>70002004</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E31" s="7">
         <v>1</v>
@@ -9509,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="AL31" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AM31" s="11"/>
       <c r="AN31" s="7">
@@ -9531,12 +9531,12 @@
       <c r="AT31" s="7"/>
       <c r="AU31" s="13"/>
     </row>
-    <row r="32" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="32" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C32" s="7">
         <v>70002005</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E32" s="7">
         <v>1</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="AL32" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM32" s="11"/>
       <c r="AN32" s="7">
@@ -9665,7 +9665,7 @@
         <v>70002006</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E33" s="7">
         <v>3</v>
@@ -9767,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AM33" s="11"/>
       <c r="AN33" s="7">
@@ -9780,7 +9780,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ33" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AR33" s="7"/>
       <c r="AS33" s="7">
@@ -9794,7 +9794,7 @@
         <v>70002007</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E34" s="7">
         <v>3</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="AL34" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AM34" s="11"/>
       <c r="AN34" s="7">
@@ -9909,7 +9909,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ34" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AR34" s="7"/>
       <c r="AS34" s="7">
@@ -9918,7 +9918,7 @@
       <c r="AT34" s="7"/>
       <c r="AU34" s="7"/>
     </row>
-    <row r="35" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="35" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C35" s="7">
         <v>70002008</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="AL35" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AM35" s="11"/>
       <c r="AN35" s="7">
@@ -10047,12 +10047,12 @@
       <c r="AT35" s="7"/>
       <c r="AU35" s="13"/>
     </row>
-    <row r="36" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="36" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C36" s="7">
         <v>70002009</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E36" s="7">
         <v>1</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AM36" s="11"/>
       <c r="AN36" s="7">
@@ -10176,12 +10176,12 @@
       <c r="AT36" s="7"/>
       <c r="AU36" s="13"/>
     </row>
-    <row r="37" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="37" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C37" s="7">
         <v>70002010</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E37" s="7">
         <v>1</v>
@@ -10283,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AM37" s="11"/>
       <c r="AN37" s="7">
@@ -10305,12 +10305,12 @@
       <c r="AT37" s="7"/>
       <c r="AU37" s="13"/>
     </row>
-    <row r="38" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="38" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C38" s="7">
         <v>70002011</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E38" s="7">
         <v>1</v>
@@ -10412,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="AL38" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AM38" s="11"/>
       <c r="AN38" s="7">
@@ -10439,7 +10439,7 @@
         <v>70002012</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E39" s="7">
         <v>3</v>
@@ -10541,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="AL39" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AM39" s="11"/>
       <c r="AN39" s="7">
@@ -10554,7 +10554,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ39" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AR39" s="7"/>
       <c r="AS39" s="7">
@@ -10563,7 +10563,7 @@
       <c r="AT39" s="7"/>
       <c r="AU39" s="13"/>
     </row>
-    <row r="40" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="40" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C40" s="7">
         <v>70003001</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM40" s="11"/>
       <c r="AN40" s="7">
@@ -10692,7 +10692,7 @@
       <c r="AT40" s="7"/>
       <c r="AU40" s="7"/>
     </row>
-    <row r="41" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="41" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C41" s="7">
         <v>70003002</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>0</v>
       </c>
       <c r="AL41" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AM41" s="11"/>
       <c r="AN41" s="7">
@@ -10928,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="AL42" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AM42" s="11"/>
       <c r="AN42" s="7">
@@ -10941,7 +10941,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ42" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AR42" s="7"/>
       <c r="AS42" s="7">
@@ -10950,7 +10950,7 @@
       <c r="AT42" s="7"/>
       <c r="AU42" s="7"/>
     </row>
-    <row r="43" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="43" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C43" s="7">
         <v>70003004</v>
       </c>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="AL43" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AM43" s="11"/>
       <c r="AN43" s="7">
@@ -11079,7 +11079,7 @@
       <c r="AT43" s="7"/>
       <c r="AU43" s="7"/>
     </row>
-    <row r="44" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="44" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C44" s="7">
         <v>70003005</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>0</v>
       </c>
       <c r="AL44" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AM44" s="11"/>
       <c r="AN44" s="7">
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="AL45" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AM45" s="11"/>
       <c r="AN45" s="7">
@@ -11328,7 +11328,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ45" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AR45" s="7"/>
       <c r="AS45" s="7">
@@ -11337,7 +11337,7 @@
       <c r="AT45" s="7"/>
       <c r="AU45" s="7"/>
     </row>
-    <row r="46" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="46" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C46" s="7">
         <v>70003007</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM46" s="11"/>
       <c r="AN46" s="7">
@@ -11466,7 +11466,7 @@
       <c r="AT46" s="7"/>
       <c r="AU46" s="7"/>
     </row>
-    <row r="47" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="47" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C47" s="7">
         <v>70003008</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>0</v>
       </c>
       <c r="AL47" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AM47" s="11"/>
       <c r="AN47" s="7">
@@ -11595,7 +11595,7 @@
       <c r="AT47" s="7"/>
       <c r="AU47" s="7"/>
     </row>
-    <row r="48" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="48" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C48" s="7">
         <v>70003009</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="AL48" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM48" s="11"/>
       <c r="AN48" s="7">
@@ -11724,7 +11724,7 @@
       <c r="AT48" s="7"/>
       <c r="AU48" s="7"/>
     </row>
-    <row r="49" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="49" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C49" s="7">
         <v>70003010</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="AL49" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AM49" s="11"/>
       <c r="AN49" s="7">
@@ -11853,7 +11853,7 @@
       <c r="AT49" s="7"/>
       <c r="AU49" s="7"/>
     </row>
-    <row r="50" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="50" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C50" s="7">
         <v>70003011</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>0</v>
       </c>
       <c r="AL50" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AM50" s="11"/>
       <c r="AN50" s="7">
@@ -12089,7 +12089,7 @@
         <v>0</v>
       </c>
       <c r="AL51" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AM51" s="11"/>
       <c r="AN51" s="7">
@@ -12102,7 +12102,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ51" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AR51" s="7"/>
       <c r="AS51" s="7">
@@ -12111,7 +12111,7 @@
       <c r="AT51" s="7"/>
       <c r="AU51" s="7"/>
     </row>
-    <row r="52" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="52" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C52" s="7">
         <v>70003013</v>
       </c>
@@ -12206,7 +12206,7 @@
         <v>1000</v>
       </c>
       <c r="AH52" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AI52" s="7">
         <v>0</v>
@@ -12218,7 +12218,7 @@
         <v>0</v>
       </c>
       <c r="AL52" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AM52" s="11"/>
       <c r="AN52" s="7">
@@ -12240,7 +12240,7 @@
       <c r="AT52" s="7"/>
       <c r="AU52" s="7"/>
     </row>
-    <row r="53" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="53" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C53" s="7">
         <v>70003014</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>0</v>
       </c>
       <c r="AL53" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM53" s="11"/>
       <c r="AN53" s="7">
@@ -12369,7 +12369,7 @@
       <c r="AT53" s="7"/>
       <c r="AU53" s="7"/>
     </row>
-    <row r="54" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="54" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C54" s="7">
         <v>70003015</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="AL54" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AM54" s="11"/>
       <c r="AN54" s="7">
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="AL55" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AM55" s="11"/>
       <c r="AN55" s="7">
@@ -12618,7 +12618,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ55" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AR55" s="7"/>
       <c r="AS55" s="7">
@@ -12627,7 +12627,7 @@
       <c r="AT55" s="7"/>
       <c r="AU55" s="7"/>
     </row>
-    <row r="56" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="56" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C56" s="7">
         <v>70004001</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>0</v>
       </c>
       <c r="AL56" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AM56" s="11"/>
       <c r="AN56" s="7">
@@ -12756,7 +12756,7 @@
       <c r="AT56" s="7"/>
       <c r="AU56" s="7"/>
     </row>
-    <row r="57" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="57" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C57" s="7">
         <v>70004002</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>0</v>
       </c>
       <c r="AL57" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AM57" s="11"/>
       <c r="AN57" s="7">
@@ -12992,7 +12992,7 @@
         <v>0</v>
       </c>
       <c r="AL58" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AM58" s="11"/>
       <c r="AN58" s="7">
@@ -13005,7 +13005,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ58" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AR58" s="7"/>
       <c r="AS58" s="7">
@@ -13014,7 +13014,7 @@
       <c r="AT58" s="7"/>
       <c r="AU58" s="7"/>
     </row>
-    <row r="59" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="59" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C59" s="7">
         <v>70004004</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="AL59" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AM59" s="11"/>
       <c r="AN59" s="7">
@@ -13143,7 +13143,7 @@
       <c r="AT59" s="7"/>
       <c r="AU59" s="14"/>
     </row>
-    <row r="60" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="60" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C60" s="7">
         <v>70004005</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>0</v>
       </c>
       <c r="AL60" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AM60" s="11"/>
       <c r="AN60" s="7">
@@ -13379,7 +13379,7 @@
         <v>0</v>
       </c>
       <c r="AL61" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AM61" s="11"/>
       <c r="AN61" s="7">
@@ -13392,7 +13392,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ61" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AR61" s="7"/>
       <c r="AS61" s="7">
@@ -13401,12 +13401,12 @@
       <c r="AT61" s="7"/>
       <c r="AU61" s="14"/>
     </row>
-    <row r="62" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="62" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C62" s="7">
         <v>70004007</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E62" s="7">
         <v>1</v>
@@ -13508,7 +13508,7 @@
         <v>0</v>
       </c>
       <c r="AL62" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AM62" s="11"/>
       <c r="AN62" s="7">
@@ -13530,12 +13530,12 @@
       <c r="AT62" s="7"/>
       <c r="AU62" s="14"/>
     </row>
-    <row r="63" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="63" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C63" s="7">
         <v>70004008</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E63" s="7">
         <v>1</v>
@@ -13637,7 +13637,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AM63" s="11"/>
       <c r="AN63" s="7">
@@ -13659,7 +13659,7 @@
       <c r="AT63" s="7"/>
       <c r="AU63" s="7"/>
     </row>
-    <row r="64" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="64" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C64" s="7">
         <v>70004009</v>
       </c>
@@ -13766,7 +13766,7 @@
         <v>0</v>
       </c>
       <c r="AL64" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AM64" s="11"/>
       <c r="AN64" s="7">
@@ -13895,7 +13895,7 @@
         <v>0</v>
       </c>
       <c r="AL65" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AM65" s="11"/>
       <c r="AN65" s="7">
@@ -13908,7 +13908,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ65" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AR65" s="7"/>
       <c r="AS65" s="7">
@@ -13917,7 +13917,7 @@
       <c r="AT65" s="7"/>
       <c r="AU65" s="7"/>
     </row>
-    <row r="66" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="66" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C66" s="7">
         <v>70004011</v>
       </c>
@@ -14024,7 +14024,7 @@
         <v>0</v>
       </c>
       <c r="AL66" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM66" s="11"/>
       <c r="AN66" s="7">
@@ -14046,7 +14046,7 @@
       <c r="AT66" s="7"/>
       <c r="AU66" s="7"/>
     </row>
-    <row r="67" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="67" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C67" s="7">
         <v>70004012</v>
       </c>
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="AL67" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM67" s="11"/>
       <c r="AN67" s="7">
@@ -14282,7 +14282,7 @@
         <v>0</v>
       </c>
       <c r="AL68" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AM68" s="11"/>
       <c r="AN68" s="7">
@@ -14295,7 +14295,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ68" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AR68" s="7"/>
       <c r="AS68" s="7">
@@ -14304,7 +14304,7 @@
       <c r="AT68" s="7"/>
       <c r="AU68" s="7"/>
     </row>
-    <row r="69" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="69" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C69" s="7">
         <v>70005001</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>0</v>
       </c>
       <c r="AL69" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AM69" s="11"/>
       <c r="AN69" s="7">
@@ -14433,7 +14433,7 @@
       <c r="AT69" s="7"/>
       <c r="AU69" s="7"/>
     </row>
-    <row r="70" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="70" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C70" s="7">
         <v>70005002</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>0</v>
       </c>
       <c r="AL70" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AM70" s="11"/>
       <c r="AN70" s="7">
@@ -14553,7 +14553,7 @@
         <v>70000002</v>
       </c>
       <c r="AQ70" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AR70" s="7"/>
       <c r="AS70" s="7">
@@ -14669,7 +14669,7 @@
         <v>0</v>
       </c>
       <c r="AL71" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AM71" s="11"/>
       <c r="AN71" s="7">
@@ -14682,7 +14682,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ71" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AR71" s="7"/>
       <c r="AS71" s="7">
@@ -14696,7 +14696,7 @@
         <v>70005004</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E72" s="7">
         <v>3</v>
@@ -14798,7 +14798,7 @@
         <v>0</v>
       </c>
       <c r="AL72" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AM72" s="11"/>
       <c r="AN72" s="7">
@@ -14811,7 +14811,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ72" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AR72" s="7"/>
       <c r="AS72" s="7">
@@ -14820,12 +14820,12 @@
       <c r="AT72" s="7"/>
       <c r="AU72" s="7"/>
     </row>
-    <row r="73" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="73" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C73" s="7">
         <v>70005006</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E73" s="7">
         <v>1</v>
@@ -14927,7 +14927,7 @@
         <v>0</v>
       </c>
       <c r="AL73" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AM73" s="11"/>
       <c r="AN73" s="7">
@@ -14949,12 +14949,12 @@
       <c r="AT73" s="7"/>
       <c r="AU73" s="7"/>
     </row>
-    <row r="74" spans="3:47" s="26" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="74" spans="3:47" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C74" s="27">
         <v>70005007</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E74" s="27">
         <v>1</v>
@@ -15056,7 +15056,7 @@
         <v>0</v>
       </c>
       <c r="AL74" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM74" s="28"/>
       <c r="AN74" s="27">
@@ -15078,12 +15078,12 @@
       <c r="AT74" s="27"/>
       <c r="AU74" s="27"/>
     </row>
-    <row r="75" spans="3:47" s="26" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="75" spans="3:47" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C75" s="27">
         <v>70005008</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E75" s="27">
         <v>1</v>
@@ -15185,7 +15185,7 @@
         <v>0</v>
       </c>
       <c r="AL75" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AM75" s="28"/>
       <c r="AN75" s="27">
@@ -15207,12 +15207,12 @@
       <c r="AT75" s="27"/>
       <c r="AU75" s="27"/>
     </row>
-    <row r="76" spans="3:47" s="26" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="76" spans="3:47" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C76" s="27">
         <v>70005009</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E76" s="27">
         <v>1</v>
@@ -15314,7 +15314,7 @@
         <v>0</v>
       </c>
       <c r="AL76" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AM76" s="28"/>
       <c r="AN76" s="27">
@@ -15336,12 +15336,12 @@
       <c r="AT76" s="27"/>
       <c r="AU76" s="27"/>
     </row>
-    <row r="77" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="77" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C77" s="7">
         <v>70005010</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E77" s="7">
         <v>1</v>
@@ -15443,7 +15443,7 @@
         <v>0</v>
       </c>
       <c r="AL77" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM77" s="11"/>
       <c r="AN77" s="7">
@@ -15456,7 +15456,7 @@
         <v>70000002</v>
       </c>
       <c r="AQ77" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AR77" s="7"/>
       <c r="AS77" s="7">
@@ -15572,7 +15572,7 @@
         <v>0</v>
       </c>
       <c r="AL78" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AM78" s="11"/>
       <c r="AN78" s="7">
@@ -15701,7 +15701,7 @@
         <v>0</v>
       </c>
       <c r="AL79" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AM79" s="11"/>
       <c r="AN79" s="7">
@@ -15714,7 +15714,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ79" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AR79" s="7"/>
       <c r="AS79" s="7">
@@ -15830,7 +15830,7 @@
         <v>0</v>
       </c>
       <c r="AL80" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AM80" s="11"/>
       <c r="AN80" s="7">
@@ -15843,7 +15843,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ80" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AR80" s="7"/>
       <c r="AS80" s="7">
@@ -15852,7 +15852,7 @@
       <c r="AT80" s="7"/>
       <c r="AU80" s="14"/>
     </row>
-    <row r="81" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="81" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C81" s="7">
         <v>70009001</v>
       </c>
@@ -15981,7 +15981,7 @@
       <c r="AT81" s="7"/>
       <c r="AU81" s="7"/>
     </row>
-    <row r="82" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="82" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C82" s="7">
         <v>70009002</v>
       </c>
@@ -16110,12 +16110,12 @@
       <c r="AT82" s="7"/>
       <c r="AU82" s="14"/>
     </row>
-    <row r="83" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="83" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C83" s="7">
         <v>70009003</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E83" s="7">
         <v>1</v>
@@ -16239,7 +16239,7 @@
       <c r="AT83" s="7"/>
       <c r="AU83" s="14"/>
     </row>
-    <row r="84" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="84" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C84" s="7">
         <v>70009004</v>
       </c>
@@ -16368,7 +16368,7 @@
       <c r="AT84" s="7"/>
       <c r="AU84" s="14"/>
     </row>
-    <row r="85" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="85" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C85" s="7">
         <v>70009301</v>
       </c>
@@ -16497,7 +16497,7 @@
       <c r="AT85" s="7"/>
       <c r="AU85" s="14"/>
     </row>
-    <row r="86" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="86" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C86" s="7">
         <v>70009302</v>
       </c>
@@ -16626,7 +16626,7 @@
       <c r="AT86" s="7"/>
       <c r="AU86" s="7"/>
     </row>
-    <row r="87" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="87" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C87" s="7">
         <v>70009303</v>
       </c>
@@ -16746,7 +16746,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ87" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AR87" s="7"/>
       <c r="AS87" s="7">
@@ -16755,7 +16755,7 @@
       <c r="AT87" s="7"/>
       <c r="AU87" s="7"/>
     </row>
-    <row r="88" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="88" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C88" s="7">
         <v>70009401</v>
       </c>
@@ -16884,7 +16884,7 @@
       <c r="AT88" s="7"/>
       <c r="AU88" s="14"/>
     </row>
-    <row r="89" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="89" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C89" s="7">
         <v>70009402</v>
       </c>
@@ -17013,7 +17013,7 @@
       <c r="AT89" s="7"/>
       <c r="AU89" s="7"/>
     </row>
-    <row r="90" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="90" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C90" s="7">
         <v>70009403</v>
       </c>
@@ -17142,7 +17142,7 @@
       <c r="AT90" s="7"/>
       <c r="AU90" s="7"/>
     </row>
-    <row r="91" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="91" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C91" s="7">
         <v>70009404</v>
       </c>
@@ -17262,7 +17262,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ91" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AR91" s="7"/>
       <c r="AS91" s="7">
@@ -17271,7 +17271,7 @@
       <c r="AT91" s="7"/>
       <c r="AU91" s="7"/>
     </row>
-    <row r="92" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="92" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C92" s="7">
         <v>70009410</v>
       </c>
@@ -17400,7 +17400,7 @@
       <c r="AT92" s="7"/>
       <c r="AU92" s="7"/>
     </row>
-    <row r="93" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="93" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C93" s="7">
         <v>70009501</v>
       </c>
@@ -17529,12 +17529,12 @@
       <c r="AT93" s="7"/>
       <c r="AU93" s="7"/>
     </row>
-    <row r="94" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="94" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C94" s="7">
         <v>70009502</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E94" s="7">
         <v>1</v>
@@ -17658,7 +17658,7 @@
       <c r="AT94" s="7"/>
       <c r="AU94" s="7"/>
     </row>
-    <row r="95" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="95" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C95" s="7">
         <v>70009503</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ95" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AR95" s="7"/>
       <c r="AS95" s="7">
@@ -17787,7 +17787,7 @@
       <c r="AT95" s="7"/>
       <c r="AU95" s="7"/>
     </row>
-    <row r="96" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="96" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C96" s="7">
         <v>70009504</v>
       </c>
@@ -17907,7 +17907,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ96" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AR96" s="7"/>
       <c r="AS96" s="7">
@@ -17916,7 +17916,7 @@
       <c r="AT96" s="7"/>
       <c r="AU96" s="7"/>
     </row>
-    <row r="97" spans="3:47" s="25" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="97" spans="3:47" s="25" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C97" s="23">
         <v>71001001</v>
       </c>
@@ -18045,12 +18045,12 @@
       <c r="AT97" s="23"/>
       <c r="AU97" s="23"/>
     </row>
-    <row r="98" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="98" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C98" s="7">
         <v>72001001</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E98" s="7">
         <v>1</v>
@@ -18152,7 +18152,7 @@
         <v>0</v>
       </c>
       <c r="AL98" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AM98" s="11"/>
       <c r="AN98" s="7">
@@ -18174,12 +18174,12 @@
       <c r="AT98" s="7"/>
       <c r="AU98" s="14"/>
     </row>
-    <row r="99" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="99" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C99" s="7">
         <v>72001002</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E99" s="7">
         <v>1</v>
@@ -18281,7 +18281,7 @@
         <v>0</v>
       </c>
       <c r="AL99" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AM99" s="11"/>
       <c r="AN99" s="7">
@@ -18303,12 +18303,12 @@
       <c r="AT99" s="7"/>
       <c r="AU99" s="14"/>
     </row>
-    <row r="100" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="100" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C100" s="7">
         <v>72001003</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E100" s="7">
         <v>1</v>
@@ -18410,7 +18410,7 @@
         <v>0</v>
       </c>
       <c r="AL100" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AM100" s="11"/>
       <c r="AN100" s="7">
@@ -18432,12 +18432,12 @@
       <c r="AT100" s="7"/>
       <c r="AU100" s="14"/>
     </row>
-    <row r="101" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="101" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C101" s="7">
         <v>72001004</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E101" s="7">
         <v>1</v>
@@ -18539,7 +18539,7 @@
         <v>0</v>
       </c>
       <c r="AL101" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AM101" s="11"/>
       <c r="AN101" s="7">
@@ -18566,7 +18566,7 @@
         <v>72001011</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E102" s="7">
         <v>3</v>
@@ -18668,7 +18668,7 @@
         <v>0</v>
       </c>
       <c r="AL102" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AM102" s="11"/>
       <c r="AN102" s="7">
@@ -18681,7 +18681,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ102" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AR102" s="7"/>
       <c r="AS102" s="7">
@@ -18695,7 +18695,7 @@
         <v>72001012</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E103" s="7">
         <v>3</v>
@@ -18797,7 +18797,7 @@
         <v>0</v>
       </c>
       <c r="AL103" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AM103" s="11"/>
       <c r="AN103" s="7">
@@ -18810,7 +18810,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ103" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AR103" s="7"/>
       <c r="AS103" s="7">
@@ -18824,7 +18824,7 @@
         <v>72001013</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E104" s="7">
         <v>3</v>
@@ -18926,7 +18926,7 @@
         <v>0</v>
       </c>
       <c r="AL104" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AM104" s="11"/>
       <c r="AN104" s="7">
@@ -18939,7 +18939,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ104" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AR104" s="7"/>
       <c r="AS104" s="7">
@@ -18948,12 +18948,12 @@
       <c r="AT104" s="7"/>
       <c r="AU104" s="7"/>
     </row>
-    <row r="105" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="105" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C105" s="7">
         <v>72002001</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E105" s="7">
         <v>1</v>
@@ -19055,7 +19055,7 @@
         <v>0</v>
       </c>
       <c r="AL105" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AM105" s="11"/>
       <c r="AN105" s="7">
@@ -19077,12 +19077,12 @@
       <c r="AT105" s="7"/>
       <c r="AU105" s="14"/>
     </row>
-    <row r="106" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="106" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C106" s="7">
         <v>72002002</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E106" s="7">
         <v>1</v>
@@ -19184,7 +19184,7 @@
         <v>0</v>
       </c>
       <c r="AL106" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AM106" s="11"/>
       <c r="AN106" s="7">
@@ -19206,12 +19206,12 @@
       <c r="AT106" s="7"/>
       <c r="AU106" s="14"/>
     </row>
-    <row r="107" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="107" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C107" s="7">
         <v>72002003</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E107" s="7">
         <v>1</v>
@@ -19313,7 +19313,7 @@
         <v>0</v>
       </c>
       <c r="AL107" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AM107" s="11"/>
       <c r="AN107" s="7">
@@ -19335,12 +19335,12 @@
       <c r="AT107" s="7"/>
       <c r="AU107" s="14"/>
     </row>
-    <row r="108" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="108" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C108" s="7">
         <v>72002004</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E108" s="7">
         <v>1</v>
@@ -19442,7 +19442,7 @@
         <v>0</v>
       </c>
       <c r="AL108" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AM108" s="11"/>
       <c r="AN108" s="7">
@@ -19464,12 +19464,12 @@
       <c r="AT108" s="7"/>
       <c r="AU108" s="14"/>
     </row>
-    <row r="109" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="109" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C109" s="7">
         <v>72002005</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E109" s="7">
         <v>1</v>
@@ -19571,7 +19571,7 @@
         <v>0</v>
       </c>
       <c r="AL109" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AM109" s="11"/>
       <c r="AN109" s="7">
@@ -19598,7 +19598,7 @@
         <v>72002011</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E110" s="7">
         <v>3</v>
@@ -19700,7 +19700,7 @@
         <v>0</v>
       </c>
       <c r="AL110" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AM110" s="11"/>
       <c r="AN110" s="7">
@@ -19713,7 +19713,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ110" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AR110" s="7"/>
       <c r="AS110" s="7">
@@ -19727,7 +19727,7 @@
         <v>72002012</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E111" s="7">
         <v>3</v>
@@ -19829,7 +19829,7 @@
         <v>0</v>
       </c>
       <c r="AL111" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AM111" s="11"/>
       <c r="AN111" s="7">
@@ -19842,7 +19842,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ111" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AR111" s="7"/>
       <c r="AS111" s="7">
@@ -19856,7 +19856,7 @@
         <v>72002013</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E112" s="7">
         <v>3</v>
@@ -19958,7 +19958,7 @@
         <v>0</v>
       </c>
       <c r="AL112" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AM112" s="11"/>
       <c r="AN112" s="7">
@@ -19971,7 +19971,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ112" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AR112" s="7"/>
       <c r="AS112" s="7">
@@ -19980,12 +19980,12 @@
       <c r="AT112" s="7"/>
       <c r="AU112" s="7"/>
     </row>
-    <row r="113" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="113" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C113" s="7">
         <v>72003001</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E113" s="7">
         <v>1</v>
@@ -20087,7 +20087,7 @@
         <v>0</v>
       </c>
       <c r="AL113" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AM113" s="11"/>
       <c r="AN113" s="7">
@@ -20109,12 +20109,12 @@
       <c r="AT113" s="7"/>
       <c r="AU113" s="14"/>
     </row>
-    <row r="114" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="114" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C114" s="7">
         <v>72003002</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E114" s="7">
         <v>1</v>
@@ -20216,7 +20216,7 @@
         <v>0</v>
       </c>
       <c r="AL114" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AM114" s="11"/>
       <c r="AN114" s="7">
@@ -20238,12 +20238,12 @@
       <c r="AT114" s="7"/>
       <c r="AU114" s="14"/>
     </row>
-    <row r="115" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="115" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C115" s="7">
         <v>72003003</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E115" s="7">
         <v>1</v>
@@ -20345,7 +20345,7 @@
         <v>0</v>
       </c>
       <c r="AL115" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AM115" s="11"/>
       <c r="AN115" s="7">
@@ -20367,12 +20367,12 @@
       <c r="AT115" s="7"/>
       <c r="AU115" s="14"/>
     </row>
-    <row r="116" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="116" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C116" s="7">
         <v>72003004</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E116" s="7">
         <v>1</v>
@@ -20474,7 +20474,7 @@
         <v>0</v>
       </c>
       <c r="AL116" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AM116" s="11"/>
       <c r="AN116" s="7">
@@ -20496,12 +20496,12 @@
       <c r="AT116" s="7"/>
       <c r="AU116" s="14"/>
     </row>
-    <row r="117" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="117" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C117" s="7">
         <v>72003005</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E117" s="7">
         <v>1</v>
@@ -20603,7 +20603,7 @@
         <v>0</v>
       </c>
       <c r="AL117" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AM117" s="11"/>
       <c r="AN117" s="7">
@@ -20630,7 +20630,7 @@
         <v>72003011</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E118" s="7">
         <v>3</v>
@@ -20732,7 +20732,7 @@
         <v>0</v>
       </c>
       <c r="AL118" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AM118" s="11"/>
       <c r="AN118" s="7">
@@ -20745,7 +20745,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ118" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AR118" s="7"/>
       <c r="AS118" s="7">
@@ -20759,7 +20759,7 @@
         <v>72003012</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E119" s="7">
         <v>3</v>
@@ -20861,7 +20861,7 @@
         <v>0</v>
       </c>
       <c r="AL119" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AM119" s="11"/>
       <c r="AN119" s="7">
@@ -20874,7 +20874,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ119" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AR119" s="7"/>
       <c r="AS119" s="7">
@@ -20888,7 +20888,7 @@
         <v>72003013</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E120" s="7">
         <v>3</v>
@@ -20990,7 +20990,7 @@
         <v>0</v>
       </c>
       <c r="AL120" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AM120" s="11"/>
       <c r="AN120" s="7">
@@ -21003,7 +21003,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ120" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AR120" s="7"/>
       <c r="AS120" s="7">
@@ -21012,12 +21012,12 @@
       <c r="AT120" s="7"/>
       <c r="AU120" s="7"/>
     </row>
-    <row r="121" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="121" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C121" s="7">
         <v>72004001</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E121" s="7">
         <v>1</v>
@@ -21119,7 +21119,7 @@
         <v>0</v>
       </c>
       <c r="AL121" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AM121" s="11"/>
       <c r="AN121" s="7">
@@ -21141,12 +21141,12 @@
       <c r="AT121" s="7"/>
       <c r="AU121" s="14"/>
     </row>
-    <row r="122" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="122" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C122" s="7">
         <v>72004002</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E122" s="7">
         <v>1</v>
@@ -21248,7 +21248,7 @@
         <v>0</v>
       </c>
       <c r="AL122" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AM122" s="11"/>
       <c r="AN122" s="7">
@@ -21270,12 +21270,12 @@
       <c r="AT122" s="7"/>
       <c r="AU122" s="14"/>
     </row>
-    <row r="123" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="123" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C123" s="7">
         <v>72004003</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E123" s="7">
         <v>1</v>
@@ -21377,7 +21377,7 @@
         <v>0</v>
       </c>
       <c r="AL123" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AM123" s="11"/>
       <c r="AN123" s="7">
@@ -21399,12 +21399,12 @@
       <c r="AT123" s="7"/>
       <c r="AU123" s="14"/>
     </row>
-    <row r="124" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="124" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C124" s="7">
         <v>72004004</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E124" s="7">
         <v>1</v>
@@ -21506,7 +21506,7 @@
         <v>0</v>
       </c>
       <c r="AL124" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AM124" s="11"/>
       <c r="AN124" s="7">
@@ -21533,7 +21533,7 @@
         <v>72004011</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E125" s="7">
         <v>3</v>
@@ -21635,7 +21635,7 @@
         <v>0</v>
       </c>
       <c r="AL125" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AM125" s="11"/>
       <c r="AN125" s="7">
@@ -21648,7 +21648,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ125" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AR125" s="7"/>
       <c r="AS125" s="7">
@@ -21662,7 +21662,7 @@
         <v>72004012</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E126" s="7">
         <v>3</v>
@@ -21764,7 +21764,7 @@
         <v>0</v>
       </c>
       <c r="AL126" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AM126" s="11"/>
       <c r="AN126" s="7">
@@ -21777,7 +21777,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ126" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AR126" s="7"/>
       <c r="AS126" s="7">
@@ -21791,7 +21791,7 @@
         <v>72004013</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E127" s="7">
         <v>3</v>
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="AL127" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AM127" s="11"/>
       <c r="AN127" s="7">
@@ -21906,7 +21906,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ127" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AR127" s="7"/>
       <c r="AS127" s="7">
@@ -21915,7 +21915,7 @@
       <c r="AT127" s="7"/>
       <c r="AU127" s="7"/>
     </row>
-    <row r="128" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="128" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C128" s="7">
         <v>79999998</v>
       </c>
@@ -22044,7 +22044,7 @@
       <c r="AT128" s="7"/>
       <c r="AU128" s="7"/>
     </row>
-    <row r="129" spans="1:49" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="129" spans="1:49" ht="20.100000000000001" customHeight="1">
       <c r="C129" s="7">
         <v>79999999</v>
       </c>
@@ -22173,12 +22173,12 @@
       <c r="AT129" s="7"/>
       <c r="AU129" s="7"/>
     </row>
-    <row r="130" spans="1:49" s="20" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="130" spans="1:49" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C130" s="7">
         <v>41001007</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E130" s="7">
         <v>5</v>
@@ -22303,12 +22303,12 @@
       </c>
       <c r="AW130" s="21"/>
     </row>
-    <row r="131" spans="1:49" s="20" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="131" spans="1:49" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C131" s="7">
         <v>41001008</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E131" s="7">
         <v>5</v>
@@ -22433,14 +22433,14 @@
       </c>
       <c r="AW131" s="21"/>
     </row>
-    <row r="132" spans="1:49" s="22" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="132" spans="1:49" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A132" s="20"/>
       <c r="B132" s="20"/>
       <c r="C132" s="7">
         <v>41001009</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E132" s="7">
         <v>5</v>
@@ -22564,14 +22564,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:49" s="22" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="133" spans="1:49" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A133" s="20"/>
       <c r="B133" s="20"/>
       <c r="C133" s="7">
         <v>41001010</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E133" s="7">
         <v>5</v>
@@ -22695,14 +22695,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:49" s="22" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="134" spans="1:49" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A134" s="20"/>
       <c r="B134" s="20"/>
       <c r="C134" s="7">
         <v>41002001</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E134" s="7">
         <v>5</v>
@@ -22826,14 +22826,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:49" s="22" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="135" spans="1:49" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A135" s="20"/>
       <c r="B135" s="20"/>
       <c r="C135" s="7">
         <v>41002002</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E135" s="7">
         <v>5</v>
@@ -22957,14 +22957,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:49" s="22" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="136" spans="1:49" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A136" s="20"/>
       <c r="B136" s="20"/>
       <c r="C136" s="7">
         <v>41003001</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E136" s="7">
         <v>5</v>
@@ -23088,14 +23088,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:49" s="22" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="137" spans="1:49" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A137" s="20"/>
       <c r="B137" s="20"/>
       <c r="C137" s="7">
         <v>41004001</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E137" s="7">
         <v>5</v>
@@ -23219,14 +23219,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:49" s="22" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="138" spans="1:49" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A138" s="20"/>
       <c r="B138" s="20"/>
       <c r="C138" s="7">
         <v>41005001</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E138" s="7">
         <v>5</v>
@@ -23350,12 +23350,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:49" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="139" spans="1:49" ht="20.100000000000001" customHeight="1">
       <c r="C139" s="7">
         <v>73001001</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E139" s="7">
         <v>1</v>
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="AL139" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM139" s="11"/>
       <c r="AN139" s="7">
@@ -23479,12 +23479,12 @@
       <c r="AT139" s="7"/>
       <c r="AU139" s="7"/>
     </row>
-    <row r="140" spans="1:49" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="140" spans="1:49" ht="20.100000000000001" customHeight="1">
       <c r="C140" s="7">
         <v>73001002</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E140" s="7">
         <v>1</v>
@@ -23586,7 +23586,7 @@
         <v>0</v>
       </c>
       <c r="AL140" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM140" s="11"/>
       <c r="AN140" s="7">
@@ -23608,12 +23608,12 @@
       <c r="AT140" s="7"/>
       <c r="AU140" s="7"/>
     </row>
-    <row r="141" spans="1:49" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="141" spans="1:49" ht="20.100000000000001" customHeight="1">
       <c r="C141" s="7">
         <v>73001003</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E141" s="7">
         <v>1</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="AL141" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM141" s="11"/>
       <c r="AN141" s="7">
@@ -23737,12 +23737,12 @@
       <c r="AT141" s="7"/>
       <c r="AU141" s="7"/>
     </row>
-    <row r="142" spans="1:49" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="142" spans="1:49" ht="20.100000000000001" customHeight="1">
       <c r="C142" s="7">
         <v>73001004</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E142" s="7">
         <v>1</v>
@@ -23844,7 +23844,7 @@
         <v>0</v>
       </c>
       <c r="AL142" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM142" s="11"/>
       <c r="AN142" s="7">
@@ -23866,12 +23866,12 @@
       <c r="AT142" s="7"/>
       <c r="AU142" s="7"/>
     </row>
-    <row r="143" spans="1:49" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="143" spans="1:49" ht="20.100000000000001" customHeight="1">
       <c r="C143" s="7">
         <v>73001005</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E143" s="7">
         <v>1</v>
@@ -23973,7 +23973,7 @@
         <v>0</v>
       </c>
       <c r="AL143" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM143" s="11"/>
       <c r="AN143" s="7">
@@ -23995,13 +23995,13 @@
       <c r="AT143" s="7"/>
       <c r="AU143" s="7"/>
     </row>
-    <row r="144" spans="1:49" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="144" spans="1:49" ht="20.100000000000001" customHeight="1">
       <c r="C144" s="7">
         <f>C139+1000</f>
         <v>73002001</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E144" s="7">
         <v>1</v>
@@ -24103,7 +24103,7 @@
         <v>0</v>
       </c>
       <c r="AL144" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM144" s="11"/>
       <c r="AN144" s="7">
@@ -24125,13 +24125,13 @@
       <c r="AT144" s="7"/>
       <c r="AU144" s="7"/>
     </row>
-    <row r="145" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="145" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C145" s="7">
         <f t="shared" ref="C145:C208" si="0">C140+1000</f>
         <v>73002002</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E145" s="7">
         <v>1</v>
@@ -24233,7 +24233,7 @@
         <v>0</v>
       </c>
       <c r="AL145" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM145" s="11"/>
       <c r="AN145" s="7">
@@ -24255,13 +24255,13 @@
       <c r="AT145" s="7"/>
       <c r="AU145" s="7"/>
     </row>
-    <row r="146" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="146" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C146" s="7">
         <f t="shared" si="0"/>
         <v>73002003</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E146" s="7">
         <v>1</v>
@@ -24363,7 +24363,7 @@
         <v>0</v>
       </c>
       <c r="AL146" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM146" s="11"/>
       <c r="AN146" s="7">
@@ -24385,13 +24385,13 @@
       <c r="AT146" s="7"/>
       <c r="AU146" s="7"/>
     </row>
-    <row r="147" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="147" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C147" s="7">
         <f t="shared" si="0"/>
         <v>73002004</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E147" s="7">
         <v>1</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="AL147" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM147" s="11"/>
       <c r="AN147" s="7">
@@ -24515,13 +24515,13 @@
       <c r="AT147" s="7"/>
       <c r="AU147" s="7"/>
     </row>
-    <row r="148" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="148" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C148" s="7">
         <f t="shared" si="0"/>
         <v>73002005</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E148" s="7">
         <v>1</v>
@@ -24623,7 +24623,7 @@
         <v>0</v>
       </c>
       <c r="AL148" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM148" s="11"/>
       <c r="AN148" s="7">
@@ -24645,13 +24645,13 @@
       <c r="AT148" s="7"/>
       <c r="AU148" s="7"/>
     </row>
-    <row r="149" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="149" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C149" s="7">
         <f t="shared" si="0"/>
         <v>73003001</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E149" s="7">
         <v>1</v>
@@ -24753,7 +24753,7 @@
         <v>0</v>
       </c>
       <c r="AL149" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM149" s="11"/>
       <c r="AN149" s="7">
@@ -24775,13 +24775,13 @@
       <c r="AT149" s="7"/>
       <c r="AU149" s="7"/>
     </row>
-    <row r="150" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="150" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C150" s="7">
         <f t="shared" si="0"/>
         <v>73003002</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E150" s="7">
         <v>1</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="AL150" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM150" s="11"/>
       <c r="AN150" s="7">
@@ -24905,13 +24905,13 @@
       <c r="AT150" s="7"/>
       <c r="AU150" s="7"/>
     </row>
-    <row r="151" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="151" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C151" s="7">
         <f t="shared" si="0"/>
         <v>73003003</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E151" s="7">
         <v>1</v>
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="AL151" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM151" s="11"/>
       <c r="AN151" s="7">
@@ -25035,13 +25035,13 @@
       <c r="AT151" s="7"/>
       <c r="AU151" s="7"/>
     </row>
-    <row r="152" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="152" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C152" s="7">
         <f t="shared" si="0"/>
         <v>73003004</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E152" s="7">
         <v>1</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="AL152" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM152" s="11"/>
       <c r="AN152" s="7">
@@ -25165,13 +25165,13 @@
       <c r="AT152" s="7"/>
       <c r="AU152" s="7"/>
     </row>
-    <row r="153" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="153" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C153" s="7">
         <f t="shared" si="0"/>
         <v>73003005</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E153" s="7">
         <v>1</v>
@@ -25273,7 +25273,7 @@
         <v>0</v>
       </c>
       <c r="AL153" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM153" s="11"/>
       <c r="AN153" s="7">
@@ -25295,13 +25295,13 @@
       <c r="AT153" s="7"/>
       <c r="AU153" s="7"/>
     </row>
-    <row r="154" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="154" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C154" s="7">
         <f t="shared" si="0"/>
         <v>73004001</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E154" s="7">
         <v>1</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="AL154" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM154" s="11"/>
       <c r="AN154" s="7">
@@ -25425,13 +25425,13 @@
       <c r="AT154" s="7"/>
       <c r="AU154" s="7"/>
     </row>
-    <row r="155" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="155" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C155" s="7">
         <f t="shared" si="0"/>
         <v>73004002</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E155" s="7">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         <v>0</v>
       </c>
       <c r="AL155" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM155" s="11"/>
       <c r="AN155" s="7">
@@ -25555,13 +25555,13 @@
       <c r="AT155" s="7"/>
       <c r="AU155" s="7"/>
     </row>
-    <row r="156" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="156" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C156" s="7">
         <f t="shared" si="0"/>
         <v>73004003</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E156" s="7">
         <v>1</v>
@@ -25663,7 +25663,7 @@
         <v>0</v>
       </c>
       <c r="AL156" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM156" s="11"/>
       <c r="AN156" s="7">
@@ -25685,13 +25685,13 @@
       <c r="AT156" s="7"/>
       <c r="AU156" s="7"/>
     </row>
-    <row r="157" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="157" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C157" s="7">
         <f t="shared" si="0"/>
         <v>73004004</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E157" s="7">
         <v>1</v>
@@ -25793,7 +25793,7 @@
         <v>0</v>
       </c>
       <c r="AL157" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM157" s="11"/>
       <c r="AN157" s="7">
@@ -25815,13 +25815,13 @@
       <c r="AT157" s="7"/>
       <c r="AU157" s="7"/>
     </row>
-    <row r="158" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="158" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C158" s="7">
         <f t="shared" si="0"/>
         <v>73004005</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E158" s="7">
         <v>1</v>
@@ -25923,7 +25923,7 @@
         <v>0</v>
       </c>
       <c r="AL158" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM158" s="11"/>
       <c r="AN158" s="7">
@@ -25945,13 +25945,13 @@
       <c r="AT158" s="7"/>
       <c r="AU158" s="7"/>
     </row>
-    <row r="159" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="159" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C159" s="7">
         <f t="shared" si="0"/>
         <v>73005001</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E159" s="7">
         <v>1</v>
@@ -26053,7 +26053,7 @@
         <v>0</v>
       </c>
       <c r="AL159" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM159" s="11"/>
       <c r="AN159" s="7">
@@ -26075,13 +26075,13 @@
       <c r="AT159" s="7"/>
       <c r="AU159" s="7"/>
     </row>
-    <row r="160" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="160" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C160" s="7">
         <f t="shared" si="0"/>
         <v>73005002</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E160" s="7">
         <v>1</v>
@@ -26183,7 +26183,7 @@
         <v>0</v>
       </c>
       <c r="AL160" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM160" s="11"/>
       <c r="AN160" s="7">
@@ -26205,13 +26205,13 @@
       <c r="AT160" s="7"/>
       <c r="AU160" s="7"/>
     </row>
-    <row r="161" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="161" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C161" s="7">
         <f t="shared" si="0"/>
         <v>73005003</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E161" s="7">
         <v>1</v>
@@ -26313,7 +26313,7 @@
         <v>0</v>
       </c>
       <c r="AL161" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM161" s="11"/>
       <c r="AN161" s="7">
@@ -26335,13 +26335,13 @@
       <c r="AT161" s="7"/>
       <c r="AU161" s="7"/>
     </row>
-    <row r="162" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="162" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C162" s="7">
         <f t="shared" si="0"/>
         <v>73005004</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E162" s="7">
         <v>1</v>
@@ -26443,7 +26443,7 @@
         <v>0</v>
       </c>
       <c r="AL162" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM162" s="11"/>
       <c r="AN162" s="7">
@@ -26465,13 +26465,13 @@
       <c r="AT162" s="7"/>
       <c r="AU162" s="7"/>
     </row>
-    <row r="163" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="163" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C163" s="7">
         <f t="shared" si="0"/>
         <v>73005005</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E163" s="7">
         <v>1</v>
@@ -26573,7 +26573,7 @@
         <v>0</v>
       </c>
       <c r="AL163" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM163" s="11"/>
       <c r="AN163" s="7">
@@ -26595,13 +26595,13 @@
       <c r="AT163" s="7"/>
       <c r="AU163" s="7"/>
     </row>
-    <row r="164" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="164" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C164" s="7">
         <f t="shared" si="0"/>
         <v>73006001</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E164" s="7">
         <v>1</v>
@@ -26703,7 +26703,7 @@
         <v>0</v>
       </c>
       <c r="AL164" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM164" s="11"/>
       <c r="AN164" s="7">
@@ -26725,13 +26725,13 @@
       <c r="AT164" s="7"/>
       <c r="AU164" s="7"/>
     </row>
-    <row r="165" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="165" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C165" s="7">
         <f t="shared" si="0"/>
         <v>73006002</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E165" s="7">
         <v>1</v>
@@ -26833,7 +26833,7 @@
         <v>0</v>
       </c>
       <c r="AL165" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM165" s="11"/>
       <c r="AN165" s="7">
@@ -26855,13 +26855,13 @@
       <c r="AT165" s="7"/>
       <c r="AU165" s="7"/>
     </row>
-    <row r="166" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="166" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C166" s="7">
         <f t="shared" si="0"/>
         <v>73006003</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E166" s="7">
         <v>1</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="AL166" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM166" s="11"/>
       <c r="AN166" s="7">
@@ -26985,13 +26985,13 @@
       <c r="AT166" s="7"/>
       <c r="AU166" s="7"/>
     </row>
-    <row r="167" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="167" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C167" s="7">
         <f t="shared" si="0"/>
         <v>73006004</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E167" s="7">
         <v>1</v>
@@ -27093,7 +27093,7 @@
         <v>0</v>
       </c>
       <c r="AL167" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM167" s="11"/>
       <c r="AN167" s="7">
@@ -27115,13 +27115,13 @@
       <c r="AT167" s="7"/>
       <c r="AU167" s="7"/>
     </row>
-    <row r="168" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="168" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C168" s="7">
         <f t="shared" si="0"/>
         <v>73006005</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E168" s="7">
         <v>1</v>
@@ -27223,7 +27223,7 @@
         <v>0</v>
       </c>
       <c r="AL168" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM168" s="11"/>
       <c r="AN168" s="7">
@@ -27245,13 +27245,13 @@
       <c r="AT168" s="7"/>
       <c r="AU168" s="7"/>
     </row>
-    <row r="169" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="169" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C169" s="7">
         <f t="shared" si="0"/>
         <v>73007001</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E169" s="7">
         <v>1</v>
@@ -27353,7 +27353,7 @@
         <v>0</v>
       </c>
       <c r="AL169" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM169" s="11"/>
       <c r="AN169" s="7">
@@ -27375,13 +27375,13 @@
       <c r="AT169" s="7"/>
       <c r="AU169" s="7"/>
     </row>
-    <row r="170" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="170" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C170" s="7">
         <f t="shared" si="0"/>
         <v>73007002</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E170" s="7">
         <v>1</v>
@@ -27483,7 +27483,7 @@
         <v>0</v>
       </c>
       <c r="AL170" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM170" s="11"/>
       <c r="AN170" s="7">
@@ -27505,13 +27505,13 @@
       <c r="AT170" s="7"/>
       <c r="AU170" s="7"/>
     </row>
-    <row r="171" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="171" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C171" s="7">
         <f t="shared" si="0"/>
         <v>73007003</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E171" s="7">
         <v>1</v>
@@ -27613,7 +27613,7 @@
         <v>0</v>
       </c>
       <c r="AL171" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM171" s="11"/>
       <c r="AN171" s="7">
@@ -27635,13 +27635,13 @@
       <c r="AT171" s="7"/>
       <c r="AU171" s="7"/>
     </row>
-    <row r="172" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="172" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C172" s="7">
         <f t="shared" si="0"/>
         <v>73007004</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E172" s="7">
         <v>1</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="AL172" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM172" s="11"/>
       <c r="AN172" s="7">
@@ -27765,13 +27765,13 @@
       <c r="AT172" s="7"/>
       <c r="AU172" s="7"/>
     </row>
-    <row r="173" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="173" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C173" s="7">
         <f t="shared" si="0"/>
         <v>73007005</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E173" s="7">
         <v>1</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="AL173" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM173" s="11"/>
       <c r="AN173" s="7">
@@ -27895,13 +27895,13 @@
       <c r="AT173" s="7"/>
       <c r="AU173" s="7"/>
     </row>
-    <row r="174" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="174" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C174" s="7">
         <f t="shared" si="0"/>
         <v>73008001</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E174" s="7">
         <v>1</v>
@@ -28003,7 +28003,7 @@
         <v>0</v>
       </c>
       <c r="AL174" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM174" s="11"/>
       <c r="AN174" s="7">
@@ -28025,13 +28025,13 @@
       <c r="AT174" s="7"/>
       <c r="AU174" s="7"/>
     </row>
-    <row r="175" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="175" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C175" s="7">
         <f t="shared" si="0"/>
         <v>73008002</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E175" s="7">
         <v>1</v>
@@ -28133,7 +28133,7 @@
         <v>0</v>
       </c>
       <c r="AL175" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM175" s="11"/>
       <c r="AN175" s="7">
@@ -28155,13 +28155,13 @@
       <c r="AT175" s="7"/>
       <c r="AU175" s="7"/>
     </row>
-    <row r="176" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="176" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C176" s="7">
         <f t="shared" si="0"/>
         <v>73008003</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E176" s="7">
         <v>1</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="AL176" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM176" s="11"/>
       <c r="AN176" s="7">
@@ -28285,13 +28285,13 @@
       <c r="AT176" s="7"/>
       <c r="AU176" s="7"/>
     </row>
-    <row r="177" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="177" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C177" s="7">
         <f t="shared" si="0"/>
         <v>73008004</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E177" s="7">
         <v>1</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="AL177" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM177" s="11"/>
       <c r="AN177" s="7">
@@ -28415,13 +28415,13 @@
       <c r="AT177" s="7"/>
       <c r="AU177" s="7"/>
     </row>
-    <row r="178" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="178" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C178" s="7">
         <f t="shared" si="0"/>
         <v>73008005</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E178" s="7">
         <v>1</v>
@@ -28523,7 +28523,7 @@
         <v>0</v>
       </c>
       <c r="AL178" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM178" s="11"/>
       <c r="AN178" s="7">
@@ -28545,13 +28545,13 @@
       <c r="AT178" s="7"/>
       <c r="AU178" s="7"/>
     </row>
-    <row r="179" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="179" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C179" s="7">
         <f t="shared" si="0"/>
         <v>73009001</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E179" s="7">
         <v>1</v>
@@ -28653,7 +28653,7 @@
         <v>0</v>
       </c>
       <c r="AL179" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM179" s="11"/>
       <c r="AN179" s="7">
@@ -28675,13 +28675,13 @@
       <c r="AT179" s="7"/>
       <c r="AU179" s="7"/>
     </row>
-    <row r="180" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="180" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C180" s="7">
         <f t="shared" si="0"/>
         <v>73009002</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E180" s="7">
         <v>1</v>
@@ -28783,7 +28783,7 @@
         <v>0</v>
       </c>
       <c r="AL180" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM180" s="11"/>
       <c r="AN180" s="7">
@@ -28805,13 +28805,13 @@
       <c r="AT180" s="7"/>
       <c r="AU180" s="7"/>
     </row>
-    <row r="181" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="181" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C181" s="7">
         <f t="shared" si="0"/>
         <v>73009003</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E181" s="7">
         <v>1</v>
@@ -28913,7 +28913,7 @@
         <v>0</v>
       </c>
       <c r="AL181" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM181" s="11"/>
       <c r="AN181" s="7">
@@ -28935,13 +28935,13 @@
       <c r="AT181" s="7"/>
       <c r="AU181" s="7"/>
     </row>
-    <row r="182" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="182" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C182" s="7">
         <f t="shared" si="0"/>
         <v>73009004</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E182" s="7">
         <v>1</v>
@@ -29043,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="AL182" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM182" s="11"/>
       <c r="AN182" s="7">
@@ -29065,13 +29065,13 @@
       <c r="AT182" s="7"/>
       <c r="AU182" s="7"/>
     </row>
-    <row r="183" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="183" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C183" s="7">
         <f t="shared" si="0"/>
         <v>73009005</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E183" s="7">
         <v>1</v>
@@ -29173,7 +29173,7 @@
         <v>0</v>
       </c>
       <c r="AL183" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM183" s="11"/>
       <c r="AN183" s="7">
@@ -29195,13 +29195,13 @@
       <c r="AT183" s="7"/>
       <c r="AU183" s="7"/>
     </row>
-    <row r="184" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="184" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C184" s="7">
         <f t="shared" si="0"/>
         <v>73010001</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E184" s="7">
         <v>1</v>
@@ -29303,7 +29303,7 @@
         <v>0</v>
       </c>
       <c r="AL184" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM184" s="11"/>
       <c r="AN184" s="7">
@@ -29325,13 +29325,13 @@
       <c r="AT184" s="7"/>
       <c r="AU184" s="7"/>
     </row>
-    <row r="185" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="185" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C185" s="7">
         <f t="shared" si="0"/>
         <v>73010002</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E185" s="7">
         <v>1</v>
@@ -29433,7 +29433,7 @@
         <v>0</v>
       </c>
       <c r="AL185" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM185" s="11"/>
       <c r="AN185" s="7">
@@ -29455,13 +29455,13 @@
       <c r="AT185" s="7"/>
       <c r="AU185" s="7"/>
     </row>
-    <row r="186" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="186" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C186" s="7">
         <f t="shared" si="0"/>
         <v>73010003</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E186" s="7">
         <v>1</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="AL186" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM186" s="11"/>
       <c r="AN186" s="7">
@@ -29585,13 +29585,13 @@
       <c r="AT186" s="7"/>
       <c r="AU186" s="7"/>
     </row>
-    <row r="187" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="187" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C187" s="7">
         <f t="shared" si="0"/>
         <v>73010004</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E187" s="7">
         <v>1</v>
@@ -29693,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="AL187" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM187" s="11"/>
       <c r="AN187" s="7">
@@ -29715,13 +29715,13 @@
       <c r="AT187" s="7"/>
       <c r="AU187" s="7"/>
     </row>
-    <row r="188" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="188" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C188" s="7">
         <f t="shared" si="0"/>
         <v>73010005</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E188" s="7">
         <v>1</v>
@@ -29823,7 +29823,7 @@
         <v>0</v>
       </c>
       <c r="AL188" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM188" s="11"/>
       <c r="AN188" s="7">
@@ -29845,13 +29845,13 @@
       <c r="AT188" s="7"/>
       <c r="AU188" s="7"/>
     </row>
-    <row r="189" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="189" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C189" s="7">
         <f t="shared" si="0"/>
         <v>73011001</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E189" s="7">
         <v>1</v>
@@ -29953,7 +29953,7 @@
         <v>0</v>
       </c>
       <c r="AL189" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM189" s="11"/>
       <c r="AN189" s="7">
@@ -29975,13 +29975,13 @@
       <c r="AT189" s="7"/>
       <c r="AU189" s="7"/>
     </row>
-    <row r="190" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="190" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C190" s="7">
         <f t="shared" si="0"/>
         <v>73011002</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E190" s="7">
         <v>1</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="AL190" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM190" s="11"/>
       <c r="AN190" s="7">
@@ -30105,13 +30105,13 @@
       <c r="AT190" s="7"/>
       <c r="AU190" s="7"/>
     </row>
-    <row r="191" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="191" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C191" s="7">
         <f t="shared" si="0"/>
         <v>73011003</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E191" s="7">
         <v>1</v>
@@ -30213,7 +30213,7 @@
         <v>0</v>
       </c>
       <c r="AL191" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM191" s="11"/>
       <c r="AN191" s="7">
@@ -30235,13 +30235,13 @@
       <c r="AT191" s="7"/>
       <c r="AU191" s="7"/>
     </row>
-    <row r="192" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="192" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C192" s="7">
         <f t="shared" si="0"/>
         <v>73011004</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E192" s="7">
         <v>1</v>
@@ -30343,7 +30343,7 @@
         <v>0</v>
       </c>
       <c r="AL192" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM192" s="11"/>
       <c r="AN192" s="7">
@@ -30365,13 +30365,13 @@
       <c r="AT192" s="7"/>
       <c r="AU192" s="7"/>
     </row>
-    <row r="193" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="193" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C193" s="7">
         <f t="shared" si="0"/>
         <v>73011005</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E193" s="7">
         <v>1</v>
@@ -30473,7 +30473,7 @@
         <v>0</v>
       </c>
       <c r="AL193" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM193" s="11"/>
       <c r="AN193" s="7">
@@ -30495,13 +30495,13 @@
       <c r="AT193" s="7"/>
       <c r="AU193" s="7"/>
     </row>
-    <row r="194" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="194" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C194" s="7">
         <f t="shared" si="0"/>
         <v>73012001</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E194" s="7">
         <v>1</v>
@@ -30603,7 +30603,7 @@
         <v>0</v>
       </c>
       <c r="AL194" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM194" s="11"/>
       <c r="AN194" s="7">
@@ -30625,13 +30625,13 @@
       <c r="AT194" s="7"/>
       <c r="AU194" s="7"/>
     </row>
-    <row r="195" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="195" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C195" s="7">
         <f t="shared" si="0"/>
         <v>73012002</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E195" s="7">
         <v>1</v>
@@ -30733,7 +30733,7 @@
         <v>0</v>
       </c>
       <c r="AL195" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM195" s="11"/>
       <c r="AN195" s="7">
@@ -30755,13 +30755,13 @@
       <c r="AT195" s="7"/>
       <c r="AU195" s="7"/>
     </row>
-    <row r="196" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="196" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C196" s="7">
         <f t="shared" si="0"/>
         <v>73012003</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E196" s="7">
         <v>1</v>
@@ -30863,7 +30863,7 @@
         <v>0</v>
       </c>
       <c r="AL196" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM196" s="11"/>
       <c r="AN196" s="7">
@@ -30885,13 +30885,13 @@
       <c r="AT196" s="7"/>
       <c r="AU196" s="7"/>
     </row>
-    <row r="197" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="197" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C197" s="7">
         <f t="shared" si="0"/>
         <v>73012004</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E197" s="7">
         <v>1</v>
@@ -30993,7 +30993,7 @@
         <v>0</v>
       </c>
       <c r="AL197" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM197" s="11"/>
       <c r="AN197" s="7">
@@ -31015,13 +31015,13 @@
       <c r="AT197" s="7"/>
       <c r="AU197" s="7"/>
     </row>
-    <row r="198" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="198" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C198" s="7">
         <f t="shared" si="0"/>
         <v>73012005</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E198" s="7">
         <v>1</v>
@@ -31123,7 +31123,7 @@
         <v>0</v>
       </c>
       <c r="AL198" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM198" s="11"/>
       <c r="AN198" s="7">
@@ -31145,13 +31145,13 @@
       <c r="AT198" s="7"/>
       <c r="AU198" s="7"/>
     </row>
-    <row r="199" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="199" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C199" s="7">
         <f t="shared" si="0"/>
         <v>73013001</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E199" s="7">
         <v>1</v>
@@ -31253,7 +31253,7 @@
         <v>0</v>
       </c>
       <c r="AL199" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM199" s="11"/>
       <c r="AN199" s="7">
@@ -31275,13 +31275,13 @@
       <c r="AT199" s="7"/>
       <c r="AU199" s="7"/>
     </row>
-    <row r="200" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="200" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C200" s="7">
         <f t="shared" si="0"/>
         <v>73013002</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E200" s="7">
         <v>1</v>
@@ -31383,7 +31383,7 @@
         <v>0</v>
       </c>
       <c r="AL200" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM200" s="11"/>
       <c r="AN200" s="7">
@@ -31405,13 +31405,13 @@
       <c r="AT200" s="7"/>
       <c r="AU200" s="7"/>
     </row>
-    <row r="201" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="201" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C201" s="7">
         <f t="shared" si="0"/>
         <v>73013003</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E201" s="7">
         <v>1</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="AL201" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM201" s="11"/>
       <c r="AN201" s="7">
@@ -31535,13 +31535,13 @@
       <c r="AT201" s="7"/>
       <c r="AU201" s="7"/>
     </row>
-    <row r="202" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="202" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C202" s="7">
         <f t="shared" si="0"/>
         <v>73013004</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E202" s="7">
         <v>1</v>
@@ -31643,7 +31643,7 @@
         <v>0</v>
       </c>
       <c r="AL202" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM202" s="11"/>
       <c r="AN202" s="7">
@@ -31665,13 +31665,13 @@
       <c r="AT202" s="7"/>
       <c r="AU202" s="7"/>
     </row>
-    <row r="203" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="203" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C203" s="7">
         <f t="shared" si="0"/>
         <v>73013005</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E203" s="7">
         <v>1</v>
@@ -31773,7 +31773,7 @@
         <v>0</v>
       </c>
       <c r="AL203" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM203" s="11"/>
       <c r="AN203" s="7">
@@ -31795,13 +31795,13 @@
       <c r="AT203" s="7"/>
       <c r="AU203" s="7"/>
     </row>
-    <row r="204" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="204" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C204" s="7">
         <f t="shared" si="0"/>
         <v>73014001</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E204" s="7">
         <v>1</v>
@@ -31903,7 +31903,7 @@
         <v>0</v>
       </c>
       <c r="AL204" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM204" s="11"/>
       <c r="AN204" s="7">
@@ -31925,13 +31925,13 @@
       <c r="AT204" s="7"/>
       <c r="AU204" s="7"/>
     </row>
-    <row r="205" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="205" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C205" s="7">
         <f t="shared" si="0"/>
         <v>73014002</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E205" s="7">
         <v>1</v>
@@ -32033,7 +32033,7 @@
         <v>0</v>
       </c>
       <c r="AL205" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM205" s="11"/>
       <c r="AN205" s="7">
@@ -32055,13 +32055,13 @@
       <c r="AT205" s="7"/>
       <c r="AU205" s="7"/>
     </row>
-    <row r="206" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="206" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C206" s="7">
         <f t="shared" si="0"/>
         <v>73014003</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E206" s="7">
         <v>1</v>
@@ -32163,7 +32163,7 @@
         <v>0</v>
       </c>
       <c r="AL206" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM206" s="11"/>
       <c r="AN206" s="7">
@@ -32185,13 +32185,13 @@
       <c r="AT206" s="7"/>
       <c r="AU206" s="7"/>
     </row>
-    <row r="207" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="207" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C207" s="7">
         <f t="shared" si="0"/>
         <v>73014004</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E207" s="7">
         <v>1</v>
@@ -32293,7 +32293,7 @@
         <v>0</v>
       </c>
       <c r="AL207" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM207" s="11"/>
       <c r="AN207" s="7">
@@ -32315,13 +32315,13 @@
       <c r="AT207" s="7"/>
       <c r="AU207" s="7"/>
     </row>
-    <row r="208" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="208" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C208" s="7">
         <f t="shared" si="0"/>
         <v>73014005</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E208" s="7">
         <v>1</v>
@@ -32423,7 +32423,7 @@
         <v>0</v>
       </c>
       <c r="AL208" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM208" s="11"/>
       <c r="AN208" s="7">
@@ -32445,13 +32445,13 @@
       <c r="AT208" s="7"/>
       <c r="AU208" s="7"/>
     </row>
-    <row r="209" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="209" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C209" s="7">
         <f t="shared" ref="C209:C272" si="1">C204+1000</f>
         <v>73015001</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E209" s="7">
         <v>1</v>
@@ -32553,7 +32553,7 @@
         <v>0</v>
       </c>
       <c r="AL209" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM209" s="11"/>
       <c r="AN209" s="7">
@@ -32575,13 +32575,13 @@
       <c r="AT209" s="7"/>
       <c r="AU209" s="7"/>
     </row>
-    <row r="210" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="210" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C210" s="7">
         <f t="shared" si="1"/>
         <v>73015002</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E210" s="7">
         <v>1</v>
@@ -32683,7 +32683,7 @@
         <v>0</v>
       </c>
       <c r="AL210" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM210" s="11"/>
       <c r="AN210" s="7">
@@ -32705,13 +32705,13 @@
       <c r="AT210" s="7"/>
       <c r="AU210" s="7"/>
     </row>
-    <row r="211" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="211" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C211" s="7">
         <f t="shared" si="1"/>
         <v>73015003</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E211" s="7">
         <v>1</v>
@@ -32813,7 +32813,7 @@
         <v>0</v>
       </c>
       <c r="AL211" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM211" s="11"/>
       <c r="AN211" s="7">
@@ -32835,13 +32835,13 @@
       <c r="AT211" s="7"/>
       <c r="AU211" s="7"/>
     </row>
-    <row r="212" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="212" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C212" s="7">
         <f t="shared" si="1"/>
         <v>73015004</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E212" s="7">
         <v>1</v>
@@ -32943,7 +32943,7 @@
         <v>0</v>
       </c>
       <c r="AL212" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM212" s="11"/>
       <c r="AN212" s="7">
@@ -32965,13 +32965,13 @@
       <c r="AT212" s="7"/>
       <c r="AU212" s="7"/>
     </row>
-    <row r="213" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="213" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C213" s="7">
         <f t="shared" si="1"/>
         <v>73015005</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E213" s="7">
         <v>1</v>
@@ -33073,7 +33073,7 @@
         <v>0</v>
       </c>
       <c r="AL213" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM213" s="11"/>
       <c r="AN213" s="7">
@@ -33095,13 +33095,13 @@
       <c r="AT213" s="7"/>
       <c r="AU213" s="7"/>
     </row>
-    <row r="214" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="214" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C214" s="7">
         <f t="shared" si="1"/>
         <v>73016001</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E214" s="7">
         <v>1</v>
@@ -33203,7 +33203,7 @@
         <v>0</v>
       </c>
       <c r="AL214" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM214" s="11"/>
       <c r="AN214" s="7">
@@ -33225,13 +33225,13 @@
       <c r="AT214" s="7"/>
       <c r="AU214" s="7"/>
     </row>
-    <row r="215" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="215" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C215" s="7">
         <f t="shared" si="1"/>
         <v>73016002</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E215" s="7">
         <v>1</v>
@@ -33333,7 +33333,7 @@
         <v>0</v>
       </c>
       <c r="AL215" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM215" s="11"/>
       <c r="AN215" s="7">
@@ -33355,13 +33355,13 @@
       <c r="AT215" s="7"/>
       <c r="AU215" s="7"/>
     </row>
-    <row r="216" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="216" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C216" s="7">
         <f t="shared" si="1"/>
         <v>73016003</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E216" s="7">
         <v>1</v>
@@ -33463,7 +33463,7 @@
         <v>0</v>
       </c>
       <c r="AL216" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM216" s="11"/>
       <c r="AN216" s="7">
@@ -33485,13 +33485,13 @@
       <c r="AT216" s="7"/>
       <c r="AU216" s="7"/>
     </row>
-    <row r="217" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="217" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C217" s="7">
         <f t="shared" si="1"/>
         <v>73016004</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E217" s="7">
         <v>1</v>
@@ -33593,7 +33593,7 @@
         <v>0</v>
       </c>
       <c r="AL217" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM217" s="11"/>
       <c r="AN217" s="7">
@@ -33615,13 +33615,13 @@
       <c r="AT217" s="7"/>
       <c r="AU217" s="7"/>
     </row>
-    <row r="218" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="218" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C218" s="7">
         <f t="shared" si="1"/>
         <v>73016005</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E218" s="7">
         <v>1</v>
@@ -33723,7 +33723,7 @@
         <v>0</v>
       </c>
       <c r="AL218" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM218" s="11"/>
       <c r="AN218" s="7">
@@ -33745,13 +33745,13 @@
       <c r="AT218" s="7"/>
       <c r="AU218" s="7"/>
     </row>
-    <row r="219" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="219" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C219" s="7">
         <f t="shared" si="1"/>
         <v>73017001</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E219" s="7">
         <v>1</v>
@@ -33853,7 +33853,7 @@
         <v>0</v>
       </c>
       <c r="AL219" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM219" s="11"/>
       <c r="AN219" s="7">
@@ -33875,13 +33875,13 @@
       <c r="AT219" s="7"/>
       <c r="AU219" s="7"/>
     </row>
-    <row r="220" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="220" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C220" s="7">
         <f t="shared" si="1"/>
         <v>73017002</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E220" s="7">
         <v>1</v>
@@ -33983,7 +33983,7 @@
         <v>0</v>
       </c>
       <c r="AL220" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM220" s="11"/>
       <c r="AN220" s="7">
@@ -34005,13 +34005,13 @@
       <c r="AT220" s="7"/>
       <c r="AU220" s="7"/>
     </row>
-    <row r="221" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="221" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C221" s="7">
         <f t="shared" si="1"/>
         <v>73017003</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E221" s="7">
         <v>1</v>
@@ -34113,7 +34113,7 @@
         <v>0</v>
       </c>
       <c r="AL221" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM221" s="11"/>
       <c r="AN221" s="7">
@@ -34135,13 +34135,13 @@
       <c r="AT221" s="7"/>
       <c r="AU221" s="7"/>
     </row>
-    <row r="222" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="222" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C222" s="7">
         <f t="shared" si="1"/>
         <v>73017004</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E222" s="7">
         <v>1</v>
@@ -34243,7 +34243,7 @@
         <v>0</v>
       </c>
       <c r="AL222" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM222" s="11"/>
       <c r="AN222" s="7">
@@ -34265,13 +34265,13 @@
       <c r="AT222" s="7"/>
       <c r="AU222" s="7"/>
     </row>
-    <row r="223" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="223" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C223" s="7">
         <f t="shared" si="1"/>
         <v>73017005</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E223" s="7">
         <v>1</v>
@@ -34373,7 +34373,7 @@
         <v>0</v>
       </c>
       <c r="AL223" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM223" s="11"/>
       <c r="AN223" s="7">
@@ -34395,13 +34395,13 @@
       <c r="AT223" s="7"/>
       <c r="AU223" s="7"/>
     </row>
-    <row r="224" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="224" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C224" s="7">
         <f t="shared" si="1"/>
         <v>73018001</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E224" s="7">
         <v>1</v>
@@ -34503,7 +34503,7 @@
         <v>0</v>
       </c>
       <c r="AL224" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM224" s="11"/>
       <c r="AN224" s="7">
@@ -34525,13 +34525,13 @@
       <c r="AT224" s="7"/>
       <c r="AU224" s="7"/>
     </row>
-    <row r="225" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="225" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C225" s="7">
         <f t="shared" si="1"/>
         <v>73018002</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E225" s="7">
         <v>1</v>
@@ -34633,7 +34633,7 @@
         <v>0</v>
       </c>
       <c r="AL225" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM225" s="11"/>
       <c r="AN225" s="7">
@@ -34655,13 +34655,13 @@
       <c r="AT225" s="7"/>
       <c r="AU225" s="7"/>
     </row>
-    <row r="226" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="226" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C226" s="7">
         <f t="shared" si="1"/>
         <v>73018003</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E226" s="7">
         <v>1</v>
@@ -34763,7 +34763,7 @@
         <v>0</v>
       </c>
       <c r="AL226" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM226" s="11"/>
       <c r="AN226" s="7">
@@ -34785,13 +34785,13 @@
       <c r="AT226" s="7"/>
       <c r="AU226" s="7"/>
     </row>
-    <row r="227" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="227" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C227" s="7">
         <f t="shared" si="1"/>
         <v>73018004</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E227" s="7">
         <v>1</v>
@@ -34893,7 +34893,7 @@
         <v>0</v>
       </c>
       <c r="AL227" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM227" s="11"/>
       <c r="AN227" s="7">
@@ -34915,13 +34915,13 @@
       <c r="AT227" s="7"/>
       <c r="AU227" s="7"/>
     </row>
-    <row r="228" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="228" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C228" s="7">
         <f t="shared" si="1"/>
         <v>73018005</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E228" s="7">
         <v>1</v>
@@ -35023,7 +35023,7 @@
         <v>0</v>
       </c>
       <c r="AL228" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM228" s="11"/>
       <c r="AN228" s="7">
@@ -35045,13 +35045,13 @@
       <c r="AT228" s="7"/>
       <c r="AU228" s="7"/>
     </row>
-    <row r="229" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="229" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C229" s="7">
         <f t="shared" si="1"/>
         <v>73019001</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E229" s="7">
         <v>1</v>
@@ -35153,7 +35153,7 @@
         <v>0</v>
       </c>
       <c r="AL229" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM229" s="11"/>
       <c r="AN229" s="7">
@@ -35175,13 +35175,13 @@
       <c r="AT229" s="7"/>
       <c r="AU229" s="7"/>
     </row>
-    <row r="230" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="230" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C230" s="7">
         <f t="shared" si="1"/>
         <v>73019002</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E230" s="7">
         <v>1</v>
@@ -35283,7 +35283,7 @@
         <v>0</v>
       </c>
       <c r="AL230" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM230" s="11"/>
       <c r="AN230" s="7">
@@ -35305,13 +35305,13 @@
       <c r="AT230" s="7"/>
       <c r="AU230" s="7"/>
     </row>
-    <row r="231" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="231" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C231" s="7">
         <f t="shared" si="1"/>
         <v>73019003</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E231" s="7">
         <v>1</v>
@@ -35413,7 +35413,7 @@
         <v>0</v>
       </c>
       <c r="AL231" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM231" s="11"/>
       <c r="AN231" s="7">
@@ -35435,13 +35435,13 @@
       <c r="AT231" s="7"/>
       <c r="AU231" s="7"/>
     </row>
-    <row r="232" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="232" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C232" s="7">
         <f t="shared" si="1"/>
         <v>73019004</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E232" s="7">
         <v>1</v>
@@ -35543,7 +35543,7 @@
         <v>0</v>
       </c>
       <c r="AL232" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM232" s="11"/>
       <c r="AN232" s="7">
@@ -35565,13 +35565,13 @@
       <c r="AT232" s="7"/>
       <c r="AU232" s="7"/>
     </row>
-    <row r="233" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="233" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C233" s="7">
         <f t="shared" si="1"/>
         <v>73019005</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E233" s="7">
         <v>1</v>
@@ -35673,7 +35673,7 @@
         <v>0</v>
       </c>
       <c r="AL233" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM233" s="11"/>
       <c r="AN233" s="7">
@@ -35695,13 +35695,13 @@
       <c r="AT233" s="7"/>
       <c r="AU233" s="7"/>
     </row>
-    <row r="234" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="234" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C234" s="7">
         <f t="shared" si="1"/>
         <v>73020001</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E234" s="7">
         <v>1</v>
@@ -35803,7 +35803,7 @@
         <v>0</v>
       </c>
       <c r="AL234" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM234" s="11"/>
       <c r="AN234" s="7">
@@ -35825,13 +35825,13 @@
       <c r="AT234" s="7"/>
       <c r="AU234" s="7"/>
     </row>
-    <row r="235" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="235" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C235" s="7">
         <f t="shared" si="1"/>
         <v>73020002</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E235" s="7">
         <v>1</v>
@@ -35933,7 +35933,7 @@
         <v>0</v>
       </c>
       <c r="AL235" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM235" s="11"/>
       <c r="AN235" s="7">
@@ -35955,13 +35955,13 @@
       <c r="AT235" s="7"/>
       <c r="AU235" s="7"/>
     </row>
-    <row r="236" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="236" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C236" s="7">
         <f t="shared" si="1"/>
         <v>73020003</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E236" s="7">
         <v>1</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="AL236" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM236" s="11"/>
       <c r="AN236" s="7">
@@ -36085,13 +36085,13 @@
       <c r="AT236" s="7"/>
       <c r="AU236" s="7"/>
     </row>
-    <row r="237" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="237" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C237" s="7">
         <f t="shared" si="1"/>
         <v>73020004</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E237" s="7">
         <v>1</v>
@@ -36193,7 +36193,7 @@
         <v>0</v>
       </c>
       <c r="AL237" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM237" s="11"/>
       <c r="AN237" s="7">
@@ -36215,13 +36215,13 @@
       <c r="AT237" s="7"/>
       <c r="AU237" s="7"/>
     </row>
-    <row r="238" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="238" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C238" s="7">
         <f t="shared" si="1"/>
         <v>73020005</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E238" s="7">
         <v>1</v>
@@ -36323,7 +36323,7 @@
         <v>0</v>
       </c>
       <c r="AL238" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM238" s="11"/>
       <c r="AN238" s="7">
@@ -36345,13 +36345,13 @@
       <c r="AT238" s="7"/>
       <c r="AU238" s="7"/>
     </row>
-    <row r="239" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="239" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C239" s="7">
         <f t="shared" si="1"/>
         <v>73021001</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E239" s="7">
         <v>1</v>
@@ -36453,7 +36453,7 @@
         <v>0</v>
       </c>
       <c r="AL239" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM239" s="11"/>
       <c r="AN239" s="7">
@@ -36475,13 +36475,13 @@
       <c r="AT239" s="7"/>
       <c r="AU239" s="7"/>
     </row>
-    <row r="240" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="240" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C240" s="7">
         <f t="shared" si="1"/>
         <v>73021002</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E240" s="7">
         <v>1</v>
@@ -36583,7 +36583,7 @@
         <v>0</v>
       </c>
       <c r="AL240" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM240" s="11"/>
       <c r="AN240" s="7">
@@ -36605,13 +36605,13 @@
       <c r="AT240" s="7"/>
       <c r="AU240" s="7"/>
     </row>
-    <row r="241" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="241" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C241" s="7">
         <f t="shared" si="1"/>
         <v>73021003</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E241" s="7">
         <v>1</v>
@@ -36713,7 +36713,7 @@
         <v>0</v>
       </c>
       <c r="AL241" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM241" s="11"/>
       <c r="AN241" s="7">
@@ -36735,13 +36735,13 @@
       <c r="AT241" s="7"/>
       <c r="AU241" s="7"/>
     </row>
-    <row r="242" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="242" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C242" s="7">
         <f t="shared" si="1"/>
         <v>73021004</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E242" s="7">
         <v>1</v>
@@ -36843,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="AL242" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM242" s="11"/>
       <c r="AN242" s="7">
@@ -36865,13 +36865,13 @@
       <c r="AT242" s="7"/>
       <c r="AU242" s="7"/>
     </row>
-    <row r="243" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="243" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C243" s="7">
         <f t="shared" si="1"/>
         <v>73021005</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E243" s="7">
         <v>1</v>
@@ -36973,7 +36973,7 @@
         <v>0</v>
       </c>
       <c r="AL243" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM243" s="11"/>
       <c r="AN243" s="7">
@@ -36995,13 +36995,13 @@
       <c r="AT243" s="7"/>
       <c r="AU243" s="7"/>
     </row>
-    <row r="244" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="244" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C244" s="7">
         <f t="shared" si="1"/>
         <v>73022001</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E244" s="7">
         <v>1</v>
@@ -37103,7 +37103,7 @@
         <v>0</v>
       </c>
       <c r="AL244" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM244" s="11"/>
       <c r="AN244" s="7">
@@ -37125,13 +37125,13 @@
       <c r="AT244" s="7"/>
       <c r="AU244" s="7"/>
     </row>
-    <row r="245" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="245" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C245" s="7">
         <f t="shared" si="1"/>
         <v>73022002</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E245" s="7">
         <v>1</v>
@@ -37233,7 +37233,7 @@
         <v>0</v>
       </c>
       <c r="AL245" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM245" s="11"/>
       <c r="AN245" s="7">
@@ -37255,13 +37255,13 @@
       <c r="AT245" s="7"/>
       <c r="AU245" s="7"/>
     </row>
-    <row r="246" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="246" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C246" s="7">
         <f t="shared" si="1"/>
         <v>73022003</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E246" s="7">
         <v>1</v>
@@ -37363,7 +37363,7 @@
         <v>0</v>
       </c>
       <c r="AL246" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM246" s="11"/>
       <c r="AN246" s="7">
@@ -37385,13 +37385,13 @@
       <c r="AT246" s="7"/>
       <c r="AU246" s="7"/>
     </row>
-    <row r="247" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="247" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C247" s="7">
         <f t="shared" si="1"/>
         <v>73022004</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E247" s="7">
         <v>1</v>
@@ -37493,7 +37493,7 @@
         <v>0</v>
       </c>
       <c r="AL247" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM247" s="11"/>
       <c r="AN247" s="7">
@@ -37515,13 +37515,13 @@
       <c r="AT247" s="7"/>
       <c r="AU247" s="7"/>
     </row>
-    <row r="248" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="248" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C248" s="7">
         <f t="shared" si="1"/>
         <v>73022005</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E248" s="7">
         <v>1</v>
@@ -37623,7 +37623,7 @@
         <v>0</v>
       </c>
       <c r="AL248" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM248" s="11"/>
       <c r="AN248" s="7">
@@ -37645,13 +37645,13 @@
       <c r="AT248" s="7"/>
       <c r="AU248" s="7"/>
     </row>
-    <row r="249" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="249" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C249" s="7">
         <f t="shared" si="1"/>
         <v>73023001</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E249" s="7">
         <v>1</v>
@@ -37753,7 +37753,7 @@
         <v>0</v>
       </c>
       <c r="AL249" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM249" s="11"/>
       <c r="AN249" s="7">
@@ -37775,13 +37775,13 @@
       <c r="AT249" s="7"/>
       <c r="AU249" s="7"/>
     </row>
-    <row r="250" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="250" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C250" s="7">
         <f t="shared" si="1"/>
         <v>73023002</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E250" s="7">
         <v>1</v>
@@ -37883,7 +37883,7 @@
         <v>0</v>
       </c>
       <c r="AL250" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM250" s="11"/>
       <c r="AN250" s="7">
@@ -37905,13 +37905,13 @@
       <c r="AT250" s="7"/>
       <c r="AU250" s="7"/>
     </row>
-    <row r="251" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="251" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C251" s="7">
         <f t="shared" si="1"/>
         <v>73023003</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E251" s="7">
         <v>1</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="AL251" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM251" s="11"/>
       <c r="AN251" s="7">
@@ -38035,13 +38035,13 @@
       <c r="AT251" s="7"/>
       <c r="AU251" s="7"/>
     </row>
-    <row r="252" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="252" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C252" s="7">
         <f t="shared" si="1"/>
         <v>73023004</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E252" s="7">
         <v>1</v>
@@ -38143,7 +38143,7 @@
         <v>0</v>
       </c>
       <c r="AL252" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM252" s="11"/>
       <c r="AN252" s="7">
@@ -38165,13 +38165,13 @@
       <c r="AT252" s="7"/>
       <c r="AU252" s="7"/>
     </row>
-    <row r="253" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="253" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C253" s="7">
         <f t="shared" si="1"/>
         <v>73023005</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E253" s="7">
         <v>1</v>
@@ -38273,7 +38273,7 @@
         <v>0</v>
       </c>
       <c r="AL253" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM253" s="11"/>
       <c r="AN253" s="7">
@@ -38295,13 +38295,13 @@
       <c r="AT253" s="7"/>
       <c r="AU253" s="7"/>
     </row>
-    <row r="254" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="254" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C254" s="7">
         <f t="shared" si="1"/>
         <v>73024001</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E254" s="7">
         <v>1</v>
@@ -38403,7 +38403,7 @@
         <v>0</v>
       </c>
       <c r="AL254" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM254" s="11"/>
       <c r="AN254" s="7">
@@ -38425,13 +38425,13 @@
       <c r="AT254" s="7"/>
       <c r="AU254" s="7"/>
     </row>
-    <row r="255" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="255" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C255" s="7">
         <f t="shared" si="1"/>
         <v>73024002</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E255" s="7">
         <v>1</v>
@@ -38533,7 +38533,7 @@
         <v>0</v>
       </c>
       <c r="AL255" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM255" s="11"/>
       <c r="AN255" s="7">
@@ -38555,13 +38555,13 @@
       <c r="AT255" s="7"/>
       <c r="AU255" s="7"/>
     </row>
-    <row r="256" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="256" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C256" s="7">
         <f t="shared" si="1"/>
         <v>73024003</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E256" s="7">
         <v>1</v>
@@ -38663,7 +38663,7 @@
         <v>0</v>
       </c>
       <c r="AL256" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM256" s="11"/>
       <c r="AN256" s="7">
@@ -38685,13 +38685,13 @@
       <c r="AT256" s="7"/>
       <c r="AU256" s="7"/>
     </row>
-    <row r="257" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="257" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C257" s="7">
         <f t="shared" si="1"/>
         <v>73024004</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E257" s="7">
         <v>1</v>
@@ -38793,7 +38793,7 @@
         <v>0</v>
       </c>
       <c r="AL257" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM257" s="11"/>
       <c r="AN257" s="7">
@@ -38815,13 +38815,13 @@
       <c r="AT257" s="7"/>
       <c r="AU257" s="7"/>
     </row>
-    <row r="258" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="258" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C258" s="7">
         <f t="shared" si="1"/>
         <v>73024005</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E258" s="7">
         <v>1</v>
@@ -38923,7 +38923,7 @@
         <v>0</v>
       </c>
       <c r="AL258" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM258" s="11"/>
       <c r="AN258" s="7">
@@ -38945,13 +38945,13 @@
       <c r="AT258" s="7"/>
       <c r="AU258" s="7"/>
     </row>
-    <row r="259" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="259" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C259" s="7">
         <f t="shared" si="1"/>
         <v>73025001</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E259" s="7">
         <v>1</v>
@@ -39053,7 +39053,7 @@
         <v>0</v>
       </c>
       <c r="AL259" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM259" s="11"/>
       <c r="AN259" s="7">
@@ -39075,13 +39075,13 @@
       <c r="AT259" s="7"/>
       <c r="AU259" s="7"/>
     </row>
-    <row r="260" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="260" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C260" s="7">
         <f t="shared" si="1"/>
         <v>73025002</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E260" s="7">
         <v>1</v>
@@ -39183,7 +39183,7 @@
         <v>0</v>
       </c>
       <c r="AL260" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM260" s="11"/>
       <c r="AN260" s="7">
@@ -39205,13 +39205,13 @@
       <c r="AT260" s="7"/>
       <c r="AU260" s="7"/>
     </row>
-    <row r="261" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="261" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C261" s="7">
         <f t="shared" si="1"/>
         <v>73025003</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E261" s="7">
         <v>1</v>
@@ -39313,7 +39313,7 @@
         <v>0</v>
       </c>
       <c r="AL261" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM261" s="11"/>
       <c r="AN261" s="7">
@@ -39335,13 +39335,13 @@
       <c r="AT261" s="7"/>
       <c r="AU261" s="7"/>
     </row>
-    <row r="262" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="262" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C262" s="7">
         <f t="shared" si="1"/>
         <v>73025004</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E262" s="7">
         <v>1</v>
@@ -39443,7 +39443,7 @@
         <v>0</v>
       </c>
       <c r="AL262" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM262" s="11"/>
       <c r="AN262" s="7">
@@ -39465,13 +39465,13 @@
       <c r="AT262" s="7"/>
       <c r="AU262" s="7"/>
     </row>
-    <row r="263" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="263" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C263" s="7">
         <f t="shared" si="1"/>
         <v>73025005</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E263" s="7">
         <v>1</v>
@@ -39573,7 +39573,7 @@
         <v>0</v>
       </c>
       <c r="AL263" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM263" s="11"/>
       <c r="AN263" s="7">
@@ -39595,13 +39595,13 @@
       <c r="AT263" s="7"/>
       <c r="AU263" s="7"/>
     </row>
-    <row r="264" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="264" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C264" s="7">
         <f t="shared" si="1"/>
         <v>73026001</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E264" s="7">
         <v>1</v>
@@ -39703,7 +39703,7 @@
         <v>0</v>
       </c>
       <c r="AL264" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM264" s="11"/>
       <c r="AN264" s="7">
@@ -39725,13 +39725,13 @@
       <c r="AT264" s="7"/>
       <c r="AU264" s="7"/>
     </row>
-    <row r="265" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="265" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C265" s="7">
         <f t="shared" si="1"/>
         <v>73026002</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E265" s="7">
         <v>1</v>
@@ -39833,7 +39833,7 @@
         <v>0</v>
       </c>
       <c r="AL265" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM265" s="11"/>
       <c r="AN265" s="7">
@@ -39855,13 +39855,13 @@
       <c r="AT265" s="7"/>
       <c r="AU265" s="7"/>
     </row>
-    <row r="266" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="266" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C266" s="7">
         <f t="shared" si="1"/>
         <v>73026003</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E266" s="7">
         <v>1</v>
@@ -39963,7 +39963,7 @@
         <v>0</v>
       </c>
       <c r="AL266" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM266" s="11"/>
       <c r="AN266" s="7">
@@ -39985,13 +39985,13 @@
       <c r="AT266" s="7"/>
       <c r="AU266" s="7"/>
     </row>
-    <row r="267" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="267" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C267" s="7">
         <f t="shared" si="1"/>
         <v>73026004</v>
       </c>
       <c r="D267" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E267" s="7">
         <v>1</v>
@@ -40093,7 +40093,7 @@
         <v>0</v>
       </c>
       <c r="AL267" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM267" s="11"/>
       <c r="AN267" s="7">
@@ -40115,13 +40115,13 @@
       <c r="AT267" s="7"/>
       <c r="AU267" s="7"/>
     </row>
-    <row r="268" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="268" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C268" s="7">
         <f t="shared" si="1"/>
         <v>73026005</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E268" s="7">
         <v>1</v>
@@ -40223,7 +40223,7 @@
         <v>0</v>
       </c>
       <c r="AL268" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM268" s="11"/>
       <c r="AN268" s="7">
@@ -40245,13 +40245,13 @@
       <c r="AT268" s="7"/>
       <c r="AU268" s="7"/>
     </row>
-    <row r="269" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="269" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C269" s="7">
         <f t="shared" si="1"/>
         <v>73027001</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E269" s="7">
         <v>1</v>
@@ -40353,7 +40353,7 @@
         <v>0</v>
       </c>
       <c r="AL269" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM269" s="11"/>
       <c r="AN269" s="7">
@@ -40375,13 +40375,13 @@
       <c r="AT269" s="7"/>
       <c r="AU269" s="7"/>
     </row>
-    <row r="270" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="270" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C270" s="7">
         <f t="shared" si="1"/>
         <v>73027002</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E270" s="7">
         <v>1</v>
@@ -40483,7 +40483,7 @@
         <v>0</v>
       </c>
       <c r="AL270" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM270" s="11"/>
       <c r="AN270" s="7">
@@ -40505,13 +40505,13 @@
       <c r="AT270" s="7"/>
       <c r="AU270" s="7"/>
     </row>
-    <row r="271" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="271" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C271" s="7">
         <f t="shared" si="1"/>
         <v>73027003</v>
       </c>
       <c r="D271" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E271" s="7">
         <v>1</v>
@@ -40613,7 +40613,7 @@
         <v>0</v>
       </c>
       <c r="AL271" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM271" s="11"/>
       <c r="AN271" s="7">
@@ -40635,13 +40635,13 @@
       <c r="AT271" s="7"/>
       <c r="AU271" s="7"/>
     </row>
-    <row r="272" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="272" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C272" s="7">
         <f t="shared" si="1"/>
         <v>73027004</v>
       </c>
       <c r="D272" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E272" s="7">
         <v>1</v>
@@ -40743,7 +40743,7 @@
         <v>0</v>
       </c>
       <c r="AL272" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM272" s="11"/>
       <c r="AN272" s="7">
@@ -40765,13 +40765,13 @@
       <c r="AT272" s="7"/>
       <c r="AU272" s="7"/>
     </row>
-    <row r="273" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="273" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C273" s="7">
         <f t="shared" ref="C273:C336" si="2">C268+1000</f>
         <v>73027005</v>
       </c>
       <c r="D273" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E273" s="7">
         <v>1</v>
@@ -40873,7 +40873,7 @@
         <v>0</v>
       </c>
       <c r="AL273" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM273" s="11"/>
       <c r="AN273" s="7">
@@ -40895,13 +40895,13 @@
       <c r="AT273" s="7"/>
       <c r="AU273" s="7"/>
     </row>
-    <row r="274" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="274" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C274" s="7">
         <f t="shared" si="2"/>
         <v>73028001</v>
       </c>
       <c r="D274" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E274" s="7">
         <v>1</v>
@@ -41003,7 +41003,7 @@
         <v>0</v>
       </c>
       <c r="AL274" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM274" s="11"/>
       <c r="AN274" s="7">
@@ -41025,13 +41025,13 @@
       <c r="AT274" s="7"/>
       <c r="AU274" s="7"/>
     </row>
-    <row r="275" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="275" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C275" s="7">
         <f t="shared" si="2"/>
         <v>73028002</v>
       </c>
       <c r="D275" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E275" s="7">
         <v>1</v>
@@ -41133,7 +41133,7 @@
         <v>0</v>
       </c>
       <c r="AL275" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM275" s="11"/>
       <c r="AN275" s="7">
@@ -41155,13 +41155,13 @@
       <c r="AT275" s="7"/>
       <c r="AU275" s="7"/>
     </row>
-    <row r="276" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="276" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C276" s="7">
         <f t="shared" si="2"/>
         <v>73028003</v>
       </c>
       <c r="D276" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E276" s="7">
         <v>1</v>
@@ -41263,7 +41263,7 @@
         <v>0</v>
       </c>
       <c r="AL276" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM276" s="11"/>
       <c r="AN276" s="7">
@@ -41285,13 +41285,13 @@
       <c r="AT276" s="7"/>
       <c r="AU276" s="7"/>
     </row>
-    <row r="277" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="277" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C277" s="7">
         <f t="shared" si="2"/>
         <v>73028004</v>
       </c>
       <c r="D277" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E277" s="7">
         <v>1</v>
@@ -41393,7 +41393,7 @@
         <v>0</v>
       </c>
       <c r="AL277" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM277" s="11"/>
       <c r="AN277" s="7">
@@ -41415,13 +41415,13 @@
       <c r="AT277" s="7"/>
       <c r="AU277" s="7"/>
     </row>
-    <row r="278" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="278" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C278" s="7">
         <f t="shared" si="2"/>
         <v>73028005</v>
       </c>
       <c r="D278" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E278" s="7">
         <v>1</v>
@@ -41523,7 +41523,7 @@
         <v>0</v>
       </c>
       <c r="AL278" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM278" s="11"/>
       <c r="AN278" s="7">
@@ -41545,13 +41545,13 @@
       <c r="AT278" s="7"/>
       <c r="AU278" s="7"/>
     </row>
-    <row r="279" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="279" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C279" s="7">
         <f t="shared" si="2"/>
         <v>73029001</v>
       </c>
       <c r="D279" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E279" s="7">
         <v>1</v>
@@ -41653,7 +41653,7 @@
         <v>0</v>
       </c>
       <c r="AL279" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM279" s="11"/>
       <c r="AN279" s="7">
@@ -41675,13 +41675,13 @@
       <c r="AT279" s="7"/>
       <c r="AU279" s="7"/>
     </row>
-    <row r="280" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="280" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C280" s="7">
         <f t="shared" si="2"/>
         <v>73029002</v>
       </c>
       <c r="D280" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E280" s="7">
         <v>1</v>
@@ -41783,7 +41783,7 @@
         <v>0</v>
       </c>
       <c r="AL280" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM280" s="11"/>
       <c r="AN280" s="7">
@@ -41805,13 +41805,13 @@
       <c r="AT280" s="7"/>
       <c r="AU280" s="7"/>
     </row>
-    <row r="281" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="281" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C281" s="7">
         <f t="shared" si="2"/>
         <v>73029003</v>
       </c>
       <c r="D281" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E281" s="7">
         <v>1</v>
@@ -41913,7 +41913,7 @@
         <v>0</v>
       </c>
       <c r="AL281" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM281" s="11"/>
       <c r="AN281" s="7">
@@ -41935,13 +41935,13 @@
       <c r="AT281" s="7"/>
       <c r="AU281" s="7"/>
     </row>
-    <row r="282" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="282" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C282" s="7">
         <f t="shared" si="2"/>
         <v>73029004</v>
       </c>
       <c r="D282" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E282" s="7">
         <v>1</v>
@@ -42043,7 +42043,7 @@
         <v>0</v>
       </c>
       <c r="AL282" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM282" s="11"/>
       <c r="AN282" s="7">
@@ -42065,13 +42065,13 @@
       <c r="AT282" s="7"/>
       <c r="AU282" s="7"/>
     </row>
-    <row r="283" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="283" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C283" s="7">
         <f t="shared" si="2"/>
         <v>73029005</v>
       </c>
       <c r="D283" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E283" s="7">
         <v>1</v>
@@ -42173,7 +42173,7 @@
         <v>0</v>
       </c>
       <c r="AL283" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM283" s="11"/>
       <c r="AN283" s="7">
@@ -42195,13 +42195,13 @@
       <c r="AT283" s="7"/>
       <c r="AU283" s="7"/>
     </row>
-    <row r="284" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="284" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C284" s="7">
         <f t="shared" si="2"/>
         <v>73030001</v>
       </c>
       <c r="D284" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E284" s="7">
         <v>1</v>
@@ -42303,7 +42303,7 @@
         <v>0</v>
       </c>
       <c r="AL284" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM284" s="11"/>
       <c r="AN284" s="7">
@@ -42325,13 +42325,13 @@
       <c r="AT284" s="7"/>
       <c r="AU284" s="7"/>
     </row>
-    <row r="285" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="285" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C285" s="7">
         <f t="shared" si="2"/>
         <v>73030002</v>
       </c>
       <c r="D285" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E285" s="7">
         <v>1</v>
@@ -42433,7 +42433,7 @@
         <v>0</v>
       </c>
       <c r="AL285" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM285" s="11"/>
       <c r="AN285" s="7">
@@ -42455,13 +42455,13 @@
       <c r="AT285" s="7"/>
       <c r="AU285" s="7"/>
     </row>
-    <row r="286" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="286" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C286" s="7">
         <f t="shared" si="2"/>
         <v>73030003</v>
       </c>
       <c r="D286" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E286" s="7">
         <v>1</v>
@@ -42563,7 +42563,7 @@
         <v>0</v>
       </c>
       <c r="AL286" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM286" s="11"/>
       <c r="AN286" s="7">
@@ -42585,13 +42585,13 @@
       <c r="AT286" s="7"/>
       <c r="AU286" s="7"/>
     </row>
-    <row r="287" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="287" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C287" s="7">
         <f t="shared" si="2"/>
         <v>73030004</v>
       </c>
       <c r="D287" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E287" s="7">
         <v>1</v>
@@ -42693,7 +42693,7 @@
         <v>0</v>
       </c>
       <c r="AL287" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM287" s="11"/>
       <c r="AN287" s="7">
@@ -42715,13 +42715,13 @@
       <c r="AT287" s="7"/>
       <c r="AU287" s="7"/>
     </row>
-    <row r="288" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="288" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C288" s="7">
         <f t="shared" si="2"/>
         <v>73030005</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E288" s="7">
         <v>1</v>
@@ -42823,7 +42823,7 @@
         <v>0</v>
       </c>
       <c r="AL288" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM288" s="11"/>
       <c r="AN288" s="7">
@@ -42845,13 +42845,13 @@
       <c r="AT288" s="7"/>
       <c r="AU288" s="7"/>
     </row>
-    <row r="289" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="289" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C289" s="7">
         <f t="shared" si="2"/>
         <v>73031001</v>
       </c>
       <c r="D289" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E289" s="7">
         <v>1</v>
@@ -42953,7 +42953,7 @@
         <v>0</v>
       </c>
       <c r="AL289" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM289" s="11"/>
       <c r="AN289" s="7">
@@ -42975,13 +42975,13 @@
       <c r="AT289" s="7"/>
       <c r="AU289" s="7"/>
     </row>
-    <row r="290" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="290" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C290" s="7">
         <f t="shared" si="2"/>
         <v>73031002</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E290" s="7">
         <v>1</v>
@@ -43083,7 +43083,7 @@
         <v>0</v>
       </c>
       <c r="AL290" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM290" s="11"/>
       <c r="AN290" s="7">
@@ -43105,13 +43105,13 @@
       <c r="AT290" s="7"/>
       <c r="AU290" s="7"/>
     </row>
-    <row r="291" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="291" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C291" s="7">
         <f t="shared" si="2"/>
         <v>73031003</v>
       </c>
       <c r="D291" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E291" s="7">
         <v>1</v>
@@ -43213,7 +43213,7 @@
         <v>0</v>
       </c>
       <c r="AL291" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM291" s="11"/>
       <c r="AN291" s="7">
@@ -43235,13 +43235,13 @@
       <c r="AT291" s="7"/>
       <c r="AU291" s="7"/>
     </row>
-    <row r="292" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="292" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C292" s="7">
         <f t="shared" si="2"/>
         <v>73031004</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E292" s="7">
         <v>1</v>
@@ -43343,7 +43343,7 @@
         <v>0</v>
       </c>
       <c r="AL292" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM292" s="11"/>
       <c r="AN292" s="7">
@@ -43365,13 +43365,13 @@
       <c r="AT292" s="7"/>
       <c r="AU292" s="7"/>
     </row>
-    <row r="293" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="293" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C293" s="7">
         <f t="shared" si="2"/>
         <v>73031005</v>
       </c>
       <c r="D293" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E293" s="7">
         <v>1</v>
@@ -43473,7 +43473,7 @@
         <v>0</v>
       </c>
       <c r="AL293" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM293" s="11"/>
       <c r="AN293" s="7">
@@ -43495,13 +43495,13 @@
       <c r="AT293" s="7"/>
       <c r="AU293" s="7"/>
     </row>
-    <row r="294" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="294" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C294" s="7">
         <f t="shared" si="2"/>
         <v>73032001</v>
       </c>
       <c r="D294" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E294" s="7">
         <v>1</v>
@@ -43603,7 +43603,7 @@
         <v>0</v>
       </c>
       <c r="AL294" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM294" s="11"/>
       <c r="AN294" s="7">
@@ -43625,13 +43625,13 @@
       <c r="AT294" s="7"/>
       <c r="AU294" s="7"/>
     </row>
-    <row r="295" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="295" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C295" s="7">
         <f t="shared" si="2"/>
         <v>73032002</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E295" s="7">
         <v>1</v>
@@ -43733,7 +43733,7 @@
         <v>0</v>
       </c>
       <c r="AL295" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM295" s="11"/>
       <c r="AN295" s="7">
@@ -43755,13 +43755,13 @@
       <c r="AT295" s="7"/>
       <c r="AU295" s="7"/>
     </row>
-    <row r="296" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="296" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C296" s="7">
         <f t="shared" si="2"/>
         <v>73032003</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E296" s="7">
         <v>1</v>
@@ -43863,7 +43863,7 @@
         <v>0</v>
       </c>
       <c r="AL296" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM296" s="11"/>
       <c r="AN296" s="7">
@@ -43885,13 +43885,13 @@
       <c r="AT296" s="7"/>
       <c r="AU296" s="7"/>
     </row>
-    <row r="297" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="297" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C297" s="7">
         <f t="shared" si="2"/>
         <v>73032004</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E297" s="7">
         <v>1</v>
@@ -43993,7 +43993,7 @@
         <v>0</v>
       </c>
       <c r="AL297" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM297" s="11"/>
       <c r="AN297" s="7">
@@ -44015,13 +44015,13 @@
       <c r="AT297" s="7"/>
       <c r="AU297" s="7"/>
     </row>
-    <row r="298" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="298" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C298" s="7">
         <f t="shared" si="2"/>
         <v>73032005</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E298" s="7">
         <v>1</v>
@@ -44123,7 +44123,7 @@
         <v>0</v>
       </c>
       <c r="AL298" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM298" s="11"/>
       <c r="AN298" s="7">
@@ -44145,13 +44145,13 @@
       <c r="AT298" s="7"/>
       <c r="AU298" s="7"/>
     </row>
-    <row r="299" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="299" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C299" s="7">
         <f t="shared" si="2"/>
         <v>73033001</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E299" s="7">
         <v>1</v>
@@ -44253,7 +44253,7 @@
         <v>0</v>
       </c>
       <c r="AL299" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM299" s="11"/>
       <c r="AN299" s="7">
@@ -44275,13 +44275,13 @@
       <c r="AT299" s="7"/>
       <c r="AU299" s="7"/>
     </row>
-    <row r="300" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="300" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C300" s="7">
         <f t="shared" si="2"/>
         <v>73033002</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E300" s="7">
         <v>1</v>
@@ -44383,7 +44383,7 @@
         <v>0</v>
       </c>
       <c r="AL300" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM300" s="11"/>
       <c r="AN300" s="7">
@@ -44405,13 +44405,13 @@
       <c r="AT300" s="7"/>
       <c r="AU300" s="7"/>
     </row>
-    <row r="301" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="301" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C301" s="7">
         <f t="shared" si="2"/>
         <v>73033003</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E301" s="7">
         <v>1</v>
@@ -44513,7 +44513,7 @@
         <v>0</v>
       </c>
       <c r="AL301" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM301" s="11"/>
       <c r="AN301" s="7">
@@ -44535,13 +44535,13 @@
       <c r="AT301" s="7"/>
       <c r="AU301" s="7"/>
     </row>
-    <row r="302" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="302" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C302" s="7">
         <f t="shared" si="2"/>
         <v>73033004</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E302" s="7">
         <v>1</v>
@@ -44643,7 +44643,7 @@
         <v>0</v>
       </c>
       <c r="AL302" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM302" s="11"/>
       <c r="AN302" s="7">
@@ -44665,13 +44665,13 @@
       <c r="AT302" s="7"/>
       <c r="AU302" s="7"/>
     </row>
-    <row r="303" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="303" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C303" s="7">
         <f t="shared" si="2"/>
         <v>73033005</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E303" s="7">
         <v>1</v>
@@ -44773,7 +44773,7 @@
         <v>0</v>
       </c>
       <c r="AL303" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM303" s="11"/>
       <c r="AN303" s="7">
@@ -44795,13 +44795,13 @@
       <c r="AT303" s="7"/>
       <c r="AU303" s="7"/>
     </row>
-    <row r="304" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="304" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C304" s="7">
         <f t="shared" si="2"/>
         <v>73034001</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E304" s="7">
         <v>1</v>
@@ -44903,7 +44903,7 @@
         <v>0</v>
       </c>
       <c r="AL304" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM304" s="11"/>
       <c r="AN304" s="7">
@@ -44925,13 +44925,13 @@
       <c r="AT304" s="7"/>
       <c r="AU304" s="7"/>
     </row>
-    <row r="305" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="305" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C305" s="7">
         <f t="shared" si="2"/>
         <v>73034002</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E305" s="7">
         <v>1</v>
@@ -45033,7 +45033,7 @@
         <v>0</v>
       </c>
       <c r="AL305" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM305" s="11"/>
       <c r="AN305" s="7">
@@ -45055,13 +45055,13 @@
       <c r="AT305" s="7"/>
       <c r="AU305" s="7"/>
     </row>
-    <row r="306" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="306" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C306" s="7">
         <f t="shared" si="2"/>
         <v>73034003</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E306" s="7">
         <v>1</v>
@@ -45163,7 +45163,7 @@
         <v>0</v>
       </c>
       <c r="AL306" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM306" s="11"/>
       <c r="AN306" s="7">
@@ -45185,13 +45185,13 @@
       <c r="AT306" s="7"/>
       <c r="AU306" s="7"/>
     </row>
-    <row r="307" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="307" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C307" s="7">
         <f t="shared" si="2"/>
         <v>73034004</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E307" s="7">
         <v>1</v>
@@ -45293,7 +45293,7 @@
         <v>0</v>
       </c>
       <c r="AL307" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM307" s="11"/>
       <c r="AN307" s="7">
@@ -45315,13 +45315,13 @@
       <c r="AT307" s="7"/>
       <c r="AU307" s="7"/>
     </row>
-    <row r="308" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="308" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C308" s="7">
         <f t="shared" si="2"/>
         <v>73034005</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E308" s="7">
         <v>1</v>
@@ -45423,7 +45423,7 @@
         <v>0</v>
       </c>
       <c r="AL308" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM308" s="11"/>
       <c r="AN308" s="7">
@@ -45445,13 +45445,13 @@
       <c r="AT308" s="7"/>
       <c r="AU308" s="7"/>
     </row>
-    <row r="309" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="309" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C309" s="7">
         <f t="shared" si="2"/>
         <v>73035001</v>
       </c>
       <c r="D309" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E309" s="7">
         <v>1</v>
@@ -45553,7 +45553,7 @@
         <v>0</v>
       </c>
       <c r="AL309" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM309" s="11"/>
       <c r="AN309" s="7">
@@ -45575,13 +45575,13 @@
       <c r="AT309" s="7"/>
       <c r="AU309" s="7"/>
     </row>
-    <row r="310" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="310" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C310" s="7">
         <f t="shared" si="2"/>
         <v>73035002</v>
       </c>
       <c r="D310" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E310" s="7">
         <v>1</v>
@@ -45683,7 +45683,7 @@
         <v>0</v>
       </c>
       <c r="AL310" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM310" s="11"/>
       <c r="AN310" s="7">
@@ -45705,13 +45705,13 @@
       <c r="AT310" s="7"/>
       <c r="AU310" s="7"/>
     </row>
-    <row r="311" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="311" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C311" s="7">
         <f t="shared" si="2"/>
         <v>73035003</v>
       </c>
       <c r="D311" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E311" s="7">
         <v>1</v>
@@ -45813,7 +45813,7 @@
         <v>0</v>
       </c>
       <c r="AL311" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM311" s="11"/>
       <c r="AN311" s="7">
@@ -45835,13 +45835,13 @@
       <c r="AT311" s="7"/>
       <c r="AU311" s="7"/>
     </row>
-    <row r="312" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="312" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C312" s="7">
         <f t="shared" si="2"/>
         <v>73035004</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E312" s="7">
         <v>1</v>
@@ -45943,7 +45943,7 @@
         <v>0</v>
       </c>
       <c r="AL312" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM312" s="11"/>
       <c r="AN312" s="7">
@@ -45965,13 +45965,13 @@
       <c r="AT312" s="7"/>
       <c r="AU312" s="7"/>
     </row>
-    <row r="313" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="313" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C313" s="7">
         <f t="shared" si="2"/>
         <v>73035005</v>
       </c>
       <c r="D313" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E313" s="7">
         <v>1</v>
@@ -46073,7 +46073,7 @@
         <v>0</v>
       </c>
       <c r="AL313" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM313" s="11"/>
       <c r="AN313" s="7">
@@ -46095,13 +46095,13 @@
       <c r="AT313" s="7"/>
       <c r="AU313" s="7"/>
     </row>
-    <row r="314" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="314" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C314" s="7">
         <f t="shared" si="2"/>
         <v>73036001</v>
       </c>
       <c r="D314" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E314" s="7">
         <v>1</v>
@@ -46203,7 +46203,7 @@
         <v>0</v>
       </c>
       <c r="AL314" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM314" s="11"/>
       <c r="AN314" s="7">
@@ -46225,13 +46225,13 @@
       <c r="AT314" s="7"/>
       <c r="AU314" s="7"/>
     </row>
-    <row r="315" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="315" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C315" s="7">
         <f t="shared" si="2"/>
         <v>73036002</v>
       </c>
       <c r="D315" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E315" s="7">
         <v>1</v>
@@ -46333,7 +46333,7 @@
         <v>0</v>
       </c>
       <c r="AL315" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM315" s="11"/>
       <c r="AN315" s="7">
@@ -46355,13 +46355,13 @@
       <c r="AT315" s="7"/>
       <c r="AU315" s="7"/>
     </row>
-    <row r="316" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="316" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C316" s="7">
         <f t="shared" si="2"/>
         <v>73036003</v>
       </c>
       <c r="D316" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E316" s="7">
         <v>1</v>
@@ -46463,7 +46463,7 @@
         <v>0</v>
       </c>
       <c r="AL316" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM316" s="11"/>
       <c r="AN316" s="7">
@@ -46485,13 +46485,13 @@
       <c r="AT316" s="7"/>
       <c r="AU316" s="7"/>
     </row>
-    <row r="317" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="317" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C317" s="7">
         <f t="shared" si="2"/>
         <v>73036004</v>
       </c>
       <c r="D317" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E317" s="7">
         <v>1</v>
@@ -46593,7 +46593,7 @@
         <v>0</v>
       </c>
       <c r="AL317" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM317" s="11"/>
       <c r="AN317" s="7">
@@ -46615,13 +46615,13 @@
       <c r="AT317" s="7"/>
       <c r="AU317" s="7"/>
     </row>
-    <row r="318" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="318" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C318" s="7">
         <f t="shared" si="2"/>
         <v>73036005</v>
       </c>
       <c r="D318" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E318" s="7">
         <v>1</v>
@@ -46723,7 +46723,7 @@
         <v>0</v>
       </c>
       <c r="AL318" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM318" s="11"/>
       <c r="AN318" s="7">
@@ -46745,13 +46745,13 @@
       <c r="AT318" s="7"/>
       <c r="AU318" s="7"/>
     </row>
-    <row r="319" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="319" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C319" s="7">
         <f t="shared" si="2"/>
         <v>73037001</v>
       </c>
       <c r="D319" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E319" s="7">
         <v>1</v>
@@ -46853,7 +46853,7 @@
         <v>0</v>
       </c>
       <c r="AL319" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM319" s="11"/>
       <c r="AN319" s="7">
@@ -46875,13 +46875,13 @@
       <c r="AT319" s="7"/>
       <c r="AU319" s="7"/>
     </row>
-    <row r="320" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="320" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C320" s="7">
         <f t="shared" si="2"/>
         <v>73037002</v>
       </c>
       <c r="D320" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E320" s="7">
         <v>1</v>
@@ -46983,7 +46983,7 @@
         <v>0</v>
       </c>
       <c r="AL320" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM320" s="11"/>
       <c r="AN320" s="7">
@@ -47005,13 +47005,13 @@
       <c r="AT320" s="7"/>
       <c r="AU320" s="7"/>
     </row>
-    <row r="321" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="321" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C321" s="7">
         <f t="shared" si="2"/>
         <v>73037003</v>
       </c>
       <c r="D321" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E321" s="7">
         <v>1</v>
@@ -47113,7 +47113,7 @@
         <v>0</v>
       </c>
       <c r="AL321" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM321" s="11"/>
       <c r="AN321" s="7">
@@ -47135,13 +47135,13 @@
       <c r="AT321" s="7"/>
       <c r="AU321" s="7"/>
     </row>
-    <row r="322" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="322" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C322" s="7">
         <f t="shared" si="2"/>
         <v>73037004</v>
       </c>
       <c r="D322" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E322" s="7">
         <v>1</v>
@@ -47243,7 +47243,7 @@
         <v>0</v>
       </c>
       <c r="AL322" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM322" s="11"/>
       <c r="AN322" s="7">
@@ -47265,13 +47265,13 @@
       <c r="AT322" s="7"/>
       <c r="AU322" s="7"/>
     </row>
-    <row r="323" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="323" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C323" s="7">
         <f t="shared" si="2"/>
         <v>73037005</v>
       </c>
       <c r="D323" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E323" s="7">
         <v>1</v>
@@ -47373,7 +47373,7 @@
         <v>0</v>
       </c>
       <c r="AL323" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM323" s="11"/>
       <c r="AN323" s="7">
@@ -47395,13 +47395,13 @@
       <c r="AT323" s="7"/>
       <c r="AU323" s="7"/>
     </row>
-    <row r="324" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="324" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C324" s="7">
         <f t="shared" si="2"/>
         <v>73038001</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E324" s="7">
         <v>1</v>
@@ -47503,7 +47503,7 @@
         <v>0</v>
       </c>
       <c r="AL324" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM324" s="11"/>
       <c r="AN324" s="7">
@@ -47525,13 +47525,13 @@
       <c r="AT324" s="7"/>
       <c r="AU324" s="7"/>
     </row>
-    <row r="325" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="325" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C325" s="7">
         <f t="shared" si="2"/>
         <v>73038002</v>
       </c>
       <c r="D325" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E325" s="7">
         <v>1</v>
@@ -47633,7 +47633,7 @@
         <v>0</v>
       </c>
       <c r="AL325" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM325" s="11"/>
       <c r="AN325" s="7">
@@ -47655,13 +47655,13 @@
       <c r="AT325" s="7"/>
       <c r="AU325" s="7"/>
     </row>
-    <row r="326" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="326" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C326" s="7">
         <f t="shared" si="2"/>
         <v>73038003</v>
       </c>
       <c r="D326" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E326" s="7">
         <v>1</v>
@@ -47763,7 +47763,7 @@
         <v>0</v>
       </c>
       <c r="AL326" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM326" s="11"/>
       <c r="AN326" s="7">
@@ -47785,13 +47785,13 @@
       <c r="AT326" s="7"/>
       <c r="AU326" s="7"/>
     </row>
-    <row r="327" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="327" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C327" s="7">
         <f t="shared" si="2"/>
         <v>73038004</v>
       </c>
       <c r="D327" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E327" s="7">
         <v>1</v>
@@ -47893,7 +47893,7 @@
         <v>0</v>
       </c>
       <c r="AL327" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM327" s="11"/>
       <c r="AN327" s="7">
@@ -47915,13 +47915,13 @@
       <c r="AT327" s="7"/>
       <c r="AU327" s="7"/>
     </row>
-    <row r="328" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="328" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C328" s="7">
         <f t="shared" si="2"/>
         <v>73038005</v>
       </c>
       <c r="D328" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E328" s="7">
         <v>1</v>
@@ -48023,7 +48023,7 @@
         <v>0</v>
       </c>
       <c r="AL328" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM328" s="11"/>
       <c r="AN328" s="7">
@@ -48045,13 +48045,13 @@
       <c r="AT328" s="7"/>
       <c r="AU328" s="7"/>
     </row>
-    <row r="329" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="329" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C329" s="7">
         <f t="shared" si="2"/>
         <v>73039001</v>
       </c>
       <c r="D329" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E329" s="7">
         <v>1</v>
@@ -48153,7 +48153,7 @@
         <v>0</v>
       </c>
       <c r="AL329" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM329" s="11"/>
       <c r="AN329" s="7">
@@ -48175,13 +48175,13 @@
       <c r="AT329" s="7"/>
       <c r="AU329" s="7"/>
     </row>
-    <row r="330" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="330" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C330" s="7">
         <f t="shared" si="2"/>
         <v>73039002</v>
       </c>
       <c r="D330" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E330" s="7">
         <v>1</v>
@@ -48283,7 +48283,7 @@
         <v>0</v>
       </c>
       <c r="AL330" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM330" s="11"/>
       <c r="AN330" s="7">
@@ -48305,13 +48305,13 @@
       <c r="AT330" s="7"/>
       <c r="AU330" s="7"/>
     </row>
-    <row r="331" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="331" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C331" s="7">
         <f t="shared" si="2"/>
         <v>73039003</v>
       </c>
       <c r="D331" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E331" s="7">
         <v>1</v>
@@ -48413,7 +48413,7 @@
         <v>0</v>
       </c>
       <c r="AL331" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM331" s="11"/>
       <c r="AN331" s="7">
@@ -48435,13 +48435,13 @@
       <c r="AT331" s="7"/>
       <c r="AU331" s="7"/>
     </row>
-    <row r="332" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="332" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C332" s="7">
         <f t="shared" si="2"/>
         <v>73039004</v>
       </c>
       <c r="D332" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E332" s="7">
         <v>1</v>
@@ -48543,7 +48543,7 @@
         <v>0</v>
       </c>
       <c r="AL332" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM332" s="11"/>
       <c r="AN332" s="7">
@@ -48565,13 +48565,13 @@
       <c r="AT332" s="7"/>
       <c r="AU332" s="7"/>
     </row>
-    <row r="333" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="333" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C333" s="7">
         <f t="shared" si="2"/>
         <v>73039005</v>
       </c>
       <c r="D333" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E333" s="7">
         <v>1</v>
@@ -48673,7 +48673,7 @@
         <v>0</v>
       </c>
       <c r="AL333" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM333" s="11"/>
       <c r="AN333" s="7">
@@ -48695,13 +48695,13 @@
       <c r="AT333" s="7"/>
       <c r="AU333" s="7"/>
     </row>
-    <row r="334" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="334" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C334" s="7">
         <f t="shared" si="2"/>
         <v>73040001</v>
       </c>
       <c r="D334" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E334" s="7">
         <v>1</v>
@@ -48803,7 +48803,7 @@
         <v>0</v>
       </c>
       <c r="AL334" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM334" s="11"/>
       <c r="AN334" s="7">
@@ -48825,13 +48825,13 @@
       <c r="AT334" s="7"/>
       <c r="AU334" s="7"/>
     </row>
-    <row r="335" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="335" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C335" s="7">
         <f t="shared" si="2"/>
         <v>73040002</v>
       </c>
       <c r="D335" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E335" s="7">
         <v>1</v>
@@ -48933,7 +48933,7 @@
         <v>0</v>
       </c>
       <c r="AL335" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM335" s="11"/>
       <c r="AN335" s="7">
@@ -48955,13 +48955,13 @@
       <c r="AT335" s="7"/>
       <c r="AU335" s="7"/>
     </row>
-    <row r="336" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="336" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C336" s="7">
         <f t="shared" si="2"/>
         <v>73040003</v>
       </c>
       <c r="D336" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E336" s="7">
         <v>1</v>
@@ -49063,7 +49063,7 @@
         <v>0</v>
       </c>
       <c r="AL336" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM336" s="11"/>
       <c r="AN336" s="7">
@@ -49085,13 +49085,13 @@
       <c r="AT336" s="7"/>
       <c r="AU336" s="7"/>
     </row>
-    <row r="337" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="337" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C337" s="7">
         <f t="shared" ref="C337:C388" si="3">C332+1000</f>
         <v>73040004</v>
       </c>
       <c r="D337" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E337" s="7">
         <v>1</v>
@@ -49193,7 +49193,7 @@
         <v>0</v>
       </c>
       <c r="AL337" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM337" s="11"/>
       <c r="AN337" s="7">
@@ -49215,13 +49215,13 @@
       <c r="AT337" s="7"/>
       <c r="AU337" s="7"/>
     </row>
-    <row r="338" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="338" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C338" s="7">
         <f t="shared" si="3"/>
         <v>73040005</v>
       </c>
       <c r="D338" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E338" s="7">
         <v>1</v>
@@ -49323,7 +49323,7 @@
         <v>0</v>
       </c>
       <c r="AL338" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM338" s="11"/>
       <c r="AN338" s="7">
@@ -49345,13 +49345,13 @@
       <c r="AT338" s="7"/>
       <c r="AU338" s="7"/>
     </row>
-    <row r="339" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="339" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C339" s="7">
         <f t="shared" si="3"/>
         <v>73041001</v>
       </c>
       <c r="D339" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E339" s="7">
         <v>1</v>
@@ -49453,7 +49453,7 @@
         <v>0</v>
       </c>
       <c r="AL339" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM339" s="11"/>
       <c r="AN339" s="7">
@@ -49475,13 +49475,13 @@
       <c r="AT339" s="7"/>
       <c r="AU339" s="7"/>
     </row>
-    <row r="340" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="340" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C340" s="7">
         <f t="shared" si="3"/>
         <v>73041002</v>
       </c>
       <c r="D340" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E340" s="7">
         <v>1</v>
@@ -49583,7 +49583,7 @@
         <v>0</v>
       </c>
       <c r="AL340" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM340" s="11"/>
       <c r="AN340" s="7">
@@ -49605,13 +49605,13 @@
       <c r="AT340" s="7"/>
       <c r="AU340" s="7"/>
     </row>
-    <row r="341" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="341" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C341" s="7">
         <f t="shared" si="3"/>
         <v>73041003</v>
       </c>
       <c r="D341" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E341" s="7">
         <v>1</v>
@@ -49713,7 +49713,7 @@
         <v>0</v>
       </c>
       <c r="AL341" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM341" s="11"/>
       <c r="AN341" s="7">
@@ -49735,13 +49735,13 @@
       <c r="AT341" s="7"/>
       <c r="AU341" s="7"/>
     </row>
-    <row r="342" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="342" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C342" s="7">
         <f t="shared" si="3"/>
         <v>73041004</v>
       </c>
       <c r="D342" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E342" s="7">
         <v>1</v>
@@ -49843,7 +49843,7 @@
         <v>0</v>
       </c>
       <c r="AL342" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM342" s="11"/>
       <c r="AN342" s="7">
@@ -49865,13 +49865,13 @@
       <c r="AT342" s="7"/>
       <c r="AU342" s="7"/>
     </row>
-    <row r="343" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="343" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C343" s="7">
         <f t="shared" si="3"/>
         <v>73041005</v>
       </c>
       <c r="D343" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E343" s="7">
         <v>1</v>
@@ -49973,7 +49973,7 @@
         <v>0</v>
       </c>
       <c r="AL343" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM343" s="11"/>
       <c r="AN343" s="7">
@@ -49995,13 +49995,13 @@
       <c r="AT343" s="7"/>
       <c r="AU343" s="7"/>
     </row>
-    <row r="344" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="344" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C344" s="7">
         <f t="shared" si="3"/>
         <v>73042001</v>
       </c>
       <c r="D344" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E344" s="7">
         <v>1</v>
@@ -50103,7 +50103,7 @@
         <v>0</v>
       </c>
       <c r="AL344" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM344" s="11"/>
       <c r="AN344" s="7">
@@ -50125,13 +50125,13 @@
       <c r="AT344" s="7"/>
       <c r="AU344" s="7"/>
     </row>
-    <row r="345" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="345" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C345" s="7">
         <f t="shared" si="3"/>
         <v>73042002</v>
       </c>
       <c r="D345" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E345" s="7">
         <v>1</v>
@@ -50233,7 +50233,7 @@
         <v>0</v>
       </c>
       <c r="AL345" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM345" s="11"/>
       <c r="AN345" s="7">
@@ -50255,13 +50255,13 @@
       <c r="AT345" s="7"/>
       <c r="AU345" s="7"/>
     </row>
-    <row r="346" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="346" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C346" s="7">
         <f t="shared" si="3"/>
         <v>73042003</v>
       </c>
       <c r="D346" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E346" s="7">
         <v>1</v>
@@ -50363,7 +50363,7 @@
         <v>0</v>
       </c>
       <c r="AL346" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM346" s="11"/>
       <c r="AN346" s="7">
@@ -50385,13 +50385,13 @@
       <c r="AT346" s="7"/>
       <c r="AU346" s="7"/>
     </row>
-    <row r="347" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="347" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C347" s="7">
         <f t="shared" si="3"/>
         <v>73042004</v>
       </c>
       <c r="D347" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E347" s="7">
         <v>1</v>
@@ -50493,7 +50493,7 @@
         <v>0</v>
       </c>
       <c r="AL347" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM347" s="11"/>
       <c r="AN347" s="7">
@@ -50515,13 +50515,13 @@
       <c r="AT347" s="7"/>
       <c r="AU347" s="7"/>
     </row>
-    <row r="348" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="348" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C348" s="7">
         <f t="shared" si="3"/>
         <v>73042005</v>
       </c>
       <c r="D348" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E348" s="7">
         <v>1</v>
@@ -50623,7 +50623,7 @@
         <v>0</v>
       </c>
       <c r="AL348" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM348" s="11"/>
       <c r="AN348" s="7">
@@ -50645,13 +50645,13 @@
       <c r="AT348" s="7"/>
       <c r="AU348" s="7"/>
     </row>
-    <row r="349" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="349" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C349" s="7">
         <f t="shared" si="3"/>
         <v>73043001</v>
       </c>
       <c r="D349" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E349" s="7">
         <v>1</v>
@@ -50753,7 +50753,7 @@
         <v>0</v>
       </c>
       <c r="AL349" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM349" s="11"/>
       <c r="AN349" s="7">
@@ -50775,13 +50775,13 @@
       <c r="AT349" s="7"/>
       <c r="AU349" s="7"/>
     </row>
-    <row r="350" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="350" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C350" s="7">
         <f t="shared" si="3"/>
         <v>73043002</v>
       </c>
       <c r="D350" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E350" s="7">
         <v>1</v>
@@ -50883,7 +50883,7 @@
         <v>0</v>
       </c>
       <c r="AL350" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM350" s="11"/>
       <c r="AN350" s="7">
@@ -50905,13 +50905,13 @@
       <c r="AT350" s="7"/>
       <c r="AU350" s="7"/>
     </row>
-    <row r="351" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="351" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C351" s="7">
         <f t="shared" si="3"/>
         <v>73043003</v>
       </c>
       <c r="D351" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E351" s="7">
         <v>1</v>
@@ -51013,7 +51013,7 @@
         <v>0</v>
       </c>
       <c r="AL351" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM351" s="11"/>
       <c r="AN351" s="7">
@@ -51035,13 +51035,13 @@
       <c r="AT351" s="7"/>
       <c r="AU351" s="7"/>
     </row>
-    <row r="352" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="352" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C352" s="7">
         <f t="shared" si="3"/>
         <v>73043004</v>
       </c>
       <c r="D352" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E352" s="7">
         <v>1</v>
@@ -51143,7 +51143,7 @@
         <v>0</v>
       </c>
       <c r="AL352" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM352" s="11"/>
       <c r="AN352" s="7">
@@ -51165,13 +51165,13 @@
       <c r="AT352" s="7"/>
       <c r="AU352" s="7"/>
     </row>
-    <row r="353" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="353" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C353" s="7">
         <f t="shared" si="3"/>
         <v>73043005</v>
       </c>
       <c r="D353" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E353" s="7">
         <v>1</v>
@@ -51273,7 +51273,7 @@
         <v>0</v>
       </c>
       <c r="AL353" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM353" s="11"/>
       <c r="AN353" s="7">
@@ -51295,13 +51295,13 @@
       <c r="AT353" s="7"/>
       <c r="AU353" s="7"/>
     </row>
-    <row r="354" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="354" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C354" s="7">
         <f t="shared" si="3"/>
         <v>73044001</v>
       </c>
       <c r="D354" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E354" s="7">
         <v>1</v>
@@ -51403,7 +51403,7 @@
         <v>0</v>
       </c>
       <c r="AL354" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM354" s="11"/>
       <c r="AN354" s="7">
@@ -51425,13 +51425,13 @@
       <c r="AT354" s="7"/>
       <c r="AU354" s="7"/>
     </row>
-    <row r="355" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="355" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C355" s="7">
         <f t="shared" si="3"/>
         <v>73044002</v>
       </c>
       <c r="D355" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E355" s="7">
         <v>1</v>
@@ -51533,7 +51533,7 @@
         <v>0</v>
       </c>
       <c r="AL355" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM355" s="11"/>
       <c r="AN355" s="7">
@@ -51555,13 +51555,13 @@
       <c r="AT355" s="7"/>
       <c r="AU355" s="7"/>
     </row>
-    <row r="356" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="356" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C356" s="7">
         <f t="shared" si="3"/>
         <v>73044003</v>
       </c>
       <c r="D356" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E356" s="7">
         <v>1</v>
@@ -51663,7 +51663,7 @@
         <v>0</v>
       </c>
       <c r="AL356" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM356" s="11"/>
       <c r="AN356" s="7">
@@ -51685,13 +51685,13 @@
       <c r="AT356" s="7"/>
       <c r="AU356" s="7"/>
     </row>
-    <row r="357" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="357" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C357" s="7">
         <f t="shared" si="3"/>
         <v>73044004</v>
       </c>
       <c r="D357" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E357" s="7">
         <v>1</v>
@@ -51793,7 +51793,7 @@
         <v>0</v>
       </c>
       <c r="AL357" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM357" s="11"/>
       <c r="AN357" s="7">
@@ -51815,13 +51815,13 @@
       <c r="AT357" s="7"/>
       <c r="AU357" s="7"/>
     </row>
-    <row r="358" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="358" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C358" s="7">
         <f t="shared" si="3"/>
         <v>73044005</v>
       </c>
       <c r="D358" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E358" s="7">
         <v>1</v>
@@ -51923,7 +51923,7 @@
         <v>0</v>
       </c>
       <c r="AL358" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM358" s="11"/>
       <c r="AN358" s="7">
@@ -51945,13 +51945,13 @@
       <c r="AT358" s="7"/>
       <c r="AU358" s="7"/>
     </row>
-    <row r="359" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="359" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C359" s="7">
         <f t="shared" si="3"/>
         <v>73045001</v>
       </c>
       <c r="D359" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E359" s="7">
         <v>1</v>
@@ -52053,7 +52053,7 @@
         <v>0</v>
       </c>
       <c r="AL359" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM359" s="11"/>
       <c r="AN359" s="7">
@@ -52075,13 +52075,13 @@
       <c r="AT359" s="7"/>
       <c r="AU359" s="7"/>
     </row>
-    <row r="360" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="360" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C360" s="7">
         <f t="shared" si="3"/>
         <v>73045002</v>
       </c>
       <c r="D360" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E360" s="7">
         <v>1</v>
@@ -52183,7 +52183,7 @@
         <v>0</v>
       </c>
       <c r="AL360" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM360" s="11"/>
       <c r="AN360" s="7">
@@ -52205,13 +52205,13 @@
       <c r="AT360" s="7"/>
       <c r="AU360" s="7"/>
     </row>
-    <row r="361" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="361" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C361" s="7">
         <f t="shared" si="3"/>
         <v>73045003</v>
       </c>
       <c r="D361" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E361" s="7">
         <v>1</v>
@@ -52313,7 +52313,7 @@
         <v>0</v>
       </c>
       <c r="AL361" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM361" s="11"/>
       <c r="AN361" s="7">
@@ -52335,13 +52335,13 @@
       <c r="AT361" s="7"/>
       <c r="AU361" s="7"/>
     </row>
-    <row r="362" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="362" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C362" s="7">
         <f t="shared" si="3"/>
         <v>73045004</v>
       </c>
       <c r="D362" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E362" s="7">
         <v>1</v>
@@ -52443,7 +52443,7 @@
         <v>0</v>
       </c>
       <c r="AL362" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM362" s="11"/>
       <c r="AN362" s="7">
@@ -52465,13 +52465,13 @@
       <c r="AT362" s="7"/>
       <c r="AU362" s="7"/>
     </row>
-    <row r="363" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="363" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C363" s="7">
         <f t="shared" si="3"/>
         <v>73045005</v>
       </c>
       <c r="D363" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E363" s="7">
         <v>1</v>
@@ -52573,7 +52573,7 @@
         <v>0</v>
       </c>
       <c r="AL363" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM363" s="11"/>
       <c r="AN363" s="7">
@@ -52595,13 +52595,13 @@
       <c r="AT363" s="7"/>
       <c r="AU363" s="7"/>
     </row>
-    <row r="364" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="364" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C364" s="7">
         <f t="shared" si="3"/>
         <v>73046001</v>
       </c>
       <c r="D364" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E364" s="7">
         <v>1</v>
@@ -52703,7 +52703,7 @@
         <v>0</v>
       </c>
       <c r="AL364" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM364" s="11"/>
       <c r="AN364" s="7">
@@ -52725,13 +52725,13 @@
       <c r="AT364" s="7"/>
       <c r="AU364" s="7"/>
     </row>
-    <row r="365" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="365" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C365" s="7">
         <f t="shared" si="3"/>
         <v>73046002</v>
       </c>
       <c r="D365" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E365" s="7">
         <v>1</v>
@@ -52833,7 +52833,7 @@
         <v>0</v>
       </c>
       <c r="AL365" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM365" s="11"/>
       <c r="AN365" s="7">
@@ -52855,13 +52855,13 @@
       <c r="AT365" s="7"/>
       <c r="AU365" s="7"/>
     </row>
-    <row r="366" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="366" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C366" s="7">
         <f t="shared" si="3"/>
         <v>73046003</v>
       </c>
       <c r="D366" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E366" s="7">
         <v>1</v>
@@ -52963,7 +52963,7 @@
         <v>0</v>
       </c>
       <c r="AL366" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM366" s="11"/>
       <c r="AN366" s="7">
@@ -52985,13 +52985,13 @@
       <c r="AT366" s="7"/>
       <c r="AU366" s="7"/>
     </row>
-    <row r="367" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="367" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C367" s="7">
         <f t="shared" si="3"/>
         <v>73046004</v>
       </c>
       <c r="D367" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E367" s="7">
         <v>1</v>
@@ -53093,7 +53093,7 @@
         <v>0</v>
       </c>
       <c r="AL367" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM367" s="11"/>
       <c r="AN367" s="7">
@@ -53115,13 +53115,13 @@
       <c r="AT367" s="7"/>
       <c r="AU367" s="7"/>
     </row>
-    <row r="368" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="368" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C368" s="7">
         <f t="shared" si="3"/>
         <v>73046005</v>
       </c>
       <c r="D368" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E368" s="7">
         <v>1</v>
@@ -53223,7 +53223,7 @@
         <v>0</v>
       </c>
       <c r="AL368" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM368" s="11"/>
       <c r="AN368" s="7">
@@ -53245,13 +53245,13 @@
       <c r="AT368" s="7"/>
       <c r="AU368" s="7"/>
     </row>
-    <row r="369" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="369" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C369" s="7">
         <f t="shared" si="3"/>
         <v>73047001</v>
       </c>
       <c r="D369" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E369" s="7">
         <v>1</v>
@@ -53353,7 +53353,7 @@
         <v>0</v>
       </c>
       <c r="AL369" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM369" s="11"/>
       <c r="AN369" s="7">
@@ -53375,13 +53375,13 @@
       <c r="AT369" s="7"/>
       <c r="AU369" s="7"/>
     </row>
-    <row r="370" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="370" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C370" s="7">
         <f t="shared" si="3"/>
         <v>73047002</v>
       </c>
       <c r="D370" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E370" s="7">
         <v>1</v>
@@ -53483,7 +53483,7 @@
         <v>0</v>
       </c>
       <c r="AL370" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM370" s="11"/>
       <c r="AN370" s="7">
@@ -53505,13 +53505,13 @@
       <c r="AT370" s="7"/>
       <c r="AU370" s="7"/>
     </row>
-    <row r="371" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="371" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C371" s="7">
         <f t="shared" si="3"/>
         <v>73047003</v>
       </c>
       <c r="D371" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E371" s="7">
         <v>1</v>
@@ -53613,7 +53613,7 @@
         <v>0</v>
       </c>
       <c r="AL371" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM371" s="11"/>
       <c r="AN371" s="7">
@@ -53635,13 +53635,13 @@
       <c r="AT371" s="7"/>
       <c r="AU371" s="7"/>
     </row>
-    <row r="372" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="372" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C372" s="7">
         <f t="shared" si="3"/>
         <v>73047004</v>
       </c>
       <c r="D372" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E372" s="7">
         <v>1</v>
@@ -53743,7 +53743,7 @@
         <v>0</v>
       </c>
       <c r="AL372" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM372" s="11"/>
       <c r="AN372" s="7">
@@ -53765,13 +53765,13 @@
       <c r="AT372" s="7"/>
       <c r="AU372" s="7"/>
     </row>
-    <row r="373" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="373" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C373" s="7">
         <f t="shared" si="3"/>
         <v>73047005</v>
       </c>
       <c r="D373" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E373" s="7">
         <v>1</v>
@@ -53873,7 +53873,7 @@
         <v>0</v>
       </c>
       <c r="AL373" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM373" s="11"/>
       <c r="AN373" s="7">
@@ -53895,13 +53895,13 @@
       <c r="AT373" s="7"/>
       <c r="AU373" s="7"/>
     </row>
-    <row r="374" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="374" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C374" s="7">
         <f t="shared" si="3"/>
         <v>73048001</v>
       </c>
       <c r="D374" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E374" s="7">
         <v>1</v>
@@ -54003,7 +54003,7 @@
         <v>0</v>
       </c>
       <c r="AL374" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM374" s="11"/>
       <c r="AN374" s="7">
@@ -54025,13 +54025,13 @@
       <c r="AT374" s="7"/>
       <c r="AU374" s="7"/>
     </row>
-    <row r="375" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="375" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C375" s="7">
         <f t="shared" si="3"/>
         <v>73048002</v>
       </c>
       <c r="D375" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E375" s="7">
         <v>1</v>
@@ -54133,7 +54133,7 @@
         <v>0</v>
       </c>
       <c r="AL375" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM375" s="11"/>
       <c r="AN375" s="7">
@@ -54155,13 +54155,13 @@
       <c r="AT375" s="7"/>
       <c r="AU375" s="7"/>
     </row>
-    <row r="376" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="376" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C376" s="7">
         <f t="shared" si="3"/>
         <v>73048003</v>
       </c>
       <c r="D376" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E376" s="7">
         <v>1</v>
@@ -54263,7 +54263,7 @@
         <v>0</v>
       </c>
       <c r="AL376" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM376" s="11"/>
       <c r="AN376" s="7">
@@ -54285,13 +54285,13 @@
       <c r="AT376" s="7"/>
       <c r="AU376" s="7"/>
     </row>
-    <row r="377" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="377" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C377" s="7">
         <f t="shared" si="3"/>
         <v>73048004</v>
       </c>
       <c r="D377" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E377" s="7">
         <v>1</v>
@@ -54393,7 +54393,7 @@
         <v>0</v>
       </c>
       <c r="AL377" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM377" s="11"/>
       <c r="AN377" s="7">
@@ -54415,13 +54415,13 @@
       <c r="AT377" s="7"/>
       <c r="AU377" s="7"/>
     </row>
-    <row r="378" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="378" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C378" s="7">
         <f t="shared" si="3"/>
         <v>73048005</v>
       </c>
       <c r="D378" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E378" s="7">
         <v>1</v>
@@ -54523,7 +54523,7 @@
         <v>0</v>
       </c>
       <c r="AL378" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM378" s="11"/>
       <c r="AN378" s="7">
@@ -54545,13 +54545,13 @@
       <c r="AT378" s="7"/>
       <c r="AU378" s="7"/>
     </row>
-    <row r="379" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="379" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C379" s="7">
         <f t="shared" si="3"/>
         <v>73049001</v>
       </c>
       <c r="D379" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E379" s="7">
         <v>1</v>
@@ -54653,7 +54653,7 @@
         <v>0</v>
       </c>
       <c r="AL379" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM379" s="11"/>
       <c r="AN379" s="7">
@@ -54675,13 +54675,13 @@
       <c r="AT379" s="7"/>
       <c r="AU379" s="7"/>
     </row>
-    <row r="380" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="380" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C380" s="7">
         <f t="shared" si="3"/>
         <v>73049002</v>
       </c>
       <c r="D380" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E380" s="7">
         <v>1</v>
@@ -54783,7 +54783,7 @@
         <v>0</v>
       </c>
       <c r="AL380" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM380" s="11"/>
       <c r="AN380" s="7">
@@ -54805,13 +54805,13 @@
       <c r="AT380" s="7"/>
       <c r="AU380" s="7"/>
     </row>
-    <row r="381" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="381" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C381" s="7">
         <f t="shared" si="3"/>
         <v>73049003</v>
       </c>
       <c r="D381" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E381" s="7">
         <v>1</v>
@@ -54913,7 +54913,7 @@
         <v>0</v>
       </c>
       <c r="AL381" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM381" s="11"/>
       <c r="AN381" s="7">
@@ -54935,13 +54935,13 @@
       <c r="AT381" s="7"/>
       <c r="AU381" s="7"/>
     </row>
-    <row r="382" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="382" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C382" s="7">
         <f t="shared" si="3"/>
         <v>73049004</v>
       </c>
       <c r="D382" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E382" s="7">
         <v>1</v>
@@ -55043,7 +55043,7 @@
         <v>0</v>
       </c>
       <c r="AL382" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM382" s="11"/>
       <c r="AN382" s="7">
@@ -55065,13 +55065,13 @@
       <c r="AT382" s="7"/>
       <c r="AU382" s="7"/>
     </row>
-    <row r="383" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="383" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C383" s="7">
         <f t="shared" si="3"/>
         <v>73049005</v>
       </c>
       <c r="D383" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E383" s="7">
         <v>1</v>
@@ -55173,7 +55173,7 @@
         <v>0</v>
       </c>
       <c r="AL383" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM383" s="11"/>
       <c r="AN383" s="7">
@@ -55195,13 +55195,13 @@
       <c r="AT383" s="7"/>
       <c r="AU383" s="7"/>
     </row>
-    <row r="384" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="384" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C384" s="7">
         <f t="shared" si="3"/>
         <v>73050001</v>
       </c>
       <c r="D384" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E384" s="7">
         <v>1</v>
@@ -55303,7 +55303,7 @@
         <v>0</v>
       </c>
       <c r="AL384" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM384" s="11"/>
       <c r="AN384" s="7">
@@ -55325,13 +55325,13 @@
       <c r="AT384" s="7"/>
       <c r="AU384" s="7"/>
     </row>
-    <row r="385" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="385" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C385" s="7">
         <f t="shared" si="3"/>
         <v>73050002</v>
       </c>
       <c r="D385" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E385" s="7">
         <v>1</v>
@@ -55433,7 +55433,7 @@
         <v>0</v>
       </c>
       <c r="AL385" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM385" s="11"/>
       <c r="AN385" s="7">
@@ -55455,13 +55455,13 @@
       <c r="AT385" s="7"/>
       <c r="AU385" s="7"/>
     </row>
-    <row r="386" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="386" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C386" s="7">
         <f t="shared" si="3"/>
         <v>73050003</v>
       </c>
       <c r="D386" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E386" s="7">
         <v>1</v>
@@ -55563,7 +55563,7 @@
         <v>0</v>
       </c>
       <c r="AL386" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM386" s="11"/>
       <c r="AN386" s="7">
@@ -55585,13 +55585,13 @@
       <c r="AT386" s="7"/>
       <c r="AU386" s="7"/>
     </row>
-    <row r="387" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="387" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C387" s="7">
         <f t="shared" si="3"/>
         <v>73050004</v>
       </c>
       <c r="D387" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E387" s="7">
         <v>1</v>
@@ -55693,7 +55693,7 @@
         <v>0</v>
       </c>
       <c r="AL387" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM387" s="11"/>
       <c r="AN387" s="7">
@@ -55715,13 +55715,13 @@
       <c r="AT387" s="7"/>
       <c r="AU387" s="7"/>
     </row>
-    <row r="388" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="388" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C388" s="7">
         <f t="shared" si="3"/>
         <v>73050005</v>
       </c>
       <c r="D388" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E388" s="7">
         <v>1</v>
@@ -55823,7 +55823,7 @@
         <v>0</v>
       </c>
       <c r="AL388" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM388" s="11"/>
       <c r="AN388" s="7">
@@ -55846,13 +55846,6 @@
       <c r="AU388" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E388" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C09511-277C-4A1A-9A02-817781B79553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1318986-FBCB-4280-8E25-A5DAE4E9D30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -5770,10 +5770,10 @@
   <dimension ref="A1:AV395"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AI19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL38" sqref="AL38"/>
+      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -6269,7 +6269,7 @@
         <v>1050</v>
       </c>
       <c r="R6" s="6">
-        <v>1050</v>
+        <v>100</v>
       </c>
       <c r="S6" s="6">
         <v>100</v>
@@ -6338,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="AO6" s="6">
-        <v>70000001</v>
+        <v>67000060</v>
       </c>
       <c r="AP6" s="10" t="s">
         <v>150</v>
@@ -6397,7 +6397,7 @@
         <v>1575</v>
       </c>
       <c r="R7" s="6">
-        <v>1575</v>
+        <v>150</v>
       </c>
       <c r="S7" s="6">
         <v>150</v>
@@ -6466,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="AO7" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP7" s="10" t="s">
         <v>150</v>
@@ -6525,7 +6525,7 @@
         <v>2100</v>
       </c>
       <c r="R8" s="6">
-        <v>2100</v>
+        <v>200</v>
       </c>
       <c r="S8" s="6">
         <v>200</v>
@@ -6594,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="AO8" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP8" s="10" t="s">
         <v>150</v>
@@ -6653,7 +6653,7 @@
         <v>16800</v>
       </c>
       <c r="R9" s="6">
-        <v>16800</v>
+        <v>250</v>
       </c>
       <c r="S9" s="6">
         <v>250</v>
@@ -6722,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="AO9" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP9" s="10" t="s">
         <v>332</v>
@@ -6781,7 +6781,7 @@
         <v>2625</v>
       </c>
       <c r="R10" s="6">
-        <v>2625</v>
+        <v>250</v>
       </c>
       <c r="S10" s="6">
         <v>250</v>
@@ -6850,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="AO10" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP10" s="10" t="s">
         <v>150</v>
@@ -6909,7 +6909,7 @@
         <v>2625</v>
       </c>
       <c r="R11" s="6">
-        <v>2625</v>
+        <v>250</v>
       </c>
       <c r="S11" s="6">
         <v>250</v>
@@ -6978,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="AO11" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP11" s="10" t="s">
         <v>150</v>
@@ -7037,7 +7037,7 @@
         <v>2625</v>
       </c>
       <c r="R12" s="14">
-        <v>2625</v>
+        <v>250</v>
       </c>
       <c r="S12" s="14">
         <v>250</v>
@@ -7106,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="AO12" s="14">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP12" s="15" t="s">
         <v>151</v>
@@ -7165,7 +7165,7 @@
         <v>2625</v>
       </c>
       <c r="R13" s="6">
-        <v>2625</v>
+        <v>250</v>
       </c>
       <c r="S13" s="6">
         <v>250</v>
@@ -7234,7 +7234,7 @@
         <v>1</v>
       </c>
       <c r="AO13" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP13" s="10" t="s">
         <v>150</v>
@@ -7293,7 +7293,7 @@
         <v>25200</v>
       </c>
       <c r="R14" s="6">
-        <v>25200</v>
+        <v>375</v>
       </c>
       <c r="S14" s="6">
         <v>375</v>
@@ -7362,7 +7362,7 @@
         <v>1</v>
       </c>
       <c r="AO14" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP14" s="10" t="s">
         <v>152</v>
@@ -7421,7 +7421,7 @@
         <v>4200</v>
       </c>
       <c r="R15" s="6">
-        <v>4200</v>
+        <v>400</v>
       </c>
       <c r="S15" s="6">
         <v>400</v>
@@ -7490,7 +7490,7 @@
         <v>1</v>
       </c>
       <c r="AO15" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP15" s="10" t="s">
         <v>150</v>
@@ -7549,7 +7549,7 @@
         <v>4200</v>
       </c>
       <c r="R16" s="14">
-        <v>4200</v>
+        <v>400</v>
       </c>
       <c r="S16" s="14">
         <v>400</v>
@@ -7618,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="AO16" s="14">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP16" s="15" t="s">
         <v>150</v>
@@ -7677,7 +7677,7 @@
         <v>4725</v>
       </c>
       <c r="R17" s="14">
-        <v>4725</v>
+        <v>450</v>
       </c>
       <c r="S17" s="14">
         <v>450</v>
@@ -7746,7 +7746,7 @@
         <v>1</v>
       </c>
       <c r="AO17" s="14">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP17" s="15" t="s">
         <v>150</v>
@@ -7805,7 +7805,7 @@
         <v>46200</v>
       </c>
       <c r="R18" s="6">
-        <v>46200</v>
+        <v>688</v>
       </c>
       <c r="S18" s="6">
         <v>688</v>
@@ -7874,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="AO18" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP18" s="10" t="s">
         <v>153</v>
@@ -7933,7 +7933,7 @@
         <v>5775</v>
       </c>
       <c r="R19" s="6">
-        <v>5775</v>
+        <v>550</v>
       </c>
       <c r="S19" s="6">
         <v>550</v>
@@ -8002,7 +8002,7 @@
         <v>1</v>
       </c>
       <c r="AO19" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP19" s="10" t="s">
         <v>150</v>
@@ -8061,7 +8061,7 @@
         <v>5775</v>
       </c>
       <c r="R20" s="6">
-        <v>5775</v>
+        <v>550</v>
       </c>
       <c r="S20" s="6">
         <v>550</v>
@@ -8130,7 +8130,7 @@
         <v>1</v>
       </c>
       <c r="AO20" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP20" s="10" t="s">
         <v>150</v>
@@ -8189,7 +8189,7 @@
         <v>5775</v>
       </c>
       <c r="R21" s="14">
-        <v>5775</v>
+        <v>550</v>
       </c>
       <c r="S21" s="14">
         <v>550</v>
@@ -8258,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="AO21" s="14">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP21" s="15" t="s">
         <v>150</v>
@@ -8317,7 +8317,7 @@
         <v>5775</v>
       </c>
       <c r="R22" s="14">
-        <v>5775</v>
+        <v>550</v>
       </c>
       <c r="S22" s="14">
         <v>550</v>
@@ -8386,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="AO22" s="14">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP22" s="15" t="s">
         <v>150</v>
@@ -8445,7 +8445,7 @@
         <v>5775</v>
       </c>
       <c r="R23" s="6">
-        <v>5775</v>
+        <v>550</v>
       </c>
       <c r="S23" s="6">
         <v>550</v>
@@ -8514,7 +8514,7 @@
         <v>1</v>
       </c>
       <c r="AO23" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP23" s="10" t="s">
         <v>154</v>
@@ -8573,7 +8573,7 @@
         <v>54600</v>
       </c>
       <c r="R24" s="6">
-        <v>54600</v>
+        <v>813</v>
       </c>
       <c r="S24" s="6">
         <v>813</v>
@@ -8642,7 +8642,7 @@
         <v>1</v>
       </c>
       <c r="AO24" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP24" s="10" t="s">
         <v>155</v>
@@ -8701,7 +8701,7 @@
         <v>7350</v>
       </c>
       <c r="R25" s="6">
-        <v>7350</v>
+        <v>700</v>
       </c>
       <c r="S25" s="6">
         <v>700</v>
@@ -8770,7 +8770,7 @@
         <v>1</v>
       </c>
       <c r="AO25" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP25" s="10" t="s">
         <v>150</v>
@@ -8829,7 +8829,7 @@
         <v>7350</v>
       </c>
       <c r="R26" s="14">
-        <v>7350</v>
+        <v>700</v>
       </c>
       <c r="S26" s="14">
         <v>700</v>
@@ -8898,7 +8898,7 @@
         <v>1</v>
       </c>
       <c r="AO26" s="14">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP26" s="15" t="s">
         <v>150</v>
@@ -8957,7 +8957,7 @@
         <v>67200</v>
       </c>
       <c r="R27" s="6">
-        <v>67200</v>
+        <v>1000</v>
       </c>
       <c r="S27" s="6">
         <v>1000</v>
@@ -9026,7 +9026,7 @@
         <v>1</v>
       </c>
       <c r="AO27" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP27" s="10" t="s">
         <v>156</v>
@@ -9085,7 +9085,7 @@
         <v>10500</v>
       </c>
       <c r="R28" s="6">
-        <v>10500</v>
+        <v>1000</v>
       </c>
       <c r="S28" s="6">
         <v>1000</v>
@@ -9154,7 +9154,7 @@
         <v>1</v>
       </c>
       <c r="AO28" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP28" s="10" t="s">
         <v>150</v>
@@ -9213,7 +9213,7 @@
         <v>10500</v>
       </c>
       <c r="R29" s="6">
-        <v>10500</v>
+        <v>1000</v>
       </c>
       <c r="S29" s="6">
         <v>1000</v>
@@ -9282,7 +9282,7 @@
         <v>1</v>
       </c>
       <c r="AO29" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP29" s="10" t="s">
         <v>150</v>
@@ -9341,7 +9341,7 @@
         <v>100800</v>
       </c>
       <c r="R30" s="6">
-        <v>100800</v>
+        <v>1500</v>
       </c>
       <c r="S30" s="6">
         <v>1500</v>
@@ -9410,7 +9410,7 @@
         <v>1</v>
       </c>
       <c r="AO30" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP30" s="10" t="s">
         <v>157</v>
@@ -9469,7 +9469,7 @@
         <v>13650</v>
       </c>
       <c r="R31" s="6">
-        <v>13650</v>
+        <v>1300</v>
       </c>
       <c r="S31" s="6">
         <v>1300</v>
@@ -9538,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="AO31" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP31" s="10" t="s">
         <v>150</v>
@@ -9597,7 +9597,7 @@
         <v>13650</v>
       </c>
       <c r="R32" s="6">
-        <v>13650</v>
+        <v>1300</v>
       </c>
       <c r="S32" s="6">
         <v>1300</v>
@@ -9666,7 +9666,7 @@
         <v>1</v>
       </c>
       <c r="AO32" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP32" s="10" t="s">
         <v>150</v>
@@ -9725,7 +9725,7 @@
         <v>126000</v>
       </c>
       <c r="R33" s="6">
-        <v>126000</v>
+        <v>1875</v>
       </c>
       <c r="S33" s="6">
         <v>1875</v>
@@ -9794,7 +9794,7 @@
         <v>1</v>
       </c>
       <c r="AO33" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP33" s="10" t="s">
         <v>158</v>
@@ -9853,7 +9853,7 @@
         <v>126000</v>
       </c>
       <c r="R34" s="6">
-        <v>126000</v>
+        <v>1875</v>
       </c>
       <c r="S34" s="6">
         <v>1875</v>
@@ -9922,7 +9922,7 @@
         <v>1</v>
       </c>
       <c r="AO34" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP34" s="10" t="s">
         <v>159</v>
@@ -9981,7 +9981,7 @@
         <v>16800</v>
       </c>
       <c r="R35" s="6">
-        <v>16800</v>
+        <v>1600</v>
       </c>
       <c r="S35" s="6">
         <v>1600</v>
@@ -10050,7 +10050,7 @@
         <v>1</v>
       </c>
       <c r="AO35" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP35" s="10" t="s">
         <v>150</v>
@@ -10109,7 +10109,7 @@
         <v>16800</v>
       </c>
       <c r="R36" s="6">
-        <v>16800</v>
+        <v>1600</v>
       </c>
       <c r="S36" s="6">
         <v>1600</v>
@@ -10178,7 +10178,7 @@
         <v>1</v>
       </c>
       <c r="AO36" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP36" s="10" t="s">
         <v>150</v>
@@ -10237,7 +10237,7 @@
         <v>17850</v>
       </c>
       <c r="R37" s="6">
-        <v>17850</v>
+        <v>1700</v>
       </c>
       <c r="S37" s="6">
         <v>1700</v>
@@ -10306,7 +10306,7 @@
         <v>1</v>
       </c>
       <c r="AO37" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP37" s="10" t="s">
         <v>150</v>
@@ -10365,7 +10365,7 @@
         <v>18900</v>
       </c>
       <c r="R38" s="6">
-        <v>18900</v>
+        <v>1800</v>
       </c>
       <c r="S38" s="6">
         <v>1800</v>
@@ -10434,7 +10434,7 @@
         <v>1</v>
       </c>
       <c r="AO38" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP38" s="10" t="s">
         <v>150</v>
@@ -10493,7 +10493,7 @@
         <v>159600</v>
       </c>
       <c r="R39" s="6">
-        <v>159600</v>
+        <v>2375</v>
       </c>
       <c r="S39" s="6">
         <v>2375</v>
@@ -10562,7 +10562,7 @@
         <v>1</v>
       </c>
       <c r="AO39" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP39" s="10" t="s">
         <v>160</v>
@@ -10621,7 +10621,7 @@
         <v>21000</v>
       </c>
       <c r="R40" s="6">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="S40" s="6">
         <v>2000</v>
@@ -10690,7 +10690,7 @@
         <v>1</v>
       </c>
       <c r="AO40" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP40" s="10" t="s">
         <v>150</v>
@@ -10749,7 +10749,7 @@
         <v>21000</v>
       </c>
       <c r="R41" s="6">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="S41" s="6">
         <v>2000</v>
@@ -10818,7 +10818,7 @@
         <v>1</v>
       </c>
       <c r="AO41" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP41" s="10" t="s">
         <v>150</v>
@@ -10877,7 +10877,7 @@
         <v>218400</v>
       </c>
       <c r="R42" s="6">
-        <v>218400</v>
+        <v>3250</v>
       </c>
       <c r="S42" s="6">
         <v>3250</v>
@@ -10946,7 +10946,7 @@
         <v>1</v>
       </c>
       <c r="AO42" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP42" s="10" t="s">
         <v>161</v>
@@ -11005,7 +11005,7 @@
         <v>27300</v>
       </c>
       <c r="R43" s="6">
-        <v>27300</v>
+        <v>2600</v>
       </c>
       <c r="S43" s="6">
         <v>2600</v>
@@ -11074,7 +11074,7 @@
         <v>1</v>
       </c>
       <c r="AO43" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP43" s="10" t="s">
         <v>150</v>
@@ -11133,7 +11133,7 @@
         <v>27300</v>
       </c>
       <c r="R44" s="6">
-        <v>27300</v>
+        <v>2600</v>
       </c>
       <c r="S44" s="6">
         <v>2600</v>
@@ -11202,7 +11202,7 @@
         <v>1</v>
       </c>
       <c r="AO44" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP44" s="10" t="s">
         <v>150</v>
@@ -11261,7 +11261,7 @@
         <v>235200</v>
       </c>
       <c r="R45" s="6">
-        <v>235200</v>
+        <v>3500</v>
       </c>
       <c r="S45" s="6">
         <v>3500</v>
@@ -11330,7 +11330,7 @@
         <v>1</v>
       </c>
       <c r="AO45" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP45" s="10" t="s">
         <v>162</v>
@@ -11389,7 +11389,7 @@
         <v>29400</v>
       </c>
       <c r="R46" s="6">
-        <v>29400</v>
+        <v>2800</v>
       </c>
       <c r="S46" s="6">
         <v>2800</v>
@@ -11458,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="AO46" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP46" s="10" t="s">
         <v>150</v>
@@ -11517,7 +11517,7 @@
         <v>29400</v>
       </c>
       <c r="R47" s="6">
-        <v>29400</v>
+        <v>2800</v>
       </c>
       <c r="S47" s="6">
         <v>2800</v>
@@ -11586,7 +11586,7 @@
         <v>1</v>
       </c>
       <c r="AO47" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP47" s="10" t="s">
         <v>150</v>
@@ -11645,7 +11645,7 @@
         <v>30450</v>
       </c>
       <c r="R48" s="6">
-        <v>30450</v>
+        <v>2900</v>
       </c>
       <c r="S48" s="6">
         <v>2900</v>
@@ -11714,7 +11714,7 @@
         <v>1</v>
       </c>
       <c r="AO48" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP48" s="10" t="s">
         <v>150</v>
@@ -11773,7 +11773,7 @@
         <v>30450</v>
       </c>
       <c r="R49" s="6">
-        <v>30450</v>
+        <v>2900</v>
       </c>
       <c r="S49" s="6">
         <v>2900</v>
@@ -11842,7 +11842,7 @@
         <v>1</v>
       </c>
       <c r="AO49" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP49" s="10" t="s">
         <v>150</v>
@@ -11901,7 +11901,7 @@
         <v>31500</v>
       </c>
       <c r="R50" s="6">
-        <v>31500</v>
+        <v>3000</v>
       </c>
       <c r="S50" s="6">
         <v>3000</v>
@@ -11970,7 +11970,7 @@
         <v>1</v>
       </c>
       <c r="AO50" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP50" s="10" t="s">
         <v>150</v>
@@ -12029,7 +12029,7 @@
         <v>252000</v>
       </c>
       <c r="R51" s="6">
-        <v>252000</v>
+        <v>3750</v>
       </c>
       <c r="S51" s="6">
         <v>3750</v>
@@ -12098,7 +12098,7 @@
         <v>1</v>
       </c>
       <c r="AO51" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP51" s="10" t="s">
         <v>163</v>
@@ -12157,7 +12157,7 @@
         <v>33600</v>
       </c>
       <c r="R52" s="6">
-        <v>33600</v>
+        <v>3200</v>
       </c>
       <c r="S52" s="6">
         <v>3200</v>
@@ -12226,7 +12226,7 @@
         <v>1</v>
       </c>
       <c r="AO52" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP52" s="10" t="s">
         <v>150</v>
@@ -12285,7 +12285,7 @@
         <v>32550</v>
       </c>
       <c r="R53" s="6">
-        <v>32550</v>
+        <v>3100</v>
       </c>
       <c r="S53" s="6">
         <v>3100</v>
@@ -12354,7 +12354,7 @@
         <v>1</v>
       </c>
       <c r="AO53" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP53" s="10" t="s">
         <v>150</v>
@@ -12413,7 +12413,7 @@
         <v>32550</v>
       </c>
       <c r="R54" s="6">
-        <v>32550</v>
+        <v>3100</v>
       </c>
       <c r="S54" s="6">
         <v>3100</v>
@@ -12482,7 +12482,7 @@
         <v>1</v>
       </c>
       <c r="AO54" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP54" s="10" t="s">
         <v>150</v>
@@ -12541,7 +12541,7 @@
         <v>277200</v>
       </c>
       <c r="R55" s="6">
-        <v>277200</v>
+        <v>4125</v>
       </c>
       <c r="S55" s="6">
         <v>4125</v>
@@ -12610,7 +12610,7 @@
         <v>1</v>
       </c>
       <c r="AO55" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP55" s="10" t="s">
         <v>164</v>
@@ -12669,7 +12669,7 @@
         <v>35700</v>
       </c>
       <c r="R56" s="6">
-        <v>35700</v>
+        <v>3400</v>
       </c>
       <c r="S56" s="6">
         <v>3400</v>
@@ -12738,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="AO56" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP56" s="10" t="s">
         <v>150</v>
@@ -12797,7 +12797,7 @@
         <v>35700</v>
       </c>
       <c r="R57" s="6">
-        <v>35700</v>
+        <v>3400</v>
       </c>
       <c r="S57" s="6">
         <v>3400</v>
@@ -12866,7 +12866,7 @@
         <v>1</v>
       </c>
       <c r="AO57" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP57" s="10" t="s">
         <v>150</v>
@@ -12925,7 +12925,7 @@
         <v>336000</v>
       </c>
       <c r="R58" s="6">
-        <v>336000</v>
+        <v>5000</v>
       </c>
       <c r="S58" s="6">
         <v>5000</v>
@@ -12994,7 +12994,7 @@
         <v>1</v>
       </c>
       <c r="AO58" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP58" s="10" t="s">
         <v>165</v>
@@ -13053,7 +13053,7 @@
         <v>42000</v>
       </c>
       <c r="R59" s="6">
-        <v>42000</v>
+        <v>4000</v>
       </c>
       <c r="S59" s="6">
         <v>4000</v>
@@ -13122,7 +13122,7 @@
         <v>1</v>
       </c>
       <c r="AO59" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP59" s="10" t="s">
         <v>150</v>
@@ -13181,7 +13181,7 @@
         <v>42000</v>
       </c>
       <c r="R60" s="6">
-        <v>42000</v>
+        <v>4000</v>
       </c>
       <c r="S60" s="6">
         <v>4000</v>
@@ -13250,7 +13250,7 @@
         <v>1</v>
       </c>
       <c r="AO60" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP60" s="10" t="s">
         <v>150</v>
@@ -13309,7 +13309,7 @@
         <v>352800</v>
       </c>
       <c r="R61" s="6">
-        <v>352800</v>
+        <v>5250</v>
       </c>
       <c r="S61" s="6">
         <v>5250</v>
@@ -13378,7 +13378,7 @@
         <v>1</v>
       </c>
       <c r="AO61" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP61" s="10" t="s">
         <v>166</v>
@@ -13437,7 +13437,7 @@
         <v>45150</v>
       </c>
       <c r="R62" s="6">
-        <v>45150</v>
+        <v>4300</v>
       </c>
       <c r="S62" s="6">
         <v>4300</v>
@@ -13506,7 +13506,7 @@
         <v>1</v>
       </c>
       <c r="AO62" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP62" s="10" t="s">
         <v>150</v>
@@ -13565,7 +13565,7 @@
         <v>44100</v>
       </c>
       <c r="R63" s="6">
-        <v>44100</v>
+        <v>4200</v>
       </c>
       <c r="S63" s="6">
         <v>4200</v>
@@ -13634,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="AO63" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP63" s="10" t="s">
         <v>150</v>
@@ -13693,7 +13693,7 @@
         <v>44100</v>
       </c>
       <c r="R64" s="6">
-        <v>44100</v>
+        <v>4200</v>
       </c>
       <c r="S64" s="6">
         <v>4200</v>
@@ -13762,7 +13762,7 @@
         <v>1</v>
       </c>
       <c r="AO64" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP64" s="10" t="s">
         <v>150</v>
@@ -13821,7 +13821,7 @@
         <v>369600</v>
       </c>
       <c r="R65" s="6">
-        <v>369600</v>
+        <v>5500</v>
       </c>
       <c r="S65" s="6">
         <v>5500</v>
@@ -13890,7 +13890,7 @@
         <v>1</v>
       </c>
       <c r="AO65" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP65" s="10" t="s">
         <v>167</v>
@@ -13949,7 +13949,7 @@
         <v>46200</v>
       </c>
       <c r="R66" s="6">
-        <v>46200</v>
+        <v>4400</v>
       </c>
       <c r="S66" s="6">
         <v>4400</v>
@@ -14018,7 +14018,7 @@
         <v>1</v>
       </c>
       <c r="AO66" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP66" s="10" t="s">
         <v>150</v>
@@ -14077,7 +14077,7 @@
         <v>47250</v>
       </c>
       <c r="R67" s="6">
-        <v>47250</v>
+        <v>4500</v>
       </c>
       <c r="S67" s="6">
         <v>4500</v>
@@ -14146,7 +14146,7 @@
         <v>1</v>
       </c>
       <c r="AO67" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP67" s="10" t="s">
         <v>150</v>
@@ -14205,7 +14205,7 @@
         <v>394800</v>
       </c>
       <c r="R68" s="6">
-        <v>394800</v>
+        <v>5875</v>
       </c>
       <c r="S68" s="6">
         <v>5875</v>
@@ -14274,7 +14274,7 @@
         <v>1</v>
       </c>
       <c r="AO68" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP68" s="10" t="s">
         <v>168</v>
@@ -14333,7 +14333,7 @@
         <v>50400</v>
       </c>
       <c r="R69" s="6">
-        <v>50400</v>
+        <v>4800</v>
       </c>
       <c r="S69" s="6">
         <v>4800</v>
@@ -14402,7 +14402,7 @@
         <v>1</v>
       </c>
       <c r="AO69" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP69" s="10" t="s">
         <v>150</v>
@@ -14461,7 +14461,7 @@
         <v>55650</v>
       </c>
       <c r="R70" s="6">
-        <v>55650</v>
+        <v>5300</v>
       </c>
       <c r="S70" s="6">
         <v>5300</v>
@@ -14530,7 +14530,7 @@
         <v>1</v>
       </c>
       <c r="AO70" s="6">
-        <v>70000002</v>
+        <v>67000063</v>
       </c>
       <c r="AP70" s="10" t="s">
         <v>196</v>
@@ -14589,7 +14589,7 @@
         <v>453600</v>
       </c>
       <c r="R71" s="6">
-        <v>453600</v>
+        <v>6750</v>
       </c>
       <c r="S71" s="6">
         <v>6750</v>
@@ -14658,7 +14658,7 @@
         <v>1</v>
       </c>
       <c r="AO71" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP71" s="10" t="s">
         <v>169</v>
@@ -14717,7 +14717,7 @@
         <v>470400</v>
       </c>
       <c r="R72" s="6">
-        <v>470400</v>
+        <v>7000</v>
       </c>
       <c r="S72" s="6">
         <v>7000</v>
@@ -14786,7 +14786,7 @@
         <v>1</v>
       </c>
       <c r="AO72" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP72" s="10" t="s">
         <v>170</v>
@@ -14845,7 +14845,7 @@
         <v>56700</v>
       </c>
       <c r="R73" s="6">
-        <v>56700</v>
+        <v>5400</v>
       </c>
       <c r="S73" s="6">
         <v>5400</v>
@@ -14914,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="AO73" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP73" s="10" t="s">
         <v>150</v>
@@ -14973,7 +14973,7 @@
         <v>50400</v>
       </c>
       <c r="R74" s="25">
-        <v>50400</v>
+        <v>4800</v>
       </c>
       <c r="S74" s="25">
         <v>4800</v>
@@ -15042,7 +15042,7 @@
         <v>1</v>
       </c>
       <c r="AO74" s="25">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP74" s="26" t="s">
         <v>150</v>
@@ -15101,7 +15101,7 @@
         <v>50400</v>
       </c>
       <c r="R75" s="25">
-        <v>50400</v>
+        <v>4800</v>
       </c>
       <c r="S75" s="25">
         <v>4800</v>
@@ -15170,7 +15170,7 @@
         <v>1</v>
       </c>
       <c r="AO75" s="25">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP75" s="26" t="s">
         <v>150</v>
@@ -15229,7 +15229,7 @@
         <v>50400</v>
       </c>
       <c r="R76" s="25">
-        <v>50400</v>
+        <v>4800</v>
       </c>
       <c r="S76" s="25">
         <v>4800</v>
@@ -15298,7 +15298,7 @@
         <v>1</v>
       </c>
       <c r="AO76" s="25">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP76" s="26" t="s">
         <v>150</v>
@@ -15357,7 +15357,7 @@
         <v>59850</v>
       </c>
       <c r="R77" s="6">
-        <v>59850</v>
+        <v>5700</v>
       </c>
       <c r="S77" s="6">
         <v>5700</v>
@@ -15426,7 +15426,7 @@
         <v>1</v>
       </c>
       <c r="AO77" s="6">
-        <v>70000002</v>
+        <v>67000063</v>
       </c>
       <c r="AP77" s="10" t="s">
         <v>196</v>
@@ -15485,7 +15485,7 @@
         <v>487200</v>
       </c>
       <c r="R78" s="6">
-        <v>487200</v>
+        <v>7250</v>
       </c>
       <c r="S78" s="6">
         <v>7250</v>
@@ -15554,7 +15554,7 @@
         <v>1</v>
       </c>
       <c r="AO78" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP78" s="10" t="s">
         <v>150</v>
@@ -15613,7 +15613,7 @@
         <v>504000</v>
       </c>
       <c r="R79" s="6">
-        <v>504000</v>
+        <v>7500</v>
       </c>
       <c r="S79" s="6">
         <v>7500</v>
@@ -15682,7 +15682,7 @@
         <v>1</v>
       </c>
       <c r="AO79" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP79" s="10" t="s">
         <v>171</v>
@@ -15741,7 +15741,7 @@
         <v>520800</v>
       </c>
       <c r="R80" s="6">
-        <v>520800</v>
+        <v>7750</v>
       </c>
       <c r="S80" s="6">
         <v>7750</v>
@@ -15810,7 +15810,7 @@
         <v>1</v>
       </c>
       <c r="AO80" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP80" s="10" t="s">
         <v>172</v>
@@ -15869,7 +15869,7 @@
         <v>500</v>
       </c>
       <c r="R81" s="6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S81" s="6">
         <v>0</v>
@@ -15938,7 +15938,7 @@
         <v>1</v>
       </c>
       <c r="AO81" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP81" s="10" t="s">
         <v>150</v>
@@ -15997,7 +15997,7 @@
         <v>800</v>
       </c>
       <c r="R82" s="6">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="S82" s="6">
         <v>0</v>
@@ -16066,7 +16066,7 @@
         <v>1</v>
       </c>
       <c r="AO82" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP82" s="10" t="s">
         <v>150</v>
@@ -16125,7 +16125,7 @@
         <v>2560</v>
       </c>
       <c r="R83" s="6">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="S83" s="6">
         <v>0</v>
@@ -16194,7 +16194,7 @@
         <v>1</v>
       </c>
       <c r="AO83" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP83" s="10" t="s">
         <v>150</v>
@@ -16253,7 +16253,7 @@
         <v>2560</v>
       </c>
       <c r="R84" s="6">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="S84" s="6">
         <v>0</v>
@@ -16322,7 +16322,7 @@
         <v>1</v>
       </c>
       <c r="AO84" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP84" s="10" t="s">
         <v>150</v>
@@ -16381,7 +16381,7 @@
         <v>12700</v>
       </c>
       <c r="R85" s="6">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="S85" s="6">
         <v>0</v>
@@ -16450,7 +16450,7 @@
         <v>1</v>
       </c>
       <c r="AO85" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP85" s="10" t="s">
         <v>150</v>
@@ -16509,7 +16509,7 @@
         <v>20000</v>
       </c>
       <c r="R86" s="6">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="S86" s="6">
         <v>0</v>
@@ -16578,7 +16578,7 @@
         <v>1</v>
       </c>
       <c r="AO86" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP86" s="10" t="s">
         <v>150</v>
@@ -16706,7 +16706,7 @@
         <v>1</v>
       </c>
       <c r="AO87" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP87" s="10" t="s">
         <v>173</v>
@@ -16765,7 +16765,7 @@
         <v>18700</v>
       </c>
       <c r="R88" s="6">
-        <v>864</v>
+        <v>0</v>
       </c>
       <c r="S88" s="6">
         <v>0</v>
@@ -16834,7 +16834,7 @@
         <v>1</v>
       </c>
       <c r="AO88" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP88" s="10" t="s">
         <v>150</v>
@@ -16893,7 +16893,7 @@
         <v>19100</v>
       </c>
       <c r="R89" s="6">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="S89" s="6">
         <v>0</v>
@@ -16962,7 +16962,7 @@
         <v>1</v>
       </c>
       <c r="AO89" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP89" s="10" t="s">
         <v>150</v>
@@ -17021,7 +17021,7 @@
         <v>19500</v>
       </c>
       <c r="R90" s="6">
-        <v>912</v>
+        <v>0</v>
       </c>
       <c r="S90" s="6">
         <v>0</v>
@@ -17090,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="AO90" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP90" s="10" t="s">
         <v>150</v>
@@ -17149,7 +17149,7 @@
         <v>20000</v>
       </c>
       <c r="R91" s="6">
-        <v>936</v>
+        <v>0</v>
       </c>
       <c r="S91" s="6">
         <v>0</v>
@@ -17218,7 +17218,7 @@
         <v>1</v>
       </c>
       <c r="AO91" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP91" s="10" t="s">
         <v>174</v>
@@ -17277,7 +17277,7 @@
         <v>21700</v>
       </c>
       <c r="R92" s="6">
-        <v>1032</v>
+        <v>0</v>
       </c>
       <c r="S92" s="6">
         <v>0</v>
@@ -17346,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="AO92" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP92" s="10" t="s">
         <v>150</v>
@@ -17405,7 +17405,7 @@
         <v>25400</v>
       </c>
       <c r="R93" s="6">
-        <v>1224</v>
+        <v>0</v>
       </c>
       <c r="S93" s="6">
         <v>0</v>
@@ -17474,7 +17474,7 @@
         <v>1</v>
       </c>
       <c r="AO93" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP93" s="10" t="s">
         <v>150</v>
@@ -17533,7 +17533,7 @@
         <v>26600</v>
       </c>
       <c r="R94" s="6">
-        <v>1288</v>
+        <v>0</v>
       </c>
       <c r="S94" s="6">
         <v>0</v>
@@ -17602,7 +17602,7 @@
         <v>1</v>
       </c>
       <c r="AO94" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP94" s="10" t="s">
         <v>150</v>
@@ -17661,7 +17661,7 @@
         <v>500000</v>
       </c>
       <c r="R95" s="6">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="S95" s="6">
         <v>0</v>
@@ -17730,7 +17730,7 @@
         <v>1</v>
       </c>
       <c r="AO95" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP95" s="10" t="s">
         <v>175</v>
@@ -17789,7 +17789,7 @@
         <v>500000</v>
       </c>
       <c r="R96" s="6">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="S96" s="6">
         <v>0</v>
@@ -17858,7 +17858,7 @@
         <v>1</v>
       </c>
       <c r="AO96" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP96" s="10" t="s">
         <v>176</v>
@@ -17917,7 +17917,7 @@
         <v>250</v>
       </c>
       <c r="R97" s="21">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="S97" s="21">
         <v>0</v>
@@ -17986,7 +17986,7 @@
         <v>1</v>
       </c>
       <c r="AO97" s="21">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP97" s="22" t="s">
         <v>150</v>
@@ -18114,7 +18114,7 @@
         <v>1</v>
       </c>
       <c r="AO98" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP98" s="10" t="s">
         <v>150</v>
@@ -18242,7 +18242,7 @@
         <v>1</v>
       </c>
       <c r="AO99" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP99" s="10" t="s">
         <v>150</v>
@@ -18370,7 +18370,7 @@
         <v>1</v>
       </c>
       <c r="AO100" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP100" s="10" t="s">
         <v>150</v>
@@ -18498,7 +18498,7 @@
         <v>1</v>
       </c>
       <c r="AO101" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP101" s="10" t="s">
         <v>150</v>
@@ -18626,7 +18626,7 @@
         <v>1</v>
       </c>
       <c r="AO102" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP102" s="10" t="s">
         <v>156</v>
@@ -18754,7 +18754,7 @@
         <v>1</v>
       </c>
       <c r="AO103" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP103" s="10" t="s">
         <v>153</v>
@@ -18882,7 +18882,7 @@
         <v>1</v>
       </c>
       <c r="AO104" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP104" s="10" t="s">
         <v>162</v>
@@ -19010,7 +19010,7 @@
         <v>1</v>
       </c>
       <c r="AO105" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP105" s="10" t="s">
         <v>150</v>
@@ -19138,7 +19138,7 @@
         <v>1</v>
       </c>
       <c r="AO106" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP106" s="10" t="s">
         <v>150</v>
@@ -19266,7 +19266,7 @@
         <v>1</v>
       </c>
       <c r="AO107" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP107" s="10" t="s">
         <v>150</v>
@@ -19394,7 +19394,7 @@
         <v>1</v>
       </c>
       <c r="AO108" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP108" s="10" t="s">
         <v>150</v>
@@ -19522,7 +19522,7 @@
         <v>1</v>
       </c>
       <c r="AO109" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP109" s="10" t="s">
         <v>150</v>
@@ -19650,7 +19650,7 @@
         <v>1</v>
       </c>
       <c r="AO110" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP110" s="10" t="s">
         <v>165</v>
@@ -19778,7 +19778,7 @@
         <v>1</v>
       </c>
       <c r="AO111" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP111" s="10" t="s">
         <v>160</v>
@@ -19906,7 +19906,7 @@
         <v>1</v>
       </c>
       <c r="AO112" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP112" s="10" t="s">
         <v>166</v>
@@ -20034,7 +20034,7 @@
         <v>1</v>
       </c>
       <c r="AO113" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP113" s="10" t="s">
         <v>150</v>
@@ -20162,7 +20162,7 @@
         <v>1</v>
       </c>
       <c r="AO114" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP114" s="10" t="s">
         <v>150</v>
@@ -20290,7 +20290,7 @@
         <v>1</v>
       </c>
       <c r="AO115" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP115" s="10" t="s">
         <v>150</v>
@@ -20418,7 +20418,7 @@
         <v>1</v>
       </c>
       <c r="AO116" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP116" s="10" t="s">
         <v>150</v>
@@ -20546,7 +20546,7 @@
         <v>1</v>
       </c>
       <c r="AO117" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP117" s="10" t="s">
         <v>150</v>
@@ -20674,7 +20674,7 @@
         <v>1</v>
       </c>
       <c r="AO118" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP118" s="10" t="s">
         <v>167</v>
@@ -20802,7 +20802,7 @@
         <v>1</v>
       </c>
       <c r="AO119" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP119" s="10" t="s">
         <v>163</v>
@@ -20930,7 +20930,7 @@
         <v>1</v>
       </c>
       <c r="AO120" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP120" s="10" t="s">
         <v>168</v>
@@ -21058,7 +21058,7 @@
         <v>1</v>
       </c>
       <c r="AO121" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP121" s="10" t="s">
         <v>150</v>
@@ -21186,7 +21186,7 @@
         <v>1</v>
       </c>
       <c r="AO122" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP122" s="10" t="s">
         <v>150</v>
@@ -21314,7 +21314,7 @@
         <v>1</v>
       </c>
       <c r="AO123" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP123" s="10" t="s">
         <v>150</v>
@@ -21442,7 +21442,7 @@
         <v>1</v>
       </c>
       <c r="AO124" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP124" s="10" t="s">
         <v>150</v>
@@ -21570,7 +21570,7 @@
         <v>1</v>
       </c>
       <c r="AO125" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP125" s="10" t="s">
         <v>155</v>
@@ -21698,7 +21698,7 @@
         <v>1</v>
       </c>
       <c r="AO126" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP126" s="10" t="s">
         <v>162</v>
@@ -21826,7 +21826,7 @@
         <v>1</v>
       </c>
       <c r="AO127" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP127" s="10" t="s">
         <v>169</v>
@@ -21885,7 +21885,7 @@
         <v>26600</v>
       </c>
       <c r="R128" s="6">
-        <v>1288</v>
+        <v>0</v>
       </c>
       <c r="S128" s="6">
         <v>0</v>
@@ -21954,7 +21954,7 @@
         <v>1</v>
       </c>
       <c r="AO128" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP128" s="10" t="s">
         <v>150</v>
@@ -22013,7 +22013,7 @@
         <v>26600</v>
       </c>
       <c r="R129" s="6">
-        <v>1288</v>
+        <v>0</v>
       </c>
       <c r="S129" s="6">
         <v>0</v>
@@ -22082,7 +22082,7 @@
         <v>1</v>
       </c>
       <c r="AO129" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP129" s="10" t="s">
         <v>150</v>
@@ -22141,7 +22141,7 @@
         <v>9449.9999999999982</v>
       </c>
       <c r="R130" s="18">
-        <v>540</v>
+        <v>675</v>
       </c>
       <c r="S130" s="6">
         <v>675</v>
@@ -22270,7 +22270,7 @@
         <v>9449.9999999999982</v>
       </c>
       <c r="R131" s="18">
-        <v>540</v>
+        <v>675</v>
       </c>
       <c r="S131" s="6">
         <v>675</v>
@@ -22401,7 +22401,7 @@
         <v>9449.9999999999982</v>
       </c>
       <c r="R132" s="18">
-        <v>540</v>
+        <v>675</v>
       </c>
       <c r="S132" s="6">
         <v>675</v>
@@ -22531,7 +22531,7 @@
         <v>9449.9999999999982</v>
       </c>
       <c r="R133" s="18">
-        <v>540</v>
+        <v>675</v>
       </c>
       <c r="S133" s="6">
         <v>675</v>
@@ -22661,7 +22661,7 @@
         <v>9449.9999999999982</v>
       </c>
       <c r="R134" s="18">
-        <v>540</v>
+        <v>675</v>
       </c>
       <c r="S134" s="6">
         <v>675</v>
@@ -22791,7 +22791,7 @@
         <v>9449.9999999999982</v>
       </c>
       <c r="R135" s="18">
-        <v>540</v>
+        <v>675</v>
       </c>
       <c r="S135" s="6">
         <v>675</v>
@@ -22921,7 +22921,7 @@
         <v>9449.9999999999982</v>
       </c>
       <c r="R136" s="18">
-        <v>540</v>
+        <v>675</v>
       </c>
       <c r="S136" s="6">
         <v>675</v>
@@ -23051,7 +23051,7 @@
         <v>9449.9999999999982</v>
       </c>
       <c r="R137" s="18">
-        <v>540</v>
+        <v>675</v>
       </c>
       <c r="S137" s="6">
         <v>675</v>
@@ -23181,7 +23181,7 @@
         <v>9449.9999999999982</v>
       </c>
       <c r="R138" s="18">
-        <v>540</v>
+        <v>675</v>
       </c>
       <c r="S138" s="6">
         <v>675</v>
@@ -23378,7 +23378,7 @@
         <v>1</v>
       </c>
       <c r="AO139" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP139" s="10" t="s">
         <v>150</v>
@@ -23506,7 +23506,7 @@
         <v>1</v>
       </c>
       <c r="AO140" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP140" s="10" t="s">
         <v>150</v>
@@ -23634,7 +23634,7 @@
         <v>1</v>
       </c>
       <c r="AO141" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP141" s="10" t="s">
         <v>150</v>
@@ -23762,7 +23762,7 @@
         <v>1</v>
       </c>
       <c r="AO142" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP142" s="10" t="s">
         <v>150</v>
@@ -23890,7 +23890,7 @@
         <v>1</v>
       </c>
       <c r="AO143" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP143" s="10" t="s">
         <v>150</v>
@@ -24019,7 +24019,7 @@
         <v>1</v>
       </c>
       <c r="AO144" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP144" s="10" t="s">
         <v>150</v>
@@ -24148,7 +24148,7 @@
         <v>1</v>
       </c>
       <c r="AO145" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP145" s="10" t="s">
         <v>150</v>
@@ -24277,7 +24277,7 @@
         <v>1</v>
       </c>
       <c r="AO146" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP146" s="10" t="s">
         <v>150</v>
@@ -24406,7 +24406,7 @@
         <v>1</v>
       </c>
       <c r="AO147" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP147" s="10" t="s">
         <v>150</v>
@@ -24535,7 +24535,7 @@
         <v>1</v>
       </c>
       <c r="AO148" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP148" s="10" t="s">
         <v>150</v>
@@ -24664,7 +24664,7 @@
         <v>1</v>
       </c>
       <c r="AO149" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP149" s="10" t="s">
         <v>150</v>
@@ -24793,7 +24793,7 @@
         <v>1</v>
       </c>
       <c r="AO150" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP150" s="10" t="s">
         <v>150</v>
@@ -24922,7 +24922,7 @@
         <v>1</v>
       </c>
       <c r="AO151" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP151" s="10" t="s">
         <v>150</v>
@@ -25051,7 +25051,7 @@
         <v>1</v>
       </c>
       <c r="AO152" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP152" s="10" t="s">
         <v>150</v>
@@ -25180,7 +25180,7 @@
         <v>1</v>
       </c>
       <c r="AO153" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP153" s="10" t="s">
         <v>150</v>
@@ -25309,7 +25309,7 @@
         <v>1</v>
       </c>
       <c r="AO154" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP154" s="10" t="s">
         <v>150</v>
@@ -25438,7 +25438,7 @@
         <v>1</v>
       </c>
       <c r="AO155" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP155" s="10" t="s">
         <v>150</v>
@@ -25567,7 +25567,7 @@
         <v>1</v>
       </c>
       <c r="AO156" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP156" s="10" t="s">
         <v>150</v>
@@ -25696,7 +25696,7 @@
         <v>1</v>
       </c>
       <c r="AO157" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP157" s="10" t="s">
         <v>150</v>
@@ -25825,7 +25825,7 @@
         <v>1</v>
       </c>
       <c r="AO158" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP158" s="10" t="s">
         <v>150</v>
@@ -25954,7 +25954,7 @@
         <v>1</v>
       </c>
       <c r="AO159" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP159" s="10" t="s">
         <v>150</v>
@@ -26083,7 +26083,7 @@
         <v>1</v>
       </c>
       <c r="AO160" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP160" s="10" t="s">
         <v>150</v>
@@ -26212,7 +26212,7 @@
         <v>1</v>
       </c>
       <c r="AO161" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP161" s="10" t="s">
         <v>150</v>
@@ -26341,7 +26341,7 @@
         <v>1</v>
       </c>
       <c r="AO162" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP162" s="10" t="s">
         <v>150</v>
@@ -26470,7 +26470,7 @@
         <v>1</v>
       </c>
       <c r="AO163" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP163" s="10" t="s">
         <v>150</v>
@@ -26599,7 +26599,7 @@
         <v>1</v>
       </c>
       <c r="AO164" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP164" s="10" t="s">
         <v>150</v>
@@ -26728,7 +26728,7 @@
         <v>1</v>
       </c>
       <c r="AO165" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP165" s="10" t="s">
         <v>150</v>
@@ -26857,7 +26857,7 @@
         <v>1</v>
       </c>
       <c r="AO166" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP166" s="10" t="s">
         <v>150</v>
@@ -26986,7 +26986,7 @@
         <v>1</v>
       </c>
       <c r="AO167" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP167" s="10" t="s">
         <v>150</v>
@@ -27115,7 +27115,7 @@
         <v>1</v>
       </c>
       <c r="AO168" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP168" s="10" t="s">
         <v>150</v>
@@ -27244,7 +27244,7 @@
         <v>1</v>
       </c>
       <c r="AO169" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP169" s="10" t="s">
         <v>150</v>
@@ -27373,7 +27373,7 @@
         <v>1</v>
       </c>
       <c r="AO170" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP170" s="10" t="s">
         <v>150</v>
@@ -27502,7 +27502,7 @@
         <v>1</v>
       </c>
       <c r="AO171" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP171" s="10" t="s">
         <v>150</v>
@@ -27631,7 +27631,7 @@
         <v>1</v>
       </c>
       <c r="AO172" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP172" s="10" t="s">
         <v>150</v>
@@ -27760,7 +27760,7 @@
         <v>1</v>
       </c>
       <c r="AO173" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP173" s="10" t="s">
         <v>150</v>
@@ -27889,7 +27889,7 @@
         <v>1</v>
       </c>
       <c r="AO174" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP174" s="10" t="s">
         <v>150</v>
@@ -28018,7 +28018,7 @@
         <v>1</v>
       </c>
       <c r="AO175" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP175" s="10" t="s">
         <v>150</v>
@@ -28147,7 +28147,7 @@
         <v>1</v>
       </c>
       <c r="AO176" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP176" s="10" t="s">
         <v>150</v>
@@ -28276,7 +28276,7 @@
         <v>1</v>
       </c>
       <c r="AO177" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP177" s="10" t="s">
         <v>150</v>
@@ -28405,7 +28405,7 @@
         <v>1</v>
       </c>
       <c r="AO178" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP178" s="10" t="s">
         <v>150</v>
@@ -28534,7 +28534,7 @@
         <v>1</v>
       </c>
       <c r="AO179" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP179" s="10" t="s">
         <v>150</v>
@@ -28663,7 +28663,7 @@
         <v>1</v>
       </c>
       <c r="AO180" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP180" s="10" t="s">
         <v>150</v>
@@ -28792,7 +28792,7 @@
         <v>1</v>
       </c>
       <c r="AO181" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP181" s="10" t="s">
         <v>150</v>
@@ -28921,7 +28921,7 @@
         <v>1</v>
       </c>
       <c r="AO182" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP182" s="10" t="s">
         <v>150</v>
@@ -29050,7 +29050,7 @@
         <v>1</v>
       </c>
       <c r="AO183" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP183" s="10" t="s">
         <v>150</v>
@@ -29179,7 +29179,7 @@
         <v>1</v>
       </c>
       <c r="AO184" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP184" s="10" t="s">
         <v>150</v>
@@ -29308,7 +29308,7 @@
         <v>1</v>
       </c>
       <c r="AO185" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP185" s="10" t="s">
         <v>150</v>
@@ -29437,7 +29437,7 @@
         <v>1</v>
       </c>
       <c r="AO186" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP186" s="10" t="s">
         <v>150</v>
@@ -29566,7 +29566,7 @@
         <v>1</v>
       </c>
       <c r="AO187" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP187" s="10" t="s">
         <v>150</v>
@@ -29695,7 +29695,7 @@
         <v>1</v>
       </c>
       <c r="AO188" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP188" s="10" t="s">
         <v>150</v>
@@ -29824,7 +29824,7 @@
         <v>1</v>
       </c>
       <c r="AO189" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP189" s="10" t="s">
         <v>150</v>
@@ -29953,7 +29953,7 @@
         <v>1</v>
       </c>
       <c r="AO190" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP190" s="10" t="s">
         <v>150</v>
@@ -30082,7 +30082,7 @@
         <v>1</v>
       </c>
       <c r="AO191" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP191" s="10" t="s">
         <v>150</v>
@@ -30211,7 +30211,7 @@
         <v>1</v>
       </c>
       <c r="AO192" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP192" s="10" t="s">
         <v>150</v>
@@ -30340,7 +30340,7 @@
         <v>1</v>
       </c>
       <c r="AO193" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP193" s="10" t="s">
         <v>150</v>
@@ -30469,7 +30469,7 @@
         <v>1</v>
       </c>
       <c r="AO194" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP194" s="10" t="s">
         <v>150</v>
@@ -30598,7 +30598,7 @@
         <v>1</v>
       </c>
       <c r="AO195" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP195" s="10" t="s">
         <v>150</v>
@@ -30727,7 +30727,7 @@
         <v>1</v>
       </c>
       <c r="AO196" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP196" s="10" t="s">
         <v>150</v>
@@ -30856,7 +30856,7 @@
         <v>1</v>
       </c>
       <c r="AO197" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP197" s="10" t="s">
         <v>150</v>
@@ -30985,7 +30985,7 @@
         <v>1</v>
       </c>
       <c r="AO198" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP198" s="10" t="s">
         <v>150</v>
@@ -31114,7 +31114,7 @@
         <v>1</v>
       </c>
       <c r="AO199" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP199" s="10" t="s">
         <v>150</v>
@@ -31243,7 +31243,7 @@
         <v>1</v>
       </c>
       <c r="AO200" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP200" s="10" t="s">
         <v>150</v>
@@ -31372,7 +31372,7 @@
         <v>1</v>
       </c>
       <c r="AO201" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP201" s="10" t="s">
         <v>150</v>
@@ -31501,7 +31501,7 @@
         <v>1</v>
       </c>
       <c r="AO202" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP202" s="10" t="s">
         <v>150</v>
@@ -31630,7 +31630,7 @@
         <v>1</v>
       </c>
       <c r="AO203" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP203" s="10" t="s">
         <v>150</v>
@@ -31759,7 +31759,7 @@
         <v>1</v>
       </c>
       <c r="AO204" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP204" s="10" t="s">
         <v>150</v>
@@ -31888,7 +31888,7 @@
         <v>1</v>
       </c>
       <c r="AO205" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP205" s="10" t="s">
         <v>150</v>
@@ -32017,7 +32017,7 @@
         <v>1</v>
       </c>
       <c r="AO206" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP206" s="10" t="s">
         <v>150</v>
@@ -32146,7 +32146,7 @@
         <v>1</v>
       </c>
       <c r="AO207" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP207" s="10" t="s">
         <v>150</v>
@@ -32275,7 +32275,7 @@
         <v>1</v>
       </c>
       <c r="AO208" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP208" s="10" t="s">
         <v>150</v>
@@ -32404,7 +32404,7 @@
         <v>1</v>
       </c>
       <c r="AO209" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP209" s="10" t="s">
         <v>150</v>
@@ -32533,7 +32533,7 @@
         <v>1</v>
       </c>
       <c r="AO210" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP210" s="10" t="s">
         <v>150</v>
@@ -32662,7 +32662,7 @@
         <v>1</v>
       </c>
       <c r="AO211" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP211" s="10" t="s">
         <v>150</v>
@@ -32791,7 +32791,7 @@
         <v>1</v>
       </c>
       <c r="AO212" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP212" s="10" t="s">
         <v>150</v>
@@ -32920,7 +32920,7 @@
         <v>1</v>
       </c>
       <c r="AO213" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP213" s="10" t="s">
         <v>150</v>
@@ -33049,7 +33049,7 @@
         <v>1</v>
       </c>
       <c r="AO214" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP214" s="10" t="s">
         <v>150</v>
@@ -33178,7 +33178,7 @@
         <v>1</v>
       </c>
       <c r="AO215" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP215" s="10" t="s">
         <v>150</v>
@@ -33307,7 +33307,7 @@
         <v>1</v>
       </c>
       <c r="AO216" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP216" s="10" t="s">
         <v>150</v>
@@ -33436,7 +33436,7 @@
         <v>1</v>
       </c>
       <c r="AO217" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP217" s="10" t="s">
         <v>150</v>
@@ -33565,7 +33565,7 @@
         <v>1</v>
       </c>
       <c r="AO218" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP218" s="10" t="s">
         <v>150</v>
@@ -33694,7 +33694,7 @@
         <v>1</v>
       </c>
       <c r="AO219" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP219" s="10" t="s">
         <v>150</v>
@@ -33823,7 +33823,7 @@
         <v>1</v>
       </c>
       <c r="AO220" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP220" s="10" t="s">
         <v>150</v>
@@ -33952,7 +33952,7 @@
         <v>1</v>
       </c>
       <c r="AO221" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP221" s="10" t="s">
         <v>150</v>
@@ -34081,7 +34081,7 @@
         <v>1</v>
       </c>
       <c r="AO222" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP222" s="10" t="s">
         <v>150</v>
@@ -34210,7 +34210,7 @@
         <v>1</v>
       </c>
       <c r="AO223" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP223" s="10" t="s">
         <v>150</v>
@@ -34339,7 +34339,7 @@
         <v>1</v>
       </c>
       <c r="AO224" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP224" s="10" t="s">
         <v>150</v>
@@ -34468,7 +34468,7 @@
         <v>1</v>
       </c>
       <c r="AO225" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP225" s="10" t="s">
         <v>150</v>
@@ -34597,7 +34597,7 @@
         <v>1</v>
       </c>
       <c r="AO226" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP226" s="10" t="s">
         <v>150</v>
@@ -34726,7 +34726,7 @@
         <v>1</v>
       </c>
       <c r="AO227" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP227" s="10" t="s">
         <v>150</v>
@@ -34855,7 +34855,7 @@
         <v>1</v>
       </c>
       <c r="AO228" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP228" s="10" t="s">
         <v>150</v>
@@ -34984,7 +34984,7 @@
         <v>1</v>
       </c>
       <c r="AO229" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP229" s="10" t="s">
         <v>150</v>
@@ -35113,7 +35113,7 @@
         <v>1</v>
       </c>
       <c r="AO230" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP230" s="10" t="s">
         <v>150</v>
@@ -35242,7 +35242,7 @@
         <v>1</v>
       </c>
       <c r="AO231" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP231" s="10" t="s">
         <v>150</v>
@@ -35371,7 +35371,7 @@
         <v>1</v>
       </c>
       <c r="AO232" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP232" s="10" t="s">
         <v>150</v>
@@ -35500,7 +35500,7 @@
         <v>1</v>
       </c>
       <c r="AO233" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP233" s="10" t="s">
         <v>150</v>
@@ -35629,7 +35629,7 @@
         <v>1</v>
       </c>
       <c r="AO234" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP234" s="10" t="s">
         <v>150</v>
@@ -35758,7 +35758,7 @@
         <v>1</v>
       </c>
       <c r="AO235" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP235" s="10" t="s">
         <v>150</v>
@@ -35887,7 +35887,7 @@
         <v>1</v>
       </c>
       <c r="AO236" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP236" s="10" t="s">
         <v>150</v>
@@ -36016,7 +36016,7 @@
         <v>1</v>
       </c>
       <c r="AO237" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP237" s="10" t="s">
         <v>150</v>
@@ -36145,7 +36145,7 @@
         <v>1</v>
       </c>
       <c r="AO238" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP238" s="10" t="s">
         <v>150</v>
@@ -36274,7 +36274,7 @@
         <v>1</v>
       </c>
       <c r="AO239" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP239" s="10" t="s">
         <v>150</v>
@@ -36403,7 +36403,7 @@
         <v>1</v>
       </c>
       <c r="AO240" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP240" s="10" t="s">
         <v>150</v>
@@ -36532,7 +36532,7 @@
         <v>1</v>
       </c>
       <c r="AO241" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP241" s="10" t="s">
         <v>150</v>
@@ -36661,7 +36661,7 @@
         <v>1</v>
       </c>
       <c r="AO242" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP242" s="10" t="s">
         <v>150</v>
@@ -36790,7 +36790,7 @@
         <v>1</v>
       </c>
       <c r="AO243" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP243" s="10" t="s">
         <v>150</v>
@@ -36919,7 +36919,7 @@
         <v>1</v>
       </c>
       <c r="AO244" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP244" s="10" t="s">
         <v>150</v>
@@ -37048,7 +37048,7 @@
         <v>1</v>
       </c>
       <c r="AO245" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP245" s="10" t="s">
         <v>150</v>
@@ -37177,7 +37177,7 @@
         <v>1</v>
       </c>
       <c r="AO246" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP246" s="10" t="s">
         <v>150</v>
@@ -37306,7 +37306,7 @@
         <v>1</v>
       </c>
       <c r="AO247" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP247" s="10" t="s">
         <v>150</v>
@@ -37435,7 +37435,7 @@
         <v>1</v>
       </c>
       <c r="AO248" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP248" s="10" t="s">
         <v>150</v>
@@ -37564,7 +37564,7 @@
         <v>1</v>
       </c>
       <c r="AO249" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP249" s="10" t="s">
         <v>150</v>
@@ -37693,7 +37693,7 @@
         <v>1</v>
       </c>
       <c r="AO250" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP250" s="10" t="s">
         <v>150</v>
@@ -37822,7 +37822,7 @@
         <v>1</v>
       </c>
       <c r="AO251" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP251" s="10" t="s">
         <v>150</v>
@@ -37951,7 +37951,7 @@
         <v>1</v>
       </c>
       <c r="AO252" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP252" s="10" t="s">
         <v>150</v>
@@ -38080,7 +38080,7 @@
         <v>1</v>
       </c>
       <c r="AO253" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP253" s="10" t="s">
         <v>150</v>
@@ -38209,7 +38209,7 @@
         <v>1</v>
       </c>
       <c r="AO254" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP254" s="10" t="s">
         <v>150</v>
@@ -38338,7 +38338,7 @@
         <v>1</v>
       </c>
       <c r="AO255" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP255" s="10" t="s">
         <v>150</v>
@@ -38467,7 +38467,7 @@
         <v>1</v>
       </c>
       <c r="AO256" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP256" s="10" t="s">
         <v>150</v>
@@ -38596,7 +38596,7 @@
         <v>1</v>
       </c>
       <c r="AO257" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP257" s="10" t="s">
         <v>150</v>
@@ -38725,7 +38725,7 @@
         <v>1</v>
       </c>
       <c r="AO258" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP258" s="10" t="s">
         <v>150</v>
@@ -38854,7 +38854,7 @@
         <v>1</v>
       </c>
       <c r="AO259" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP259" s="10" t="s">
         <v>150</v>
@@ -38983,7 +38983,7 @@
         <v>1</v>
       </c>
       <c r="AO260" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP260" s="10" t="s">
         <v>150</v>
@@ -39112,7 +39112,7 @@
         <v>1</v>
       </c>
       <c r="AO261" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP261" s="10" t="s">
         <v>150</v>
@@ -39241,7 +39241,7 @@
         <v>1</v>
       </c>
       <c r="AO262" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP262" s="10" t="s">
         <v>150</v>
@@ -39370,7 +39370,7 @@
         <v>1</v>
       </c>
       <c r="AO263" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP263" s="10" t="s">
         <v>150</v>
@@ -39499,7 +39499,7 @@
         <v>1</v>
       </c>
       <c r="AO264" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP264" s="10" t="s">
         <v>150</v>
@@ -39628,7 +39628,7 @@
         <v>1</v>
       </c>
       <c r="AO265" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP265" s="10" t="s">
         <v>150</v>
@@ -39757,7 +39757,7 @@
         <v>1</v>
       </c>
       <c r="AO266" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP266" s="10" t="s">
         <v>150</v>
@@ -39886,7 +39886,7 @@
         <v>1</v>
       </c>
       <c r="AO267" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP267" s="10" t="s">
         <v>150</v>
@@ -40015,7 +40015,7 @@
         <v>1</v>
       </c>
       <c r="AO268" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP268" s="10" t="s">
         <v>150</v>
@@ -40144,7 +40144,7 @@
         <v>1</v>
       </c>
       <c r="AO269" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP269" s="10" t="s">
         <v>150</v>
@@ -40273,7 +40273,7 @@
         <v>1</v>
       </c>
       <c r="AO270" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP270" s="10" t="s">
         <v>150</v>
@@ -40402,7 +40402,7 @@
         <v>1</v>
       </c>
       <c r="AO271" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP271" s="10" t="s">
         <v>150</v>
@@ -40531,7 +40531,7 @@
         <v>1</v>
       </c>
       <c r="AO272" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP272" s="10" t="s">
         <v>150</v>
@@ -40660,7 +40660,7 @@
         <v>1</v>
       </c>
       <c r="AO273" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP273" s="10" t="s">
         <v>150</v>
@@ -40789,7 +40789,7 @@
         <v>1</v>
       </c>
       <c r="AO274" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP274" s="10" t="s">
         <v>150</v>
@@ -40918,7 +40918,7 @@
         <v>1</v>
       </c>
       <c r="AO275" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP275" s="10" t="s">
         <v>150</v>
@@ -41047,7 +41047,7 @@
         <v>1</v>
       </c>
       <c r="AO276" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP276" s="10" t="s">
         <v>150</v>
@@ -41176,7 +41176,7 @@
         <v>1</v>
       </c>
       <c r="AO277" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP277" s="10" t="s">
         <v>150</v>
@@ -41305,7 +41305,7 @@
         <v>1</v>
       </c>
       <c r="AO278" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP278" s="10" t="s">
         <v>150</v>
@@ -41434,7 +41434,7 @@
         <v>1</v>
       </c>
       <c r="AO279" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP279" s="10" t="s">
         <v>150</v>
@@ -41563,7 +41563,7 @@
         <v>1</v>
       </c>
       <c r="AO280" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP280" s="10" t="s">
         <v>150</v>
@@ -41692,7 +41692,7 @@
         <v>1</v>
       </c>
       <c r="AO281" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP281" s="10" t="s">
         <v>150</v>
@@ -41821,7 +41821,7 @@
         <v>1</v>
       </c>
       <c r="AO282" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP282" s="10" t="s">
         <v>150</v>
@@ -41950,7 +41950,7 @@
         <v>1</v>
       </c>
       <c r="AO283" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP283" s="10" t="s">
         <v>150</v>
@@ -42079,7 +42079,7 @@
         <v>1</v>
       </c>
       <c r="AO284" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP284" s="10" t="s">
         <v>150</v>
@@ -42208,7 +42208,7 @@
         <v>1</v>
       </c>
       <c r="AO285" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP285" s="10" t="s">
         <v>150</v>
@@ -42337,7 +42337,7 @@
         <v>1</v>
       </c>
       <c r="AO286" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP286" s="10" t="s">
         <v>150</v>
@@ -42466,7 +42466,7 @@
         <v>1</v>
       </c>
       <c r="AO287" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP287" s="10" t="s">
         <v>150</v>
@@ -42595,7 +42595,7 @@
         <v>1</v>
       </c>
       <c r="AO288" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP288" s="10" t="s">
         <v>150</v>
@@ -42724,7 +42724,7 @@
         <v>1</v>
       </c>
       <c r="AO289" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP289" s="10" t="s">
         <v>150</v>
@@ -42853,7 +42853,7 @@
         <v>1</v>
       </c>
       <c r="AO290" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP290" s="10" t="s">
         <v>150</v>
@@ -42982,7 +42982,7 @@
         <v>1</v>
       </c>
       <c r="AO291" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP291" s="10" t="s">
         <v>150</v>
@@ -43111,7 +43111,7 @@
         <v>1</v>
       </c>
       <c r="AO292" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP292" s="10" t="s">
         <v>150</v>
@@ -43240,7 +43240,7 @@
         <v>1</v>
       </c>
       <c r="AO293" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP293" s="10" t="s">
         <v>150</v>
@@ -43369,7 +43369,7 @@
         <v>1</v>
       </c>
       <c r="AO294" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP294" s="10" t="s">
         <v>150</v>
@@ -43498,7 +43498,7 @@
         <v>1</v>
       </c>
       <c r="AO295" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP295" s="10" t="s">
         <v>150</v>
@@ -43627,7 +43627,7 @@
         <v>1</v>
       </c>
       <c r="AO296" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP296" s="10" t="s">
         <v>150</v>
@@ -43756,7 +43756,7 @@
         <v>1</v>
       </c>
       <c r="AO297" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP297" s="10" t="s">
         <v>150</v>
@@ -43885,7 +43885,7 @@
         <v>1</v>
       </c>
       <c r="AO298" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP298" s="10" t="s">
         <v>150</v>
@@ -44014,7 +44014,7 @@
         <v>1</v>
       </c>
       <c r="AO299" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP299" s="10" t="s">
         <v>150</v>
@@ -44143,7 +44143,7 @@
         <v>1</v>
       </c>
       <c r="AO300" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP300" s="10" t="s">
         <v>150</v>
@@ -44272,7 +44272,7 @@
         <v>1</v>
       </c>
       <c r="AO301" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP301" s="10" t="s">
         <v>150</v>
@@ -44401,7 +44401,7 @@
         <v>1</v>
       </c>
       <c r="AO302" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP302" s="10" t="s">
         <v>150</v>
@@ -44530,7 +44530,7 @@
         <v>1</v>
       </c>
       <c r="AO303" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP303" s="10" t="s">
         <v>150</v>
@@ -44659,7 +44659,7 @@
         <v>1</v>
       </c>
       <c r="AO304" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP304" s="10" t="s">
         <v>150</v>
@@ -44788,7 +44788,7 @@
         <v>1</v>
       </c>
       <c r="AO305" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP305" s="10" t="s">
         <v>150</v>
@@ -44917,7 +44917,7 @@
         <v>1</v>
       </c>
       <c r="AO306" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP306" s="10" t="s">
         <v>150</v>
@@ -45046,7 +45046,7 @@
         <v>1</v>
       </c>
       <c r="AO307" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP307" s="10" t="s">
         <v>150</v>
@@ -45175,7 +45175,7 @@
         <v>1</v>
       </c>
       <c r="AO308" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP308" s="10" t="s">
         <v>150</v>
@@ -45304,7 +45304,7 @@
         <v>1</v>
       </c>
       <c r="AO309" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP309" s="10" t="s">
         <v>150</v>
@@ -45433,7 +45433,7 @@
         <v>1</v>
       </c>
       <c r="AO310" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP310" s="10" t="s">
         <v>150</v>
@@ -45562,7 +45562,7 @@
         <v>1</v>
       </c>
       <c r="AO311" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP311" s="10" t="s">
         <v>150</v>
@@ -45691,7 +45691,7 @@
         <v>1</v>
       </c>
       <c r="AO312" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP312" s="10" t="s">
         <v>150</v>
@@ -45820,7 +45820,7 @@
         <v>1</v>
       </c>
       <c r="AO313" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP313" s="10" t="s">
         <v>150</v>
@@ -45949,7 +45949,7 @@
         <v>1</v>
       </c>
       <c r="AO314" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP314" s="10" t="s">
         <v>150</v>
@@ -46078,7 +46078,7 @@
         <v>1</v>
       </c>
       <c r="AO315" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP315" s="10" t="s">
         <v>150</v>
@@ -46207,7 +46207,7 @@
         <v>1</v>
       </c>
       <c r="AO316" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP316" s="10" t="s">
         <v>150</v>
@@ -46336,7 +46336,7 @@
         <v>1</v>
       </c>
       <c r="AO317" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP317" s="10" t="s">
         <v>150</v>
@@ -46465,7 +46465,7 @@
         <v>1</v>
       </c>
       <c r="AO318" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP318" s="10" t="s">
         <v>150</v>
@@ -46594,7 +46594,7 @@
         <v>1</v>
       </c>
       <c r="AO319" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP319" s="10" t="s">
         <v>150</v>
@@ -46723,7 +46723,7 @@
         <v>1</v>
       </c>
       <c r="AO320" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP320" s="10" t="s">
         <v>150</v>
@@ -46852,7 +46852,7 @@
         <v>1</v>
       </c>
       <c r="AO321" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP321" s="10" t="s">
         <v>150</v>
@@ -46981,7 +46981,7 @@
         <v>1</v>
       </c>
       <c r="AO322" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP322" s="10" t="s">
         <v>150</v>
@@ -47110,7 +47110,7 @@
         <v>1</v>
       </c>
       <c r="AO323" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP323" s="10" t="s">
         <v>150</v>
@@ -47239,7 +47239,7 @@
         <v>1</v>
       </c>
       <c r="AO324" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP324" s="10" t="s">
         <v>150</v>
@@ -47368,7 +47368,7 @@
         <v>1</v>
       </c>
       <c r="AO325" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP325" s="10" t="s">
         <v>150</v>
@@ -47497,7 +47497,7 @@
         <v>1</v>
       </c>
       <c r="AO326" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP326" s="10" t="s">
         <v>150</v>
@@ -47626,7 +47626,7 @@
         <v>1</v>
       </c>
       <c r="AO327" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP327" s="10" t="s">
         <v>150</v>
@@ -47755,7 +47755,7 @@
         <v>1</v>
       </c>
       <c r="AO328" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP328" s="10" t="s">
         <v>150</v>
@@ -47884,7 +47884,7 @@
         <v>1</v>
       </c>
       <c r="AO329" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP329" s="10" t="s">
         <v>150</v>
@@ -48013,7 +48013,7 @@
         <v>1</v>
       </c>
       <c r="AO330" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP330" s="10" t="s">
         <v>150</v>
@@ -48142,7 +48142,7 @@
         <v>1</v>
       </c>
       <c r="AO331" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP331" s="10" t="s">
         <v>150</v>
@@ -48271,7 +48271,7 @@
         <v>1</v>
       </c>
       <c r="AO332" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP332" s="10" t="s">
         <v>150</v>
@@ -48400,7 +48400,7 @@
         <v>1</v>
       </c>
       <c r="AO333" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP333" s="10" t="s">
         <v>150</v>
@@ -48529,7 +48529,7 @@
         <v>1</v>
       </c>
       <c r="AO334" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP334" s="10" t="s">
         <v>150</v>
@@ -48658,7 +48658,7 @@
         <v>1</v>
       </c>
       <c r="AO335" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP335" s="10" t="s">
         <v>150</v>
@@ -48787,7 +48787,7 @@
         <v>1</v>
       </c>
       <c r="AO336" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP336" s="10" t="s">
         <v>150</v>
@@ -48916,7 +48916,7 @@
         <v>1</v>
       </c>
       <c r="AO337" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP337" s="10" t="s">
         <v>150</v>
@@ -49045,7 +49045,7 @@
         <v>1</v>
       </c>
       <c r="AO338" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP338" s="10" t="s">
         <v>150</v>
@@ -49174,7 +49174,7 @@
         <v>1</v>
       </c>
       <c r="AO339" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP339" s="10" t="s">
         <v>150</v>
@@ -49303,7 +49303,7 @@
         <v>1</v>
       </c>
       <c r="AO340" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP340" s="10" t="s">
         <v>150</v>
@@ -49432,7 +49432,7 @@
         <v>1</v>
       </c>
       <c r="AO341" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP341" s="10" t="s">
         <v>150</v>
@@ -49561,7 +49561,7 @@
         <v>1</v>
       </c>
       <c r="AO342" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP342" s="10" t="s">
         <v>150</v>
@@ -49690,7 +49690,7 @@
         <v>1</v>
       </c>
       <c r="AO343" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP343" s="10" t="s">
         <v>150</v>
@@ -49819,7 +49819,7 @@
         <v>1</v>
       </c>
       <c r="AO344" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP344" s="10" t="s">
         <v>150</v>
@@ -49948,7 +49948,7 @@
         <v>1</v>
       </c>
       <c r="AO345" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP345" s="10" t="s">
         <v>150</v>
@@ -50077,7 +50077,7 @@
         <v>1</v>
       </c>
       <c r="AO346" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP346" s="10" t="s">
         <v>150</v>
@@ -50206,7 +50206,7 @@
         <v>1</v>
       </c>
       <c r="AO347" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP347" s="10" t="s">
         <v>150</v>
@@ -50335,7 +50335,7 @@
         <v>1</v>
       </c>
       <c r="AO348" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP348" s="10" t="s">
         <v>150</v>
@@ -50464,7 +50464,7 @@
         <v>1</v>
       </c>
       <c r="AO349" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP349" s="10" t="s">
         <v>150</v>
@@ -50593,7 +50593,7 @@
         <v>1</v>
       </c>
       <c r="AO350" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP350" s="10" t="s">
         <v>150</v>
@@ -50722,7 +50722,7 @@
         <v>1</v>
       </c>
       <c r="AO351" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP351" s="10" t="s">
         <v>150</v>
@@ -50851,7 +50851,7 @@
         <v>1</v>
       </c>
       <c r="AO352" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP352" s="10" t="s">
         <v>150</v>
@@ -50980,7 +50980,7 @@
         <v>1</v>
       </c>
       <c r="AO353" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP353" s="10" t="s">
         <v>150</v>
@@ -51109,7 +51109,7 @@
         <v>1</v>
       </c>
       <c r="AO354" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP354" s="10" t="s">
         <v>150</v>
@@ -51238,7 +51238,7 @@
         <v>1</v>
       </c>
       <c r="AO355" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP355" s="10" t="s">
         <v>150</v>
@@ -51367,7 +51367,7 @@
         <v>1</v>
       </c>
       <c r="AO356" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP356" s="10" t="s">
         <v>150</v>
@@ -51496,7 +51496,7 @@
         <v>1</v>
       </c>
       <c r="AO357" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP357" s="10" t="s">
         <v>150</v>
@@ -51625,7 +51625,7 @@
         <v>1</v>
       </c>
       <c r="AO358" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP358" s="10" t="s">
         <v>150</v>
@@ -51754,7 +51754,7 @@
         <v>1</v>
       </c>
       <c r="AO359" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP359" s="10" t="s">
         <v>150</v>
@@ -51883,7 +51883,7 @@
         <v>1</v>
       </c>
       <c r="AO360" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP360" s="10" t="s">
         <v>150</v>
@@ -52012,7 +52012,7 @@
         <v>1</v>
       </c>
       <c r="AO361" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP361" s="10" t="s">
         <v>150</v>
@@ -52141,7 +52141,7 @@
         <v>1</v>
       </c>
       <c r="AO362" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP362" s="10" t="s">
         <v>150</v>
@@ -52270,7 +52270,7 @@
         <v>1</v>
       </c>
       <c r="AO363" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP363" s="10" t="s">
         <v>150</v>
@@ -52399,7 +52399,7 @@
         <v>1</v>
       </c>
       <c r="AO364" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP364" s="10" t="s">
         <v>150</v>
@@ -52528,7 +52528,7 @@
         <v>1</v>
       </c>
       <c r="AO365" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP365" s="10" t="s">
         <v>150</v>
@@ -52657,7 +52657,7 @@
         <v>1</v>
       </c>
       <c r="AO366" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP366" s="10" t="s">
         <v>150</v>
@@ -52786,7 +52786,7 @@
         <v>1</v>
       </c>
       <c r="AO367" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP367" s="10" t="s">
         <v>150</v>
@@ -52915,7 +52915,7 @@
         <v>1</v>
       </c>
       <c r="AO368" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP368" s="10" t="s">
         <v>150</v>
@@ -53044,7 +53044,7 @@
         <v>1</v>
       </c>
       <c r="AO369" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP369" s="10" t="s">
         <v>150</v>
@@ -53173,7 +53173,7 @@
         <v>1</v>
       </c>
       <c r="AO370" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP370" s="10" t="s">
         <v>150</v>
@@ -53302,7 +53302,7 @@
         <v>1</v>
       </c>
       <c r="AO371" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP371" s="10" t="s">
         <v>150</v>
@@ -53431,7 +53431,7 @@
         <v>1</v>
       </c>
       <c r="AO372" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP372" s="10" t="s">
         <v>150</v>
@@ -53560,7 +53560,7 @@
         <v>1</v>
       </c>
       <c r="AO373" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP373" s="10" t="s">
         <v>150</v>
@@ -53689,7 +53689,7 @@
         <v>1</v>
       </c>
       <c r="AO374" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP374" s="10" t="s">
         <v>150</v>
@@ -53818,7 +53818,7 @@
         <v>1</v>
       </c>
       <c r="AO375" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP375" s="10" t="s">
         <v>150</v>
@@ -53947,7 +53947,7 @@
         <v>1</v>
       </c>
       <c r="AO376" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP376" s="10" t="s">
         <v>150</v>
@@ -54076,7 +54076,7 @@
         <v>1</v>
       </c>
       <c r="AO377" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP377" s="10" t="s">
         <v>150</v>
@@ -54205,7 +54205,7 @@
         <v>1</v>
       </c>
       <c r="AO378" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP378" s="10" t="s">
         <v>150</v>
@@ -54334,7 +54334,7 @@
         <v>1</v>
       </c>
       <c r="AO379" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP379" s="10" t="s">
         <v>150</v>
@@ -54463,7 +54463,7 @@
         <v>1</v>
       </c>
       <c r="AO380" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP380" s="10" t="s">
         <v>150</v>
@@ -54592,7 +54592,7 @@
         <v>1</v>
       </c>
       <c r="AO381" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP381" s="10" t="s">
         <v>150</v>
@@ -54721,7 +54721,7 @@
         <v>1</v>
       </c>
       <c r="AO382" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP382" s="10" t="s">
         <v>150</v>
@@ -54850,7 +54850,7 @@
         <v>1</v>
       </c>
       <c r="AO383" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP383" s="10" t="s">
         <v>150</v>
@@ -54979,7 +54979,7 @@
         <v>1</v>
       </c>
       <c r="AO384" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP384" s="10" t="s">
         <v>150</v>
@@ -55108,7 +55108,7 @@
         <v>1</v>
       </c>
       <c r="AO385" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP385" s="10" t="s">
         <v>150</v>
@@ -55237,7 +55237,7 @@
         <v>1</v>
       </c>
       <c r="AO386" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP386" s="10" t="s">
         <v>150</v>
@@ -55366,7 +55366,7 @@
         <v>1</v>
       </c>
       <c r="AO387" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP387" s="10" t="s">
         <v>150</v>
@@ -55495,7 +55495,7 @@
         <v>1</v>
       </c>
       <c r="AO388" s="6">
-        <v>70000001</v>
+        <v>67000062</v>
       </c>
       <c r="AP388" s="10" t="s">
         <v>150</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1318986-FBCB-4280-8E25-A5DAE4E9D30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB90048-4645-4979-99A2-6F262840C67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -5770,10 +5770,10 @@
   <dimension ref="A1:AV395"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AK6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
+      <selection pane="bottomRight" activeCell="AO13" sqref="AO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -6338,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="AO6" s="6">
-        <v>67000060</v>
+        <v>70000001</v>
       </c>
       <c r="AP6" s="10" t="s">
         <v>150</v>
@@ -6466,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="AO7" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP7" s="10" t="s">
         <v>150</v>
@@ -6594,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="AO8" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP8" s="10" t="s">
         <v>150</v>
@@ -6722,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="AO9" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP9" s="10" t="s">
         <v>332</v>
@@ -6850,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="AO10" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP10" s="10" t="s">
         <v>150</v>
@@ -6978,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="AO11" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP11" s="10" t="s">
         <v>150</v>
@@ -7106,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="AO12" s="14">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP12" s="15" t="s">
         <v>151</v>
@@ -7234,7 +7234,7 @@
         <v>1</v>
       </c>
       <c r="AO13" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP13" s="10" t="s">
         <v>150</v>
@@ -7362,7 +7362,7 @@
         <v>1</v>
       </c>
       <c r="AO14" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP14" s="10" t="s">
         <v>152</v>
@@ -7490,7 +7490,7 @@
         <v>1</v>
       </c>
       <c r="AO15" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP15" s="10" t="s">
         <v>150</v>
@@ -7618,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="AO16" s="14">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP16" s="15" t="s">
         <v>150</v>
@@ -7746,7 +7746,7 @@
         <v>1</v>
       </c>
       <c r="AO17" s="14">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP17" s="15" t="s">
         <v>150</v>
@@ -7874,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="AO18" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP18" s="10" t="s">
         <v>153</v>
@@ -8002,7 +8002,7 @@
         <v>1</v>
       </c>
       <c r="AO19" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP19" s="10" t="s">
         <v>150</v>
@@ -8130,7 +8130,7 @@
         <v>1</v>
       </c>
       <c r="AO20" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP20" s="10" t="s">
         <v>150</v>
@@ -8258,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="AO21" s="14">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP21" s="15" t="s">
         <v>150</v>
@@ -8386,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="AO22" s="14">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP22" s="15" t="s">
         <v>150</v>
@@ -8514,7 +8514,7 @@
         <v>1</v>
       </c>
       <c r="AO23" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP23" s="10" t="s">
         <v>154</v>
@@ -8642,7 +8642,7 @@
         <v>1</v>
       </c>
       <c r="AO24" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP24" s="10" t="s">
         <v>155</v>
@@ -8770,7 +8770,7 @@
         <v>1</v>
       </c>
       <c r="AO25" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP25" s="10" t="s">
         <v>150</v>
@@ -8898,7 +8898,7 @@
         <v>1</v>
       </c>
       <c r="AO26" s="14">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP26" s="15" t="s">
         <v>150</v>
@@ -9026,7 +9026,7 @@
         <v>1</v>
       </c>
       <c r="AO27" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP27" s="10" t="s">
         <v>156</v>
@@ -9154,7 +9154,7 @@
         <v>1</v>
       </c>
       <c r="AO28" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP28" s="10" t="s">
         <v>150</v>
@@ -9282,7 +9282,7 @@
         <v>1</v>
       </c>
       <c r="AO29" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP29" s="10" t="s">
         <v>150</v>
@@ -9410,7 +9410,7 @@
         <v>1</v>
       </c>
       <c r="AO30" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP30" s="10" t="s">
         <v>157</v>
@@ -9538,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="AO31" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP31" s="10" t="s">
         <v>150</v>
@@ -9666,7 +9666,7 @@
         <v>1</v>
       </c>
       <c r="AO32" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP32" s="10" t="s">
         <v>150</v>
@@ -9794,7 +9794,7 @@
         <v>1</v>
       </c>
       <c r="AO33" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP33" s="10" t="s">
         <v>158</v>
@@ -9922,7 +9922,7 @@
         <v>1</v>
       </c>
       <c r="AO34" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP34" s="10" t="s">
         <v>159</v>
@@ -10050,7 +10050,7 @@
         <v>1</v>
       </c>
       <c r="AO35" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP35" s="10" t="s">
         <v>150</v>
@@ -10178,7 +10178,7 @@
         <v>1</v>
       </c>
       <c r="AO36" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP36" s="10" t="s">
         <v>150</v>
@@ -10306,7 +10306,7 @@
         <v>1</v>
       </c>
       <c r="AO37" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP37" s="10" t="s">
         <v>150</v>
@@ -10434,7 +10434,7 @@
         <v>1</v>
       </c>
       <c r="AO38" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP38" s="10" t="s">
         <v>150</v>
@@ -10562,7 +10562,7 @@
         <v>1</v>
       </c>
       <c r="AO39" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP39" s="10" t="s">
         <v>160</v>
@@ -10690,7 +10690,7 @@
         <v>1</v>
       </c>
       <c r="AO40" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP40" s="10" t="s">
         <v>150</v>
@@ -10818,7 +10818,7 @@
         <v>1</v>
       </c>
       <c r="AO41" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP41" s="10" t="s">
         <v>150</v>
@@ -10946,7 +10946,7 @@
         <v>1</v>
       </c>
       <c r="AO42" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP42" s="10" t="s">
         <v>161</v>
@@ -11074,7 +11074,7 @@
         <v>1</v>
       </c>
       <c r="AO43" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP43" s="10" t="s">
         <v>150</v>
@@ -11202,7 +11202,7 @@
         <v>1</v>
       </c>
       <c r="AO44" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP44" s="10" t="s">
         <v>150</v>
@@ -11330,7 +11330,7 @@
         <v>1</v>
       </c>
       <c r="AO45" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP45" s="10" t="s">
         <v>162</v>
@@ -11458,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="AO46" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP46" s="10" t="s">
         <v>150</v>
@@ -11586,7 +11586,7 @@
         <v>1</v>
       </c>
       <c r="AO47" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP47" s="10" t="s">
         <v>150</v>
@@ -11714,7 +11714,7 @@
         <v>1</v>
       </c>
       <c r="AO48" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP48" s="10" t="s">
         <v>150</v>
@@ -11842,7 +11842,7 @@
         <v>1</v>
       </c>
       <c r="AO49" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP49" s="10" t="s">
         <v>150</v>
@@ -11970,7 +11970,7 @@
         <v>1</v>
       </c>
       <c r="AO50" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP50" s="10" t="s">
         <v>150</v>
@@ -12098,7 +12098,7 @@
         <v>1</v>
       </c>
       <c r="AO51" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP51" s="10" t="s">
         <v>163</v>
@@ -12226,7 +12226,7 @@
         <v>1</v>
       </c>
       <c r="AO52" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP52" s="10" t="s">
         <v>150</v>
@@ -12354,7 +12354,7 @@
         <v>1</v>
       </c>
       <c r="AO53" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP53" s="10" t="s">
         <v>150</v>
@@ -12482,7 +12482,7 @@
         <v>1</v>
       </c>
       <c r="AO54" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP54" s="10" t="s">
         <v>150</v>
@@ -12610,7 +12610,7 @@
         <v>1</v>
       </c>
       <c r="AO55" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP55" s="10" t="s">
         <v>164</v>
@@ -12738,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="AO56" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP56" s="10" t="s">
         <v>150</v>
@@ -12866,7 +12866,7 @@
         <v>1</v>
       </c>
       <c r="AO57" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP57" s="10" t="s">
         <v>150</v>
@@ -12994,7 +12994,7 @@
         <v>1</v>
       </c>
       <c r="AO58" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP58" s="10" t="s">
         <v>165</v>
@@ -13122,7 +13122,7 @@
         <v>1</v>
       </c>
       <c r="AO59" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP59" s="10" t="s">
         <v>150</v>
@@ -13250,7 +13250,7 @@
         <v>1</v>
       </c>
       <c r="AO60" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP60" s="10" t="s">
         <v>150</v>
@@ -13378,7 +13378,7 @@
         <v>1</v>
       </c>
       <c r="AO61" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP61" s="10" t="s">
         <v>166</v>
@@ -13506,7 +13506,7 @@
         <v>1</v>
       </c>
       <c r="AO62" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP62" s="10" t="s">
         <v>150</v>
@@ -13634,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="AO63" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP63" s="10" t="s">
         <v>150</v>
@@ -13762,7 +13762,7 @@
         <v>1</v>
       </c>
       <c r="AO64" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP64" s="10" t="s">
         <v>150</v>
@@ -13890,7 +13890,7 @@
         <v>1</v>
       </c>
       <c r="AO65" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP65" s="10" t="s">
         <v>167</v>
@@ -14018,7 +14018,7 @@
         <v>1</v>
       </c>
       <c r="AO66" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP66" s="10" t="s">
         <v>150</v>
@@ -14146,7 +14146,7 @@
         <v>1</v>
       </c>
       <c r="AO67" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP67" s="10" t="s">
         <v>150</v>
@@ -14274,7 +14274,7 @@
         <v>1</v>
       </c>
       <c r="AO68" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP68" s="10" t="s">
         <v>168</v>
@@ -14402,7 +14402,7 @@
         <v>1</v>
       </c>
       <c r="AO69" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP69" s="10" t="s">
         <v>150</v>
@@ -14530,7 +14530,7 @@
         <v>1</v>
       </c>
       <c r="AO70" s="6">
-        <v>67000063</v>
+        <v>70000002</v>
       </c>
       <c r="AP70" s="10" t="s">
         <v>196</v>
@@ -14658,7 +14658,7 @@
         <v>1</v>
       </c>
       <c r="AO71" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP71" s="10" t="s">
         <v>169</v>
@@ -14786,7 +14786,7 @@
         <v>1</v>
       </c>
       <c r="AO72" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP72" s="10" t="s">
         <v>170</v>
@@ -14914,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="AO73" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP73" s="10" t="s">
         <v>150</v>
@@ -15042,7 +15042,7 @@
         <v>1</v>
       </c>
       <c r="AO74" s="25">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP74" s="26" t="s">
         <v>150</v>
@@ -15170,7 +15170,7 @@
         <v>1</v>
       </c>
       <c r="AO75" s="25">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP75" s="26" t="s">
         <v>150</v>
@@ -15298,7 +15298,7 @@
         <v>1</v>
       </c>
       <c r="AO76" s="25">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP76" s="26" t="s">
         <v>150</v>
@@ -15426,7 +15426,7 @@
         <v>1</v>
       </c>
       <c r="AO77" s="6">
-        <v>67000063</v>
+        <v>70000002</v>
       </c>
       <c r="AP77" s="10" t="s">
         <v>196</v>
@@ -15554,7 +15554,7 @@
         <v>1</v>
       </c>
       <c r="AO78" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP78" s="10" t="s">
         <v>150</v>
@@ -15682,7 +15682,7 @@
         <v>1</v>
       </c>
       <c r="AO79" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP79" s="10" t="s">
         <v>171</v>
@@ -15810,7 +15810,7 @@
         <v>1</v>
       </c>
       <c r="AO80" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP80" s="10" t="s">
         <v>172</v>
@@ -15938,7 +15938,7 @@
         <v>1</v>
       </c>
       <c r="AO81" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP81" s="10" t="s">
         <v>150</v>
@@ -16066,7 +16066,7 @@
         <v>1</v>
       </c>
       <c r="AO82" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP82" s="10" t="s">
         <v>150</v>
@@ -16194,7 +16194,7 @@
         <v>1</v>
       </c>
       <c r="AO83" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP83" s="10" t="s">
         <v>150</v>
@@ -16322,7 +16322,7 @@
         <v>1</v>
       </c>
       <c r="AO84" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP84" s="10" t="s">
         <v>150</v>
@@ -16450,7 +16450,7 @@
         <v>1</v>
       </c>
       <c r="AO85" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP85" s="10" t="s">
         <v>150</v>
@@ -16578,7 +16578,7 @@
         <v>1</v>
       </c>
       <c r="AO86" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP86" s="10" t="s">
         <v>150</v>
@@ -16706,7 +16706,7 @@
         <v>1</v>
       </c>
       <c r="AO87" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP87" s="10" t="s">
         <v>173</v>
@@ -16834,7 +16834,7 @@
         <v>1</v>
       </c>
       <c r="AO88" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP88" s="10" t="s">
         <v>150</v>
@@ -16962,7 +16962,7 @@
         <v>1</v>
       </c>
       <c r="AO89" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP89" s="10" t="s">
         <v>150</v>
@@ -17090,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="AO90" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP90" s="10" t="s">
         <v>150</v>
@@ -17218,7 +17218,7 @@
         <v>1</v>
       </c>
       <c r="AO91" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP91" s="10" t="s">
         <v>174</v>
@@ -17346,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="AO92" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP92" s="10" t="s">
         <v>150</v>
@@ -17474,7 +17474,7 @@
         <v>1</v>
       </c>
       <c r="AO93" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP93" s="10" t="s">
         <v>150</v>
@@ -17602,7 +17602,7 @@
         <v>1</v>
       </c>
       <c r="AO94" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP94" s="10" t="s">
         <v>150</v>
@@ -17730,7 +17730,7 @@
         <v>1</v>
       </c>
       <c r="AO95" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP95" s="10" t="s">
         <v>175</v>
@@ -17858,7 +17858,7 @@
         <v>1</v>
       </c>
       <c r="AO96" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP96" s="10" t="s">
         <v>176</v>
@@ -17986,7 +17986,7 @@
         <v>1</v>
       </c>
       <c r="AO97" s="21">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP97" s="22" t="s">
         <v>150</v>
@@ -18114,7 +18114,7 @@
         <v>1</v>
       </c>
       <c r="AO98" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP98" s="10" t="s">
         <v>150</v>
@@ -18242,7 +18242,7 @@
         <v>1</v>
       </c>
       <c r="AO99" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP99" s="10" t="s">
         <v>150</v>
@@ -18370,7 +18370,7 @@
         <v>1</v>
       </c>
       <c r="AO100" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP100" s="10" t="s">
         <v>150</v>
@@ -18498,7 +18498,7 @@
         <v>1</v>
       </c>
       <c r="AO101" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP101" s="10" t="s">
         <v>150</v>
@@ -18626,7 +18626,7 @@
         <v>1</v>
       </c>
       <c r="AO102" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP102" s="10" t="s">
         <v>156</v>
@@ -18754,7 +18754,7 @@
         <v>1</v>
       </c>
       <c r="AO103" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP103" s="10" t="s">
         <v>153</v>
@@ -18882,7 +18882,7 @@
         <v>1</v>
       </c>
       <c r="AO104" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP104" s="10" t="s">
         <v>162</v>
@@ -19010,7 +19010,7 @@
         <v>1</v>
       </c>
       <c r="AO105" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP105" s="10" t="s">
         <v>150</v>
@@ -19138,7 +19138,7 @@
         <v>1</v>
       </c>
       <c r="AO106" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP106" s="10" t="s">
         <v>150</v>
@@ -19266,7 +19266,7 @@
         <v>1</v>
       </c>
       <c r="AO107" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP107" s="10" t="s">
         <v>150</v>
@@ -19394,7 +19394,7 @@
         <v>1</v>
       </c>
       <c r="AO108" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP108" s="10" t="s">
         <v>150</v>
@@ -19522,7 +19522,7 @@
         <v>1</v>
       </c>
       <c r="AO109" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP109" s="10" t="s">
         <v>150</v>
@@ -19650,7 +19650,7 @@
         <v>1</v>
       </c>
       <c r="AO110" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP110" s="10" t="s">
         <v>165</v>
@@ -19778,7 +19778,7 @@
         <v>1</v>
       </c>
       <c r="AO111" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP111" s="10" t="s">
         <v>160</v>
@@ -19906,7 +19906,7 @@
         <v>1</v>
       </c>
       <c r="AO112" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP112" s="10" t="s">
         <v>166</v>
@@ -20034,7 +20034,7 @@
         <v>1</v>
       </c>
       <c r="AO113" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP113" s="10" t="s">
         <v>150</v>
@@ -20162,7 +20162,7 @@
         <v>1</v>
       </c>
       <c r="AO114" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP114" s="10" t="s">
         <v>150</v>
@@ -20290,7 +20290,7 @@
         <v>1</v>
       </c>
       <c r="AO115" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP115" s="10" t="s">
         <v>150</v>
@@ -20418,7 +20418,7 @@
         <v>1</v>
       </c>
       <c r="AO116" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP116" s="10" t="s">
         <v>150</v>
@@ -20546,7 +20546,7 @@
         <v>1</v>
       </c>
       <c r="AO117" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP117" s="10" t="s">
         <v>150</v>
@@ -20674,7 +20674,7 @@
         <v>1</v>
       </c>
       <c r="AO118" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP118" s="10" t="s">
         <v>167</v>
@@ -20802,7 +20802,7 @@
         <v>1</v>
       </c>
       <c r="AO119" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP119" s="10" t="s">
         <v>163</v>
@@ -20930,7 +20930,7 @@
         <v>1</v>
       </c>
       <c r="AO120" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP120" s="10" t="s">
         <v>168</v>
@@ -21058,7 +21058,7 @@
         <v>1</v>
       </c>
       <c r="AO121" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP121" s="10" t="s">
         <v>150</v>
@@ -21186,7 +21186,7 @@
         <v>1</v>
       </c>
       <c r="AO122" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP122" s="10" t="s">
         <v>150</v>
@@ -21314,7 +21314,7 @@
         <v>1</v>
       </c>
       <c r="AO123" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP123" s="10" t="s">
         <v>150</v>
@@ -21442,7 +21442,7 @@
         <v>1</v>
       </c>
       <c r="AO124" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP124" s="10" t="s">
         <v>150</v>
@@ -21570,7 +21570,7 @@
         <v>1</v>
       </c>
       <c r="AO125" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP125" s="10" t="s">
         <v>155</v>
@@ -21698,7 +21698,7 @@
         <v>1</v>
       </c>
       <c r="AO126" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP126" s="10" t="s">
         <v>162</v>
@@ -21826,7 +21826,7 @@
         <v>1</v>
       </c>
       <c r="AO127" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP127" s="10" t="s">
         <v>169</v>
@@ -21954,7 +21954,7 @@
         <v>1</v>
       </c>
       <c r="AO128" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP128" s="10" t="s">
         <v>150</v>
@@ -22082,7 +22082,7 @@
         <v>1</v>
       </c>
       <c r="AO129" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP129" s="10" t="s">
         <v>150</v>
@@ -23378,7 +23378,7 @@
         <v>1</v>
       </c>
       <c r="AO139" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP139" s="10" t="s">
         <v>150</v>
@@ -23506,7 +23506,7 @@
         <v>1</v>
       </c>
       <c r="AO140" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP140" s="10" t="s">
         <v>150</v>
@@ -23634,7 +23634,7 @@
         <v>1</v>
       </c>
       <c r="AO141" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP141" s="10" t="s">
         <v>150</v>
@@ -23762,7 +23762,7 @@
         <v>1</v>
       </c>
       <c r="AO142" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP142" s="10" t="s">
         <v>150</v>
@@ -23890,7 +23890,7 @@
         <v>1</v>
       </c>
       <c r="AO143" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP143" s="10" t="s">
         <v>150</v>
@@ -24019,7 +24019,7 @@
         <v>1</v>
       </c>
       <c r="AO144" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP144" s="10" t="s">
         <v>150</v>
@@ -24148,7 +24148,7 @@
         <v>1</v>
       </c>
       <c r="AO145" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP145" s="10" t="s">
         <v>150</v>
@@ -24277,7 +24277,7 @@
         <v>1</v>
       </c>
       <c r="AO146" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP146" s="10" t="s">
         <v>150</v>
@@ -24406,7 +24406,7 @@
         <v>1</v>
       </c>
       <c r="AO147" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP147" s="10" t="s">
         <v>150</v>
@@ -24535,7 +24535,7 @@
         <v>1</v>
       </c>
       <c r="AO148" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP148" s="10" t="s">
         <v>150</v>
@@ -24664,7 +24664,7 @@
         <v>1</v>
       </c>
       <c r="AO149" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP149" s="10" t="s">
         <v>150</v>
@@ -24793,7 +24793,7 @@
         <v>1</v>
       </c>
       <c r="AO150" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP150" s="10" t="s">
         <v>150</v>
@@ -24922,7 +24922,7 @@
         <v>1</v>
       </c>
       <c r="AO151" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP151" s="10" t="s">
         <v>150</v>
@@ -25051,7 +25051,7 @@
         <v>1</v>
       </c>
       <c r="AO152" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP152" s="10" t="s">
         <v>150</v>
@@ -25180,7 +25180,7 @@
         <v>1</v>
       </c>
       <c r="AO153" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP153" s="10" t="s">
         <v>150</v>
@@ -25309,7 +25309,7 @@
         <v>1</v>
       </c>
       <c r="AO154" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP154" s="10" t="s">
         <v>150</v>
@@ -25438,7 +25438,7 @@
         <v>1</v>
       </c>
       <c r="AO155" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP155" s="10" t="s">
         <v>150</v>
@@ -25567,7 +25567,7 @@
         <v>1</v>
       </c>
       <c r="AO156" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP156" s="10" t="s">
         <v>150</v>
@@ -25696,7 +25696,7 @@
         <v>1</v>
       </c>
       <c r="AO157" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP157" s="10" t="s">
         <v>150</v>
@@ -25825,7 +25825,7 @@
         <v>1</v>
       </c>
       <c r="AO158" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP158" s="10" t="s">
         <v>150</v>
@@ -25954,7 +25954,7 @@
         <v>1</v>
       </c>
       <c r="AO159" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP159" s="10" t="s">
         <v>150</v>
@@ -26083,7 +26083,7 @@
         <v>1</v>
       </c>
       <c r="AO160" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP160" s="10" t="s">
         <v>150</v>
@@ -26212,7 +26212,7 @@
         <v>1</v>
       </c>
       <c r="AO161" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP161" s="10" t="s">
         <v>150</v>
@@ -26341,7 +26341,7 @@
         <v>1</v>
       </c>
       <c r="AO162" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP162" s="10" t="s">
         <v>150</v>
@@ -26470,7 +26470,7 @@
         <v>1</v>
       </c>
       <c r="AO163" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP163" s="10" t="s">
         <v>150</v>
@@ -26599,7 +26599,7 @@
         <v>1</v>
       </c>
       <c r="AO164" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP164" s="10" t="s">
         <v>150</v>
@@ -26728,7 +26728,7 @@
         <v>1</v>
       </c>
       <c r="AO165" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP165" s="10" t="s">
         <v>150</v>
@@ -26857,7 +26857,7 @@
         <v>1</v>
       </c>
       <c r="AO166" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP166" s="10" t="s">
         <v>150</v>
@@ -26986,7 +26986,7 @@
         <v>1</v>
       </c>
       <c r="AO167" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP167" s="10" t="s">
         <v>150</v>
@@ -27115,7 +27115,7 @@
         <v>1</v>
       </c>
       <c r="AO168" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP168" s="10" t="s">
         <v>150</v>
@@ -27244,7 +27244,7 @@
         <v>1</v>
       </c>
       <c r="AO169" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP169" s="10" t="s">
         <v>150</v>
@@ -27373,7 +27373,7 @@
         <v>1</v>
       </c>
       <c r="AO170" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP170" s="10" t="s">
         <v>150</v>
@@ -27502,7 +27502,7 @@
         <v>1</v>
       </c>
       <c r="AO171" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP171" s="10" t="s">
         <v>150</v>
@@ -27631,7 +27631,7 @@
         <v>1</v>
       </c>
       <c r="AO172" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP172" s="10" t="s">
         <v>150</v>
@@ -27760,7 +27760,7 @@
         <v>1</v>
       </c>
       <c r="AO173" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP173" s="10" t="s">
         <v>150</v>
@@ -27889,7 +27889,7 @@
         <v>1</v>
       </c>
       <c r="AO174" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP174" s="10" t="s">
         <v>150</v>
@@ -28018,7 +28018,7 @@
         <v>1</v>
       </c>
       <c r="AO175" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP175" s="10" t="s">
         <v>150</v>
@@ -28147,7 +28147,7 @@
         <v>1</v>
       </c>
       <c r="AO176" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP176" s="10" t="s">
         <v>150</v>
@@ -28276,7 +28276,7 @@
         <v>1</v>
       </c>
       <c r="AO177" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP177" s="10" t="s">
         <v>150</v>
@@ -28405,7 +28405,7 @@
         <v>1</v>
       </c>
       <c r="AO178" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP178" s="10" t="s">
         <v>150</v>
@@ -28534,7 +28534,7 @@
         <v>1</v>
       </c>
       <c r="AO179" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP179" s="10" t="s">
         <v>150</v>
@@ -28663,7 +28663,7 @@
         <v>1</v>
       </c>
       <c r="AO180" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP180" s="10" t="s">
         <v>150</v>
@@ -28792,7 +28792,7 @@
         <v>1</v>
       </c>
       <c r="AO181" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP181" s="10" t="s">
         <v>150</v>
@@ -28921,7 +28921,7 @@
         <v>1</v>
       </c>
       <c r="AO182" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP182" s="10" t="s">
         <v>150</v>
@@ -29050,7 +29050,7 @@
         <v>1</v>
       </c>
       <c r="AO183" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP183" s="10" t="s">
         <v>150</v>
@@ -29179,7 +29179,7 @@
         <v>1</v>
       </c>
       <c r="AO184" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP184" s="10" t="s">
         <v>150</v>
@@ -29308,7 +29308,7 @@
         <v>1</v>
       </c>
       <c r="AO185" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP185" s="10" t="s">
         <v>150</v>
@@ -29437,7 +29437,7 @@
         <v>1</v>
       </c>
       <c r="AO186" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP186" s="10" t="s">
         <v>150</v>
@@ -29566,7 +29566,7 @@
         <v>1</v>
       </c>
       <c r="AO187" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP187" s="10" t="s">
         <v>150</v>
@@ -29695,7 +29695,7 @@
         <v>1</v>
       </c>
       <c r="AO188" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP188" s="10" t="s">
         <v>150</v>
@@ -29824,7 +29824,7 @@
         <v>1</v>
       </c>
       <c r="AO189" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP189" s="10" t="s">
         <v>150</v>
@@ -29953,7 +29953,7 @@
         <v>1</v>
       </c>
       <c r="AO190" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP190" s="10" t="s">
         <v>150</v>
@@ -30082,7 +30082,7 @@
         <v>1</v>
       </c>
       <c r="AO191" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP191" s="10" t="s">
         <v>150</v>
@@ -30211,7 +30211,7 @@
         <v>1</v>
       </c>
       <c r="AO192" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP192" s="10" t="s">
         <v>150</v>
@@ -30340,7 +30340,7 @@
         <v>1</v>
       </c>
       <c r="AO193" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP193" s="10" t="s">
         <v>150</v>
@@ -30469,7 +30469,7 @@
         <v>1</v>
       </c>
       <c r="AO194" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP194" s="10" t="s">
         <v>150</v>
@@ -30598,7 +30598,7 @@
         <v>1</v>
       </c>
       <c r="AO195" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP195" s="10" t="s">
         <v>150</v>
@@ -30727,7 +30727,7 @@
         <v>1</v>
       </c>
       <c r="AO196" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP196" s="10" t="s">
         <v>150</v>
@@ -30856,7 +30856,7 @@
         <v>1</v>
       </c>
       <c r="AO197" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP197" s="10" t="s">
         <v>150</v>
@@ -30985,7 +30985,7 @@
         <v>1</v>
       </c>
       <c r="AO198" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP198" s="10" t="s">
         <v>150</v>
@@ -31114,7 +31114,7 @@
         <v>1</v>
       </c>
       <c r="AO199" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP199" s="10" t="s">
         <v>150</v>
@@ -31243,7 +31243,7 @@
         <v>1</v>
       </c>
       <c r="AO200" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP200" s="10" t="s">
         <v>150</v>
@@ -31372,7 +31372,7 @@
         <v>1</v>
       </c>
       <c r="AO201" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP201" s="10" t="s">
         <v>150</v>
@@ -31501,7 +31501,7 @@
         <v>1</v>
       </c>
       <c r="AO202" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP202" s="10" t="s">
         <v>150</v>
@@ -31630,7 +31630,7 @@
         <v>1</v>
       </c>
       <c r="AO203" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP203" s="10" t="s">
         <v>150</v>
@@ -31759,7 +31759,7 @@
         <v>1</v>
       </c>
       <c r="AO204" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP204" s="10" t="s">
         <v>150</v>
@@ -31888,7 +31888,7 @@
         <v>1</v>
       </c>
       <c r="AO205" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP205" s="10" t="s">
         <v>150</v>
@@ -32017,7 +32017,7 @@
         <v>1</v>
       </c>
       <c r="AO206" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP206" s="10" t="s">
         <v>150</v>
@@ -32146,7 +32146,7 @@
         <v>1</v>
       </c>
       <c r="AO207" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP207" s="10" t="s">
         <v>150</v>
@@ -32275,7 +32275,7 @@
         <v>1</v>
       </c>
       <c r="AO208" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP208" s="10" t="s">
         <v>150</v>
@@ -32404,7 +32404,7 @@
         <v>1</v>
       </c>
       <c r="AO209" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP209" s="10" t="s">
         <v>150</v>
@@ -32533,7 +32533,7 @@
         <v>1</v>
       </c>
       <c r="AO210" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP210" s="10" t="s">
         <v>150</v>
@@ -32662,7 +32662,7 @@
         <v>1</v>
       </c>
       <c r="AO211" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP211" s="10" t="s">
         <v>150</v>
@@ -32791,7 +32791,7 @@
         <v>1</v>
       </c>
       <c r="AO212" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP212" s="10" t="s">
         <v>150</v>
@@ -32920,7 +32920,7 @@
         <v>1</v>
       </c>
       <c r="AO213" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP213" s="10" t="s">
         <v>150</v>
@@ -33049,7 +33049,7 @@
         <v>1</v>
       </c>
       <c r="AO214" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP214" s="10" t="s">
         <v>150</v>
@@ -33178,7 +33178,7 @@
         <v>1</v>
       </c>
       <c r="AO215" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP215" s="10" t="s">
         <v>150</v>
@@ -33307,7 +33307,7 @@
         <v>1</v>
       </c>
       <c r="AO216" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP216" s="10" t="s">
         <v>150</v>
@@ -33436,7 +33436,7 @@
         <v>1</v>
       </c>
       <c r="AO217" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP217" s="10" t="s">
         <v>150</v>
@@ -33565,7 +33565,7 @@
         <v>1</v>
       </c>
       <c r="AO218" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP218" s="10" t="s">
         <v>150</v>
@@ -33694,7 +33694,7 @@
         <v>1</v>
       </c>
       <c r="AO219" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP219" s="10" t="s">
         <v>150</v>
@@ -33823,7 +33823,7 @@
         <v>1</v>
       </c>
       <c r="AO220" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP220" s="10" t="s">
         <v>150</v>
@@ -33952,7 +33952,7 @@
         <v>1</v>
       </c>
       <c r="AO221" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP221" s="10" t="s">
         <v>150</v>
@@ -34081,7 +34081,7 @@
         <v>1</v>
       </c>
       <c r="AO222" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP222" s="10" t="s">
         <v>150</v>
@@ -34210,7 +34210,7 @@
         <v>1</v>
       </c>
       <c r="AO223" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP223" s="10" t="s">
         <v>150</v>
@@ -34339,7 +34339,7 @@
         <v>1</v>
       </c>
       <c r="AO224" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP224" s="10" t="s">
         <v>150</v>
@@ -34468,7 +34468,7 @@
         <v>1</v>
       </c>
       <c r="AO225" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP225" s="10" t="s">
         <v>150</v>
@@ -34597,7 +34597,7 @@
         <v>1</v>
       </c>
       <c r="AO226" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP226" s="10" t="s">
         <v>150</v>
@@ -34726,7 +34726,7 @@
         <v>1</v>
       </c>
       <c r="AO227" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP227" s="10" t="s">
         <v>150</v>
@@ -34855,7 +34855,7 @@
         <v>1</v>
       </c>
       <c r="AO228" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP228" s="10" t="s">
         <v>150</v>
@@ -34984,7 +34984,7 @@
         <v>1</v>
       </c>
       <c r="AO229" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP229" s="10" t="s">
         <v>150</v>
@@ -35113,7 +35113,7 @@
         <v>1</v>
       </c>
       <c r="AO230" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP230" s="10" t="s">
         <v>150</v>
@@ -35242,7 +35242,7 @@
         <v>1</v>
       </c>
       <c r="AO231" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP231" s="10" t="s">
         <v>150</v>
@@ -35371,7 +35371,7 @@
         <v>1</v>
       </c>
       <c r="AO232" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP232" s="10" t="s">
         <v>150</v>
@@ -35500,7 +35500,7 @@
         <v>1</v>
       </c>
       <c r="AO233" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP233" s="10" t="s">
         <v>150</v>
@@ -35629,7 +35629,7 @@
         <v>1</v>
       </c>
       <c r="AO234" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP234" s="10" t="s">
         <v>150</v>
@@ -35758,7 +35758,7 @@
         <v>1</v>
       </c>
       <c r="AO235" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP235" s="10" t="s">
         <v>150</v>
@@ -35887,7 +35887,7 @@
         <v>1</v>
       </c>
       <c r="AO236" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP236" s="10" t="s">
         <v>150</v>
@@ -36016,7 +36016,7 @@
         <v>1</v>
       </c>
       <c r="AO237" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP237" s="10" t="s">
         <v>150</v>
@@ -36145,7 +36145,7 @@
         <v>1</v>
       </c>
       <c r="AO238" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP238" s="10" t="s">
         <v>150</v>
@@ -36274,7 +36274,7 @@
         <v>1</v>
       </c>
       <c r="AO239" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP239" s="10" t="s">
         <v>150</v>
@@ -36403,7 +36403,7 @@
         <v>1</v>
       </c>
       <c r="AO240" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP240" s="10" t="s">
         <v>150</v>
@@ -36532,7 +36532,7 @@
         <v>1</v>
       </c>
       <c r="AO241" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP241" s="10" t="s">
         <v>150</v>
@@ -36661,7 +36661,7 @@
         <v>1</v>
       </c>
       <c r="AO242" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP242" s="10" t="s">
         <v>150</v>
@@ -36790,7 +36790,7 @@
         <v>1</v>
       </c>
       <c r="AO243" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP243" s="10" t="s">
         <v>150</v>
@@ -36919,7 +36919,7 @@
         <v>1</v>
       </c>
       <c r="AO244" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP244" s="10" t="s">
         <v>150</v>
@@ -37048,7 +37048,7 @@
         <v>1</v>
       </c>
       <c r="AO245" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP245" s="10" t="s">
         <v>150</v>
@@ -37177,7 +37177,7 @@
         <v>1</v>
       </c>
       <c r="AO246" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP246" s="10" t="s">
         <v>150</v>
@@ -37306,7 +37306,7 @@
         <v>1</v>
       </c>
       <c r="AO247" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP247" s="10" t="s">
         <v>150</v>
@@ -37435,7 +37435,7 @@
         <v>1</v>
       </c>
       <c r="AO248" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP248" s="10" t="s">
         <v>150</v>
@@ -37564,7 +37564,7 @@
         <v>1</v>
       </c>
       <c r="AO249" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP249" s="10" t="s">
         <v>150</v>
@@ -37693,7 +37693,7 @@
         <v>1</v>
       </c>
       <c r="AO250" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP250" s="10" t="s">
         <v>150</v>
@@ -37822,7 +37822,7 @@
         <v>1</v>
       </c>
       <c r="AO251" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP251" s="10" t="s">
         <v>150</v>
@@ -37951,7 +37951,7 @@
         <v>1</v>
       </c>
       <c r="AO252" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP252" s="10" t="s">
         <v>150</v>
@@ -38080,7 +38080,7 @@
         <v>1</v>
       </c>
       <c r="AO253" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP253" s="10" t="s">
         <v>150</v>
@@ -38209,7 +38209,7 @@
         <v>1</v>
       </c>
       <c r="AO254" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP254" s="10" t="s">
         <v>150</v>
@@ -38338,7 +38338,7 @@
         <v>1</v>
       </c>
       <c r="AO255" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP255" s="10" t="s">
         <v>150</v>
@@ -38467,7 +38467,7 @@
         <v>1</v>
       </c>
       <c r="AO256" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP256" s="10" t="s">
         <v>150</v>
@@ -38596,7 +38596,7 @@
         <v>1</v>
       </c>
       <c r="AO257" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP257" s="10" t="s">
         <v>150</v>
@@ -38725,7 +38725,7 @@
         <v>1</v>
       </c>
       <c r="AO258" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP258" s="10" t="s">
         <v>150</v>
@@ -38854,7 +38854,7 @@
         <v>1</v>
       </c>
       <c r="AO259" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP259" s="10" t="s">
         <v>150</v>
@@ -38983,7 +38983,7 @@
         <v>1</v>
       </c>
       <c r="AO260" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP260" s="10" t="s">
         <v>150</v>
@@ -39112,7 +39112,7 @@
         <v>1</v>
       </c>
       <c r="AO261" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP261" s="10" t="s">
         <v>150</v>
@@ -39241,7 +39241,7 @@
         <v>1</v>
       </c>
       <c r="AO262" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP262" s="10" t="s">
         <v>150</v>
@@ -39370,7 +39370,7 @@
         <v>1</v>
       </c>
       <c r="AO263" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP263" s="10" t="s">
         <v>150</v>
@@ -39499,7 +39499,7 @@
         <v>1</v>
       </c>
       <c r="AO264" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP264" s="10" t="s">
         <v>150</v>
@@ -39628,7 +39628,7 @@
         <v>1</v>
       </c>
       <c r="AO265" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP265" s="10" t="s">
         <v>150</v>
@@ -39757,7 +39757,7 @@
         <v>1</v>
       </c>
       <c r="AO266" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP266" s="10" t="s">
         <v>150</v>
@@ -39886,7 +39886,7 @@
         <v>1</v>
       </c>
       <c r="AO267" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP267" s="10" t="s">
         <v>150</v>
@@ -40015,7 +40015,7 @@
         <v>1</v>
       </c>
       <c r="AO268" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP268" s="10" t="s">
         <v>150</v>
@@ -40144,7 +40144,7 @@
         <v>1</v>
       </c>
       <c r="AO269" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP269" s="10" t="s">
         <v>150</v>
@@ -40273,7 +40273,7 @@
         <v>1</v>
       </c>
       <c r="AO270" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP270" s="10" t="s">
         <v>150</v>
@@ -40402,7 +40402,7 @@
         <v>1</v>
       </c>
       <c r="AO271" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP271" s="10" t="s">
         <v>150</v>
@@ -40531,7 +40531,7 @@
         <v>1</v>
       </c>
       <c r="AO272" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP272" s="10" t="s">
         <v>150</v>
@@ -40660,7 +40660,7 @@
         <v>1</v>
       </c>
       <c r="AO273" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP273" s="10" t="s">
         <v>150</v>
@@ -40789,7 +40789,7 @@
         <v>1</v>
       </c>
       <c r="AO274" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP274" s="10" t="s">
         <v>150</v>
@@ -40918,7 +40918,7 @@
         <v>1</v>
       </c>
       <c r="AO275" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP275" s="10" t="s">
         <v>150</v>
@@ -41047,7 +41047,7 @@
         <v>1</v>
       </c>
       <c r="AO276" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP276" s="10" t="s">
         <v>150</v>
@@ -41176,7 +41176,7 @@
         <v>1</v>
       </c>
       <c r="AO277" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP277" s="10" t="s">
         <v>150</v>
@@ -41305,7 +41305,7 @@
         <v>1</v>
       </c>
       <c r="AO278" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP278" s="10" t="s">
         <v>150</v>
@@ -41434,7 +41434,7 @@
         <v>1</v>
       </c>
       <c r="AO279" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP279" s="10" t="s">
         <v>150</v>
@@ -41563,7 +41563,7 @@
         <v>1</v>
       </c>
       <c r="AO280" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP280" s="10" t="s">
         <v>150</v>
@@ -41692,7 +41692,7 @@
         <v>1</v>
       </c>
       <c r="AO281" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP281" s="10" t="s">
         <v>150</v>
@@ -41821,7 +41821,7 @@
         <v>1</v>
       </c>
       <c r="AO282" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP282" s="10" t="s">
         <v>150</v>
@@ -41950,7 +41950,7 @@
         <v>1</v>
       </c>
       <c r="AO283" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP283" s="10" t="s">
         <v>150</v>
@@ -42079,7 +42079,7 @@
         <v>1</v>
       </c>
       <c r="AO284" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP284" s="10" t="s">
         <v>150</v>
@@ -42208,7 +42208,7 @@
         <v>1</v>
       </c>
       <c r="AO285" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP285" s="10" t="s">
         <v>150</v>
@@ -42337,7 +42337,7 @@
         <v>1</v>
       </c>
       <c r="AO286" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP286" s="10" t="s">
         <v>150</v>
@@ -42466,7 +42466,7 @@
         <v>1</v>
       </c>
       <c r="AO287" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP287" s="10" t="s">
         <v>150</v>
@@ -42595,7 +42595,7 @@
         <v>1</v>
       </c>
       <c r="AO288" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP288" s="10" t="s">
         <v>150</v>
@@ -42724,7 +42724,7 @@
         <v>1</v>
       </c>
       <c r="AO289" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP289" s="10" t="s">
         <v>150</v>
@@ -42853,7 +42853,7 @@
         <v>1</v>
       </c>
       <c r="AO290" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP290" s="10" t="s">
         <v>150</v>
@@ -42982,7 +42982,7 @@
         <v>1</v>
       </c>
       <c r="AO291" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP291" s="10" t="s">
         <v>150</v>
@@ -43111,7 +43111,7 @@
         <v>1</v>
       </c>
       <c r="AO292" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP292" s="10" t="s">
         <v>150</v>
@@ -43240,7 +43240,7 @@
         <v>1</v>
       </c>
       <c r="AO293" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP293" s="10" t="s">
         <v>150</v>
@@ -43369,7 +43369,7 @@
         <v>1</v>
       </c>
       <c r="AO294" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP294" s="10" t="s">
         <v>150</v>
@@ -43498,7 +43498,7 @@
         <v>1</v>
       </c>
       <c r="AO295" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP295" s="10" t="s">
         <v>150</v>
@@ -43627,7 +43627,7 @@
         <v>1</v>
       </c>
       <c r="AO296" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP296" s="10" t="s">
         <v>150</v>
@@ -43756,7 +43756,7 @@
         <v>1</v>
       </c>
       <c r="AO297" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP297" s="10" t="s">
         <v>150</v>
@@ -43885,7 +43885,7 @@
         <v>1</v>
       </c>
       <c r="AO298" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP298" s="10" t="s">
         <v>150</v>
@@ -44014,7 +44014,7 @@
         <v>1</v>
       </c>
       <c r="AO299" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP299" s="10" t="s">
         <v>150</v>
@@ -44143,7 +44143,7 @@
         <v>1</v>
       </c>
       <c r="AO300" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP300" s="10" t="s">
         <v>150</v>
@@ -44272,7 +44272,7 @@
         <v>1</v>
       </c>
       <c r="AO301" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP301" s="10" t="s">
         <v>150</v>
@@ -44401,7 +44401,7 @@
         <v>1</v>
       </c>
       <c r="AO302" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP302" s="10" t="s">
         <v>150</v>
@@ -44530,7 +44530,7 @@
         <v>1</v>
       </c>
       <c r="AO303" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP303" s="10" t="s">
         <v>150</v>
@@ -44659,7 +44659,7 @@
         <v>1</v>
       </c>
       <c r="AO304" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP304" s="10" t="s">
         <v>150</v>
@@ -44788,7 +44788,7 @@
         <v>1</v>
       </c>
       <c r="AO305" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP305" s="10" t="s">
         <v>150</v>
@@ -44917,7 +44917,7 @@
         <v>1</v>
       </c>
       <c r="AO306" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP306" s="10" t="s">
         <v>150</v>
@@ -45046,7 +45046,7 @@
         <v>1</v>
       </c>
       <c r="AO307" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP307" s="10" t="s">
         <v>150</v>
@@ -45175,7 +45175,7 @@
         <v>1</v>
       </c>
       <c r="AO308" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP308" s="10" t="s">
         <v>150</v>
@@ -45304,7 +45304,7 @@
         <v>1</v>
       </c>
       <c r="AO309" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP309" s="10" t="s">
         <v>150</v>
@@ -45433,7 +45433,7 @@
         <v>1</v>
       </c>
       <c r="AO310" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP310" s="10" t="s">
         <v>150</v>
@@ -45562,7 +45562,7 @@
         <v>1</v>
       </c>
       <c r="AO311" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP311" s="10" t="s">
         <v>150</v>
@@ -45691,7 +45691,7 @@
         <v>1</v>
       </c>
       <c r="AO312" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP312" s="10" t="s">
         <v>150</v>
@@ -45820,7 +45820,7 @@
         <v>1</v>
       </c>
       <c r="AO313" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP313" s="10" t="s">
         <v>150</v>
@@ -45949,7 +45949,7 @@
         <v>1</v>
       </c>
       <c r="AO314" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP314" s="10" t="s">
         <v>150</v>
@@ -46078,7 +46078,7 @@
         <v>1</v>
       </c>
       <c r="AO315" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP315" s="10" t="s">
         <v>150</v>
@@ -46207,7 +46207,7 @@
         <v>1</v>
       </c>
       <c r="AO316" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP316" s="10" t="s">
         <v>150</v>
@@ -46336,7 +46336,7 @@
         <v>1</v>
       </c>
       <c r="AO317" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP317" s="10" t="s">
         <v>150</v>
@@ -46465,7 +46465,7 @@
         <v>1</v>
       </c>
       <c r="AO318" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP318" s="10" t="s">
         <v>150</v>
@@ -46594,7 +46594,7 @@
         <v>1</v>
       </c>
       <c r="AO319" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP319" s="10" t="s">
         <v>150</v>
@@ -46723,7 +46723,7 @@
         <v>1</v>
       </c>
       <c r="AO320" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP320" s="10" t="s">
         <v>150</v>
@@ -46852,7 +46852,7 @@
         <v>1</v>
       </c>
       <c r="AO321" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP321" s="10" t="s">
         <v>150</v>
@@ -46981,7 +46981,7 @@
         <v>1</v>
       </c>
       <c r="AO322" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP322" s="10" t="s">
         <v>150</v>
@@ -47110,7 +47110,7 @@
         <v>1</v>
       </c>
       <c r="AO323" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP323" s="10" t="s">
         <v>150</v>
@@ -47239,7 +47239,7 @@
         <v>1</v>
       </c>
       <c r="AO324" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP324" s="10" t="s">
         <v>150</v>
@@ -47368,7 +47368,7 @@
         <v>1</v>
       </c>
       <c r="AO325" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP325" s="10" t="s">
         <v>150</v>
@@ -47497,7 +47497,7 @@
         <v>1</v>
       </c>
       <c r="AO326" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP326" s="10" t="s">
         <v>150</v>
@@ -47626,7 +47626,7 @@
         <v>1</v>
       </c>
       <c r="AO327" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP327" s="10" t="s">
         <v>150</v>
@@ -47755,7 +47755,7 @@
         <v>1</v>
       </c>
       <c r="AO328" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP328" s="10" t="s">
         <v>150</v>
@@ -47884,7 +47884,7 @@
         <v>1</v>
       </c>
       <c r="AO329" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP329" s="10" t="s">
         <v>150</v>
@@ -48013,7 +48013,7 @@
         <v>1</v>
       </c>
       <c r="AO330" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP330" s="10" t="s">
         <v>150</v>
@@ -48142,7 +48142,7 @@
         <v>1</v>
       </c>
       <c r="AO331" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP331" s="10" t="s">
         <v>150</v>
@@ -48271,7 +48271,7 @@
         <v>1</v>
       </c>
       <c r="AO332" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP332" s="10" t="s">
         <v>150</v>
@@ -48400,7 +48400,7 @@
         <v>1</v>
       </c>
       <c r="AO333" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP333" s="10" t="s">
         <v>150</v>
@@ -48529,7 +48529,7 @@
         <v>1</v>
       </c>
       <c r="AO334" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP334" s="10" t="s">
         <v>150</v>
@@ -48658,7 +48658,7 @@
         <v>1</v>
       </c>
       <c r="AO335" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP335" s="10" t="s">
         <v>150</v>
@@ -48787,7 +48787,7 @@
         <v>1</v>
       </c>
       <c r="AO336" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP336" s="10" t="s">
         <v>150</v>
@@ -48916,7 +48916,7 @@
         <v>1</v>
       </c>
       <c r="AO337" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP337" s="10" t="s">
         <v>150</v>
@@ -49045,7 +49045,7 @@
         <v>1</v>
       </c>
       <c r="AO338" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP338" s="10" t="s">
         <v>150</v>
@@ -49174,7 +49174,7 @@
         <v>1</v>
       </c>
       <c r="AO339" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP339" s="10" t="s">
         <v>150</v>
@@ -49303,7 +49303,7 @@
         <v>1</v>
       </c>
       <c r="AO340" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP340" s="10" t="s">
         <v>150</v>
@@ -49432,7 +49432,7 @@
         <v>1</v>
       </c>
       <c r="AO341" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP341" s="10" t="s">
         <v>150</v>
@@ -49561,7 +49561,7 @@
         <v>1</v>
       </c>
       <c r="AO342" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP342" s="10" t="s">
         <v>150</v>
@@ -49690,7 +49690,7 @@
         <v>1</v>
       </c>
       <c r="AO343" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP343" s="10" t="s">
         <v>150</v>
@@ -49819,7 +49819,7 @@
         <v>1</v>
       </c>
       <c r="AO344" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP344" s="10" t="s">
         <v>150</v>
@@ -49948,7 +49948,7 @@
         <v>1</v>
       </c>
       <c r="AO345" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP345" s="10" t="s">
         <v>150</v>
@@ -50077,7 +50077,7 @@
         <v>1</v>
       </c>
       <c r="AO346" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP346" s="10" t="s">
         <v>150</v>
@@ -50206,7 +50206,7 @@
         <v>1</v>
       </c>
       <c r="AO347" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP347" s="10" t="s">
         <v>150</v>
@@ -50335,7 +50335,7 @@
         <v>1</v>
       </c>
       <c r="AO348" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP348" s="10" t="s">
         <v>150</v>
@@ -50464,7 +50464,7 @@
         <v>1</v>
       </c>
       <c r="AO349" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP349" s="10" t="s">
         <v>150</v>
@@ -50593,7 +50593,7 @@
         <v>1</v>
       </c>
       <c r="AO350" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP350" s="10" t="s">
         <v>150</v>
@@ -50722,7 +50722,7 @@
         <v>1</v>
       </c>
       <c r="AO351" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP351" s="10" t="s">
         <v>150</v>
@@ -50851,7 +50851,7 @@
         <v>1</v>
       </c>
       <c r="AO352" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP352" s="10" t="s">
         <v>150</v>
@@ -50980,7 +50980,7 @@
         <v>1</v>
       </c>
       <c r="AO353" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP353" s="10" t="s">
         <v>150</v>
@@ -51109,7 +51109,7 @@
         <v>1</v>
       </c>
       <c r="AO354" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP354" s="10" t="s">
         <v>150</v>
@@ -51238,7 +51238,7 @@
         <v>1</v>
       </c>
       <c r="AO355" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP355" s="10" t="s">
         <v>150</v>
@@ -51367,7 +51367,7 @@
         <v>1</v>
       </c>
       <c r="AO356" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP356" s="10" t="s">
         <v>150</v>
@@ -51496,7 +51496,7 @@
         <v>1</v>
       </c>
       <c r="AO357" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP357" s="10" t="s">
         <v>150</v>
@@ -51625,7 +51625,7 @@
         <v>1</v>
       </c>
       <c r="AO358" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP358" s="10" t="s">
         <v>150</v>
@@ -51754,7 +51754,7 @@
         <v>1</v>
       </c>
       <c r="AO359" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP359" s="10" t="s">
         <v>150</v>
@@ -51883,7 +51883,7 @@
         <v>1</v>
       </c>
       <c r="AO360" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP360" s="10" t="s">
         <v>150</v>
@@ -52012,7 +52012,7 @@
         <v>1</v>
       </c>
       <c r="AO361" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP361" s="10" t="s">
         <v>150</v>
@@ -52141,7 +52141,7 @@
         <v>1</v>
       </c>
       <c r="AO362" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP362" s="10" t="s">
         <v>150</v>
@@ -52270,7 +52270,7 @@
         <v>1</v>
       </c>
       <c r="AO363" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP363" s="10" t="s">
         <v>150</v>
@@ -52399,7 +52399,7 @@
         <v>1</v>
       </c>
       <c r="AO364" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP364" s="10" t="s">
         <v>150</v>
@@ -52528,7 +52528,7 @@
         <v>1</v>
       </c>
       <c r="AO365" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP365" s="10" t="s">
         <v>150</v>
@@ -52657,7 +52657,7 @@
         <v>1</v>
       </c>
       <c r="AO366" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP366" s="10" t="s">
         <v>150</v>
@@ -52786,7 +52786,7 @@
         <v>1</v>
       </c>
       <c r="AO367" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP367" s="10" t="s">
         <v>150</v>
@@ -52915,7 +52915,7 @@
         <v>1</v>
       </c>
       <c r="AO368" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP368" s="10" t="s">
         <v>150</v>
@@ -53044,7 +53044,7 @@
         <v>1</v>
       </c>
       <c r="AO369" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP369" s="10" t="s">
         <v>150</v>
@@ -53173,7 +53173,7 @@
         <v>1</v>
       </c>
       <c r="AO370" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP370" s="10" t="s">
         <v>150</v>
@@ -53302,7 +53302,7 @@
         <v>1</v>
       </c>
       <c r="AO371" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP371" s="10" t="s">
         <v>150</v>
@@ -53431,7 +53431,7 @@
         <v>1</v>
       </c>
       <c r="AO372" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP372" s="10" t="s">
         <v>150</v>
@@ -53560,7 +53560,7 @@
         <v>1</v>
       </c>
       <c r="AO373" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP373" s="10" t="s">
         <v>150</v>
@@ -53689,7 +53689,7 @@
         <v>1</v>
       </c>
       <c r="AO374" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP374" s="10" t="s">
         <v>150</v>
@@ -53818,7 +53818,7 @@
         <v>1</v>
       </c>
       <c r="AO375" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP375" s="10" t="s">
         <v>150</v>
@@ -53947,7 +53947,7 @@
         <v>1</v>
       </c>
       <c r="AO376" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP376" s="10" t="s">
         <v>150</v>
@@ -54076,7 +54076,7 @@
         <v>1</v>
       </c>
       <c r="AO377" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP377" s="10" t="s">
         <v>150</v>
@@ -54205,7 +54205,7 @@
         <v>1</v>
       </c>
       <c r="AO378" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP378" s="10" t="s">
         <v>150</v>
@@ -54334,7 +54334,7 @@
         <v>1</v>
       </c>
       <c r="AO379" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP379" s="10" t="s">
         <v>150</v>
@@ -54463,7 +54463,7 @@
         <v>1</v>
       </c>
       <c r="AO380" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP380" s="10" t="s">
         <v>150</v>
@@ -54592,7 +54592,7 @@
         <v>1</v>
       </c>
       <c r="AO381" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP381" s="10" t="s">
         <v>150</v>
@@ -54721,7 +54721,7 @@
         <v>1</v>
       </c>
       <c r="AO382" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP382" s="10" t="s">
         <v>150</v>
@@ -54850,7 +54850,7 @@
         <v>1</v>
       </c>
       <c r="AO383" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP383" s="10" t="s">
         <v>150</v>
@@ -54979,7 +54979,7 @@
         <v>1</v>
       </c>
       <c r="AO384" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP384" s="10" t="s">
         <v>150</v>
@@ -55108,7 +55108,7 @@
         <v>1</v>
       </c>
       <c r="AO385" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP385" s="10" t="s">
         <v>150</v>
@@ -55237,7 +55237,7 @@
         <v>1</v>
       </c>
       <c r="AO386" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP386" s="10" t="s">
         <v>150</v>
@@ -55366,7 +55366,7 @@
         <v>1</v>
       </c>
       <c r="AO387" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP387" s="10" t="s">
         <v>150</v>
@@ -55495,7 +55495,7 @@
         <v>1</v>
       </c>
       <c r="AO388" s="6">
-        <v>67000062</v>
+        <v>70000001</v>
       </c>
       <c r="AP388" s="10" t="s">
         <v>150</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB90048-4645-4979-99A2-6F262840C67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC0534C-7D26-488C-A967-8882D66AAAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5770,10 +5770,10 @@
   <dimension ref="A1:AV395"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AK6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AC62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO13" sqref="AO13"/>
+      <selection pane="bottomRight" activeCell="AE71" sqref="AE71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -6692,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="AE9" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AF9" s="6">
         <v>7</v>
@@ -7332,7 +7332,7 @@
         <v>3</v>
       </c>
       <c r="AE14" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AF14" s="6">
         <v>7</v>
@@ -7844,7 +7844,7 @@
         <v>1</v>
       </c>
       <c r="AE18" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AF18" s="6">
         <v>7</v>
@@ -8612,7 +8612,7 @@
         <v>1</v>
       </c>
       <c r="AE24" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AF24" s="6">
         <v>7</v>
@@ -8996,7 +8996,7 @@
         <v>1</v>
       </c>
       <c r="AE27" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AF27" s="6">
         <v>7</v>
@@ -9380,7 +9380,7 @@
         <v>3</v>
       </c>
       <c r="AE30" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AF30" s="6">
         <v>7</v>
@@ -9764,7 +9764,7 @@
         <v>3</v>
       </c>
       <c r="AE33" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AF33" s="6">
         <v>7</v>
@@ -9892,7 +9892,7 @@
         <v>3</v>
       </c>
       <c r="AE34" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AF34" s="6">
         <v>7</v>
@@ -10532,7 +10532,7 @@
         <v>3</v>
       </c>
       <c r="AE39" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AF39" s="6">
         <v>7</v>
@@ -11300,7 +11300,7 @@
         <v>3</v>
       </c>
       <c r="AE45" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AF45" s="6">
         <v>7</v>
@@ -12068,7 +12068,7 @@
         <v>3</v>
       </c>
       <c r="AE51" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AF51" s="6">
         <v>7</v>
@@ -12964,7 +12964,7 @@
         <v>3</v>
       </c>
       <c r="AE58" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AF58" s="6">
         <v>7</v>
@@ -13348,7 +13348,7 @@
         <v>3</v>
       </c>
       <c r="AE61" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AF61" s="6">
         <v>7</v>
@@ -13860,7 +13860,7 @@
         <v>3</v>
       </c>
       <c r="AE65" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AF65" s="6">
         <v>7</v>
@@ -14628,7 +14628,7 @@
         <v>3</v>
       </c>
       <c r="AE71" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AF71" s="6">
         <v>7</v>
@@ -14756,7 +14756,7 @@
         <v>3</v>
       </c>
       <c r="AE72" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AF72" s="6">
         <v>7</v>
@@ -15524,7 +15524,7 @@
         <v>3</v>
       </c>
       <c r="AE78" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AF78" s="6">
         <v>7</v>
@@ -15780,7 +15780,7 @@
         <v>3</v>
       </c>
       <c r="AE80" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AF80" s="6">
         <v>7</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC0534C-7D26-488C-A967-8882D66AAAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDF769A-FE2D-4A60-A3B5-0D11F88CEC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -1237,9 +1237,6 @@
     <t>62000301,62000302,62000303,62000304</t>
   </si>
   <si>
-    <t>60020002</t>
-  </si>
-  <si>
     <t>62000401,62000402,62000403,62000404</t>
   </si>
   <si>
@@ -1282,9 +1279,6 @@
     <t>62003301,62003302,62003303,62003304,62003305,62003306</t>
   </si>
   <si>
-    <t>60020002,62004001,62004002,62004003,62004004,62004005</t>
-  </si>
-  <si>
     <t>62004101,62004102,62004103,62004104</t>
   </si>
   <si>
@@ -1295,9 +1289,6 @@
   </si>
   <si>
     <t>62002306,62002307</t>
-  </si>
-  <si>
-    <t>60020002,62003104</t>
   </si>
   <si>
     <t>62004301</t>
@@ -1886,6 +1877,18 @@
   </si>
   <si>
     <t>601000201,600020101,601100204,601300101,601100001,601100210</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>62004001,62004002,62004003,62004004,62004005</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>62003104</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -5770,10 +5773,10 @@
   <dimension ref="A1:AV395"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AC62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AM50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE71" sqref="AE71"/>
+      <selection pane="bottomRight" activeCell="AP64" sqref="AP64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -5924,7 +5927,7 @@
         <v>59</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AL3" s="2" t="s">
         <v>60</v>
@@ -5951,7 +5954,7 @@
         <v>82</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="3:46" ht="20.100000000000001" customHeight="1">
@@ -6058,7 +6061,7 @@
         <v>25</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AL4" s="3" t="s">
         <v>26</v>
@@ -6085,7 +6088,7 @@
         <v>83</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="3:46" ht="20.100000000000001" customHeight="1">
@@ -6329,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AM6" s="6">
         <v>0.1</v>
@@ -6457,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="AL7" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AM7" s="6">
         <v>0.1</v>
@@ -6585,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AM8" s="6">
         <v>0.1</v>
@@ -6713,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="AL9" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AM9" s="6">
         <v>0.5</v>
@@ -6725,7 +6728,7 @@
         <v>70000001</v>
       </c>
       <c r="AP9" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AQ9" s="6"/>
       <c r="AR9" s="6">
@@ -6841,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AM10" s="6">
         <v>0.1</v>
@@ -6969,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AM11" s="6">
         <v>0.1</v>
@@ -6995,7 +6998,7 @@
         <v>70001007</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
@@ -7097,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AM12" s="14">
         <v>0.1</v>
@@ -7225,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AM13" s="6">
         <v>0.1</v>
@@ -7251,7 +7254,7 @@
         <v>70001011</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E14" s="6">
         <v>3</v>
@@ -7353,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AM14" s="6">
         <v>0.1</v>
@@ -7481,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="AL15" s="10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AM15" s="6">
         <v>0.1</v>
@@ -7507,7 +7510,7 @@
         <v>70001102</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
@@ -7609,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AM16" s="14">
         <v>0.1</v>
@@ -7635,7 +7638,7 @@
         <v>70001103</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
@@ -7737,7 +7740,7 @@
         <v>0</v>
       </c>
       <c r="AL17" s="15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AM17" s="14">
         <v>0.1</v>
@@ -7865,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AM18" s="6">
         <v>0.5</v>
@@ -7891,7 +7894,7 @@
         <v>70001201</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
@@ -7993,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="AL19" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AM19" s="6">
         <v>0.1</v>
@@ -8019,7 +8022,7 @@
         <v>70001202</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
@@ -8121,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AM20" s="6">
         <v>0.1</v>
@@ -8147,7 +8150,7 @@
         <v>70001203</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
@@ -8249,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="AL21" s="15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AM21" s="14">
         <v>0.1</v>
@@ -8275,7 +8278,7 @@
         <v>70001204</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E22" s="14">
         <v>1</v>
@@ -8377,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AM22" s="14">
         <v>0.1</v>
@@ -8403,7 +8406,7 @@
         <v>70001205</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
@@ -8505,7 +8508,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AM23" s="6">
         <v>0.1</v>
@@ -8514,10 +8517,10 @@
         <v>1</v>
       </c>
       <c r="AO23" s="6">
-        <v>70000001</v>
+        <v>70000002</v>
       </c>
       <c r="AP23" s="10" t="s">
-        <v>154</v>
+        <v>345</v>
       </c>
       <c r="AQ23" s="6"/>
       <c r="AR23" s="6">
@@ -8531,7 +8534,7 @@
         <v>70001206</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E24" s="6">
         <v>3</v>
@@ -8633,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AM24" s="6">
         <v>0.1</v>
@@ -8645,7 +8648,7 @@
         <v>70000001</v>
       </c>
       <c r="AP24" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AQ24" s="6"/>
       <c r="AR24" s="6">
@@ -8659,7 +8662,7 @@
         <v>70001207</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
@@ -8761,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AM25" s="6">
         <v>0.1</v>
@@ -8787,7 +8790,7 @@
         <v>70001208</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E26" s="14">
         <v>1</v>
@@ -8889,7 +8892,7 @@
         <v>0</v>
       </c>
       <c r="AL26" s="15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AM26" s="14">
         <v>0.1</v>
@@ -8915,7 +8918,7 @@
         <v>70001209</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E27" s="6">
         <v>3</v>
@@ -9017,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AM27" s="6">
         <v>0.5</v>
@@ -9029,7 +9032,7 @@
         <v>70000001</v>
       </c>
       <c r="AP27" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AQ27" s="6"/>
       <c r="AR27" s="6">
@@ -9145,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AM28" s="6">
         <v>0.1</v>
@@ -9273,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AM29" s="6">
         <v>0.1</v>
@@ -9401,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="AL30" s="10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AM30" s="6">
         <v>0.5</v>
@@ -9413,7 +9416,7 @@
         <v>70000001</v>
       </c>
       <c r="AP30" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ30" s="6"/>
       <c r="AR30" s="6">
@@ -9427,7 +9430,7 @@
         <v>70002004</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
@@ -9529,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="AL31" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AM31" s="6">
         <v>0.1</v>
@@ -9555,7 +9558,7 @@
         <v>70002005</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E32" s="6">
         <v>1</v>
@@ -9657,7 +9660,7 @@
         <v>0</v>
       </c>
       <c r="AL32" s="10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AM32" s="6">
         <v>0.1</v>
@@ -9683,7 +9686,7 @@
         <v>70002006</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E33" s="6">
         <v>3</v>
@@ -9785,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AM33" s="6">
         <v>0</v>
@@ -9797,7 +9800,7 @@
         <v>70000001</v>
       </c>
       <c r="AP33" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ33" s="6"/>
       <c r="AR33" s="6">
@@ -9811,7 +9814,7 @@
         <v>70002007</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E34" s="6">
         <v>3</v>
@@ -9913,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="AL34" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AM34" s="6">
         <v>0.5</v>
@@ -9925,7 +9928,7 @@
         <v>70000001</v>
       </c>
       <c r="AP34" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ34" s="6"/>
       <c r="AR34" s="6">
@@ -10041,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="AL35" s="10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AM35" s="6">
         <v>0.1</v>
@@ -10067,7 +10070,7 @@
         <v>70002009</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E36" s="6">
         <v>1</v>
@@ -10169,7 +10172,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AM36" s="6">
         <v>0.1</v>
@@ -10195,7 +10198,7 @@
         <v>70002010</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
@@ -10297,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AM37" s="6">
         <v>0.1</v>
@@ -10323,7 +10326,7 @@
         <v>70002011</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E38" s="6">
         <v>1</v>
@@ -10425,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="AL38" s="10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AM38" s="6">
         <v>0.1</v>
@@ -10451,7 +10454,7 @@
         <v>70002012</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E39" s="6">
         <v>3</v>
@@ -10553,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="AL39" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AM39" s="6">
         <v>0.5</v>
@@ -10565,7 +10568,7 @@
         <v>70000001</v>
       </c>
       <c r="AP39" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ39" s="6"/>
       <c r="AR39" s="6">
@@ -10681,7 +10684,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AM40" s="6">
         <v>0.1</v>
@@ -10809,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="AL41" s="10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AM41" s="6">
         <v>0.1</v>
@@ -10937,7 +10940,7 @@
         <v>0</v>
       </c>
       <c r="AL42" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AM42" s="6">
         <v>0.1</v>
@@ -10949,7 +10952,7 @@
         <v>70000001</v>
       </c>
       <c r="AP42" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ42" s="6"/>
       <c r="AR42" s="6">
@@ -11065,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="AL43" s="10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AM43" s="6">
         <v>0.1</v>
@@ -11193,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="AL44" s="10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AM44" s="6">
         <v>0.1</v>
@@ -11321,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="AL45" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AM45" s="6">
         <v>0.1</v>
@@ -11333,7 +11336,7 @@
         <v>70000001</v>
       </c>
       <c r="AP45" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AQ45" s="6"/>
       <c r="AR45" s="6">
@@ -11449,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AM46" s="6">
         <v>0.1</v>
@@ -11577,7 +11580,7 @@
         <v>0</v>
       </c>
       <c r="AL47" s="10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AM47" s="6">
         <v>0.1</v>
@@ -11705,7 +11708,7 @@
         <v>0</v>
       </c>
       <c r="AL48" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AM48" s="6">
         <v>0.1</v>
@@ -11833,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="AL49" s="10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AM49" s="6">
         <v>0.1</v>
@@ -11961,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="AL50" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AM50" s="6">
         <v>0.1</v>
@@ -12089,7 +12092,7 @@
         <v>0</v>
       </c>
       <c r="AL51" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AM51" s="6">
         <v>0.1</v>
@@ -12101,7 +12104,7 @@
         <v>70000001</v>
       </c>
       <c r="AP51" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AQ51" s="6"/>
       <c r="AR51" s="6">
@@ -12205,7 +12208,7 @@
         <v>1000</v>
       </c>
       <c r="AH52" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AI52" s="6">
         <v>0</v>
@@ -12217,7 +12220,7 @@
         <v>0</v>
       </c>
       <c r="AL52" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AM52" s="6">
         <v>0.1</v>
@@ -12345,7 +12348,7 @@
         <v>0</v>
       </c>
       <c r="AL53" s="10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AM53" s="6">
         <v>0.1</v>
@@ -12473,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="AL54" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AM54" s="6">
         <v>0.1</v>
@@ -12601,7 +12604,7 @@
         <v>0</v>
       </c>
       <c r="AL55" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AM55" s="6">
         <v>0.1</v>
@@ -12613,7 +12616,7 @@
         <v>70000001</v>
       </c>
       <c r="AP55" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ55" s="6"/>
       <c r="AR55" s="6">
@@ -12729,7 +12732,7 @@
         <v>0</v>
       </c>
       <c r="AL56" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AM56" s="6">
         <v>0.1</v>
@@ -12857,7 +12860,7 @@
         <v>0</v>
       </c>
       <c r="AL57" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AM57" s="6">
         <v>0.1</v>
@@ -12985,7 +12988,7 @@
         <v>0</v>
       </c>
       <c r="AL58" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AM58" s="6">
         <v>0.1</v>
@@ -12997,7 +13000,7 @@
         <v>70000001</v>
       </c>
       <c r="AP58" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AQ58" s="6"/>
       <c r="AR58" s="6">
@@ -13113,7 +13116,7 @@
         <v>0</v>
       </c>
       <c r="AL59" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AM59" s="6">
         <v>0.1</v>
@@ -13241,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="AL60" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AM60" s="6">
         <v>0.1</v>
@@ -13369,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="AL61" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AM61" s="6">
         <v>0.1</v>
@@ -13381,7 +13384,7 @@
         <v>70000001</v>
       </c>
       <c r="AP61" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AQ61" s="6"/>
       <c r="AR61" s="6">
@@ -13395,7 +13398,7 @@
         <v>70004007</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E62" s="6">
         <v>1</v>
@@ -13497,7 +13500,7 @@
         <v>0</v>
       </c>
       <c r="AL62" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AM62" s="6">
         <v>0.1</v>
@@ -13523,7 +13526,7 @@
         <v>70004008</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
@@ -13625,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AM63" s="6">
         <v>0.1</v>
@@ -13753,7 +13756,7 @@
         <v>0</v>
       </c>
       <c r="AL64" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AM64" s="6">
         <v>0.1</v>
@@ -13881,7 +13884,7 @@
         <v>0</v>
       </c>
       <c r="AL65" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AM65" s="6">
         <v>0.1</v>
@@ -13893,7 +13896,7 @@
         <v>70000001</v>
       </c>
       <c r="AP65" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AQ65" s="6"/>
       <c r="AR65" s="6">
@@ -14009,7 +14012,7 @@
         <v>0</v>
       </c>
       <c r="AL66" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AM66" s="6">
         <v>0.1</v>
@@ -14137,7 +14140,7 @@
         <v>0</v>
       </c>
       <c r="AL67" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AM67" s="6">
         <v>0.1</v>
@@ -14265,7 +14268,7 @@
         <v>0</v>
       </c>
       <c r="AL68" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AM68" s="6">
         <v>0.1</v>
@@ -14277,7 +14280,7 @@
         <v>70000001</v>
       </c>
       <c r="AP68" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AQ68" s="6"/>
       <c r="AR68" s="6">
@@ -14393,7 +14396,7 @@
         <v>0</v>
       </c>
       <c r="AL69" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AM69" s="6">
         <v>0.1</v>
@@ -14521,7 +14524,7 @@
         <v>0</v>
       </c>
       <c r="AL70" s="10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AM70" s="6">
         <v>0.1</v>
@@ -14533,7 +14536,7 @@
         <v>70000002</v>
       </c>
       <c r="AP70" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AQ70" s="6"/>
       <c r="AR70" s="6">
@@ -14649,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="AL71" s="10" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AM71" s="6">
         <v>0.1</v>
@@ -14658,10 +14661,10 @@
         <v>1</v>
       </c>
       <c r="AO71" s="6">
-        <v>70000001</v>
+        <v>70000002</v>
       </c>
       <c r="AP71" s="10" t="s">
-        <v>169</v>
+        <v>343</v>
       </c>
       <c r="AQ71" s="6"/>
       <c r="AR71" s="6">
@@ -14675,7 +14678,7 @@
         <v>70005004</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E72" s="6">
         <v>3</v>
@@ -14777,7 +14780,7 @@
         <v>0</v>
       </c>
       <c r="AL72" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AM72" s="6">
         <v>0.1</v>
@@ -14789,7 +14792,7 @@
         <v>70000001</v>
       </c>
       <c r="AP72" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AQ72" s="6"/>
       <c r="AR72" s="6">
@@ -14803,7 +14806,7 @@
         <v>70005006</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E73" s="6">
         <v>1</v>
@@ -14905,7 +14908,7 @@
         <v>0</v>
       </c>
       <c r="AL73" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AM73" s="6">
         <v>0.1</v>
@@ -14931,7 +14934,7 @@
         <v>70005007</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E74" s="25">
         <v>1</v>
@@ -15033,7 +15036,7 @@
         <v>0</v>
       </c>
       <c r="AL74" s="26" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AM74" s="25">
         <v>0.1</v>
@@ -15059,7 +15062,7 @@
         <v>70005008</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E75" s="25">
         <v>1</v>
@@ -15161,7 +15164,7 @@
         <v>0</v>
       </c>
       <c r="AL75" s="26" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AM75" s="25">
         <v>0.1</v>
@@ -15187,7 +15190,7 @@
         <v>70005009</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E76" s="25">
         <v>1</v>
@@ -15289,7 +15292,7 @@
         <v>0</v>
       </c>
       <c r="AL76" s="26" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AM76" s="25">
         <v>0.1</v>
@@ -15315,7 +15318,7 @@
         <v>70005010</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
@@ -15417,7 +15420,7 @@
         <v>0</v>
       </c>
       <c r="AL77" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AM77" s="6">
         <v>0.1</v>
@@ -15429,7 +15432,7 @@
         <v>70000002</v>
       </c>
       <c r="AP77" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AQ77" s="6"/>
       <c r="AR77" s="6">
@@ -15545,7 +15548,7 @@
         <v>0</v>
       </c>
       <c r="AL78" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AM78" s="6">
         <v>0.1</v>
@@ -15673,7 +15676,7 @@
         <v>0</v>
       </c>
       <c r="AL79" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AM79" s="6">
         <v>0.1</v>
@@ -15685,7 +15688,7 @@
         <v>70000001</v>
       </c>
       <c r="AP79" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AQ79" s="6"/>
       <c r="AR79" s="6">
@@ -15801,7 +15804,7 @@
         <v>0</v>
       </c>
       <c r="AL80" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AM80" s="6">
         <v>0.1</v>
@@ -15813,7 +15816,7 @@
         <v>70000001</v>
       </c>
       <c r="AP80" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AQ80" s="6"/>
       <c r="AR80" s="6">
@@ -16083,7 +16086,7 @@
         <v>70009003</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E83" s="6">
         <v>1</v>
@@ -16709,7 +16712,7 @@
         <v>70000001</v>
       </c>
       <c r="AP87" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AQ87" s="6"/>
       <c r="AR87" s="6">
@@ -17218,10 +17221,10 @@
         <v>1</v>
       </c>
       <c r="AO91" s="6">
-        <v>70000001</v>
+        <v>70000002</v>
       </c>
       <c r="AP91" s="10" t="s">
-        <v>174</v>
+        <v>344</v>
       </c>
       <c r="AQ91" s="6"/>
       <c r="AR91" s="6">
@@ -17491,7 +17494,7 @@
         <v>70009502</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E94" s="6">
         <v>1</v>
@@ -17733,7 +17736,7 @@
         <v>70000001</v>
       </c>
       <c r="AP95" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AQ95" s="6"/>
       <c r="AR95" s="6">
@@ -17861,7 +17864,7 @@
         <v>70000001</v>
       </c>
       <c r="AP96" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AQ96" s="6"/>
       <c r="AR96" s="6">
@@ -18003,7 +18006,7 @@
         <v>72001001</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E98" s="6">
         <v>1</v>
@@ -18105,7 +18108,7 @@
         <v>0</v>
       </c>
       <c r="AL98" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AM98" s="6">
         <v>0</v>
@@ -18131,7 +18134,7 @@
         <v>72001002</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E99" s="6">
         <v>1</v>
@@ -18233,7 +18236,7 @@
         <v>0</v>
       </c>
       <c r="AL99" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AM99" s="6">
         <v>0</v>
@@ -18259,7 +18262,7 @@
         <v>72001003</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E100" s="6">
         <v>1</v>
@@ -18361,7 +18364,7 @@
         <v>0</v>
       </c>
       <c r="AL100" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AM100" s="6">
         <v>0</v>
@@ -18387,7 +18390,7 @@
         <v>72001004</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E101" s="6">
         <v>1</v>
@@ -18489,7 +18492,7 @@
         <v>0</v>
       </c>
       <c r="AL101" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AM101" s="6">
         <v>0</v>
@@ -18515,7 +18518,7 @@
         <v>72001011</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E102" s="6">
         <v>3</v>
@@ -18617,7 +18620,7 @@
         <v>0</v>
       </c>
       <c r="AL102" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AM102" s="6">
         <v>0.1</v>
@@ -18629,7 +18632,7 @@
         <v>70000001</v>
       </c>
       <c r="AP102" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AQ102" s="6"/>
       <c r="AR102" s="6">
@@ -18643,7 +18646,7 @@
         <v>72001012</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E103" s="6">
         <v>3</v>
@@ -18745,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="AL103" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AM103" s="6">
         <v>0.1</v>
@@ -18771,7 +18774,7 @@
         <v>72001013</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E104" s="6">
         <v>3</v>
@@ -18873,7 +18876,7 @@
         <v>0</v>
       </c>
       <c r="AL104" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AM104" s="6">
         <v>0.1</v>
@@ -18885,7 +18888,7 @@
         <v>70000001</v>
       </c>
       <c r="AP104" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AQ104" s="6"/>
       <c r="AR104" s="6">
@@ -18899,7 +18902,7 @@
         <v>72002001</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E105" s="6">
         <v>1</v>
@@ -19001,7 +19004,7 @@
         <v>0</v>
       </c>
       <c r="AL105" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AM105" s="6">
         <v>0</v>
@@ -19027,7 +19030,7 @@
         <v>72002002</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E106" s="6">
         <v>1</v>
@@ -19129,7 +19132,7 @@
         <v>0</v>
       </c>
       <c r="AL106" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AM106" s="6">
         <v>0</v>
@@ -19155,7 +19158,7 @@
         <v>72002003</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E107" s="6">
         <v>1</v>
@@ -19257,7 +19260,7 @@
         <v>0</v>
       </c>
       <c r="AL107" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AM107" s="6">
         <v>0</v>
@@ -19283,7 +19286,7 @@
         <v>72002004</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E108" s="6">
         <v>1</v>
@@ -19385,7 +19388,7 @@
         <v>0</v>
       </c>
       <c r="AL108" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AM108" s="6">
         <v>0</v>
@@ -19411,7 +19414,7 @@
         <v>72002005</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E109" s="6">
         <v>1</v>
@@ -19513,7 +19516,7 @@
         <v>0</v>
       </c>
       <c r="AL109" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AM109" s="6">
         <v>0</v>
@@ -19539,7 +19542,7 @@
         <v>72002011</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E110" s="6">
         <v>3</v>
@@ -19641,7 +19644,7 @@
         <v>0</v>
       </c>
       <c r="AL110" s="10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AM110" s="6">
         <v>0.1</v>
@@ -19653,7 +19656,7 @@
         <v>70000001</v>
       </c>
       <c r="AP110" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AQ110" s="6"/>
       <c r="AR110" s="6">
@@ -19667,7 +19670,7 @@
         <v>72002012</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E111" s="6">
         <v>3</v>
@@ -19769,7 +19772,7 @@
         <v>0</v>
       </c>
       <c r="AL111" s="10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AM111" s="6">
         <v>0.1</v>
@@ -19781,7 +19784,7 @@
         <v>70000001</v>
       </c>
       <c r="AP111" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ111" s="6"/>
       <c r="AR111" s="6">
@@ -19795,7 +19798,7 @@
         <v>72002013</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E112" s="6">
         <v>3</v>
@@ -19897,7 +19900,7 @@
         <v>0</v>
       </c>
       <c r="AL112" s="10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AM112" s="6">
         <v>0.1</v>
@@ -19909,7 +19912,7 @@
         <v>70000001</v>
       </c>
       <c r="AP112" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AQ112" s="6"/>
       <c r="AR112" s="6">
@@ -19923,7 +19926,7 @@
         <v>72003001</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E113" s="6">
         <v>1</v>
@@ -20025,7 +20028,7 @@
         <v>0</v>
       </c>
       <c r="AL113" s="10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AM113" s="6">
         <v>0</v>
@@ -20051,7 +20054,7 @@
         <v>72003002</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E114" s="6">
         <v>1</v>
@@ -20153,7 +20156,7 @@
         <v>0</v>
       </c>
       <c r="AL114" s="10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AM114" s="6">
         <v>0</v>
@@ -20179,7 +20182,7 @@
         <v>72003003</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E115" s="6">
         <v>1</v>
@@ -20281,7 +20284,7 @@
         <v>0</v>
       </c>
       <c r="AL115" s="10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AM115" s="6">
         <v>0</v>
@@ -20307,7 +20310,7 @@
         <v>72003004</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E116" s="6">
         <v>1</v>
@@ -20409,7 +20412,7 @@
         <v>0</v>
       </c>
       <c r="AL116" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AM116" s="6">
         <v>0</v>
@@ -20435,7 +20438,7 @@
         <v>72003005</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E117" s="6">
         <v>1</v>
@@ -20537,7 +20540,7 @@
         <v>0</v>
       </c>
       <c r="AL117" s="10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AM117" s="6">
         <v>0</v>
@@ -20563,7 +20566,7 @@
         <v>72003011</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E118" s="6">
         <v>3</v>
@@ -20665,7 +20668,7 @@
         <v>0</v>
       </c>
       <c r="AL118" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AM118" s="6">
         <v>0.1</v>
@@ -20677,7 +20680,7 @@
         <v>70000001</v>
       </c>
       <c r="AP118" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AQ118" s="6"/>
       <c r="AR118" s="6">
@@ -20691,7 +20694,7 @@
         <v>72003012</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E119" s="6">
         <v>3</v>
@@ -20793,7 +20796,7 @@
         <v>0</v>
       </c>
       <c r="AL119" s="10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AM119" s="6">
         <v>0.1</v>
@@ -20805,7 +20808,7 @@
         <v>70000001</v>
       </c>
       <c r="AP119" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AQ119" s="6"/>
       <c r="AR119" s="6">
@@ -20819,7 +20822,7 @@
         <v>72003013</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E120" s="6">
         <v>3</v>
@@ -20921,7 +20924,7 @@
         <v>0</v>
       </c>
       <c r="AL120" s="10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AM120" s="6">
         <v>0.1</v>
@@ -20933,7 +20936,7 @@
         <v>70000001</v>
       </c>
       <c r="AP120" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AQ120" s="6"/>
       <c r="AR120" s="6">
@@ -20947,7 +20950,7 @@
         <v>72004001</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E121" s="6">
         <v>1</v>
@@ -21049,7 +21052,7 @@
         <v>0</v>
       </c>
       <c r="AL121" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AM121" s="6">
         <v>0</v>
@@ -21075,7 +21078,7 @@
         <v>72004002</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E122" s="6">
         <v>1</v>
@@ -21177,7 +21180,7 @@
         <v>0</v>
       </c>
       <c r="AL122" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AM122" s="6">
         <v>0</v>
@@ -21203,7 +21206,7 @@
         <v>72004003</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E123" s="6">
         <v>1</v>
@@ -21305,7 +21308,7 @@
         <v>0</v>
       </c>
       <c r="AL123" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AM123" s="6">
         <v>0</v>
@@ -21331,7 +21334,7 @@
         <v>72004004</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E124" s="6">
         <v>1</v>
@@ -21433,7 +21436,7 @@
         <v>0</v>
       </c>
       <c r="AL124" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AM124" s="6">
         <v>0</v>
@@ -21459,7 +21462,7 @@
         <v>72004011</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E125" s="6">
         <v>3</v>
@@ -21561,7 +21564,7 @@
         <v>0</v>
       </c>
       <c r="AL125" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AM125" s="6">
         <v>0.1</v>
@@ -21573,7 +21576,7 @@
         <v>70000001</v>
       </c>
       <c r="AP125" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AQ125" s="6"/>
       <c r="AR125" s="6">
@@ -21587,7 +21590,7 @@
         <v>72004012</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E126" s="6">
         <v>3</v>
@@ -21689,7 +21692,7 @@
         <v>0</v>
       </c>
       <c r="AL126" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AM126" s="6">
         <v>0.1</v>
@@ -21701,7 +21704,7 @@
         <v>70000001</v>
       </c>
       <c r="AP126" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AQ126" s="6"/>
       <c r="AR126" s="6">
@@ -21715,7 +21718,7 @@
         <v>72004013</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E127" s="6">
         <v>3</v>
@@ -21817,7 +21820,7 @@
         <v>0</v>
       </c>
       <c r="AL127" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AM127" s="6">
         <v>0.1</v>
@@ -21826,10 +21829,10 @@
         <v>1</v>
       </c>
       <c r="AO127" s="6">
-        <v>70000001</v>
+        <v>70000002</v>
       </c>
       <c r="AP127" s="10" t="s">
-        <v>169</v>
+        <v>343</v>
       </c>
       <c r="AQ127" s="6"/>
       <c r="AR127" s="6">
@@ -22099,7 +22102,7 @@
         <v>41001007</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E130" s="6">
         <v>5</v>
@@ -22228,7 +22231,7 @@
         <v>41001008</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E131" s="6">
         <v>5</v>
@@ -22359,7 +22362,7 @@
         <v>41001009</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E132" s="6">
         <v>5</v>
@@ -22489,7 +22492,7 @@
         <v>41001010</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E133" s="6">
         <v>5</v>
@@ -22619,7 +22622,7 @@
         <v>41002001</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E134" s="6">
         <v>5</v>
@@ -22749,7 +22752,7 @@
         <v>41002002</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E135" s="6">
         <v>5</v>
@@ -22879,7 +22882,7 @@
         <v>41003001</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E136" s="6">
         <v>5</v>
@@ -23009,7 +23012,7 @@
         <v>41004001</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E137" s="6">
         <v>5</v>
@@ -23139,7 +23142,7 @@
         <v>41005001</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E138" s="6">
         <v>5</v>
@@ -23267,7 +23270,7 @@
         <v>73001001</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E139" s="6">
         <v>1</v>
@@ -23369,7 +23372,7 @@
         <v>0</v>
       </c>
       <c r="AL139" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM139" s="6">
         <v>0</v>
@@ -23395,7 +23398,7 @@
         <v>73001002</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E140" s="6">
         <v>1</v>
@@ -23497,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="AL140" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM140" s="6">
         <v>0</v>
@@ -23523,7 +23526,7 @@
         <v>73001003</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E141" s="6">
         <v>1</v>
@@ -23625,7 +23628,7 @@
         <v>0</v>
       </c>
       <c r="AL141" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM141" s="6">
         <v>0</v>
@@ -23651,7 +23654,7 @@
         <v>73001004</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E142" s="6">
         <v>1</v>
@@ -23753,7 +23756,7 @@
         <v>0</v>
       </c>
       <c r="AL142" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM142" s="6">
         <v>0</v>
@@ -23779,7 +23782,7 @@
         <v>73001005</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E143" s="6">
         <v>1</v>
@@ -23881,7 +23884,7 @@
         <v>0</v>
       </c>
       <c r="AL143" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM143" s="6">
         <v>0</v>
@@ -23908,7 +23911,7 @@
         <v>73002001</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E144" s="6">
         <v>1</v>
@@ -24010,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="AL144" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM144" s="6">
         <v>0</v>
@@ -24037,7 +24040,7 @@
         <v>73002002</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E145" s="6">
         <v>1</v>
@@ -24139,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="AL145" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM145" s="6">
         <v>0</v>
@@ -24166,7 +24169,7 @@
         <v>73002003</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E146" s="6">
         <v>1</v>
@@ -24268,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="AL146" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM146" s="6">
         <v>0</v>
@@ -24295,7 +24298,7 @@
         <v>73002004</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E147" s="6">
         <v>1</v>
@@ -24397,7 +24400,7 @@
         <v>0</v>
       </c>
       <c r="AL147" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM147" s="6">
         <v>0</v>
@@ -24424,7 +24427,7 @@
         <v>73002005</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E148" s="6">
         <v>1</v>
@@ -24526,7 +24529,7 @@
         <v>0</v>
       </c>
       <c r="AL148" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM148" s="6">
         <v>0</v>
@@ -24553,7 +24556,7 @@
         <v>73003001</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E149" s="6">
         <v>1</v>
@@ -24655,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="AL149" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM149" s="6">
         <v>0</v>
@@ -24682,7 +24685,7 @@
         <v>73003002</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E150" s="6">
         <v>1</v>
@@ -24784,7 +24787,7 @@
         <v>0</v>
       </c>
       <c r="AL150" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM150" s="6">
         <v>0</v>
@@ -24811,7 +24814,7 @@
         <v>73003003</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E151" s="6">
         <v>1</v>
@@ -24913,7 +24916,7 @@
         <v>0</v>
       </c>
       <c r="AL151" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM151" s="6">
         <v>0</v>
@@ -24940,7 +24943,7 @@
         <v>73003004</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E152" s="6">
         <v>1</v>
@@ -25042,7 +25045,7 @@
         <v>0</v>
       </c>
       <c r="AL152" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM152" s="6">
         <v>0</v>
@@ -25069,7 +25072,7 @@
         <v>73003005</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E153" s="6">
         <v>1</v>
@@ -25171,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="AL153" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM153" s="6">
         <v>0</v>
@@ -25198,7 +25201,7 @@
         <v>73004001</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E154" s="6">
         <v>1</v>
@@ -25300,7 +25303,7 @@
         <v>0</v>
       </c>
       <c r="AL154" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM154" s="6">
         <v>0</v>
@@ -25327,7 +25330,7 @@
         <v>73004002</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E155" s="6">
         <v>1</v>
@@ -25429,7 +25432,7 @@
         <v>0</v>
       </c>
       <c r="AL155" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM155" s="6">
         <v>0</v>
@@ -25456,7 +25459,7 @@
         <v>73004003</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E156" s="6">
         <v>1</v>
@@ -25558,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="AL156" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM156" s="6">
         <v>0</v>
@@ -25585,7 +25588,7 @@
         <v>73004004</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E157" s="6">
         <v>1</v>
@@ -25687,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="AL157" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM157" s="6">
         <v>0</v>
@@ -25714,7 +25717,7 @@
         <v>73004005</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E158" s="6">
         <v>1</v>
@@ -25816,7 +25819,7 @@
         <v>0</v>
       </c>
       <c r="AL158" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM158" s="6">
         <v>0</v>
@@ -25843,7 +25846,7 @@
         <v>73005001</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E159" s="6">
         <v>1</v>
@@ -25945,7 +25948,7 @@
         <v>0</v>
       </c>
       <c r="AL159" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM159" s="6">
         <v>0</v>
@@ -25972,7 +25975,7 @@
         <v>73005002</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E160" s="6">
         <v>1</v>
@@ -26074,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="AL160" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM160" s="6">
         <v>0</v>
@@ -26101,7 +26104,7 @@
         <v>73005003</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E161" s="6">
         <v>1</v>
@@ -26203,7 +26206,7 @@
         <v>0</v>
       </c>
       <c r="AL161" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM161" s="6">
         <v>0</v>
@@ -26230,7 +26233,7 @@
         <v>73005004</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E162" s="6">
         <v>1</v>
@@ -26332,7 +26335,7 @@
         <v>0</v>
       </c>
       <c r="AL162" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM162" s="6">
         <v>0</v>
@@ -26359,7 +26362,7 @@
         <v>73005005</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E163" s="6">
         <v>1</v>
@@ -26461,7 +26464,7 @@
         <v>0</v>
       </c>
       <c r="AL163" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM163" s="6">
         <v>0</v>
@@ -26488,7 +26491,7 @@
         <v>73006001</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E164" s="6">
         <v>1</v>
@@ -26590,7 +26593,7 @@
         <v>0</v>
       </c>
       <c r="AL164" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM164" s="6">
         <v>0</v>
@@ -26617,7 +26620,7 @@
         <v>73006002</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E165" s="6">
         <v>1</v>
@@ -26719,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="AL165" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM165" s="6">
         <v>0</v>
@@ -26746,7 +26749,7 @@
         <v>73006003</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E166" s="6">
         <v>1</v>
@@ -26848,7 +26851,7 @@
         <v>0</v>
       </c>
       <c r="AL166" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM166" s="6">
         <v>0</v>
@@ -26875,7 +26878,7 @@
         <v>73006004</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E167" s="6">
         <v>1</v>
@@ -26977,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="AL167" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM167" s="6">
         <v>0</v>
@@ -27004,7 +27007,7 @@
         <v>73006005</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E168" s="6">
         <v>1</v>
@@ -27106,7 +27109,7 @@
         <v>0</v>
       </c>
       <c r="AL168" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM168" s="6">
         <v>0</v>
@@ -27133,7 +27136,7 @@
         <v>73007001</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E169" s="6">
         <v>1</v>
@@ -27235,7 +27238,7 @@
         <v>0</v>
       </c>
       <c r="AL169" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM169" s="6">
         <v>0</v>
@@ -27262,7 +27265,7 @@
         <v>73007002</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E170" s="6">
         <v>1</v>
@@ -27364,7 +27367,7 @@
         <v>0</v>
       </c>
       <c r="AL170" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM170" s="6">
         <v>0</v>
@@ -27391,7 +27394,7 @@
         <v>73007003</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E171" s="6">
         <v>1</v>
@@ -27493,7 +27496,7 @@
         <v>0</v>
       </c>
       <c r="AL171" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM171" s="6">
         <v>0</v>
@@ -27520,7 +27523,7 @@
         <v>73007004</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E172" s="6">
         <v>1</v>
@@ -27622,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="AL172" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM172" s="6">
         <v>0</v>
@@ -27649,7 +27652,7 @@
         <v>73007005</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E173" s="6">
         <v>1</v>
@@ -27751,7 +27754,7 @@
         <v>0</v>
       </c>
       <c r="AL173" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM173" s="6">
         <v>0</v>
@@ -27778,7 +27781,7 @@
         <v>73008001</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E174" s="6">
         <v>1</v>
@@ -27880,7 +27883,7 @@
         <v>0</v>
       </c>
       <c r="AL174" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM174" s="6">
         <v>0</v>
@@ -27907,7 +27910,7 @@
         <v>73008002</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E175" s="6">
         <v>1</v>
@@ -28009,7 +28012,7 @@
         <v>0</v>
       </c>
       <c r="AL175" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM175" s="6">
         <v>0</v>
@@ -28036,7 +28039,7 @@
         <v>73008003</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E176" s="6">
         <v>1</v>
@@ -28138,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="AL176" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM176" s="6">
         <v>0</v>
@@ -28165,7 +28168,7 @@
         <v>73008004</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E177" s="6">
         <v>1</v>
@@ -28267,7 +28270,7 @@
         <v>0</v>
       </c>
       <c r="AL177" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM177" s="6">
         <v>0</v>
@@ -28294,7 +28297,7 @@
         <v>73008005</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E178" s="6">
         <v>1</v>
@@ -28396,7 +28399,7 @@
         <v>0</v>
       </c>
       <c r="AL178" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM178" s="6">
         <v>0</v>
@@ -28423,7 +28426,7 @@
         <v>73009001</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E179" s="6">
         <v>1</v>
@@ -28525,7 +28528,7 @@
         <v>0</v>
       </c>
       <c r="AL179" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM179" s="6">
         <v>0</v>
@@ -28552,7 +28555,7 @@
         <v>73009002</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E180" s="6">
         <v>1</v>
@@ -28654,7 +28657,7 @@
         <v>0</v>
       </c>
       <c r="AL180" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM180" s="6">
         <v>0</v>
@@ -28681,7 +28684,7 @@
         <v>73009003</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E181" s="6">
         <v>1</v>
@@ -28783,7 +28786,7 @@
         <v>0</v>
       </c>
       <c r="AL181" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM181" s="6">
         <v>0</v>
@@ -28810,7 +28813,7 @@
         <v>73009004</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E182" s="6">
         <v>1</v>
@@ -28912,7 +28915,7 @@
         <v>0</v>
       </c>
       <c r="AL182" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM182" s="6">
         <v>0</v>
@@ -28939,7 +28942,7 @@
         <v>73009005</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E183" s="6">
         <v>1</v>
@@ -29041,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="AL183" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM183" s="6">
         <v>0</v>
@@ -29068,7 +29071,7 @@
         <v>73010001</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E184" s="6">
         <v>1</v>
@@ -29170,7 +29173,7 @@
         <v>0</v>
       </c>
       <c r="AL184" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM184" s="6">
         <v>0</v>
@@ -29197,7 +29200,7 @@
         <v>73010002</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E185" s="6">
         <v>1</v>
@@ -29299,7 +29302,7 @@
         <v>0</v>
       </c>
       <c r="AL185" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM185" s="6">
         <v>0</v>
@@ -29326,7 +29329,7 @@
         <v>73010003</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E186" s="6">
         <v>1</v>
@@ -29428,7 +29431,7 @@
         <v>0</v>
       </c>
       <c r="AL186" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM186" s="6">
         <v>0</v>
@@ -29455,7 +29458,7 @@
         <v>73010004</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E187" s="6">
         <v>1</v>
@@ -29557,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="AL187" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM187" s="6">
         <v>0</v>
@@ -29584,7 +29587,7 @@
         <v>73010005</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E188" s="6">
         <v>1</v>
@@ -29686,7 +29689,7 @@
         <v>0</v>
       </c>
       <c r="AL188" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM188" s="6">
         <v>0</v>
@@ -29713,7 +29716,7 @@
         <v>73011001</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E189" s="6">
         <v>1</v>
@@ -29815,7 +29818,7 @@
         <v>0</v>
       </c>
       <c r="AL189" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM189" s="6">
         <v>0</v>
@@ -29842,7 +29845,7 @@
         <v>73011002</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E190" s="6">
         <v>1</v>
@@ -29944,7 +29947,7 @@
         <v>0</v>
       </c>
       <c r="AL190" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM190" s="6">
         <v>0</v>
@@ -29971,7 +29974,7 @@
         <v>73011003</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E191" s="6">
         <v>1</v>
@@ -30073,7 +30076,7 @@
         <v>0</v>
       </c>
       <c r="AL191" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM191" s="6">
         <v>0</v>
@@ -30100,7 +30103,7 @@
         <v>73011004</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E192" s="6">
         <v>1</v>
@@ -30202,7 +30205,7 @@
         <v>0</v>
       </c>
       <c r="AL192" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM192" s="6">
         <v>0</v>
@@ -30229,7 +30232,7 @@
         <v>73011005</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E193" s="6">
         <v>1</v>
@@ -30331,7 +30334,7 @@
         <v>0</v>
       </c>
       <c r="AL193" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM193" s="6">
         <v>0</v>
@@ -30358,7 +30361,7 @@
         <v>73012001</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E194" s="6">
         <v>1</v>
@@ -30460,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="AL194" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM194" s="6">
         <v>0</v>
@@ -30487,7 +30490,7 @@
         <v>73012002</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E195" s="6">
         <v>1</v>
@@ -30589,7 +30592,7 @@
         <v>0</v>
       </c>
       <c r="AL195" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM195" s="6">
         <v>0</v>
@@ -30616,7 +30619,7 @@
         <v>73012003</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E196" s="6">
         <v>1</v>
@@ -30718,7 +30721,7 @@
         <v>0</v>
       </c>
       <c r="AL196" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM196" s="6">
         <v>0</v>
@@ -30745,7 +30748,7 @@
         <v>73012004</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E197" s="6">
         <v>1</v>
@@ -30847,7 +30850,7 @@
         <v>0</v>
       </c>
       <c r="AL197" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM197" s="6">
         <v>0</v>
@@ -30874,7 +30877,7 @@
         <v>73012005</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E198" s="6">
         <v>1</v>
@@ -30976,7 +30979,7 @@
         <v>0</v>
       </c>
       <c r="AL198" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM198" s="6">
         <v>0</v>
@@ -31003,7 +31006,7 @@
         <v>73013001</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E199" s="6">
         <v>1</v>
@@ -31105,7 +31108,7 @@
         <v>0</v>
       </c>
       <c r="AL199" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM199" s="6">
         <v>0</v>
@@ -31132,7 +31135,7 @@
         <v>73013002</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E200" s="6">
         <v>1</v>
@@ -31234,7 +31237,7 @@
         <v>0</v>
       </c>
       <c r="AL200" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM200" s="6">
         <v>0</v>
@@ -31261,7 +31264,7 @@
         <v>73013003</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E201" s="6">
         <v>1</v>
@@ -31363,7 +31366,7 @@
         <v>0</v>
       </c>
       <c r="AL201" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM201" s="6">
         <v>0</v>
@@ -31390,7 +31393,7 @@
         <v>73013004</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E202" s="6">
         <v>1</v>
@@ -31492,7 +31495,7 @@
         <v>0</v>
       </c>
       <c r="AL202" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM202" s="6">
         <v>0</v>
@@ -31519,7 +31522,7 @@
         <v>73013005</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E203" s="6">
         <v>1</v>
@@ -31621,7 +31624,7 @@
         <v>0</v>
       </c>
       <c r="AL203" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM203" s="6">
         <v>0</v>
@@ -31648,7 +31651,7 @@
         <v>73014001</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E204" s="6">
         <v>1</v>
@@ -31750,7 +31753,7 @@
         <v>0</v>
       </c>
       <c r="AL204" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM204" s="6">
         <v>0</v>
@@ -31777,7 +31780,7 @@
         <v>73014002</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E205" s="6">
         <v>1</v>
@@ -31879,7 +31882,7 @@
         <v>0</v>
       </c>
       <c r="AL205" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM205" s="6">
         <v>0</v>
@@ -31906,7 +31909,7 @@
         <v>73014003</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E206" s="6">
         <v>1</v>
@@ -32008,7 +32011,7 @@
         <v>0</v>
       </c>
       <c r="AL206" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM206" s="6">
         <v>0</v>
@@ -32035,7 +32038,7 @@
         <v>73014004</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E207" s="6">
         <v>1</v>
@@ -32137,7 +32140,7 @@
         <v>0</v>
       </c>
       <c r="AL207" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM207" s="6">
         <v>0</v>
@@ -32164,7 +32167,7 @@
         <v>73014005</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E208" s="6">
         <v>1</v>
@@ -32266,7 +32269,7 @@
         <v>0</v>
       </c>
       <c r="AL208" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM208" s="6">
         <v>0</v>
@@ -32293,7 +32296,7 @@
         <v>73015001</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E209" s="6">
         <v>1</v>
@@ -32395,7 +32398,7 @@
         <v>0</v>
       </c>
       <c r="AL209" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM209" s="6">
         <v>0</v>
@@ -32422,7 +32425,7 @@
         <v>73015002</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E210" s="6">
         <v>1</v>
@@ -32524,7 +32527,7 @@
         <v>0</v>
       </c>
       <c r="AL210" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM210" s="6">
         <v>0</v>
@@ -32551,7 +32554,7 @@
         <v>73015003</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E211" s="6">
         <v>1</v>
@@ -32653,7 +32656,7 @@
         <v>0</v>
       </c>
       <c r="AL211" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM211" s="6">
         <v>0</v>
@@ -32680,7 +32683,7 @@
         <v>73015004</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E212" s="6">
         <v>1</v>
@@ -32782,7 +32785,7 @@
         <v>0</v>
       </c>
       <c r="AL212" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM212" s="6">
         <v>0</v>
@@ -32809,7 +32812,7 @@
         <v>73015005</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E213" s="6">
         <v>1</v>
@@ -32911,7 +32914,7 @@
         <v>0</v>
       </c>
       <c r="AL213" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM213" s="6">
         <v>0</v>
@@ -32938,7 +32941,7 @@
         <v>73016001</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E214" s="6">
         <v>1</v>
@@ -33040,7 +33043,7 @@
         <v>0</v>
       </c>
       <c r="AL214" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM214" s="6">
         <v>0</v>
@@ -33067,7 +33070,7 @@
         <v>73016002</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E215" s="6">
         <v>1</v>
@@ -33169,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="AL215" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM215" s="6">
         <v>0</v>
@@ -33196,7 +33199,7 @@
         <v>73016003</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E216" s="6">
         <v>1</v>
@@ -33298,7 +33301,7 @@
         <v>0</v>
       </c>
       <c r="AL216" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM216" s="6">
         <v>0</v>
@@ -33325,7 +33328,7 @@
         <v>73016004</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E217" s="6">
         <v>1</v>
@@ -33427,7 +33430,7 @@
         <v>0</v>
       </c>
       <c r="AL217" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM217" s="6">
         <v>0</v>
@@ -33454,7 +33457,7 @@
         <v>73016005</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E218" s="6">
         <v>1</v>
@@ -33556,7 +33559,7 @@
         <v>0</v>
       </c>
       <c r="AL218" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM218" s="6">
         <v>0</v>
@@ -33583,7 +33586,7 @@
         <v>73017001</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E219" s="6">
         <v>1</v>
@@ -33685,7 +33688,7 @@
         <v>0</v>
       </c>
       <c r="AL219" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM219" s="6">
         <v>0</v>
@@ -33712,7 +33715,7 @@
         <v>73017002</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E220" s="6">
         <v>1</v>
@@ -33814,7 +33817,7 @@
         <v>0</v>
       </c>
       <c r="AL220" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM220" s="6">
         <v>0</v>
@@ -33841,7 +33844,7 @@
         <v>73017003</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E221" s="6">
         <v>1</v>
@@ -33943,7 +33946,7 @@
         <v>0</v>
       </c>
       <c r="AL221" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM221" s="6">
         <v>0</v>
@@ -33970,7 +33973,7 @@
         <v>73017004</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E222" s="6">
         <v>1</v>
@@ -34072,7 +34075,7 @@
         <v>0</v>
       </c>
       <c r="AL222" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM222" s="6">
         <v>0</v>
@@ -34099,7 +34102,7 @@
         <v>73017005</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E223" s="6">
         <v>1</v>
@@ -34201,7 +34204,7 @@
         <v>0</v>
       </c>
       <c r="AL223" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM223" s="6">
         <v>0</v>
@@ -34228,7 +34231,7 @@
         <v>73018001</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E224" s="6">
         <v>1</v>
@@ -34330,7 +34333,7 @@
         <v>0</v>
       </c>
       <c r="AL224" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM224" s="6">
         <v>0</v>
@@ -34357,7 +34360,7 @@
         <v>73018002</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E225" s="6">
         <v>1</v>
@@ -34459,7 +34462,7 @@
         <v>0</v>
       </c>
       <c r="AL225" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM225" s="6">
         <v>0</v>
@@ -34486,7 +34489,7 @@
         <v>73018003</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E226" s="6">
         <v>1</v>
@@ -34588,7 +34591,7 @@
         <v>0</v>
       </c>
       <c r="AL226" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM226" s="6">
         <v>0</v>
@@ -34615,7 +34618,7 @@
         <v>73018004</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E227" s="6">
         <v>1</v>
@@ -34717,7 +34720,7 @@
         <v>0</v>
       </c>
       <c r="AL227" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM227" s="6">
         <v>0</v>
@@ -34744,7 +34747,7 @@
         <v>73018005</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E228" s="6">
         <v>1</v>
@@ -34846,7 +34849,7 @@
         <v>0</v>
       </c>
       <c r="AL228" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM228" s="6">
         <v>0</v>
@@ -34873,7 +34876,7 @@
         <v>73019001</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E229" s="6">
         <v>1</v>
@@ -34975,7 +34978,7 @@
         <v>0</v>
       </c>
       <c r="AL229" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM229" s="6">
         <v>0</v>
@@ -35002,7 +35005,7 @@
         <v>73019002</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E230" s="6">
         <v>1</v>
@@ -35104,7 +35107,7 @@
         <v>0</v>
       </c>
       <c r="AL230" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM230" s="6">
         <v>0</v>
@@ -35131,7 +35134,7 @@
         <v>73019003</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E231" s="6">
         <v>1</v>
@@ -35233,7 +35236,7 @@
         <v>0</v>
       </c>
       <c r="AL231" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM231" s="6">
         <v>0</v>
@@ -35260,7 +35263,7 @@
         <v>73019004</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E232" s="6">
         <v>1</v>
@@ -35362,7 +35365,7 @@
         <v>0</v>
       </c>
       <c r="AL232" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM232" s="6">
         <v>0</v>
@@ -35389,7 +35392,7 @@
         <v>73019005</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E233" s="6">
         <v>1</v>
@@ -35491,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="AL233" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM233" s="6">
         <v>0</v>
@@ -35518,7 +35521,7 @@
         <v>73020001</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E234" s="6">
         <v>1</v>
@@ -35620,7 +35623,7 @@
         <v>0</v>
       </c>
       <c r="AL234" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM234" s="6">
         <v>0</v>
@@ -35647,7 +35650,7 @@
         <v>73020002</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E235" s="6">
         <v>1</v>
@@ -35749,7 +35752,7 @@
         <v>0</v>
       </c>
       <c r="AL235" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM235" s="6">
         <v>0</v>
@@ -35776,7 +35779,7 @@
         <v>73020003</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E236" s="6">
         <v>1</v>
@@ -35878,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="AL236" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM236" s="6">
         <v>0</v>
@@ -35905,7 +35908,7 @@
         <v>73020004</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E237" s="6">
         <v>1</v>
@@ -36007,7 +36010,7 @@
         <v>0</v>
       </c>
       <c r="AL237" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM237" s="6">
         <v>0</v>
@@ -36034,7 +36037,7 @@
         <v>73020005</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E238" s="6">
         <v>1</v>
@@ -36136,7 +36139,7 @@
         <v>0</v>
       </c>
       <c r="AL238" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM238" s="6">
         <v>0</v>
@@ -36163,7 +36166,7 @@
         <v>73021001</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E239" s="6">
         <v>1</v>
@@ -36265,7 +36268,7 @@
         <v>0</v>
       </c>
       <c r="AL239" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM239" s="6">
         <v>0</v>
@@ -36292,7 +36295,7 @@
         <v>73021002</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E240" s="6">
         <v>1</v>
@@ -36394,7 +36397,7 @@
         <v>0</v>
       </c>
       <c r="AL240" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM240" s="6">
         <v>0</v>
@@ -36421,7 +36424,7 @@
         <v>73021003</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E241" s="6">
         <v>1</v>
@@ -36523,7 +36526,7 @@
         <v>0</v>
       </c>
       <c r="AL241" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM241" s="6">
         <v>0</v>
@@ -36550,7 +36553,7 @@
         <v>73021004</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E242" s="6">
         <v>1</v>
@@ -36652,7 +36655,7 @@
         <v>0</v>
       </c>
       <c r="AL242" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM242" s="6">
         <v>0</v>
@@ -36679,7 +36682,7 @@
         <v>73021005</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E243" s="6">
         <v>1</v>
@@ -36781,7 +36784,7 @@
         <v>0</v>
       </c>
       <c r="AL243" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM243" s="6">
         <v>0</v>
@@ -36808,7 +36811,7 @@
         <v>73022001</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E244" s="6">
         <v>1</v>
@@ -36910,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="AL244" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM244" s="6">
         <v>0</v>
@@ -36937,7 +36940,7 @@
         <v>73022002</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E245" s="6">
         <v>1</v>
@@ -37039,7 +37042,7 @@
         <v>0</v>
       </c>
       <c r="AL245" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM245" s="6">
         <v>0</v>
@@ -37066,7 +37069,7 @@
         <v>73022003</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E246" s="6">
         <v>1</v>
@@ -37168,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="AL246" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM246" s="6">
         <v>0</v>
@@ -37195,7 +37198,7 @@
         <v>73022004</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E247" s="6">
         <v>1</v>
@@ -37297,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="AL247" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM247" s="6">
         <v>0</v>
@@ -37324,7 +37327,7 @@
         <v>73022005</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E248" s="6">
         <v>1</v>
@@ -37426,7 +37429,7 @@
         <v>0</v>
       </c>
       <c r="AL248" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM248" s="6">
         <v>0</v>
@@ -37453,7 +37456,7 @@
         <v>73023001</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E249" s="6">
         <v>1</v>
@@ -37555,7 +37558,7 @@
         <v>0</v>
       </c>
       <c r="AL249" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM249" s="6">
         <v>0</v>
@@ -37582,7 +37585,7 @@
         <v>73023002</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E250" s="6">
         <v>1</v>
@@ -37684,7 +37687,7 @@
         <v>0</v>
       </c>
       <c r="AL250" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM250" s="6">
         <v>0</v>
@@ -37711,7 +37714,7 @@
         <v>73023003</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E251" s="6">
         <v>1</v>
@@ -37813,7 +37816,7 @@
         <v>0</v>
       </c>
       <c r="AL251" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM251" s="6">
         <v>0</v>
@@ -37840,7 +37843,7 @@
         <v>73023004</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E252" s="6">
         <v>1</v>
@@ -37942,7 +37945,7 @@
         <v>0</v>
       </c>
       <c r="AL252" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM252" s="6">
         <v>0</v>
@@ -37969,7 +37972,7 @@
         <v>73023005</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E253" s="6">
         <v>1</v>
@@ -38071,7 +38074,7 @@
         <v>0</v>
       </c>
       <c r="AL253" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM253" s="6">
         <v>0</v>
@@ -38098,7 +38101,7 @@
         <v>73024001</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E254" s="6">
         <v>1</v>
@@ -38200,7 +38203,7 @@
         <v>0</v>
       </c>
       <c r="AL254" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM254" s="6">
         <v>0</v>
@@ -38227,7 +38230,7 @@
         <v>73024002</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E255" s="6">
         <v>1</v>
@@ -38329,7 +38332,7 @@
         <v>0</v>
       </c>
       <c r="AL255" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM255" s="6">
         <v>0</v>
@@ -38356,7 +38359,7 @@
         <v>73024003</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E256" s="6">
         <v>1</v>
@@ -38458,7 +38461,7 @@
         <v>0</v>
       </c>
       <c r="AL256" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM256" s="6">
         <v>0</v>
@@ -38485,7 +38488,7 @@
         <v>73024004</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E257" s="6">
         <v>1</v>
@@ -38587,7 +38590,7 @@
         <v>0</v>
       </c>
       <c r="AL257" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM257" s="6">
         <v>0</v>
@@ -38614,7 +38617,7 @@
         <v>73024005</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E258" s="6">
         <v>1</v>
@@ -38716,7 +38719,7 @@
         <v>0</v>
       </c>
       <c r="AL258" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM258" s="6">
         <v>0</v>
@@ -38743,7 +38746,7 @@
         <v>73025001</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E259" s="6">
         <v>1</v>
@@ -38845,7 +38848,7 @@
         <v>0</v>
       </c>
       <c r="AL259" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM259" s="6">
         <v>0</v>
@@ -38872,7 +38875,7 @@
         <v>73025002</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E260" s="6">
         <v>1</v>
@@ -38974,7 +38977,7 @@
         <v>0</v>
       </c>
       <c r="AL260" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM260" s="6">
         <v>0</v>
@@ -39001,7 +39004,7 @@
         <v>73025003</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E261" s="6">
         <v>1</v>
@@ -39103,7 +39106,7 @@
         <v>0</v>
       </c>
       <c r="AL261" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM261" s="6">
         <v>0</v>
@@ -39130,7 +39133,7 @@
         <v>73025004</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E262" s="6">
         <v>1</v>
@@ -39232,7 +39235,7 @@
         <v>0</v>
       </c>
       <c r="AL262" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM262" s="6">
         <v>0</v>
@@ -39259,7 +39262,7 @@
         <v>73025005</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E263" s="6">
         <v>1</v>
@@ -39361,7 +39364,7 @@
         <v>0</v>
       </c>
       <c r="AL263" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM263" s="6">
         <v>0</v>
@@ -39388,7 +39391,7 @@
         <v>73026001</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E264" s="6">
         <v>1</v>
@@ -39490,7 +39493,7 @@
         <v>0</v>
       </c>
       <c r="AL264" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM264" s="6">
         <v>0</v>
@@ -39517,7 +39520,7 @@
         <v>73026002</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E265" s="6">
         <v>1</v>
@@ -39619,7 +39622,7 @@
         <v>0</v>
       </c>
       <c r="AL265" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM265" s="6">
         <v>0</v>
@@ -39646,7 +39649,7 @@
         <v>73026003</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E266" s="6">
         <v>1</v>
@@ -39748,7 +39751,7 @@
         <v>0</v>
       </c>
       <c r="AL266" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM266" s="6">
         <v>0</v>
@@ -39775,7 +39778,7 @@
         <v>73026004</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E267" s="6">
         <v>1</v>
@@ -39877,7 +39880,7 @@
         <v>0</v>
       </c>
       <c r="AL267" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM267" s="6">
         <v>0</v>
@@ -39904,7 +39907,7 @@
         <v>73026005</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E268" s="6">
         <v>1</v>
@@ -40006,7 +40009,7 @@
         <v>0</v>
       </c>
       <c r="AL268" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM268" s="6">
         <v>0</v>
@@ -40033,7 +40036,7 @@
         <v>73027001</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E269" s="6">
         <v>1</v>
@@ -40135,7 +40138,7 @@
         <v>0</v>
       </c>
       <c r="AL269" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM269" s="6">
         <v>0</v>
@@ -40162,7 +40165,7 @@
         <v>73027002</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E270" s="6">
         <v>1</v>
@@ -40264,7 +40267,7 @@
         <v>0</v>
       </c>
       <c r="AL270" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM270" s="6">
         <v>0</v>
@@ -40291,7 +40294,7 @@
         <v>73027003</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E271" s="6">
         <v>1</v>
@@ -40393,7 +40396,7 @@
         <v>0</v>
       </c>
       <c r="AL271" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM271" s="6">
         <v>0</v>
@@ -40420,7 +40423,7 @@
         <v>73027004</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E272" s="6">
         <v>1</v>
@@ -40522,7 +40525,7 @@
         <v>0</v>
       </c>
       <c r="AL272" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM272" s="6">
         <v>0</v>
@@ -40549,7 +40552,7 @@
         <v>73027005</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E273" s="6">
         <v>1</v>
@@ -40651,7 +40654,7 @@
         <v>0</v>
       </c>
       <c r="AL273" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM273" s="6">
         <v>0</v>
@@ -40678,7 +40681,7 @@
         <v>73028001</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E274" s="6">
         <v>1</v>
@@ -40780,7 +40783,7 @@
         <v>0</v>
       </c>
       <c r="AL274" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM274" s="6">
         <v>0</v>
@@ -40807,7 +40810,7 @@
         <v>73028002</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E275" s="6">
         <v>1</v>
@@ -40909,7 +40912,7 @@
         <v>0</v>
       </c>
       <c r="AL275" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM275" s="6">
         <v>0</v>
@@ -40936,7 +40939,7 @@
         <v>73028003</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E276" s="6">
         <v>1</v>
@@ -41038,7 +41041,7 @@
         <v>0</v>
       </c>
       <c r="AL276" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM276" s="6">
         <v>0</v>
@@ -41065,7 +41068,7 @@
         <v>73028004</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E277" s="6">
         <v>1</v>
@@ -41167,7 +41170,7 @@
         <v>0</v>
       </c>
       <c r="AL277" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM277" s="6">
         <v>0</v>
@@ -41194,7 +41197,7 @@
         <v>73028005</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E278" s="6">
         <v>1</v>
@@ -41296,7 +41299,7 @@
         <v>0</v>
       </c>
       <c r="AL278" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM278" s="6">
         <v>0</v>
@@ -41323,7 +41326,7 @@
         <v>73029001</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E279" s="6">
         <v>1</v>
@@ -41425,7 +41428,7 @@
         <v>0</v>
       </c>
       <c r="AL279" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM279" s="6">
         <v>0</v>
@@ -41452,7 +41455,7 @@
         <v>73029002</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E280" s="6">
         <v>1</v>
@@ -41554,7 +41557,7 @@
         <v>0</v>
       </c>
       <c r="AL280" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM280" s="6">
         <v>0</v>
@@ -41581,7 +41584,7 @@
         <v>73029003</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E281" s="6">
         <v>1</v>
@@ -41683,7 +41686,7 @@
         <v>0</v>
       </c>
       <c r="AL281" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM281" s="6">
         <v>0</v>
@@ -41710,7 +41713,7 @@
         <v>73029004</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E282" s="6">
         <v>1</v>
@@ -41812,7 +41815,7 @@
         <v>0</v>
       </c>
       <c r="AL282" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM282" s="6">
         <v>0</v>
@@ -41839,7 +41842,7 @@
         <v>73029005</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E283" s="6">
         <v>1</v>
@@ -41941,7 +41944,7 @@
         <v>0</v>
       </c>
       <c r="AL283" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM283" s="6">
         <v>0</v>
@@ -41968,7 +41971,7 @@
         <v>73030001</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E284" s="6">
         <v>1</v>
@@ -42070,7 +42073,7 @@
         <v>0</v>
       </c>
       <c r="AL284" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM284" s="6">
         <v>0</v>
@@ -42097,7 +42100,7 @@
         <v>73030002</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E285" s="6">
         <v>1</v>
@@ -42199,7 +42202,7 @@
         <v>0</v>
       </c>
       <c r="AL285" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM285" s="6">
         <v>0</v>
@@ -42226,7 +42229,7 @@
         <v>73030003</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E286" s="6">
         <v>1</v>
@@ -42328,7 +42331,7 @@
         <v>0</v>
       </c>
       <c r="AL286" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM286" s="6">
         <v>0</v>
@@ -42355,7 +42358,7 @@
         <v>73030004</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E287" s="6">
         <v>1</v>
@@ -42457,7 +42460,7 @@
         <v>0</v>
       </c>
       <c r="AL287" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM287" s="6">
         <v>0</v>
@@ -42484,7 +42487,7 @@
         <v>73030005</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E288" s="6">
         <v>1</v>
@@ -42586,7 +42589,7 @@
         <v>0</v>
       </c>
       <c r="AL288" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM288" s="6">
         <v>0</v>
@@ -42613,7 +42616,7 @@
         <v>73031001</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E289" s="6">
         <v>1</v>
@@ -42715,7 +42718,7 @@
         <v>0</v>
       </c>
       <c r="AL289" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM289" s="6">
         <v>0</v>
@@ -42742,7 +42745,7 @@
         <v>73031002</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E290" s="6">
         <v>1</v>
@@ -42844,7 +42847,7 @@
         <v>0</v>
       </c>
       <c r="AL290" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM290" s="6">
         <v>0</v>
@@ -42871,7 +42874,7 @@
         <v>73031003</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E291" s="6">
         <v>1</v>
@@ -42973,7 +42976,7 @@
         <v>0</v>
       </c>
       <c r="AL291" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM291" s="6">
         <v>0</v>
@@ -43000,7 +43003,7 @@
         <v>73031004</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E292" s="6">
         <v>1</v>
@@ -43102,7 +43105,7 @@
         <v>0</v>
       </c>
       <c r="AL292" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM292" s="6">
         <v>0</v>
@@ -43129,7 +43132,7 @@
         <v>73031005</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E293" s="6">
         <v>1</v>
@@ -43231,7 +43234,7 @@
         <v>0</v>
       </c>
       <c r="AL293" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM293" s="6">
         <v>0</v>
@@ -43258,7 +43261,7 @@
         <v>73032001</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E294" s="6">
         <v>1</v>
@@ -43360,7 +43363,7 @@
         <v>0</v>
       </c>
       <c r="AL294" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM294" s="6">
         <v>0</v>
@@ -43387,7 +43390,7 @@
         <v>73032002</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E295" s="6">
         <v>1</v>
@@ -43489,7 +43492,7 @@
         <v>0</v>
       </c>
       <c r="AL295" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM295" s="6">
         <v>0</v>
@@ -43516,7 +43519,7 @@
         <v>73032003</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E296" s="6">
         <v>1</v>
@@ -43618,7 +43621,7 @@
         <v>0</v>
       </c>
       <c r="AL296" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM296" s="6">
         <v>0</v>
@@ -43645,7 +43648,7 @@
         <v>73032004</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E297" s="6">
         <v>1</v>
@@ -43747,7 +43750,7 @@
         <v>0</v>
       </c>
       <c r="AL297" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM297" s="6">
         <v>0</v>
@@ -43774,7 +43777,7 @@
         <v>73032005</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E298" s="6">
         <v>1</v>
@@ -43876,7 +43879,7 @@
         <v>0</v>
       </c>
       <c r="AL298" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM298" s="6">
         <v>0</v>
@@ -43903,7 +43906,7 @@
         <v>73033001</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E299" s="6">
         <v>1</v>
@@ -44005,7 +44008,7 @@
         <v>0</v>
       </c>
       <c r="AL299" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM299" s="6">
         <v>0</v>
@@ -44032,7 +44035,7 @@
         <v>73033002</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E300" s="6">
         <v>1</v>
@@ -44134,7 +44137,7 @@
         <v>0</v>
       </c>
       <c r="AL300" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM300" s="6">
         <v>0</v>
@@ -44161,7 +44164,7 @@
         <v>73033003</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E301" s="6">
         <v>1</v>
@@ -44263,7 +44266,7 @@
         <v>0</v>
       </c>
       <c r="AL301" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM301" s="6">
         <v>0</v>
@@ -44290,7 +44293,7 @@
         <v>73033004</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E302" s="6">
         <v>1</v>
@@ -44392,7 +44395,7 @@
         <v>0</v>
       </c>
       <c r="AL302" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM302" s="6">
         <v>0</v>
@@ -44419,7 +44422,7 @@
         <v>73033005</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E303" s="6">
         <v>1</v>
@@ -44521,7 +44524,7 @@
         <v>0</v>
       </c>
       <c r="AL303" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM303" s="6">
         <v>0</v>
@@ -44548,7 +44551,7 @@
         <v>73034001</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E304" s="6">
         <v>1</v>
@@ -44650,7 +44653,7 @@
         <v>0</v>
       </c>
       <c r="AL304" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM304" s="6">
         <v>0</v>
@@ -44677,7 +44680,7 @@
         <v>73034002</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E305" s="6">
         <v>1</v>
@@ -44779,7 +44782,7 @@
         <v>0</v>
       </c>
       <c r="AL305" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM305" s="6">
         <v>0</v>
@@ -44806,7 +44809,7 @@
         <v>73034003</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E306" s="6">
         <v>1</v>
@@ -44908,7 +44911,7 @@
         <v>0</v>
       </c>
       <c r="AL306" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM306" s="6">
         <v>0</v>
@@ -44935,7 +44938,7 @@
         <v>73034004</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E307" s="6">
         <v>1</v>
@@ -45037,7 +45040,7 @@
         <v>0</v>
       </c>
       <c r="AL307" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM307" s="6">
         <v>0</v>
@@ -45064,7 +45067,7 @@
         <v>73034005</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E308" s="6">
         <v>1</v>
@@ -45166,7 +45169,7 @@
         <v>0</v>
       </c>
       <c r="AL308" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM308" s="6">
         <v>0</v>
@@ -45193,7 +45196,7 @@
         <v>73035001</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E309" s="6">
         <v>1</v>
@@ -45295,7 +45298,7 @@
         <v>0</v>
       </c>
       <c r="AL309" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM309" s="6">
         <v>0</v>
@@ -45322,7 +45325,7 @@
         <v>73035002</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E310" s="6">
         <v>1</v>
@@ -45424,7 +45427,7 @@
         <v>0</v>
       </c>
       <c r="AL310" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM310" s="6">
         <v>0</v>
@@ -45451,7 +45454,7 @@
         <v>73035003</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E311" s="6">
         <v>1</v>
@@ -45553,7 +45556,7 @@
         <v>0</v>
       </c>
       <c r="AL311" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM311" s="6">
         <v>0</v>
@@ -45580,7 +45583,7 @@
         <v>73035004</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E312" s="6">
         <v>1</v>
@@ -45682,7 +45685,7 @@
         <v>0</v>
       </c>
       <c r="AL312" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM312" s="6">
         <v>0</v>
@@ -45709,7 +45712,7 @@
         <v>73035005</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E313" s="6">
         <v>1</v>
@@ -45811,7 +45814,7 @@
         <v>0</v>
       </c>
       <c r="AL313" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM313" s="6">
         <v>0</v>
@@ -45838,7 +45841,7 @@
         <v>73036001</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E314" s="6">
         <v>1</v>
@@ -45940,7 +45943,7 @@
         <v>0</v>
       </c>
       <c r="AL314" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM314" s="6">
         <v>0</v>
@@ -45967,7 +45970,7 @@
         <v>73036002</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E315" s="6">
         <v>1</v>
@@ -46069,7 +46072,7 @@
         <v>0</v>
       </c>
       <c r="AL315" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM315" s="6">
         <v>0</v>
@@ -46096,7 +46099,7 @@
         <v>73036003</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E316" s="6">
         <v>1</v>
@@ -46198,7 +46201,7 @@
         <v>0</v>
       </c>
       <c r="AL316" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM316" s="6">
         <v>0</v>
@@ -46225,7 +46228,7 @@
         <v>73036004</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E317" s="6">
         <v>1</v>
@@ -46327,7 +46330,7 @@
         <v>0</v>
       </c>
       <c r="AL317" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM317" s="6">
         <v>0</v>
@@ -46354,7 +46357,7 @@
         <v>73036005</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E318" s="6">
         <v>1</v>
@@ -46456,7 +46459,7 @@
         <v>0</v>
       </c>
       <c r="AL318" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM318" s="6">
         <v>0</v>
@@ -46483,7 +46486,7 @@
         <v>73037001</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E319" s="6">
         <v>1</v>
@@ -46585,7 +46588,7 @@
         <v>0</v>
       </c>
       <c r="AL319" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM319" s="6">
         <v>0</v>
@@ -46612,7 +46615,7 @@
         <v>73037002</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E320" s="6">
         <v>1</v>
@@ -46714,7 +46717,7 @@
         <v>0</v>
       </c>
       <c r="AL320" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM320" s="6">
         <v>0</v>
@@ -46741,7 +46744,7 @@
         <v>73037003</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E321" s="6">
         <v>1</v>
@@ -46843,7 +46846,7 @@
         <v>0</v>
       </c>
       <c r="AL321" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM321" s="6">
         <v>0</v>
@@ -46870,7 +46873,7 @@
         <v>73037004</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E322" s="6">
         <v>1</v>
@@ -46972,7 +46975,7 @@
         <v>0</v>
       </c>
       <c r="AL322" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM322" s="6">
         <v>0</v>
@@ -46999,7 +47002,7 @@
         <v>73037005</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E323" s="6">
         <v>1</v>
@@ -47101,7 +47104,7 @@
         <v>0</v>
       </c>
       <c r="AL323" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM323" s="6">
         <v>0</v>
@@ -47128,7 +47131,7 @@
         <v>73038001</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E324" s="6">
         <v>1</v>
@@ -47230,7 +47233,7 @@
         <v>0</v>
       </c>
       <c r="AL324" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM324" s="6">
         <v>0</v>
@@ -47257,7 +47260,7 @@
         <v>73038002</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E325" s="6">
         <v>1</v>
@@ -47359,7 +47362,7 @@
         <v>0</v>
       </c>
       <c r="AL325" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM325" s="6">
         <v>0</v>
@@ -47386,7 +47389,7 @@
         <v>73038003</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E326" s="6">
         <v>1</v>
@@ -47488,7 +47491,7 @@
         <v>0</v>
       </c>
       <c r="AL326" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM326" s="6">
         <v>0</v>
@@ -47515,7 +47518,7 @@
         <v>73038004</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E327" s="6">
         <v>1</v>
@@ -47617,7 +47620,7 @@
         <v>0</v>
       </c>
       <c r="AL327" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM327" s="6">
         <v>0</v>
@@ -47644,7 +47647,7 @@
         <v>73038005</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E328" s="6">
         <v>1</v>
@@ -47746,7 +47749,7 @@
         <v>0</v>
       </c>
       <c r="AL328" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM328" s="6">
         <v>0</v>
@@ -47773,7 +47776,7 @@
         <v>73039001</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E329" s="6">
         <v>1</v>
@@ -47875,7 +47878,7 @@
         <v>0</v>
       </c>
       <c r="AL329" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM329" s="6">
         <v>0</v>
@@ -47902,7 +47905,7 @@
         <v>73039002</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E330" s="6">
         <v>1</v>
@@ -48004,7 +48007,7 @@
         <v>0</v>
       </c>
       <c r="AL330" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM330" s="6">
         <v>0</v>
@@ -48031,7 +48034,7 @@
         <v>73039003</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E331" s="6">
         <v>1</v>
@@ -48133,7 +48136,7 @@
         <v>0</v>
       </c>
       <c r="AL331" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM331" s="6">
         <v>0</v>
@@ -48160,7 +48163,7 @@
         <v>73039004</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E332" s="6">
         <v>1</v>
@@ -48262,7 +48265,7 @@
         <v>0</v>
       </c>
       <c r="AL332" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM332" s="6">
         <v>0</v>
@@ -48289,7 +48292,7 @@
         <v>73039005</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E333" s="6">
         <v>1</v>
@@ -48391,7 +48394,7 @@
         <v>0</v>
       </c>
       <c r="AL333" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM333" s="6">
         <v>0</v>
@@ -48418,7 +48421,7 @@
         <v>73040001</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E334" s="6">
         <v>1</v>
@@ -48520,7 +48523,7 @@
         <v>0</v>
       </c>
       <c r="AL334" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM334" s="6">
         <v>0</v>
@@ -48547,7 +48550,7 @@
         <v>73040002</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E335" s="6">
         <v>1</v>
@@ -48649,7 +48652,7 @@
         <v>0</v>
       </c>
       <c r="AL335" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM335" s="6">
         <v>0</v>
@@ -48676,7 +48679,7 @@
         <v>73040003</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E336" s="6">
         <v>1</v>
@@ -48778,7 +48781,7 @@
         <v>0</v>
       </c>
       <c r="AL336" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM336" s="6">
         <v>0</v>
@@ -48805,7 +48808,7 @@
         <v>73040004</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E337" s="6">
         <v>1</v>
@@ -48907,7 +48910,7 @@
         <v>0</v>
       </c>
       <c r="AL337" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM337" s="6">
         <v>0</v>
@@ -48934,7 +48937,7 @@
         <v>73040005</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E338" s="6">
         <v>1</v>
@@ -49036,7 +49039,7 @@
         <v>0</v>
       </c>
       <c r="AL338" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM338" s="6">
         <v>0</v>
@@ -49063,7 +49066,7 @@
         <v>73041001</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E339" s="6">
         <v>1</v>
@@ -49165,7 +49168,7 @@
         <v>0</v>
       </c>
       <c r="AL339" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM339" s="6">
         <v>0</v>
@@ -49192,7 +49195,7 @@
         <v>73041002</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E340" s="6">
         <v>1</v>
@@ -49294,7 +49297,7 @@
         <v>0</v>
       </c>
       <c r="AL340" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM340" s="6">
         <v>0</v>
@@ -49321,7 +49324,7 @@
         <v>73041003</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E341" s="6">
         <v>1</v>
@@ -49423,7 +49426,7 @@
         <v>0</v>
       </c>
       <c r="AL341" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM341" s="6">
         <v>0</v>
@@ -49450,7 +49453,7 @@
         <v>73041004</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E342" s="6">
         <v>1</v>
@@ -49552,7 +49555,7 @@
         <v>0</v>
       </c>
       <c r="AL342" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM342" s="6">
         <v>0</v>
@@ -49579,7 +49582,7 @@
         <v>73041005</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E343" s="6">
         <v>1</v>
@@ -49681,7 +49684,7 @@
         <v>0</v>
       </c>
       <c r="AL343" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM343" s="6">
         <v>0</v>
@@ -49708,7 +49711,7 @@
         <v>73042001</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E344" s="6">
         <v>1</v>
@@ -49810,7 +49813,7 @@
         <v>0</v>
       </c>
       <c r="AL344" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM344" s="6">
         <v>0</v>
@@ -49837,7 +49840,7 @@
         <v>73042002</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E345" s="6">
         <v>1</v>
@@ -49939,7 +49942,7 @@
         <v>0</v>
       </c>
       <c r="AL345" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM345" s="6">
         <v>0</v>
@@ -49966,7 +49969,7 @@
         <v>73042003</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E346" s="6">
         <v>1</v>
@@ -50068,7 +50071,7 @@
         <v>0</v>
       </c>
       <c r="AL346" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM346" s="6">
         <v>0</v>
@@ -50095,7 +50098,7 @@
         <v>73042004</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E347" s="6">
         <v>1</v>
@@ -50197,7 +50200,7 @@
         <v>0</v>
       </c>
       <c r="AL347" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM347" s="6">
         <v>0</v>
@@ -50224,7 +50227,7 @@
         <v>73042005</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E348" s="6">
         <v>1</v>
@@ -50326,7 +50329,7 @@
         <v>0</v>
       </c>
       <c r="AL348" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM348" s="6">
         <v>0</v>
@@ -50353,7 +50356,7 @@
         <v>73043001</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E349" s="6">
         <v>1</v>
@@ -50455,7 +50458,7 @@
         <v>0</v>
       </c>
       <c r="AL349" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM349" s="6">
         <v>0</v>
@@ -50482,7 +50485,7 @@
         <v>73043002</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E350" s="6">
         <v>1</v>
@@ -50584,7 +50587,7 @@
         <v>0</v>
       </c>
       <c r="AL350" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM350" s="6">
         <v>0</v>
@@ -50611,7 +50614,7 @@
         <v>73043003</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E351" s="6">
         <v>1</v>
@@ -50713,7 +50716,7 @@
         <v>0</v>
       </c>
       <c r="AL351" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM351" s="6">
         <v>0</v>
@@ -50740,7 +50743,7 @@
         <v>73043004</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E352" s="6">
         <v>1</v>
@@ -50842,7 +50845,7 @@
         <v>0</v>
       </c>
       <c r="AL352" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM352" s="6">
         <v>0</v>
@@ -50869,7 +50872,7 @@
         <v>73043005</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E353" s="6">
         <v>1</v>
@@ -50971,7 +50974,7 @@
         <v>0</v>
       </c>
       <c r="AL353" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM353" s="6">
         <v>0</v>
@@ -50998,7 +51001,7 @@
         <v>73044001</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E354" s="6">
         <v>1</v>
@@ -51100,7 +51103,7 @@
         <v>0</v>
       </c>
       <c r="AL354" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM354" s="6">
         <v>0</v>
@@ -51127,7 +51130,7 @@
         <v>73044002</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E355" s="6">
         <v>1</v>
@@ -51229,7 +51232,7 @@
         <v>0</v>
       </c>
       <c r="AL355" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM355" s="6">
         <v>0</v>
@@ -51256,7 +51259,7 @@
         <v>73044003</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E356" s="6">
         <v>1</v>
@@ -51358,7 +51361,7 @@
         <v>0</v>
       </c>
       <c r="AL356" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM356" s="6">
         <v>0</v>
@@ -51385,7 +51388,7 @@
         <v>73044004</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E357" s="6">
         <v>1</v>
@@ -51487,7 +51490,7 @@
         <v>0</v>
       </c>
       <c r="AL357" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM357" s="6">
         <v>0</v>
@@ -51514,7 +51517,7 @@
         <v>73044005</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E358" s="6">
         <v>1</v>
@@ -51616,7 +51619,7 @@
         <v>0</v>
       </c>
       <c r="AL358" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM358" s="6">
         <v>0</v>
@@ -51643,7 +51646,7 @@
         <v>73045001</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E359" s="6">
         <v>1</v>
@@ -51745,7 +51748,7 @@
         <v>0</v>
       </c>
       <c r="AL359" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM359" s="6">
         <v>0</v>
@@ -51772,7 +51775,7 @@
         <v>73045002</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E360" s="6">
         <v>1</v>
@@ -51874,7 +51877,7 @@
         <v>0</v>
       </c>
       <c r="AL360" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM360" s="6">
         <v>0</v>
@@ -51901,7 +51904,7 @@
         <v>73045003</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E361" s="6">
         <v>1</v>
@@ -52003,7 +52006,7 @@
         <v>0</v>
       </c>
       <c r="AL361" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM361" s="6">
         <v>0</v>
@@ -52030,7 +52033,7 @@
         <v>73045004</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E362" s="6">
         <v>1</v>
@@ -52132,7 +52135,7 @@
         <v>0</v>
       </c>
       <c r="AL362" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM362" s="6">
         <v>0</v>
@@ -52159,7 +52162,7 @@
         <v>73045005</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E363" s="6">
         <v>1</v>
@@ -52261,7 +52264,7 @@
         <v>0</v>
       </c>
       <c r="AL363" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM363" s="6">
         <v>0</v>
@@ -52288,7 +52291,7 @@
         <v>73046001</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E364" s="6">
         <v>1</v>
@@ -52390,7 +52393,7 @@
         <v>0</v>
       </c>
       <c r="AL364" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM364" s="6">
         <v>0</v>
@@ -52417,7 +52420,7 @@
         <v>73046002</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E365" s="6">
         <v>1</v>
@@ -52519,7 +52522,7 @@
         <v>0</v>
       </c>
       <c r="AL365" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM365" s="6">
         <v>0</v>
@@ -52546,7 +52549,7 @@
         <v>73046003</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E366" s="6">
         <v>1</v>
@@ -52648,7 +52651,7 @@
         <v>0</v>
       </c>
       <c r="AL366" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM366" s="6">
         <v>0</v>
@@ -52675,7 +52678,7 @@
         <v>73046004</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E367" s="6">
         <v>1</v>
@@ -52777,7 +52780,7 @@
         <v>0</v>
       </c>
       <c r="AL367" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM367" s="6">
         <v>0</v>
@@ -52804,7 +52807,7 @@
         <v>73046005</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E368" s="6">
         <v>1</v>
@@ -52906,7 +52909,7 @@
         <v>0</v>
       </c>
       <c r="AL368" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM368" s="6">
         <v>0</v>
@@ -52933,7 +52936,7 @@
         <v>73047001</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E369" s="6">
         <v>1</v>
@@ -53035,7 +53038,7 @@
         <v>0</v>
       </c>
       <c r="AL369" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM369" s="6">
         <v>0</v>
@@ -53062,7 +53065,7 @@
         <v>73047002</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E370" s="6">
         <v>1</v>
@@ -53164,7 +53167,7 @@
         <v>0</v>
       </c>
       <c r="AL370" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM370" s="6">
         <v>0</v>
@@ -53191,7 +53194,7 @@
         <v>73047003</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E371" s="6">
         <v>1</v>
@@ -53293,7 +53296,7 @@
         <v>0</v>
       </c>
       <c r="AL371" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM371" s="6">
         <v>0</v>
@@ -53320,7 +53323,7 @@
         <v>73047004</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E372" s="6">
         <v>1</v>
@@ -53422,7 +53425,7 @@
         <v>0</v>
       </c>
       <c r="AL372" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM372" s="6">
         <v>0</v>
@@ -53449,7 +53452,7 @@
         <v>73047005</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E373" s="6">
         <v>1</v>
@@ -53551,7 +53554,7 @@
         <v>0</v>
       </c>
       <c r="AL373" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM373" s="6">
         <v>0</v>
@@ -53578,7 +53581,7 @@
         <v>73048001</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E374" s="6">
         <v>1</v>
@@ -53680,7 +53683,7 @@
         <v>0</v>
       </c>
       <c r="AL374" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM374" s="6">
         <v>0</v>
@@ -53707,7 +53710,7 @@
         <v>73048002</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E375" s="6">
         <v>1</v>
@@ -53809,7 +53812,7 @@
         <v>0</v>
       </c>
       <c r="AL375" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM375" s="6">
         <v>0</v>
@@ -53836,7 +53839,7 @@
         <v>73048003</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E376" s="6">
         <v>1</v>
@@ -53938,7 +53941,7 @@
         <v>0</v>
       </c>
       <c r="AL376" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM376" s="6">
         <v>0</v>
@@ -53965,7 +53968,7 @@
         <v>73048004</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E377" s="6">
         <v>1</v>
@@ -54067,7 +54070,7 @@
         <v>0</v>
       </c>
       <c r="AL377" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM377" s="6">
         <v>0</v>
@@ -54094,7 +54097,7 @@
         <v>73048005</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E378" s="6">
         <v>1</v>
@@ -54196,7 +54199,7 @@
         <v>0</v>
       </c>
       <c r="AL378" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM378" s="6">
         <v>0</v>
@@ -54223,7 +54226,7 @@
         <v>73049001</v>
       </c>
       <c r="D379" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E379" s="6">
         <v>1</v>
@@ -54325,7 +54328,7 @@
         <v>0</v>
       </c>
       <c r="AL379" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM379" s="6">
         <v>0</v>
@@ -54352,7 +54355,7 @@
         <v>73049002</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E380" s="6">
         <v>1</v>
@@ -54454,7 +54457,7 @@
         <v>0</v>
       </c>
       <c r="AL380" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM380" s="6">
         <v>0</v>
@@ -54481,7 +54484,7 @@
         <v>73049003</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E381" s="6">
         <v>1</v>
@@ -54583,7 +54586,7 @@
         <v>0</v>
       </c>
       <c r="AL381" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM381" s="6">
         <v>0</v>
@@ -54610,7 +54613,7 @@
         <v>73049004</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E382" s="6">
         <v>1</v>
@@ -54712,7 +54715,7 @@
         <v>0</v>
       </c>
       <c r="AL382" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM382" s="6">
         <v>0</v>
@@ -54739,7 +54742,7 @@
         <v>73049005</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E383" s="6">
         <v>1</v>
@@ -54841,7 +54844,7 @@
         <v>0</v>
       </c>
       <c r="AL383" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM383" s="6">
         <v>0</v>
@@ -54868,7 +54871,7 @@
         <v>73050001</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E384" s="6">
         <v>1</v>
@@ -54970,7 +54973,7 @@
         <v>0</v>
       </c>
       <c r="AL384" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM384" s="6">
         <v>0</v>
@@ -54997,7 +55000,7 @@
         <v>73050002</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E385" s="6">
         <v>1</v>
@@ -55099,7 +55102,7 @@
         <v>0</v>
       </c>
       <c r="AL385" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM385" s="6">
         <v>0</v>
@@ -55126,7 +55129,7 @@
         <v>73050003</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E386" s="6">
         <v>1</v>
@@ -55228,7 +55231,7 @@
         <v>0</v>
       </c>
       <c r="AL386" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM386" s="6">
         <v>0</v>
@@ -55255,7 +55258,7 @@
         <v>73050004</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E387" s="6">
         <v>1</v>
@@ -55357,7 +55360,7 @@
         <v>0</v>
       </c>
       <c r="AL387" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM387" s="6">
         <v>0</v>
@@ -55384,7 +55387,7 @@
         <v>73050005</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E388" s="6">
         <v>1</v>
@@ -55486,7 +55489,7 @@
         <v>0</v>
       </c>
       <c r="AL388" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM388" s="6">
         <v>0</v>
@@ -55512,7 +55515,7 @@
         <v>80000001</v>
       </c>
       <c r="D389" s="10" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E389" s="6">
         <v>5</v>
@@ -55641,7 +55644,7 @@
         <v>80000002</v>
       </c>
       <c r="D390" s="10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E390" s="6">
         <v>5</v>
@@ -55770,7 +55773,7 @@
         <v>80000101</v>
       </c>
       <c r="D391" s="10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E391" s="6">
         <v>5</v>
@@ -55872,7 +55875,7 @@
         <v>0</v>
       </c>
       <c r="AL391" s="11" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AM391" s="6">
         <v>0</v>
@@ -55899,7 +55902,7 @@
         <v>80000201</v>
       </c>
       <c r="D392" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E392" s="6">
         <v>5</v>
@@ -56001,7 +56004,7 @@
         <v>0</v>
       </c>
       <c r="AL392" s="28" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AM392" s="6">
         <v>0</v>
@@ -56028,7 +56031,7 @@
         <v>80000301</v>
       </c>
       <c r="D393" s="10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E393" s="6">
         <v>5</v>
@@ -56130,7 +56133,7 @@
         <v>0</v>
       </c>
       <c r="AL393" s="28" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AM393" s="6">
         <v>0</v>
@@ -56157,7 +56160,7 @@
         <v>80000401</v>
       </c>
       <c r="D394" s="10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E394" s="6">
         <v>5</v>
@@ -56259,7 +56262,7 @@
         <v>0</v>
       </c>
       <c r="AL394" s="28" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AM394" s="6">
         <v>0</v>
@@ -56286,7 +56289,7 @@
         <v>80000501</v>
       </c>
       <c r="D395" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E395" s="6">
         <v>5</v>
@@ -56388,7 +56391,7 @@
         <v>0</v>
       </c>
       <c r="AL395" s="28" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AM395" s="6">
         <v>0</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDF769A-FE2D-4A60-A3B5-0D11F88CEC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF52D93D-4CCF-42A0-BCC1-8ADADB440C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5776,7 +5776,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="AM50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP64" sqref="AP64"/>
+      <selection pane="bottomRight" activeCell="AQ53" sqref="AQ53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF52D93D-4CCF-42A0-BCC1-8ADADB440C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50ECD7E-2037-4AC8-90D2-A20B0AC5BA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5773,10 +5773,10 @@
   <dimension ref="A1:AV395"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AM50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="S6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ53" sqref="AQ53"/>
+      <selection pane="bottomRight" activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -6695,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="AE9" s="6">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AF9" s="6">
         <v>7</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F687B80-A919-4BB9-9F52-52D46FD4621C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9214AEA-8A85-4355-80C6-A1EC8C16F2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6018,14 +6018,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AV246"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="U67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G197" sqref="G197"/>
+      <selection pane="bottomRight" activeCell="AC73" sqref="AC73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -6069,10 +6068,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:46" s="4" customFormat="1" ht="14.25"/>
-    <row r="2" spans="3:46" ht="13.5" hidden="1" customHeight="1">
+    <row r="2" spans="3:46" ht="13.5" customHeight="1">
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="3" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="7" t="s">
         <v>68</v>
       </c>
@@ -6206,7 +6205,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="4" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="7" t="s">
         <v>69</v>
       </c>
@@ -6340,7 +6339,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="5" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -6474,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="6" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="6">
         <v>70001001</v>
       </c>
@@ -6602,7 +6601,7 @@
       <c r="AS6" s="6"/>
       <c r="AT6" s="6"/>
     </row>
-    <row r="7" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="7" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="6">
         <v>70001002</v>
       </c>
@@ -6730,7 +6729,7 @@
       <c r="AS7" s="6"/>
       <c r="AT7" s="6"/>
     </row>
-    <row r="8" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="8" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="6">
         <v>70001003</v>
       </c>
@@ -6986,7 +6985,7 @@
       <c r="AS9" s="6"/>
       <c r="AT9" s="6"/>
     </row>
-    <row r="10" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="10" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="6">
         <v>70001005</v>
       </c>
@@ -7114,7 +7113,7 @@
       <c r="AS10" s="6"/>
       <c r="AT10" s="6"/>
     </row>
-    <row r="11" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="11" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="6">
         <v>70001006</v>
       </c>
@@ -7242,7 +7241,7 @@
       <c r="AS11" s="6"/>
       <c r="AT11" s="6"/>
     </row>
-    <row r="12" spans="3:46" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="12" spans="3:46" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="14">
         <v>70001007</v>
       </c>
@@ -7370,7 +7369,7 @@
       <c r="AS12" s="14"/>
       <c r="AT12" s="14"/>
     </row>
-    <row r="13" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="13" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="6">
         <v>70001010</v>
       </c>
@@ -7626,7 +7625,7 @@
       <c r="AS14" s="6"/>
       <c r="AT14" s="6"/>
     </row>
-    <row r="15" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="15" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="6">
         <v>70001101</v>
       </c>
@@ -7754,7 +7753,7 @@
       <c r="AS15" s="6"/>
       <c r="AT15" s="6"/>
     </row>
-    <row r="16" spans="3:46" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="16" spans="3:46" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="14">
         <v>70001102</v>
       </c>
@@ -7882,7 +7881,7 @@
       <c r="AS16" s="14"/>
       <c r="AT16" s="14"/>
     </row>
-    <row r="17" spans="3:46" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="17" spans="3:46" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="14">
         <v>70001103</v>
       </c>
@@ -8138,7 +8137,7 @@
       <c r="AS18" s="6"/>
       <c r="AT18" s="6"/>
     </row>
-    <row r="19" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="19" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="6">
         <v>70001201</v>
       </c>
@@ -8266,7 +8265,7 @@
       <c r="AS19" s="6"/>
       <c r="AT19" s="6"/>
     </row>
-    <row r="20" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="20" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="6">
         <v>70001202</v>
       </c>
@@ -8394,7 +8393,7 @@
       <c r="AS20" s="6"/>
       <c r="AT20" s="6"/>
     </row>
-    <row r="21" spans="3:46" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="21" spans="3:46" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="14">
         <v>70001203</v>
       </c>
@@ -8522,7 +8521,7 @@
       <c r="AS21" s="14"/>
       <c r="AT21" s="14"/>
     </row>
-    <row r="22" spans="3:46" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="22" spans="3:46" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C22" s="14">
         <v>70001204</v>
       </c>
@@ -8650,7 +8649,7 @@
       <c r="AS22" s="14"/>
       <c r="AT22" s="14"/>
     </row>
-    <row r="23" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="23" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C23" s="6">
         <v>70001205</v>
       </c>
@@ -8858,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="6">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="AD24" s="6">
         <v>1</v>
@@ -8906,7 +8905,7 @@
       <c r="AS24" s="6"/>
       <c r="AT24" s="6"/>
     </row>
-    <row r="25" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="25" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="6">
         <v>70001207</v>
       </c>
@@ -9034,7 +9033,7 @@
       <c r="AS25" s="6"/>
       <c r="AT25" s="6"/>
     </row>
-    <row r="26" spans="3:46" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="26" spans="3:46" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C26" s="14">
         <v>70001208</v>
       </c>
@@ -9242,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="6">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="AD27" s="6">
         <v>1</v>
@@ -9290,7 +9289,7 @@
       <c r="AS27" s="6"/>
       <c r="AT27" s="6"/>
     </row>
-    <row r="28" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="28" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C28" s="6">
         <v>70002001</v>
       </c>
@@ -9418,7 +9417,7 @@
       <c r="AS28" s="6"/>
       <c r="AT28" s="6"/>
     </row>
-    <row r="29" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="29" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C29" s="6">
         <v>70002002</v>
       </c>
@@ -9626,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="6">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="AD30" s="6">
         <v>3</v>
@@ -9674,7 +9673,7 @@
       <c r="AS30" s="6"/>
       <c r="AT30" s="11"/>
     </row>
-    <row r="31" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="31" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C31" s="6">
         <v>70002004</v>
       </c>
@@ -9802,7 +9801,7 @@
       <c r="AS31" s="6"/>
       <c r="AT31" s="12"/>
     </row>
-    <row r="32" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="32" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C32" s="6">
         <v>70002005</v>
       </c>
@@ -10010,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="6">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="AD33" s="6">
         <v>3</v>
@@ -10138,7 +10137,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="6">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="AD34" s="6">
         <v>3</v>
@@ -10186,7 +10185,7 @@
       <c r="AS34" s="6"/>
       <c r="AT34" s="6"/>
     </row>
-    <row r="35" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="35" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C35" s="6">
         <v>70002008</v>
       </c>
@@ -10314,7 +10313,7 @@
       <c r="AS35" s="6"/>
       <c r="AT35" s="12"/>
     </row>
-    <row r="36" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="36" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C36" s="6">
         <v>70002009</v>
       </c>
@@ -10442,7 +10441,7 @@
       <c r="AS36" s="6"/>
       <c r="AT36" s="12"/>
     </row>
-    <row r="37" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="37" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C37" s="6">
         <v>70002010</v>
       </c>
@@ -10570,7 +10569,7 @@
       <c r="AS37" s="6"/>
       <c r="AT37" s="12"/>
     </row>
-    <row r="38" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="38" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C38" s="6">
         <v>70002011</v>
       </c>
@@ -10778,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="6">
-        <v>7200</v>
+        <v>10800</v>
       </c>
       <c r="AD39" s="6">
         <v>3</v>
@@ -10826,7 +10825,7 @@
       <c r="AS39" s="6"/>
       <c r="AT39" s="12"/>
     </row>
-    <row r="40" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="40" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C40" s="6">
         <v>70003001</v>
       </c>
@@ -10954,7 +10953,7 @@
       <c r="AS40" s="6"/>
       <c r="AT40" s="6"/>
     </row>
-    <row r="41" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="41" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C41" s="6">
         <v>70003002</v>
       </c>
@@ -11210,7 +11209,7 @@
       <c r="AS42" s="6"/>
       <c r="AT42" s="6"/>
     </row>
-    <row r="43" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="43" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C43" s="6">
         <v>70003004</v>
       </c>
@@ -11338,7 +11337,7 @@
       <c r="AS43" s="6"/>
       <c r="AT43" s="6"/>
     </row>
-    <row r="44" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="44" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C44" s="6">
         <v>70003005</v>
       </c>
@@ -11594,7 +11593,7 @@
       <c r="AS45" s="6"/>
       <c r="AT45" s="6"/>
     </row>
-    <row r="46" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="46" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C46" s="6">
         <v>70003007</v>
       </c>
@@ -11722,7 +11721,7 @@
       <c r="AS46" s="6"/>
       <c r="AT46" s="6"/>
     </row>
-    <row r="47" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="47" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C47" s="6">
         <v>70003008</v>
       </c>
@@ -11850,7 +11849,7 @@
       <c r="AS47" s="6"/>
       <c r="AT47" s="6"/>
     </row>
-    <row r="48" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="48" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C48" s="6">
         <v>70003009</v>
       </c>
@@ -11978,7 +11977,7 @@
       <c r="AS48" s="6"/>
       <c r="AT48" s="6"/>
     </row>
-    <row r="49" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="49" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C49" s="6">
         <v>70003010</v>
       </c>
@@ -12106,7 +12105,7 @@
       <c r="AS49" s="6"/>
       <c r="AT49" s="6"/>
     </row>
-    <row r="50" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="50" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C50" s="6">
         <v>70003011</v>
       </c>
@@ -12314,7 +12313,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="6">
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="AD51" s="6">
         <v>3</v>
@@ -12362,7 +12361,7 @@
       <c r="AS51" s="6"/>
       <c r="AT51" s="6"/>
     </row>
-    <row r="52" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="52" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C52" s="6">
         <v>70003013</v>
       </c>
@@ -12490,7 +12489,7 @@
       <c r="AS52" s="6"/>
       <c r="AT52" s="6"/>
     </row>
-    <row r="53" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="53" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C53" s="6">
         <v>70003014</v>
       </c>
@@ -12618,7 +12617,7 @@
       <c r="AS53" s="6"/>
       <c r="AT53" s="6"/>
     </row>
-    <row r="54" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="54" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C54" s="6">
         <v>70003015</v>
       </c>
@@ -12826,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="6">
-        <v>7200</v>
+        <v>10800</v>
       </c>
       <c r="AD55" s="6">
         <v>3</v>
@@ -12874,7 +12873,7 @@
       <c r="AS55" s="6"/>
       <c r="AT55" s="6"/>
     </row>
-    <row r="56" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="56" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C56" s="6">
         <v>70004001</v>
       </c>
@@ -13002,7 +13001,7 @@
       <c r="AS56" s="6"/>
       <c r="AT56" s="6"/>
     </row>
-    <row r="57" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="57" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C57" s="6">
         <v>70004002</v>
       </c>
@@ -13258,7 +13257,7 @@
       <c r="AS58" s="6"/>
       <c r="AT58" s="6"/>
     </row>
-    <row r="59" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="59" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C59" s="6">
         <v>70004004</v>
       </c>
@@ -13386,7 +13385,7 @@
       <c r="AS59" s="6"/>
       <c r="AT59" s="13"/>
     </row>
-    <row r="60" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="60" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C60" s="6">
         <v>70004005</v>
       </c>
@@ -13642,7 +13641,7 @@
       <c r="AS61" s="6"/>
       <c r="AT61" s="13"/>
     </row>
-    <row r="62" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="62" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C62" s="6">
         <v>70004007</v>
       </c>
@@ -13770,7 +13769,7 @@
       <c r="AS62" s="6"/>
       <c r="AT62" s="13"/>
     </row>
-    <row r="63" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="63" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C63" s="6">
         <v>70004008</v>
       </c>
@@ -13898,7 +13897,7 @@
       <c r="AS63" s="6"/>
       <c r="AT63" s="6"/>
     </row>
-    <row r="64" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="64" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C64" s="6">
         <v>70004009</v>
       </c>
@@ -14106,7 +14105,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="6">
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="AD65" s="6">
         <v>3</v>
@@ -14154,7 +14153,7 @@
       <c r="AS65" s="6"/>
       <c r="AT65" s="6"/>
     </row>
-    <row r="66" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="66" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C66" s="6">
         <v>70004011</v>
       </c>
@@ -14282,7 +14281,7 @@
       <c r="AS66" s="6"/>
       <c r="AT66" s="6"/>
     </row>
-    <row r="67" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="67" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C67" s="6">
         <v>70004012</v>
       </c>
@@ -14490,7 +14489,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="6">
-        <v>7200</v>
+        <v>10800</v>
       </c>
       <c r="AD68" s="6">
         <v>3</v>
@@ -14538,7 +14537,7 @@
       <c r="AS68" s="6"/>
       <c r="AT68" s="6"/>
     </row>
-    <row r="69" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="69" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C69" s="6">
         <v>70005001</v>
       </c>
@@ -14666,7 +14665,7 @@
       <c r="AS69" s="6"/>
       <c r="AT69" s="6"/>
     </row>
-    <row r="70" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="70" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C70" s="6">
         <v>70005002</v>
       </c>
@@ -14874,7 +14873,7 @@
         <v>0</v>
       </c>
       <c r="AC71" s="6">
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="AD71" s="6">
         <v>3</v>
@@ -15002,7 +15001,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="6">
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="AD72" s="6">
         <v>3</v>
@@ -15050,7 +15049,7 @@
       <c r="AS72" s="6"/>
       <c r="AT72" s="6"/>
     </row>
-    <row r="73" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="73" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C73" s="6">
         <v>70005006</v>
       </c>
@@ -15178,7 +15177,7 @@
       <c r="AS73" s="6"/>
       <c r="AT73" s="6"/>
     </row>
-    <row r="74" spans="3:46" s="24" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="74" spans="3:46" s="24" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C74" s="25">
         <v>70005007</v>
       </c>
@@ -15306,7 +15305,7 @@
       <c r="AS74" s="25"/>
       <c r="AT74" s="25"/>
     </row>
-    <row r="75" spans="3:46" s="24" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="75" spans="3:46" s="24" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C75" s="25">
         <v>70005008</v>
       </c>
@@ -15434,7 +15433,7 @@
       <c r="AS75" s="25"/>
       <c r="AT75" s="25"/>
     </row>
-    <row r="76" spans="3:46" s="24" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="76" spans="3:46" s="24" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C76" s="25">
         <v>70005009</v>
       </c>
@@ -15562,7 +15561,7 @@
       <c r="AS76" s="25"/>
       <c r="AT76" s="25"/>
     </row>
-    <row r="77" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="77" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C77" s="6">
         <v>70005010</v>
       </c>
@@ -15770,7 +15769,7 @@
         <v>0</v>
       </c>
       <c r="AC78" s="6">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="AD78" s="6">
         <v>3</v>
@@ -15898,7 +15897,7 @@
         <v>0</v>
       </c>
       <c r="AC79" s="6">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="AD79" s="6">
         <v>3</v>
@@ -16026,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="AC80" s="6">
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="AD80" s="6">
         <v>3</v>
@@ -16074,7 +16073,7 @@
       <c r="AS80" s="6"/>
       <c r="AT80" s="13"/>
     </row>
-    <row r="81" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="81" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C81" s="6">
         <v>70009001</v>
       </c>
@@ -16202,7 +16201,7 @@
       <c r="AS81" s="6"/>
       <c r="AT81" s="6"/>
     </row>
-    <row r="82" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="82" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C82" s="6">
         <v>70009002</v>
       </c>
@@ -16330,7 +16329,7 @@
       <c r="AS82" s="6"/>
       <c r="AT82" s="13"/>
     </row>
-    <row r="83" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="83" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C83" s="6">
         <v>70009003</v>
       </c>
@@ -16458,7 +16457,7 @@
       <c r="AS83" s="6"/>
       <c r="AT83" s="13"/>
     </row>
-    <row r="84" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="84" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C84" s="6">
         <v>70009004</v>
       </c>
@@ -16586,7 +16585,7 @@
       <c r="AS84" s="6"/>
       <c r="AT84" s="13"/>
     </row>
-    <row r="85" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="85" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C85" s="6">
         <v>70009301</v>
       </c>
@@ -16714,7 +16713,7 @@
       <c r="AS85" s="6"/>
       <c r="AT85" s="13"/>
     </row>
-    <row r="86" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="86" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C86" s="6">
         <v>70009302</v>
       </c>
@@ -16842,7 +16841,7 @@
       <c r="AS86" s="6"/>
       <c r="AT86" s="6"/>
     </row>
-    <row r="87" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="87" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C87" s="6">
         <v>70009303</v>
       </c>
@@ -16970,7 +16969,7 @@
       <c r="AS87" s="6"/>
       <c r="AT87" s="6"/>
     </row>
-    <row r="88" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="88" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C88" s="6">
         <v>70009401</v>
       </c>
@@ -17098,7 +17097,7 @@
       <c r="AS88" s="6"/>
       <c r="AT88" s="13"/>
     </row>
-    <row r="89" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="89" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C89" s="6">
         <v>70009402</v>
       </c>
@@ -17226,7 +17225,7 @@
       <c r="AS89" s="6"/>
       <c r="AT89" s="6"/>
     </row>
-    <row r="90" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="90" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C90" s="6">
         <v>70009403</v>
       </c>
@@ -17354,7 +17353,7 @@
       <c r="AS90" s="6"/>
       <c r="AT90" s="6"/>
     </row>
-    <row r="91" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="91" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C91" s="6">
         <v>70009404</v>
       </c>
@@ -17482,7 +17481,7 @@
       <c r="AS91" s="6"/>
       <c r="AT91" s="6"/>
     </row>
-    <row r="92" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="92" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C92" s="6">
         <v>70009410</v>
       </c>
@@ -17610,7 +17609,7 @@
       <c r="AS92" s="6"/>
       <c r="AT92" s="6"/>
     </row>
-    <row r="93" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="93" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C93" s="6">
         <v>70009501</v>
       </c>
@@ -17738,7 +17737,7 @@
       <c r="AS93" s="6"/>
       <c r="AT93" s="6"/>
     </row>
-    <row r="94" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="94" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C94" s="6">
         <v>70009502</v>
       </c>
@@ -17866,7 +17865,7 @@
       <c r="AS94" s="6"/>
       <c r="AT94" s="6"/>
     </row>
-    <row r="95" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="95" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C95" s="6">
         <v>70009503</v>
       </c>
@@ -17994,7 +17993,7 @@
       <c r="AS95" s="6"/>
       <c r="AT95" s="6"/>
     </row>
-    <row r="96" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="96" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C96" s="6">
         <v>70009504</v>
       </c>
@@ -18122,7 +18121,7 @@
       <c r="AS96" s="6"/>
       <c r="AT96" s="6"/>
     </row>
-    <row r="97" spans="3:46" s="23" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="97" spans="3:46" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C97" s="21">
         <v>71001001</v>
       </c>
@@ -18250,7 +18249,7 @@
       <c r="AS97" s="21"/>
       <c r="AT97" s="21"/>
     </row>
-    <row r="98" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="98" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C98" s="6">
         <v>72001001</v>
       </c>
@@ -18378,7 +18377,7 @@
       <c r="AS98" s="6"/>
       <c r="AT98" s="13"/>
     </row>
-    <row r="99" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="99" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C99" s="6">
         <v>72001002</v>
       </c>
@@ -18506,7 +18505,7 @@
       <c r="AS99" s="6"/>
       <c r="AT99" s="13"/>
     </row>
-    <row r="100" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="100" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C100" s="6">
         <v>72001003</v>
       </c>
@@ -18634,7 +18633,7 @@
       <c r="AS100" s="6"/>
       <c r="AT100" s="13"/>
     </row>
-    <row r="101" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="101" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C101" s="6">
         <v>72001004</v>
       </c>
@@ -19146,7 +19145,7 @@
       <c r="AS104" s="6"/>
       <c r="AT104" s="6"/>
     </row>
-    <row r="105" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="105" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C105" s="6">
         <v>72002001</v>
       </c>
@@ -19274,7 +19273,7 @@
       <c r="AS105" s="6"/>
       <c r="AT105" s="13"/>
     </row>
-    <row r="106" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="106" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C106" s="6">
         <v>72002002</v>
       </c>
@@ -19402,7 +19401,7 @@
       <c r="AS106" s="6"/>
       <c r="AT106" s="13"/>
     </row>
-    <row r="107" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="107" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C107" s="6">
         <v>72002003</v>
       </c>
@@ -19530,7 +19529,7 @@
       <c r="AS107" s="6"/>
       <c r="AT107" s="13"/>
     </row>
-    <row r="108" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="108" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C108" s="6">
         <v>72002004</v>
       </c>
@@ -19658,7 +19657,7 @@
       <c r="AS108" s="6"/>
       <c r="AT108" s="13"/>
     </row>
-    <row r="109" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="109" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C109" s="6">
         <v>72002005</v>
       </c>
@@ -20170,7 +20169,7 @@
       <c r="AS112" s="6"/>
       <c r="AT112" s="6"/>
     </row>
-    <row r="113" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="113" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C113" s="6">
         <v>72003001</v>
       </c>
@@ -20298,7 +20297,7 @@
       <c r="AS113" s="6"/>
       <c r="AT113" s="13"/>
     </row>
-    <row r="114" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="114" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C114" s="6">
         <v>72003002</v>
       </c>
@@ -20426,7 +20425,7 @@
       <c r="AS114" s="6"/>
       <c r="AT114" s="13"/>
     </row>
-    <row r="115" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="115" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C115" s="6">
         <v>72003003</v>
       </c>
@@ -20554,7 +20553,7 @@
       <c r="AS115" s="6"/>
       <c r="AT115" s="13"/>
     </row>
-    <row r="116" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="116" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C116" s="6">
         <v>72003004</v>
       </c>
@@ -20682,7 +20681,7 @@
       <c r="AS116" s="6"/>
       <c r="AT116" s="13"/>
     </row>
-    <row r="117" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="117" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C117" s="6">
         <v>72003005</v>
       </c>
@@ -21194,7 +21193,7 @@
       <c r="AS120" s="6"/>
       <c r="AT120" s="6"/>
     </row>
-    <row r="121" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="121" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C121" s="6">
         <v>72004001</v>
       </c>
@@ -21322,7 +21321,7 @@
       <c r="AS121" s="6"/>
       <c r="AT121" s="13"/>
     </row>
-    <row r="122" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="122" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C122" s="6">
         <v>72004002</v>
       </c>
@@ -21450,7 +21449,7 @@
       <c r="AS122" s="6"/>
       <c r="AT122" s="13"/>
     </row>
-    <row r="123" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="123" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C123" s="6">
         <v>72004003</v>
       </c>
@@ -21578,7 +21577,7 @@
       <c r="AS123" s="6"/>
       <c r="AT123" s="13"/>
     </row>
-    <row r="124" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="124" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C124" s="6">
         <v>72004004</v>
       </c>
@@ -22090,7 +22089,7 @@
       <c r="AS127" s="6"/>
       <c r="AT127" s="6"/>
     </row>
-    <row r="128" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="128" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C128" s="6">
         <v>79999998</v>
       </c>
@@ -22218,7 +22217,7 @@
       <c r="AS128" s="6"/>
       <c r="AT128" s="6"/>
     </row>
-    <row r="129" spans="1:48" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="129" spans="1:48" ht="20.100000000000001" customHeight="1">
       <c r="C129" s="6">
         <v>79999999</v>
       </c>
@@ -22346,7 +22345,7 @@
       <c r="AS129" s="6"/>
       <c r="AT129" s="6"/>
     </row>
-    <row r="130" spans="1:48" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="130" spans="1:48" ht="20.100000000000001" customHeight="1">
       <c r="C130" s="6">
         <v>41001007</v>
       </c>
@@ -22475,7 +22474,7 @@
       </c>
       <c r="AV130" s="19"/>
     </row>
-    <row r="131" spans="1:48" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="131" spans="1:48" ht="20.100000000000001" customHeight="1">
       <c r="C131" s="6">
         <v>41001008</v>
       </c>
@@ -22604,7 +22603,7 @@
       </c>
       <c r="AV131" s="19"/>
     </row>
-    <row r="132" spans="1:48" s="20" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="132" spans="1:48" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132" s="6">
@@ -22734,7 +22733,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:48" s="20" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="133" spans="1:48" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133" s="6">
@@ -22864,7 +22863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:48" s="20" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="134" spans="1:48" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134" s="6">
@@ -22994,7 +22993,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:48" s="20" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="135" spans="1:48" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135" s="6">
@@ -23124,7 +23123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:48" s="20" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="136" spans="1:48" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136" s="6">
@@ -23254,7 +23253,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:48" s="20" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="137" spans="1:48" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137" s="6">
@@ -23384,7 +23383,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:48" s="20" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="138" spans="1:48" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138" s="6">
@@ -23514,7 +23513,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:48" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="139" spans="1:48" ht="20.100000000000001" customHeight="1">
       <c r="C139" s="18">
         <v>73001001</v>
       </c>
@@ -23642,7 +23641,7 @@
       <c r="AS139" s="18"/>
       <c r="AT139" s="18"/>
     </row>
-    <row r="140" spans="1:48" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="140" spans="1:48" ht="20.100000000000001" customHeight="1">
       <c r="C140" s="18">
         <v>73002001</v>
       </c>
@@ -23770,7 +23769,7 @@
       <c r="AS140" s="18"/>
       <c r="AT140" s="18"/>
     </row>
-    <row r="141" spans="1:48" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="141" spans="1:48" ht="20.100000000000001" customHeight="1">
       <c r="C141" s="18">
         <v>73002002</v>
       </c>
@@ -23898,7 +23897,7 @@
       <c r="AS141" s="29"/>
       <c r="AT141" s="29"/>
     </row>
-    <row r="142" spans="1:48" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="142" spans="1:48" ht="20.100000000000001" customHeight="1">
       <c r="C142" s="18">
         <v>73003001</v>
       </c>
@@ -24154,7 +24153,7 @@
       <c r="AS143" s="18"/>
       <c r="AT143" s="18"/>
     </row>
-    <row r="144" spans="1:48" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="144" spans="1:48" ht="20.100000000000001" customHeight="1">
       <c r="C144" s="18">
         <v>73004001</v>
       </c>
@@ -24282,7 +24281,7 @@
       <c r="AS144" s="18"/>
       <c r="AT144" s="18"/>
     </row>
-    <row r="145" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="145" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C145" s="18">
         <v>73004002</v>
       </c>
@@ -24538,7 +24537,7 @@
       <c r="AS146" s="18"/>
       <c r="AT146" s="18"/>
     </row>
-    <row r="147" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="147" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C147" s="29">
         <v>73005001</v>
       </c>
@@ -24666,7 +24665,7 @@
       <c r="AS147" s="29"/>
       <c r="AT147" s="29"/>
     </row>
-    <row r="148" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="148" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C148" s="29">
         <v>73005002</v>
       </c>
@@ -24922,7 +24921,7 @@
       <c r="AS149" s="18"/>
       <c r="AT149" s="18"/>
     </row>
-    <row r="150" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="150" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C150" s="29">
         <v>73006001</v>
       </c>
@@ -25050,7 +25049,7 @@
       <c r="AS150" s="18"/>
       <c r="AT150" s="18"/>
     </row>
-    <row r="151" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="151" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C151" s="29">
         <v>73006002</v>
       </c>
@@ -25306,7 +25305,7 @@
       <c r="AS152" s="18"/>
       <c r="AT152" s="18"/>
     </row>
-    <row r="153" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="153" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C153" s="29">
         <v>73007001</v>
       </c>
@@ -25434,7 +25433,7 @@
       <c r="AS153" s="29"/>
       <c r="AT153" s="29"/>
     </row>
-    <row r="154" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="154" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C154" s="29">
         <v>73007002</v>
       </c>
@@ -25690,7 +25689,7 @@
       <c r="AS155" s="18"/>
       <c r="AT155" s="18"/>
     </row>
-    <row r="156" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="156" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C156" s="18">
         <v>73008001</v>
       </c>
@@ -25818,7 +25817,7 @@
       <c r="AS156" s="18"/>
       <c r="AT156" s="18"/>
     </row>
-    <row r="157" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="157" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C157" s="18">
         <v>73008002</v>
       </c>
@@ -26074,7 +26073,7 @@
       <c r="AS158" s="18"/>
       <c r="AT158" s="11"/>
     </row>
-    <row r="159" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="159" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C159" s="18">
         <v>73009001</v>
       </c>
@@ -26202,7 +26201,7 @@
       <c r="AS159" s="18"/>
       <c r="AT159" s="30"/>
     </row>
-    <row r="160" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="160" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C160" s="18">
         <v>73009002</v>
       </c>
@@ -26458,7 +26457,7 @@
       <c r="AS161" s="18"/>
       <c r="AT161" s="18"/>
     </row>
-    <row r="162" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="162" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C162" s="18">
         <v>73010001</v>
       </c>
@@ -26586,7 +26585,7 @@
       <c r="AS162" s="18"/>
       <c r="AT162" s="30"/>
     </row>
-    <row r="163" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="163" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C163" s="18">
         <v>73010002</v>
       </c>
@@ -26842,7 +26841,7 @@
       <c r="AS164" s="18"/>
       <c r="AT164" s="30"/>
     </row>
-    <row r="165" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="165" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C165" s="18">
         <v>73011001</v>
       </c>
@@ -26970,7 +26969,7 @@
       <c r="AS165" s="18"/>
       <c r="AT165" s="31"/>
     </row>
-    <row r="166" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="166" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C166" s="18">
         <v>73011002</v>
       </c>
@@ -27226,7 +27225,7 @@
       <c r="AS167" s="18"/>
       <c r="AT167" s="18"/>
     </row>
-    <row r="168" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="168" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C168" s="18">
         <v>73012001</v>
       </c>
@@ -27354,7 +27353,7 @@
       <c r="AS168" s="18"/>
       <c r="AT168" s="31"/>
     </row>
-    <row r="169" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="169" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C169" s="18">
         <v>73012002</v>
       </c>
@@ -27610,7 +27609,7 @@
       <c r="AS170" s="18"/>
       <c r="AT170" s="18"/>
     </row>
-    <row r="171" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="171" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C171" s="18">
         <v>73013001</v>
       </c>
@@ -27738,7 +27737,7 @@
       <c r="AS171" s="18"/>
       <c r="AT171" s="31"/>
     </row>
-    <row r="172" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="172" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C172" s="18">
         <v>73013002</v>
       </c>
@@ -27994,7 +27993,7 @@
       <c r="AS173" s="18"/>
       <c r="AT173" s="18"/>
     </row>
-    <row r="174" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="174" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C174" s="18">
         <v>73014001</v>
       </c>
@@ -28122,7 +28121,7 @@
       <c r="AS174" s="18"/>
       <c r="AT174" s="18"/>
     </row>
-    <row r="175" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="175" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C175" s="18">
         <v>73014002</v>
       </c>
@@ -28378,7 +28377,7 @@
       <c r="AS176" s="18"/>
       <c r="AT176" s="18"/>
     </row>
-    <row r="177" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="177" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C177" s="18">
         <v>73015001</v>
       </c>
@@ -28506,7 +28505,7 @@
       <c r="AS177" s="18"/>
       <c r="AT177" s="18"/>
     </row>
-    <row r="178" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="178" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C178" s="18">
         <v>73015002</v>
       </c>
@@ -28762,7 +28761,7 @@
       <c r="AS179" s="18"/>
       <c r="AT179" s="18"/>
     </row>
-    <row r="180" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="180" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C180" s="18">
         <v>73016001</v>
       </c>
@@ -28890,7 +28889,7 @@
       <c r="AS180" s="18"/>
       <c r="AT180" s="18"/>
     </row>
-    <row r="181" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="181" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C181" s="18">
         <v>73016002</v>
       </c>
@@ -29146,7 +29145,7 @@
       <c r="AS182" s="18"/>
       <c r="AT182" s="18"/>
     </row>
-    <row r="183" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="183" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C183" s="18">
         <v>73017001</v>
       </c>
@@ -29274,7 +29273,7 @@
       <c r="AS183" s="18"/>
       <c r="AT183" s="18"/>
     </row>
-    <row r="184" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="184" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C184" s="18">
         <v>73017002</v>
       </c>
@@ -29530,7 +29529,7 @@
       <c r="AS185" s="18"/>
       <c r="AT185" s="18"/>
     </row>
-    <row r="186" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="186" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C186" s="18">
         <v>73018001</v>
       </c>
@@ -29658,7 +29657,7 @@
       <c r="AS186" s="18"/>
       <c r="AT186" s="31"/>
     </row>
-    <row r="187" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="187" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C187" s="18">
         <v>73018002</v>
       </c>
@@ -29914,7 +29913,7 @@
       <c r="AS188" s="18"/>
       <c r="AT188" s="18"/>
     </row>
-    <row r="189" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="189" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C189" s="18">
         <v>73019001</v>
       </c>
@@ -30042,7 +30041,7 @@
       <c r="AS189" s="18"/>
       <c r="AT189" s="31"/>
     </row>
-    <row r="190" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="190" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C190" s="18">
         <v>73019002</v>
       </c>
@@ -30298,7 +30297,7 @@
       <c r="AS191" s="18"/>
       <c r="AT191" s="18"/>
     </row>
-    <row r="192" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="192" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C192" s="18">
         <v>73020001</v>
       </c>
@@ -30426,7 +30425,7 @@
       <c r="AS192" s="18"/>
       <c r="AT192" s="31"/>
     </row>
-    <row r="193" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="193" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C193" s="18">
         <v>73020002</v>
       </c>
@@ -30682,7 +30681,7 @@
       <c r="AS194" s="18"/>
       <c r="AT194" s="18"/>
     </row>
-    <row r="195" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="195" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C195" s="18">
         <v>73021001</v>
       </c>
@@ -30810,7 +30809,7 @@
       <c r="AS195" s="18"/>
       <c r="AT195" s="18"/>
     </row>
-    <row r="196" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="196" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C196" s="18">
         <v>73021002</v>
       </c>
@@ -31066,7 +31065,7 @@
       <c r="AS197" s="18"/>
       <c r="AT197" s="18"/>
     </row>
-    <row r="198" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="198" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C198" s="18">
         <v>73022001</v>
       </c>
@@ -31194,7 +31193,7 @@
       <c r="AS198" s="18"/>
       <c r="AT198" s="31"/>
     </row>
-    <row r="199" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="199" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C199" s="18">
         <v>73022002</v>
       </c>
@@ -31450,7 +31449,7 @@
       <c r="AS200" s="18"/>
       <c r="AT200" s="31"/>
     </row>
-    <row r="201" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="201" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C201" s="18">
         <v>73023001</v>
       </c>
@@ -31578,7 +31577,7 @@
       <c r="AS201" s="18"/>
       <c r="AT201" s="18"/>
     </row>
-    <row r="202" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="202" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C202" s="18">
         <v>73023002</v>
       </c>
@@ -31834,7 +31833,7 @@
       <c r="AS203" s="18"/>
       <c r="AT203" s="18"/>
     </row>
-    <row r="204" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="204" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C204" s="18">
         <v>73024001</v>
       </c>
@@ -31962,7 +31961,7 @@
       <c r="AS204" s="18"/>
       <c r="AT204" s="18"/>
     </row>
-    <row r="205" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="205" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C205" s="18">
         <v>73024002</v>
       </c>
@@ -32218,7 +32217,7 @@
       <c r="AS206" s="18"/>
       <c r="AT206" s="18"/>
     </row>
-    <row r="207" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="207" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C207" s="18">
         <v>73025001</v>
       </c>
@@ -32346,7 +32345,7 @@
       <c r="AS207" s="18"/>
       <c r="AT207" s="31"/>
     </row>
-    <row r="208" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="208" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C208" s="18">
         <v>73025002</v>
       </c>
@@ -32602,7 +32601,7 @@
       <c r="AS209" s="18"/>
       <c r="AT209" s="18"/>
     </row>
-    <row r="210" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="210" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C210" s="18">
         <v>73026001</v>
       </c>
@@ -32730,7 +32729,7 @@
       <c r="AS210" s="18"/>
       <c r="AT210" s="31"/>
     </row>
-    <row r="211" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="211" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C211" s="18">
         <v>73026002</v>
       </c>
@@ -32986,7 +32985,7 @@
       <c r="AS212" s="18"/>
       <c r="AT212" s="18"/>
     </row>
-    <row r="213" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="213" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C213" s="18">
         <v>73027001</v>
       </c>
@@ -33114,7 +33113,7 @@
       <c r="AS213" s="18"/>
       <c r="AT213" s="31"/>
     </row>
-    <row r="214" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="214" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C214" s="18">
         <v>73027002</v>
       </c>
@@ -33370,7 +33369,7 @@
       <c r="AS215" s="18"/>
       <c r="AT215" s="18"/>
     </row>
-    <row r="216" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="216" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C216" s="18">
         <v>73028001</v>
       </c>
@@ -33498,7 +33497,7 @@
       <c r="AS216" s="18"/>
       <c r="AT216" s="18"/>
     </row>
-    <row r="217" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="217" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C217" s="18">
         <v>73028002</v>
       </c>
@@ -33754,7 +33753,7 @@
       <c r="AS218" s="18"/>
       <c r="AT218" s="18"/>
     </row>
-    <row r="219" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="219" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C219" s="18">
         <v>73029001</v>
       </c>
@@ -33882,7 +33881,7 @@
       <c r="AS219" s="18"/>
       <c r="AT219" s="18"/>
     </row>
-    <row r="220" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="220" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C220" s="18">
         <v>73029002</v>
       </c>
@@ -34138,7 +34137,7 @@
       <c r="AS221" s="18"/>
       <c r="AT221" s="18"/>
     </row>
-    <row r="222" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="222" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C222" s="18">
         <v>73030001</v>
       </c>
@@ -34266,7 +34265,7 @@
       <c r="AS222" s="32"/>
       <c r="AT222" s="32"/>
     </row>
-    <row r="223" spans="3:46" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="223" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C223" s="18">
         <v>73030002</v>
       </c>
@@ -34522,7 +34521,7 @@
       <c r="AS224" s="18"/>
       <c r="AT224" s="18"/>
     </row>
-    <row r="225" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="225" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C225" s="18">
         <v>73031001</v>
       </c>
@@ -34650,7 +34649,7 @@
       <c r="AS225" s="32"/>
       <c r="AT225" s="32"/>
     </row>
-    <row r="226" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="226" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C226" s="18">
         <v>73031002</v>
       </c>
@@ -34906,7 +34905,7 @@
       <c r="AS227" s="18"/>
       <c r="AT227" s="18"/>
     </row>
-    <row r="228" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="228" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C228" s="18">
         <v>73032001</v>
       </c>
@@ -35034,7 +35033,7 @@
       <c r="AS228" s="32"/>
       <c r="AT228" s="32"/>
     </row>
-    <row r="229" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="229" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C229" s="18">
         <v>73032002</v>
       </c>
@@ -35290,7 +35289,7 @@
       <c r="AS230" s="18"/>
       <c r="AT230" s="31"/>
     </row>
-    <row r="231" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="231" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C231" s="18">
         <v>73033001</v>
       </c>
@@ -35418,7 +35417,7 @@
       <c r="AS231" s="18"/>
       <c r="AT231" s="31"/>
     </row>
-    <row r="232" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="232" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C232" s="18">
         <v>73033002</v>
       </c>
@@ -35674,7 +35673,7 @@
       <c r="AS233" s="18"/>
       <c r="AT233" s="18"/>
     </row>
-    <row r="234" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="234" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C234" s="18">
         <v>73034001</v>
       </c>
@@ -35802,7 +35801,7 @@
       <c r="AS234" s="18"/>
       <c r="AT234" s="31"/>
     </row>
-    <row r="235" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="235" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C235" s="18">
         <v>73034002</v>
       </c>
@@ -36058,7 +36057,7 @@
       <c r="AS236" s="18"/>
       <c r="AT236" s="18"/>
     </row>
-    <row r="237" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="237" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C237" s="18">
         <v>73035001</v>
       </c>
@@ -36186,7 +36185,7 @@
       <c r="AS237" s="18"/>
       <c r="AT237" s="31"/>
     </row>
-    <row r="238" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="238" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C238" s="18">
         <v>73035002</v>
       </c>
@@ -36442,7 +36441,7 @@
       <c r="AS239" s="18"/>
       <c r="AT239" s="18"/>
     </row>
-    <row r="240" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="240" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C240" s="6">
         <v>80000001</v>
       </c>
@@ -36571,7 +36570,7 @@
       <c r="AT240" s="12"/>
       <c r="AU240" s="19"/>
     </row>
-    <row r="241" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="241" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C241" s="6">
         <v>80000002</v>
       </c>
@@ -36700,7 +36699,7 @@
       <c r="AT241" s="12"/>
       <c r="AU241" s="19"/>
     </row>
-    <row r="242" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="242" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C242" s="6">
         <v>80000101</v>
       </c>
@@ -36829,7 +36828,7 @@
       <c r="AT242" s="12"/>
       <c r="AU242" s="19"/>
     </row>
-    <row r="243" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="243" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C243" s="6">
         <v>80000201</v>
       </c>
@@ -36958,7 +36957,7 @@
       <c r="AT243" s="12"/>
       <c r="AU243" s="19"/>
     </row>
-    <row r="244" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="244" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C244" s="6">
         <v>80000301</v>
       </c>
@@ -37087,7 +37086,7 @@
       <c r="AT244" s="12"/>
       <c r="AU244" s="19"/>
     </row>
-    <row r="245" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="245" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C245" s="6">
         <v>80000401</v>
       </c>
@@ -37216,7 +37215,7 @@
       <c r="AT245" s="12"/>
       <c r="AU245" s="19"/>
     </row>
-    <row r="246" spans="3:47" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="246" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C246" s="6">
         <v>80000501</v>
       </c>
@@ -37346,13 +37345,6 @@
       <c r="AU246" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E246" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9214AEA-8A85-4355-80C6-A1EC8C16F2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B4C6B9-5C9B-4B46-84BF-03EA07D048E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -6021,10 +6021,10 @@
   <dimension ref="A1:AV246"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="U67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC73" sqref="AC73"/>
+      <selection pane="bottomRight" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B4C6B9-5C9B-4B46-84BF-03EA07D048E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4061CA-0E9E-4776-AFB5-4088DE512753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="425">
   <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -6021,10 +6021,10 @@
   <dimension ref="A1:AV246"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="W91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D80" sqref="D80"/>
+      <selection pane="bottomRight" activeCell="AH58" sqref="AH58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -12455,8 +12455,8 @@
       <c r="AG52" s="6">
         <v>1000</v>
       </c>
-      <c r="AH52" s="6" t="s">
-        <v>326</v>
+      <c r="AH52" s="6">
+        <v>880</v>
       </c>
       <c r="AI52" s="6">
         <v>0</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4061CA-0E9E-4776-AFB5-4088DE512753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A462148-68E4-4D32-9643-B3BBE29FCFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -6021,10 +6021,10 @@
   <dimension ref="A1:AV246"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="W91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="Z118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH58" sqref="AH58"/>
+      <selection pane="bottomRight" activeCell="AC133" sqref="AC133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -22425,7 +22425,7 @@
         <v>0</v>
       </c>
       <c r="AC130" s="6">
-        <v>5</v>
+        <v>600</v>
       </c>
       <c r="AD130" s="6">
         <v>99</v>
@@ -22554,7 +22554,7 @@
         <v>0</v>
       </c>
       <c r="AC131" s="6">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="AD131" s="6">
         <v>99</v>
@@ -22685,7 +22685,7 @@
         <v>0</v>
       </c>
       <c r="AC132" s="6">
-        <v>5</v>
+        <v>600</v>
       </c>
       <c r="AD132" s="6">
         <v>99</v>
@@ -22815,7 +22815,7 @@
         <v>0</v>
       </c>
       <c r="AC133" s="6">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="AD133" s="6">
         <v>99</v>
@@ -22945,7 +22945,7 @@
         <v>0</v>
       </c>
       <c r="AC134" s="6">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="AD134" s="6">
         <v>99</v>
@@ -23075,7 +23075,7 @@
         <v>0</v>
       </c>
       <c r="AC135" s="6">
-        <v>5</v>
+        <v>600</v>
       </c>
       <c r="AD135" s="6">
         <v>99</v>
@@ -23205,7 +23205,7 @@
         <v>0</v>
       </c>
       <c r="AC136" s="6">
-        <v>5</v>
+        <v>600</v>
       </c>
       <c r="AD136" s="6">
         <v>99</v>
@@ -23335,7 +23335,7 @@
         <v>0</v>
       </c>
       <c r="AC137" s="6">
-        <v>5</v>
+        <v>600</v>
       </c>
       <c r="AD137" s="6">
         <v>99</v>
@@ -23465,7 +23465,7 @@
         <v>0</v>
       </c>
       <c r="AC138" s="6">
-        <v>5</v>
+        <v>600</v>
       </c>
       <c r="AD138" s="6">
         <v>99</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A462148-68E4-4D32-9643-B3BBE29FCFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722C7203-A9CC-4FB9-8F14-4C311C2FC9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="428">
   <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1789,9 +1789,6 @@
     <t>601000411,600040201,601100106,601400101,601100408,601100409</t>
   </si>
   <si>
-    <t>601000411,600040201,601100202,601300101,601100408,601100409</t>
-  </si>
-  <si>
     <t>601000501,600050101,601100201,601300101</t>
   </si>
   <si>
@@ -1808,9 +1805,6 @@
   </si>
   <si>
     <t>601000511,600050201,601100203,601400101,601100508,601100509</t>
-  </si>
-  <si>
-    <t>601000511,600050201,601100204,601400101,601100508,601100509</t>
   </si>
   <si>
     <t/>
@@ -2125,6 +2119,26 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>601000201,600020101,601100101,601300101</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>601000511,600050201,601100204,601400101,601100508,601100509,601501501</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>601000411,600040201,601100202,601300101,601100408,601100409,601501401</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>601000311,600030201,601100107,601300101,601100308,601100309,601501301</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>601000211,600020201,601100103,601300101,601100208,601100209,601501101,601501201</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -6021,10 +6035,10 @@
   <dimension ref="A1:AV246"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="Z118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AK116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC133" sqref="AC133"/>
+      <selection pane="bottomRight" activeCell="AL126" sqref="AL126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -6976,7 +6990,7 @@
         <v>70000001</v>
       </c>
       <c r="AP9" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AQ9" s="6"/>
       <c r="AR9" s="6">
@@ -8768,7 +8782,7 @@
         <v>70000002</v>
       </c>
       <c r="AP23" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AQ23" s="6"/>
       <c r="AR23" s="6">
@@ -10292,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="AL35" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AM35" s="6">
         <v>0.1</v>
@@ -14912,7 +14926,7 @@
         <v>70000002</v>
       </c>
       <c r="AP71" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ71" s="6"/>
       <c r="AR71" s="6">
@@ -17472,7 +17486,7 @@
         <v>70000002</v>
       </c>
       <c r="AP91" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AQ91" s="6"/>
       <c r="AR91" s="6">
@@ -18356,7 +18370,7 @@
         <v>0</v>
       </c>
       <c r="AL98" s="10" t="s">
-        <v>303</v>
+        <v>423</v>
       </c>
       <c r="AM98" s="6">
         <v>0</v>
@@ -19124,7 +19138,7 @@
         <v>0</v>
       </c>
       <c r="AL104" s="10" t="s">
-        <v>305</v>
+        <v>427</v>
       </c>
       <c r="AM104" s="6">
         <v>0.1</v>
@@ -20148,7 +20162,7 @@
         <v>0</v>
       </c>
       <c r="AL112" s="10" t="s">
-        <v>312</v>
+        <v>426</v>
       </c>
       <c r="AM112" s="6">
         <v>0.1</v>
@@ -21172,7 +21186,7 @@
         <v>0</v>
       </c>
       <c r="AL120" s="10" t="s">
-        <v>318</v>
+        <v>425</v>
       </c>
       <c r="AM120" s="6">
         <v>0.1</v>
@@ -21300,7 +21314,7 @@
         <v>0</v>
       </c>
       <c r="AL121" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AM121" s="6">
         <v>0</v>
@@ -21428,7 +21442,7 @@
         <v>0</v>
       </c>
       <c r="AL122" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AM122" s="6">
         <v>0</v>
@@ -21556,7 +21570,7 @@
         <v>0</v>
       </c>
       <c r="AL123" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AM123" s="6">
         <v>0</v>
@@ -21684,7 +21698,7 @@
         <v>0</v>
       </c>
       <c r="AL124" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AM124" s="6">
         <v>0</v>
@@ -21812,7 +21826,7 @@
         <v>0</v>
       </c>
       <c r="AL125" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AM125" s="6">
         <v>0.1</v>
@@ -21940,7 +21954,7 @@
         <v>0</v>
       </c>
       <c r="AL126" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AM126" s="6">
         <v>0.1</v>
@@ -22068,7 +22082,7 @@
         <v>0</v>
       </c>
       <c r="AL127" s="10" t="s">
-        <v>325</v>
+        <v>424</v>
       </c>
       <c r="AM127" s="6">
         <v>0.1</v>
@@ -22080,7 +22094,7 @@
         <v>70000002</v>
       </c>
       <c r="AP127" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AQ127" s="6"/>
       <c r="AR127" s="6">
@@ -23518,7 +23532,7 @@
         <v>73001001</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E139" s="18">
         <v>1</v>
@@ -23620,7 +23634,7 @@
         <v>0</v>
       </c>
       <c r="AL139" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM139" s="18">
         <v>0.1</v>
@@ -23646,7 +23660,7 @@
         <v>73002001</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E140" s="18">
         <v>1</v>
@@ -23748,7 +23762,7 @@
         <v>0</v>
       </c>
       <c r="AL140" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM140" s="18">
         <v>0.1</v>
@@ -23774,7 +23788,7 @@
         <v>73002002</v>
       </c>
       <c r="D141" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E141" s="29">
         <v>1</v>
@@ -23876,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="AL141" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM141" s="29">
         <v>0.1</v>
@@ -23902,7 +23916,7 @@
         <v>73003001</v>
       </c>
       <c r="D142" s="18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E142" s="18">
         <v>1</v>
@@ -24004,7 +24018,7 @@
         <v>0</v>
       </c>
       <c r="AL142" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM142" s="18">
         <v>0.1</v>
@@ -24030,7 +24044,7 @@
         <v>73003002</v>
       </c>
       <c r="D143" s="18" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E143" s="18">
         <v>3</v>
@@ -24132,7 +24146,7 @@
         <v>0</v>
       </c>
       <c r="AL143" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM143" s="18">
         <v>0.5</v>
@@ -24158,7 +24172,7 @@
         <v>73004001</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E144" s="18">
         <v>1</v>
@@ -24260,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="AL144" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM144" s="18">
         <v>0.1</v>
@@ -24286,7 +24300,7 @@
         <v>73004002</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E145" s="18">
         <v>1</v>
@@ -24388,7 +24402,7 @@
         <v>0</v>
       </c>
       <c r="AL145" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM145" s="18">
         <v>0.1</v>
@@ -24414,7 +24428,7 @@
         <v>73004003</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E146" s="18">
         <v>3</v>
@@ -24516,7 +24530,7 @@
         <v>0</v>
       </c>
       <c r="AL146" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM146" s="18">
         <v>0.1</v>
@@ -24542,7 +24556,7 @@
         <v>73005001</v>
       </c>
       <c r="D147" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E147" s="29">
         <v>1</v>
@@ -24644,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="AL147" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM147" s="29">
         <v>0.1</v>
@@ -24670,7 +24684,7 @@
         <v>73005002</v>
       </c>
       <c r="D148" s="18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E148" s="18">
         <v>1</v>
@@ -24772,7 +24786,7 @@
         <v>0</v>
       </c>
       <c r="AL148" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM148" s="18">
         <v>0.1</v>
@@ -24798,7 +24812,7 @@
         <v>73005003</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E149" s="18">
         <v>3</v>
@@ -24900,7 +24914,7 @@
         <v>0</v>
       </c>
       <c r="AL149" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM149" s="18">
         <v>0.5</v>
@@ -24926,7 +24940,7 @@
         <v>73006001</v>
       </c>
       <c r="D150" s="18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E150" s="18">
         <v>1</v>
@@ -25028,7 +25042,7 @@
         <v>0</v>
       </c>
       <c r="AL150" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM150" s="18">
         <v>0.1</v>
@@ -25054,7 +25068,7 @@
         <v>73006002</v>
       </c>
       <c r="D151" s="18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E151" s="18">
         <v>1</v>
@@ -25156,7 +25170,7 @@
         <v>0</v>
       </c>
       <c r="AL151" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM151" s="18">
         <v>0.1</v>
@@ -25284,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="AL152" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM152" s="18">
         <v>0.1</v>
@@ -25310,7 +25324,7 @@
         <v>73007001</v>
       </c>
       <c r="D153" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E153" s="29">
         <v>1</v>
@@ -25412,7 +25426,7 @@
         <v>0</v>
       </c>
       <c r="AL153" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM153" s="29">
         <v>0.1</v>
@@ -25438,7 +25452,7 @@
         <v>73007002</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E154" s="18">
         <v>1</v>
@@ -25540,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="AL154" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM154" s="18">
         <v>0.1</v>
@@ -25566,7 +25580,7 @@
         <v>73007003</v>
       </c>
       <c r="D155" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E155" s="18">
         <v>3</v>
@@ -25668,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="AL155" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM155" s="18">
         <v>0.5</v>
@@ -25694,7 +25708,7 @@
         <v>73008001</v>
       </c>
       <c r="D156" s="18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E156" s="18">
         <v>1</v>
@@ -25796,7 +25810,7 @@
         <v>0</v>
       </c>
       <c r="AL156" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM156" s="18">
         <v>0.1</v>
@@ -25822,7 +25836,7 @@
         <v>73008002</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E157" s="18">
         <v>1</v>
@@ -25924,7 +25938,7 @@
         <v>0</v>
       </c>
       <c r="AL157" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM157" s="18">
         <v>0.1</v>
@@ -25950,7 +25964,7 @@
         <v>73008003</v>
       </c>
       <c r="D158" s="18" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E158" s="18">
         <v>3</v>
@@ -26052,7 +26066,7 @@
         <v>0</v>
       </c>
       <c r="AL158" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM158" s="18">
         <v>0.5</v>
@@ -26078,7 +26092,7 @@
         <v>73009001</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E159" s="18">
         <v>1</v>
@@ -26180,7 +26194,7 @@
         <v>0</v>
       </c>
       <c r="AL159" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM159" s="18">
         <v>0.1</v>
@@ -26206,7 +26220,7 @@
         <v>73009002</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E160" s="18">
         <v>1</v>
@@ -26308,7 +26322,7 @@
         <v>0</v>
       </c>
       <c r="AL160" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM160" s="18">
         <v>0.1</v>
@@ -26334,7 +26348,7 @@
         <v>73009003</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E161" s="18">
         <v>3</v>
@@ -26436,7 +26450,7 @@
         <v>0</v>
       </c>
       <c r="AL161" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM161" s="18">
         <v>0.5</v>
@@ -26462,7 +26476,7 @@
         <v>73010001</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E162" s="18">
         <v>1</v>
@@ -26564,7 +26578,7 @@
         <v>0</v>
       </c>
       <c r="AL162" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM162" s="18">
         <v>0.1</v>
@@ -26692,7 +26706,7 @@
         <v>0</v>
       </c>
       <c r="AL163" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM163" s="18">
         <v>0.1</v>
@@ -26820,7 +26834,7 @@
         <v>0</v>
       </c>
       <c r="AL164" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM164" s="18">
         <v>0.5</v>
@@ -26846,7 +26860,7 @@
         <v>73011001</v>
       </c>
       <c r="D165" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E165" s="18">
         <v>1</v>
@@ -26948,7 +26962,7 @@
         <v>0</v>
       </c>
       <c r="AL165" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM165" s="18">
         <v>0</v>
@@ -26974,7 +26988,7 @@
         <v>73011002</v>
       </c>
       <c r="D166" s="18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E166" s="18">
         <v>1</v>
@@ -27076,7 +27090,7 @@
         <v>0</v>
       </c>
       <c r="AL166" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM166" s="18">
         <v>0</v>
@@ -27102,7 +27116,7 @@
         <v>73011003</v>
       </c>
       <c r="D167" s="18" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E167" s="18">
         <v>3</v>
@@ -27204,7 +27218,7 @@
         <v>0</v>
       </c>
       <c r="AL167" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM167" s="18">
         <v>0.1</v>
@@ -27230,7 +27244,7 @@
         <v>73012001</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E168" s="18">
         <v>1</v>
@@ -27332,7 +27346,7 @@
         <v>0</v>
       </c>
       <c r="AL168" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM168" s="18">
         <v>0</v>
@@ -27358,7 +27372,7 @@
         <v>73012002</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E169" s="18">
         <v>1</v>
@@ -27460,7 +27474,7 @@
         <v>0</v>
       </c>
       <c r="AL169" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM169" s="18">
         <v>0</v>
@@ -27486,7 +27500,7 @@
         <v>73012003</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E170" s="18">
         <v>3</v>
@@ -27588,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="AL170" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM170" s="18">
         <v>0.1</v>
@@ -27614,7 +27628,7 @@
         <v>73013001</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E171" s="18">
         <v>1</v>
@@ -27716,7 +27730,7 @@
         <v>0</v>
       </c>
       <c r="AL171" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM171" s="18">
         <v>0</v>
@@ -27742,7 +27756,7 @@
         <v>73013002</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E172" s="18">
         <v>1</v>
@@ -27844,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="AL172" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM172" s="18">
         <v>0</v>
@@ -27870,7 +27884,7 @@
         <v>73013003</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E173" s="18">
         <v>3</v>
@@ -27972,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="AL173" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM173" s="18">
         <v>0.1</v>
@@ -27998,7 +28012,7 @@
         <v>73014001</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E174" s="18">
         <v>1</v>
@@ -28100,7 +28114,7 @@
         <v>0</v>
       </c>
       <c r="AL174" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM174" s="18">
         <v>0.1</v>
@@ -28126,7 +28140,7 @@
         <v>73014002</v>
       </c>
       <c r="D175" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E175" s="18">
         <v>1</v>
@@ -28228,7 +28242,7 @@
         <v>0</v>
       </c>
       <c r="AL175" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM175" s="18">
         <v>0.1</v>
@@ -28254,7 +28268,7 @@
         <v>73014003</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E176" s="18">
         <v>3</v>
@@ -28356,7 +28370,7 @@
         <v>0</v>
       </c>
       <c r="AL176" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM176" s="18">
         <v>0.1</v>
@@ -28382,7 +28396,7 @@
         <v>73015001</v>
       </c>
       <c r="D177" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E177" s="18">
         <v>1</v>
@@ -28484,7 +28498,7 @@
         <v>0</v>
       </c>
       <c r="AL177" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM177" s="18">
         <v>0.1</v>
@@ -28510,7 +28524,7 @@
         <v>73015002</v>
       </c>
       <c r="D178" s="18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E178" s="18">
         <v>1</v>
@@ -28612,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="AL178" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM178" s="18">
         <v>0.1</v>
@@ -28638,7 +28652,7 @@
         <v>73015003</v>
       </c>
       <c r="D179" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E179" s="18">
         <v>3</v>
@@ -28740,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="AL179" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM179" s="18">
         <v>0.1</v>
@@ -28766,7 +28780,7 @@
         <v>73016001</v>
       </c>
       <c r="D180" s="18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E180" s="18">
         <v>1</v>
@@ -28868,7 +28882,7 @@
         <v>0</v>
       </c>
       <c r="AL180" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM180" s="18">
         <v>0.1</v>
@@ -28894,7 +28908,7 @@
         <v>73016002</v>
       </c>
       <c r="D181" s="18" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E181" s="18">
         <v>1</v>
@@ -28996,7 +29010,7 @@
         <v>0</v>
       </c>
       <c r="AL181" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM181" s="18">
         <v>0.1</v>
@@ -29022,7 +29036,7 @@
         <v>73016003</v>
       </c>
       <c r="D182" s="18" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E182" s="18">
         <v>3</v>
@@ -29124,7 +29138,7 @@
         <v>0</v>
       </c>
       <c r="AL182" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM182" s="18">
         <v>0.1</v>
@@ -29150,7 +29164,7 @@
         <v>73017001</v>
       </c>
       <c r="D183" s="18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E183" s="18">
         <v>1</v>
@@ -29240,7 +29254,7 @@
         <v>1000</v>
       </c>
       <c r="AH183" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AI183" s="18">
         <v>0</v>
@@ -29252,7 +29266,7 @@
         <v>0</v>
       </c>
       <c r="AL183" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM183" s="18">
         <v>0.1</v>
@@ -29278,7 +29292,7 @@
         <v>73017002</v>
       </c>
       <c r="D184" s="18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E184" s="18">
         <v>1</v>
@@ -29380,7 +29394,7 @@
         <v>0</v>
       </c>
       <c r="AL184" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM184" s="18">
         <v>0.1</v>
@@ -29406,7 +29420,7 @@
         <v>73017003</v>
       </c>
       <c r="D185" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E185" s="18">
         <v>3</v>
@@ -29508,7 +29522,7 @@
         <v>0</v>
       </c>
       <c r="AL185" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM185" s="18">
         <v>0.1</v>
@@ -29534,7 +29548,7 @@
         <v>73018001</v>
       </c>
       <c r="D186" s="18" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E186" s="18">
         <v>1</v>
@@ -29636,7 +29650,7 @@
         <v>0</v>
       </c>
       <c r="AL186" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM186" s="18">
         <v>0</v>
@@ -29662,7 +29676,7 @@
         <v>73018002</v>
       </c>
       <c r="D187" s="18" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E187" s="18">
         <v>1</v>
@@ -29764,7 +29778,7 @@
         <v>0</v>
       </c>
       <c r="AL187" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM187" s="18">
         <v>0</v>
@@ -29790,7 +29804,7 @@
         <v>73018003</v>
       </c>
       <c r="D188" s="18" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E188" s="18">
         <v>3</v>
@@ -29892,7 +29906,7 @@
         <v>0</v>
       </c>
       <c r="AL188" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM188" s="18">
         <v>0.1</v>
@@ -29918,7 +29932,7 @@
         <v>73019001</v>
       </c>
       <c r="D189" s="18" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E189" s="18">
         <v>1</v>
@@ -30020,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="AL189" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM189" s="18">
         <v>0</v>
@@ -30046,7 +30060,7 @@
         <v>73019002</v>
       </c>
       <c r="D190" s="18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E190" s="18">
         <v>1</v>
@@ -30148,7 +30162,7 @@
         <v>0</v>
       </c>
       <c r="AL190" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM190" s="18">
         <v>0</v>
@@ -30174,7 +30188,7 @@
         <v>73019003</v>
       </c>
       <c r="D191" s="18" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E191" s="18">
         <v>3</v>
@@ -30276,7 +30290,7 @@
         <v>0</v>
       </c>
       <c r="AL191" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM191" s="18">
         <v>0.1</v>
@@ -30302,7 +30316,7 @@
         <v>73020001</v>
       </c>
       <c r="D192" s="18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E192" s="18">
         <v>1</v>
@@ -30404,7 +30418,7 @@
         <v>0</v>
       </c>
       <c r="AL192" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM192" s="18">
         <v>0</v>
@@ -30430,7 +30444,7 @@
         <v>73020002</v>
       </c>
       <c r="D193" s="18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E193" s="18">
         <v>1</v>
@@ -30532,7 +30546,7 @@
         <v>0</v>
       </c>
       <c r="AL193" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM193" s="18">
         <v>0</v>
@@ -30558,7 +30572,7 @@
         <v>73020003</v>
       </c>
       <c r="D194" s="18" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E194" s="18">
         <v>3</v>
@@ -30660,7 +30674,7 @@
         <v>0</v>
       </c>
       <c r="AL194" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM194" s="18">
         <v>0.1</v>
@@ -30686,7 +30700,7 @@
         <v>73021001</v>
       </c>
       <c r="D195" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E195" s="18">
         <v>1</v>
@@ -30788,7 +30802,7 @@
         <v>0</v>
       </c>
       <c r="AL195" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM195" s="18">
         <v>0.1</v>
@@ -30814,7 +30828,7 @@
         <v>73021002</v>
       </c>
       <c r="D196" s="18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E196" s="18">
         <v>1</v>
@@ -30916,7 +30930,7 @@
         <v>0</v>
       </c>
       <c r="AL196" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM196" s="18">
         <v>0.1</v>
@@ -30942,7 +30956,7 @@
         <v>73021003</v>
       </c>
       <c r="D197" s="18" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E197" s="18">
         <v>3</v>
@@ -31044,7 +31058,7 @@
         <v>0</v>
       </c>
       <c r="AL197" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM197" s="18">
         <v>0.1</v>
@@ -31070,7 +31084,7 @@
         <v>73022001</v>
       </c>
       <c r="D198" s="18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E198" s="18">
         <v>1</v>
@@ -31172,7 +31186,7 @@
         <v>0</v>
       </c>
       <c r="AL198" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM198" s="18">
         <v>0.1</v>
@@ -31198,7 +31212,7 @@
         <v>73022002</v>
       </c>
       <c r="D199" s="18" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E199" s="18">
         <v>1</v>
@@ -31300,7 +31314,7 @@
         <v>0</v>
       </c>
       <c r="AL199" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM199" s="18">
         <v>0.1</v>
@@ -31326,7 +31340,7 @@
         <v>73022003</v>
       </c>
       <c r="D200" s="18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E200" s="18">
         <v>3</v>
@@ -31428,7 +31442,7 @@
         <v>0</v>
       </c>
       <c r="AL200" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM200" s="18">
         <v>0.1</v>
@@ -31556,7 +31570,7 @@
         <v>0</v>
       </c>
       <c r="AL201" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM201" s="18">
         <v>0.1</v>
@@ -31582,7 +31596,7 @@
         <v>73023002</v>
       </c>
       <c r="D202" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E202" s="18">
         <v>1</v>
@@ -31684,7 +31698,7 @@
         <v>0</v>
       </c>
       <c r="AL202" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM202" s="18">
         <v>0.1</v>
@@ -31710,7 +31724,7 @@
         <v>73023003</v>
       </c>
       <c r="D203" s="18" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E203" s="18">
         <v>3</v>
@@ -31812,7 +31826,7 @@
         <v>0</v>
       </c>
       <c r="AL203" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM203" s="18">
         <v>0.1</v>
@@ -31838,7 +31852,7 @@
         <v>73024001</v>
       </c>
       <c r="D204" s="18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E204" s="18">
         <v>1</v>
@@ -31940,7 +31954,7 @@
         <v>0</v>
       </c>
       <c r="AL204" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM204" s="18">
         <v>0.1</v>
@@ -31966,7 +31980,7 @@
         <v>73024002</v>
       </c>
       <c r="D205" s="18" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E205" s="18">
         <v>1</v>
@@ -32068,7 +32082,7 @@
         <v>0</v>
       </c>
       <c r="AL205" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM205" s="18">
         <v>0.1</v>
@@ -32094,7 +32108,7 @@
         <v>73024003</v>
       </c>
       <c r="D206" s="18" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E206" s="18">
         <v>3</v>
@@ -32196,7 +32210,7 @@
         <v>0</v>
       </c>
       <c r="AL206" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM206" s="18">
         <v>0.1</v>
@@ -32222,7 +32236,7 @@
         <v>73025001</v>
       </c>
       <c r="D207" s="18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E207" s="18">
         <v>1</v>
@@ -32324,7 +32338,7 @@
         <v>0</v>
       </c>
       <c r="AL207" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM207" s="18">
         <v>0</v>
@@ -32350,7 +32364,7 @@
         <v>73025002</v>
       </c>
       <c r="D208" s="18" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E208" s="18">
         <v>1</v>
@@ -32452,7 +32466,7 @@
         <v>0</v>
       </c>
       <c r="AL208" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM208" s="18">
         <v>0</v>
@@ -32478,7 +32492,7 @@
         <v>73025003</v>
       </c>
       <c r="D209" s="18" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E209" s="18">
         <v>3</v>
@@ -32580,7 +32594,7 @@
         <v>0</v>
       </c>
       <c r="AL209" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM209" s="18">
         <v>0.1</v>
@@ -32606,7 +32620,7 @@
         <v>73026001</v>
       </c>
       <c r="D210" s="18" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E210" s="18">
         <v>1</v>
@@ -32708,7 +32722,7 @@
         <v>0</v>
       </c>
       <c r="AL210" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM210" s="18">
         <v>0</v>
@@ -32734,7 +32748,7 @@
         <v>73026002</v>
       </c>
       <c r="D211" s="18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E211" s="18">
         <v>1</v>
@@ -32836,7 +32850,7 @@
         <v>0</v>
       </c>
       <c r="AL211" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM211" s="18">
         <v>0</v>
@@ -32862,7 +32876,7 @@
         <v>73026003</v>
       </c>
       <c r="D212" s="18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E212" s="18">
         <v>3</v>
@@ -32964,7 +32978,7 @@
         <v>0</v>
       </c>
       <c r="AL212" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM212" s="18">
         <v>0.1</v>
@@ -32990,7 +33004,7 @@
         <v>73027001</v>
       </c>
       <c r="D213" s="18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E213" s="18">
         <v>1</v>
@@ -33092,7 +33106,7 @@
         <v>0</v>
       </c>
       <c r="AL213" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM213" s="18">
         <v>0</v>
@@ -33118,7 +33132,7 @@
         <v>73027002</v>
       </c>
       <c r="D214" s="18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E214" s="18">
         <v>1</v>
@@ -33220,7 +33234,7 @@
         <v>0</v>
       </c>
       <c r="AL214" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM214" s="18">
         <v>0</v>
@@ -33246,7 +33260,7 @@
         <v>73027003</v>
       </c>
       <c r="D215" s="18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E215" s="18">
         <v>3</v>
@@ -33348,7 +33362,7 @@
         <v>0</v>
       </c>
       <c r="AL215" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM215" s="18">
         <v>0.1</v>
@@ -33374,7 +33388,7 @@
         <v>73028001</v>
       </c>
       <c r="D216" s="18" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E216" s="18">
         <v>1</v>
@@ -33476,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="AL216" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM216" s="18">
         <v>0.1</v>
@@ -33502,7 +33516,7 @@
         <v>73028002</v>
       </c>
       <c r="D217" s="18" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E217" s="18">
         <v>1</v>
@@ -33604,7 +33618,7 @@
         <v>0</v>
       </c>
       <c r="AL217" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM217" s="18">
         <v>0.1</v>
@@ -33630,7 +33644,7 @@
         <v>73028003</v>
       </c>
       <c r="D218" s="18" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E218" s="18">
         <v>3</v>
@@ -33732,7 +33746,7 @@
         <v>0</v>
       </c>
       <c r="AL218" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM218" s="18">
         <v>0.1</v>
@@ -33860,7 +33874,7 @@
         <v>0</v>
       </c>
       <c r="AL219" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM219" s="18">
         <v>0.1</v>
@@ -33886,7 +33900,7 @@
         <v>73029002</v>
       </c>
       <c r="D220" s="32" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E220" s="32">
         <v>1</v>
@@ -33988,7 +34002,7 @@
         <v>0</v>
       </c>
       <c r="AL220" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM220" s="32">
         <v>0.1</v>
@@ -34014,7 +34028,7 @@
         <v>73029003</v>
       </c>
       <c r="D221" s="18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E221" s="18">
         <v>3</v>
@@ -34116,7 +34130,7 @@
         <v>0</v>
       </c>
       <c r="AL221" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM221" s="18">
         <v>0.1</v>
@@ -34142,7 +34156,7 @@
         <v>73030001</v>
       </c>
       <c r="D222" s="32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E222" s="32">
         <v>1</v>
@@ -34244,7 +34258,7 @@
         <v>0</v>
       </c>
       <c r="AL222" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM222" s="32">
         <v>0.1</v>
@@ -34372,7 +34386,7 @@
         <v>0</v>
       </c>
       <c r="AL223" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM223" s="18">
         <v>0.1</v>
@@ -34398,7 +34412,7 @@
         <v>73030003</v>
       </c>
       <c r="D224" s="18" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E224" s="18">
         <v>3</v>
@@ -34500,7 +34514,7 @@
         <v>0</v>
       </c>
       <c r="AL224" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM224" s="18">
         <v>0.1</v>
@@ -34526,7 +34540,7 @@
         <v>73031001</v>
       </c>
       <c r="D225" s="32" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E225" s="32">
         <v>1</v>
@@ -34628,7 +34642,7 @@
         <v>0</v>
       </c>
       <c r="AL225" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM225" s="32">
         <v>0.1</v>
@@ -34654,7 +34668,7 @@
         <v>73031002</v>
       </c>
       <c r="D226" s="32" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E226" s="32">
         <v>1</v>
@@ -34756,7 +34770,7 @@
         <v>0</v>
       </c>
       <c r="AL226" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM226" s="32">
         <v>0.1</v>
@@ -34782,7 +34796,7 @@
         <v>73031003</v>
       </c>
       <c r="D227" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E227" s="18">
         <v>3</v>
@@ -34884,7 +34898,7 @@
         <v>0</v>
       </c>
       <c r="AL227" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM227" s="18">
         <v>0.1</v>
@@ -34910,7 +34924,7 @@
         <v>73032001</v>
       </c>
       <c r="D228" s="32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E228" s="32">
         <v>1</v>
@@ -35012,7 +35026,7 @@
         <v>0</v>
       </c>
       <c r="AL228" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM228" s="32">
         <v>0.1</v>
@@ -35140,7 +35154,7 @@
         <v>0</v>
       </c>
       <c r="AL229" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM229" s="18">
         <v>0.1</v>
@@ -35166,7 +35180,7 @@
         <v>73032003</v>
       </c>
       <c r="D230" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E230" s="18">
         <v>3</v>
@@ -35268,7 +35282,7 @@
         <v>0</v>
       </c>
       <c r="AL230" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM230" s="18">
         <v>0.1</v>
@@ -35294,7 +35308,7 @@
         <v>73033001</v>
       </c>
       <c r="D231" s="18" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E231" s="18">
         <v>1</v>
@@ -35396,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="AL231" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM231" s="18">
         <v>0</v>
@@ -35422,7 +35436,7 @@
         <v>73033002</v>
       </c>
       <c r="D232" s="18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E232" s="18">
         <v>1</v>
@@ -35524,7 +35538,7 @@
         <v>0</v>
       </c>
       <c r="AL232" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM232" s="18">
         <v>0</v>
@@ -35550,7 +35564,7 @@
         <v>73033003</v>
       </c>
       <c r="D233" s="18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E233" s="18">
         <v>3</v>
@@ -35652,7 +35666,7 @@
         <v>0</v>
       </c>
       <c r="AL233" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM233" s="18">
         <v>0.1</v>
@@ -35678,7 +35692,7 @@
         <v>73034001</v>
       </c>
       <c r="D234" s="18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E234" s="18">
         <v>1</v>
@@ -35780,7 +35794,7 @@
         <v>0</v>
       </c>
       <c r="AL234" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM234" s="18">
         <v>0</v>
@@ -35806,7 +35820,7 @@
         <v>73034002</v>
       </c>
       <c r="D235" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E235" s="18">
         <v>1</v>
@@ -35908,7 +35922,7 @@
         <v>0</v>
       </c>
       <c r="AL235" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM235" s="18">
         <v>0</v>
@@ -35934,7 +35948,7 @@
         <v>73034003</v>
       </c>
       <c r="D236" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E236" s="18">
         <v>3</v>
@@ -36036,7 +36050,7 @@
         <v>0</v>
       </c>
       <c r="AL236" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM236" s="18">
         <v>0.1</v>
@@ -36062,7 +36076,7 @@
         <v>73035001</v>
       </c>
       <c r="D237" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E237" s="18">
         <v>1</v>
@@ -36164,7 +36178,7 @@
         <v>0</v>
       </c>
       <c r="AL237" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM237" s="18">
         <v>0</v>
@@ -36190,7 +36204,7 @@
         <v>73035002</v>
       </c>
       <c r="D238" s="18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E238" s="18">
         <v>1</v>
@@ -36292,7 +36306,7 @@
         <v>0</v>
       </c>
       <c r="AL238" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM238" s="18">
         <v>0</v>
@@ -36318,7 +36332,7 @@
         <v>73035003</v>
       </c>
       <c r="D239" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E239" s="18">
         <v>3</v>
@@ -36420,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="AL239" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM239" s="18">
         <v>0.1</v>
@@ -36446,7 +36460,7 @@
         <v>80000001</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E240" s="6">
         <v>5</v>
@@ -36575,7 +36589,7 @@
         <v>80000002</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E241" s="6">
         <v>5</v>
@@ -36704,7 +36718,7 @@
         <v>80000101</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E242" s="6">
         <v>5</v>
@@ -36806,7 +36820,7 @@
         <v>0</v>
       </c>
       <c r="AL242" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AM242" s="6">
         <v>0</v>
@@ -36833,7 +36847,7 @@
         <v>80000201</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E243" s="6">
         <v>5</v>
@@ -36935,7 +36949,7 @@
         <v>0</v>
       </c>
       <c r="AL243" s="28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AM243" s="6">
         <v>0</v>
@@ -36962,7 +36976,7 @@
         <v>80000301</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E244" s="6">
         <v>5</v>
@@ -37064,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="AL244" s="28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AM244" s="6">
         <v>0</v>
@@ -37091,7 +37105,7 @@
         <v>80000401</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E245" s="6">
         <v>5</v>
@@ -37193,7 +37207,7 @@
         <v>0</v>
       </c>
       <c r="AL245" s="28" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AM245" s="6">
         <v>0</v>
@@ -37220,7 +37234,7 @@
         <v>80000501</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E246" s="6">
         <v>5</v>
@@ -37322,7 +37336,7 @@
         <v>0</v>
       </c>
       <c r="AL246" s="28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AM246" s="6">
         <v>0</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722C7203-A9CC-4FB9-8F14-4C311C2FC9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D849B2-D1E1-4DDB-B9FC-50823AA6B6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -1587,9 +1587,6 @@
     <t>601000111,600010251,601100101,601300101,601100001,601100110</t>
   </si>
   <si>
-    <t>601000111,600010101,601100103,601300101,601100001,601100110</t>
-  </si>
-  <si>
     <t>601000101,600010101,601100103,601300101,601100001,601100110</t>
   </si>
   <si>
@@ -2139,6 +2136,10 @@
   </si>
   <si>
     <t>601000211,600020201,601100103,601300101,601100208,601100209,601501101,601501201</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>601000101,600010101,601100103,601300101,601100001,601100110</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -6035,10 +6036,10 @@
   <dimension ref="A1:AV246"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AK116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="N93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL126" sqref="AL126"/>
+      <selection pane="bottomRight" activeCell="R102" sqref="R102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -6990,7 +6991,7 @@
         <v>70000001</v>
       </c>
       <c r="AP9" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AQ9" s="6"/>
       <c r="AR9" s="6">
@@ -7106,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="10" t="s">
-        <v>251</v>
+        <v>427</v>
       </c>
       <c r="AM10" s="6">
         <v>0.1</v>
@@ -7234,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AM11" s="6">
         <v>0.1</v>
@@ -7362,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AM12" s="14">
         <v>0.1</v>
@@ -7490,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AM13" s="6">
         <v>0.1</v>
@@ -7618,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM14" s="6">
         <v>0.1</v>
@@ -7746,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="AL15" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AM15" s="6">
         <v>0.1</v>
@@ -8002,7 +8003,7 @@
         <v>0</v>
       </c>
       <c r="AL17" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM17" s="14">
         <v>0.1</v>
@@ -8130,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AM18" s="6">
         <v>0.5</v>
@@ -8258,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="AL19" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AM19" s="6">
         <v>0.1</v>
@@ -8386,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AM20" s="6">
         <v>0.1</v>
@@ -8514,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="AL21" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AM21" s="14">
         <v>0.1</v>
@@ -8642,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AM22" s="14">
         <v>0.1</v>
@@ -8770,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AM23" s="6">
         <v>0.1</v>
@@ -8782,7 +8783,7 @@
         <v>70000002</v>
       </c>
       <c r="AP23" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AQ23" s="6"/>
       <c r="AR23" s="6">
@@ -8898,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AM24" s="6">
         <v>0.1</v>
@@ -9026,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AM25" s="6">
         <v>0.1</v>
@@ -9154,7 +9155,7 @@
         <v>0</v>
       </c>
       <c r="AL26" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AM26" s="14">
         <v>0.1</v>
@@ -9282,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AM27" s="6">
         <v>0.5</v>
@@ -9410,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AM28" s="6">
         <v>0.1</v>
@@ -9538,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AM29" s="6">
         <v>0.1</v>
@@ -9666,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="AL30" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AM30" s="6">
         <v>0.5</v>
@@ -9794,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="AL31" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM31" s="6">
         <v>0.1</v>
@@ -9922,7 +9923,7 @@
         <v>0</v>
       </c>
       <c r="AL32" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AM32" s="6">
         <v>0.1</v>
@@ -10050,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AM33" s="6">
         <v>0</v>
@@ -10178,7 +10179,7 @@
         <v>0</v>
       </c>
       <c r="AL34" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AM34" s="6">
         <v>0.5</v>
@@ -10306,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="AL35" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AM35" s="6">
         <v>0.1</v>
@@ -10434,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AM36" s="6">
         <v>0.1</v>
@@ -10562,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AM37" s="6">
         <v>0.1</v>
@@ -10690,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="AL38" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AM38" s="6">
         <v>0.1</v>
@@ -10818,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="AL39" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AM39" s="6">
         <v>0.5</v>
@@ -10946,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM40" s="6">
         <v>0.1</v>
@@ -11074,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="AL41" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AM41" s="6">
         <v>0.1</v>
@@ -11202,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="AL42" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AM42" s="6">
         <v>0.1</v>
@@ -11330,7 +11331,7 @@
         <v>0</v>
       </c>
       <c r="AL43" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AM43" s="6">
         <v>0.1</v>
@@ -11458,7 +11459,7 @@
         <v>0</v>
       </c>
       <c r="AL44" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AM44" s="6">
         <v>0.1</v>
@@ -11586,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="AL45" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AM45" s="6">
         <v>0.1</v>
@@ -11714,7 +11715,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM46" s="6">
         <v>0.1</v>
@@ -11842,7 +11843,7 @@
         <v>0</v>
       </c>
       <c r="AL47" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AM47" s="6">
         <v>0.1</v>
@@ -11970,7 +11971,7 @@
         <v>0</v>
       </c>
       <c r="AL48" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM48" s="6">
         <v>0.1</v>
@@ -12098,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="AL49" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AM49" s="6">
         <v>0.1</v>
@@ -12226,7 +12227,7 @@
         <v>0</v>
       </c>
       <c r="AL50" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AM50" s="6">
         <v>0.1</v>
@@ -12354,7 +12355,7 @@
         <v>0</v>
       </c>
       <c r="AL51" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AM51" s="6">
         <v>0.1</v>
@@ -12482,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="AL52" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AM52" s="6">
         <v>0.1</v>
@@ -12610,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="AL53" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM53" s="6">
         <v>0.1</v>
@@ -12738,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="AL54" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AM54" s="6">
         <v>0.1</v>
@@ -12866,7 +12867,7 @@
         <v>0</v>
       </c>
       <c r="AL55" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AM55" s="6">
         <v>0.1</v>
@@ -12994,7 +12995,7 @@
         <v>0</v>
       </c>
       <c r="AL56" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AM56" s="6">
         <v>0.1</v>
@@ -13122,7 +13123,7 @@
         <v>0</v>
       </c>
       <c r="AL57" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AM57" s="6">
         <v>0.1</v>
@@ -13250,7 +13251,7 @@
         <v>0</v>
       </c>
       <c r="AL58" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AM58" s="6">
         <v>0.1</v>
@@ -13378,7 +13379,7 @@
         <v>0</v>
       </c>
       <c r="AL59" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AM59" s="6">
         <v>0.1</v>
@@ -13506,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="AL60" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AM60" s="6">
         <v>0.1</v>
@@ -13634,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="AL61" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AM61" s="6">
         <v>0.1</v>
@@ -13762,7 +13763,7 @@
         <v>0</v>
       </c>
       <c r="AL62" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM62" s="6">
         <v>0.1</v>
@@ -13890,7 +13891,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AM63" s="6">
         <v>0.1</v>
@@ -14018,7 +14019,7 @@
         <v>0</v>
       </c>
       <c r="AL64" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AM64" s="6">
         <v>0.1</v>
@@ -14146,7 +14147,7 @@
         <v>0</v>
       </c>
       <c r="AL65" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AM65" s="6">
         <v>0.1</v>
@@ -14274,7 +14275,7 @@
         <v>0</v>
       </c>
       <c r="AL66" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AM66" s="6">
         <v>0.1</v>
@@ -14402,7 +14403,7 @@
         <v>0</v>
       </c>
       <c r="AL67" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AM67" s="6">
         <v>0.1</v>
@@ -14530,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="AL68" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AM68" s="6">
         <v>0.1</v>
@@ -14658,7 +14659,7 @@
         <v>0</v>
       </c>
       <c r="AL69" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AM69" s="6">
         <v>0.1</v>
@@ -14786,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="AL70" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AM70" s="6">
         <v>0.1</v>
@@ -14914,7 +14915,7 @@
         <v>0</v>
       </c>
       <c r="AL71" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AM71" s="6">
         <v>0.1</v>
@@ -14926,7 +14927,7 @@
         <v>70000002</v>
       </c>
       <c r="AP71" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AQ71" s="6"/>
       <c r="AR71" s="6">
@@ -15042,7 +15043,7 @@
         <v>0</v>
       </c>
       <c r="AL72" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AM72" s="6">
         <v>0.1</v>
@@ -15170,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="AL73" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AM73" s="6">
         <v>0.1</v>
@@ -15298,7 +15299,7 @@
         <v>0</v>
       </c>
       <c r="AL74" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM74" s="25">
         <v>0.1</v>
@@ -15426,7 +15427,7 @@
         <v>0</v>
       </c>
       <c r="AL75" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AM75" s="25">
         <v>0.1</v>
@@ -15554,7 +15555,7 @@
         <v>0</v>
       </c>
       <c r="AL76" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AM76" s="25">
         <v>0.1</v>
@@ -15682,7 +15683,7 @@
         <v>0</v>
       </c>
       <c r="AL77" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AM77" s="6">
         <v>0.1</v>
@@ -15810,7 +15811,7 @@
         <v>0</v>
       </c>
       <c r="AL78" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AM78" s="6">
         <v>0.1</v>
@@ -15938,7 +15939,7 @@
         <v>0</v>
       </c>
       <c r="AL79" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AM79" s="6">
         <v>0.1</v>
@@ -16066,7 +16067,7 @@
         <v>0</v>
       </c>
       <c r="AL80" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AM80" s="6">
         <v>0.1</v>
@@ -17486,7 +17487,7 @@
         <v>70000002</v>
       </c>
       <c r="AP91" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AQ91" s="6"/>
       <c r="AR91" s="6">
@@ -18307,13 +18308,13 @@
         <v>2</v>
       </c>
       <c r="Q98" s="6">
-        <v>38588</v>
+        <v>57882</v>
       </c>
       <c r="R98" s="6">
-        <v>1155</v>
+        <v>1386</v>
       </c>
       <c r="S98" s="6">
-        <v>1155</v>
+        <v>1386</v>
       </c>
       <c r="T98" s="6">
         <v>347</v>
@@ -18370,7 +18371,7 @@
         <v>0</v>
       </c>
       <c r="AL98" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AM98" s="6">
         <v>0</v>
@@ -18435,13 +18436,13 @@
         <v>2</v>
       </c>
       <c r="Q99" s="6">
-        <v>38588</v>
+        <v>57882</v>
       </c>
       <c r="R99" s="6">
-        <v>1155</v>
+        <v>1386</v>
       </c>
       <c r="S99" s="6">
-        <v>1155</v>
+        <v>1386</v>
       </c>
       <c r="T99" s="6">
         <v>347</v>
@@ -18498,7 +18499,7 @@
         <v>0</v>
       </c>
       <c r="AL99" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AM99" s="6">
         <v>0</v>
@@ -18563,13 +18564,13 @@
         <v>2</v>
       </c>
       <c r="Q100" s="6">
-        <v>38588</v>
+        <v>57882</v>
       </c>
       <c r="R100" s="6">
-        <v>1155</v>
+        <v>1386</v>
       </c>
       <c r="S100" s="6">
-        <v>1155</v>
+        <v>1386</v>
       </c>
       <c r="T100" s="6">
         <v>347</v>
@@ -18626,7 +18627,7 @@
         <v>0</v>
       </c>
       <c r="AL100" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AM100" s="6">
         <v>0</v>
@@ -18691,13 +18692,13 @@
         <v>2</v>
       </c>
       <c r="Q101" s="6">
-        <v>38588</v>
+        <v>57882</v>
       </c>
       <c r="R101" s="6">
-        <v>1155</v>
+        <v>1386</v>
       </c>
       <c r="S101" s="6">
-        <v>1155</v>
+        <v>1386</v>
       </c>
       <c r="T101" s="6">
         <v>347</v>
@@ -18754,7 +18755,7 @@
         <v>0</v>
       </c>
       <c r="AL101" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AM101" s="6">
         <v>0</v>
@@ -18819,13 +18820,13 @@
         <v>1</v>
       </c>
       <c r="Q102" s="6">
-        <v>308700</v>
+        <v>463050</v>
       </c>
       <c r="R102" s="6">
-        <v>1444</v>
+        <v>1733</v>
       </c>
       <c r="S102" s="6">
-        <v>1444</v>
+        <v>1733</v>
       </c>
       <c r="T102" s="6">
         <v>433</v>
@@ -18882,7 +18883,7 @@
         <v>0</v>
       </c>
       <c r="AL102" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM102" s="6">
         <v>0.1</v>
@@ -18947,13 +18948,13 @@
         <v>1</v>
       </c>
       <c r="Q103" s="6">
-        <v>323400</v>
+        <v>485100</v>
       </c>
       <c r="R103" s="6">
-        <v>1513</v>
+        <v>1816</v>
       </c>
       <c r="S103" s="6">
-        <v>1513</v>
+        <v>1816</v>
       </c>
       <c r="T103" s="6">
         <v>454</v>
@@ -19010,7 +19011,7 @@
         <v>0</v>
       </c>
       <c r="AL103" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AM103" s="6">
         <v>0.1</v>
@@ -19075,13 +19076,13 @@
         <v>1</v>
       </c>
       <c r="Q104" s="6">
-        <v>382200</v>
+        <v>573300</v>
       </c>
       <c r="R104" s="6">
-        <v>1788</v>
+        <v>2146</v>
       </c>
       <c r="S104" s="6">
-        <v>1788</v>
+        <v>2146</v>
       </c>
       <c r="T104" s="6">
         <v>537</v>
@@ -19138,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="AL104" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM104" s="6">
         <v>0.1</v>
@@ -19203,13 +19204,13 @@
         <v>2</v>
       </c>
       <c r="Q105" s="6">
-        <v>55125</v>
+        <v>82688</v>
       </c>
       <c r="R105" s="6">
-        <v>1650</v>
+        <v>1980</v>
       </c>
       <c r="S105" s="6">
-        <v>1650</v>
+        <v>1980</v>
       </c>
       <c r="T105" s="6">
         <v>495</v>
@@ -19266,7 +19267,7 @@
         <v>0</v>
       </c>
       <c r="AL105" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AM105" s="6">
         <v>0</v>
@@ -19331,13 +19332,13 @@
         <v>2</v>
       </c>
       <c r="Q106" s="6">
-        <v>95550</v>
+        <v>143325</v>
       </c>
       <c r="R106" s="6">
-        <v>2860</v>
+        <v>3432</v>
       </c>
       <c r="S106" s="6">
-        <v>2860</v>
+        <v>3432</v>
       </c>
       <c r="T106" s="6">
         <v>858</v>
@@ -19394,7 +19395,7 @@
         <v>0</v>
       </c>
       <c r="AL106" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM106" s="6">
         <v>0</v>
@@ -19459,13 +19460,13 @@
         <v>2</v>
       </c>
       <c r="Q107" s="6">
-        <v>95550</v>
+        <v>143325</v>
       </c>
       <c r="R107" s="6">
-        <v>2860</v>
+        <v>3432</v>
       </c>
       <c r="S107" s="6">
-        <v>2860</v>
+        <v>3432</v>
       </c>
       <c r="T107" s="6">
         <v>858</v>
@@ -19522,7 +19523,7 @@
         <v>0</v>
       </c>
       <c r="AL107" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AM107" s="6">
         <v>0</v>
@@ -19587,13 +19588,13 @@
         <v>2</v>
       </c>
       <c r="Q108" s="6">
-        <v>95550</v>
+        <v>143325</v>
       </c>
       <c r="R108" s="6">
-        <v>2860</v>
+        <v>3432</v>
       </c>
       <c r="S108" s="6">
-        <v>2860</v>
+        <v>3432</v>
       </c>
       <c r="T108" s="6">
         <v>858</v>
@@ -19650,7 +19651,7 @@
         <v>0</v>
       </c>
       <c r="AL108" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AM108" s="6">
         <v>0</v>
@@ -19715,13 +19716,13 @@
         <v>2</v>
       </c>
       <c r="Q109" s="6">
-        <v>95550</v>
+        <v>143325</v>
       </c>
       <c r="R109" s="6">
-        <v>2860</v>
+        <v>3432</v>
       </c>
       <c r="S109" s="6">
-        <v>2860</v>
+        <v>3432</v>
       </c>
       <c r="T109" s="6">
         <v>858</v>
@@ -19778,7 +19779,7 @@
         <v>0</v>
       </c>
       <c r="AL109" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AM109" s="6">
         <v>0</v>
@@ -19843,13 +19844,13 @@
         <v>1</v>
       </c>
       <c r="Q110" s="6">
-        <v>793800</v>
+        <v>1190700</v>
       </c>
       <c r="R110" s="6">
-        <v>3713</v>
+        <v>4456</v>
       </c>
       <c r="S110" s="6">
-        <v>3713</v>
+        <v>4456</v>
       </c>
       <c r="T110" s="6">
         <v>1114</v>
@@ -19906,7 +19907,7 @@
         <v>0</v>
       </c>
       <c r="AL110" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AM110" s="6">
         <v>0.1</v>
@@ -19971,13 +19972,13 @@
         <v>1</v>
       </c>
       <c r="Q111" s="6">
-        <v>823200</v>
+        <v>1234800</v>
       </c>
       <c r="R111" s="6">
-        <v>3850</v>
+        <v>4620</v>
       </c>
       <c r="S111" s="6">
-        <v>3850</v>
+        <v>4620</v>
       </c>
       <c r="T111" s="6">
         <v>1155</v>
@@ -20034,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="AL111" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AM111" s="6">
         <v>0.1</v>
@@ -20099,13 +20100,13 @@
         <v>1</v>
       </c>
       <c r="Q112" s="6">
-        <v>852600</v>
+        <v>1278900</v>
       </c>
       <c r="R112" s="6">
-        <v>3988</v>
+        <v>4786</v>
       </c>
       <c r="S112" s="6">
-        <v>3988</v>
+        <v>4786</v>
       </c>
       <c r="T112" s="6">
         <v>1197</v>
@@ -20162,7 +20163,7 @@
         <v>0</v>
       </c>
       <c r="AL112" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AM112" s="6">
         <v>0.1</v>
@@ -20227,13 +20228,13 @@
         <v>2</v>
       </c>
       <c r="Q113" s="6">
-        <v>147000</v>
+        <v>220500</v>
       </c>
       <c r="R113" s="6">
-        <v>4400</v>
+        <v>5280</v>
       </c>
       <c r="S113" s="6">
-        <v>4400</v>
+        <v>5280</v>
       </c>
       <c r="T113" s="6">
         <v>1320</v>
@@ -20290,7 +20291,7 @@
         <v>0</v>
       </c>
       <c r="AL113" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AM113" s="6">
         <v>0</v>
@@ -20355,13 +20356,13 @@
         <v>2</v>
       </c>
       <c r="Q114" s="6">
-        <v>147000</v>
+        <v>220500</v>
       </c>
       <c r="R114" s="6">
-        <v>4400</v>
+        <v>5280</v>
       </c>
       <c r="S114" s="6">
-        <v>4400</v>
+        <v>5280</v>
       </c>
       <c r="T114" s="6">
         <v>1320</v>
@@ -20418,7 +20419,7 @@
         <v>0</v>
       </c>
       <c r="AL114" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AM114" s="6">
         <v>0</v>
@@ -20483,13 +20484,13 @@
         <v>2</v>
       </c>
       <c r="Q115" s="6">
-        <v>147000</v>
+        <v>220500</v>
       </c>
       <c r="R115" s="6">
-        <v>4400</v>
+        <v>5280</v>
       </c>
       <c r="S115" s="6">
-        <v>4400</v>
+        <v>5280</v>
       </c>
       <c r="T115" s="6">
         <v>1320</v>
@@ -20546,7 +20547,7 @@
         <v>0</v>
       </c>
       <c r="AL115" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AM115" s="6">
         <v>0</v>
@@ -20611,13 +20612,13 @@
         <v>2</v>
       </c>
       <c r="Q116" s="6">
-        <v>147000</v>
+        <v>220500</v>
       </c>
       <c r="R116" s="6">
-        <v>4400</v>
+        <v>5280</v>
       </c>
       <c r="S116" s="6">
-        <v>4400</v>
+        <v>5280</v>
       </c>
       <c r="T116" s="6">
         <v>1320</v>
@@ -20674,7 +20675,7 @@
         <v>0</v>
       </c>
       <c r="AL116" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AM116" s="6">
         <v>0</v>
@@ -20739,13 +20740,13 @@
         <v>2</v>
       </c>
       <c r="Q117" s="6">
-        <v>147000</v>
+        <v>220500</v>
       </c>
       <c r="R117" s="6">
-        <v>4400</v>
+        <v>5280</v>
       </c>
       <c r="S117" s="6">
-        <v>4400</v>
+        <v>5280</v>
       </c>
       <c r="T117" s="6">
         <v>1320</v>
@@ -20802,7 +20803,7 @@
         <v>0</v>
       </c>
       <c r="AL117" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AM117" s="6">
         <v>0</v>
@@ -20867,13 +20868,13 @@
         <v>1</v>
       </c>
       <c r="Q118" s="6">
-        <v>1205400</v>
+        <v>1808100</v>
       </c>
       <c r="R118" s="6">
-        <v>5638</v>
+        <v>6766</v>
       </c>
       <c r="S118" s="6">
-        <v>5638</v>
+        <v>6766</v>
       </c>
       <c r="T118" s="6">
         <v>1692</v>
@@ -20930,7 +20931,7 @@
         <v>0</v>
       </c>
       <c r="AL118" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AM118" s="6">
         <v>0.1</v>
@@ -20995,13 +20996,13 @@
         <v>1</v>
       </c>
       <c r="Q119" s="6">
-        <v>1234800</v>
+        <v>1852200</v>
       </c>
       <c r="R119" s="6">
-        <v>5775</v>
+        <v>6930</v>
       </c>
       <c r="S119" s="6">
-        <v>5775</v>
+        <v>6930</v>
       </c>
       <c r="T119" s="6">
         <v>1733</v>
@@ -21058,7 +21059,7 @@
         <v>0</v>
       </c>
       <c r="AL119" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AM119" s="6">
         <v>0.1</v>
@@ -21123,13 +21124,13 @@
         <v>1</v>
       </c>
       <c r="Q120" s="6">
-        <v>1264200</v>
+        <v>1896300</v>
       </c>
       <c r="R120" s="6">
-        <v>5913</v>
+        <v>7096</v>
       </c>
       <c r="S120" s="6">
-        <v>5913</v>
+        <v>7096</v>
       </c>
       <c r="T120" s="6">
         <v>1774</v>
@@ -21186,7 +21187,7 @@
         <v>0</v>
       </c>
       <c r="AL120" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AM120" s="6">
         <v>0.1</v>
@@ -21251,13 +21252,13 @@
         <v>2</v>
       </c>
       <c r="Q121" s="6">
-        <v>198450</v>
+        <v>297675</v>
       </c>
       <c r="R121" s="6">
-        <v>5940</v>
+        <v>7128</v>
       </c>
       <c r="S121" s="6">
-        <v>5940</v>
+        <v>7128</v>
       </c>
       <c r="T121" s="6">
         <v>1782</v>
@@ -21314,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="AL121" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AM121" s="6">
         <v>0</v>
@@ -21379,13 +21380,13 @@
         <v>2</v>
       </c>
       <c r="Q122" s="6">
-        <v>198450</v>
+        <v>297675</v>
       </c>
       <c r="R122" s="6">
-        <v>5940</v>
+        <v>7128</v>
       </c>
       <c r="S122" s="6">
-        <v>5940</v>
+        <v>7128</v>
       </c>
       <c r="T122" s="6">
         <v>1782</v>
@@ -21442,7 +21443,7 @@
         <v>0</v>
       </c>
       <c r="AL122" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AM122" s="6">
         <v>0</v>
@@ -21507,13 +21508,13 @@
         <v>2</v>
       </c>
       <c r="Q123" s="6">
-        <v>198450</v>
+        <v>297675</v>
       </c>
       <c r="R123" s="6">
-        <v>5940</v>
+        <v>7128</v>
       </c>
       <c r="S123" s="6">
-        <v>5940</v>
+        <v>7128</v>
       </c>
       <c r="T123" s="6">
         <v>1782</v>
@@ -21570,7 +21571,7 @@
         <v>0</v>
       </c>
       <c r="AL123" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AM123" s="6">
         <v>0</v>
@@ -21635,13 +21636,13 @@
         <v>2</v>
       </c>
       <c r="Q124" s="6">
-        <v>198450</v>
+        <v>297675</v>
       </c>
       <c r="R124" s="6">
-        <v>5940</v>
+        <v>7128</v>
       </c>
       <c r="S124" s="6">
-        <v>5940</v>
+        <v>7128</v>
       </c>
       <c r="T124" s="6">
         <v>1782</v>
@@ -21698,7 +21699,7 @@
         <v>0</v>
       </c>
       <c r="AL124" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AM124" s="6">
         <v>0</v>
@@ -21763,13 +21764,13 @@
         <v>1</v>
       </c>
       <c r="Q125" s="6">
-        <v>1617000</v>
+        <v>2425500</v>
       </c>
       <c r="R125" s="6">
-        <v>7563</v>
+        <v>9076</v>
       </c>
       <c r="S125" s="6">
-        <v>7563</v>
+        <v>9076</v>
       </c>
       <c r="T125" s="6">
         <v>2269</v>
@@ -21826,7 +21827,7 @@
         <v>0</v>
       </c>
       <c r="AL125" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AM125" s="6">
         <v>0.1</v>
@@ -21891,13 +21892,13 @@
         <v>1</v>
       </c>
       <c r="Q126" s="6">
-        <v>1646400</v>
+        <v>2469600</v>
       </c>
       <c r="R126" s="6">
-        <v>7700</v>
+        <v>9240</v>
       </c>
       <c r="S126" s="6">
-        <v>7700</v>
+        <v>9240</v>
       </c>
       <c r="T126" s="6">
         <v>2310</v>
@@ -21954,7 +21955,7 @@
         <v>0</v>
       </c>
       <c r="AL126" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AM126" s="6">
         <v>0.1</v>
@@ -22019,13 +22020,13 @@
         <v>1</v>
       </c>
       <c r="Q127" s="6">
-        <v>1675800</v>
+        <v>2513700</v>
       </c>
       <c r="R127" s="6">
-        <v>7838</v>
+        <v>9406</v>
       </c>
       <c r="S127" s="6">
-        <v>7838</v>
+        <v>9406</v>
       </c>
       <c r="T127" s="6">
         <v>2352</v>
@@ -22082,7 +22083,7 @@
         <v>0</v>
       </c>
       <c r="AL127" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AM127" s="6">
         <v>0.1</v>
@@ -22094,7 +22095,7 @@
         <v>70000002</v>
       </c>
       <c r="AP127" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AQ127" s="6"/>
       <c r="AR127" s="6">
@@ -23532,7 +23533,7 @@
         <v>73001001</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E139" s="18">
         <v>1</v>
@@ -23634,7 +23635,7 @@
         <v>0</v>
       </c>
       <c r="AL139" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM139" s="18">
         <v>0.1</v>
@@ -23660,7 +23661,7 @@
         <v>73002001</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E140" s="18">
         <v>1</v>
@@ -23762,7 +23763,7 @@
         <v>0</v>
       </c>
       <c r="AL140" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM140" s="18">
         <v>0.1</v>
@@ -23788,7 +23789,7 @@
         <v>73002002</v>
       </c>
       <c r="D141" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E141" s="29">
         <v>1</v>
@@ -23890,7 +23891,7 @@
         <v>0</v>
       </c>
       <c r="AL141" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM141" s="29">
         <v>0.1</v>
@@ -23916,7 +23917,7 @@
         <v>73003001</v>
       </c>
       <c r="D142" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E142" s="18">
         <v>1</v>
@@ -24018,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="AL142" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM142" s="18">
         <v>0.1</v>
@@ -24044,7 +24045,7 @@
         <v>73003002</v>
       </c>
       <c r="D143" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E143" s="18">
         <v>3</v>
@@ -24146,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="AL143" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM143" s="18">
         <v>0.5</v>
@@ -24172,7 +24173,7 @@
         <v>73004001</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E144" s="18">
         <v>1</v>
@@ -24274,7 +24275,7 @@
         <v>0</v>
       </c>
       <c r="AL144" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM144" s="18">
         <v>0.1</v>
@@ -24300,7 +24301,7 @@
         <v>73004002</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E145" s="18">
         <v>1</v>
@@ -24402,7 +24403,7 @@
         <v>0</v>
       </c>
       <c r="AL145" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM145" s="18">
         <v>0.1</v>
@@ -24428,7 +24429,7 @@
         <v>73004003</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E146" s="18">
         <v>3</v>
@@ -24530,7 +24531,7 @@
         <v>0</v>
       </c>
       <c r="AL146" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM146" s="18">
         <v>0.1</v>
@@ -24556,7 +24557,7 @@
         <v>73005001</v>
       </c>
       <c r="D147" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E147" s="29">
         <v>1</v>
@@ -24658,7 +24659,7 @@
         <v>0</v>
       </c>
       <c r="AL147" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM147" s="29">
         <v>0.1</v>
@@ -24684,7 +24685,7 @@
         <v>73005002</v>
       </c>
       <c r="D148" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E148" s="18">
         <v>1</v>
@@ -24786,7 +24787,7 @@
         <v>0</v>
       </c>
       <c r="AL148" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM148" s="18">
         <v>0.1</v>
@@ -24812,7 +24813,7 @@
         <v>73005003</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E149" s="18">
         <v>3</v>
@@ -24914,7 +24915,7 @@
         <v>0</v>
       </c>
       <c r="AL149" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM149" s="18">
         <v>0.5</v>
@@ -24940,7 +24941,7 @@
         <v>73006001</v>
       </c>
       <c r="D150" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E150" s="18">
         <v>1</v>
@@ -25042,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="AL150" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM150" s="18">
         <v>0.1</v>
@@ -25068,7 +25069,7 @@
         <v>73006002</v>
       </c>
       <c r="D151" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E151" s="18">
         <v>1</v>
@@ -25170,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="AL151" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM151" s="18">
         <v>0.1</v>
@@ -25298,7 +25299,7 @@
         <v>0</v>
       </c>
       <c r="AL152" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM152" s="18">
         <v>0.1</v>
@@ -25324,7 +25325,7 @@
         <v>73007001</v>
       </c>
       <c r="D153" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E153" s="29">
         <v>1</v>
@@ -25426,7 +25427,7 @@
         <v>0</v>
       </c>
       <c r="AL153" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM153" s="29">
         <v>0.1</v>
@@ -25452,7 +25453,7 @@
         <v>73007002</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E154" s="18">
         <v>1</v>
@@ -25554,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="AL154" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM154" s="18">
         <v>0.1</v>
@@ -25580,7 +25581,7 @@
         <v>73007003</v>
       </c>
       <c r="D155" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E155" s="18">
         <v>3</v>
@@ -25682,7 +25683,7 @@
         <v>0</v>
       </c>
       <c r="AL155" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM155" s="18">
         <v>0.5</v>
@@ -25708,7 +25709,7 @@
         <v>73008001</v>
       </c>
       <c r="D156" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E156" s="18">
         <v>1</v>
@@ -25810,7 +25811,7 @@
         <v>0</v>
       </c>
       <c r="AL156" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM156" s="18">
         <v>0.1</v>
@@ -25836,7 +25837,7 @@
         <v>73008002</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E157" s="18">
         <v>1</v>
@@ -25938,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="AL157" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM157" s="18">
         <v>0.1</v>
@@ -25964,7 +25965,7 @@
         <v>73008003</v>
       </c>
       <c r="D158" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E158" s="18">
         <v>3</v>
@@ -26066,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="AL158" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM158" s="18">
         <v>0.5</v>
@@ -26092,7 +26093,7 @@
         <v>73009001</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E159" s="18">
         <v>1</v>
@@ -26194,7 +26195,7 @@
         <v>0</v>
       </c>
       <c r="AL159" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM159" s="18">
         <v>0.1</v>
@@ -26220,7 +26221,7 @@
         <v>73009002</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E160" s="18">
         <v>1</v>
@@ -26322,7 +26323,7 @@
         <v>0</v>
       </c>
       <c r="AL160" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM160" s="18">
         <v>0.1</v>
@@ -26348,7 +26349,7 @@
         <v>73009003</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E161" s="18">
         <v>3</v>
@@ -26450,7 +26451,7 @@
         <v>0</v>
       </c>
       <c r="AL161" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM161" s="18">
         <v>0.5</v>
@@ -26476,7 +26477,7 @@
         <v>73010001</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E162" s="18">
         <v>1</v>
@@ -26578,7 +26579,7 @@
         <v>0</v>
       </c>
       <c r="AL162" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM162" s="18">
         <v>0.1</v>
@@ -26706,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="AL163" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM163" s="18">
         <v>0.1</v>
@@ -26834,7 +26835,7 @@
         <v>0</v>
       </c>
       <c r="AL164" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM164" s="18">
         <v>0.5</v>
@@ -26860,7 +26861,7 @@
         <v>73011001</v>
       </c>
       <c r="D165" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E165" s="18">
         <v>1</v>
@@ -26962,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="AL165" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM165" s="18">
         <v>0</v>
@@ -26988,7 +26989,7 @@
         <v>73011002</v>
       </c>
       <c r="D166" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E166" s="18">
         <v>1</v>
@@ -27090,7 +27091,7 @@
         <v>0</v>
       </c>
       <c r="AL166" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM166" s="18">
         <v>0</v>
@@ -27116,7 +27117,7 @@
         <v>73011003</v>
       </c>
       <c r="D167" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E167" s="18">
         <v>3</v>
@@ -27218,7 +27219,7 @@
         <v>0</v>
       </c>
       <c r="AL167" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM167" s="18">
         <v>0.1</v>
@@ -27244,7 +27245,7 @@
         <v>73012001</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E168" s="18">
         <v>1</v>
@@ -27346,7 +27347,7 @@
         <v>0</v>
       </c>
       <c r="AL168" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM168" s="18">
         <v>0</v>
@@ -27372,7 +27373,7 @@
         <v>73012002</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E169" s="18">
         <v>1</v>
@@ -27474,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="AL169" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM169" s="18">
         <v>0</v>
@@ -27500,7 +27501,7 @@
         <v>73012003</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E170" s="18">
         <v>3</v>
@@ -27602,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="AL170" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM170" s="18">
         <v>0.1</v>
@@ -27628,7 +27629,7 @@
         <v>73013001</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E171" s="18">
         <v>1</v>
@@ -27730,7 +27731,7 @@
         <v>0</v>
       </c>
       <c r="AL171" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM171" s="18">
         <v>0</v>
@@ -27756,7 +27757,7 @@
         <v>73013002</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E172" s="18">
         <v>1</v>
@@ -27858,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="AL172" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM172" s="18">
         <v>0</v>
@@ -27884,7 +27885,7 @@
         <v>73013003</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E173" s="18">
         <v>3</v>
@@ -27986,7 +27987,7 @@
         <v>0</v>
       </c>
       <c r="AL173" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM173" s="18">
         <v>0.1</v>
@@ -28012,7 +28013,7 @@
         <v>73014001</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E174" s="18">
         <v>1</v>
@@ -28114,7 +28115,7 @@
         <v>0</v>
       </c>
       <c r="AL174" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM174" s="18">
         <v>0.1</v>
@@ -28140,7 +28141,7 @@
         <v>73014002</v>
       </c>
       <c r="D175" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E175" s="18">
         <v>1</v>
@@ -28242,7 +28243,7 @@
         <v>0</v>
       </c>
       <c r="AL175" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM175" s="18">
         <v>0.1</v>
@@ -28268,7 +28269,7 @@
         <v>73014003</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E176" s="18">
         <v>3</v>
@@ -28370,7 +28371,7 @@
         <v>0</v>
       </c>
       <c r="AL176" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM176" s="18">
         <v>0.1</v>
@@ -28396,7 +28397,7 @@
         <v>73015001</v>
       </c>
       <c r="D177" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E177" s="18">
         <v>1</v>
@@ -28498,7 +28499,7 @@
         <v>0</v>
       </c>
       <c r="AL177" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM177" s="18">
         <v>0.1</v>
@@ -28524,7 +28525,7 @@
         <v>73015002</v>
       </c>
       <c r="D178" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E178" s="18">
         <v>1</v>
@@ -28626,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="AL178" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM178" s="18">
         <v>0.1</v>
@@ -28652,7 +28653,7 @@
         <v>73015003</v>
       </c>
       <c r="D179" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E179" s="18">
         <v>3</v>
@@ -28754,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="AL179" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM179" s="18">
         <v>0.1</v>
@@ -28780,7 +28781,7 @@
         <v>73016001</v>
       </c>
       <c r="D180" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E180" s="18">
         <v>1</v>
@@ -28882,7 +28883,7 @@
         <v>0</v>
       </c>
       <c r="AL180" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM180" s="18">
         <v>0.1</v>
@@ -28908,7 +28909,7 @@
         <v>73016002</v>
       </c>
       <c r="D181" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E181" s="18">
         <v>1</v>
@@ -29010,7 +29011,7 @@
         <v>0</v>
       </c>
       <c r="AL181" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM181" s="18">
         <v>0.1</v>
@@ -29036,7 +29037,7 @@
         <v>73016003</v>
       </c>
       <c r="D182" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E182" s="18">
         <v>3</v>
@@ -29138,7 +29139,7 @@
         <v>0</v>
       </c>
       <c r="AL182" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM182" s="18">
         <v>0.1</v>
@@ -29164,7 +29165,7 @@
         <v>73017001</v>
       </c>
       <c r="D183" s="18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E183" s="18">
         <v>1</v>
@@ -29254,7 +29255,7 @@
         <v>1000</v>
       </c>
       <c r="AH183" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AI183" s="18">
         <v>0</v>
@@ -29266,7 +29267,7 @@
         <v>0</v>
       </c>
       <c r="AL183" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM183" s="18">
         <v>0.1</v>
@@ -29292,7 +29293,7 @@
         <v>73017002</v>
       </c>
       <c r="D184" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E184" s="18">
         <v>1</v>
@@ -29394,7 +29395,7 @@
         <v>0</v>
       </c>
       <c r="AL184" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM184" s="18">
         <v>0.1</v>
@@ -29420,7 +29421,7 @@
         <v>73017003</v>
       </c>
       <c r="D185" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E185" s="18">
         <v>3</v>
@@ -29522,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="AL185" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM185" s="18">
         <v>0.1</v>
@@ -29548,7 +29549,7 @@
         <v>73018001</v>
       </c>
       <c r="D186" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E186" s="18">
         <v>1</v>
@@ -29650,7 +29651,7 @@
         <v>0</v>
       </c>
       <c r="AL186" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM186" s="18">
         <v>0</v>
@@ -29676,7 +29677,7 @@
         <v>73018002</v>
       </c>
       <c r="D187" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E187" s="18">
         <v>1</v>
@@ -29778,7 +29779,7 @@
         <v>0</v>
       </c>
       <c r="AL187" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM187" s="18">
         <v>0</v>
@@ -29804,7 +29805,7 @@
         <v>73018003</v>
       </c>
       <c r="D188" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E188" s="18">
         <v>3</v>
@@ -29906,7 +29907,7 @@
         <v>0</v>
       </c>
       <c r="AL188" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM188" s="18">
         <v>0.1</v>
@@ -29932,7 +29933,7 @@
         <v>73019001</v>
       </c>
       <c r="D189" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E189" s="18">
         <v>1</v>
@@ -30034,7 +30035,7 @@
         <v>0</v>
       </c>
       <c r="AL189" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM189" s="18">
         <v>0</v>
@@ -30060,7 +30061,7 @@
         <v>73019002</v>
       </c>
       <c r="D190" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E190" s="18">
         <v>1</v>
@@ -30162,7 +30163,7 @@
         <v>0</v>
       </c>
       <c r="AL190" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM190" s="18">
         <v>0</v>
@@ -30188,7 +30189,7 @@
         <v>73019003</v>
       </c>
       <c r="D191" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E191" s="18">
         <v>3</v>
@@ -30290,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="AL191" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM191" s="18">
         <v>0.1</v>
@@ -30316,7 +30317,7 @@
         <v>73020001</v>
       </c>
       <c r="D192" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E192" s="18">
         <v>1</v>
@@ -30418,7 +30419,7 @@
         <v>0</v>
       </c>
       <c r="AL192" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM192" s="18">
         <v>0</v>
@@ -30444,7 +30445,7 @@
         <v>73020002</v>
       </c>
       <c r="D193" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E193" s="18">
         <v>1</v>
@@ -30546,7 +30547,7 @@
         <v>0</v>
       </c>
       <c r="AL193" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM193" s="18">
         <v>0</v>
@@ -30572,7 +30573,7 @@
         <v>73020003</v>
       </c>
       <c r="D194" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E194" s="18">
         <v>3</v>
@@ -30674,7 +30675,7 @@
         <v>0</v>
       </c>
       <c r="AL194" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM194" s="18">
         <v>0.1</v>
@@ -30700,7 +30701,7 @@
         <v>73021001</v>
       </c>
       <c r="D195" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E195" s="18">
         <v>1</v>
@@ -30802,7 +30803,7 @@
         <v>0</v>
       </c>
       <c r="AL195" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM195" s="18">
         <v>0.1</v>
@@ -30828,7 +30829,7 @@
         <v>73021002</v>
       </c>
       <c r="D196" s="18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E196" s="18">
         <v>1</v>
@@ -30930,7 +30931,7 @@
         <v>0</v>
       </c>
       <c r="AL196" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM196" s="18">
         <v>0.1</v>
@@ -30956,7 +30957,7 @@
         <v>73021003</v>
       </c>
       <c r="D197" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E197" s="18">
         <v>3</v>
@@ -31058,7 +31059,7 @@
         <v>0</v>
       </c>
       <c r="AL197" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM197" s="18">
         <v>0.1</v>
@@ -31084,7 +31085,7 @@
         <v>73022001</v>
       </c>
       <c r="D198" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E198" s="18">
         <v>1</v>
@@ -31186,7 +31187,7 @@
         <v>0</v>
       </c>
       <c r="AL198" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM198" s="18">
         <v>0.1</v>
@@ -31212,7 +31213,7 @@
         <v>73022002</v>
       </c>
       <c r="D199" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E199" s="18">
         <v>1</v>
@@ -31314,7 +31315,7 @@
         <v>0</v>
       </c>
       <c r="AL199" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM199" s="18">
         <v>0.1</v>
@@ -31340,7 +31341,7 @@
         <v>73022003</v>
       </c>
       <c r="D200" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E200" s="18">
         <v>3</v>
@@ -31442,7 +31443,7 @@
         <v>0</v>
       </c>
       <c r="AL200" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM200" s="18">
         <v>0.1</v>
@@ -31570,7 +31571,7 @@
         <v>0</v>
       </c>
       <c r="AL201" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM201" s="18">
         <v>0.1</v>
@@ -31596,7 +31597,7 @@
         <v>73023002</v>
       </c>
       <c r="D202" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E202" s="18">
         <v>1</v>
@@ -31698,7 +31699,7 @@
         <v>0</v>
       </c>
       <c r="AL202" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM202" s="18">
         <v>0.1</v>
@@ -31724,7 +31725,7 @@
         <v>73023003</v>
       </c>
       <c r="D203" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E203" s="18">
         <v>3</v>
@@ -31826,7 +31827,7 @@
         <v>0</v>
       </c>
       <c r="AL203" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM203" s="18">
         <v>0.1</v>
@@ -31852,7 +31853,7 @@
         <v>73024001</v>
       </c>
       <c r="D204" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E204" s="18">
         <v>1</v>
@@ -31954,7 +31955,7 @@
         <v>0</v>
       </c>
       <c r="AL204" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM204" s="18">
         <v>0.1</v>
@@ -31980,7 +31981,7 @@
         <v>73024002</v>
       </c>
       <c r="D205" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E205" s="18">
         <v>1</v>
@@ -32082,7 +32083,7 @@
         <v>0</v>
       </c>
       <c r="AL205" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM205" s="18">
         <v>0.1</v>
@@ -32108,7 +32109,7 @@
         <v>73024003</v>
       </c>
       <c r="D206" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E206" s="18">
         <v>3</v>
@@ -32210,7 +32211,7 @@
         <v>0</v>
       </c>
       <c r="AL206" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM206" s="18">
         <v>0.1</v>
@@ -32236,7 +32237,7 @@
         <v>73025001</v>
       </c>
       <c r="D207" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E207" s="18">
         <v>1</v>
@@ -32338,7 +32339,7 @@
         <v>0</v>
       </c>
       <c r="AL207" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM207" s="18">
         <v>0</v>
@@ -32364,7 +32365,7 @@
         <v>73025002</v>
       </c>
       <c r="D208" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E208" s="18">
         <v>1</v>
@@ -32466,7 +32467,7 @@
         <v>0</v>
       </c>
       <c r="AL208" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM208" s="18">
         <v>0</v>
@@ -32492,7 +32493,7 @@
         <v>73025003</v>
       </c>
       <c r="D209" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E209" s="18">
         <v>3</v>
@@ -32594,7 +32595,7 @@
         <v>0</v>
       </c>
       <c r="AL209" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM209" s="18">
         <v>0.1</v>
@@ -32620,7 +32621,7 @@
         <v>73026001</v>
       </c>
       <c r="D210" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E210" s="18">
         <v>1</v>
@@ -32722,7 +32723,7 @@
         <v>0</v>
       </c>
       <c r="AL210" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM210" s="18">
         <v>0</v>
@@ -32748,7 +32749,7 @@
         <v>73026002</v>
       </c>
       <c r="D211" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E211" s="18">
         <v>1</v>
@@ -32850,7 +32851,7 @@
         <v>0</v>
       </c>
       <c r="AL211" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM211" s="18">
         <v>0</v>
@@ -32876,7 +32877,7 @@
         <v>73026003</v>
       </c>
       <c r="D212" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E212" s="18">
         <v>3</v>
@@ -32978,7 +32979,7 @@
         <v>0</v>
       </c>
       <c r="AL212" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM212" s="18">
         <v>0.1</v>
@@ -33004,7 +33005,7 @@
         <v>73027001</v>
       </c>
       <c r="D213" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E213" s="18">
         <v>1</v>
@@ -33106,7 +33107,7 @@
         <v>0</v>
       </c>
       <c r="AL213" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM213" s="18">
         <v>0</v>
@@ -33132,7 +33133,7 @@
         <v>73027002</v>
       </c>
       <c r="D214" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E214" s="18">
         <v>1</v>
@@ -33234,7 +33235,7 @@
         <v>0</v>
       </c>
       <c r="AL214" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM214" s="18">
         <v>0</v>
@@ -33260,7 +33261,7 @@
         <v>73027003</v>
       </c>
       <c r="D215" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E215" s="18">
         <v>3</v>
@@ -33362,7 +33363,7 @@
         <v>0</v>
       </c>
       <c r="AL215" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM215" s="18">
         <v>0.1</v>
@@ -33388,7 +33389,7 @@
         <v>73028001</v>
       </c>
       <c r="D216" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E216" s="18">
         <v>1</v>
@@ -33490,7 +33491,7 @@
         <v>0</v>
       </c>
       <c r="AL216" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM216" s="18">
         <v>0.1</v>
@@ -33516,7 +33517,7 @@
         <v>73028002</v>
       </c>
       <c r="D217" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E217" s="18">
         <v>1</v>
@@ -33618,7 +33619,7 @@
         <v>0</v>
       </c>
       <c r="AL217" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM217" s="18">
         <v>0.1</v>
@@ -33644,7 +33645,7 @@
         <v>73028003</v>
       </c>
       <c r="D218" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E218" s="18">
         <v>3</v>
@@ -33746,7 +33747,7 @@
         <v>0</v>
       </c>
       <c r="AL218" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM218" s="18">
         <v>0.1</v>
@@ -33874,7 +33875,7 @@
         <v>0</v>
       </c>
       <c r="AL219" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM219" s="18">
         <v>0.1</v>
@@ -33900,7 +33901,7 @@
         <v>73029002</v>
       </c>
       <c r="D220" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E220" s="32">
         <v>1</v>
@@ -34002,7 +34003,7 @@
         <v>0</v>
       </c>
       <c r="AL220" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM220" s="32">
         <v>0.1</v>
@@ -34028,7 +34029,7 @@
         <v>73029003</v>
       </c>
       <c r="D221" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E221" s="18">
         <v>3</v>
@@ -34130,7 +34131,7 @@
         <v>0</v>
       </c>
       <c r="AL221" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM221" s="18">
         <v>0.1</v>
@@ -34156,7 +34157,7 @@
         <v>73030001</v>
       </c>
       <c r="D222" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E222" s="32">
         <v>1</v>
@@ -34258,7 +34259,7 @@
         <v>0</v>
       </c>
       <c r="AL222" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM222" s="32">
         <v>0.1</v>
@@ -34386,7 +34387,7 @@
         <v>0</v>
       </c>
       <c r="AL223" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM223" s="18">
         <v>0.1</v>
@@ -34412,7 +34413,7 @@
         <v>73030003</v>
       </c>
       <c r="D224" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E224" s="18">
         <v>3</v>
@@ -34514,7 +34515,7 @@
         <v>0</v>
       </c>
       <c r="AL224" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM224" s="18">
         <v>0.1</v>
@@ -34540,7 +34541,7 @@
         <v>73031001</v>
       </c>
       <c r="D225" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E225" s="32">
         <v>1</v>
@@ -34642,7 +34643,7 @@
         <v>0</v>
       </c>
       <c r="AL225" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM225" s="32">
         <v>0.1</v>
@@ -34668,7 +34669,7 @@
         <v>73031002</v>
       </c>
       <c r="D226" s="32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E226" s="32">
         <v>1</v>
@@ -34770,7 +34771,7 @@
         <v>0</v>
       </c>
       <c r="AL226" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM226" s="32">
         <v>0.1</v>
@@ -34796,7 +34797,7 @@
         <v>73031003</v>
       </c>
       <c r="D227" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E227" s="18">
         <v>3</v>
@@ -34898,7 +34899,7 @@
         <v>0</v>
       </c>
       <c r="AL227" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM227" s="18">
         <v>0.1</v>
@@ -34924,7 +34925,7 @@
         <v>73032001</v>
       </c>
       <c r="D228" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E228" s="32">
         <v>1</v>
@@ -35026,7 +35027,7 @@
         <v>0</v>
       </c>
       <c r="AL228" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM228" s="32">
         <v>0.1</v>
@@ -35154,7 +35155,7 @@
         <v>0</v>
       </c>
       <c r="AL229" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM229" s="18">
         <v>0.1</v>
@@ -35180,7 +35181,7 @@
         <v>73032003</v>
       </c>
       <c r="D230" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E230" s="18">
         <v>3</v>
@@ -35282,7 +35283,7 @@
         <v>0</v>
       </c>
       <c r="AL230" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM230" s="18">
         <v>0.1</v>
@@ -35308,7 +35309,7 @@
         <v>73033001</v>
       </c>
       <c r="D231" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E231" s="18">
         <v>1</v>
@@ -35410,7 +35411,7 @@
         <v>0</v>
       </c>
       <c r="AL231" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM231" s="18">
         <v>0</v>
@@ -35436,7 +35437,7 @@
         <v>73033002</v>
       </c>
       <c r="D232" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E232" s="18">
         <v>1</v>
@@ -35538,7 +35539,7 @@
         <v>0</v>
       </c>
       <c r="AL232" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM232" s="18">
         <v>0</v>
@@ -35564,7 +35565,7 @@
         <v>73033003</v>
       </c>
       <c r="D233" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E233" s="18">
         <v>3</v>
@@ -35666,7 +35667,7 @@
         <v>0</v>
       </c>
       <c r="AL233" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM233" s="18">
         <v>0.1</v>
@@ -35692,7 +35693,7 @@
         <v>73034001</v>
       </c>
       <c r="D234" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E234" s="18">
         <v>1</v>
@@ -35794,7 +35795,7 @@
         <v>0</v>
       </c>
       <c r="AL234" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM234" s="18">
         <v>0</v>
@@ -35820,7 +35821,7 @@
         <v>73034002</v>
       </c>
       <c r="D235" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E235" s="18">
         <v>1</v>
@@ -35922,7 +35923,7 @@
         <v>0</v>
       </c>
       <c r="AL235" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM235" s="18">
         <v>0</v>
@@ -35948,7 +35949,7 @@
         <v>73034003</v>
       </c>
       <c r="D236" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E236" s="18">
         <v>3</v>
@@ -36050,7 +36051,7 @@
         <v>0</v>
       </c>
       <c r="AL236" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM236" s="18">
         <v>0.1</v>
@@ -36076,7 +36077,7 @@
         <v>73035001</v>
       </c>
       <c r="D237" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E237" s="18">
         <v>1</v>
@@ -36178,7 +36179,7 @@
         <v>0</v>
       </c>
       <c r="AL237" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM237" s="18">
         <v>0</v>
@@ -36204,7 +36205,7 @@
         <v>73035002</v>
       </c>
       <c r="D238" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E238" s="18">
         <v>1</v>
@@ -36306,7 +36307,7 @@
         <v>0</v>
       </c>
       <c r="AL238" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM238" s="18">
         <v>0</v>
@@ -36332,7 +36333,7 @@
         <v>73035003</v>
       </c>
       <c r="D239" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E239" s="18">
         <v>3</v>
@@ -36434,7 +36435,7 @@
         <v>0</v>
       </c>
       <c r="AL239" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM239" s="18">
         <v>0.1</v>
@@ -36460,7 +36461,7 @@
         <v>80000001</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E240" s="6">
         <v>5</v>
@@ -36589,7 +36590,7 @@
         <v>80000002</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E241" s="6">
         <v>5</v>
@@ -36718,7 +36719,7 @@
         <v>80000101</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E242" s="6">
         <v>5</v>
@@ -36820,7 +36821,7 @@
         <v>0</v>
       </c>
       <c r="AL242" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM242" s="6">
         <v>0</v>
@@ -36847,7 +36848,7 @@
         <v>80000201</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E243" s="6">
         <v>5</v>
@@ -36949,7 +36950,7 @@
         <v>0</v>
       </c>
       <c r="AL243" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AM243" s="6">
         <v>0</v>
@@ -36976,7 +36977,7 @@
         <v>80000301</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E244" s="6">
         <v>5</v>
@@ -37078,7 +37079,7 @@
         <v>0</v>
       </c>
       <c r="AL244" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AM244" s="6">
         <v>0</v>
@@ -37105,7 +37106,7 @@
         <v>80000401</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E245" s="6">
         <v>5</v>
@@ -37207,7 +37208,7 @@
         <v>0</v>
       </c>
       <c r="AL245" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AM245" s="6">
         <v>0</v>
@@ -37234,7 +37235,7 @@
         <v>80000501</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E246" s="6">
         <v>5</v>
@@ -37336,7 +37337,7 @@
         <v>0</v>
       </c>
       <c r="AL246" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AM246" s="6">
         <v>0</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D849B2-D1E1-4DDB-B9FC-50823AA6B6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E58456-D6F2-49A5-B436-5FAEEED585E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="431">
   <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -2140,6 +2140,18 @@
   </si>
   <si>
     <t>601000101,600010101,601100103,601300101,601100001,601100110</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔导师影分身</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>62021511,62021512</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -6033,13 +6045,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV246"/>
+  <dimension ref="A1:AV270"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="N93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AN237" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R102" sqref="R102"/>
+      <selection pane="bottomRight" activeCell="AT247" sqref="AT247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -37359,6 +37371,159 @@
       <c r="AT246" s="12"/>
       <c r="AU246" s="19"/>
     </row>
+    <row r="247" spans="3:47" ht="20.100000000000001" customHeight="1">
+      <c r="C247" s="6">
+        <v>90000001</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E247" s="6">
+        <v>1</v>
+      </c>
+      <c r="F247" s="6">
+        <v>0</v>
+      </c>
+      <c r="G247" s="6">
+        <v>0</v>
+      </c>
+      <c r="H247" s="6">
+        <v>0</v>
+      </c>
+      <c r="I247" s="6">
+        <v>90000001</v>
+      </c>
+      <c r="J247" s="6">
+        <v>0</v>
+      </c>
+      <c r="K247" s="6">
+        <v>0</v>
+      </c>
+      <c r="L247" s="6">
+        <v>51</v>
+      </c>
+      <c r="M247" s="6">
+        <v>2</v>
+      </c>
+      <c r="N247" s="6">
+        <v>6</v>
+      </c>
+      <c r="O247" s="6">
+        <v>2</v>
+      </c>
+      <c r="P247" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q247" s="6">
+        <v>55650</v>
+      </c>
+      <c r="R247" s="6">
+        <v>5300</v>
+      </c>
+      <c r="S247" s="6">
+        <v>5300</v>
+      </c>
+      <c r="T247" s="6">
+        <v>1590</v>
+      </c>
+      <c r="U247" s="6">
+        <v>1590</v>
+      </c>
+      <c r="V247" s="6">
+        <v>0</v>
+      </c>
+      <c r="W247" s="6">
+        <v>0</v>
+      </c>
+      <c r="X247" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="Y247" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z247" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA247" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB247" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC247" s="6">
+        <v>60</v>
+      </c>
+      <c r="AD247" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE247" s="6">
+        <v>10</v>
+      </c>
+      <c r="AF247" s="6">
+        <v>7</v>
+      </c>
+      <c r="AG247" s="6">
+        <v>1000</v>
+      </c>
+      <c r="AH247" s="6">
+        <v>1210</v>
+      </c>
+      <c r="AI247" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ247" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK247" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL247" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="AM247" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN247" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO247" s="6">
+        <v>60000331</v>
+      </c>
+      <c r="AP247" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="AQ247" s="6"/>
+      <c r="AR247" s="6">
+        <v>1</v>
+      </c>
+      <c r="AS247" s="6"/>
+      <c r="AT247" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="3:47" ht="20.100000000000001" customHeight="1"/>
+    <row r="249" spans="3:47" ht="20.100000000000001" customHeight="1"/>
+    <row r="250" spans="3:47" ht="20.100000000000001" customHeight="1"/>
+    <row r="251" spans="3:47" ht="20.100000000000001" customHeight="1"/>
+    <row r="252" spans="3:47" ht="20.100000000000001" customHeight="1"/>
+    <row r="253" spans="3:47" ht="20.100000000000001" customHeight="1"/>
+    <row r="254" spans="3:47" ht="20.100000000000001" customHeight="1"/>
+    <row r="255" spans="3:47" ht="20.100000000000001" customHeight="1"/>
+    <row r="256" spans="3:47" ht="20.100000000000001" customHeight="1"/>
+    <row r="257" ht="20.100000000000001" customHeight="1"/>
+    <row r="258" ht="20.100000000000001" customHeight="1"/>
+    <row r="259" ht="20.100000000000001" customHeight="1"/>
+    <row r="260" ht="20.100000000000001" customHeight="1"/>
+    <row r="261" ht="20.100000000000001" customHeight="1"/>
+    <row r="262" ht="20.100000000000001" customHeight="1"/>
+    <row r="263" ht="20.100000000000001" customHeight="1"/>
+    <row r="264" ht="20.100000000000001" customHeight="1"/>
+    <row r="265" ht="20.100000000000001" customHeight="1"/>
+    <row r="266" ht="20.100000000000001" customHeight="1"/>
+    <row r="267" ht="20.100000000000001" customHeight="1"/>
+    <row r="268" ht="20.100000000000001" customHeight="1"/>
+    <row r="269" ht="20.100000000000001" customHeight="1"/>
+    <row r="270" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E58456-D6F2-49A5-B436-5FAEEED585E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B9A9F8-49EA-4E61-B400-CA43BCF58C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="432">
   <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -2152,6 +2152,10 @@
   </si>
   <si>
     <t>62021511,62021512</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮手</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -6048,10 +6052,10 @@
   <dimension ref="A1:AV270"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AN237" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E233" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT247" sqref="AT247"/>
+      <selection pane="bottomRight" activeCell="G247" sqref="G247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -37451,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="AC247" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AD247" s="6">
         <v>3</v>
@@ -37501,7 +37505,136 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="3:47" ht="20.100000000000001" customHeight="1"/>
+    <row r="248" spans="3:47" ht="20.100000000000001" customHeight="1">
+      <c r="C248" s="6">
+        <v>90000002</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="E248" s="6">
+        <v>1</v>
+      </c>
+      <c r="F248" s="6">
+        <v>0</v>
+      </c>
+      <c r="G248" s="6">
+        <v>0</v>
+      </c>
+      <c r="H248" s="6">
+        <v>0</v>
+      </c>
+      <c r="I248" s="6">
+        <v>70000001</v>
+      </c>
+      <c r="J248" s="6">
+        <v>0</v>
+      </c>
+      <c r="K248" s="6">
+        <v>0</v>
+      </c>
+      <c r="L248" s="6">
+        <v>51</v>
+      </c>
+      <c r="M248" s="6">
+        <v>2</v>
+      </c>
+      <c r="N248" s="6">
+        <v>6</v>
+      </c>
+      <c r="O248" s="6">
+        <v>2</v>
+      </c>
+      <c r="P248" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q248" s="6">
+        <v>55650</v>
+      </c>
+      <c r="R248" s="6">
+        <v>5300</v>
+      </c>
+      <c r="S248" s="6">
+        <v>5300</v>
+      </c>
+      <c r="T248" s="6">
+        <v>1590</v>
+      </c>
+      <c r="U248" s="6">
+        <v>1590</v>
+      </c>
+      <c r="V248" s="6">
+        <v>0</v>
+      </c>
+      <c r="W248" s="6">
+        <v>0</v>
+      </c>
+      <c r="X248" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="Y248" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z248" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA248" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB248" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC248" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD248" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE248" s="6">
+        <v>10</v>
+      </c>
+      <c r="AF248" s="6">
+        <v>7</v>
+      </c>
+      <c r="AG248" s="6">
+        <v>1000</v>
+      </c>
+      <c r="AH248" s="6">
+        <v>1210</v>
+      </c>
+      <c r="AI248" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ248" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK248" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL248" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM248" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN248" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO248" s="18">
+        <v>70000001</v>
+      </c>
+      <c r="AP248" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ248" s="6"/>
+      <c r="AR248" s="6">
+        <v>1</v>
+      </c>
+      <c r="AS248" s="6"/>
+      <c r="AT248" s="6">
+        <v>10</v>
+      </c>
+    </row>
     <row r="249" spans="3:47" ht="20.100000000000001" customHeight="1"/>
     <row r="250" spans="3:47" ht="20.100000000000001" customHeight="1"/>
     <row r="251" spans="3:47" ht="20.100000000000001" customHeight="1"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B9A9F8-49EA-4E61-B400-CA43BCF58C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6FDBEB-6181-4C7E-B236-7E77EDD2DD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -6052,10 +6052,10 @@
   <dimension ref="A1:AV270"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E233" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AN233" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G247" sqref="G247"/>
+      <selection pane="bottomRight" activeCell="AT247" sqref="AT247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -37502,7 +37502,7 @@
       </c>
       <c r="AS247" s="6"/>
       <c r="AT247" s="6">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="248" spans="3:47" ht="20.100000000000001" customHeight="1">
@@ -37632,7 +37632,7 @@
       </c>
       <c r="AS248" s="6"/>
       <c r="AT248" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249" spans="3:47" ht="20.100000000000001" customHeight="1"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6FDBEB-6181-4C7E-B236-7E77EDD2DD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3317CAA5-0924-44FC-AD9C-F69E6FCC81DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -6052,10 +6052,10 @@
   <dimension ref="A1:AV270"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AN233" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AJ246" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT247" sqref="AT247"/>
+      <selection pane="bottomRight" activeCell="AP248" sqref="AP248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -37525,7 +37525,7 @@
         <v>0</v>
       </c>
       <c r="I248" s="6">
-        <v>70000001</v>
+        <v>70001001</v>
       </c>
       <c r="J248" s="6">
         <v>0</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38754BD-2734-4E97-BD5A-B07FF9A64E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA425A2-4AE3-4E10-8EBB-8344B0F4BB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -684,7 +684,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="431">
   <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1053,10 +1053,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>水精灵</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>冰封守护者-艾瑞达</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -1077,26 +1073,14 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>白熊战士</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>冰封守护者-艾瑞克</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>白熊守卫</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>冰精灵守卫</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>水精灵守卫</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>冰封魔王-阿兹里斯</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -1113,14 +1097,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>精英白熊守卫</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗操纵者-萨洛</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>巨鼠矿工</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -1129,14 +1105,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>巨石岩怪</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>峡谷石怪</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>裂石领主-艾力克斯</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -1145,10 +1113,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>熔岩法师</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>熔岩操纵者-克斯</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -1157,10 +1121,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>邪恶博士-埃克</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>黑暗魔王-卡利兹</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -1173,10 +1133,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>被控制的奴隶</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>冰雪护卫者</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -1197,14 +1153,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>魔法师守护者</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>白熊冲锋战士</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>黑暗魔法师</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -1340,9 +1288,6 @@
     <t>熔岩蝙蝠</t>
   </si>
   <si>
-    <t>灼烧法师</t>
-  </si>
-  <si>
     <t>爬行者</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -1359,12 +1304,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>洞穴护卫</t>
-  </si>
-  <si>
-    <t>洞穴魔怪</t>
-  </si>
-  <si>
     <t>地牢魔怪</t>
   </si>
   <si>
@@ -1943,24 +1882,15 @@
     <t>冰精灵</t>
   </si>
   <si>
-    <t>水精灵</t>
-  </si>
-  <si>
     <t>冰封守护者-艾瑞达</t>
   </si>
   <si>
     <t>冰宫蜘蛛</t>
   </si>
   <si>
-    <t>白熊战士</t>
-  </si>
-  <si>
     <t>冰封守护者-艾瑞克</t>
   </si>
   <si>
-    <t>白熊守卫</t>
-  </si>
-  <si>
     <t>冰精灵守卫</t>
   </si>
   <si>
@@ -2000,9 +1930,6 @@
     <t>精英树怪</t>
   </si>
   <si>
-    <t>精英白熊守卫</t>
-  </si>
-  <si>
     <t>黑暗操纵者-萨洛</t>
   </si>
   <si>
@@ -2015,9 +1942,6 @@
     <t>巨石岩怪</t>
   </si>
   <si>
-    <t>峡谷石怪</t>
-  </si>
-  <si>
     <t>裂石领主-艾力克斯</t>
   </si>
   <si>
@@ -2046,9 +1970,6 @@
   </si>
   <si>
     <t>火地龙</t>
-  </si>
-  <si>
-    <t>熔岩法师</t>
   </si>
   <si>
     <t>熔岩操纵者-克斯</t>
@@ -2157,6 +2078,87 @@
   </si>
   <si>
     <t>地牢头领</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>暮色战士</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>暮色守卫</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>操纵者-萨洛</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英暮色守卫</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封冲锋战士</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>看守护卫</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>看守战士</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>火精灵</t>
+  </si>
+  <si>
+    <t>火精灵守卫</t>
+  </si>
+  <si>
+    <t>冰封战士</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封守卫</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>被控制的魔物</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭守护者</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩精灵</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩精灵</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔法师</t>
+  </si>
+  <si>
+    <t>邪恶法师-埃克</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜蜂守卫</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>峡谷魔怪</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>峡谷魔怪</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英守卫</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -2475,7 +2477,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="56">
+  <fills count="55">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2787,12 +2789,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -4330,7 +4326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4407,16 +4403,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="55" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="55" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="55" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4428,6 +4414,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="54" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="54" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6081,10 +6070,10 @@
   <dimension ref="A1:AV270"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E187" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="I198" sqref="I198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -6235,7 +6224,7 @@
         <v>59</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="AL3" s="2" t="s">
         <v>60</v>
@@ -6262,7 +6251,7 @@
         <v>82</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="3:46" ht="20.100000000000001" customHeight="1">
@@ -6369,7 +6358,7 @@
         <v>25</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="AL4" s="3" t="s">
         <v>26</v>
@@ -6396,7 +6385,7 @@
         <v>83</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="3:46" ht="20.100000000000001" customHeight="1">
@@ -6640,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="10" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="AM6" s="6">
         <v>0.1</v>
@@ -6652,7 +6641,7 @@
         <v>70000001</v>
       </c>
       <c r="AP6" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ6" s="6"/>
       <c r="AR6" s="6">
@@ -6768,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="AL7" s="10" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="AM7" s="6">
         <v>0.1</v>
@@ -6780,7 +6769,7 @@
         <v>70000001</v>
       </c>
       <c r="AP7" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ7" s="6"/>
       <c r="AR7" s="6">
@@ -6896,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="10" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="AM8" s="6">
         <v>0.1</v>
@@ -6908,7 +6897,7 @@
         <v>70000001</v>
       </c>
       <c r="AP8" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ8" s="6"/>
       <c r="AR8" s="6">
@@ -7024,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="AL9" s="10" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="AM9" s="6">
         <v>0.5</v>
@@ -7036,7 +7025,7 @@
         <v>70000001</v>
       </c>
       <c r="AP9" s="10" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="AQ9" s="6"/>
       <c r="AR9" s="6">
@@ -7152,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="10" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="AM10" s="6">
         <v>0.1</v>
@@ -7164,7 +7153,7 @@
         <v>70000001</v>
       </c>
       <c r="AP10" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ10" s="6"/>
       <c r="AR10" s="6">
@@ -7280,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="10" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="AM11" s="6">
         <v>0.1</v>
@@ -7292,7 +7281,7 @@
         <v>70000001</v>
       </c>
       <c r="AP11" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ11" s="6"/>
       <c r="AR11" s="6">
@@ -7306,7 +7295,7 @@
         <v>70001007</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E12" s="27">
         <v>1</v>
@@ -7408,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="28" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="AM12" s="27">
         <v>0.1</v>
@@ -7420,7 +7409,7 @@
         <v>70000001</v>
       </c>
       <c r="AP12" s="28" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="AQ12" s="27"/>
       <c r="AR12" s="27">
@@ -7536,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="AM13" s="6">
         <v>0.1</v>
@@ -7548,7 +7537,7 @@
         <v>70000001</v>
       </c>
       <c r="AP13" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ13" s="6"/>
       <c r="AR13" s="6">
@@ -7557,133 +7546,133 @@
       <c r="AS13" s="6"/>
       <c r="AT13" s="6"/>
     </row>
-    <row r="14" spans="3:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C14" s="34">
+    <row r="14" spans="3:46" s="33" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C14" s="30">
         <v>70001011</v>
       </c>
-      <c r="D14" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="E14" s="34">
+      <c r="D14" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="E14" s="30">
         <v>3</v>
       </c>
-      <c r="F14" s="34">
-        <v>0</v>
-      </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
-      <c r="H14" s="34">
-        <v>0</v>
-      </c>
-      <c r="I14" s="34">
+      <c r="F14" s="30">
+        <v>0</v>
+      </c>
+      <c r="G14" s="30">
+        <v>0</v>
+      </c>
+      <c r="H14" s="30">
+        <v>0</v>
+      </c>
+      <c r="I14" s="30">
         <v>70001011</v>
       </c>
-      <c r="J14" s="34">
-        <v>0</v>
-      </c>
-      <c r="K14" s="34">
-        <v>0</v>
-      </c>
-      <c r="L14" s="34">
+      <c r="J14" s="30">
+        <v>0</v>
+      </c>
+      <c r="K14" s="30">
+        <v>0</v>
+      </c>
+      <c r="L14" s="30">
         <v>5</v>
       </c>
-      <c r="M14" s="34">
-        <v>2</v>
-      </c>
-      <c r="N14" s="34">
-        <v>2</v>
-      </c>
-      <c r="O14" s="34">
-        <v>2</v>
-      </c>
-      <c r="P14" s="34">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="34">
+      <c r="M14" s="30">
+        <v>2</v>
+      </c>
+      <c r="N14" s="30">
+        <v>2</v>
+      </c>
+      <c r="O14" s="30">
+        <v>2</v>
+      </c>
+      <c r="P14" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="30">
         <v>25200</v>
       </c>
-      <c r="R14" s="34">
+      <c r="R14" s="30">
         <v>375</v>
       </c>
-      <c r="S14" s="34">
+      <c r="S14" s="30">
         <v>375</v>
       </c>
-      <c r="T14" s="34">
+      <c r="T14" s="30">
         <v>113</v>
       </c>
-      <c r="U14" s="34">
+      <c r="U14" s="30">
         <v>113</v>
       </c>
-      <c r="V14" s="34">
-        <v>0</v>
-      </c>
-      <c r="W14" s="34">
-        <v>0</v>
-      </c>
-      <c r="X14" s="34">
+      <c r="V14" s="30">
+        <v>0</v>
+      </c>
+      <c r="W14" s="30">
+        <v>0</v>
+      </c>
+      <c r="X14" s="30">
         <v>0.75</v>
       </c>
-      <c r="Y14" s="34">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="34">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="34">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="34">
+      <c r="Y14" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="30">
         <v>900</v>
       </c>
-      <c r="AD14" s="34">
+      <c r="AD14" s="30">
         <v>3</v>
       </c>
-      <c r="AE14" s="34">
+      <c r="AE14" s="30">
         <v>60</v>
       </c>
-      <c r="AF14" s="34">
+      <c r="AF14" s="30">
         <v>7</v>
       </c>
-      <c r="AG14" s="34">
+      <c r="AG14" s="30">
         <v>1000</v>
       </c>
-      <c r="AH14" s="34">
+      <c r="AH14" s="30">
         <v>800</v>
       </c>
-      <c r="AI14" s="34">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="34">
-        <v>2</v>
-      </c>
-      <c r="AK14" s="34">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="AM14" s="34">
+      <c r="AI14" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="30">
+        <v>2</v>
+      </c>
+      <c r="AK14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM14" s="30">
         <v>0.1</v>
       </c>
-      <c r="AN14" s="34">
-        <v>1</v>
-      </c>
-      <c r="AO14" s="34">
+      <c r="AN14" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="30">
         <v>70000001</v>
       </c>
-      <c r="AP14" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="AQ14" s="34"/>
-      <c r="AR14" s="34">
-        <v>1</v>
-      </c>
-      <c r="AS14" s="34"/>
-      <c r="AT14" s="34"/>
+      <c r="AP14" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ14" s="30"/>
+      <c r="AR14" s="30">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="30"/>
+      <c r="AT14" s="30"/>
     </row>
     <row r="15" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="6">
@@ -7792,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="AL15" s="10" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="AM15" s="6">
         <v>0.1</v>
@@ -7804,7 +7793,7 @@
         <v>70000001</v>
       </c>
       <c r="AP15" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ15" s="6"/>
       <c r="AR15" s="6">
@@ -7818,7 +7807,7 @@
         <v>70001102</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E16" s="27">
         <v>1</v>
@@ -7920,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="28" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="AM16" s="27">
         <v>0.1</v>
@@ -7932,7 +7921,7 @@
         <v>70000001</v>
       </c>
       <c r="AP16" s="28" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ16" s="27"/>
       <c r="AR16" s="27">
@@ -7946,7 +7935,7 @@
         <v>70001103</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E17" s="27">
         <v>1</v>
@@ -8048,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="AL17" s="28" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="AM17" s="27">
         <v>0.1</v>
@@ -8060,7 +8049,7 @@
         <v>70000001</v>
       </c>
       <c r="AP17" s="28" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ17" s="27"/>
       <c r="AR17" s="27">
@@ -8176,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="AM18" s="6">
         <v>0.5</v>
@@ -8188,7 +8177,7 @@
         <v>70000001</v>
       </c>
       <c r="AP18" s="10" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="AQ18" s="6"/>
       <c r="AR18" s="6">
@@ -8197,268 +8186,268 @@
       <c r="AS18" s="6"/>
       <c r="AT18" s="6"/>
     </row>
-    <row r="19" spans="3:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C19" s="34">
+    <row r="19" spans="3:46" s="33" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C19" s="30">
         <v>70001201</v>
       </c>
-      <c r="D19" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="E19" s="34">
-        <v>1</v>
-      </c>
-      <c r="F19" s="34">
-        <v>0</v>
-      </c>
-      <c r="G19" s="34">
-        <v>0</v>
-      </c>
-      <c r="H19" s="34">
-        <v>0</v>
-      </c>
-      <c r="I19" s="34">
+      <c r="D19" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="30">
+        <v>1</v>
+      </c>
+      <c r="F19" s="30">
+        <v>0</v>
+      </c>
+      <c r="G19" s="30">
+        <v>0</v>
+      </c>
+      <c r="H19" s="30">
+        <v>0</v>
+      </c>
+      <c r="I19" s="30">
         <v>72001001</v>
       </c>
-      <c r="J19" s="34">
-        <v>0</v>
-      </c>
-      <c r="K19" s="34">
-        <v>0</v>
-      </c>
-      <c r="L19" s="34">
+      <c r="J19" s="30">
+        <v>0</v>
+      </c>
+      <c r="K19" s="30">
+        <v>0</v>
+      </c>
+      <c r="L19" s="30">
         <v>10</v>
       </c>
-      <c r="M19" s="34">
-        <v>2</v>
-      </c>
-      <c r="N19" s="34">
-        <v>2</v>
-      </c>
-      <c r="O19" s="34">
-        <v>2</v>
-      </c>
-      <c r="P19" s="34">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="34">
+      <c r="M19" s="30">
+        <v>2</v>
+      </c>
+      <c r="N19" s="30">
+        <v>2</v>
+      </c>
+      <c r="O19" s="30">
+        <v>2</v>
+      </c>
+      <c r="P19" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="30">
         <v>5775</v>
       </c>
-      <c r="R19" s="34">
+      <c r="R19" s="30">
         <v>550</v>
       </c>
-      <c r="S19" s="34">
+      <c r="S19" s="30">
         <v>550</v>
       </c>
-      <c r="T19" s="34">
+      <c r="T19" s="30">
         <v>165</v>
       </c>
-      <c r="U19" s="34">
+      <c r="U19" s="30">
         <v>165</v>
       </c>
-      <c r="V19" s="34">
-        <v>0</v>
-      </c>
-      <c r="W19" s="34">
-        <v>0</v>
-      </c>
-      <c r="X19" s="34">
+      <c r="V19" s="30">
+        <v>0</v>
+      </c>
+      <c r="W19" s="30">
+        <v>0</v>
+      </c>
+      <c r="X19" s="30">
         <v>0.75</v>
       </c>
-      <c r="Y19" s="34">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="34">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="34">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="34">
+      <c r="Y19" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="30">
         <v>60</v>
       </c>
-      <c r="AD19" s="34">
+      <c r="AD19" s="30">
         <v>3</v>
       </c>
-      <c r="AE19" s="34">
+      <c r="AE19" s="30">
         <v>10</v>
       </c>
-      <c r="AF19" s="34">
+      <c r="AF19" s="30">
         <v>7</v>
       </c>
-      <c r="AG19" s="34">
+      <c r="AG19" s="30">
         <v>1000</v>
       </c>
-      <c r="AH19" s="34">
+      <c r="AH19" s="30">
         <v>95</v>
       </c>
-      <c r="AI19" s="34">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="34">
-        <v>1</v>
-      </c>
-      <c r="AK19" s="34">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="AM19" s="34">
+      <c r="AI19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="AM19" s="30">
         <v>0.1</v>
       </c>
-      <c r="AN19" s="34">
-        <v>1</v>
-      </c>
-      <c r="AO19" s="34">
+      <c r="AN19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="30">
         <v>70000001</v>
       </c>
-      <c r="AP19" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ19" s="34"/>
-      <c r="AR19" s="34">
-        <v>1</v>
-      </c>
-      <c r="AS19" s="34"/>
-      <c r="AT19" s="34"/>
+      <c r="AP19" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ19" s="30"/>
+      <c r="AR19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="30"/>
+      <c r="AT19" s="30"/>
     </row>
-    <row r="20" spans="3:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C20" s="34">
+    <row r="20" spans="3:46" s="33" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C20" s="30">
         <v>70001202</v>
       </c>
-      <c r="D20" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="E20" s="34">
-        <v>1</v>
-      </c>
-      <c r="F20" s="34">
-        <v>0</v>
-      </c>
-      <c r="G20" s="34">
-        <v>0</v>
-      </c>
-      <c r="H20" s="34">
-        <v>0</v>
-      </c>
-      <c r="I20" s="34">
+      <c r="D20" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="30">
+        <v>1</v>
+      </c>
+      <c r="F20" s="30">
+        <v>0</v>
+      </c>
+      <c r="G20" s="30">
+        <v>0</v>
+      </c>
+      <c r="H20" s="30">
+        <v>0</v>
+      </c>
+      <c r="I20" s="30">
         <v>72001002</v>
       </c>
-      <c r="J20" s="34">
-        <v>0</v>
-      </c>
-      <c r="K20" s="34">
-        <v>0</v>
-      </c>
-      <c r="L20" s="34">
+      <c r="J20" s="30">
+        <v>0</v>
+      </c>
+      <c r="K20" s="30">
+        <v>0</v>
+      </c>
+      <c r="L20" s="30">
         <v>10</v>
       </c>
-      <c r="M20" s="34">
-        <v>2</v>
-      </c>
-      <c r="N20" s="34">
-        <v>2</v>
-      </c>
-      <c r="O20" s="34">
-        <v>2</v>
-      </c>
-      <c r="P20" s="34">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="34">
+      <c r="M20" s="30">
+        <v>2</v>
+      </c>
+      <c r="N20" s="30">
+        <v>2</v>
+      </c>
+      <c r="O20" s="30">
+        <v>2</v>
+      </c>
+      <c r="P20" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="30">
         <v>5775</v>
       </c>
-      <c r="R20" s="34">
+      <c r="R20" s="30">
         <v>550</v>
       </c>
-      <c r="S20" s="34">
+      <c r="S20" s="30">
         <v>550</v>
       </c>
-      <c r="T20" s="34">
+      <c r="T20" s="30">
         <v>165</v>
       </c>
-      <c r="U20" s="34">
+      <c r="U20" s="30">
         <v>165</v>
       </c>
-      <c r="V20" s="34">
-        <v>0</v>
-      </c>
-      <c r="W20" s="34">
-        <v>0</v>
-      </c>
-      <c r="X20" s="34">
+      <c r="V20" s="30">
+        <v>0</v>
+      </c>
+      <c r="W20" s="30">
+        <v>0</v>
+      </c>
+      <c r="X20" s="30">
         <v>0.75</v>
       </c>
-      <c r="Y20" s="34">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="34">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="34">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="34">
+      <c r="Y20" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="30">
         <v>60</v>
       </c>
-      <c r="AD20" s="34">
+      <c r="AD20" s="30">
         <v>3</v>
       </c>
-      <c r="AE20" s="34">
+      <c r="AE20" s="30">
         <v>10</v>
       </c>
-      <c r="AF20" s="34">
+      <c r="AF20" s="30">
         <v>7</v>
       </c>
-      <c r="AG20" s="34">
+      <c r="AG20" s="30">
         <v>1000</v>
       </c>
-      <c r="AH20" s="34">
+      <c r="AH20" s="30">
         <v>95</v>
       </c>
-      <c r="AI20" s="34">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="34">
-        <v>1</v>
-      </c>
-      <c r="AK20" s="34">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="AM20" s="34">
+      <c r="AI20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="30">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="AM20" s="30">
         <v>0.1</v>
       </c>
-      <c r="AN20" s="34">
-        <v>1</v>
-      </c>
-      <c r="AO20" s="34">
+      <c r="AN20" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="30">
         <v>70000001</v>
       </c>
-      <c r="AP20" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ20" s="34"/>
-      <c r="AR20" s="34">
-        <v>1</v>
-      </c>
-      <c r="AS20" s="34"/>
-      <c r="AT20" s="34"/>
+      <c r="AP20" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ20" s="30"/>
+      <c r="AR20" s="30">
+        <v>1</v>
+      </c>
+      <c r="AS20" s="30"/>
+      <c r="AT20" s="30"/>
     </row>
     <row r="21" spans="3:46" s="29" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="27">
         <v>70001203</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E21" s="27">
         <v>1</v>
@@ -8560,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="AL21" s="28" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="AM21" s="27">
         <v>0.1</v>
@@ -8572,7 +8561,7 @@
         <v>70000001</v>
       </c>
       <c r="AP21" s="28" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ21" s="27"/>
       <c r="AR21" s="27">
@@ -8586,7 +8575,7 @@
         <v>70001204</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="E22" s="27">
         <v>1</v>
@@ -8688,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="28" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="AM22" s="27">
         <v>0.1</v>
@@ -8700,7 +8689,7 @@
         <v>70000001</v>
       </c>
       <c r="AP22" s="28" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ22" s="27"/>
       <c r="AR22" s="27">
@@ -8709,140 +8698,140 @@
       <c r="AS22" s="27"/>
       <c r="AT22" s="27"/>
     </row>
-    <row r="23" spans="3:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C23" s="34">
+    <row r="23" spans="3:46" s="33" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C23" s="30">
         <v>70001205</v>
       </c>
-      <c r="D23" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="E23" s="34">
-        <v>1</v>
-      </c>
-      <c r="F23" s="34">
-        <v>0</v>
-      </c>
-      <c r="G23" s="34">
-        <v>0</v>
-      </c>
-      <c r="H23" s="34">
-        <v>0</v>
-      </c>
-      <c r="I23" s="34">
+      <c r="D23" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="30">
+        <v>1</v>
+      </c>
+      <c r="F23" s="30">
+        <v>0</v>
+      </c>
+      <c r="G23" s="30">
+        <v>0</v>
+      </c>
+      <c r="H23" s="30">
+        <v>0</v>
+      </c>
+      <c r="I23" s="30">
         <v>72001003</v>
       </c>
-      <c r="J23" s="34">
-        <v>0</v>
-      </c>
-      <c r="K23" s="34">
-        <v>0</v>
-      </c>
-      <c r="L23" s="34">
+      <c r="J23" s="30">
+        <v>0</v>
+      </c>
+      <c r="K23" s="30">
+        <v>0</v>
+      </c>
+      <c r="L23" s="30">
         <v>10</v>
       </c>
-      <c r="M23" s="34">
+      <c r="M23" s="30">
         <v>1.5</v>
       </c>
-      <c r="N23" s="34">
+      <c r="N23" s="30">
         <v>6</v>
       </c>
-      <c r="O23" s="34">
-        <v>2</v>
-      </c>
-      <c r="P23" s="34">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="34">
+      <c r="O23" s="30">
+        <v>2</v>
+      </c>
+      <c r="P23" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="30">
         <v>5775</v>
       </c>
-      <c r="R23" s="34">
+      <c r="R23" s="30">
         <v>550</v>
       </c>
-      <c r="S23" s="34">
+      <c r="S23" s="30">
         <v>550</v>
       </c>
-      <c r="T23" s="34">
+      <c r="T23" s="30">
         <v>165</v>
       </c>
-      <c r="U23" s="34">
+      <c r="U23" s="30">
         <v>165</v>
       </c>
-      <c r="V23" s="34">
-        <v>0</v>
-      </c>
-      <c r="W23" s="34">
-        <v>0</v>
-      </c>
-      <c r="X23" s="34">
+      <c r="V23" s="30">
+        <v>0</v>
+      </c>
+      <c r="W23" s="30">
+        <v>0</v>
+      </c>
+      <c r="X23" s="30">
         <v>0.75</v>
       </c>
-      <c r="Y23" s="34">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="34">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="34">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="34">
+      <c r="Y23" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="30">
         <v>60</v>
       </c>
-      <c r="AD23" s="34">
+      <c r="AD23" s="30">
         <v>3</v>
       </c>
-      <c r="AE23" s="34">
+      <c r="AE23" s="30">
         <v>10</v>
       </c>
-      <c r="AF23" s="34">
+      <c r="AF23" s="30">
         <v>7</v>
       </c>
-      <c r="AG23" s="34">
+      <c r="AG23" s="30">
         <v>1000</v>
       </c>
-      <c r="AH23" s="34">
+      <c r="AH23" s="30">
         <v>95</v>
       </c>
-      <c r="AI23" s="34">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="34">
-        <v>1</v>
-      </c>
-      <c r="AK23" s="34">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="AM23" s="34">
+      <c r="AI23" s="30">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="30">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="30">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="AM23" s="30">
         <v>0.1</v>
       </c>
-      <c r="AN23" s="34">
-        <v>1</v>
-      </c>
-      <c r="AO23" s="34">
+      <c r="AN23" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="30">
         <v>70000002</v>
       </c>
-      <c r="AP23" s="36" t="s">
-        <v>335</v>
-      </c>
-      <c r="AQ23" s="34"/>
-      <c r="AR23" s="34">
-        <v>1</v>
-      </c>
-      <c r="AS23" s="34"/>
-      <c r="AT23" s="34"/>
+      <c r="AP23" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="AQ23" s="30"/>
+      <c r="AR23" s="30">
+        <v>1</v>
+      </c>
+      <c r="AS23" s="30"/>
+      <c r="AT23" s="30"/>
     </row>
     <row r="24" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C24" s="6">
         <v>70001206</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E24" s="6">
         <v>3</v>
@@ -8944,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="10" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="AM24" s="6">
         <v>0.1</v>
@@ -8956,7 +8945,7 @@
         <v>70000001</v>
       </c>
       <c r="AP24" s="10" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="AQ24" s="6"/>
       <c r="AR24" s="6">
@@ -8965,389 +8954,389 @@
       <c r="AS24" s="6"/>
       <c r="AT24" s="6"/>
     </row>
-    <row r="25" spans="3:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="34">
+    <row r="25" spans="3:46" s="33" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C25" s="30">
         <v>70001207</v>
       </c>
-      <c r="D25" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="E25" s="34">
-        <v>1</v>
-      </c>
-      <c r="F25" s="34">
-        <v>0</v>
-      </c>
-      <c r="G25" s="34">
-        <v>0</v>
-      </c>
-      <c r="H25" s="34">
-        <v>0</v>
-      </c>
-      <c r="I25" s="34">
-        <v>70001207</v>
-      </c>
-      <c r="J25" s="34">
-        <v>0</v>
-      </c>
-      <c r="K25" s="34">
-        <v>0</v>
-      </c>
-      <c r="L25" s="34">
+      <c r="D25" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="E25" s="30">
+        <v>1</v>
+      </c>
+      <c r="F25" s="30">
+        <v>0</v>
+      </c>
+      <c r="G25" s="30">
+        <v>0</v>
+      </c>
+      <c r="H25" s="30">
+        <v>0</v>
+      </c>
+      <c r="I25" s="30">
+        <v>72001001</v>
+      </c>
+      <c r="J25" s="30">
+        <v>0</v>
+      </c>
+      <c r="K25" s="30">
+        <v>0</v>
+      </c>
+      <c r="L25" s="30">
         <v>13</v>
       </c>
-      <c r="M25" s="34">
-        <v>2</v>
-      </c>
-      <c r="N25" s="34">
-        <v>2</v>
-      </c>
-      <c r="O25" s="34">
-        <v>2</v>
-      </c>
-      <c r="P25" s="34">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="34">
+      <c r="M25" s="30">
+        <v>2</v>
+      </c>
+      <c r="N25" s="30">
+        <v>2</v>
+      </c>
+      <c r="O25" s="30">
+        <v>2</v>
+      </c>
+      <c r="P25" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="30">
         <v>7350</v>
       </c>
-      <c r="R25" s="34">
+      <c r="R25" s="30">
         <v>700</v>
       </c>
-      <c r="S25" s="34">
+      <c r="S25" s="30">
         <v>700</v>
       </c>
-      <c r="T25" s="34">
+      <c r="T25" s="30">
         <v>210</v>
       </c>
-      <c r="U25" s="34">
+      <c r="U25" s="30">
         <v>210</v>
       </c>
-      <c r="V25" s="34">
-        <v>0</v>
-      </c>
-      <c r="W25" s="34">
-        <v>0</v>
-      </c>
-      <c r="X25" s="34">
+      <c r="V25" s="30">
+        <v>0</v>
+      </c>
+      <c r="W25" s="30">
+        <v>0</v>
+      </c>
+      <c r="X25" s="30">
         <v>0.75</v>
       </c>
-      <c r="Y25" s="34">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="34">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="34">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="34">
+      <c r="Y25" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="30">
         <v>60</v>
       </c>
-      <c r="AD25" s="34">
+      <c r="AD25" s="30">
         <v>3</v>
       </c>
-      <c r="AE25" s="34">
+      <c r="AE25" s="30">
         <v>10</v>
       </c>
-      <c r="AF25" s="34">
+      <c r="AF25" s="30">
         <v>7</v>
       </c>
-      <c r="AG25" s="34">
+      <c r="AG25" s="30">
         <v>1000</v>
       </c>
-      <c r="AH25" s="34">
+      <c r="AH25" s="30">
         <v>140</v>
       </c>
-      <c r="AI25" s="34">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="34">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="34">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="AM25" s="34">
+      <c r="AI25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="30">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM25" s="30">
         <v>0.1</v>
       </c>
-      <c r="AN25" s="34">
-        <v>1</v>
-      </c>
-      <c r="AO25" s="34">
+      <c r="AN25" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="30">
         <v>70000001</v>
       </c>
-      <c r="AP25" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ25" s="34"/>
-      <c r="AR25" s="34">
-        <v>1</v>
-      </c>
-      <c r="AS25" s="34"/>
-      <c r="AT25" s="34"/>
+      <c r="AP25" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ25" s="30"/>
+      <c r="AR25" s="30">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="30"/>
+      <c r="AT25" s="30"/>
     </row>
-    <row r="26" spans="3:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C26" s="34">
+    <row r="26" spans="3:46" s="33" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C26" s="30">
         <v>70001208</v>
       </c>
-      <c r="D26" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="34">
-        <v>1</v>
-      </c>
-      <c r="F26" s="34">
-        <v>0</v>
-      </c>
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
-      <c r="H26" s="34">
-        <v>0</v>
-      </c>
-      <c r="I26" s="34">
-        <v>70001207</v>
-      </c>
-      <c r="J26" s="34">
-        <v>0</v>
-      </c>
-      <c r="K26" s="34">
-        <v>0</v>
-      </c>
-      <c r="L26" s="34">
+      <c r="D26" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="E26" s="30">
+        <v>1</v>
+      </c>
+      <c r="F26" s="30">
+        <v>0</v>
+      </c>
+      <c r="G26" s="30">
+        <v>0</v>
+      </c>
+      <c r="H26" s="30">
+        <v>0</v>
+      </c>
+      <c r="I26" s="30">
+        <v>72001002</v>
+      </c>
+      <c r="J26" s="30">
+        <v>0</v>
+      </c>
+      <c r="K26" s="30">
+        <v>0</v>
+      </c>
+      <c r="L26" s="30">
         <v>13</v>
       </c>
-      <c r="M26" s="34">
-        <v>2</v>
-      </c>
-      <c r="N26" s="34">
-        <v>2</v>
-      </c>
-      <c r="O26" s="34">
-        <v>2</v>
-      </c>
-      <c r="P26" s="34">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="34">
+      <c r="M26" s="30">
+        <v>2</v>
+      </c>
+      <c r="N26" s="30">
+        <v>2</v>
+      </c>
+      <c r="O26" s="30">
+        <v>2</v>
+      </c>
+      <c r="P26" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="30">
         <v>7350</v>
       </c>
-      <c r="R26" s="34">
+      <c r="R26" s="30">
         <v>700</v>
       </c>
-      <c r="S26" s="34">
+      <c r="S26" s="30">
         <v>700</v>
       </c>
-      <c r="T26" s="34">
+      <c r="T26" s="30">
         <v>210</v>
       </c>
-      <c r="U26" s="34">
+      <c r="U26" s="30">
         <v>210</v>
       </c>
-      <c r="V26" s="34">
-        <v>0</v>
-      </c>
-      <c r="W26" s="34">
-        <v>0</v>
-      </c>
-      <c r="X26" s="34">
+      <c r="V26" s="30">
+        <v>0</v>
+      </c>
+      <c r="W26" s="30">
+        <v>0</v>
+      </c>
+      <c r="X26" s="30">
         <v>0.75</v>
       </c>
-      <c r="Y26" s="34">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="34">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="34">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="34">
+      <c r="Y26" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="30">
         <v>60</v>
       </c>
-      <c r="AD26" s="34">
+      <c r="AD26" s="30">
         <v>3</v>
       </c>
-      <c r="AE26" s="34">
+      <c r="AE26" s="30">
         <v>10</v>
       </c>
-      <c r="AF26" s="34">
+      <c r="AF26" s="30">
         <v>7</v>
       </c>
-      <c r="AG26" s="34">
+      <c r="AG26" s="30">
         <v>1000</v>
       </c>
-      <c r="AH26" s="34">
+      <c r="AH26" s="30">
         <v>140</v>
       </c>
-      <c r="AI26" s="34">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="34">
-        <v>1</v>
-      </c>
-      <c r="AK26" s="34">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="AM26" s="34">
+      <c r="AI26" s="30">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="30">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="30">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM26" s="30">
         <v>0.1</v>
       </c>
-      <c r="AN26" s="34">
-        <v>1</v>
-      </c>
-      <c r="AO26" s="34">
+      <c r="AN26" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="30">
         <v>70000001</v>
       </c>
-      <c r="AP26" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ26" s="34"/>
-      <c r="AR26" s="34">
-        <v>1</v>
-      </c>
-      <c r="AS26" s="34"/>
-      <c r="AT26" s="34"/>
+      <c r="AP26" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ26" s="30"/>
+      <c r="AR26" s="30">
+        <v>1</v>
+      </c>
+      <c r="AS26" s="30"/>
+      <c r="AT26" s="30"/>
     </row>
-    <row r="27" spans="3:46" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C27" s="34">
+    <row r="27" spans="3:46" s="33" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C27" s="30">
         <v>70001209</v>
       </c>
-      <c r="D27" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="E27" s="34">
+      <c r="D27" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" s="30">
         <v>3</v>
       </c>
-      <c r="F27" s="34">
-        <v>0</v>
-      </c>
-      <c r="G27" s="34">
-        <v>0</v>
-      </c>
-      <c r="H27" s="34">
-        <v>0</v>
-      </c>
-      <c r="I27" s="34">
+      <c r="F27" s="30">
+        <v>0</v>
+      </c>
+      <c r="G27" s="30">
+        <v>0</v>
+      </c>
+      <c r="H27" s="30">
+        <v>0</v>
+      </c>
+      <c r="I27" s="30">
         <v>70001209</v>
       </c>
-      <c r="J27" s="34">
-        <v>0</v>
-      </c>
-      <c r="K27" s="34">
-        <v>0</v>
-      </c>
-      <c r="L27" s="34">
+      <c r="J27" s="30">
+        <v>0</v>
+      </c>
+      <c r="K27" s="30">
+        <v>0</v>
+      </c>
+      <c r="L27" s="30">
         <v>15</v>
       </c>
-      <c r="M27" s="34">
-        <v>2</v>
-      </c>
-      <c r="N27" s="34">
-        <v>2</v>
-      </c>
-      <c r="O27" s="34">
-        <v>2</v>
-      </c>
-      <c r="P27" s="34">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="34">
+      <c r="M27" s="30">
+        <v>2</v>
+      </c>
+      <c r="N27" s="30">
+        <v>2</v>
+      </c>
+      <c r="O27" s="30">
+        <v>2</v>
+      </c>
+      <c r="P27" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="30">
         <v>67200</v>
       </c>
-      <c r="R27" s="34">
+      <c r="R27" s="30">
         <v>1000</v>
       </c>
-      <c r="S27" s="34">
+      <c r="S27" s="30">
         <v>1000</v>
       </c>
-      <c r="T27" s="34">
+      <c r="T27" s="30">
         <v>300</v>
       </c>
-      <c r="U27" s="34">
+      <c r="U27" s="30">
         <v>300</v>
       </c>
-      <c r="V27" s="34">
-        <v>0</v>
-      </c>
-      <c r="W27" s="34">
-        <v>0</v>
-      </c>
-      <c r="X27" s="34">
+      <c r="V27" s="30">
+        <v>0</v>
+      </c>
+      <c r="W27" s="30">
+        <v>0</v>
+      </c>
+      <c r="X27" s="30">
         <v>0.75</v>
       </c>
-      <c r="Y27" s="34">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="34">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="34">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="34">
+      <c r="Y27" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="30">
         <v>3600</v>
       </c>
-      <c r="AD27" s="34">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="34">
+      <c r="AD27" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="30">
         <v>60</v>
       </c>
-      <c r="AF27" s="34">
+      <c r="AF27" s="30">
         <v>7</v>
       </c>
-      <c r="AG27" s="34">
+      <c r="AG27" s="30">
         <v>1000</v>
       </c>
-      <c r="AH27" s="34">
+      <c r="AH27" s="30">
         <v>3400</v>
       </c>
-      <c r="AI27" s="34">
-        <v>1</v>
-      </c>
-      <c r="AJ27" s="34">
-        <v>2</v>
-      </c>
-      <c r="AK27" s="34">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="AM27" s="34">
+      <c r="AI27" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="30">
+        <v>2</v>
+      </c>
+      <c r="AK27" s="30">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM27" s="30">
         <v>0.5</v>
       </c>
-      <c r="AN27" s="34">
-        <v>1</v>
-      </c>
-      <c r="AO27" s="34">
+      <c r="AN27" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="30">
         <v>70000001</v>
       </c>
-      <c r="AP27" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="AQ27" s="34"/>
-      <c r="AR27" s="34">
-        <v>1</v>
-      </c>
-      <c r="AS27" s="34"/>
-      <c r="AT27" s="34"/>
+      <c r="AP27" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ27" s="30"/>
+      <c r="AR27" s="30">
+        <v>1</v>
+      </c>
+      <c r="AS27" s="30"/>
+      <c r="AT27" s="30"/>
     </row>
     <row r="28" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C28" s="6">
@@ -9456,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="10" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AM28" s="6">
         <v>0.1</v>
@@ -9468,7 +9457,7 @@
         <v>70000001</v>
       </c>
       <c r="AP28" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ28" s="6"/>
       <c r="AR28" s="6">
@@ -9584,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="10" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AM29" s="6">
         <v>0.1</v>
@@ -9596,7 +9585,7 @@
         <v>70000001</v>
       </c>
       <c r="AP29" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ29" s="6"/>
       <c r="AR29" s="6">
@@ -9712,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="AL30" s="10" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AM30" s="6">
         <v>0.5</v>
@@ -9724,7 +9713,7 @@
         <v>70000001</v>
       </c>
       <c r="AP30" s="10" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="AQ30" s="6"/>
       <c r="AR30" s="6">
@@ -9738,7 +9727,7 @@
         <v>70002004</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="E31" s="27">
         <v>1</v>
@@ -9840,7 +9829,7 @@
         <v>0</v>
       </c>
       <c r="AL31" s="28" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="AM31" s="27">
         <v>0.1</v>
@@ -9852,21 +9841,21 @@
         <v>70000001</v>
       </c>
       <c r="AP31" s="28" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ31" s="27"/>
       <c r="AR31" s="27">
         <v>1</v>
       </c>
       <c r="AS31" s="27"/>
-      <c r="AT31" s="38"/>
+      <c r="AT31" s="34"/>
     </row>
     <row r="32" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C32" s="6">
         <v>70002005</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E32" s="6">
         <v>1</v>
@@ -9968,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AL32" s="10" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="AM32" s="6">
         <v>0.1</v>
@@ -9980,7 +9969,7 @@
         <v>70000001</v>
       </c>
       <c r="AP32" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ32" s="6"/>
       <c r="AR32" s="6">
@@ -9994,7 +9983,7 @@
         <v>70002006</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="E33" s="27">
         <v>3</v>
@@ -10096,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="28" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="AM33" s="27">
         <v>0</v>
@@ -10108,21 +10097,21 @@
         <v>70000001</v>
       </c>
       <c r="AP33" s="28" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AQ33" s="27"/>
       <c r="AR33" s="27">
         <v>1</v>
       </c>
       <c r="AS33" s="27"/>
-      <c r="AT33" s="38"/>
+      <c r="AT33" s="34"/>
     </row>
     <row r="34" spans="3:46" s="29" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C34" s="27">
         <v>70002007</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="E34" s="27">
         <v>3</v>
@@ -10224,7 +10213,7 @@
         <v>0</v>
       </c>
       <c r="AL34" s="28" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="AM34" s="27">
         <v>0.5</v>
@@ -10236,7 +10225,7 @@
         <v>70000001</v>
       </c>
       <c r="AP34" s="28" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="AQ34" s="27"/>
       <c r="AR34" s="27">
@@ -10352,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="AL35" s="10" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="AM35" s="6">
         <v>0.1</v>
@@ -10364,7 +10353,7 @@
         <v>70000001</v>
       </c>
       <c r="AP35" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ35" s="6"/>
       <c r="AR35" s="6">
@@ -10378,7 +10367,7 @@
         <v>70002009</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E36" s="6">
         <v>1</v>
@@ -10480,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="10" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AM36" s="6">
         <v>0.1</v>
@@ -10492,7 +10481,7 @@
         <v>70000001</v>
       </c>
       <c r="AP36" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ36" s="6"/>
       <c r="AR36" s="6">
@@ -10506,7 +10495,7 @@
         <v>70002010</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="E37" s="27">
         <v>1</v>
@@ -10608,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="28" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AM37" s="27">
         <v>0.1</v>
@@ -10620,21 +10609,21 @@
         <v>70000001</v>
       </c>
       <c r="AP37" s="28" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ37" s="27"/>
       <c r="AR37" s="27">
         <v>1</v>
       </c>
       <c r="AS37" s="27"/>
-      <c r="AT37" s="38"/>
+      <c r="AT37" s="34"/>
     </row>
     <row r="38" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C38" s="6">
         <v>70002011</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E38" s="6">
         <v>1</v>
@@ -10736,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="AL38" s="10" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="AM38" s="6">
         <v>0.1</v>
@@ -10748,7 +10737,7 @@
         <v>70000001</v>
       </c>
       <c r="AP38" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ38" s="6"/>
       <c r="AR38" s="6">
@@ -10762,7 +10751,7 @@
         <v>70002012</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E39" s="6">
         <v>3</v>
@@ -10864,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="AL39" s="10" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="AM39" s="6">
         <v>0.5</v>
@@ -10876,7 +10865,7 @@
         <v>70000001</v>
       </c>
       <c r="AP39" s="10" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="AQ39" s="6"/>
       <c r="AR39" s="6">
@@ -10992,7 +10981,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="10" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AM40" s="6">
         <v>0.1</v>
@@ -11004,7 +10993,7 @@
         <v>70000001</v>
       </c>
       <c r="AP40" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ40" s="6"/>
       <c r="AR40" s="6">
@@ -11120,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="AL41" s="10" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AM41" s="6">
         <v>0.1</v>
@@ -11132,7 +11121,7 @@
         <v>70000001</v>
       </c>
       <c r="AP41" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ41" s="6"/>
       <c r="AR41" s="6">
@@ -11248,7 +11237,7 @@
         <v>0</v>
       </c>
       <c r="AL42" s="10" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="AM42" s="6">
         <v>0.1</v>
@@ -11260,7 +11249,7 @@
         <v>70000001</v>
       </c>
       <c r="AP42" s="10" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="AQ42" s="6"/>
       <c r="AR42" s="6">
@@ -11376,7 +11365,7 @@
         <v>0</v>
       </c>
       <c r="AL43" s="10" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="AM43" s="6">
         <v>0.1</v>
@@ -11388,7 +11377,7 @@
         <v>70000001</v>
       </c>
       <c r="AP43" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ43" s="6"/>
       <c r="AR43" s="6">
@@ -11402,7 +11391,7 @@
         <v>70003005</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>107</v>
+        <v>417</v>
       </c>
       <c r="E44" s="6">
         <v>1</v>
@@ -11504,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="AL44" s="10" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="AM44" s="6">
         <v>0.1</v>
@@ -11516,7 +11505,7 @@
         <v>70000001</v>
       </c>
       <c r="AP44" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ44" s="6"/>
       <c r="AR44" s="6">
@@ -11530,7 +11519,7 @@
         <v>70003006</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E45" s="6">
         <v>3</v>
@@ -11632,7 +11621,7 @@
         <v>0</v>
       </c>
       <c r="AL45" s="10" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="AM45" s="6">
         <v>0.1</v>
@@ -11644,7 +11633,7 @@
         <v>70000001</v>
       </c>
       <c r="AP45" s="10" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="AQ45" s="6"/>
       <c r="AR45" s="6">
@@ -11658,7 +11647,7 @@
         <v>70003007</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E46" s="6">
         <v>1</v>
@@ -11760,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="10" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AM46" s="6">
         <v>0.1</v>
@@ -11772,7 +11761,7 @@
         <v>70000001</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ46" s="6"/>
       <c r="AR46" s="6">
@@ -11786,7 +11775,7 @@
         <v>70003008</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
@@ -11888,7 +11877,7 @@
         <v>0</v>
       </c>
       <c r="AL47" s="10" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AM47" s="6">
         <v>0.1</v>
@@ -11900,7 +11889,7 @@
         <v>70000001</v>
       </c>
       <c r="AP47" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ47" s="6"/>
       <c r="AR47" s="6">
@@ -11914,7 +11903,7 @@
         <v>70003009</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E48" s="6">
         <v>1</v>
@@ -12016,7 +12005,7 @@
         <v>0</v>
       </c>
       <c r="AL48" s="10" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AM48" s="6">
         <v>0.1</v>
@@ -12028,7 +12017,7 @@
         <v>70000001</v>
       </c>
       <c r="AP48" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ48" s="6"/>
       <c r="AR48" s="6">
@@ -12042,7 +12031,7 @@
         <v>70003010</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
@@ -12144,7 +12133,7 @@
         <v>0</v>
       </c>
       <c r="AL49" s="10" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AM49" s="6">
         <v>0.1</v>
@@ -12156,7 +12145,7 @@
         <v>70000001</v>
       </c>
       <c r="AP49" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ49" s="6"/>
       <c r="AR49" s="6">
@@ -12165,140 +12154,140 @@
       <c r="AS49" s="6"/>
       <c r="AT49" s="6"/>
     </row>
-    <row r="50" spans="3:46" s="32" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C50" s="30">
+    <row r="50" spans="3:46" s="29" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C50" s="27">
         <v>70003011</v>
       </c>
-      <c r="D50" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" s="30">
-        <v>1</v>
-      </c>
-      <c r="F50" s="30">
-        <v>0</v>
-      </c>
-      <c r="G50" s="30">
-        <v>0</v>
-      </c>
-      <c r="H50" s="30">
-        <v>0</v>
-      </c>
-      <c r="I50" s="30">
-        <v>70003011</v>
-      </c>
-      <c r="J50" s="30">
-        <v>0</v>
-      </c>
-      <c r="K50" s="30">
-        <v>0</v>
-      </c>
-      <c r="L50" s="30">
+      <c r="D50" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="E50" s="27">
+        <v>1</v>
+      </c>
+      <c r="F50" s="27">
+        <v>0</v>
+      </c>
+      <c r="G50" s="27">
+        <v>0</v>
+      </c>
+      <c r="H50" s="27">
+        <v>0</v>
+      </c>
+      <c r="I50" s="27">
+        <v>72004003</v>
+      </c>
+      <c r="J50" s="27">
+        <v>0</v>
+      </c>
+      <c r="K50" s="27">
+        <v>0</v>
+      </c>
+      <c r="L50" s="27">
         <v>36</v>
       </c>
-      <c r="M50" s="30">
-        <v>2</v>
-      </c>
-      <c r="N50" s="30">
-        <v>2</v>
-      </c>
-      <c r="O50" s="30">
-        <v>2</v>
-      </c>
-      <c r="P50" s="30">
-        <v>2</v>
-      </c>
-      <c r="Q50" s="30">
+      <c r="M50" s="27">
+        <v>2</v>
+      </c>
+      <c r="N50" s="27">
+        <v>2</v>
+      </c>
+      <c r="O50" s="27">
+        <v>2</v>
+      </c>
+      <c r="P50" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="27">
         <v>31500</v>
       </c>
-      <c r="R50" s="30">
+      <c r="R50" s="27">
         <v>3000</v>
       </c>
-      <c r="S50" s="30">
+      <c r="S50" s="27">
         <v>3000</v>
       </c>
-      <c r="T50" s="30">
+      <c r="T50" s="27">
         <v>900</v>
       </c>
-      <c r="U50" s="30">
+      <c r="U50" s="27">
         <v>900</v>
       </c>
-      <c r="V50" s="30">
-        <v>0</v>
-      </c>
-      <c r="W50" s="30">
-        <v>0</v>
-      </c>
-      <c r="X50" s="30">
+      <c r="V50" s="27">
+        <v>0</v>
+      </c>
+      <c r="W50" s="27">
+        <v>0</v>
+      </c>
+      <c r="X50" s="27">
         <v>0.75</v>
       </c>
-      <c r="Y50" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="30">
+      <c r="Y50" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="27">
         <v>60</v>
       </c>
-      <c r="AD50" s="30">
+      <c r="AD50" s="27">
         <v>3</v>
       </c>
-      <c r="AE50" s="30">
+      <c r="AE50" s="27">
         <v>10</v>
       </c>
-      <c r="AF50" s="30">
+      <c r="AF50" s="27">
         <v>7</v>
       </c>
-      <c r="AG50" s="30">
+      <c r="AG50" s="27">
         <v>1000</v>
       </c>
-      <c r="AH50" s="30">
+      <c r="AH50" s="27">
         <v>760</v>
       </c>
-      <c r="AI50" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ50" s="30">
+      <c r="AI50" s="27">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="27">
         <v>1.5</v>
       </c>
-      <c r="AK50" s="30">
-        <v>0</v>
-      </c>
-      <c r="AL50" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AM50" s="30">
+      <c r="AK50" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM50" s="27">
         <v>0.1</v>
       </c>
-      <c r="AN50" s="30">
-        <v>1</v>
-      </c>
-      <c r="AO50" s="30">
+      <c r="AN50" s="27">
+        <v>1</v>
+      </c>
+      <c r="AO50" s="27">
         <v>70000001</v>
       </c>
-      <c r="AP50" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ50" s="30"/>
-      <c r="AR50" s="30">
-        <v>1</v>
-      </c>
-      <c r="AS50" s="30"/>
-      <c r="AT50" s="30"/>
+      <c r="AP50" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ50" s="27"/>
+      <c r="AR50" s="27">
+        <v>1</v>
+      </c>
+      <c r="AS50" s="27"/>
+      <c r="AT50" s="27"/>
     </row>
     <row r="51" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C51" s="6">
         <v>70003012</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E51" s="6">
         <v>3</v>
@@ -12400,7 +12389,7 @@
         <v>0</v>
       </c>
       <c r="AL51" s="10" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="AM51" s="6">
         <v>0.1</v>
@@ -12412,7 +12401,7 @@
         <v>70000001</v>
       </c>
       <c r="AP51" s="10" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="AQ51" s="6"/>
       <c r="AR51" s="6">
@@ -12421,140 +12410,140 @@
       <c r="AS51" s="6"/>
       <c r="AT51" s="6"/>
     </row>
-    <row r="52" spans="3:46" s="32" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C52" s="30">
+    <row r="52" spans="3:46" s="29" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C52" s="27">
         <v>70003013</v>
       </c>
-      <c r="D52" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E52" s="30">
-        <v>1</v>
-      </c>
-      <c r="F52" s="30">
-        <v>0</v>
-      </c>
-      <c r="G52" s="30">
-        <v>0</v>
-      </c>
-      <c r="H52" s="30">
-        <v>0</v>
-      </c>
-      <c r="I52" s="30">
-        <v>70003013</v>
-      </c>
-      <c r="J52" s="30">
-        <v>0</v>
-      </c>
-      <c r="K52" s="30">
-        <v>0</v>
-      </c>
-      <c r="L52" s="30">
+      <c r="D52" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E52" s="27">
+        <v>1</v>
+      </c>
+      <c r="F52" s="27">
+        <v>0</v>
+      </c>
+      <c r="G52" s="27">
+        <v>0</v>
+      </c>
+      <c r="H52" s="27">
+        <v>0</v>
+      </c>
+      <c r="I52" s="27">
+        <v>72004004</v>
+      </c>
+      <c r="J52" s="27">
+        <v>0</v>
+      </c>
+      <c r="K52" s="27">
+        <v>0</v>
+      </c>
+      <c r="L52" s="27">
         <v>38</v>
       </c>
-      <c r="M52" s="30">
-        <v>2</v>
-      </c>
-      <c r="N52" s="30">
-        <v>2</v>
-      </c>
-      <c r="O52" s="30">
-        <v>2</v>
-      </c>
-      <c r="P52" s="30">
-        <v>2</v>
-      </c>
-      <c r="Q52" s="30">
+      <c r="M52" s="27">
+        <v>2</v>
+      </c>
+      <c r="N52" s="27">
+        <v>2</v>
+      </c>
+      <c r="O52" s="27">
+        <v>2</v>
+      </c>
+      <c r="P52" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q52" s="27">
         <v>33600</v>
       </c>
-      <c r="R52" s="30">
+      <c r="R52" s="27">
         <v>3200</v>
       </c>
-      <c r="S52" s="30">
+      <c r="S52" s="27">
         <v>3200</v>
       </c>
-      <c r="T52" s="30">
+      <c r="T52" s="27">
         <v>960</v>
       </c>
-      <c r="U52" s="30">
+      <c r="U52" s="27">
         <v>960</v>
       </c>
-      <c r="V52" s="30">
-        <v>0</v>
-      </c>
-      <c r="W52" s="30">
-        <v>0</v>
-      </c>
-      <c r="X52" s="30">
+      <c r="V52" s="27">
+        <v>0</v>
+      </c>
+      <c r="W52" s="27">
+        <v>0</v>
+      </c>
+      <c r="X52" s="27">
         <v>0.75</v>
       </c>
-      <c r="Y52" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="30">
+      <c r="Y52" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="27">
         <v>60</v>
       </c>
-      <c r="AD52" s="30">
+      <c r="AD52" s="27">
         <v>3</v>
       </c>
-      <c r="AE52" s="30">
+      <c r="AE52" s="27">
         <v>10</v>
       </c>
-      <c r="AF52" s="30">
+      <c r="AF52" s="27">
         <v>7</v>
       </c>
-      <c r="AG52" s="30">
+      <c r="AG52" s="27">
         <v>1000</v>
       </c>
-      <c r="AH52" s="30">
+      <c r="AH52" s="27">
         <v>880</v>
       </c>
-      <c r="AI52" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="30">
+      <c r="AI52" s="27">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="27">
         <v>1.5</v>
       </c>
-      <c r="AK52" s="30">
-        <v>0</v>
-      </c>
-      <c r="AL52" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AM52" s="30">
+      <c r="AK52" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM52" s="27">
         <v>0.1</v>
       </c>
-      <c r="AN52" s="30">
-        <v>1</v>
-      </c>
-      <c r="AO52" s="30">
+      <c r="AN52" s="27">
+        <v>1</v>
+      </c>
+      <c r="AO52" s="27">
         <v>70000001</v>
       </c>
-      <c r="AP52" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ52" s="30"/>
-      <c r="AR52" s="30">
-        <v>1</v>
-      </c>
-      <c r="AS52" s="30"/>
-      <c r="AT52" s="30"/>
+      <c r="AP52" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ52" s="27"/>
+      <c r="AR52" s="27">
+        <v>1</v>
+      </c>
+      <c r="AS52" s="27"/>
+      <c r="AT52" s="27"/>
     </row>
     <row r="53" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C53" s="6">
         <v>70003014</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
@@ -12569,7 +12558,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="6">
-        <v>70003014</v>
+        <v>70003004</v>
       </c>
       <c r="J53" s="6">
         <v>0</v>
@@ -12656,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="AL53" s="10" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="AM53" s="6">
         <v>0.1</v>
@@ -12668,7 +12657,7 @@
         <v>70000001</v>
       </c>
       <c r="AP53" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ53" s="6"/>
       <c r="AR53" s="6">
@@ -12682,7 +12671,7 @@
         <v>70003015</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
@@ -12697,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="6">
-        <v>70003015</v>
+        <v>70003005</v>
       </c>
       <c r="J54" s="6">
         <v>0</v>
@@ -12784,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="AL54" s="10" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AM54" s="6">
         <v>0.1</v>
@@ -12796,7 +12785,7 @@
         <v>70000001</v>
       </c>
       <c r="AP54" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ54" s="6"/>
       <c r="AR54" s="6">
@@ -12810,7 +12799,7 @@
         <v>70003016</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E55" s="6">
         <v>3</v>
@@ -12912,7 +12901,7 @@
         <v>0</v>
       </c>
       <c r="AL55" s="10" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="AM55" s="6">
         <v>0.1</v>
@@ -12924,7 +12913,7 @@
         <v>70000001</v>
       </c>
       <c r="AP55" s="10" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="AQ55" s="6"/>
       <c r="AR55" s="6">
@@ -12933,268 +12922,268 @@
       <c r="AS55" s="6"/>
       <c r="AT55" s="6"/>
     </row>
-    <row r="56" spans="3:46" s="32" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C56" s="30">
+    <row r="56" spans="3:46" s="29" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C56" s="27">
         <v>70004001</v>
       </c>
-      <c r="D56" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E56" s="30">
-        <v>1</v>
-      </c>
-      <c r="F56" s="30">
-        <v>0</v>
-      </c>
-      <c r="G56" s="30">
-        <v>0</v>
-      </c>
-      <c r="H56" s="30">
-        <v>0</v>
-      </c>
-      <c r="I56" s="30">
-        <v>70004001</v>
-      </c>
-      <c r="J56" s="30">
-        <v>0</v>
-      </c>
-      <c r="K56" s="30">
-        <v>0</v>
-      </c>
-      <c r="L56" s="30">
+      <c r="D56" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="27">
+        <v>1</v>
+      </c>
+      <c r="F56" s="27">
+        <v>0</v>
+      </c>
+      <c r="G56" s="27">
+        <v>0</v>
+      </c>
+      <c r="H56" s="27">
+        <v>0</v>
+      </c>
+      <c r="I56" s="27">
+        <v>72004002</v>
+      </c>
+      <c r="J56" s="27">
+        <v>0</v>
+      </c>
+      <c r="K56" s="27">
+        <v>0</v>
+      </c>
+      <c r="L56" s="27">
         <v>40</v>
       </c>
-      <c r="M56" s="30">
-        <v>2</v>
-      </c>
-      <c r="N56" s="30">
-        <v>2</v>
-      </c>
-      <c r="O56" s="30">
-        <v>2</v>
-      </c>
-      <c r="P56" s="30">
-        <v>2</v>
-      </c>
-      <c r="Q56" s="30">
+      <c r="M56" s="27">
+        <v>2</v>
+      </c>
+      <c r="N56" s="27">
+        <v>2</v>
+      </c>
+      <c r="O56" s="27">
+        <v>2</v>
+      </c>
+      <c r="P56" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="27">
         <v>35700</v>
       </c>
-      <c r="R56" s="30">
+      <c r="R56" s="27">
         <v>3400</v>
       </c>
-      <c r="S56" s="30">
+      <c r="S56" s="27">
         <v>3400</v>
       </c>
-      <c r="T56" s="30">
+      <c r="T56" s="27">
         <v>1020</v>
       </c>
-      <c r="U56" s="30">
+      <c r="U56" s="27">
         <v>1020</v>
       </c>
-      <c r="V56" s="30">
-        <v>0</v>
-      </c>
-      <c r="W56" s="30">
-        <v>0</v>
-      </c>
-      <c r="X56" s="30">
+      <c r="V56" s="27">
+        <v>0</v>
+      </c>
+      <c r="W56" s="27">
+        <v>0</v>
+      </c>
+      <c r="X56" s="27">
         <v>0.75</v>
       </c>
-      <c r="Y56" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="30">
+      <c r="Y56" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="27">
         <v>60</v>
       </c>
-      <c r="AD56" s="30">
+      <c r="AD56" s="27">
         <v>3</v>
       </c>
-      <c r="AE56" s="30">
+      <c r="AE56" s="27">
         <v>10</v>
       </c>
-      <c r="AF56" s="30">
+      <c r="AF56" s="27">
         <v>7</v>
       </c>
-      <c r="AG56" s="30">
+      <c r="AG56" s="27">
         <v>1000</v>
       </c>
-      <c r="AH56" s="30">
+      <c r="AH56" s="27">
         <v>880</v>
       </c>
-      <c r="AI56" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ56" s="30">
-        <v>1</v>
-      </c>
-      <c r="AK56" s="30">
-        <v>0</v>
-      </c>
-      <c r="AL56" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="AM56" s="30">
+      <c r="AI56" s="27">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="27">
+        <v>1</v>
+      </c>
+      <c r="AK56" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="AM56" s="27">
         <v>0.1</v>
       </c>
-      <c r="AN56" s="30">
-        <v>1</v>
-      </c>
-      <c r="AO56" s="30">
+      <c r="AN56" s="27">
+        <v>1</v>
+      </c>
+      <c r="AO56" s="27">
         <v>70000001</v>
       </c>
-      <c r="AP56" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ56" s="30"/>
-      <c r="AR56" s="30">
-        <v>1</v>
-      </c>
-      <c r="AS56" s="30"/>
-      <c r="AT56" s="30"/>
+      <c r="AP56" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ56" s="27"/>
+      <c r="AR56" s="27">
+        <v>1</v>
+      </c>
+      <c r="AS56" s="27"/>
+      <c r="AT56" s="27"/>
     </row>
-    <row r="57" spans="3:46" s="32" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C57" s="30">
+    <row r="57" spans="3:46" s="29" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C57" s="27">
         <v>70004002</v>
       </c>
-      <c r="D57" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E57" s="30">
-        <v>1</v>
-      </c>
-      <c r="F57" s="30">
-        <v>0</v>
-      </c>
-      <c r="G57" s="30">
-        <v>0</v>
-      </c>
-      <c r="H57" s="30">
-        <v>0</v>
-      </c>
-      <c r="I57" s="30">
-        <v>70004002</v>
-      </c>
-      <c r="J57" s="30">
-        <v>0</v>
-      </c>
-      <c r="K57" s="30">
-        <v>0</v>
-      </c>
-      <c r="L57" s="30">
+      <c r="D57" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E57" s="27">
+        <v>1</v>
+      </c>
+      <c r="F57" s="27">
+        <v>0</v>
+      </c>
+      <c r="G57" s="27">
+        <v>0</v>
+      </c>
+      <c r="H57" s="27">
+        <v>0</v>
+      </c>
+      <c r="I57" s="27">
+        <v>72004004</v>
+      </c>
+      <c r="J57" s="27">
+        <v>0</v>
+      </c>
+      <c r="K57" s="27">
+        <v>0</v>
+      </c>
+      <c r="L57" s="27">
         <v>40</v>
       </c>
-      <c r="M57" s="30">
-        <v>2</v>
-      </c>
-      <c r="N57" s="30">
-        <v>2</v>
-      </c>
-      <c r="O57" s="30">
-        <v>2</v>
-      </c>
-      <c r="P57" s="30">
-        <v>2</v>
-      </c>
-      <c r="Q57" s="30">
+      <c r="M57" s="27">
+        <v>2</v>
+      </c>
+      <c r="N57" s="27">
+        <v>2</v>
+      </c>
+      <c r="O57" s="27">
+        <v>2</v>
+      </c>
+      <c r="P57" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="27">
         <v>35700</v>
       </c>
-      <c r="R57" s="30">
+      <c r="R57" s="27">
         <v>3400</v>
       </c>
-      <c r="S57" s="30">
+      <c r="S57" s="27">
         <v>3400</v>
       </c>
-      <c r="T57" s="30">
+      <c r="T57" s="27">
         <v>1020</v>
       </c>
-      <c r="U57" s="30">
+      <c r="U57" s="27">
         <v>1020</v>
       </c>
-      <c r="V57" s="30">
-        <v>0</v>
-      </c>
-      <c r="W57" s="30">
-        <v>0</v>
-      </c>
-      <c r="X57" s="30">
+      <c r="V57" s="27">
+        <v>0</v>
+      </c>
+      <c r="W57" s="27">
+        <v>0</v>
+      </c>
+      <c r="X57" s="27">
         <v>0.75</v>
       </c>
-      <c r="Y57" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="30">
+      <c r="Y57" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="27">
         <v>60</v>
       </c>
-      <c r="AD57" s="30">
+      <c r="AD57" s="27">
         <v>3</v>
       </c>
-      <c r="AE57" s="30">
+      <c r="AE57" s="27">
         <v>10</v>
       </c>
-      <c r="AF57" s="30">
+      <c r="AF57" s="27">
         <v>7</v>
       </c>
-      <c r="AG57" s="30">
+      <c r="AG57" s="27">
         <v>1000</v>
       </c>
-      <c r="AH57" s="30">
+      <c r="AH57" s="27">
         <v>880</v>
       </c>
-      <c r="AI57" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="30">
+      <c r="AI57" s="27">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="27">
         <v>1.5</v>
       </c>
-      <c r="AK57" s="30">
-        <v>0</v>
-      </c>
-      <c r="AL57" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="AM57" s="30">
+      <c r="AK57" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM57" s="27">
         <v>0.1</v>
       </c>
-      <c r="AN57" s="30">
-        <v>1</v>
-      </c>
-      <c r="AO57" s="30">
+      <c r="AN57" s="27">
+        <v>1</v>
+      </c>
+      <c r="AO57" s="27">
         <v>70000001</v>
       </c>
-      <c r="AP57" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ57" s="30"/>
-      <c r="AR57" s="30">
-        <v>1</v>
-      </c>
-      <c r="AS57" s="30"/>
-      <c r="AT57" s="33"/>
+      <c r="AP57" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ57" s="27"/>
+      <c r="AR57" s="27">
+        <v>1</v>
+      </c>
+      <c r="AS57" s="27"/>
+      <c r="AT57" s="35"/>
     </row>
     <row r="58" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C58" s="6">
         <v>70004003</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E58" s="6">
         <v>3</v>
@@ -13296,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="AL58" s="10" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="AM58" s="6">
         <v>0.1</v>
@@ -13308,7 +13297,7 @@
         <v>70000001</v>
       </c>
       <c r="AP58" s="10" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="AQ58" s="6"/>
       <c r="AR58" s="6">
@@ -13317,396 +13306,396 @@
       <c r="AS58" s="6"/>
       <c r="AT58" s="6"/>
     </row>
-    <row r="59" spans="3:46" s="32" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C59" s="30">
+    <row r="59" spans="3:46" s="29" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C59" s="27">
         <v>70004004</v>
       </c>
-      <c r="D59" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="E59" s="30">
-        <v>1</v>
-      </c>
-      <c r="F59" s="30">
-        <v>0</v>
-      </c>
-      <c r="G59" s="30">
-        <v>0</v>
-      </c>
-      <c r="H59" s="30">
-        <v>0</v>
-      </c>
-      <c r="I59" s="30">
-        <v>70004004</v>
-      </c>
-      <c r="J59" s="30">
-        <v>0</v>
-      </c>
-      <c r="K59" s="30">
-        <v>0</v>
-      </c>
-      <c r="L59" s="30">
+      <c r="D59" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="27">
+        <v>1</v>
+      </c>
+      <c r="F59" s="27">
+        <v>0</v>
+      </c>
+      <c r="G59" s="27">
+        <v>0</v>
+      </c>
+      <c r="H59" s="27">
+        <v>0</v>
+      </c>
+      <c r="I59" s="27">
+        <v>72004001</v>
+      </c>
+      <c r="J59" s="27">
+        <v>0</v>
+      </c>
+      <c r="K59" s="27">
+        <v>0</v>
+      </c>
+      <c r="L59" s="27">
         <v>42</v>
       </c>
-      <c r="M59" s="30">
-        <v>2</v>
-      </c>
-      <c r="N59" s="30">
-        <v>2</v>
-      </c>
-      <c r="O59" s="30">
-        <v>2</v>
-      </c>
-      <c r="P59" s="30">
-        <v>2</v>
-      </c>
-      <c r="Q59" s="30">
+      <c r="M59" s="27">
+        <v>2</v>
+      </c>
+      <c r="N59" s="27">
+        <v>2</v>
+      </c>
+      <c r="O59" s="27">
+        <v>2</v>
+      </c>
+      <c r="P59" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="27">
         <v>42000</v>
       </c>
-      <c r="R59" s="30">
+      <c r="R59" s="27">
         <v>4000</v>
       </c>
-      <c r="S59" s="30">
+      <c r="S59" s="27">
         <v>4000</v>
       </c>
-      <c r="T59" s="30">
+      <c r="T59" s="27">
         <v>1200</v>
       </c>
-      <c r="U59" s="30">
+      <c r="U59" s="27">
         <v>1200</v>
       </c>
-      <c r="V59" s="30">
-        <v>0</v>
-      </c>
-      <c r="W59" s="30">
-        <v>0</v>
-      </c>
-      <c r="X59" s="30">
+      <c r="V59" s="27">
+        <v>0</v>
+      </c>
+      <c r="W59" s="27">
+        <v>0</v>
+      </c>
+      <c r="X59" s="27">
         <v>0.75</v>
       </c>
-      <c r="Y59" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="30">
+      <c r="Y59" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="27">
         <v>60</v>
       </c>
-      <c r="AD59" s="30">
+      <c r="AD59" s="27">
         <v>3</v>
       </c>
-      <c r="AE59" s="30">
+      <c r="AE59" s="27">
         <v>10</v>
       </c>
-      <c r="AF59" s="30">
+      <c r="AF59" s="27">
         <v>7</v>
       </c>
-      <c r="AG59" s="30">
+      <c r="AG59" s="27">
         <v>1000</v>
       </c>
-      <c r="AH59" s="30">
+      <c r="AH59" s="27">
         <v>940</v>
       </c>
-      <c r="AI59" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ59" s="30">
-        <v>1</v>
-      </c>
-      <c r="AK59" s="30">
-        <v>0</v>
-      </c>
-      <c r="AL59" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="AM59" s="30">
+      <c r="AI59" s="27">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="27">
+        <v>1</v>
+      </c>
+      <c r="AK59" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="AM59" s="27">
         <v>0.1</v>
       </c>
-      <c r="AN59" s="30">
-        <v>1</v>
-      </c>
-      <c r="AO59" s="30">
+      <c r="AN59" s="27">
+        <v>1</v>
+      </c>
+      <c r="AO59" s="27">
         <v>70000001</v>
       </c>
-      <c r="AP59" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ59" s="30"/>
-      <c r="AR59" s="30">
-        <v>1</v>
-      </c>
-      <c r="AS59" s="30"/>
-      <c r="AT59" s="33"/>
+      <c r="AP59" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ59" s="27"/>
+      <c r="AR59" s="27">
+        <v>1</v>
+      </c>
+      <c r="AS59" s="27"/>
+      <c r="AT59" s="35"/>
     </row>
-    <row r="60" spans="3:46" s="32" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C60" s="30">
+    <row r="60" spans="3:46" s="29" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C60" s="27">
         <v>70004005</v>
       </c>
-      <c r="D60" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="E60" s="30">
-        <v>1</v>
-      </c>
-      <c r="F60" s="30">
-        <v>0</v>
-      </c>
-      <c r="G60" s="30">
-        <v>0</v>
-      </c>
-      <c r="H60" s="30">
-        <v>0</v>
-      </c>
-      <c r="I60" s="30">
-        <v>70004005</v>
-      </c>
-      <c r="J60" s="30">
-        <v>0</v>
-      </c>
-      <c r="K60" s="30">
-        <v>0</v>
-      </c>
-      <c r="L60" s="30">
+      <c r="D60" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="E60" s="27">
+        <v>1</v>
+      </c>
+      <c r="F60" s="27">
+        <v>0</v>
+      </c>
+      <c r="G60" s="27">
+        <v>0</v>
+      </c>
+      <c r="H60" s="27">
+        <v>0</v>
+      </c>
+      <c r="I60" s="27">
+        <v>72004004</v>
+      </c>
+      <c r="J60" s="27">
+        <v>0</v>
+      </c>
+      <c r="K60" s="27">
+        <v>0</v>
+      </c>
+      <c r="L60" s="27">
         <v>42</v>
       </c>
-      <c r="M60" s="30">
-        <v>2</v>
-      </c>
-      <c r="N60" s="30">
-        <v>2</v>
-      </c>
-      <c r="O60" s="30">
-        <v>2</v>
-      </c>
-      <c r="P60" s="30">
-        <v>2</v>
-      </c>
-      <c r="Q60" s="30">
+      <c r="M60" s="27">
+        <v>2</v>
+      </c>
+      <c r="N60" s="27">
+        <v>2</v>
+      </c>
+      <c r="O60" s="27">
+        <v>2</v>
+      </c>
+      <c r="P60" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q60" s="27">
         <v>42000</v>
       </c>
-      <c r="R60" s="30">
+      <c r="R60" s="27">
         <v>4000</v>
       </c>
-      <c r="S60" s="30">
+      <c r="S60" s="27">
         <v>4000</v>
       </c>
-      <c r="T60" s="30">
+      <c r="T60" s="27">
         <v>1200</v>
       </c>
-      <c r="U60" s="30">
+      <c r="U60" s="27">
         <v>1200</v>
       </c>
-      <c r="V60" s="30">
-        <v>0</v>
-      </c>
-      <c r="W60" s="30">
-        <v>0</v>
-      </c>
-      <c r="X60" s="30">
+      <c r="V60" s="27">
+        <v>0</v>
+      </c>
+      <c r="W60" s="27">
+        <v>0</v>
+      </c>
+      <c r="X60" s="27">
         <v>0.75</v>
       </c>
-      <c r="Y60" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="30">
+      <c r="Y60" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="27">
         <v>60</v>
       </c>
-      <c r="AD60" s="30">
+      <c r="AD60" s="27">
         <v>3</v>
       </c>
-      <c r="AE60" s="30">
+      <c r="AE60" s="27">
         <v>10</v>
       </c>
-      <c r="AF60" s="30">
+      <c r="AF60" s="27">
         <v>7</v>
       </c>
-      <c r="AG60" s="30">
+      <c r="AG60" s="27">
         <v>1000</v>
       </c>
-      <c r="AH60" s="30">
+      <c r="AH60" s="27">
         <v>940</v>
       </c>
-      <c r="AI60" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ60" s="30">
+      <c r="AI60" s="27">
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="27">
         <v>1.5</v>
       </c>
-      <c r="AK60" s="30">
-        <v>0</v>
-      </c>
-      <c r="AL60" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="AM60" s="30">
+      <c r="AK60" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM60" s="27">
         <v>0.1</v>
       </c>
-      <c r="AN60" s="30">
-        <v>1</v>
-      </c>
-      <c r="AO60" s="30">
+      <c r="AN60" s="27">
+        <v>1</v>
+      </c>
+      <c r="AO60" s="27">
         <v>70000001</v>
       </c>
-      <c r="AP60" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ60" s="30"/>
-      <c r="AR60" s="30">
-        <v>1</v>
-      </c>
-      <c r="AS60" s="30"/>
-      <c r="AT60" s="33"/>
+      <c r="AP60" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ60" s="27"/>
+      <c r="AR60" s="27">
+        <v>1</v>
+      </c>
+      <c r="AS60" s="27"/>
+      <c r="AT60" s="35"/>
     </row>
-    <row r="61" spans="3:46" s="32" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C61" s="30">
+    <row r="61" spans="3:46" s="29" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C61" s="27">
         <v>70004006</v>
       </c>
-      <c r="D61" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="E61" s="30">
+      <c r="D61" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="E61" s="27">
         <v>3</v>
       </c>
-      <c r="F61" s="30">
-        <v>0</v>
-      </c>
-      <c r="G61" s="30">
-        <v>0</v>
-      </c>
-      <c r="H61" s="30">
-        <v>0</v>
-      </c>
-      <c r="I61" s="30">
+      <c r="F61" s="27">
+        <v>0</v>
+      </c>
+      <c r="G61" s="27">
+        <v>0</v>
+      </c>
+      <c r="H61" s="27">
+        <v>0</v>
+      </c>
+      <c r="I61" s="27">
         <v>70004006</v>
       </c>
-      <c r="J61" s="30">
-        <v>0</v>
-      </c>
-      <c r="K61" s="30">
-        <v>0</v>
-      </c>
-      <c r="L61" s="30">
+      <c r="J61" s="27">
+        <v>0</v>
+      </c>
+      <c r="K61" s="27">
+        <v>0</v>
+      </c>
+      <c r="L61" s="27">
         <v>44</v>
       </c>
-      <c r="M61" s="30">
-        <v>2</v>
-      </c>
-      <c r="N61" s="30">
-        <v>2</v>
-      </c>
-      <c r="O61" s="30">
-        <v>2</v>
-      </c>
-      <c r="P61" s="30">
-        <v>2</v>
-      </c>
-      <c r="Q61" s="30">
+      <c r="M61" s="27">
+        <v>2</v>
+      </c>
+      <c r="N61" s="27">
+        <v>2</v>
+      </c>
+      <c r="O61" s="27">
+        <v>2</v>
+      </c>
+      <c r="P61" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q61" s="27">
         <v>352800</v>
       </c>
-      <c r="R61" s="30">
+      <c r="R61" s="27">
         <v>5250</v>
       </c>
-      <c r="S61" s="30">
+      <c r="S61" s="27">
         <v>5250</v>
       </c>
-      <c r="T61" s="30">
+      <c r="T61" s="27">
         <v>1575</v>
       </c>
-      <c r="U61" s="30">
+      <c r="U61" s="27">
         <v>1575</v>
       </c>
-      <c r="V61" s="30">
-        <v>0</v>
-      </c>
-      <c r="W61" s="30">
-        <v>0</v>
-      </c>
-      <c r="X61" s="30">
+      <c r="V61" s="27">
+        <v>0</v>
+      </c>
+      <c r="W61" s="27">
+        <v>0</v>
+      </c>
+      <c r="X61" s="27">
         <v>0.75</v>
       </c>
-      <c r="Y61" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="30">
+      <c r="Y61" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="27">
         <v>5400</v>
       </c>
-      <c r="AD61" s="30">
+      <c r="AD61" s="27">
         <v>3</v>
       </c>
-      <c r="AE61" s="30">
+      <c r="AE61" s="27">
         <v>60</v>
       </c>
-      <c r="AF61" s="30">
+      <c r="AF61" s="27">
         <v>7</v>
       </c>
-      <c r="AG61" s="30">
+      <c r="AG61" s="27">
         <v>1000</v>
       </c>
-      <c r="AH61" s="30">
+      <c r="AH61" s="27">
         <v>20000</v>
       </c>
-      <c r="AI61" s="30">
-        <v>1</v>
-      </c>
-      <c r="AJ61" s="30">
-        <v>2</v>
-      </c>
-      <c r="AK61" s="30">
-        <v>0</v>
-      </c>
-      <c r="AL61" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="AM61" s="30">
+      <c r="AI61" s="27">
+        <v>1</v>
+      </c>
+      <c r="AJ61" s="27">
+        <v>2</v>
+      </c>
+      <c r="AK61" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="AM61" s="27">
         <v>0.1</v>
       </c>
-      <c r="AN61" s="30">
-        <v>1</v>
-      </c>
-      <c r="AO61" s="30">
+      <c r="AN61" s="27">
+        <v>1</v>
+      </c>
+      <c r="AO61" s="27">
         <v>70000001</v>
       </c>
-      <c r="AP61" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="AQ61" s="30"/>
-      <c r="AR61" s="30">
-        <v>1</v>
-      </c>
-      <c r="AS61" s="30"/>
-      <c r="AT61" s="33"/>
+      <c r="AP61" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ61" s="27"/>
+      <c r="AR61" s="27">
+        <v>1</v>
+      </c>
+      <c r="AS61" s="27"/>
+      <c r="AT61" s="35"/>
     </row>
     <row r="62" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C62" s="6">
         <v>70004007</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E62" s="6">
         <v>1</v>
@@ -13808,7 +13797,7 @@
         <v>0</v>
       </c>
       <c r="AL62" s="10" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="AM62" s="6">
         <v>0.1</v>
@@ -13820,7 +13809,7 @@
         <v>70000001</v>
       </c>
       <c r="AP62" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ62" s="6"/>
       <c r="AR62" s="6">
@@ -13834,7 +13823,7 @@
         <v>70004008</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
@@ -13936,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="10" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="AM63" s="6">
         <v>0.1</v>
@@ -13948,7 +13937,7 @@
         <v>70000001</v>
       </c>
       <c r="AP63" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ63" s="6"/>
       <c r="AR63" s="6">
@@ -13962,7 +13951,7 @@
         <v>70004009</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E64" s="6">
         <v>1</v>
@@ -14064,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="AL64" s="10" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="AM64" s="6">
         <v>0.1</v>
@@ -14076,7 +14065,7 @@
         <v>70000001</v>
       </c>
       <c r="AP64" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ64" s="6"/>
       <c r="AR64" s="6">
@@ -14090,7 +14079,7 @@
         <v>70004010</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E65" s="6">
         <v>3</v>
@@ -14192,7 +14181,7 @@
         <v>0</v>
       </c>
       <c r="AL65" s="10" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="AM65" s="6">
         <v>0.1</v>
@@ -14204,7 +14193,7 @@
         <v>70000001</v>
       </c>
       <c r="AP65" s="10" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="AQ65" s="6"/>
       <c r="AR65" s="6">
@@ -14218,7 +14207,7 @@
         <v>70004011</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>126</v>
+        <v>427</v>
       </c>
       <c r="E66" s="6">
         <v>1</v>
@@ -14320,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="AL66" s="10" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="AM66" s="6">
         <v>0.1</v>
@@ -14332,7 +14321,7 @@
         <v>70000001</v>
       </c>
       <c r="AP66" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ66" s="6"/>
       <c r="AR66" s="6">
@@ -14346,7 +14335,7 @@
         <v>70004012</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>127</v>
+        <v>428</v>
       </c>
       <c r="E67" s="6">
         <v>1</v>
@@ -14361,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="6">
-        <v>70004012</v>
+        <v>72003003</v>
       </c>
       <c r="J67" s="6">
         <v>0</v>
@@ -14448,7 +14437,7 @@
         <v>0</v>
       </c>
       <c r="AL67" s="10" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="AM67" s="6">
         <v>0.1</v>
@@ -14460,7 +14449,7 @@
         <v>70000001</v>
       </c>
       <c r="AP67" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ67" s="6"/>
       <c r="AR67" s="6">
@@ -14469,140 +14458,140 @@
       <c r="AS67" s="6"/>
       <c r="AT67" s="6"/>
     </row>
-    <row r="68" spans="3:46" s="32" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C68" s="30">
+    <row r="68" spans="3:46" s="29" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C68" s="27">
         <v>70004013</v>
       </c>
-      <c r="D68" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="E68" s="30">
+      <c r="D68" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" s="27">
         <v>3</v>
       </c>
-      <c r="F68" s="30">
-        <v>0</v>
-      </c>
-      <c r="G68" s="30">
-        <v>0</v>
-      </c>
-      <c r="H68" s="30">
-        <v>0</v>
-      </c>
-      <c r="I68" s="30">
+      <c r="F68" s="27">
+        <v>0</v>
+      </c>
+      <c r="G68" s="27">
+        <v>0</v>
+      </c>
+      <c r="H68" s="27">
+        <v>0</v>
+      </c>
+      <c r="I68" s="27">
         <v>70004013</v>
       </c>
-      <c r="J68" s="30">
-        <v>0</v>
-      </c>
-      <c r="K68" s="30">
-        <v>0</v>
-      </c>
-      <c r="L68" s="30">
+      <c r="J68" s="27">
+        <v>0</v>
+      </c>
+      <c r="K68" s="27">
+        <v>0</v>
+      </c>
+      <c r="L68" s="27">
         <v>49</v>
       </c>
-      <c r="M68" s="30">
-        <v>2</v>
-      </c>
-      <c r="N68" s="30">
-        <v>2</v>
-      </c>
-      <c r="O68" s="30">
-        <v>2</v>
-      </c>
-      <c r="P68" s="30">
-        <v>2</v>
-      </c>
-      <c r="Q68" s="30">
+      <c r="M68" s="27">
+        <v>2</v>
+      </c>
+      <c r="N68" s="27">
+        <v>2</v>
+      </c>
+      <c r="O68" s="27">
+        <v>2</v>
+      </c>
+      <c r="P68" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q68" s="27">
         <v>394800</v>
       </c>
-      <c r="R68" s="30">
+      <c r="R68" s="27">
         <v>5875</v>
       </c>
-      <c r="S68" s="30">
+      <c r="S68" s="27">
         <v>5875</v>
       </c>
-      <c r="T68" s="30">
+      <c r="T68" s="27">
         <v>1763</v>
       </c>
-      <c r="U68" s="30">
+      <c r="U68" s="27">
         <v>1763</v>
       </c>
-      <c r="V68" s="30">
-        <v>0</v>
-      </c>
-      <c r="W68" s="30">
-        <v>0</v>
-      </c>
-      <c r="X68" s="30">
+      <c r="V68" s="27">
+        <v>0</v>
+      </c>
+      <c r="W68" s="27">
+        <v>0</v>
+      </c>
+      <c r="X68" s="27">
         <v>0.75</v>
       </c>
-      <c r="Y68" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB68" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC68" s="30">
+      <c r="Y68" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="27">
         <v>10800</v>
       </c>
-      <c r="AD68" s="30">
+      <c r="AD68" s="27">
         <v>3</v>
       </c>
-      <c r="AE68" s="30">
+      <c r="AE68" s="27">
         <v>10</v>
       </c>
-      <c r="AF68" s="30">
+      <c r="AF68" s="27">
         <v>7</v>
       </c>
-      <c r="AG68" s="30">
+      <c r="AG68" s="27">
         <v>1000</v>
       </c>
-      <c r="AH68" s="30">
+      <c r="AH68" s="27">
         <v>23000</v>
       </c>
-      <c r="AI68" s="30">
-        <v>1</v>
-      </c>
-      <c r="AJ68" s="30">
-        <v>2</v>
-      </c>
-      <c r="AK68" s="30">
-        <v>0</v>
-      </c>
-      <c r="AL68" s="31" t="s">
-        <v>285</v>
-      </c>
-      <c r="AM68" s="30">
+      <c r="AI68" s="27">
+        <v>1</v>
+      </c>
+      <c r="AJ68" s="27">
+        <v>2</v>
+      </c>
+      <c r="AK68" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="AM68" s="27">
         <v>0.1</v>
       </c>
-      <c r="AN68" s="30">
-        <v>1</v>
-      </c>
-      <c r="AO68" s="30">
+      <c r="AN68" s="27">
+        <v>1</v>
+      </c>
+      <c r="AO68" s="27">
         <v>70000001</v>
       </c>
-      <c r="AP68" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="AQ68" s="30"/>
-      <c r="AR68" s="30">
-        <v>1</v>
-      </c>
-      <c r="AS68" s="30"/>
-      <c r="AT68" s="30"/>
+      <c r="AP68" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ68" s="27"/>
+      <c r="AR68" s="27">
+        <v>1</v>
+      </c>
+      <c r="AS68" s="27"/>
+      <c r="AT68" s="27"/>
     </row>
     <row r="69" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C69" s="6">
         <v>70005001</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E69" s="6">
         <v>1</v>
@@ -14704,7 +14693,7 @@
         <v>0</v>
       </c>
       <c r="AL69" s="10" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="AM69" s="6">
         <v>0.1</v>
@@ -14716,7 +14705,7 @@
         <v>70000001</v>
       </c>
       <c r="AP69" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ69" s="6"/>
       <c r="AR69" s="6">
@@ -14730,7 +14719,7 @@
         <v>70005002</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>130</v>
+        <v>423</v>
       </c>
       <c r="E70" s="6">
         <v>1</v>
@@ -14745,7 +14734,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="6">
-        <v>70005002</v>
+        <v>70003005</v>
       </c>
       <c r="J70" s="6">
         <v>0</v>
@@ -14832,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="AL70" s="10" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="AM70" s="6">
         <v>0.1</v>
@@ -14844,7 +14833,7 @@
         <v>70000002</v>
       </c>
       <c r="AP70" s="10" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="AQ70" s="6"/>
       <c r="AR70" s="6">
@@ -14858,7 +14847,7 @@
         <v>70005003</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E71" s="6">
         <v>3</v>
@@ -14960,7 +14949,7 @@
         <v>0</v>
       </c>
       <c r="AL71" s="10" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="AM71" s="6">
         <v>0.1</v>
@@ -14972,7 +14961,7 @@
         <v>70000002</v>
       </c>
       <c r="AP71" s="10" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="AQ71" s="6"/>
       <c r="AR71" s="6">
@@ -14986,7 +14975,7 @@
         <v>70005004</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E72" s="6">
         <v>3</v>
@@ -15088,7 +15077,7 @@
         <v>0</v>
       </c>
       <c r="AL72" s="10" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="AM72" s="6">
         <v>0.1</v>
@@ -15100,7 +15089,7 @@
         <v>70000001</v>
       </c>
       <c r="AP72" s="10" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="AQ72" s="6"/>
       <c r="AR72" s="6">
@@ -15114,7 +15103,7 @@
         <v>70005006</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E73" s="6">
         <v>1</v>
@@ -15216,7 +15205,7 @@
         <v>0</v>
       </c>
       <c r="AL73" s="10" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="AM73" s="6">
         <v>0.1</v>
@@ -15228,7 +15217,7 @@
         <v>70000001</v>
       </c>
       <c r="AP73" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ73" s="6"/>
       <c r="AR73" s="6">
@@ -15242,7 +15231,7 @@
         <v>70005007</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E74" s="27">
         <v>1</v>
@@ -15344,7 +15333,7 @@
         <v>0</v>
       </c>
       <c r="AL74" s="28" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="AM74" s="27">
         <v>0.1</v>
@@ -15356,7 +15345,7 @@
         <v>70000001</v>
       </c>
       <c r="AP74" s="28" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ74" s="27"/>
       <c r="AR74" s="27">
@@ -15370,7 +15359,7 @@
         <v>70005008</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E75" s="27">
         <v>1</v>
@@ -15472,7 +15461,7 @@
         <v>0</v>
       </c>
       <c r="AL75" s="28" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="AM75" s="27">
         <v>0.1</v>
@@ -15484,7 +15473,7 @@
         <v>70000001</v>
       </c>
       <c r="AP75" s="28" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ75" s="27"/>
       <c r="AR75" s="27">
@@ -15498,7 +15487,7 @@
         <v>70005009</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E76" s="27">
         <v>1</v>
@@ -15600,7 +15589,7 @@
         <v>0</v>
       </c>
       <c r="AL76" s="28" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="AM76" s="27">
         <v>0.1</v>
@@ -15612,7 +15601,7 @@
         <v>70000001</v>
       </c>
       <c r="AP76" s="28" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ76" s="27"/>
       <c r="AR76" s="27">
@@ -15626,7 +15615,7 @@
         <v>70005010</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>186</v>
+        <v>425</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
@@ -15728,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="AL77" s="10" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="AM77" s="6">
         <v>0.1</v>
@@ -15740,7 +15729,7 @@
         <v>70000002</v>
       </c>
       <c r="AP77" s="10" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="AQ77" s="6"/>
       <c r="AR77" s="6">
@@ -15749,140 +15738,140 @@
       <c r="AS77" s="6"/>
       <c r="AT77" s="6"/>
     </row>
-    <row r="78" spans="3:46" ht="20.100000000000001" customHeight="1">
-      <c r="C78" s="6">
+    <row r="78" spans="3:46" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C78" s="18">
         <v>70005011</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E78" s="6">
+      <c r="D78" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E78" s="18">
         <v>3</v>
       </c>
-      <c r="F78" s="6">
-        <v>0</v>
-      </c>
-      <c r="G78" s="6">
-        <v>0</v>
-      </c>
-      <c r="H78" s="6">
-        <v>0</v>
-      </c>
-      <c r="I78" s="6">
+      <c r="F78" s="18">
+        <v>0</v>
+      </c>
+      <c r="G78" s="18">
+        <v>0</v>
+      </c>
+      <c r="H78" s="18">
+        <v>0</v>
+      </c>
+      <c r="I78" s="18">
         <v>70005011</v>
       </c>
-      <c r="J78" s="6">
-        <v>0</v>
-      </c>
-      <c r="K78" s="6">
-        <v>0</v>
-      </c>
-      <c r="L78" s="6">
+      <c r="J78" s="18">
+        <v>0</v>
+      </c>
+      <c r="K78" s="18">
+        <v>0</v>
+      </c>
+      <c r="L78" s="18">
         <v>56</v>
       </c>
-      <c r="M78" s="6">
-        <v>2</v>
-      </c>
-      <c r="N78" s="6">
-        <v>2</v>
-      </c>
-      <c r="O78" s="6">
-        <v>2</v>
-      </c>
-      <c r="P78" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q78" s="6">
+      <c r="M78" s="18">
+        <v>2</v>
+      </c>
+      <c r="N78" s="18">
+        <v>2</v>
+      </c>
+      <c r="O78" s="18">
+        <v>2</v>
+      </c>
+      <c r="P78" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q78" s="18">
         <v>487200</v>
       </c>
-      <c r="R78" s="6">
+      <c r="R78" s="18">
         <v>7250</v>
       </c>
-      <c r="S78" s="6">
+      <c r="S78" s="18">
         <v>7250</v>
       </c>
-      <c r="T78" s="6">
+      <c r="T78" s="18">
         <v>2175</v>
       </c>
-      <c r="U78" s="6">
+      <c r="U78" s="18">
         <v>2175</v>
       </c>
-      <c r="V78" s="6">
-        <v>0</v>
-      </c>
-      <c r="W78" s="6">
-        <v>0</v>
-      </c>
-      <c r="X78" s="6">
+      <c r="V78" s="18">
+        <v>0</v>
+      </c>
+      <c r="W78" s="18">
+        <v>0</v>
+      </c>
+      <c r="X78" s="18">
         <v>0.75</v>
       </c>
-      <c r="Y78" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z78" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA78" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB78" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC78" s="6">
+      <c r="Y78" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="18">
         <v>7200</v>
       </c>
-      <c r="AD78" s="6">
+      <c r="AD78" s="18">
         <v>3</v>
       </c>
-      <c r="AE78" s="6">
+      <c r="AE78" s="18">
         <v>60</v>
       </c>
-      <c r="AF78" s="6">
+      <c r="AF78" s="18">
         <v>7</v>
       </c>
-      <c r="AG78" s="6">
+      <c r="AG78" s="18">
         <v>1000</v>
       </c>
-      <c r="AH78" s="6">
+      <c r="AH78" s="18">
         <v>27200</v>
       </c>
-      <c r="AI78" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ78" s="6">
-        <v>2</v>
-      </c>
-      <c r="AK78" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL78" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="AM78" s="6">
+      <c r="AI78" s="18">
+        <v>1</v>
+      </c>
+      <c r="AJ78" s="18">
+        <v>2</v>
+      </c>
+      <c r="AK78" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL78" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM78" s="18">
         <v>0.1</v>
       </c>
-      <c r="AN78" s="6">
-        <v>1</v>
-      </c>
-      <c r="AO78" s="6">
+      <c r="AN78" s="18">
+        <v>1</v>
+      </c>
+      <c r="AO78" s="18">
         <v>70000001</v>
       </c>
-      <c r="AP78" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ78" s="6"/>
-      <c r="AR78" s="6">
-        <v>1</v>
-      </c>
-      <c r="AS78" s="6"/>
-      <c r="AT78" s="6"/>
+      <c r="AP78" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ78" s="18"/>
+      <c r="AR78" s="18">
+        <v>1</v>
+      </c>
+      <c r="AS78" s="18"/>
+      <c r="AT78" s="18"/>
     </row>
     <row r="79" spans="3:46" ht="20.100000000000001" customHeight="1">
       <c r="C79" s="6">
         <v>70005012</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>133</v>
+        <v>426</v>
       </c>
       <c r="E79" s="6">
         <v>3</v>
@@ -15984,7 +15973,7 @@
         <v>0</v>
       </c>
       <c r="AL79" s="10" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="AM79" s="6">
         <v>0.1</v>
@@ -15996,7 +15985,7 @@
         <v>70000001</v>
       </c>
       <c r="AP79" s="10" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="AQ79" s="6"/>
       <c r="AR79" s="6">
@@ -16010,7 +15999,7 @@
         <v>70005013</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E80" s="6">
         <v>3</v>
@@ -16112,7 +16101,7 @@
         <v>0</v>
       </c>
       <c r="AL80" s="10" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="AM80" s="6">
         <v>0.1</v>
@@ -16124,7 +16113,7 @@
         <v>70000001</v>
       </c>
       <c r="AP80" s="10" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="AQ80" s="6"/>
       <c r="AR80" s="6">
@@ -16138,7 +16127,7 @@
         <v>70009001</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E81" s="6">
         <v>1</v>
@@ -16252,7 +16241,7 @@
         <v>70000001</v>
       </c>
       <c r="AP81" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ81" s="6"/>
       <c r="AR81" s="6">
@@ -16266,7 +16255,7 @@
         <v>70009002</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E82" s="6">
         <v>1</v>
@@ -16380,7 +16369,7 @@
         <v>70000001</v>
       </c>
       <c r="AP82" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ82" s="6"/>
       <c r="AR82" s="6">
@@ -16394,7 +16383,7 @@
         <v>70009003</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E83" s="6">
         <v>1</v>
@@ -16508,7 +16497,7 @@
         <v>70000001</v>
       </c>
       <c r="AP83" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ83" s="6"/>
       <c r="AR83" s="6">
@@ -16522,7 +16511,7 @@
         <v>70009004</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="E84" s="6">
         <v>1</v>
@@ -16537,7 +16526,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="6">
-        <v>70009004</v>
+        <v>72002001</v>
       </c>
       <c r="J84" s="6">
         <v>0</v>
@@ -16636,7 +16625,7 @@
         <v>70000001</v>
       </c>
       <c r="AP84" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ84" s="6"/>
       <c r="AR84" s="6">
@@ -16650,7 +16639,7 @@
         <v>70009301</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E85" s="6">
         <v>1</v>
@@ -16764,7 +16753,7 @@
         <v>70000001</v>
       </c>
       <c r="AP85" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ85" s="6"/>
       <c r="AR85" s="6">
@@ -16778,7 +16767,7 @@
         <v>70009302</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E86" s="6">
         <v>1</v>
@@ -16793,7 +16782,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="6">
-        <v>70009302</v>
+        <v>72003002</v>
       </c>
       <c r="J86" s="6">
         <v>0</v>
@@ -16892,7 +16881,7 @@
         <v>70000001</v>
       </c>
       <c r="AP86" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ86" s="6"/>
       <c r="AR86" s="6">
@@ -16906,7 +16895,7 @@
         <v>70009303</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E87" s="6">
         <v>1</v>
@@ -17020,7 +17009,7 @@
         <v>70000001</v>
       </c>
       <c r="AP87" s="10" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="AQ87" s="6"/>
       <c r="AR87" s="6">
@@ -17034,7 +17023,7 @@
         <v>70009401</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E88" s="6">
         <v>1</v>
@@ -17049,7 +17038,7 @@
         <v>0</v>
       </c>
       <c r="I88" s="6">
-        <v>70009401</v>
+        <v>72004001</v>
       </c>
       <c r="J88" s="6">
         <v>0</v>
@@ -17148,7 +17137,7 @@
         <v>70000001</v>
       </c>
       <c r="AP88" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ88" s="6"/>
       <c r="AR88" s="6">
@@ -17162,7 +17151,7 @@
         <v>70009402</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E89" s="6">
         <v>1</v>
@@ -17177,7 +17166,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="6">
-        <v>70009402</v>
+        <v>72004002</v>
       </c>
       <c r="J89" s="6">
         <v>0</v>
@@ -17276,7 +17265,7 @@
         <v>70000001</v>
       </c>
       <c r="AP89" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ89" s="6"/>
       <c r="AR89" s="6">
@@ -17290,7 +17279,7 @@
         <v>70009403</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E90" s="6">
         <v>1</v>
@@ -17404,7 +17393,7 @@
         <v>70000001</v>
       </c>
       <c r="AP90" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ90" s="6"/>
       <c r="AR90" s="6">
@@ -17418,7 +17407,7 @@
         <v>70009404</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>143</v>
+        <v>422</v>
       </c>
       <c r="E91" s="6">
         <v>1</v>
@@ -17433,7 +17422,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="6">
-        <v>70009404</v>
+        <v>72002003</v>
       </c>
       <c r="J91" s="6">
         <v>0</v>
@@ -17532,7 +17521,7 @@
         <v>70000002</v>
       </c>
       <c r="AP91" s="10" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="AQ91" s="6"/>
       <c r="AR91" s="6">
@@ -17546,7 +17535,7 @@
         <v>70009410</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>144</v>
+        <v>414</v>
       </c>
       <c r="E92" s="6">
         <v>1</v>
@@ -17561,7 +17550,7 @@
         <v>0</v>
       </c>
       <c r="I92" s="6">
-        <v>70009410</v>
+        <v>72003002</v>
       </c>
       <c r="J92" s="6">
         <v>0</v>
@@ -17660,7 +17649,7 @@
         <v>70000001</v>
       </c>
       <c r="AP92" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ92" s="6"/>
       <c r="AR92" s="6">
@@ -17674,7 +17663,7 @@
         <v>70009501</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E93" s="6">
         <v>1</v>
@@ -17788,7 +17777,7 @@
         <v>70000001</v>
       </c>
       <c r="AP93" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ93" s="6"/>
       <c r="AR93" s="6">
@@ -17802,7 +17791,7 @@
         <v>70009502</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E94" s="6">
         <v>1</v>
@@ -17916,7 +17905,7 @@
         <v>70000001</v>
       </c>
       <c r="AP94" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ94" s="6"/>
       <c r="AR94" s="6">
@@ -17930,7 +17919,7 @@
         <v>70009503</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E95" s="6">
         <v>1</v>
@@ -18044,7 +18033,7 @@
         <v>70000001</v>
       </c>
       <c r="AP95" s="10" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="AQ95" s="6"/>
       <c r="AR95" s="6">
@@ -18058,7 +18047,7 @@
         <v>70009504</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E96" s="6">
         <v>1</v>
@@ -18172,7 +18161,7 @@
         <v>70000001</v>
       </c>
       <c r="AP96" s="10" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="AQ96" s="6"/>
       <c r="AR96" s="6">
@@ -18300,7 +18289,7 @@
         <v>70000001</v>
       </c>
       <c r="AP97" s="19" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ97" s="18"/>
       <c r="AR97" s="18">
@@ -18314,7 +18303,7 @@
         <v>72001001</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E98" s="6">
         <v>1</v>
@@ -18416,7 +18405,7 @@
         <v>0</v>
       </c>
       <c r="AL98" s="10" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="AM98" s="6">
         <v>0</v>
@@ -18428,7 +18417,7 @@
         <v>70000001</v>
       </c>
       <c r="AP98" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ98" s="6"/>
       <c r="AR98" s="6">
@@ -18442,7 +18431,7 @@
         <v>72001002</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="E99" s="6">
         <v>1</v>
@@ -18544,7 +18533,7 @@
         <v>0</v>
       </c>
       <c r="AL99" s="10" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="AM99" s="6">
         <v>0</v>
@@ -18556,7 +18545,7 @@
         <v>70000001</v>
       </c>
       <c r="AP99" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ99" s="6"/>
       <c r="AR99" s="6">
@@ -18570,7 +18559,7 @@
         <v>72001003</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E100" s="6">
         <v>1</v>
@@ -18672,7 +18661,7 @@
         <v>0</v>
       </c>
       <c r="AL100" s="10" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="AM100" s="6">
         <v>0</v>
@@ -18684,7 +18673,7 @@
         <v>70000001</v>
       </c>
       <c r="AP100" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ100" s="6"/>
       <c r="AR100" s="6">
@@ -18698,7 +18687,7 @@
         <v>72001004</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E101" s="6">
         <v>1</v>
@@ -18800,7 +18789,7 @@
         <v>0</v>
       </c>
       <c r="AL101" s="10" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="AM101" s="6">
         <v>0</v>
@@ -18812,7 +18801,7 @@
         <v>70000001</v>
       </c>
       <c r="AP101" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ101" s="6"/>
       <c r="AR101" s="6">
@@ -18826,7 +18815,7 @@
         <v>72001011</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E102" s="6">
         <v>3</v>
@@ -18928,7 +18917,7 @@
         <v>0</v>
       </c>
       <c r="AL102" s="10" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="AM102" s="6">
         <v>0.1</v>
@@ -18940,7 +18929,7 @@
         <v>70000001</v>
       </c>
       <c r="AP102" s="10" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="AQ102" s="6"/>
       <c r="AR102" s="6">
@@ -18954,7 +18943,7 @@
         <v>72001012</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="E103" s="6">
         <v>3</v>
@@ -19056,7 +19045,7 @@
         <v>0</v>
       </c>
       <c r="AL103" s="10" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="AM103" s="6">
         <v>0.1</v>
@@ -19068,7 +19057,7 @@
         <v>70000001</v>
       </c>
       <c r="AP103" s="10" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="AQ103" s="6"/>
       <c r="AR103" s="6">
@@ -19082,7 +19071,7 @@
         <v>72001013</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E104" s="6">
         <v>3</v>
@@ -19184,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="AL104" s="10" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="AM104" s="6">
         <v>0.1</v>
@@ -19196,7 +19185,7 @@
         <v>70000001</v>
       </c>
       <c r="AP104" s="10" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="AQ104" s="6"/>
       <c r="AR104" s="6">
@@ -19210,7 +19199,7 @@
         <v>72002001</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E105" s="6">
         <v>1</v>
@@ -19312,7 +19301,7 @@
         <v>0</v>
       </c>
       <c r="AL105" s="10" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="AM105" s="6">
         <v>0</v>
@@ -19324,7 +19313,7 @@
         <v>70000001</v>
       </c>
       <c r="AP105" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ105" s="6"/>
       <c r="AR105" s="6">
@@ -19338,7 +19327,7 @@
         <v>72002002</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E106" s="6">
         <v>1</v>
@@ -19440,7 +19429,7 @@
         <v>0</v>
       </c>
       <c r="AL106" s="10" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AM106" s="6">
         <v>0</v>
@@ -19452,7 +19441,7 @@
         <v>70000001</v>
       </c>
       <c r="AP106" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ106" s="6"/>
       <c r="AR106" s="6">
@@ -19466,7 +19455,7 @@
         <v>72002003</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="E107" s="6">
         <v>1</v>
@@ -19568,7 +19557,7 @@
         <v>0</v>
       </c>
       <c r="AL107" s="10" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="AM107" s="6">
         <v>0</v>
@@ -19580,7 +19569,7 @@
         <v>70000001</v>
       </c>
       <c r="AP107" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ107" s="6"/>
       <c r="AR107" s="6">
@@ -19594,7 +19583,7 @@
         <v>72002004</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="E108" s="6">
         <v>1</v>
@@ -19696,7 +19685,7 @@
         <v>0</v>
       </c>
       <c r="AL108" s="10" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="AM108" s="6">
         <v>0</v>
@@ -19708,7 +19697,7 @@
         <v>70000001</v>
       </c>
       <c r="AP108" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ108" s="6"/>
       <c r="AR108" s="6">
@@ -19722,7 +19711,7 @@
         <v>72002005</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="E109" s="6">
         <v>1</v>
@@ -19824,7 +19813,7 @@
         <v>0</v>
       </c>
       <c r="AL109" s="10" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="AM109" s="6">
         <v>0</v>
@@ -19836,7 +19825,7 @@
         <v>70000001</v>
       </c>
       <c r="AP109" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ109" s="6"/>
       <c r="AR109" s="6">
@@ -19850,7 +19839,7 @@
         <v>72002011</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="E110" s="6">
         <v>3</v>
@@ -19952,7 +19941,7 @@
         <v>0</v>
       </c>
       <c r="AL110" s="10" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="AM110" s="6">
         <v>0.1</v>
@@ -19964,7 +19953,7 @@
         <v>70000001</v>
       </c>
       <c r="AP110" s="10" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="AQ110" s="6"/>
       <c r="AR110" s="6">
@@ -19978,7 +19967,7 @@
         <v>72002012</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="E111" s="6">
         <v>3</v>
@@ -20080,7 +20069,7 @@
         <v>0</v>
       </c>
       <c r="AL111" s="10" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="AM111" s="6">
         <v>0.1</v>
@@ -20092,7 +20081,7 @@
         <v>70000001</v>
       </c>
       <c r="AP111" s="10" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="AQ111" s="6"/>
       <c r="AR111" s="6">
@@ -20106,7 +20095,7 @@
         <v>72002013</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="E112" s="6">
         <v>3</v>
@@ -20208,7 +20197,7 @@
         <v>0</v>
       </c>
       <c r="AL112" s="10" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="AM112" s="6">
         <v>0.1</v>
@@ -20220,7 +20209,7 @@
         <v>70000001</v>
       </c>
       <c r="AP112" s="10" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="AQ112" s="6"/>
       <c r="AR112" s="6">
@@ -20234,7 +20223,7 @@
         <v>72003001</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="E113" s="6">
         <v>1</v>
@@ -20336,7 +20325,7 @@
         <v>0</v>
       </c>
       <c r="AL113" s="10" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="AM113" s="6">
         <v>0</v>
@@ -20348,7 +20337,7 @@
         <v>70000001</v>
       </c>
       <c r="AP113" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ113" s="6"/>
       <c r="AR113" s="6">
@@ -20362,7 +20351,7 @@
         <v>72003002</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="E114" s="6">
         <v>1</v>
@@ -20464,7 +20453,7 @@
         <v>0</v>
       </c>
       <c r="AL114" s="10" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="AM114" s="6">
         <v>0</v>
@@ -20476,7 +20465,7 @@
         <v>70000001</v>
       </c>
       <c r="AP114" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ114" s="6"/>
       <c r="AR114" s="6">
@@ -20490,7 +20479,7 @@
         <v>72003003</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E115" s="6">
         <v>1</v>
@@ -20592,7 +20581,7 @@
         <v>0</v>
       </c>
       <c r="AL115" s="10" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="AM115" s="6">
         <v>0</v>
@@ -20604,7 +20593,7 @@
         <v>70000001</v>
       </c>
       <c r="AP115" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ115" s="6"/>
       <c r="AR115" s="6">
@@ -20618,7 +20607,7 @@
         <v>72003004</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E116" s="6">
         <v>1</v>
@@ -20720,7 +20709,7 @@
         <v>0</v>
       </c>
       <c r="AL116" s="10" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="AM116" s="6">
         <v>0</v>
@@ -20732,7 +20721,7 @@
         <v>70000001</v>
       </c>
       <c r="AP116" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ116" s="6"/>
       <c r="AR116" s="6">
@@ -20746,7 +20735,7 @@
         <v>72003005</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="E117" s="6">
         <v>1</v>
@@ -20848,7 +20837,7 @@
         <v>0</v>
       </c>
       <c r="AL117" s="10" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="AM117" s="6">
         <v>0</v>
@@ -20860,7 +20849,7 @@
         <v>70000001</v>
       </c>
       <c r="AP117" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ117" s="6"/>
       <c r="AR117" s="6">
@@ -20874,7 +20863,7 @@
         <v>72003011</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="E118" s="6">
         <v>3</v>
@@ -20976,7 +20965,7 @@
         <v>0</v>
       </c>
       <c r="AL118" s="10" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="AM118" s="6">
         <v>0.1</v>
@@ -20988,7 +20977,7 @@
         <v>70000001</v>
       </c>
       <c r="AP118" s="10" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="AQ118" s="6"/>
       <c r="AR118" s="6">
@@ -21002,7 +20991,7 @@
         <v>72003012</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E119" s="6">
         <v>3</v>
@@ -21104,7 +21093,7 @@
         <v>0</v>
       </c>
       <c r="AL119" s="10" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="AM119" s="6">
         <v>0.1</v>
@@ -21116,7 +21105,7 @@
         <v>70000001</v>
       </c>
       <c r="AP119" s="10" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="AQ119" s="6"/>
       <c r="AR119" s="6">
@@ -21130,7 +21119,7 @@
         <v>72003013</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="E120" s="6">
         <v>3</v>
@@ -21232,7 +21221,7 @@
         <v>0</v>
       </c>
       <c r="AL120" s="10" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="AM120" s="6">
         <v>0.1</v>
@@ -21244,7 +21233,7 @@
         <v>70000001</v>
       </c>
       <c r="AP120" s="10" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="AQ120" s="6"/>
       <c r="AR120" s="6">
@@ -21258,7 +21247,7 @@
         <v>72004001</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E121" s="6">
         <v>1</v>
@@ -21360,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="AL121" s="10" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="AM121" s="6">
         <v>0</v>
@@ -21372,7 +21361,7 @@
         <v>70000001</v>
       </c>
       <c r="AP121" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ121" s="6"/>
       <c r="AR121" s="6">
@@ -21386,7 +21375,7 @@
         <v>72004002</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E122" s="6">
         <v>1</v>
@@ -21488,7 +21477,7 @@
         <v>0</v>
       </c>
       <c r="AL122" s="10" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="AM122" s="6">
         <v>0</v>
@@ -21500,7 +21489,7 @@
         <v>70000001</v>
       </c>
       <c r="AP122" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ122" s="6"/>
       <c r="AR122" s="6">
@@ -21514,7 +21503,7 @@
         <v>72004003</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="E123" s="6">
         <v>1</v>
@@ -21616,7 +21605,7 @@
         <v>0</v>
       </c>
       <c r="AL123" s="10" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="AM123" s="6">
         <v>0</v>
@@ -21628,7 +21617,7 @@
         <v>70000001</v>
       </c>
       <c r="AP123" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ123" s="6"/>
       <c r="AR123" s="6">
@@ -21642,7 +21631,7 @@
         <v>72004004</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E124" s="6">
         <v>1</v>
@@ -21744,7 +21733,7 @@
         <v>0</v>
       </c>
       <c r="AL124" s="10" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="AM124" s="6">
         <v>0</v>
@@ -21756,7 +21745,7 @@
         <v>70000001</v>
       </c>
       <c r="AP124" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ124" s="6"/>
       <c r="AR124" s="6">
@@ -21770,7 +21759,7 @@
         <v>72004011</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E125" s="6">
         <v>3</v>
@@ -21872,7 +21861,7 @@
         <v>0</v>
       </c>
       <c r="AL125" s="10" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="AM125" s="6">
         <v>0.1</v>
@@ -21884,7 +21873,7 @@
         <v>70000001</v>
       </c>
       <c r="AP125" s="10" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="AQ125" s="6"/>
       <c r="AR125" s="6">
@@ -21898,7 +21887,7 @@
         <v>72004012</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E126" s="6">
         <v>3</v>
@@ -22000,7 +21989,7 @@
         <v>0</v>
       </c>
       <c r="AL126" s="10" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="AM126" s="6">
         <v>0.1</v>
@@ -22012,7 +22001,7 @@
         <v>70000001</v>
       </c>
       <c r="AP126" s="10" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="AQ126" s="6"/>
       <c r="AR126" s="6">
@@ -22026,7 +22015,7 @@
         <v>72004013</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E127" s="6">
         <v>3</v>
@@ -22128,7 +22117,7 @@
         <v>0</v>
       </c>
       <c r="AL127" s="10" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="AM127" s="6">
         <v>0.1</v>
@@ -22140,7 +22129,7 @@
         <v>70000002</v>
       </c>
       <c r="AP127" s="10" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="AQ127" s="6"/>
       <c r="AR127" s="6">
@@ -22154,7 +22143,7 @@
         <v>79999998</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E128" s="6">
         <v>1</v>
@@ -22268,7 +22257,7 @@
         <v>70000001</v>
       </c>
       <c r="AP128" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ128" s="6"/>
       <c r="AR128" s="6">
@@ -22282,7 +22271,7 @@
         <v>79999999</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E129" s="6">
         <v>1</v>
@@ -22396,7 +22385,7 @@
         <v>70000001</v>
       </c>
       <c r="AP129" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ129" s="6"/>
       <c r="AR129" s="6">
@@ -22410,7 +22399,7 @@
         <v>41001007</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E130" s="6">
         <v>5</v>
@@ -22539,7 +22528,7 @@
         <v>41001008</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E131" s="6">
         <v>5</v>
@@ -22670,7 +22659,7 @@
         <v>41001009</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="E132" s="6">
         <v>5</v>
@@ -22800,7 +22789,7 @@
         <v>41001010</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E133" s="6">
         <v>5</v>
@@ -22930,7 +22919,7 @@
         <v>41002001</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="E134" s="6">
         <v>5</v>
@@ -23060,7 +23049,7 @@
         <v>41002002</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="E135" s="6">
         <v>5</v>
@@ -23190,7 +23179,7 @@
         <v>41003001</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E136" s="6">
         <v>5</v>
@@ -23320,7 +23309,7 @@
         <v>41004001</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="E137" s="6">
         <v>5</v>
@@ -23450,7 +23439,7 @@
         <v>41005001</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E138" s="6">
         <v>5</v>
@@ -23578,7 +23567,7 @@
         <v>73001001</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="E139" s="15">
         <v>1</v>
@@ -23680,7 +23669,7 @@
         <v>0</v>
       </c>
       <c r="AL139" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM139" s="15">
         <v>0.1</v>
@@ -23692,7 +23681,7 @@
         <v>70000001</v>
       </c>
       <c r="AP139" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ139" s="15"/>
       <c r="AR139" s="15">
@@ -23706,7 +23695,7 @@
         <v>73002001</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="E140" s="15">
         <v>1</v>
@@ -23808,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="AL140" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM140" s="15">
         <v>0.1</v>
@@ -23820,7 +23809,7 @@
         <v>70000001</v>
       </c>
       <c r="AP140" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ140" s="15"/>
       <c r="AR140" s="15">
@@ -23834,7 +23823,7 @@
         <v>73002002</v>
       </c>
       <c r="D141" s="23" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="E141" s="23">
         <v>1</v>
@@ -23936,7 +23925,7 @@
         <v>0</v>
       </c>
       <c r="AL141" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM141" s="23">
         <v>0.1</v>
@@ -23948,7 +23937,7 @@
         <v>70000001</v>
       </c>
       <c r="AP141" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ141" s="23"/>
       <c r="AR141" s="23">
@@ -23962,7 +23951,7 @@
         <v>73003001</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="E142" s="15">
         <v>1</v>
@@ -24064,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="AL142" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM142" s="15">
         <v>0.1</v>
@@ -24076,7 +24065,7 @@
         <v>70000001</v>
       </c>
       <c r="AP142" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ142" s="15"/>
       <c r="AR142" s="15">
@@ -24090,7 +24079,7 @@
         <v>73003002</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="E143" s="15">
         <v>3</v>
@@ -24192,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="AL143" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM143" s="15">
         <v>0.5</v>
@@ -24204,7 +24193,7 @@
         <v>70000001</v>
       </c>
       <c r="AP143" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ143" s="15"/>
       <c r="AR143" s="15">
@@ -24218,7 +24207,7 @@
         <v>73004001</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="E144" s="15">
         <v>1</v>
@@ -24320,7 +24309,7 @@
         <v>0</v>
       </c>
       <c r="AL144" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM144" s="15">
         <v>0.1</v>
@@ -24332,7 +24321,7 @@
         <v>70000001</v>
       </c>
       <c r="AP144" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ144" s="15"/>
       <c r="AR144" s="15">
@@ -24346,7 +24335,7 @@
         <v>73004002</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="E145" s="15">
         <v>1</v>
@@ -24448,7 +24437,7 @@
         <v>0</v>
       </c>
       <c r="AL145" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM145" s="15">
         <v>0.1</v>
@@ -24460,7 +24449,7 @@
         <v>70000001</v>
       </c>
       <c r="AP145" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ145" s="15"/>
       <c r="AR145" s="15">
@@ -24474,7 +24463,7 @@
         <v>73004003</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E146" s="15">
         <v>3</v>
@@ -24576,7 +24565,7 @@
         <v>0</v>
       </c>
       <c r="AL146" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM146" s="15">
         <v>0.1</v>
@@ -24588,7 +24577,7 @@
         <v>70000001</v>
       </c>
       <c r="AP146" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ146" s="15"/>
       <c r="AR146" s="15">
@@ -24602,7 +24591,7 @@
         <v>73005001</v>
       </c>
       <c r="D147" s="23" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="E147" s="23">
         <v>1</v>
@@ -24704,7 +24693,7 @@
         <v>0</v>
       </c>
       <c r="AL147" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM147" s="23">
         <v>0.1</v>
@@ -24716,7 +24705,7 @@
         <v>70000001</v>
       </c>
       <c r="AP147" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ147" s="23"/>
       <c r="AR147" s="23">
@@ -24730,7 +24719,7 @@
         <v>73005002</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="E148" s="15">
         <v>1</v>
@@ -24832,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="AL148" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM148" s="15">
         <v>0.1</v>
@@ -24844,7 +24833,7 @@
         <v>70000001</v>
       </c>
       <c r="AP148" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ148" s="15"/>
       <c r="AR148" s="15">
@@ -24858,7 +24847,7 @@
         <v>73005003</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="E149" s="15">
         <v>3</v>
@@ -24960,7 +24949,7 @@
         <v>0</v>
       </c>
       <c r="AL149" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM149" s="15">
         <v>0.5</v>
@@ -24972,7 +24961,7 @@
         <v>70000001</v>
       </c>
       <c r="AP149" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ149" s="15"/>
       <c r="AR149" s="15">
@@ -24986,7 +24975,7 @@
         <v>73006001</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="E150" s="15">
         <v>1</v>
@@ -25088,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="AL150" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM150" s="15">
         <v>0.1</v>
@@ -25100,7 +25089,7 @@
         <v>70000001</v>
       </c>
       <c r="AP150" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ150" s="15"/>
       <c r="AR150" s="15">
@@ -25114,7 +25103,7 @@
         <v>73006002</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E151" s="15">
         <v>1</v>
@@ -25216,7 +25205,7 @@
         <v>0</v>
       </c>
       <c r="AL151" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM151" s="15">
         <v>0.1</v>
@@ -25228,7 +25217,7 @@
         <v>70000001</v>
       </c>
       <c r="AP151" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ151" s="15"/>
       <c r="AR151" s="15">
@@ -25242,7 +25231,7 @@
         <v>73006003</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E152" s="15">
         <v>3</v>
@@ -25344,7 +25333,7 @@
         <v>0</v>
       </c>
       <c r="AL152" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM152" s="15">
         <v>0.1</v>
@@ -25356,7 +25345,7 @@
         <v>70000001</v>
       </c>
       <c r="AP152" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ152" s="15"/>
       <c r="AR152" s="15">
@@ -25370,7 +25359,7 @@
         <v>73007001</v>
       </c>
       <c r="D153" s="23" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="E153" s="23">
         <v>1</v>
@@ -25472,7 +25461,7 @@
         <v>0</v>
       </c>
       <c r="AL153" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM153" s="23">
         <v>0.1</v>
@@ -25484,7 +25473,7 @@
         <v>70000001</v>
       </c>
       <c r="AP153" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ153" s="23"/>
       <c r="AR153" s="23">
@@ -25498,7 +25487,7 @@
         <v>73007002</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="E154" s="15">
         <v>1</v>
@@ -25600,7 +25589,7 @@
         <v>0</v>
       </c>
       <c r="AL154" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM154" s="15">
         <v>0.1</v>
@@ -25612,7 +25601,7 @@
         <v>70000001</v>
       </c>
       <c r="AP154" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ154" s="15"/>
       <c r="AR154" s="15">
@@ -25626,7 +25615,7 @@
         <v>73007003</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="E155" s="15">
         <v>3</v>
@@ -25728,7 +25717,7 @@
         <v>0</v>
       </c>
       <c r="AL155" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM155" s="15">
         <v>0.5</v>
@@ -25740,7 +25729,7 @@
         <v>70000001</v>
       </c>
       <c r="AP155" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ155" s="15"/>
       <c r="AR155" s="15">
@@ -25754,7 +25743,7 @@
         <v>73008001</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="E156" s="15">
         <v>1</v>
@@ -25856,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="AL156" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM156" s="15">
         <v>0.1</v>
@@ -25868,7 +25857,7 @@
         <v>70000001</v>
       </c>
       <c r="AP156" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ156" s="15"/>
       <c r="AR156" s="15">
@@ -25882,7 +25871,7 @@
         <v>73008002</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="E157" s="15">
         <v>1</v>
@@ -25984,7 +25973,7 @@
         <v>0</v>
       </c>
       <c r="AL157" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM157" s="15">
         <v>0.1</v>
@@ -25996,7 +25985,7 @@
         <v>70000001</v>
       </c>
       <c r="AP157" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ157" s="15"/>
       <c r="AR157" s="15">
@@ -26010,7 +25999,7 @@
         <v>73008003</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="E158" s="15">
         <v>3</v>
@@ -26112,7 +26101,7 @@
         <v>0</v>
       </c>
       <c r="AL158" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM158" s="15">
         <v>0.5</v>
@@ -26124,7 +26113,7 @@
         <v>70000001</v>
       </c>
       <c r="AP158" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ158" s="15"/>
       <c r="AR158" s="15">
@@ -26138,7 +26127,7 @@
         <v>73009001</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="E159" s="15">
         <v>1</v>
@@ -26240,7 +26229,7 @@
         <v>0</v>
       </c>
       <c r="AL159" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM159" s="15">
         <v>0.1</v>
@@ -26252,7 +26241,7 @@
         <v>70000001</v>
       </c>
       <c r="AP159" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ159" s="15"/>
       <c r="AR159" s="15">
@@ -26266,7 +26255,7 @@
         <v>73009002</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="E160" s="15">
         <v>1</v>
@@ -26368,7 +26357,7 @@
         <v>0</v>
       </c>
       <c r="AL160" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM160" s="15">
         <v>0.1</v>
@@ -26380,7 +26369,7 @@
         <v>70000001</v>
       </c>
       <c r="AP160" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ160" s="15"/>
       <c r="AR160" s="15">
@@ -26394,7 +26383,7 @@
         <v>73009003</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="E161" s="15">
         <v>3</v>
@@ -26496,7 +26485,7 @@
         <v>0</v>
       </c>
       <c r="AL161" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM161" s="15">
         <v>0.5</v>
@@ -26508,7 +26497,7 @@
         <v>70000001</v>
       </c>
       <c r="AP161" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ161" s="15"/>
       <c r="AR161" s="15">
@@ -26522,7 +26511,7 @@
         <v>73010001</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="E162" s="15">
         <v>1</v>
@@ -26624,7 +26613,7 @@
         <v>0</v>
       </c>
       <c r="AL162" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM162" s="15">
         <v>0.1</v>
@@ -26636,7 +26625,7 @@
         <v>70000001</v>
       </c>
       <c r="AP162" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ162" s="15"/>
       <c r="AR162" s="15">
@@ -26650,7 +26639,7 @@
         <v>73010002</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E163" s="15">
         <v>1</v>
@@ -26752,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="AL163" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM163" s="15">
         <v>0.1</v>
@@ -26764,7 +26753,7 @@
         <v>70000001</v>
       </c>
       <c r="AP163" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ163" s="15"/>
       <c r="AR163" s="15">
@@ -26778,7 +26767,7 @@
         <v>73010003</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E164" s="15">
         <v>3</v>
@@ -26880,7 +26869,7 @@
         <v>0</v>
       </c>
       <c r="AL164" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM164" s="15">
         <v>0.5</v>
@@ -26892,7 +26881,7 @@
         <v>70000001</v>
       </c>
       <c r="AP164" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ164" s="15"/>
       <c r="AR164" s="15">
@@ -26906,7 +26895,7 @@
         <v>73011001</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="E165" s="15">
         <v>1</v>
@@ -27008,7 +26997,7 @@
         <v>0</v>
       </c>
       <c r="AL165" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM165" s="15">
         <v>0</v>
@@ -27020,7 +27009,7 @@
         <v>70000001</v>
       </c>
       <c r="AP165" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ165" s="15"/>
       <c r="AR165" s="15">
@@ -27034,7 +27023,7 @@
         <v>73011002</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="E166" s="15">
         <v>1</v>
@@ -27136,7 +27125,7 @@
         <v>0</v>
       </c>
       <c r="AL166" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM166" s="15">
         <v>0</v>
@@ -27148,7 +27137,7 @@
         <v>70000001</v>
       </c>
       <c r="AP166" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ166" s="15"/>
       <c r="AR166" s="15">
@@ -27162,7 +27151,7 @@
         <v>73011003</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="E167" s="15">
         <v>3</v>
@@ -27264,7 +27253,7 @@
         <v>0</v>
       </c>
       <c r="AL167" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM167" s="15">
         <v>0.1</v>
@@ -27276,7 +27265,7 @@
         <v>70000001</v>
       </c>
       <c r="AP167" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ167" s="15"/>
       <c r="AR167" s="15">
@@ -27290,7 +27279,7 @@
         <v>73012001</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="E168" s="15">
         <v>1</v>
@@ -27392,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="AL168" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM168" s="15">
         <v>0</v>
@@ -27404,7 +27393,7 @@
         <v>70000001</v>
       </c>
       <c r="AP168" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ168" s="15"/>
       <c r="AR168" s="15">
@@ -27418,7 +27407,7 @@
         <v>73012002</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="E169" s="15">
         <v>1</v>
@@ -27520,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="AL169" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM169" s="15">
         <v>0</v>
@@ -27532,7 +27521,7 @@
         <v>70000001</v>
       </c>
       <c r="AP169" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ169" s="15"/>
       <c r="AR169" s="15">
@@ -27546,7 +27535,7 @@
         <v>73012003</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="E170" s="15">
         <v>3</v>
@@ -27648,7 +27637,7 @@
         <v>0</v>
       </c>
       <c r="AL170" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM170" s="15">
         <v>0.1</v>
@@ -27660,7 +27649,7 @@
         <v>70000001</v>
       </c>
       <c r="AP170" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ170" s="15"/>
       <c r="AR170" s="15">
@@ -27674,7 +27663,7 @@
         <v>73013001</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="E171" s="15">
         <v>1</v>
@@ -27776,7 +27765,7 @@
         <v>0</v>
       </c>
       <c r="AL171" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM171" s="15">
         <v>0</v>
@@ -27788,7 +27777,7 @@
         <v>70000001</v>
       </c>
       <c r="AP171" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ171" s="15"/>
       <c r="AR171" s="15">
@@ -27802,7 +27791,7 @@
         <v>73013002</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="E172" s="15">
         <v>1</v>
@@ -27904,7 +27893,7 @@
         <v>0</v>
       </c>
       <c r="AL172" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM172" s="15">
         <v>0</v>
@@ -27916,7 +27905,7 @@
         <v>70000001</v>
       </c>
       <c r="AP172" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ172" s="15"/>
       <c r="AR172" s="15">
@@ -27930,7 +27919,7 @@
         <v>73013003</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E173" s="15">
         <v>3</v>
@@ -28032,7 +28021,7 @@
         <v>0</v>
       </c>
       <c r="AL173" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM173" s="15">
         <v>0.1</v>
@@ -28044,7 +28033,7 @@
         <v>70000001</v>
       </c>
       <c r="AP173" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ173" s="15"/>
       <c r="AR173" s="15">
@@ -28058,7 +28047,7 @@
         <v>73014001</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="E174" s="15">
         <v>1</v>
@@ -28160,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="AL174" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM174" s="15">
         <v>0.1</v>
@@ -28172,7 +28161,7 @@
         <v>70000001</v>
       </c>
       <c r="AP174" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ174" s="15"/>
       <c r="AR174" s="15">
@@ -28186,7 +28175,7 @@
         <v>73014002</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="E175" s="15">
         <v>1</v>
@@ -28288,7 +28277,7 @@
         <v>0</v>
       </c>
       <c r="AL175" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM175" s="15">
         <v>0.1</v>
@@ -28300,7 +28289,7 @@
         <v>70000001</v>
       </c>
       <c r="AP175" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ175" s="15"/>
       <c r="AR175" s="15">
@@ -28314,7 +28303,7 @@
         <v>73014003</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="E176" s="15">
         <v>3</v>
@@ -28416,7 +28405,7 @@
         <v>0</v>
       </c>
       <c r="AL176" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM176" s="15">
         <v>0.1</v>
@@ -28428,7 +28417,7 @@
         <v>70000001</v>
       </c>
       <c r="AP176" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ176" s="15"/>
       <c r="AR176" s="15">
@@ -28442,7 +28431,7 @@
         <v>73015001</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="E177" s="15">
         <v>1</v>
@@ -28544,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="AL177" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM177" s="15">
         <v>0.1</v>
@@ -28556,7 +28545,7 @@
         <v>70000001</v>
       </c>
       <c r="AP177" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ177" s="15"/>
       <c r="AR177" s="15">
@@ -28570,7 +28559,7 @@
         <v>73015002</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="E178" s="15">
         <v>1</v>
@@ -28672,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="AL178" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM178" s="15">
         <v>0.1</v>
@@ -28684,7 +28673,7 @@
         <v>70000001</v>
       </c>
       <c r="AP178" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ178" s="15"/>
       <c r="AR178" s="15">
@@ -28698,7 +28687,7 @@
         <v>73015003</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="E179" s="15">
         <v>3</v>
@@ -28800,7 +28789,7 @@
         <v>0</v>
       </c>
       <c r="AL179" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM179" s="15">
         <v>0.1</v>
@@ -28812,7 +28801,7 @@
         <v>70000001</v>
       </c>
       <c r="AP179" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ179" s="15"/>
       <c r="AR179" s="15">
@@ -28826,7 +28815,7 @@
         <v>73016001</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="E180" s="15">
         <v>1</v>
@@ -28928,7 +28917,7 @@
         <v>0</v>
       </c>
       <c r="AL180" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM180" s="15">
         <v>0.1</v>
@@ -28940,7 +28929,7 @@
         <v>70000001</v>
       </c>
       <c r="AP180" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ180" s="15"/>
       <c r="AR180" s="15">
@@ -28954,7 +28943,7 @@
         <v>73016002</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="E181" s="15">
         <v>1</v>
@@ -28969,7 +28958,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="15">
-        <v>70003011</v>
+        <v>72003011</v>
       </c>
       <c r="J181" s="15">
         <v>0</v>
@@ -29056,7 +29045,7 @@
         <v>0</v>
       </c>
       <c r="AL181" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM181" s="15">
         <v>0.1</v>
@@ -29068,7 +29057,7 @@
         <v>70000001</v>
       </c>
       <c r="AP181" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ181" s="15"/>
       <c r="AR181" s="15">
@@ -29082,7 +29071,7 @@
         <v>73016003</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="E182" s="15">
         <v>3</v>
@@ -29184,7 +29173,7 @@
         <v>0</v>
       </c>
       <c r="AL182" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM182" s="15">
         <v>0.1</v>
@@ -29196,7 +29185,7 @@
         <v>70000001</v>
       </c>
       <c r="AP182" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ182" s="15"/>
       <c r="AR182" s="15">
@@ -29210,7 +29199,7 @@
         <v>73017001</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="E183" s="15">
         <v>1</v>
@@ -29225,7 +29214,7 @@
         <v>0</v>
       </c>
       <c r="I183" s="15">
-        <v>70003013</v>
+        <v>72003011</v>
       </c>
       <c r="J183" s="15">
         <v>0</v>
@@ -29300,7 +29289,7 @@
         <v>1000</v>
       </c>
       <c r="AH183" s="15" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="AI183" s="15">
         <v>0</v>
@@ -29312,7 +29301,7 @@
         <v>0</v>
       </c>
       <c r="AL183" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM183" s="15">
         <v>0.1</v>
@@ -29324,7 +29313,7 @@
         <v>70000001</v>
       </c>
       <c r="AP183" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ183" s="15"/>
       <c r="AR183" s="15">
@@ -29338,7 +29327,7 @@
         <v>73017002</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="E184" s="15">
         <v>1</v>
@@ -29353,7 +29342,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="15">
-        <v>70003014</v>
+        <v>70003004</v>
       </c>
       <c r="J184" s="15">
         <v>0</v>
@@ -29440,7 +29429,7 @@
         <v>0</v>
       </c>
       <c r="AL184" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM184" s="15">
         <v>0.1</v>
@@ -29452,7 +29441,7 @@
         <v>70000001</v>
       </c>
       <c r="AP184" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ184" s="15"/>
       <c r="AR184" s="15">
@@ -29466,7 +29455,7 @@
         <v>73017003</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="E185" s="15">
         <v>3</v>
@@ -29568,7 +29557,7 @@
         <v>0</v>
       </c>
       <c r="AL185" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM185" s="15">
         <v>0.1</v>
@@ -29580,7 +29569,7 @@
         <v>70000001</v>
       </c>
       <c r="AP185" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ185" s="15"/>
       <c r="AR185" s="15">
@@ -29594,7 +29583,7 @@
         <v>73018001</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="E186" s="15">
         <v>1</v>
@@ -29696,7 +29685,7 @@
         <v>0</v>
       </c>
       <c r="AL186" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM186" s="15">
         <v>0</v>
@@ -29708,7 +29697,7 @@
         <v>70000001</v>
       </c>
       <c r="AP186" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ186" s="15"/>
       <c r="AR186" s="15">
@@ -29722,7 +29711,7 @@
         <v>73018002</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="E187" s="15">
         <v>1</v>
@@ -29824,7 +29813,7 @@
         <v>0</v>
       </c>
       <c r="AL187" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM187" s="15">
         <v>0</v>
@@ -29836,7 +29825,7 @@
         <v>70000001</v>
       </c>
       <c r="AP187" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ187" s="15"/>
       <c r="AR187" s="15">
@@ -29850,7 +29839,7 @@
         <v>73018003</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="E188" s="15">
         <v>3</v>
@@ -29952,7 +29941,7 @@
         <v>0</v>
       </c>
       <c r="AL188" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM188" s="15">
         <v>0.1</v>
@@ -29964,7 +29953,7 @@
         <v>70000001</v>
       </c>
       <c r="AP188" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ188" s="15"/>
       <c r="AR188" s="15">
@@ -29978,7 +29967,7 @@
         <v>73019001</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="E189" s="15">
         <v>1</v>
@@ -30080,7 +30069,7 @@
         <v>0</v>
       </c>
       <c r="AL189" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM189" s="15">
         <v>0</v>
@@ -30092,7 +30081,7 @@
         <v>70000001</v>
       </c>
       <c r="AP189" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ189" s="15"/>
       <c r="AR189" s="15">
@@ -30106,7 +30095,7 @@
         <v>73019002</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="E190" s="15">
         <v>1</v>
@@ -30208,7 +30197,7 @@
         <v>0</v>
       </c>
       <c r="AL190" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM190" s="15">
         <v>0</v>
@@ -30220,7 +30209,7 @@
         <v>70000001</v>
       </c>
       <c r="AP190" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ190" s="15"/>
       <c r="AR190" s="15">
@@ -30234,7 +30223,7 @@
         <v>73019003</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="E191" s="15">
         <v>3</v>
@@ -30336,7 +30325,7 @@
         <v>0</v>
       </c>
       <c r="AL191" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM191" s="15">
         <v>0.1</v>
@@ -30348,7 +30337,7 @@
         <v>70000001</v>
       </c>
       <c r="AP191" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ191" s="15"/>
       <c r="AR191" s="15">
@@ -30362,7 +30351,7 @@
         <v>73020001</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="E192" s="15">
         <v>1</v>
@@ -30464,7 +30453,7 @@
         <v>0</v>
       </c>
       <c r="AL192" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM192" s="15">
         <v>0</v>
@@ -30476,7 +30465,7 @@
         <v>70000001</v>
       </c>
       <c r="AP192" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ192" s="15"/>
       <c r="AR192" s="15">
@@ -30490,7 +30479,7 @@
         <v>73020002</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="E193" s="15">
         <v>1</v>
@@ -30592,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="AL193" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM193" s="15">
         <v>0</v>
@@ -30604,7 +30593,7 @@
         <v>70000001</v>
       </c>
       <c r="AP193" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ193" s="15"/>
       <c r="AR193" s="15">
@@ -30618,7 +30607,7 @@
         <v>73020003</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="E194" s="15">
         <v>3</v>
@@ -30720,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="AL194" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM194" s="15">
         <v>0.1</v>
@@ -30732,7 +30721,7 @@
         <v>70000001</v>
       </c>
       <c r="AP194" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ194" s="15"/>
       <c r="AR194" s="15">
@@ -30746,7 +30735,7 @@
         <v>73021001</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="E195" s="15">
         <v>1</v>
@@ -30761,7 +30750,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="15">
-        <v>70004001</v>
+        <v>72004002</v>
       </c>
       <c r="J195" s="15">
         <v>0</v>
@@ -30848,7 +30837,7 @@
         <v>0</v>
       </c>
       <c r="AL195" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM195" s="15">
         <v>0.1</v>
@@ -30860,7 +30849,7 @@
         <v>70000001</v>
       </c>
       <c r="AP195" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ195" s="15"/>
       <c r="AR195" s="15">
@@ -30874,7 +30863,7 @@
         <v>73021002</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="E196" s="15">
         <v>1</v>
@@ -30889,7 +30878,7 @@
         <v>0</v>
       </c>
       <c r="I196" s="15">
-        <v>70004002</v>
+        <v>72003002</v>
       </c>
       <c r="J196" s="15">
         <v>0</v>
@@ -30976,7 +30965,7 @@
         <v>0</v>
       </c>
       <c r="AL196" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM196" s="15">
         <v>0.1</v>
@@ -30988,7 +30977,7 @@
         <v>70000001</v>
       </c>
       <c r="AP196" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ196" s="15"/>
       <c r="AR196" s="15">
@@ -31002,7 +30991,7 @@
         <v>73021003</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E197" s="15">
         <v>3</v>
@@ -31104,7 +31093,7 @@
         <v>0</v>
       </c>
       <c r="AL197" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM197" s="15">
         <v>0.1</v>
@@ -31116,7 +31105,7 @@
         <v>70000001</v>
       </c>
       <c r="AP197" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ197" s="15"/>
       <c r="AR197" s="15">
@@ -31130,7 +31119,7 @@
         <v>73022001</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="E198" s="15">
         <v>1</v>
@@ -31145,7 +31134,7 @@
         <v>0</v>
       </c>
       <c r="I198" s="15">
-        <v>70004004</v>
+        <v>72004002</v>
       </c>
       <c r="J198" s="15">
         <v>0</v>
@@ -31232,7 +31221,7 @@
         <v>0</v>
       </c>
       <c r="AL198" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM198" s="15">
         <v>0.1</v>
@@ -31244,7 +31233,7 @@
         <v>70000001</v>
       </c>
       <c r="AP198" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ198" s="15"/>
       <c r="AR198" s="15">
@@ -31258,7 +31247,7 @@
         <v>73022002</v>
       </c>
       <c r="D199" s="15" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="E199" s="15">
         <v>1</v>
@@ -31273,7 +31262,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="15">
-        <v>70004005</v>
+        <v>72002005</v>
       </c>
       <c r="J199" s="15">
         <v>0</v>
@@ -31360,7 +31349,7 @@
         <v>0</v>
       </c>
       <c r="AL199" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM199" s="15">
         <v>0.1</v>
@@ -31372,7 +31361,7 @@
         <v>70000001</v>
       </c>
       <c r="AP199" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ199" s="15"/>
       <c r="AR199" s="15">
@@ -31386,7 +31375,7 @@
         <v>73022003</v>
       </c>
       <c r="D200" s="15" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="E200" s="15">
         <v>3</v>
@@ -31488,7 +31477,7 @@
         <v>0</v>
       </c>
       <c r="AL200" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM200" s="15">
         <v>0.1</v>
@@ -31500,7 +31489,7 @@
         <v>70000001</v>
       </c>
       <c r="AP200" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ200" s="15"/>
       <c r="AR200" s="15">
@@ -31514,7 +31503,7 @@
         <v>73023001</v>
       </c>
       <c r="D201" s="15" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E201" s="15">
         <v>1</v>
@@ -31616,7 +31605,7 @@
         <v>0</v>
       </c>
       <c r="AL201" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM201" s="15">
         <v>0.1</v>
@@ -31628,7 +31617,7 @@
         <v>70000001</v>
       </c>
       <c r="AP201" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ201" s="15"/>
       <c r="AR201" s="15">
@@ -31642,7 +31631,7 @@
         <v>73023002</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="E202" s="15">
         <v>1</v>
@@ -31744,7 +31733,7 @@
         <v>0</v>
       </c>
       <c r="AL202" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM202" s="15">
         <v>0.1</v>
@@ -31756,7 +31745,7 @@
         <v>70000001</v>
       </c>
       <c r="AP202" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ202" s="15"/>
       <c r="AR202" s="15">
@@ -31770,7 +31759,7 @@
         <v>73023003</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="E203" s="15">
         <v>3</v>
@@ -31872,7 +31861,7 @@
         <v>0</v>
       </c>
       <c r="AL203" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM203" s="15">
         <v>0.1</v>
@@ -31884,7 +31873,7 @@
         <v>70000001</v>
       </c>
       <c r="AP203" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ203" s="15"/>
       <c r="AR203" s="15">
@@ -31898,7 +31887,7 @@
         <v>73024001</v>
       </c>
       <c r="D204" s="15" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="E204" s="15">
         <v>1</v>
@@ -32000,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="AL204" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM204" s="15">
         <v>0.1</v>
@@ -32012,7 +32001,7 @@
         <v>70000001</v>
       </c>
       <c r="AP204" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ204" s="15"/>
       <c r="AR204" s="15">
@@ -32026,7 +32015,7 @@
         <v>73024002</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="E205" s="15">
         <v>1</v>
@@ -32041,7 +32030,7 @@
         <v>0</v>
       </c>
       <c r="I205" s="15">
-        <v>70004012</v>
+        <v>72003003</v>
       </c>
       <c r="J205" s="15">
         <v>0</v>
@@ -32128,7 +32117,7 @@
         <v>0</v>
       </c>
       <c r="AL205" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM205" s="15">
         <v>0.1</v>
@@ -32140,7 +32129,7 @@
         <v>70000001</v>
       </c>
       <c r="AP205" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ205" s="15"/>
       <c r="AR205" s="15">
@@ -32154,7 +32143,7 @@
         <v>73024003</v>
       </c>
       <c r="D206" s="15" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="E206" s="15">
         <v>3</v>
@@ -32256,7 +32245,7 @@
         <v>0</v>
       </c>
       <c r="AL206" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM206" s="15">
         <v>0.1</v>
@@ -32268,7 +32257,7 @@
         <v>70000001</v>
       </c>
       <c r="AP206" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ206" s="15"/>
       <c r="AR206" s="15">
@@ -32282,7 +32271,7 @@
         <v>73025001</v>
       </c>
       <c r="D207" s="15" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="E207" s="15">
         <v>1</v>
@@ -32384,7 +32373,7 @@
         <v>0</v>
       </c>
       <c r="AL207" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM207" s="15">
         <v>0</v>
@@ -32396,7 +32385,7 @@
         <v>70000001</v>
       </c>
       <c r="AP207" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ207" s="15"/>
       <c r="AR207" s="15">
@@ -32410,7 +32399,7 @@
         <v>73025002</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="E208" s="15">
         <v>1</v>
@@ -32512,7 +32501,7 @@
         <v>0</v>
       </c>
       <c r="AL208" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM208" s="15">
         <v>0</v>
@@ -32524,7 +32513,7 @@
         <v>70000001</v>
       </c>
       <c r="AP208" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ208" s="15"/>
       <c r="AR208" s="15">
@@ -32538,7 +32527,7 @@
         <v>73025003</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="E209" s="15">
         <v>3</v>
@@ -32640,7 +32629,7 @@
         <v>0</v>
       </c>
       <c r="AL209" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM209" s="15">
         <v>0.1</v>
@@ -32652,7 +32641,7 @@
         <v>70000001</v>
       </c>
       <c r="AP209" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ209" s="15"/>
       <c r="AR209" s="15">
@@ -32666,7 +32655,7 @@
         <v>73026001</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="E210" s="15">
         <v>1</v>
@@ -32768,7 +32757,7 @@
         <v>0</v>
       </c>
       <c r="AL210" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM210" s="15">
         <v>0</v>
@@ -32780,7 +32769,7 @@
         <v>70000001</v>
       </c>
       <c r="AP210" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ210" s="15"/>
       <c r="AR210" s="15">
@@ -32794,7 +32783,7 @@
         <v>73026002</v>
       </c>
       <c r="D211" s="15" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="E211" s="15">
         <v>1</v>
@@ -32896,7 +32885,7 @@
         <v>0</v>
       </c>
       <c r="AL211" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM211" s="15">
         <v>0</v>
@@ -32908,7 +32897,7 @@
         <v>70000001</v>
       </c>
       <c r="AP211" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ211" s="15"/>
       <c r="AR211" s="15">
@@ -32922,7 +32911,7 @@
         <v>73026003</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="E212" s="15">
         <v>3</v>
@@ -33024,7 +33013,7 @@
         <v>0</v>
       </c>
       <c r="AL212" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM212" s="15">
         <v>0.1</v>
@@ -33036,7 +33025,7 @@
         <v>70000001</v>
       </c>
       <c r="AP212" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ212" s="15"/>
       <c r="AR212" s="15">
@@ -33050,7 +33039,7 @@
         <v>73027001</v>
       </c>
       <c r="D213" s="15" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="E213" s="15">
         <v>1</v>
@@ -33152,7 +33141,7 @@
         <v>0</v>
       </c>
       <c r="AL213" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM213" s="15">
         <v>0</v>
@@ -33164,7 +33153,7 @@
         <v>70000001</v>
       </c>
       <c r="AP213" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ213" s="15"/>
       <c r="AR213" s="15">
@@ -33178,7 +33167,7 @@
         <v>73027002</v>
       </c>
       <c r="D214" s="15" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="E214" s="15">
         <v>1</v>
@@ -33280,7 +33269,7 @@
         <v>0</v>
       </c>
       <c r="AL214" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM214" s="15">
         <v>0</v>
@@ -33292,7 +33281,7 @@
         <v>70000001</v>
       </c>
       <c r="AP214" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ214" s="15"/>
       <c r="AR214" s="15">
@@ -33306,7 +33295,7 @@
         <v>73027003</v>
       </c>
       <c r="D215" s="15" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="E215" s="15">
         <v>3</v>
@@ -33408,7 +33397,7 @@
         <v>0</v>
       </c>
       <c r="AL215" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM215" s="15">
         <v>0.1</v>
@@ -33420,7 +33409,7 @@
         <v>70000001</v>
       </c>
       <c r="AP215" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ215" s="15"/>
       <c r="AR215" s="15">
@@ -33434,7 +33423,7 @@
         <v>73028001</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="E216" s="15">
         <v>1</v>
@@ -33536,7 +33525,7 @@
         <v>0</v>
       </c>
       <c r="AL216" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM216" s="15">
         <v>0.1</v>
@@ -33548,7 +33537,7 @@
         <v>70000001</v>
       </c>
       <c r="AP216" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ216" s="15"/>
       <c r="AR216" s="15">
@@ -33562,7 +33551,7 @@
         <v>73028002</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="E217" s="15">
         <v>1</v>
@@ -33577,7 +33566,7 @@
         <v>0</v>
       </c>
       <c r="I217" s="15">
-        <v>70005002</v>
+        <v>70003005</v>
       </c>
       <c r="J217" s="15">
         <v>0</v>
@@ -33664,7 +33653,7 @@
         <v>0</v>
       </c>
       <c r="AL217" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM217" s="15">
         <v>0.1</v>
@@ -33676,7 +33665,7 @@
         <v>70000002</v>
       </c>
       <c r="AP217" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ217" s="15"/>
       <c r="AR217" s="15">
@@ -33690,7 +33679,7 @@
         <v>73028003</v>
       </c>
       <c r="D218" s="15" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="E218" s="15">
         <v>3</v>
@@ -33792,7 +33781,7 @@
         <v>0</v>
       </c>
       <c r="AL218" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM218" s="15">
         <v>0.1</v>
@@ -33804,7 +33793,7 @@
         <v>70000002</v>
       </c>
       <c r="AP218" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ218" s="15"/>
       <c r="AR218" s="15">
@@ -33818,7 +33807,7 @@
         <v>73029001</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E219" s="15">
         <v>1</v>
@@ -33920,7 +33909,7 @@
         <v>0</v>
       </c>
       <c r="AL219" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM219" s="15">
         <v>0.1</v>
@@ -33932,7 +33921,7 @@
         <v>70000001</v>
       </c>
       <c r="AP219" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ219" s="15"/>
       <c r="AR219" s="15">
@@ -33946,7 +33935,7 @@
         <v>73029002</v>
       </c>
       <c r="D220" s="26" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="E220" s="26">
         <v>1</v>
@@ -34048,7 +34037,7 @@
         <v>0</v>
       </c>
       <c r="AL220" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM220" s="26">
         <v>0.1</v>
@@ -34060,7 +34049,7 @@
         <v>70000001</v>
       </c>
       <c r="AP220" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ220" s="26"/>
       <c r="AR220" s="26">
@@ -34074,7 +34063,7 @@
         <v>73029003</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="E221" s="15">
         <v>3</v>
@@ -34176,7 +34165,7 @@
         <v>0</v>
       </c>
       <c r="AL221" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM221" s="15">
         <v>0.1</v>
@@ -34188,7 +34177,7 @@
         <v>70000001</v>
       </c>
       <c r="AP221" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ221" s="15"/>
       <c r="AR221" s="15">
@@ -34202,7 +34191,7 @@
         <v>73030001</v>
       </c>
       <c r="D222" s="26" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="E222" s="26">
         <v>1</v>
@@ -34304,7 +34293,7 @@
         <v>0</v>
       </c>
       <c r="AL222" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM222" s="26">
         <v>0.1</v>
@@ -34316,7 +34305,7 @@
         <v>70000001</v>
       </c>
       <c r="AP222" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ222" s="26"/>
       <c r="AR222" s="26">
@@ -34330,7 +34319,7 @@
         <v>73030002</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>186</v>
+        <v>425</v>
       </c>
       <c r="E223" s="15">
         <v>1</v>
@@ -34432,7 +34421,7 @@
         <v>0</v>
       </c>
       <c r="AL223" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM223" s="15">
         <v>0.1</v>
@@ -34444,7 +34433,7 @@
         <v>70000002</v>
       </c>
       <c r="AP223" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ223" s="15"/>
       <c r="AR223" s="15">
@@ -34458,7 +34447,7 @@
         <v>73030003</v>
       </c>
       <c r="D224" s="15" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="E224" s="15">
         <v>3</v>
@@ -34560,7 +34549,7 @@
         <v>0</v>
       </c>
       <c r="AL224" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM224" s="15">
         <v>0.1</v>
@@ -34572,7 +34561,7 @@
         <v>70000001</v>
       </c>
       <c r="AP224" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ224" s="15"/>
       <c r="AR224" s="15">
@@ -34586,7 +34575,7 @@
         <v>73031001</v>
       </c>
       <c r="D225" s="26" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="E225" s="26">
         <v>1</v>
@@ -34688,7 +34677,7 @@
         <v>0</v>
       </c>
       <c r="AL225" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM225" s="26">
         <v>0.1</v>
@@ -34700,7 +34689,7 @@
         <v>70000001</v>
       </c>
       <c r="AP225" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ225" s="26"/>
       <c r="AR225" s="26">
@@ -34714,7 +34703,7 @@
         <v>73031002</v>
       </c>
       <c r="D226" s="26" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="E226" s="26">
         <v>1</v>
@@ -34816,7 +34805,7 @@
         <v>0</v>
       </c>
       <c r="AL226" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM226" s="26">
         <v>0.1</v>
@@ -34828,7 +34817,7 @@
         <v>70000001</v>
       </c>
       <c r="AP226" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ226" s="26"/>
       <c r="AR226" s="26">
@@ -34842,7 +34831,7 @@
         <v>73031003</v>
       </c>
       <c r="D227" s="15" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="E227" s="15">
         <v>3</v>
@@ -34944,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="AL227" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM227" s="15">
         <v>0.1</v>
@@ -34956,7 +34945,7 @@
         <v>70000001</v>
       </c>
       <c r="AP227" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ227" s="15"/>
       <c r="AR227" s="15">
@@ -34970,7 +34959,7 @@
         <v>73032001</v>
       </c>
       <c r="D228" s="26" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="E228" s="26">
         <v>1</v>
@@ -35072,7 +35061,7 @@
         <v>0</v>
       </c>
       <c r="AL228" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM228" s="26">
         <v>0.1</v>
@@ -35084,7 +35073,7 @@
         <v>70000001</v>
       </c>
       <c r="AP228" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ228" s="26"/>
       <c r="AR228" s="26">
@@ -35098,7 +35087,7 @@
         <v>73032002</v>
       </c>
       <c r="D229" s="15" t="s">
-        <v>186</v>
+        <v>425</v>
       </c>
       <c r="E229" s="15">
         <v>1</v>
@@ -35200,7 +35189,7 @@
         <v>0</v>
       </c>
       <c r="AL229" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM229" s="15">
         <v>0.1</v>
@@ -35212,7 +35201,7 @@
         <v>70000002</v>
       </c>
       <c r="AP229" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ229" s="15"/>
       <c r="AR229" s="15">
@@ -35226,7 +35215,7 @@
         <v>73032003</v>
       </c>
       <c r="D230" s="15" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="E230" s="15">
         <v>3</v>
@@ -35328,7 +35317,7 @@
         <v>0</v>
       </c>
       <c r="AL230" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM230" s="15">
         <v>0.1</v>
@@ -35340,7 +35329,7 @@
         <v>70000001</v>
       </c>
       <c r="AP230" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ230" s="15"/>
       <c r="AR230" s="15">
@@ -35354,7 +35343,7 @@
         <v>73033001</v>
       </c>
       <c r="D231" s="15" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="E231" s="15">
         <v>1</v>
@@ -35456,7 +35445,7 @@
         <v>0</v>
       </c>
       <c r="AL231" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM231" s="15">
         <v>0</v>
@@ -35468,7 +35457,7 @@
         <v>70000001</v>
       </c>
       <c r="AP231" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ231" s="15"/>
       <c r="AR231" s="15">
@@ -35482,7 +35471,7 @@
         <v>73033002</v>
       </c>
       <c r="D232" s="15" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="E232" s="15">
         <v>1</v>
@@ -35584,7 +35573,7 @@
         <v>0</v>
       </c>
       <c r="AL232" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM232" s="15">
         <v>0</v>
@@ -35596,7 +35585,7 @@
         <v>70000001</v>
       </c>
       <c r="AP232" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ232" s="15"/>
       <c r="AR232" s="15">
@@ -35610,7 +35599,7 @@
         <v>73033003</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="E233" s="15">
         <v>3</v>
@@ -35712,7 +35701,7 @@
         <v>0</v>
       </c>
       <c r="AL233" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM233" s="15">
         <v>0.1</v>
@@ -35724,7 +35713,7 @@
         <v>70000001</v>
       </c>
       <c r="AP233" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ233" s="15"/>
       <c r="AR233" s="15">
@@ -35738,7 +35727,7 @@
         <v>73034001</v>
       </c>
       <c r="D234" s="15" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="E234" s="15">
         <v>1</v>
@@ -35840,7 +35829,7 @@
         <v>0</v>
       </c>
       <c r="AL234" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM234" s="15">
         <v>0</v>
@@ -35852,7 +35841,7 @@
         <v>70000001</v>
       </c>
       <c r="AP234" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ234" s="15"/>
       <c r="AR234" s="15">
@@ -35866,7 +35855,7 @@
         <v>73034002</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="E235" s="15">
         <v>1</v>
@@ -35968,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="AL235" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM235" s="15">
         <v>0</v>
@@ -35980,7 +35969,7 @@
         <v>70000001</v>
       </c>
       <c r="AP235" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ235" s="15"/>
       <c r="AR235" s="15">
@@ -35994,7 +35983,7 @@
         <v>73034003</v>
       </c>
       <c r="D236" s="15" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="E236" s="15">
         <v>3</v>
@@ -36096,7 +36085,7 @@
         <v>0</v>
       </c>
       <c r="AL236" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM236" s="15">
         <v>0.1</v>
@@ -36108,7 +36097,7 @@
         <v>70000001</v>
       </c>
       <c r="AP236" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ236" s="15"/>
       <c r="AR236" s="15">
@@ -36122,7 +36111,7 @@
         <v>73035001</v>
       </c>
       <c r="D237" s="15" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="E237" s="15">
         <v>1</v>
@@ -36224,7 +36213,7 @@
         <v>0</v>
       </c>
       <c r="AL237" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM237" s="15">
         <v>0</v>
@@ -36236,7 +36225,7 @@
         <v>70000001</v>
       </c>
       <c r="AP237" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ237" s="15"/>
       <c r="AR237" s="15">
@@ -36250,7 +36239,7 @@
         <v>73035002</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="E238" s="15">
         <v>1</v>
@@ -36352,7 +36341,7 @@
         <v>0</v>
       </c>
       <c r="AL238" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM238" s="15">
         <v>0</v>
@@ -36364,7 +36353,7 @@
         <v>70000001</v>
       </c>
       <c r="AP238" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ238" s="15"/>
       <c r="AR238" s="15">
@@ -36378,7 +36367,7 @@
         <v>73035003</v>
       </c>
       <c r="D239" s="15" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="E239" s="15">
         <v>3</v>
@@ -36480,7 +36469,7 @@
         <v>0</v>
       </c>
       <c r="AL239" s="10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="AM239" s="15">
         <v>0.1</v>
@@ -36492,7 +36481,7 @@
         <v>70000002</v>
       </c>
       <c r="AP239" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AQ239" s="15"/>
       <c r="AR239" s="15">
@@ -36506,7 +36495,7 @@
         <v>80000001</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="E240" s="6">
         <v>5</v>
@@ -36635,7 +36624,7 @@
         <v>80000002</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="E241" s="6">
         <v>5</v>
@@ -36764,7 +36753,7 @@
         <v>80000101</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="E242" s="6">
         <v>5</v>
@@ -36866,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="AL242" s="11" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="AM242" s="6">
         <v>0</v>
@@ -36893,7 +36882,7 @@
         <v>80000201</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="E243" s="6">
         <v>5</v>
@@ -36995,7 +36984,7 @@
         <v>0</v>
       </c>
       <c r="AL243" s="22" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="AM243" s="6">
         <v>0</v>
@@ -37022,7 +37011,7 @@
         <v>80000301</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="E244" s="6">
         <v>5</v>
@@ -37124,7 +37113,7 @@
         <v>0</v>
       </c>
       <c r="AL244" s="22" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="AM244" s="6">
         <v>0</v>
@@ -37151,7 +37140,7 @@
         <v>80000401</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="E245" s="6">
         <v>5</v>
@@ -37253,7 +37242,7 @@
         <v>0</v>
       </c>
       <c r="AL245" s="22" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="AM245" s="6">
         <v>0</v>
@@ -37280,7 +37269,7 @@
         <v>80000501</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E246" s="6">
         <v>5</v>
@@ -37382,7 +37371,7 @@
         <v>0</v>
       </c>
       <c r="AL246" s="22" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="AM246" s="6">
         <v>0</v>
@@ -37409,7 +37398,7 @@
         <v>90000001</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="E247" s="6">
         <v>1</v>
@@ -37511,7 +37500,7 @@
         <v>0</v>
       </c>
       <c r="AL247" s="10" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="AM247" s="6">
         <v>0</v>
@@ -37523,7 +37512,7 @@
         <v>60000331</v>
       </c>
       <c r="AP247" s="10" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="AQ247" s="6"/>
       <c r="AR247" s="6">
@@ -37539,7 +37528,7 @@
         <v>90000002</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="E248" s="6">
         <v>1</v>
@@ -37641,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="AL248" s="10" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="AM248" s="6">
         <v>0</v>
@@ -37653,7 +37642,7 @@
         <v>70000001</v>
       </c>
       <c r="AP248" s="10" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="AQ248" s="6"/>
       <c r="AR248" s="6">

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA425A2-4AE3-4E10-8EBB-8344B0F4BB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3017998-AE0B-4CB3-ACA3-2D476AB65D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="432">
   <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1281,13 +1281,6 @@
     <t>矿洞蝙蝠</t>
   </si>
   <si>
-    <t>守护领主</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔岩蝙蝠</t>
-  </si>
-  <si>
     <t>爬行者</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -2160,6 +2153,17 @@
   <si>
     <t>精英守卫</t>
     <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩烈龙</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下教主</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护领主-烈风</t>
   </si>
 </sst>
 </file>
@@ -6070,10 +6074,10 @@
   <dimension ref="A1:AV270"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E187" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I198" sqref="I198"/>
+      <selection pane="bottomRight" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -6629,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AM6" s="6">
         <v>0.1</v>
@@ -6757,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="AL7" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AM7" s="6">
         <v>0.1</v>
@@ -6885,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AM8" s="6">
         <v>0.1</v>
@@ -7013,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="AL9" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AM9" s="6">
         <v>0.5</v>
@@ -7025,7 +7029,7 @@
         <v>70000001</v>
       </c>
       <c r="AP9" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AQ9" s="6"/>
       <c r="AR9" s="6">
@@ -7141,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AM10" s="6">
         <v>0.1</v>
@@ -7269,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AM11" s="6">
         <v>0.1</v>
@@ -7295,7 +7299,7 @@
         <v>70001007</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E12" s="27">
         <v>1</v>
@@ -7397,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AM12" s="27">
         <v>0.1</v>
@@ -7525,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AM13" s="6">
         <v>0.1</v>
@@ -7551,7 +7555,7 @@
         <v>70001011</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E14" s="30">
         <v>3</v>
@@ -7653,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AM14" s="30">
         <v>0.1</v>
@@ -7781,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="AL15" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AM15" s="6">
         <v>0.1</v>
@@ -7807,7 +7811,7 @@
         <v>70001102</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E16" s="27">
         <v>1</v>
@@ -7909,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AM16" s="27">
         <v>0.1</v>
@@ -7935,7 +7939,7 @@
         <v>70001103</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E17" s="27">
         <v>1</v>
@@ -8037,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="AL17" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AM17" s="27">
         <v>0.1</v>
@@ -8165,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AM18" s="6">
         <v>0.5</v>
@@ -8191,7 +8195,7 @@
         <v>70001201</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E19" s="30">
         <v>1</v>
@@ -8293,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="AL19" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AM19" s="30">
         <v>0.1</v>
@@ -8319,7 +8323,7 @@
         <v>70001202</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E20" s="30">
         <v>1</v>
@@ -8421,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AM20" s="30">
         <v>0.1</v>
@@ -8447,7 +8451,7 @@
         <v>70001203</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E21" s="27">
         <v>1</v>
@@ -8549,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="AL21" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AM21" s="27">
         <v>0.1</v>
@@ -8575,7 +8579,7 @@
         <v>70001204</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E22" s="27">
         <v>1</v>
@@ -8677,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AM22" s="27">
         <v>0.1</v>
@@ -8703,7 +8707,7 @@
         <v>70001205</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E23" s="30">
         <v>1</v>
@@ -8805,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AM23" s="30">
         <v>0.1</v>
@@ -8817,7 +8821,7 @@
         <v>70000002</v>
       </c>
       <c r="AP23" s="32" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AQ23" s="30"/>
       <c r="AR23" s="30">
@@ -8831,7 +8835,7 @@
         <v>70001206</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>194</v>
+        <v>430</v>
       </c>
       <c r="E24" s="6">
         <v>3</v>
@@ -8933,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AM24" s="6">
         <v>0.1</v>
@@ -8959,7 +8963,7 @@
         <v>70001207</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E25" s="30">
         <v>1</v>
@@ -9061,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AM25" s="30">
         <v>0.1</v>
@@ -9087,7 +9091,7 @@
         <v>70001208</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E26" s="30">
         <v>1</v>
@@ -9189,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="AL26" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AM26" s="30">
         <v>0.1</v>
@@ -9317,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AM27" s="30">
         <v>0.5</v>
@@ -9445,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AM28" s="6">
         <v>0.1</v>
@@ -9573,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AM29" s="6">
         <v>0.1</v>
@@ -9701,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="AL30" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AM30" s="6">
         <v>0.5</v>
@@ -9727,7 +9731,7 @@
         <v>70002004</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E31" s="27">
         <v>1</v>
@@ -9829,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="AL31" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM31" s="27">
         <v>0.1</v>
@@ -9957,7 +9961,7 @@
         <v>0</v>
       </c>
       <c r="AL32" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AM32" s="6">
         <v>0.1</v>
@@ -9983,7 +9987,7 @@
         <v>70002006</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E33" s="27">
         <v>3</v>
@@ -10085,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AM33" s="27">
         <v>0</v>
@@ -10111,7 +10115,7 @@
         <v>70002007</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E34" s="27">
         <v>3</v>
@@ -10213,7 +10217,7 @@
         <v>0</v>
       </c>
       <c r="AL34" s="28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AM34" s="27">
         <v>0.5</v>
@@ -10341,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="AL35" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AM35" s="6">
         <v>0.1</v>
@@ -10469,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AM36" s="6">
         <v>0.1</v>
@@ -10495,7 +10499,7 @@
         <v>70002010</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E37" s="27">
         <v>1</v>
@@ -10597,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AM37" s="27">
         <v>0.1</v>
@@ -10623,7 +10627,7 @@
         <v>70002011</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E38" s="6">
         <v>1</v>
@@ -10725,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="AL38" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AM38" s="6">
         <v>0.1</v>
@@ -10853,7 +10857,7 @@
         <v>0</v>
       </c>
       <c r="AL39" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AM39" s="6">
         <v>0.5</v>
@@ -10981,7 +10985,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AM40" s="6">
         <v>0.1</v>
@@ -11109,7 +11113,7 @@
         <v>0</v>
       </c>
       <c r="AL41" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AM41" s="6">
         <v>0.1</v>
@@ -11237,7 +11241,7 @@
         <v>0</v>
       </c>
       <c r="AL42" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AM42" s="6">
         <v>0.1</v>
@@ -11365,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="AL43" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM43" s="6">
         <v>0.1</v>
@@ -11391,7 +11395,7 @@
         <v>70003005</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E44" s="6">
         <v>1</v>
@@ -11493,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="AL44" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM44" s="6">
         <v>0.1</v>
@@ -11621,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="AL45" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AM45" s="6">
         <v>0.1</v>
@@ -11749,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AM46" s="6">
         <v>0.1</v>
@@ -11877,7 +11881,7 @@
         <v>0</v>
       </c>
       <c r="AL47" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AM47" s="6">
         <v>0.1</v>
@@ -11918,7 +11922,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="6">
-        <v>70003009</v>
+        <v>70003001</v>
       </c>
       <c r="J48" s="6">
         <v>0</v>
@@ -12005,7 +12009,7 @@
         <v>0</v>
       </c>
       <c r="AL48" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AM48" s="6">
         <v>0.1</v>
@@ -12133,7 +12137,7 @@
         <v>0</v>
       </c>
       <c r="AL49" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AM49" s="6">
         <v>0.1</v>
@@ -12159,7 +12163,7 @@
         <v>70003011</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E50" s="27">
         <v>1</v>
@@ -12261,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="AL50" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AM50" s="27">
         <v>0.1</v>
@@ -12389,7 +12393,7 @@
         <v>0</v>
       </c>
       <c r="AL51" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AM51" s="6">
         <v>0.1</v>
@@ -12415,7 +12419,7 @@
         <v>70003013</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E52" s="27">
         <v>1</v>
@@ -12517,7 +12521,7 @@
         <v>0</v>
       </c>
       <c r="AL52" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AM52" s="27">
         <v>0.1</v>
@@ -12645,7 +12649,7 @@
         <v>0</v>
       </c>
       <c r="AL53" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AM53" s="6">
         <v>0.1</v>
@@ -12671,7 +12675,7 @@
         <v>70003015</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
@@ -12773,7 +12777,7 @@
         <v>0</v>
       </c>
       <c r="AL54" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AM54" s="6">
         <v>0.1</v>
@@ -12901,7 +12905,7 @@
         <v>0</v>
       </c>
       <c r="AL55" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AM55" s="6">
         <v>0.1</v>
@@ -13029,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="AL56" s="28" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AM56" s="27">
         <v>0.1</v>
@@ -13055,7 +13059,7 @@
         <v>70004002</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E57" s="27">
         <v>1</v>
@@ -13157,7 +13161,7 @@
         <v>0</v>
       </c>
       <c r="AL57" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AM57" s="27">
         <v>0.1</v>
@@ -13285,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="AL58" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AM58" s="6">
         <v>0.1</v>
@@ -13413,7 +13417,7 @@
         <v>0</v>
       </c>
       <c r="AL59" s="28" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AM59" s="27">
         <v>0.1</v>
@@ -13439,7 +13443,7 @@
         <v>70004005</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E60" s="27">
         <v>1</v>
@@ -13541,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="AL60" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AM60" s="27">
         <v>0.1</v>
@@ -13567,7 +13571,7 @@
         <v>70004006</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E61" s="27">
         <v>3</v>
@@ -13669,7 +13673,7 @@
         <v>0</v>
       </c>
       <c r="AL61" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AM61" s="27">
         <v>0.1</v>
@@ -13797,7 +13801,7 @@
         <v>0</v>
       </c>
       <c r="AL62" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AM62" s="6">
         <v>0.1</v>
@@ -13925,7 +13929,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM63" s="6">
         <v>0.1</v>
@@ -14053,7 +14057,7 @@
         <v>0</v>
       </c>
       <c r="AL64" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AM64" s="6">
         <v>0.1</v>
@@ -14181,7 +14185,7 @@
         <v>0</v>
       </c>
       <c r="AL65" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AM65" s="6">
         <v>0.1</v>
@@ -14207,7 +14211,7 @@
         <v>70004011</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E66" s="6">
         <v>1</v>
@@ -14309,7 +14313,7 @@
         <v>0</v>
       </c>
       <c r="AL66" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AM66" s="6">
         <v>0.1</v>
@@ -14335,7 +14339,7 @@
         <v>70004012</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E67" s="6">
         <v>1</v>
@@ -14437,7 +14441,7 @@
         <v>0</v>
       </c>
       <c r="AL67" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AM67" s="6">
         <v>0.1</v>
@@ -14565,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="AL68" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AM68" s="27">
         <v>0.1</v>
@@ -14693,7 +14697,7 @@
         <v>0</v>
       </c>
       <c r="AL69" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AM69" s="6">
         <v>0.1</v>
@@ -14719,7 +14723,7 @@
         <v>70005002</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E70" s="6">
         <v>1</v>
@@ -14821,7 +14825,7 @@
         <v>0</v>
       </c>
       <c r="AL70" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AM70" s="6">
         <v>0.1</v>
@@ -14833,7 +14837,7 @@
         <v>70000002</v>
       </c>
       <c r="AP70" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AQ70" s="6"/>
       <c r="AR70" s="6">
@@ -14949,7 +14953,7 @@
         <v>0</v>
       </c>
       <c r="AL71" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AM71" s="6">
         <v>0.1</v>
@@ -14961,7 +14965,7 @@
         <v>70000002</v>
       </c>
       <c r="AP71" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AQ71" s="6"/>
       <c r="AR71" s="6">
@@ -14975,7 +14979,7 @@
         <v>70005004</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>171</v>
+        <v>431</v>
       </c>
       <c r="E72" s="6">
         <v>3</v>
@@ -15077,7 +15081,7 @@
         <v>0</v>
       </c>
       <c r="AL72" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AM72" s="6">
         <v>0.1</v>
@@ -15103,7 +15107,7 @@
         <v>70005006</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>172</v>
+        <v>429</v>
       </c>
       <c r="E73" s="6">
         <v>1</v>
@@ -15205,7 +15209,7 @@
         <v>0</v>
       </c>
       <c r="AL73" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AM73" s="6">
         <v>0.1</v>
@@ -15231,7 +15235,7 @@
         <v>70005007</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E74" s="27">
         <v>1</v>
@@ -15333,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="AL74" s="28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AM74" s="27">
         <v>0.1</v>
@@ -15359,7 +15363,7 @@
         <v>70005008</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E75" s="27">
         <v>1</v>
@@ -15461,7 +15465,7 @@
         <v>0</v>
       </c>
       <c r="AL75" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AM75" s="27">
         <v>0.1</v>
@@ -15487,7 +15491,7 @@
         <v>70005009</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E76" s="27">
         <v>1</v>
@@ -15589,7 +15593,7 @@
         <v>0</v>
       </c>
       <c r="AL76" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AM76" s="27">
         <v>0.1</v>
@@ -15615,7 +15619,7 @@
         <v>70005010</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
@@ -15717,7 +15721,7 @@
         <v>0</v>
       </c>
       <c r="AL77" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AM77" s="6">
         <v>0.1</v>
@@ -15729,7 +15733,7 @@
         <v>70000002</v>
       </c>
       <c r="AP77" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AQ77" s="6"/>
       <c r="AR77" s="6">
@@ -15845,7 +15849,7 @@
         <v>0</v>
       </c>
       <c r="AL78" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AM78" s="18">
         <v>0.1</v>
@@ -15871,7 +15875,7 @@
         <v>70005012</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E79" s="6">
         <v>3</v>
@@ -15973,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="AL79" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AM79" s="6">
         <v>0.1</v>
@@ -16101,7 +16105,7 @@
         <v>0</v>
       </c>
       <c r="AL80" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AM80" s="6">
         <v>0.1</v>
@@ -16383,7 +16387,7 @@
         <v>70009003</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E83" s="6">
         <v>1</v>
@@ -16511,7 +16515,7 @@
         <v>70009004</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E84" s="6">
         <v>1</v>
@@ -17294,7 +17298,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="6">
-        <v>70009403</v>
+        <v>70004011</v>
       </c>
       <c r="J90" s="6">
         <v>0</v>
@@ -17407,7 +17411,7 @@
         <v>70009404</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E91" s="6">
         <v>1</v>
@@ -17521,7 +17525,7 @@
         <v>70000002</v>
       </c>
       <c r="AP91" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AQ91" s="6"/>
       <c r="AR91" s="6">
@@ -17535,7 +17539,7 @@
         <v>70009410</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E92" s="6">
         <v>1</v>
@@ -17678,7 +17682,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="6">
-        <v>70009501</v>
+        <v>70005010</v>
       </c>
       <c r="J93" s="6">
         <v>0</v>
@@ -17791,7 +17795,7 @@
         <v>70009502</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E94" s="6">
         <v>1</v>
@@ -17934,7 +17938,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="6">
-        <v>70009503</v>
+        <v>72004004</v>
       </c>
       <c r="J95" s="6">
         <v>0</v>
@@ -18062,7 +18066,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="6">
-        <v>70009504</v>
+        <v>72004003</v>
       </c>
       <c r="J96" s="6">
         <v>0</v>
@@ -18303,7 +18307,7 @@
         <v>72001001</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E98" s="6">
         <v>1</v>
@@ -18405,7 +18409,7 @@
         <v>0</v>
       </c>
       <c r="AL98" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AM98" s="6">
         <v>0</v>
@@ -18431,7 +18435,7 @@
         <v>72001002</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E99" s="6">
         <v>1</v>
@@ -18533,7 +18537,7 @@
         <v>0</v>
       </c>
       <c r="AL99" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AM99" s="6">
         <v>0</v>
@@ -18559,7 +18563,7 @@
         <v>72001003</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E100" s="6">
         <v>1</v>
@@ -18661,7 +18665,7 @@
         <v>0</v>
       </c>
       <c r="AL100" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AM100" s="6">
         <v>0</v>
@@ -18687,7 +18691,7 @@
         <v>72001004</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E101" s="6">
         <v>1</v>
@@ -18789,7 +18793,7 @@
         <v>0</v>
       </c>
       <c r="AL101" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AM101" s="6">
         <v>0</v>
@@ -18815,7 +18819,7 @@
         <v>72001011</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E102" s="6">
         <v>3</v>
@@ -18917,7 +18921,7 @@
         <v>0</v>
       </c>
       <c r="AL102" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AM102" s="6">
         <v>0.1</v>
@@ -18943,7 +18947,7 @@
         <v>72001012</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E103" s="6">
         <v>3</v>
@@ -19045,7 +19049,7 @@
         <v>0</v>
       </c>
       <c r="AL103" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AM103" s="6">
         <v>0.1</v>
@@ -19071,7 +19075,7 @@
         <v>72001013</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E104" s="6">
         <v>3</v>
@@ -19173,7 +19177,7 @@
         <v>0</v>
       </c>
       <c r="AL104" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AM104" s="6">
         <v>0.1</v>
@@ -19199,7 +19203,7 @@
         <v>72002001</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E105" s="6">
         <v>1</v>
@@ -19301,7 +19305,7 @@
         <v>0</v>
       </c>
       <c r="AL105" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AM105" s="6">
         <v>0</v>
@@ -19327,7 +19331,7 @@
         <v>72002002</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E106" s="6">
         <v>1</v>
@@ -19429,7 +19433,7 @@
         <v>0</v>
       </c>
       <c r="AL106" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AM106" s="6">
         <v>0</v>
@@ -19455,7 +19459,7 @@
         <v>72002003</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E107" s="6">
         <v>1</v>
@@ -19557,7 +19561,7 @@
         <v>0</v>
       </c>
       <c r="AL107" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AM107" s="6">
         <v>0</v>
@@ -19583,7 +19587,7 @@
         <v>72002004</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E108" s="6">
         <v>1</v>
@@ -19685,7 +19689,7 @@
         <v>0</v>
       </c>
       <c r="AL108" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AM108" s="6">
         <v>0</v>
@@ -19711,7 +19715,7 @@
         <v>72002005</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E109" s="6">
         <v>1</v>
@@ -19813,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="AL109" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AM109" s="6">
         <v>0</v>
@@ -19839,7 +19843,7 @@
         <v>72002011</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E110" s="6">
         <v>3</v>
@@ -19941,7 +19945,7 @@
         <v>0</v>
       </c>
       <c r="AL110" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AM110" s="6">
         <v>0.1</v>
@@ -19967,7 +19971,7 @@
         <v>72002012</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E111" s="6">
         <v>3</v>
@@ -20069,7 +20073,7 @@
         <v>0</v>
       </c>
       <c r="AL111" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AM111" s="6">
         <v>0.1</v>
@@ -20095,7 +20099,7 @@
         <v>72002013</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E112" s="6">
         <v>3</v>
@@ -20197,7 +20201,7 @@
         <v>0</v>
       </c>
       <c r="AL112" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AM112" s="6">
         <v>0.1</v>
@@ -20223,7 +20227,7 @@
         <v>72003001</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E113" s="6">
         <v>1</v>
@@ -20325,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="AL113" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AM113" s="6">
         <v>0</v>
@@ -20351,7 +20355,7 @@
         <v>72003002</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E114" s="6">
         <v>1</v>
@@ -20453,7 +20457,7 @@
         <v>0</v>
       </c>
       <c r="AL114" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AM114" s="6">
         <v>0</v>
@@ -20479,7 +20483,7 @@
         <v>72003003</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E115" s="6">
         <v>1</v>
@@ -20581,7 +20585,7 @@
         <v>0</v>
       </c>
       <c r="AL115" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AM115" s="6">
         <v>0</v>
@@ -20607,7 +20611,7 @@
         <v>72003004</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E116" s="6">
         <v>1</v>
@@ -20709,7 +20713,7 @@
         <v>0</v>
       </c>
       <c r="AL116" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AM116" s="6">
         <v>0</v>
@@ -20735,7 +20739,7 @@
         <v>72003005</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E117" s="6">
         <v>1</v>
@@ -20837,7 +20841,7 @@
         <v>0</v>
       </c>
       <c r="AL117" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AM117" s="6">
         <v>0</v>
@@ -20863,7 +20867,7 @@
         <v>72003011</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E118" s="6">
         <v>3</v>
@@ -20965,7 +20969,7 @@
         <v>0</v>
       </c>
       <c r="AL118" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AM118" s="6">
         <v>0.1</v>
@@ -20991,7 +20995,7 @@
         <v>72003012</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E119" s="6">
         <v>3</v>
@@ -21093,7 +21097,7 @@
         <v>0</v>
       </c>
       <c r="AL119" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AM119" s="6">
         <v>0.1</v>
@@ -21119,7 +21123,7 @@
         <v>72003013</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E120" s="6">
         <v>3</v>
@@ -21221,7 +21225,7 @@
         <v>0</v>
       </c>
       <c r="AL120" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AM120" s="6">
         <v>0.1</v>
@@ -21247,7 +21251,7 @@
         <v>72004001</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E121" s="6">
         <v>1</v>
@@ -21349,7 +21353,7 @@
         <v>0</v>
       </c>
       <c r="AL121" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AM121" s="6">
         <v>0</v>
@@ -21375,7 +21379,7 @@
         <v>72004002</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E122" s="6">
         <v>1</v>
@@ -21477,7 +21481,7 @@
         <v>0</v>
       </c>
       <c r="AL122" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AM122" s="6">
         <v>0</v>
@@ -21503,7 +21507,7 @@
         <v>72004003</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E123" s="6">
         <v>1</v>
@@ -21605,7 +21609,7 @@
         <v>0</v>
       </c>
       <c r="AL123" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AM123" s="6">
         <v>0</v>
@@ -21631,7 +21635,7 @@
         <v>72004004</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E124" s="6">
         <v>1</v>
@@ -21733,7 +21737,7 @@
         <v>0</v>
       </c>
       <c r="AL124" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AM124" s="6">
         <v>0</v>
@@ -21759,7 +21763,7 @@
         <v>72004011</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E125" s="6">
         <v>3</v>
@@ -21861,7 +21865,7 @@
         <v>0</v>
       </c>
       <c r="AL125" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AM125" s="6">
         <v>0.1</v>
@@ -21887,7 +21891,7 @@
         <v>72004012</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E126" s="6">
         <v>3</v>
@@ -21989,7 +21993,7 @@
         <v>0</v>
       </c>
       <c r="AL126" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AM126" s="6">
         <v>0.1</v>
@@ -22015,7 +22019,7 @@
         <v>72004013</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E127" s="6">
         <v>3</v>
@@ -22117,7 +22121,7 @@
         <v>0</v>
       </c>
       <c r="AL127" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM127" s="6">
         <v>0.1</v>
@@ -22129,7 +22133,7 @@
         <v>70000002</v>
       </c>
       <c r="AP127" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AQ127" s="6"/>
       <c r="AR127" s="6">
@@ -22399,7 +22403,7 @@
         <v>41001007</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E130" s="6">
         <v>5</v>
@@ -22528,7 +22532,7 @@
         <v>41001008</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E131" s="6">
         <v>5</v>
@@ -22659,7 +22663,7 @@
         <v>41001009</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E132" s="6">
         <v>5</v>
@@ -22789,7 +22793,7 @@
         <v>41001010</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E133" s="6">
         <v>5</v>
@@ -22919,7 +22923,7 @@
         <v>41002001</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E134" s="6">
         <v>5</v>
@@ -23049,7 +23053,7 @@
         <v>41002002</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E135" s="6">
         <v>5</v>
@@ -23179,7 +23183,7 @@
         <v>41003001</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E136" s="6">
         <v>5</v>
@@ -23309,7 +23313,7 @@
         <v>41004001</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E137" s="6">
         <v>5</v>
@@ -23439,7 +23443,7 @@
         <v>41005001</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E138" s="6">
         <v>5</v>
@@ -23567,7 +23571,7 @@
         <v>73001001</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E139" s="15">
         <v>1</v>
@@ -23669,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="AL139" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM139" s="15">
         <v>0.1</v>
@@ -23695,7 +23699,7 @@
         <v>73002001</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E140" s="15">
         <v>1</v>
@@ -23797,7 +23801,7 @@
         <v>0</v>
       </c>
       <c r="AL140" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM140" s="15">
         <v>0.1</v>
@@ -23823,7 +23827,7 @@
         <v>73002002</v>
       </c>
       <c r="D141" s="23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E141" s="23">
         <v>1</v>
@@ -23925,7 +23929,7 @@
         <v>0</v>
       </c>
       <c r="AL141" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM141" s="23">
         <v>0.1</v>
@@ -23951,7 +23955,7 @@
         <v>73003001</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E142" s="15">
         <v>1</v>
@@ -24053,7 +24057,7 @@
         <v>0</v>
       </c>
       <c r="AL142" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM142" s="15">
         <v>0.1</v>
@@ -24079,7 +24083,7 @@
         <v>73003002</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E143" s="15">
         <v>3</v>
@@ -24181,7 +24185,7 @@
         <v>0</v>
       </c>
       <c r="AL143" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM143" s="15">
         <v>0.5</v>
@@ -24207,7 +24211,7 @@
         <v>73004001</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E144" s="15">
         <v>1</v>
@@ -24309,7 +24313,7 @@
         <v>0</v>
       </c>
       <c r="AL144" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM144" s="15">
         <v>0.1</v>
@@ -24335,7 +24339,7 @@
         <v>73004002</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E145" s="15">
         <v>1</v>
@@ -24437,7 +24441,7 @@
         <v>0</v>
       </c>
       <c r="AL145" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM145" s="15">
         <v>0.1</v>
@@ -24463,7 +24467,7 @@
         <v>73004003</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E146" s="15">
         <v>3</v>
@@ -24565,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="AL146" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM146" s="15">
         <v>0.1</v>
@@ -24591,7 +24595,7 @@
         <v>73005001</v>
       </c>
       <c r="D147" s="23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E147" s="23">
         <v>1</v>
@@ -24693,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="AL147" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM147" s="23">
         <v>0.1</v>
@@ -24719,7 +24723,7 @@
         <v>73005002</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E148" s="15">
         <v>1</v>
@@ -24821,7 +24825,7 @@
         <v>0</v>
       </c>
       <c r="AL148" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM148" s="15">
         <v>0.1</v>
@@ -24847,7 +24851,7 @@
         <v>73005003</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E149" s="15">
         <v>3</v>
@@ -24949,7 +24953,7 @@
         <v>0</v>
       </c>
       <c r="AL149" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM149" s="15">
         <v>0.5</v>
@@ -24975,7 +24979,7 @@
         <v>73006001</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E150" s="15">
         <v>1</v>
@@ -25077,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="AL150" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM150" s="15">
         <v>0.1</v>
@@ -25103,7 +25107,7 @@
         <v>73006002</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E151" s="15">
         <v>1</v>
@@ -25205,7 +25209,7 @@
         <v>0</v>
       </c>
       <c r="AL151" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM151" s="15">
         <v>0.1</v>
@@ -25231,7 +25235,7 @@
         <v>73006003</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E152" s="15">
         <v>3</v>
@@ -25333,7 +25337,7 @@
         <v>0</v>
       </c>
       <c r="AL152" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM152" s="15">
         <v>0.1</v>
@@ -25359,7 +25363,7 @@
         <v>73007001</v>
       </c>
       <c r="D153" s="23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E153" s="23">
         <v>1</v>
@@ -25461,7 +25465,7 @@
         <v>0</v>
       </c>
       <c r="AL153" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM153" s="23">
         <v>0.1</v>
@@ -25487,7 +25491,7 @@
         <v>73007002</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E154" s="15">
         <v>1</v>
@@ -25589,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="AL154" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM154" s="15">
         <v>0.1</v>
@@ -25615,7 +25619,7 @@
         <v>73007003</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E155" s="15">
         <v>3</v>
@@ -25717,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="AL155" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM155" s="15">
         <v>0.5</v>
@@ -25743,7 +25747,7 @@
         <v>73008001</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E156" s="15">
         <v>1</v>
@@ -25845,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="AL156" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM156" s="15">
         <v>0.1</v>
@@ -25871,7 +25875,7 @@
         <v>73008002</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E157" s="15">
         <v>1</v>
@@ -25973,7 +25977,7 @@
         <v>0</v>
       </c>
       <c r="AL157" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM157" s="15">
         <v>0.1</v>
@@ -25999,7 +26003,7 @@
         <v>73008003</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E158" s="15">
         <v>3</v>
@@ -26101,7 +26105,7 @@
         <v>0</v>
       </c>
       <c r="AL158" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM158" s="15">
         <v>0.5</v>
@@ -26127,7 +26131,7 @@
         <v>73009001</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E159" s="15">
         <v>1</v>
@@ -26229,7 +26233,7 @@
         <v>0</v>
       </c>
       <c r="AL159" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM159" s="15">
         <v>0.1</v>
@@ -26255,7 +26259,7 @@
         <v>73009002</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E160" s="15">
         <v>1</v>
@@ -26357,7 +26361,7 @@
         <v>0</v>
       </c>
       <c r="AL160" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM160" s="15">
         <v>0.1</v>
@@ -26383,7 +26387,7 @@
         <v>73009003</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E161" s="15">
         <v>3</v>
@@ -26485,7 +26489,7 @@
         <v>0</v>
       </c>
       <c r="AL161" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM161" s="15">
         <v>0.5</v>
@@ -26511,7 +26515,7 @@
         <v>73010001</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E162" s="15">
         <v>1</v>
@@ -26613,7 +26617,7 @@
         <v>0</v>
       </c>
       <c r="AL162" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM162" s="15">
         <v>0.1</v>
@@ -26741,7 +26745,7 @@
         <v>0</v>
       </c>
       <c r="AL163" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM163" s="15">
         <v>0.1</v>
@@ -26869,7 +26873,7 @@
         <v>0</v>
       </c>
       <c r="AL164" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM164" s="15">
         <v>0.5</v>
@@ -26895,7 +26899,7 @@
         <v>73011001</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E165" s="15">
         <v>1</v>
@@ -26997,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="AL165" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM165" s="15">
         <v>0</v>
@@ -27023,7 +27027,7 @@
         <v>73011002</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E166" s="15">
         <v>1</v>
@@ -27125,7 +27129,7 @@
         <v>0</v>
       </c>
       <c r="AL166" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM166" s="15">
         <v>0</v>
@@ -27151,7 +27155,7 @@
         <v>73011003</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E167" s="15">
         <v>3</v>
@@ -27253,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="AL167" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM167" s="15">
         <v>0.1</v>
@@ -27279,7 +27283,7 @@
         <v>73012001</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E168" s="15">
         <v>1</v>
@@ -27381,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="AL168" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM168" s="15">
         <v>0</v>
@@ -27407,7 +27411,7 @@
         <v>73012002</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E169" s="15">
         <v>1</v>
@@ -27509,7 +27513,7 @@
         <v>0</v>
       </c>
       <c r="AL169" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM169" s="15">
         <v>0</v>
@@ -27535,7 +27539,7 @@
         <v>73012003</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E170" s="15">
         <v>3</v>
@@ -27637,7 +27641,7 @@
         <v>0</v>
       </c>
       <c r="AL170" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM170" s="15">
         <v>0.1</v>
@@ -27663,7 +27667,7 @@
         <v>73013001</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E171" s="15">
         <v>1</v>
@@ -27765,7 +27769,7 @@
         <v>0</v>
       </c>
       <c r="AL171" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM171" s="15">
         <v>0</v>
@@ -27791,7 +27795,7 @@
         <v>73013002</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E172" s="15">
         <v>1</v>
@@ -27893,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="AL172" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM172" s="15">
         <v>0</v>
@@ -27919,7 +27923,7 @@
         <v>73013003</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E173" s="15">
         <v>3</v>
@@ -28021,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="AL173" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM173" s="15">
         <v>0.1</v>
@@ -28047,7 +28051,7 @@
         <v>73014001</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E174" s="15">
         <v>1</v>
@@ -28149,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="AL174" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM174" s="15">
         <v>0.1</v>
@@ -28175,7 +28179,7 @@
         <v>73014002</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E175" s="15">
         <v>1</v>
@@ -28277,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="AL175" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM175" s="15">
         <v>0.1</v>
@@ -28303,7 +28307,7 @@
         <v>73014003</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E176" s="15">
         <v>3</v>
@@ -28405,7 +28409,7 @@
         <v>0</v>
       </c>
       <c r="AL176" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM176" s="15">
         <v>0.1</v>
@@ -28431,7 +28435,7 @@
         <v>73015001</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E177" s="15">
         <v>1</v>
@@ -28533,7 +28537,7 @@
         <v>0</v>
       </c>
       <c r="AL177" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM177" s="15">
         <v>0.1</v>
@@ -28559,7 +28563,7 @@
         <v>73015002</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E178" s="15">
         <v>1</v>
@@ -28661,7 +28665,7 @@
         <v>0</v>
       </c>
       <c r="AL178" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM178" s="15">
         <v>0.1</v>
@@ -28687,7 +28691,7 @@
         <v>73015003</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E179" s="15">
         <v>3</v>
@@ -28789,7 +28793,7 @@
         <v>0</v>
       </c>
       <c r="AL179" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM179" s="15">
         <v>0.1</v>
@@ -28815,7 +28819,7 @@
         <v>73016001</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E180" s="15">
         <v>1</v>
@@ -28917,7 +28921,7 @@
         <v>0</v>
       </c>
       <c r="AL180" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM180" s="15">
         <v>0.1</v>
@@ -28943,7 +28947,7 @@
         <v>73016002</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E181" s="15">
         <v>1</v>
@@ -29045,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="AL181" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM181" s="15">
         <v>0.1</v>
@@ -29071,7 +29075,7 @@
         <v>73016003</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E182" s="15">
         <v>3</v>
@@ -29173,7 +29177,7 @@
         <v>0</v>
       </c>
       <c r="AL182" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM182" s="15">
         <v>0.1</v>
@@ -29199,7 +29203,7 @@
         <v>73017001</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E183" s="15">
         <v>1</v>
@@ -29289,7 +29293,7 @@
         <v>1000</v>
       </c>
       <c r="AH183" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AI183" s="15">
         <v>0</v>
@@ -29301,7 +29305,7 @@
         <v>0</v>
       </c>
       <c r="AL183" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM183" s="15">
         <v>0.1</v>
@@ -29327,7 +29331,7 @@
         <v>73017002</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E184" s="15">
         <v>1</v>
@@ -29429,7 +29433,7 @@
         <v>0</v>
       </c>
       <c r="AL184" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM184" s="15">
         <v>0.1</v>
@@ -29455,7 +29459,7 @@
         <v>73017003</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E185" s="15">
         <v>3</v>
@@ -29557,7 +29561,7 @@
         <v>0</v>
       </c>
       <c r="AL185" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM185" s="15">
         <v>0.1</v>
@@ -29583,7 +29587,7 @@
         <v>73018001</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E186" s="15">
         <v>1</v>
@@ -29685,7 +29689,7 @@
         <v>0</v>
       </c>
       <c r="AL186" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM186" s="15">
         <v>0</v>
@@ -29711,7 +29715,7 @@
         <v>73018002</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E187" s="15">
         <v>1</v>
@@ -29813,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="AL187" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM187" s="15">
         <v>0</v>
@@ -29839,7 +29843,7 @@
         <v>73018003</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E188" s="15">
         <v>3</v>
@@ -29941,7 +29945,7 @@
         <v>0</v>
       </c>
       <c r="AL188" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM188" s="15">
         <v>0.1</v>
@@ -29967,7 +29971,7 @@
         <v>73019001</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E189" s="15">
         <v>1</v>
@@ -30069,7 +30073,7 @@
         <v>0</v>
       </c>
       <c r="AL189" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM189" s="15">
         <v>0</v>
@@ -30095,7 +30099,7 @@
         <v>73019002</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E190" s="15">
         <v>1</v>
@@ -30197,7 +30201,7 @@
         <v>0</v>
       </c>
       <c r="AL190" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM190" s="15">
         <v>0</v>
@@ -30223,7 +30227,7 @@
         <v>73019003</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E191" s="15">
         <v>3</v>
@@ -30325,7 +30329,7 @@
         <v>0</v>
       </c>
       <c r="AL191" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM191" s="15">
         <v>0.1</v>
@@ -30351,7 +30355,7 @@
         <v>73020001</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E192" s="15">
         <v>1</v>
@@ -30453,7 +30457,7 @@
         <v>0</v>
       </c>
       <c r="AL192" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM192" s="15">
         <v>0</v>
@@ -30479,7 +30483,7 @@
         <v>73020002</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E193" s="15">
         <v>1</v>
@@ -30581,7 +30585,7 @@
         <v>0</v>
       </c>
       <c r="AL193" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM193" s="15">
         <v>0</v>
@@ -30607,7 +30611,7 @@
         <v>73020003</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E194" s="15">
         <v>3</v>
@@ -30709,7 +30713,7 @@
         <v>0</v>
       </c>
       <c r="AL194" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM194" s="15">
         <v>0.1</v>
@@ -30735,7 +30739,7 @@
         <v>73021001</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E195" s="15">
         <v>1</v>
@@ -30837,7 +30841,7 @@
         <v>0</v>
       </c>
       <c r="AL195" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM195" s="15">
         <v>0.1</v>
@@ -30863,7 +30867,7 @@
         <v>73021002</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E196" s="15">
         <v>1</v>
@@ -30965,7 +30969,7 @@
         <v>0</v>
       </c>
       <c r="AL196" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM196" s="15">
         <v>0.1</v>
@@ -30991,7 +30995,7 @@
         <v>73021003</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E197" s="15">
         <v>3</v>
@@ -31093,7 +31097,7 @@
         <v>0</v>
       </c>
       <c r="AL197" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM197" s="15">
         <v>0.1</v>
@@ -31119,7 +31123,7 @@
         <v>73022001</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E198" s="15">
         <v>1</v>
@@ -31221,7 +31225,7 @@
         <v>0</v>
       </c>
       <c r="AL198" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM198" s="15">
         <v>0.1</v>
@@ -31247,7 +31251,7 @@
         <v>73022002</v>
       </c>
       <c r="D199" s="15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E199" s="15">
         <v>1</v>
@@ -31349,7 +31353,7 @@
         <v>0</v>
       </c>
       <c r="AL199" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM199" s="15">
         <v>0.1</v>
@@ -31375,7 +31379,7 @@
         <v>73022003</v>
       </c>
       <c r="D200" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E200" s="15">
         <v>3</v>
@@ -31477,7 +31481,7 @@
         <v>0</v>
       </c>
       <c r="AL200" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM200" s="15">
         <v>0.1</v>
@@ -31605,7 +31609,7 @@
         <v>0</v>
       </c>
       <c r="AL201" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM201" s="15">
         <v>0.1</v>
@@ -31631,7 +31635,7 @@
         <v>73023002</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E202" s="15">
         <v>1</v>
@@ -31733,7 +31737,7 @@
         <v>0</v>
       </c>
       <c r="AL202" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM202" s="15">
         <v>0.1</v>
@@ -31759,7 +31763,7 @@
         <v>73023003</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E203" s="15">
         <v>3</v>
@@ -31861,7 +31865,7 @@
         <v>0</v>
       </c>
       <c r="AL203" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM203" s="15">
         <v>0.1</v>
@@ -31887,7 +31891,7 @@
         <v>73024001</v>
       </c>
       <c r="D204" s="15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E204" s="15">
         <v>1</v>
@@ -31989,7 +31993,7 @@
         <v>0</v>
       </c>
       <c r="AL204" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM204" s="15">
         <v>0.1</v>
@@ -32015,7 +32019,7 @@
         <v>73024002</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E205" s="15">
         <v>1</v>
@@ -32117,7 +32121,7 @@
         <v>0</v>
       </c>
       <c r="AL205" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM205" s="15">
         <v>0.1</v>
@@ -32143,7 +32147,7 @@
         <v>73024003</v>
       </c>
       <c r="D206" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E206" s="15">
         <v>3</v>
@@ -32245,7 +32249,7 @@
         <v>0</v>
       </c>
       <c r="AL206" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM206" s="15">
         <v>0.1</v>
@@ -32271,7 +32275,7 @@
         <v>73025001</v>
       </c>
       <c r="D207" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E207" s="15">
         <v>1</v>
@@ -32373,7 +32377,7 @@
         <v>0</v>
       </c>
       <c r="AL207" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM207" s="15">
         <v>0</v>
@@ -32399,7 +32403,7 @@
         <v>73025002</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E208" s="15">
         <v>1</v>
@@ -32501,7 +32505,7 @@
         <v>0</v>
       </c>
       <c r="AL208" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM208" s="15">
         <v>0</v>
@@ -32527,7 +32531,7 @@
         <v>73025003</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E209" s="15">
         <v>3</v>
@@ -32629,7 +32633,7 @@
         <v>0</v>
       </c>
       <c r="AL209" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM209" s="15">
         <v>0.1</v>
@@ -32655,7 +32659,7 @@
         <v>73026001</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E210" s="15">
         <v>1</v>
@@ -32757,7 +32761,7 @@
         <v>0</v>
       </c>
       <c r="AL210" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM210" s="15">
         <v>0</v>
@@ -32783,7 +32787,7 @@
         <v>73026002</v>
       </c>
       <c r="D211" s="15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E211" s="15">
         <v>1</v>
@@ -32885,7 +32889,7 @@
         <v>0</v>
       </c>
       <c r="AL211" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM211" s="15">
         <v>0</v>
@@ -32911,7 +32915,7 @@
         <v>73026003</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E212" s="15">
         <v>3</v>
@@ -33013,7 +33017,7 @@
         <v>0</v>
       </c>
       <c r="AL212" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM212" s="15">
         <v>0.1</v>
@@ -33039,7 +33043,7 @@
         <v>73027001</v>
       </c>
       <c r="D213" s="15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E213" s="15">
         <v>1</v>
@@ -33141,7 +33145,7 @@
         <v>0</v>
       </c>
       <c r="AL213" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM213" s="15">
         <v>0</v>
@@ -33167,7 +33171,7 @@
         <v>73027002</v>
       </c>
       <c r="D214" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E214" s="15">
         <v>1</v>
@@ -33269,7 +33273,7 @@
         <v>0</v>
       </c>
       <c r="AL214" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM214" s="15">
         <v>0</v>
@@ -33295,7 +33299,7 @@
         <v>73027003</v>
       </c>
       <c r="D215" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E215" s="15">
         <v>3</v>
@@ -33397,7 +33401,7 @@
         <v>0</v>
       </c>
       <c r="AL215" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM215" s="15">
         <v>0.1</v>
@@ -33423,7 +33427,7 @@
         <v>73028001</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E216" s="15">
         <v>1</v>
@@ -33525,7 +33529,7 @@
         <v>0</v>
       </c>
       <c r="AL216" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM216" s="15">
         <v>0.1</v>
@@ -33551,7 +33555,7 @@
         <v>73028002</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E217" s="15">
         <v>1</v>
@@ -33653,7 +33657,7 @@
         <v>0</v>
       </c>
       <c r="AL217" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM217" s="15">
         <v>0.1</v>
@@ -33679,7 +33683,7 @@
         <v>73028003</v>
       </c>
       <c r="D218" s="15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E218" s="15">
         <v>3</v>
@@ -33781,7 +33785,7 @@
         <v>0</v>
       </c>
       <c r="AL218" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM218" s="15">
         <v>0.1</v>
@@ -33807,7 +33811,7 @@
         <v>73029001</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>172</v>
+        <v>429</v>
       </c>
       <c r="E219" s="15">
         <v>1</v>
@@ -33909,7 +33913,7 @@
         <v>0</v>
       </c>
       <c r="AL219" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM219" s="15">
         <v>0.1</v>
@@ -33935,7 +33939,7 @@
         <v>73029002</v>
       </c>
       <c r="D220" s="26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E220" s="26">
         <v>1</v>
@@ -34037,7 +34041,7 @@
         <v>0</v>
       </c>
       <c r="AL220" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM220" s="26">
         <v>0.1</v>
@@ -34063,7 +34067,7 @@
         <v>73029003</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E221" s="15">
         <v>3</v>
@@ -34165,7 +34169,7 @@
         <v>0</v>
       </c>
       <c r="AL221" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM221" s="15">
         <v>0.1</v>
@@ -34191,7 +34195,7 @@
         <v>73030001</v>
       </c>
       <c r="D222" s="26" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E222" s="26">
         <v>1</v>
@@ -34293,7 +34297,7 @@
         <v>0</v>
       </c>
       <c r="AL222" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM222" s="26">
         <v>0.1</v>
@@ -34319,7 +34323,7 @@
         <v>73030002</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E223" s="15">
         <v>1</v>
@@ -34421,7 +34425,7 @@
         <v>0</v>
       </c>
       <c r="AL223" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM223" s="15">
         <v>0.1</v>
@@ -34447,7 +34451,7 @@
         <v>73030003</v>
       </c>
       <c r="D224" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E224" s="15">
         <v>3</v>
@@ -34549,7 +34553,7 @@
         <v>0</v>
       </c>
       <c r="AL224" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM224" s="15">
         <v>0.1</v>
@@ -34575,7 +34579,7 @@
         <v>73031001</v>
       </c>
       <c r="D225" s="26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E225" s="26">
         <v>1</v>
@@ -34677,7 +34681,7 @@
         <v>0</v>
       </c>
       <c r="AL225" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM225" s="26">
         <v>0.1</v>
@@ -34703,7 +34707,7 @@
         <v>73031002</v>
       </c>
       <c r="D226" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E226" s="26">
         <v>1</v>
@@ -34805,7 +34809,7 @@
         <v>0</v>
       </c>
       <c r="AL226" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM226" s="26">
         <v>0.1</v>
@@ -34831,7 +34835,7 @@
         <v>73031003</v>
       </c>
       <c r="D227" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E227" s="15">
         <v>3</v>
@@ -34933,7 +34937,7 @@
         <v>0</v>
       </c>
       <c r="AL227" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM227" s="15">
         <v>0.1</v>
@@ -34959,7 +34963,7 @@
         <v>73032001</v>
       </c>
       <c r="D228" s="26" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E228" s="26">
         <v>1</v>
@@ -35061,7 +35065,7 @@
         <v>0</v>
       </c>
       <c r="AL228" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM228" s="26">
         <v>0.1</v>
@@ -35087,7 +35091,7 @@
         <v>73032002</v>
       </c>
       <c r="D229" s="15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E229" s="15">
         <v>1</v>
@@ -35189,7 +35193,7 @@
         <v>0</v>
       </c>
       <c r="AL229" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM229" s="15">
         <v>0.1</v>
@@ -35215,7 +35219,7 @@
         <v>73032003</v>
       </c>
       <c r="D230" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E230" s="15">
         <v>3</v>
@@ -35317,7 +35321,7 @@
         <v>0</v>
       </c>
       <c r="AL230" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM230" s="15">
         <v>0.1</v>
@@ -35343,7 +35347,7 @@
         <v>73033001</v>
       </c>
       <c r="D231" s="15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E231" s="15">
         <v>1</v>
@@ -35445,7 +35449,7 @@
         <v>0</v>
       </c>
       <c r="AL231" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM231" s="15">
         <v>0</v>
@@ -35471,7 +35475,7 @@
         <v>73033002</v>
       </c>
       <c r="D232" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E232" s="15">
         <v>1</v>
@@ -35573,7 +35577,7 @@
         <v>0</v>
       </c>
       <c r="AL232" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM232" s="15">
         <v>0</v>
@@ -35599,7 +35603,7 @@
         <v>73033003</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E233" s="15">
         <v>3</v>
@@ -35701,7 +35705,7 @@
         <v>0</v>
       </c>
       <c r="AL233" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM233" s="15">
         <v>0.1</v>
@@ -35727,7 +35731,7 @@
         <v>73034001</v>
       </c>
       <c r="D234" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E234" s="15">
         <v>1</v>
@@ -35829,7 +35833,7 @@
         <v>0</v>
       </c>
       <c r="AL234" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM234" s="15">
         <v>0</v>
@@ -35855,7 +35859,7 @@
         <v>73034002</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E235" s="15">
         <v>1</v>
@@ -35957,7 +35961,7 @@
         <v>0</v>
       </c>
       <c r="AL235" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM235" s="15">
         <v>0</v>
@@ -35983,7 +35987,7 @@
         <v>73034003</v>
       </c>
       <c r="D236" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E236" s="15">
         <v>3</v>
@@ -36085,7 +36089,7 @@
         <v>0</v>
       </c>
       <c r="AL236" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM236" s="15">
         <v>0.1</v>
@@ -36111,7 +36115,7 @@
         <v>73035001</v>
       </c>
       <c r="D237" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E237" s="15">
         <v>1</v>
@@ -36213,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="AL237" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM237" s="15">
         <v>0</v>
@@ -36239,7 +36243,7 @@
         <v>73035002</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E238" s="15">
         <v>1</v>
@@ -36341,7 +36345,7 @@
         <v>0</v>
       </c>
       <c r="AL238" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM238" s="15">
         <v>0</v>
@@ -36367,7 +36371,7 @@
         <v>73035003</v>
       </c>
       <c r="D239" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E239" s="15">
         <v>3</v>
@@ -36469,7 +36473,7 @@
         <v>0</v>
       </c>
       <c r="AL239" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM239" s="15">
         <v>0.1</v>
@@ -36495,7 +36499,7 @@
         <v>80000001</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E240" s="6">
         <v>5</v>
@@ -36624,7 +36628,7 @@
         <v>80000002</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E241" s="6">
         <v>5</v>
@@ -36753,7 +36757,7 @@
         <v>80000101</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E242" s="6">
         <v>5</v>
@@ -36855,7 +36859,7 @@
         <v>0</v>
       </c>
       <c r="AL242" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AM242" s="6">
         <v>0</v>
@@ -36882,7 +36886,7 @@
         <v>80000201</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E243" s="6">
         <v>5</v>
@@ -36984,7 +36988,7 @@
         <v>0</v>
       </c>
       <c r="AL243" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AM243" s="6">
         <v>0</v>
@@ -37011,7 +37015,7 @@
         <v>80000301</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E244" s="6">
         <v>5</v>
@@ -37113,7 +37117,7 @@
         <v>0</v>
       </c>
       <c r="AL244" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AM244" s="6">
         <v>0</v>
@@ -37140,7 +37144,7 @@
         <v>80000401</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E245" s="6">
         <v>5</v>
@@ -37242,7 +37246,7 @@
         <v>0</v>
       </c>
       <c r="AL245" s="22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AM245" s="6">
         <v>0</v>
@@ -37269,7 +37273,7 @@
         <v>80000501</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E246" s="6">
         <v>5</v>
@@ -37371,7 +37375,7 @@
         <v>0</v>
       </c>
       <c r="AL246" s="22" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AM246" s="6">
         <v>0</v>
@@ -37398,7 +37402,7 @@
         <v>90000001</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E247" s="6">
         <v>1</v>
@@ -37500,7 +37504,7 @@
         <v>0</v>
       </c>
       <c r="AL247" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AM247" s="6">
         <v>0</v>
@@ -37512,7 +37516,7 @@
         <v>60000331</v>
       </c>
       <c r="AP247" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AQ247" s="6"/>
       <c r="AR247" s="6">
@@ -37528,7 +37532,7 @@
         <v>90000002</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E248" s="6">
         <v>1</v>
@@ -37630,7 +37634,7 @@
         <v>0</v>
       </c>
       <c r="AL248" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AM248" s="6">
         <v>0</v>
@@ -37642,7 +37646,7 @@
         <v>70000001</v>
       </c>
       <c r="AP248" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AQ248" s="6"/>
       <c r="AR248" s="6">

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3017998-AE0B-4CB3-ACA3-2D476AB65D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAE681C-008A-45D5-BB82-D2A9131B650A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="435">
   <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1129,10 +1129,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>吞噬者</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>冰雪护卫者</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -1179,9 +1175,6 @@
     <t>61000005</t>
   </si>
   <si>
-    <t>62000201,62000202,62000203</t>
-  </si>
-  <si>
     <t>62000301,62000302,62000303,62000304</t>
   </si>
   <si>
@@ -2164,6 +2157,26 @@
   </si>
   <si>
     <t>守护领主-烈风</t>
+  </si>
+  <si>
+    <t>70102001,70102002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>70106001,70106002,70106004,70106005,70106006,70106007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔物</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>70102001,70103001,70103002</t>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6074,10 +6087,10 @@
   <dimension ref="A1:AV270"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AM6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E72" sqref="E72"/>
+      <selection pane="bottomRight" activeCell="AP13" sqref="AP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -6228,7 +6241,7 @@
         <v>59</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AL3" s="2" t="s">
         <v>60</v>
@@ -6255,7 +6268,7 @@
         <v>82</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="3:46" ht="20.100000000000001" customHeight="1">
@@ -6362,7 +6375,7 @@
         <v>25</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AL4" s="3" t="s">
         <v>26</v>
@@ -6389,7 +6402,7 @@
         <v>83</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="3:46" ht="20.100000000000001" customHeight="1">
@@ -6633,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AM6" s="6">
         <v>0.1</v>
@@ -6645,7 +6658,7 @@
         <v>70000001</v>
       </c>
       <c r="AP6" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ6" s="6"/>
       <c r="AR6" s="6">
@@ -6761,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="AL7" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AM7" s="6">
         <v>0.1</v>
@@ -6773,7 +6786,7 @@
         <v>70000001</v>
       </c>
       <c r="AP7" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ7" s="6"/>
       <c r="AR7" s="6">
@@ -6889,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AM8" s="6">
         <v>0.1</v>
@@ -6901,7 +6914,7 @@
         <v>70000001</v>
       </c>
       <c r="AP8" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ8" s="6"/>
       <c r="AR8" s="6">
@@ -7017,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="AL9" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AM9" s="6">
         <v>0.5</v>
@@ -7029,7 +7042,7 @@
         <v>70000001</v>
       </c>
       <c r="AP9" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AQ9" s="6"/>
       <c r="AR9" s="6">
@@ -7145,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AM10" s="6">
         <v>0.1</v>
@@ -7157,7 +7170,7 @@
         <v>70000001</v>
       </c>
       <c r="AP10" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ10" s="6"/>
       <c r="AR10" s="6">
@@ -7273,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AM11" s="6">
         <v>0.1</v>
@@ -7285,7 +7298,7 @@
         <v>70000001</v>
       </c>
       <c r="AP11" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ11" s="6"/>
       <c r="AR11" s="6">
@@ -7299,7 +7312,7 @@
         <v>70001007</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E12" s="27">
         <v>1</v>
@@ -7401,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AM12" s="27">
         <v>0.1</v>
@@ -7413,7 +7426,7 @@
         <v>70000001</v>
       </c>
       <c r="AP12" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AQ12" s="27"/>
       <c r="AR12" s="27">
@@ -7529,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AM13" s="6">
         <v>0.1</v>
@@ -7541,7 +7554,7 @@
         <v>70000001</v>
       </c>
       <c r="AP13" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ13" s="6"/>
       <c r="AR13" s="6">
@@ -7555,7 +7568,7 @@
         <v>70001011</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E14" s="30">
         <v>3</v>
@@ -7657,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AM14" s="30">
         <v>0.1</v>
@@ -7668,8 +7681,8 @@
       <c r="AO14" s="30">
         <v>70000001</v>
       </c>
-      <c r="AP14" s="32" t="s">
-        <v>139</v>
+      <c r="AP14" s="11" t="s">
+        <v>430</v>
       </c>
       <c r="AQ14" s="30"/>
       <c r="AR14" s="30">
@@ -7785,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="AL15" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AM15" s="6">
         <v>0.1</v>
@@ -7797,7 +7810,7 @@
         <v>70000001</v>
       </c>
       <c r="AP15" s="10" t="s">
-        <v>137</v>
+        <v>431</v>
       </c>
       <c r="AQ15" s="6"/>
       <c r="AR15" s="6">
@@ -7811,7 +7824,7 @@
         <v>70001102</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E16" s="27">
         <v>1</v>
@@ -7913,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AM16" s="27">
         <v>0.1</v>
@@ -7925,7 +7938,7 @@
         <v>70000001</v>
       </c>
       <c r="AP16" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ16" s="27"/>
       <c r="AR16" s="27">
@@ -7939,7 +7952,7 @@
         <v>70001103</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E17" s="27">
         <v>1</v>
@@ -8041,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="AL17" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AM17" s="27">
         <v>0.1</v>
@@ -8053,7 +8066,7 @@
         <v>70000001</v>
       </c>
       <c r="AP17" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ17" s="27"/>
       <c r="AR17" s="27">
@@ -8169,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AM18" s="6">
         <v>0.5</v>
@@ -8181,7 +8194,7 @@
         <v>70000001</v>
       </c>
       <c r="AP18" s="10" t="s">
-        <v>140</v>
+        <v>434</v>
       </c>
       <c r="AQ18" s="6"/>
       <c r="AR18" s="6">
@@ -8195,7 +8208,7 @@
         <v>70001201</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E19" s="30">
         <v>1</v>
@@ -8297,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="AL19" s="32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AM19" s="30">
         <v>0.1</v>
@@ -8309,7 +8322,7 @@
         <v>70000001</v>
       </c>
       <c r="AP19" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ19" s="30"/>
       <c r="AR19" s="30">
@@ -8323,7 +8336,7 @@
         <v>70001202</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E20" s="30">
         <v>1</v>
@@ -8425,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AM20" s="30">
         <v>0.1</v>
@@ -8437,7 +8450,7 @@
         <v>70000001</v>
       </c>
       <c r="AP20" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ20" s="30"/>
       <c r="AR20" s="30">
@@ -8451,7 +8464,7 @@
         <v>70001203</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E21" s="27">
         <v>1</v>
@@ -8553,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="AL21" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AM21" s="27">
         <v>0.1</v>
@@ -8565,7 +8578,7 @@
         <v>70000001</v>
       </c>
       <c r="AP21" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ21" s="27"/>
       <c r="AR21" s="27">
@@ -8579,7 +8592,7 @@
         <v>70001204</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E22" s="27">
         <v>1</v>
@@ -8681,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AM22" s="27">
         <v>0.1</v>
@@ -8693,7 +8706,7 @@
         <v>70000001</v>
       </c>
       <c r="AP22" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ22" s="27"/>
       <c r="AR22" s="27">
@@ -8707,7 +8720,7 @@
         <v>70001205</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E23" s="30">
         <v>1</v>
@@ -8809,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AM23" s="30">
         <v>0.1</v>
@@ -8821,7 +8834,7 @@
         <v>70000002</v>
       </c>
       <c r="AP23" s="32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AQ23" s="30"/>
       <c r="AR23" s="30">
@@ -8835,7 +8848,7 @@
         <v>70001206</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E24" s="6">
         <v>3</v>
@@ -8937,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AM24" s="6">
         <v>0.1</v>
@@ -8949,7 +8962,7 @@
         <v>70000001</v>
       </c>
       <c r="AP24" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AQ24" s="6"/>
       <c r="AR24" s="6">
@@ -8963,7 +8976,7 @@
         <v>70001207</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E25" s="30">
         <v>1</v>
@@ -9065,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AM25" s="30">
         <v>0.1</v>
@@ -9077,7 +9090,7 @@
         <v>70000001</v>
       </c>
       <c r="AP25" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ25" s="30"/>
       <c r="AR25" s="30">
@@ -9091,7 +9104,7 @@
         <v>70001208</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E26" s="30">
         <v>1</v>
@@ -9193,7 +9206,7 @@
         <v>0</v>
       </c>
       <c r="AL26" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AM26" s="30">
         <v>0.1</v>
@@ -9205,7 +9218,7 @@
         <v>70000001</v>
       </c>
       <c r="AP26" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ26" s="30"/>
       <c r="AR26" s="30">
@@ -9219,7 +9232,7 @@
         <v>70001209</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E27" s="30">
         <v>3</v>
@@ -9321,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AM27" s="30">
         <v>0.5</v>
@@ -9332,8 +9345,8 @@
       <c r="AO27" s="30">
         <v>70000001</v>
       </c>
-      <c r="AP27" s="32" t="s">
-        <v>142</v>
+      <c r="AP27" s="12" t="s">
+        <v>432</v>
       </c>
       <c r="AQ27" s="30"/>
       <c r="AR27" s="30">
@@ -9449,7 +9462,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AM28" s="6">
         <v>0.1</v>
@@ -9461,7 +9474,7 @@
         <v>70000001</v>
       </c>
       <c r="AP28" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ28" s="6"/>
       <c r="AR28" s="6">
@@ -9577,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AM29" s="6">
         <v>0.1</v>
@@ -9589,7 +9602,7 @@
         <v>70000001</v>
       </c>
       <c r="AP29" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ29" s="6"/>
       <c r="AR29" s="6">
@@ -9705,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="AL30" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AM30" s="6">
         <v>0.5</v>
@@ -9717,7 +9730,7 @@
         <v>70000001</v>
       </c>
       <c r="AP30" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AQ30" s="6"/>
       <c r="AR30" s="6">
@@ -9731,7 +9744,7 @@
         <v>70002004</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E31" s="27">
         <v>1</v>
@@ -9833,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="AL31" s="28" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AM31" s="27">
         <v>0.1</v>
@@ -9845,7 +9858,7 @@
         <v>70000001</v>
       </c>
       <c r="AP31" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ31" s="27"/>
       <c r="AR31" s="27">
@@ -9859,7 +9872,7 @@
         <v>70002005</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E32" s="6">
         <v>1</v>
@@ -9961,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="AL32" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AM32" s="6">
         <v>0.1</v>
@@ -9973,7 +9986,7 @@
         <v>70000001</v>
       </c>
       <c r="AP32" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ32" s="6"/>
       <c r="AR32" s="6">
@@ -9987,7 +10000,7 @@
         <v>70002006</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E33" s="27">
         <v>3</v>
@@ -10089,7 +10102,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AM33" s="27">
         <v>0</v>
@@ -10101,7 +10114,7 @@
         <v>70000001</v>
       </c>
       <c r="AP33" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AQ33" s="27"/>
       <c r="AR33" s="27">
@@ -10115,7 +10128,7 @@
         <v>70002007</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E34" s="27">
         <v>3</v>
@@ -10217,7 +10230,7 @@
         <v>0</v>
       </c>
       <c r="AL34" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM34" s="27">
         <v>0.5</v>
@@ -10229,7 +10242,7 @@
         <v>70000001</v>
       </c>
       <c r="AP34" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AQ34" s="27"/>
       <c r="AR34" s="27">
@@ -10345,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="AL35" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AM35" s="6">
         <v>0.1</v>
@@ -10357,7 +10370,7 @@
         <v>70000001</v>
       </c>
       <c r="AP35" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ35" s="6"/>
       <c r="AR35" s="6">
@@ -10371,7 +10384,7 @@
         <v>70002009</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E36" s="6">
         <v>1</v>
@@ -10473,7 +10486,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AM36" s="6">
         <v>0.1</v>
@@ -10485,7 +10498,7 @@
         <v>70000001</v>
       </c>
       <c r="AP36" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ36" s="6"/>
       <c r="AR36" s="6">
@@ -10499,7 +10512,7 @@
         <v>70002010</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E37" s="27">
         <v>1</v>
@@ -10601,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AM37" s="27">
         <v>0.1</v>
@@ -10613,7 +10626,7 @@
         <v>70000001</v>
       </c>
       <c r="AP37" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ37" s="27"/>
       <c r="AR37" s="27">
@@ -10627,7 +10640,7 @@
         <v>70002011</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E38" s="6">
         <v>1</v>
@@ -10729,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="AL38" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AM38" s="6">
         <v>0.1</v>
@@ -10741,7 +10754,7 @@
         <v>70000001</v>
       </c>
       <c r="AP38" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ38" s="6"/>
       <c r="AR38" s="6">
@@ -10755,7 +10768,7 @@
         <v>70002012</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E39" s="6">
         <v>3</v>
@@ -10857,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="AL39" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AM39" s="6">
         <v>0.5</v>
@@ -10869,7 +10882,7 @@
         <v>70000001</v>
       </c>
       <c r="AP39" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AQ39" s="6"/>
       <c r="AR39" s="6">
@@ -10985,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AM40" s="6">
         <v>0.1</v>
@@ -10997,7 +11010,7 @@
         <v>70000001</v>
       </c>
       <c r="AP40" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ40" s="6"/>
       <c r="AR40" s="6">
@@ -11113,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="AL41" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AM41" s="6">
         <v>0.1</v>
@@ -11125,7 +11138,7 @@
         <v>70000001</v>
       </c>
       <c r="AP41" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ41" s="6"/>
       <c r="AR41" s="6">
@@ -11241,7 +11254,7 @@
         <v>0</v>
       </c>
       <c r="AL42" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AM42" s="6">
         <v>0.1</v>
@@ -11253,7 +11266,7 @@
         <v>70000001</v>
       </c>
       <c r="AP42" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AQ42" s="6"/>
       <c r="AR42" s="6">
@@ -11369,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="AL43" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AM43" s="6">
         <v>0.1</v>
@@ -11381,7 +11394,7 @@
         <v>70000001</v>
       </c>
       <c r="AP43" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ43" s="6"/>
       <c r="AR43" s="6">
@@ -11395,7 +11408,7 @@
         <v>70003005</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E44" s="6">
         <v>1</v>
@@ -11497,7 +11510,7 @@
         <v>0</v>
       </c>
       <c r="AL44" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AM44" s="6">
         <v>0.1</v>
@@ -11509,7 +11522,7 @@
         <v>70000001</v>
       </c>
       <c r="AP44" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ44" s="6"/>
       <c r="AR44" s="6">
@@ -11625,7 +11638,7 @@
         <v>0</v>
       </c>
       <c r="AL45" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AM45" s="6">
         <v>0.1</v>
@@ -11637,7 +11650,7 @@
         <v>70000001</v>
       </c>
       <c r="AP45" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AQ45" s="6"/>
       <c r="AR45" s="6">
@@ -11753,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AM46" s="6">
         <v>0.1</v>
@@ -11765,7 +11778,7 @@
         <v>70000001</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ46" s="6"/>
       <c r="AR46" s="6">
@@ -11881,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="AL47" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AM47" s="6">
         <v>0.1</v>
@@ -11893,7 +11906,7 @@
         <v>70000001</v>
       </c>
       <c r="AP47" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ47" s="6"/>
       <c r="AR47" s="6">
@@ -12009,7 +12022,7 @@
         <v>0</v>
       </c>
       <c r="AL48" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AM48" s="6">
         <v>0.1</v>
@@ -12021,7 +12034,7 @@
         <v>70000001</v>
       </c>
       <c r="AP48" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ48" s="6"/>
       <c r="AR48" s="6">
@@ -12137,7 +12150,7 @@
         <v>0</v>
       </c>
       <c r="AL49" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AM49" s="6">
         <v>0.1</v>
@@ -12149,7 +12162,7 @@
         <v>70000001</v>
       </c>
       <c r="AP49" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ49" s="6"/>
       <c r="AR49" s="6">
@@ -12163,7 +12176,7 @@
         <v>70003011</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E50" s="27">
         <v>1</v>
@@ -12265,7 +12278,7 @@
         <v>0</v>
       </c>
       <c r="AL50" s="28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM50" s="27">
         <v>0.1</v>
@@ -12277,7 +12290,7 @@
         <v>70000001</v>
       </c>
       <c r="AP50" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ50" s="27"/>
       <c r="AR50" s="27">
@@ -12393,7 +12406,7 @@
         <v>0</v>
       </c>
       <c r="AL51" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AM51" s="6">
         <v>0.1</v>
@@ -12405,7 +12418,7 @@
         <v>70000001</v>
       </c>
       <c r="AP51" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AQ51" s="6"/>
       <c r="AR51" s="6">
@@ -12419,7 +12432,7 @@
         <v>70003013</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E52" s="27">
         <v>1</v>
@@ -12521,7 +12534,7 @@
         <v>0</v>
       </c>
       <c r="AL52" s="28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM52" s="27">
         <v>0.1</v>
@@ -12533,7 +12546,7 @@
         <v>70000001</v>
       </c>
       <c r="AP52" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ52" s="27"/>
       <c r="AR52" s="27">
@@ -12649,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="AL53" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AM53" s="6">
         <v>0.1</v>
@@ -12661,7 +12674,7 @@
         <v>70000001</v>
       </c>
       <c r="AP53" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ53" s="6"/>
       <c r="AR53" s="6">
@@ -12675,7 +12688,7 @@
         <v>70003015</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
@@ -12777,7 +12790,7 @@
         <v>0</v>
       </c>
       <c r="AL54" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AM54" s="6">
         <v>0.1</v>
@@ -12789,7 +12802,7 @@
         <v>70000001</v>
       </c>
       <c r="AP54" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ54" s="6"/>
       <c r="AR54" s="6">
@@ -12905,7 +12918,7 @@
         <v>0</v>
       </c>
       <c r="AL55" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AM55" s="6">
         <v>0.1</v>
@@ -12917,7 +12930,7 @@
         <v>70000001</v>
       </c>
       <c r="AP55" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AQ55" s="6"/>
       <c r="AR55" s="6">
@@ -13033,7 +13046,7 @@
         <v>0</v>
       </c>
       <c r="AL56" s="28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AM56" s="27">
         <v>0.1</v>
@@ -13045,7 +13058,7 @@
         <v>70000001</v>
       </c>
       <c r="AP56" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ56" s="27"/>
       <c r="AR56" s="27">
@@ -13059,7 +13072,7 @@
         <v>70004002</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E57" s="27">
         <v>1</v>
@@ -13161,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="AL57" s="28" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AM57" s="27">
         <v>0.1</v>
@@ -13173,7 +13186,7 @@
         <v>70000001</v>
       </c>
       <c r="AP57" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ57" s="27"/>
       <c r="AR57" s="27">
@@ -13289,7 +13302,7 @@
         <v>0</v>
       </c>
       <c r="AL58" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AM58" s="6">
         <v>0.1</v>
@@ -13301,7 +13314,7 @@
         <v>70000001</v>
       </c>
       <c r="AP58" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AQ58" s="6"/>
       <c r="AR58" s="6">
@@ -13417,7 +13430,7 @@
         <v>0</v>
       </c>
       <c r="AL59" s="28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AM59" s="27">
         <v>0.1</v>
@@ -13429,7 +13442,7 @@
         <v>70000001</v>
       </c>
       <c r="AP59" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ59" s="27"/>
       <c r="AR59" s="27">
@@ -13443,7 +13456,7 @@
         <v>70004005</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E60" s="27">
         <v>1</v>
@@ -13545,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="AL60" s="28" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AM60" s="27">
         <v>0.1</v>
@@ -13557,7 +13570,7 @@
         <v>70000001</v>
       </c>
       <c r="AP60" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ60" s="27"/>
       <c r="AR60" s="27">
@@ -13571,7 +13584,7 @@
         <v>70004006</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E61" s="27">
         <v>3</v>
@@ -13673,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="AL61" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AM61" s="27">
         <v>0.1</v>
@@ -13685,7 +13698,7 @@
         <v>70000001</v>
       </c>
       <c r="AP61" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AQ61" s="27"/>
       <c r="AR61" s="27">
@@ -13699,7 +13712,7 @@
         <v>70004007</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E62" s="6">
         <v>1</v>
@@ -13801,7 +13814,7 @@
         <v>0</v>
       </c>
       <c r="AL62" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AM62" s="6">
         <v>0.1</v>
@@ -13813,7 +13826,7 @@
         <v>70000001</v>
       </c>
       <c r="AP62" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ62" s="6"/>
       <c r="AR62" s="6">
@@ -13827,7 +13840,7 @@
         <v>70004008</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
@@ -13929,7 +13942,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AM63" s="6">
         <v>0.1</v>
@@ -13941,7 +13954,7 @@
         <v>70000001</v>
       </c>
       <c r="AP63" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ63" s="6"/>
       <c r="AR63" s="6">
@@ -14057,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="AL64" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AM64" s="6">
         <v>0.1</v>
@@ -14069,7 +14082,7 @@
         <v>70000001</v>
       </c>
       <c r="AP64" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ64" s="6"/>
       <c r="AR64" s="6">
@@ -14185,7 +14198,7 @@
         <v>0</v>
       </c>
       <c r="AL65" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM65" s="6">
         <v>0.1</v>
@@ -14197,7 +14210,7 @@
         <v>70000001</v>
       </c>
       <c r="AP65" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AQ65" s="6"/>
       <c r="AR65" s="6">
@@ -14211,7 +14224,7 @@
         <v>70004011</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E66" s="6">
         <v>1</v>
@@ -14313,7 +14326,7 @@
         <v>0</v>
       </c>
       <c r="AL66" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AM66" s="6">
         <v>0.1</v>
@@ -14325,7 +14338,7 @@
         <v>70000001</v>
       </c>
       <c r="AP66" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ66" s="6"/>
       <c r="AR66" s="6">
@@ -14339,7 +14352,7 @@
         <v>70004012</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E67" s="6">
         <v>1</v>
@@ -14441,7 +14454,7 @@
         <v>0</v>
       </c>
       <c r="AL67" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AM67" s="6">
         <v>0.1</v>
@@ -14453,7 +14466,7 @@
         <v>70000001</v>
       </c>
       <c r="AP67" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ67" s="6"/>
       <c r="AR67" s="6">
@@ -14569,7 +14582,7 @@
         <v>0</v>
       </c>
       <c r="AL68" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AM68" s="27">
         <v>0.1</v>
@@ -14581,7 +14594,7 @@
         <v>70000001</v>
       </c>
       <c r="AP68" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AQ68" s="27"/>
       <c r="AR68" s="27">
@@ -14697,7 +14710,7 @@
         <v>0</v>
       </c>
       <c r="AL69" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AM69" s="6">
         <v>0.1</v>
@@ -14709,7 +14722,7 @@
         <v>70000001</v>
       </c>
       <c r="AP69" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ69" s="6"/>
       <c r="AR69" s="6">
@@ -14723,7 +14736,7 @@
         <v>70005002</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E70" s="6">
         <v>1</v>
@@ -14825,7 +14838,7 @@
         <v>0</v>
       </c>
       <c r="AL70" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AM70" s="6">
         <v>0.1</v>
@@ -14837,7 +14850,7 @@
         <v>70000002</v>
       </c>
       <c r="AP70" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AQ70" s="6"/>
       <c r="AR70" s="6">
@@ -14953,7 +14966,7 @@
         <v>0</v>
       </c>
       <c r="AL71" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AM71" s="6">
         <v>0.1</v>
@@ -14965,7 +14978,7 @@
         <v>70000002</v>
       </c>
       <c r="AP71" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AQ71" s="6"/>
       <c r="AR71" s="6">
@@ -14979,7 +14992,7 @@
         <v>70005004</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E72" s="6">
         <v>3</v>
@@ -15081,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="AL72" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AM72" s="6">
         <v>0.1</v>
@@ -15093,7 +15106,7 @@
         <v>70000001</v>
       </c>
       <c r="AP72" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AQ72" s="6"/>
       <c r="AR72" s="6">
@@ -15107,7 +15120,7 @@
         <v>70005006</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E73" s="6">
         <v>1</v>
@@ -15209,7 +15222,7 @@
         <v>0</v>
       </c>
       <c r="AL73" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AM73" s="6">
         <v>0.1</v>
@@ -15221,7 +15234,7 @@
         <v>70000001</v>
       </c>
       <c r="AP73" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ73" s="6"/>
       <c r="AR73" s="6">
@@ -15235,7 +15248,7 @@
         <v>70005007</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E74" s="27">
         <v>1</v>
@@ -15337,7 +15350,7 @@
         <v>0</v>
       </c>
       <c r="AL74" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AM74" s="27">
         <v>0.1</v>
@@ -15349,7 +15362,7 @@
         <v>70000001</v>
       </c>
       <c r="AP74" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ74" s="27"/>
       <c r="AR74" s="27">
@@ -15363,7 +15376,7 @@
         <v>70005008</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E75" s="27">
         <v>1</v>
@@ -15465,7 +15478,7 @@
         <v>0</v>
       </c>
       <c r="AL75" s="28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AM75" s="27">
         <v>0.1</v>
@@ -15477,7 +15490,7 @@
         <v>70000001</v>
       </c>
       <c r="AP75" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ75" s="27"/>
       <c r="AR75" s="27">
@@ -15491,7 +15504,7 @@
         <v>70005009</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E76" s="27">
         <v>1</v>
@@ -15593,7 +15606,7 @@
         <v>0</v>
       </c>
       <c r="AL76" s="28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AM76" s="27">
         <v>0.1</v>
@@ -15605,7 +15618,7 @@
         <v>70000001</v>
       </c>
       <c r="AP76" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ76" s="27"/>
       <c r="AR76" s="27">
@@ -15619,7 +15632,7 @@
         <v>70005010</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
@@ -15721,7 +15734,7 @@
         <v>0</v>
       </c>
       <c r="AL77" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AM77" s="6">
         <v>0.1</v>
@@ -15733,7 +15746,7 @@
         <v>70000002</v>
       </c>
       <c r="AP77" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AQ77" s="6"/>
       <c r="AR77" s="6">
@@ -15849,7 +15862,7 @@
         <v>0</v>
       </c>
       <c r="AL78" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AM78" s="18">
         <v>0.1</v>
@@ -15861,7 +15874,7 @@
         <v>70000001</v>
       </c>
       <c r="AP78" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ78" s="18"/>
       <c r="AR78" s="18">
@@ -15875,7 +15888,7 @@
         <v>70005012</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E79" s="6">
         <v>3</v>
@@ -15977,7 +15990,7 @@
         <v>0</v>
       </c>
       <c r="AL79" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AM79" s="6">
         <v>0.1</v>
@@ -15989,7 +16002,7 @@
         <v>70000001</v>
       </c>
       <c r="AP79" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AQ79" s="6"/>
       <c r="AR79" s="6">
@@ -16105,7 +16118,7 @@
         <v>0</v>
       </c>
       <c r="AL80" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AM80" s="6">
         <v>0.1</v>
@@ -16117,7 +16130,7 @@
         <v>70000001</v>
       </c>
       <c r="AP80" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AQ80" s="6"/>
       <c r="AR80" s="6">
@@ -16245,7 +16258,7 @@
         <v>70000001</v>
       </c>
       <c r="AP81" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ81" s="6"/>
       <c r="AR81" s="6">
@@ -16259,7 +16272,7 @@
         <v>70009002</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>126</v>
+        <v>433</v>
       </c>
       <c r="E82" s="6">
         <v>1</v>
@@ -16373,7 +16386,7 @@
         <v>70000001</v>
       </c>
       <c r="AP82" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ82" s="6"/>
       <c r="AR82" s="6">
@@ -16387,7 +16400,7 @@
         <v>70009003</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E83" s="6">
         <v>1</v>
@@ -16501,7 +16514,7 @@
         <v>70000001</v>
       </c>
       <c r="AP83" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ83" s="6"/>
       <c r="AR83" s="6">
@@ -16515,7 +16528,7 @@
         <v>70009004</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E84" s="6">
         <v>1</v>
@@ -16629,7 +16642,7 @@
         <v>70000001</v>
       </c>
       <c r="AP84" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ84" s="6"/>
       <c r="AR84" s="6">
@@ -16757,7 +16770,7 @@
         <v>70000001</v>
       </c>
       <c r="AP85" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ85" s="6"/>
       <c r="AR85" s="6">
@@ -16771,7 +16784,7 @@
         <v>70009302</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E86" s="6">
         <v>1</v>
@@ -16885,7 +16898,7 @@
         <v>70000001</v>
       </c>
       <c r="AP86" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ86" s="6"/>
       <c r="AR86" s="6">
@@ -16899,7 +16912,7 @@
         <v>70009303</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E87" s="6">
         <v>1</v>
@@ -17013,7 +17026,7 @@
         <v>70000001</v>
       </c>
       <c r="AP87" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AQ87" s="6"/>
       <c r="AR87" s="6">
@@ -17027,7 +17040,7 @@
         <v>70009401</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E88" s="6">
         <v>1</v>
@@ -17141,7 +17154,7 @@
         <v>70000001</v>
       </c>
       <c r="AP88" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ88" s="6"/>
       <c r="AR88" s="6">
@@ -17155,7 +17168,7 @@
         <v>70009402</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E89" s="6">
         <v>1</v>
@@ -17269,7 +17282,7 @@
         <v>70000001</v>
       </c>
       <c r="AP89" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ89" s="6"/>
       <c r="AR89" s="6">
@@ -17283,7 +17296,7 @@
         <v>70009403</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E90" s="6">
         <v>1</v>
@@ -17397,7 +17410,7 @@
         <v>70000001</v>
       </c>
       <c r="AP90" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ90" s="6"/>
       <c r="AR90" s="6">
@@ -17411,7 +17424,7 @@
         <v>70009404</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E91" s="6">
         <v>1</v>
@@ -17525,7 +17538,7 @@
         <v>70000002</v>
       </c>
       <c r="AP91" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AQ91" s="6"/>
       <c r="AR91" s="6">
@@ -17539,7 +17552,7 @@
         <v>70009410</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E92" s="6">
         <v>1</v>
@@ -17653,7 +17666,7 @@
         <v>70000001</v>
       </c>
       <c r="AP92" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ92" s="6"/>
       <c r="AR92" s="6">
@@ -17667,7 +17680,7 @@
         <v>70009501</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E93" s="6">
         <v>1</v>
@@ -17781,7 +17794,7 @@
         <v>70000001</v>
       </c>
       <c r="AP93" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ93" s="6"/>
       <c r="AR93" s="6">
@@ -17795,7 +17808,7 @@
         <v>70009502</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E94" s="6">
         <v>1</v>
@@ -17909,7 +17922,7 @@
         <v>70000001</v>
       </c>
       <c r="AP94" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ94" s="6"/>
       <c r="AR94" s="6">
@@ -17923,7 +17936,7 @@
         <v>70009503</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E95" s="6">
         <v>1</v>
@@ -18037,7 +18050,7 @@
         <v>70000001</v>
       </c>
       <c r="AP95" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AQ95" s="6"/>
       <c r="AR95" s="6">
@@ -18051,7 +18064,7 @@
         <v>70009504</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E96" s="6">
         <v>1</v>
@@ -18165,7 +18178,7 @@
         <v>70000001</v>
       </c>
       <c r="AP96" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AQ96" s="6"/>
       <c r="AR96" s="6">
@@ -18293,7 +18306,7 @@
         <v>70000001</v>
       </c>
       <c r="AP97" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ97" s="18"/>
       <c r="AR97" s="18">
@@ -18307,7 +18320,7 @@
         <v>72001001</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E98" s="6">
         <v>1</v>
@@ -18409,7 +18422,7 @@
         <v>0</v>
       </c>
       <c r="AL98" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AM98" s="6">
         <v>0</v>
@@ -18421,7 +18434,7 @@
         <v>70000001</v>
       </c>
       <c r="AP98" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ98" s="6"/>
       <c r="AR98" s="6">
@@ -18435,7 +18448,7 @@
         <v>72001002</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E99" s="6">
         <v>1</v>
@@ -18537,7 +18550,7 @@
         <v>0</v>
       </c>
       <c r="AL99" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AM99" s="6">
         <v>0</v>
@@ -18549,7 +18562,7 @@
         <v>70000001</v>
       </c>
       <c r="AP99" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ99" s="6"/>
       <c r="AR99" s="6">
@@ -18563,7 +18576,7 @@
         <v>72001003</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E100" s="6">
         <v>1</v>
@@ -18665,7 +18678,7 @@
         <v>0</v>
       </c>
       <c r="AL100" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AM100" s="6">
         <v>0</v>
@@ -18677,7 +18690,7 @@
         <v>70000001</v>
       </c>
       <c r="AP100" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ100" s="6"/>
       <c r="AR100" s="6">
@@ -18691,7 +18704,7 @@
         <v>72001004</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E101" s="6">
         <v>1</v>
@@ -18793,7 +18806,7 @@
         <v>0</v>
       </c>
       <c r="AL101" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AM101" s="6">
         <v>0</v>
@@ -18805,7 +18818,7 @@
         <v>70000001</v>
       </c>
       <c r="AP101" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ101" s="6"/>
       <c r="AR101" s="6">
@@ -18819,7 +18832,7 @@
         <v>72001011</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E102" s="6">
         <v>3</v>
@@ -18921,7 +18934,7 @@
         <v>0</v>
       </c>
       <c r="AL102" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AM102" s="6">
         <v>0.1</v>
@@ -18933,7 +18946,7 @@
         <v>70000001</v>
       </c>
       <c r="AP102" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AQ102" s="6"/>
       <c r="AR102" s="6">
@@ -18947,7 +18960,7 @@
         <v>72001012</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E103" s="6">
         <v>3</v>
@@ -19049,7 +19062,7 @@
         <v>0</v>
       </c>
       <c r="AL103" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AM103" s="6">
         <v>0.1</v>
@@ -19061,7 +19074,7 @@
         <v>70000001</v>
       </c>
       <c r="AP103" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AQ103" s="6"/>
       <c r="AR103" s="6">
@@ -19075,7 +19088,7 @@
         <v>72001013</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E104" s="6">
         <v>3</v>
@@ -19177,7 +19190,7 @@
         <v>0</v>
       </c>
       <c r="AL104" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AM104" s="6">
         <v>0.1</v>
@@ -19189,7 +19202,7 @@
         <v>70000001</v>
       </c>
       <c r="AP104" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AQ104" s="6"/>
       <c r="AR104" s="6">
@@ -19203,7 +19216,7 @@
         <v>72002001</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E105" s="6">
         <v>1</v>
@@ -19305,7 +19318,7 @@
         <v>0</v>
       </c>
       <c r="AL105" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AM105" s="6">
         <v>0</v>
@@ -19317,7 +19330,7 @@
         <v>70000001</v>
       </c>
       <c r="AP105" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ105" s="6"/>
       <c r="AR105" s="6">
@@ -19331,7 +19344,7 @@
         <v>72002002</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E106" s="6">
         <v>1</v>
@@ -19433,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="AL106" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AM106" s="6">
         <v>0</v>
@@ -19445,7 +19458,7 @@
         <v>70000001</v>
       </c>
       <c r="AP106" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ106" s="6"/>
       <c r="AR106" s="6">
@@ -19459,7 +19472,7 @@
         <v>72002003</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E107" s="6">
         <v>1</v>
@@ -19561,7 +19574,7 @@
         <v>0</v>
       </c>
       <c r="AL107" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AM107" s="6">
         <v>0</v>
@@ -19573,7 +19586,7 @@
         <v>70000001</v>
       </c>
       <c r="AP107" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ107" s="6"/>
       <c r="AR107" s="6">
@@ -19587,7 +19600,7 @@
         <v>72002004</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E108" s="6">
         <v>1</v>
@@ -19689,7 +19702,7 @@
         <v>0</v>
       </c>
       <c r="AL108" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AM108" s="6">
         <v>0</v>
@@ -19701,7 +19714,7 @@
         <v>70000001</v>
       </c>
       <c r="AP108" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ108" s="6"/>
       <c r="AR108" s="6">
@@ -19715,7 +19728,7 @@
         <v>72002005</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E109" s="6">
         <v>1</v>
@@ -19817,7 +19830,7 @@
         <v>0</v>
       </c>
       <c r="AL109" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AM109" s="6">
         <v>0</v>
@@ -19829,7 +19842,7 @@
         <v>70000001</v>
       </c>
       <c r="AP109" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ109" s="6"/>
       <c r="AR109" s="6">
@@ -19843,7 +19856,7 @@
         <v>72002011</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E110" s="6">
         <v>3</v>
@@ -19945,7 +19958,7 @@
         <v>0</v>
       </c>
       <c r="AL110" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AM110" s="6">
         <v>0.1</v>
@@ -19957,7 +19970,7 @@
         <v>70000001</v>
       </c>
       <c r="AP110" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AQ110" s="6"/>
       <c r="AR110" s="6">
@@ -19971,7 +19984,7 @@
         <v>72002012</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E111" s="6">
         <v>3</v>
@@ -20073,7 +20086,7 @@
         <v>0</v>
       </c>
       <c r="AL111" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AM111" s="6">
         <v>0.1</v>
@@ -20085,7 +20098,7 @@
         <v>70000001</v>
       </c>
       <c r="AP111" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AQ111" s="6"/>
       <c r="AR111" s="6">
@@ -20099,7 +20112,7 @@
         <v>72002013</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E112" s="6">
         <v>3</v>
@@ -20201,7 +20214,7 @@
         <v>0</v>
       </c>
       <c r="AL112" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM112" s="6">
         <v>0.1</v>
@@ -20213,7 +20226,7 @@
         <v>70000001</v>
       </c>
       <c r="AP112" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AQ112" s="6"/>
       <c r="AR112" s="6">
@@ -20227,7 +20240,7 @@
         <v>72003001</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E113" s="6">
         <v>1</v>
@@ -20329,7 +20342,7 @@
         <v>0</v>
       </c>
       <c r="AL113" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AM113" s="6">
         <v>0</v>
@@ -20341,7 +20354,7 @@
         <v>70000001</v>
       </c>
       <c r="AP113" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ113" s="6"/>
       <c r="AR113" s="6">
@@ -20355,7 +20368,7 @@
         <v>72003002</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E114" s="6">
         <v>1</v>
@@ -20457,7 +20470,7 @@
         <v>0</v>
       </c>
       <c r="AL114" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AM114" s="6">
         <v>0</v>
@@ -20469,7 +20482,7 @@
         <v>70000001</v>
       </c>
       <c r="AP114" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ114" s="6"/>
       <c r="AR114" s="6">
@@ -20483,7 +20496,7 @@
         <v>72003003</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E115" s="6">
         <v>1</v>
@@ -20585,7 +20598,7 @@
         <v>0</v>
       </c>
       <c r="AL115" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AM115" s="6">
         <v>0</v>
@@ -20597,7 +20610,7 @@
         <v>70000001</v>
       </c>
       <c r="AP115" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ115" s="6"/>
       <c r="AR115" s="6">
@@ -20611,7 +20624,7 @@
         <v>72003004</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E116" s="6">
         <v>1</v>
@@ -20713,7 +20726,7 @@
         <v>0</v>
       </c>
       <c r="AL116" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AM116" s="6">
         <v>0</v>
@@ -20725,7 +20738,7 @@
         <v>70000001</v>
       </c>
       <c r="AP116" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ116" s="6"/>
       <c r="AR116" s="6">
@@ -20739,7 +20752,7 @@
         <v>72003005</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E117" s="6">
         <v>1</v>
@@ -20841,7 +20854,7 @@
         <v>0</v>
       </c>
       <c r="AL117" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AM117" s="6">
         <v>0</v>
@@ -20853,7 +20866,7 @@
         <v>70000001</v>
       </c>
       <c r="AP117" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ117" s="6"/>
       <c r="AR117" s="6">
@@ -20867,7 +20880,7 @@
         <v>72003011</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E118" s="6">
         <v>3</v>
@@ -20969,7 +20982,7 @@
         <v>0</v>
       </c>
       <c r="AL118" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AM118" s="6">
         <v>0.1</v>
@@ -20981,7 +20994,7 @@
         <v>70000001</v>
       </c>
       <c r="AP118" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AQ118" s="6"/>
       <c r="AR118" s="6">
@@ -20995,7 +21008,7 @@
         <v>72003012</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E119" s="6">
         <v>3</v>
@@ -21097,7 +21110,7 @@
         <v>0</v>
       </c>
       <c r="AL119" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AM119" s="6">
         <v>0.1</v>
@@ -21109,7 +21122,7 @@
         <v>70000001</v>
       </c>
       <c r="AP119" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AQ119" s="6"/>
       <c r="AR119" s="6">
@@ -21123,7 +21136,7 @@
         <v>72003013</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E120" s="6">
         <v>3</v>
@@ -21225,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="AL120" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AM120" s="6">
         <v>0.1</v>
@@ -21237,7 +21250,7 @@
         <v>70000001</v>
       </c>
       <c r="AP120" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AQ120" s="6"/>
       <c r="AR120" s="6">
@@ -21251,7 +21264,7 @@
         <v>72004001</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E121" s="6">
         <v>1</v>
@@ -21353,7 +21366,7 @@
         <v>0</v>
       </c>
       <c r="AL121" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AM121" s="6">
         <v>0</v>
@@ -21365,7 +21378,7 @@
         <v>70000001</v>
       </c>
       <c r="AP121" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ121" s="6"/>
       <c r="AR121" s="6">
@@ -21379,7 +21392,7 @@
         <v>72004002</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E122" s="6">
         <v>1</v>
@@ -21481,7 +21494,7 @@
         <v>0</v>
       </c>
       <c r="AL122" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AM122" s="6">
         <v>0</v>
@@ -21493,7 +21506,7 @@
         <v>70000001</v>
       </c>
       <c r="AP122" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ122" s="6"/>
       <c r="AR122" s="6">
@@ -21507,7 +21520,7 @@
         <v>72004003</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E123" s="6">
         <v>1</v>
@@ -21609,7 +21622,7 @@
         <v>0</v>
       </c>
       <c r="AL123" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AM123" s="6">
         <v>0</v>
@@ -21621,7 +21634,7 @@
         <v>70000001</v>
       </c>
       <c r="AP123" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ123" s="6"/>
       <c r="AR123" s="6">
@@ -21635,7 +21648,7 @@
         <v>72004004</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E124" s="6">
         <v>1</v>
@@ -21737,7 +21750,7 @@
         <v>0</v>
       </c>
       <c r="AL124" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AM124" s="6">
         <v>0</v>
@@ -21749,7 +21762,7 @@
         <v>70000001</v>
       </c>
       <c r="AP124" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ124" s="6"/>
       <c r="AR124" s="6">
@@ -21763,7 +21776,7 @@
         <v>72004011</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E125" s="6">
         <v>3</v>
@@ -21865,7 +21878,7 @@
         <v>0</v>
       </c>
       <c r="AL125" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AM125" s="6">
         <v>0.1</v>
@@ -21877,7 +21890,7 @@
         <v>70000001</v>
       </c>
       <c r="AP125" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AQ125" s="6"/>
       <c r="AR125" s="6">
@@ -21891,7 +21904,7 @@
         <v>72004012</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E126" s="6">
         <v>3</v>
@@ -21993,7 +22006,7 @@
         <v>0</v>
       </c>
       <c r="AL126" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AM126" s="6">
         <v>0.1</v>
@@ -22005,7 +22018,7 @@
         <v>70000001</v>
       </c>
       <c r="AP126" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AQ126" s="6"/>
       <c r="AR126" s="6">
@@ -22019,7 +22032,7 @@
         <v>72004013</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E127" s="6">
         <v>3</v>
@@ -22121,7 +22134,7 @@
         <v>0</v>
       </c>
       <c r="AL127" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM127" s="6">
         <v>0.1</v>
@@ -22133,7 +22146,7 @@
         <v>70000002</v>
       </c>
       <c r="AP127" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AQ127" s="6"/>
       <c r="AR127" s="6">
@@ -22147,7 +22160,7 @@
         <v>79999998</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E128" s="6">
         <v>1</v>
@@ -22261,7 +22274,7 @@
         <v>70000001</v>
       </c>
       <c r="AP128" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ128" s="6"/>
       <c r="AR128" s="6">
@@ -22275,7 +22288,7 @@
         <v>79999999</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E129" s="6">
         <v>1</v>
@@ -22389,7 +22402,7 @@
         <v>70000001</v>
       </c>
       <c r="AP129" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ129" s="6"/>
       <c r="AR129" s="6">
@@ -22403,7 +22416,7 @@
         <v>41001007</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E130" s="6">
         <v>5</v>
@@ -22532,7 +22545,7 @@
         <v>41001008</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E131" s="6">
         <v>5</v>
@@ -22663,7 +22676,7 @@
         <v>41001009</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E132" s="6">
         <v>5</v>
@@ -22793,7 +22806,7 @@
         <v>41001010</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E133" s="6">
         <v>5</v>
@@ -22923,7 +22936,7 @@
         <v>41002001</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E134" s="6">
         <v>5</v>
@@ -23053,7 +23066,7 @@
         <v>41002002</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E135" s="6">
         <v>5</v>
@@ -23183,7 +23196,7 @@
         <v>41003001</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E136" s="6">
         <v>5</v>
@@ -23313,7 +23326,7 @@
         <v>41004001</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E137" s="6">
         <v>5</v>
@@ -23443,7 +23456,7 @@
         <v>41005001</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E138" s="6">
         <v>5</v>
@@ -23571,7 +23584,7 @@
         <v>73001001</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E139" s="15">
         <v>1</v>
@@ -23673,7 +23686,7 @@
         <v>0</v>
       </c>
       <c r="AL139" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM139" s="15">
         <v>0.1</v>
@@ -23685,7 +23698,7 @@
         <v>70000001</v>
       </c>
       <c r="AP139" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ139" s="15"/>
       <c r="AR139" s="15">
@@ -23699,7 +23712,7 @@
         <v>73002001</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E140" s="15">
         <v>1</v>
@@ -23801,7 +23814,7 @@
         <v>0</v>
       </c>
       <c r="AL140" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM140" s="15">
         <v>0.1</v>
@@ -23813,7 +23826,7 @@
         <v>70000001</v>
       </c>
       <c r="AP140" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ140" s="15"/>
       <c r="AR140" s="15">
@@ -23827,7 +23840,7 @@
         <v>73002002</v>
       </c>
       <c r="D141" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E141" s="23">
         <v>1</v>
@@ -23929,7 +23942,7 @@
         <v>0</v>
       </c>
       <c r="AL141" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM141" s="23">
         <v>0.1</v>
@@ -23941,7 +23954,7 @@
         <v>70000001</v>
       </c>
       <c r="AP141" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ141" s="23"/>
       <c r="AR141" s="23">
@@ -23955,7 +23968,7 @@
         <v>73003001</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E142" s="15">
         <v>1</v>
@@ -24057,7 +24070,7 @@
         <v>0</v>
       </c>
       <c r="AL142" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM142" s="15">
         <v>0.1</v>
@@ -24069,7 +24082,7 @@
         <v>70000001</v>
       </c>
       <c r="AP142" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ142" s="15"/>
       <c r="AR142" s="15">
@@ -24083,7 +24096,7 @@
         <v>73003002</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E143" s="15">
         <v>3</v>
@@ -24185,7 +24198,7 @@
         <v>0</v>
       </c>
       <c r="AL143" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM143" s="15">
         <v>0.5</v>
@@ -24197,7 +24210,7 @@
         <v>70000001</v>
       </c>
       <c r="AP143" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ143" s="15"/>
       <c r="AR143" s="15">
@@ -24211,7 +24224,7 @@
         <v>73004001</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E144" s="15">
         <v>1</v>
@@ -24313,7 +24326,7 @@
         <v>0</v>
       </c>
       <c r="AL144" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM144" s="15">
         <v>0.1</v>
@@ -24325,7 +24338,7 @@
         <v>70000001</v>
       </c>
       <c r="AP144" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ144" s="15"/>
       <c r="AR144" s="15">
@@ -24339,7 +24352,7 @@
         <v>73004002</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E145" s="15">
         <v>1</v>
@@ -24441,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="AL145" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM145" s="15">
         <v>0.1</v>
@@ -24453,7 +24466,7 @@
         <v>70000001</v>
       </c>
       <c r="AP145" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ145" s="15"/>
       <c r="AR145" s="15">
@@ -24467,7 +24480,7 @@
         <v>73004003</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E146" s="15">
         <v>3</v>
@@ -24569,7 +24582,7 @@
         <v>0</v>
       </c>
       <c r="AL146" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM146" s="15">
         <v>0.1</v>
@@ -24581,7 +24594,7 @@
         <v>70000001</v>
       </c>
       <c r="AP146" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ146" s="15"/>
       <c r="AR146" s="15">
@@ -24595,7 +24608,7 @@
         <v>73005001</v>
       </c>
       <c r="D147" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E147" s="23">
         <v>1</v>
@@ -24697,7 +24710,7 @@
         <v>0</v>
       </c>
       <c r="AL147" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM147" s="23">
         <v>0.1</v>
@@ -24709,7 +24722,7 @@
         <v>70000001</v>
       </c>
       <c r="AP147" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ147" s="23"/>
       <c r="AR147" s="23">
@@ -24723,7 +24736,7 @@
         <v>73005002</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E148" s="15">
         <v>1</v>
@@ -24825,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="AL148" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM148" s="15">
         <v>0.1</v>
@@ -24837,7 +24850,7 @@
         <v>70000001</v>
       </c>
       <c r="AP148" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ148" s="15"/>
       <c r="AR148" s="15">
@@ -24851,7 +24864,7 @@
         <v>73005003</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E149" s="15">
         <v>3</v>
@@ -24953,7 +24966,7 @@
         <v>0</v>
       </c>
       <c r="AL149" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM149" s="15">
         <v>0.5</v>
@@ -24965,7 +24978,7 @@
         <v>70000001</v>
       </c>
       <c r="AP149" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ149" s="15"/>
       <c r="AR149" s="15">
@@ -24979,7 +24992,7 @@
         <v>73006001</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E150" s="15">
         <v>1</v>
@@ -25081,7 +25094,7 @@
         <v>0</v>
       </c>
       <c r="AL150" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM150" s="15">
         <v>0.1</v>
@@ -25093,7 +25106,7 @@
         <v>70000001</v>
       </c>
       <c r="AP150" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ150" s="15"/>
       <c r="AR150" s="15">
@@ -25107,7 +25120,7 @@
         <v>73006002</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E151" s="15">
         <v>1</v>
@@ -25209,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="AL151" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM151" s="15">
         <v>0.1</v>
@@ -25221,7 +25234,7 @@
         <v>70000001</v>
       </c>
       <c r="AP151" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ151" s="15"/>
       <c r="AR151" s="15">
@@ -25235,7 +25248,7 @@
         <v>73006003</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E152" s="15">
         <v>3</v>
@@ -25337,7 +25350,7 @@
         <v>0</v>
       </c>
       <c r="AL152" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM152" s="15">
         <v>0.1</v>
@@ -25349,7 +25362,7 @@
         <v>70000001</v>
       </c>
       <c r="AP152" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ152" s="15"/>
       <c r="AR152" s="15">
@@ -25363,7 +25376,7 @@
         <v>73007001</v>
       </c>
       <c r="D153" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E153" s="23">
         <v>1</v>
@@ -25465,7 +25478,7 @@
         <v>0</v>
       </c>
       <c r="AL153" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM153" s="23">
         <v>0.1</v>
@@ -25477,7 +25490,7 @@
         <v>70000001</v>
       </c>
       <c r="AP153" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ153" s="23"/>
       <c r="AR153" s="23">
@@ -25491,7 +25504,7 @@
         <v>73007002</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E154" s="15">
         <v>1</v>
@@ -25593,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="AL154" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM154" s="15">
         <v>0.1</v>
@@ -25605,7 +25618,7 @@
         <v>70000001</v>
       </c>
       <c r="AP154" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ154" s="15"/>
       <c r="AR154" s="15">
@@ -25619,7 +25632,7 @@
         <v>73007003</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E155" s="15">
         <v>3</v>
@@ -25721,7 +25734,7 @@
         <v>0</v>
       </c>
       <c r="AL155" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM155" s="15">
         <v>0.5</v>
@@ -25733,7 +25746,7 @@
         <v>70000001</v>
       </c>
       <c r="AP155" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ155" s="15"/>
       <c r="AR155" s="15">
@@ -25747,7 +25760,7 @@
         <v>73008001</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E156" s="15">
         <v>1</v>
@@ -25849,7 +25862,7 @@
         <v>0</v>
       </c>
       <c r="AL156" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM156" s="15">
         <v>0.1</v>
@@ -25861,7 +25874,7 @@
         <v>70000001</v>
       </c>
       <c r="AP156" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ156" s="15"/>
       <c r="AR156" s="15">
@@ -25875,7 +25888,7 @@
         <v>73008002</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E157" s="15">
         <v>1</v>
@@ -25977,7 +25990,7 @@
         <v>0</v>
       </c>
       <c r="AL157" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM157" s="15">
         <v>0.1</v>
@@ -25989,7 +26002,7 @@
         <v>70000001</v>
       </c>
       <c r="AP157" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ157" s="15"/>
       <c r="AR157" s="15">
@@ -26003,7 +26016,7 @@
         <v>73008003</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E158" s="15">
         <v>3</v>
@@ -26105,7 +26118,7 @@
         <v>0</v>
       </c>
       <c r="AL158" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM158" s="15">
         <v>0.5</v>
@@ -26117,7 +26130,7 @@
         <v>70000001</v>
       </c>
       <c r="AP158" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ158" s="15"/>
       <c r="AR158" s="15">
@@ -26131,7 +26144,7 @@
         <v>73009001</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E159" s="15">
         <v>1</v>
@@ -26233,7 +26246,7 @@
         <v>0</v>
       </c>
       <c r="AL159" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM159" s="15">
         <v>0.1</v>
@@ -26245,7 +26258,7 @@
         <v>70000001</v>
       </c>
       <c r="AP159" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ159" s="15"/>
       <c r="AR159" s="15">
@@ -26259,7 +26272,7 @@
         <v>73009002</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E160" s="15">
         <v>1</v>
@@ -26361,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="AL160" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM160" s="15">
         <v>0.1</v>
@@ -26373,7 +26386,7 @@
         <v>70000001</v>
       </c>
       <c r="AP160" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ160" s="15"/>
       <c r="AR160" s="15">
@@ -26387,7 +26400,7 @@
         <v>73009003</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E161" s="15">
         <v>3</v>
@@ -26489,7 +26502,7 @@
         <v>0</v>
       </c>
       <c r="AL161" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM161" s="15">
         <v>0.5</v>
@@ -26501,7 +26514,7 @@
         <v>70000001</v>
       </c>
       <c r="AP161" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ161" s="15"/>
       <c r="AR161" s="15">
@@ -26515,7 +26528,7 @@
         <v>73010001</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E162" s="15">
         <v>1</v>
@@ -26617,7 +26630,7 @@
         <v>0</v>
       </c>
       <c r="AL162" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM162" s="15">
         <v>0.1</v>
@@ -26629,7 +26642,7 @@
         <v>70000001</v>
       </c>
       <c r="AP162" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ162" s="15"/>
       <c r="AR162" s="15">
@@ -26643,7 +26656,7 @@
         <v>73010002</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E163" s="15">
         <v>1</v>
@@ -26745,7 +26758,7 @@
         <v>0</v>
       </c>
       <c r="AL163" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM163" s="15">
         <v>0.1</v>
@@ -26757,7 +26770,7 @@
         <v>70000001</v>
       </c>
       <c r="AP163" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ163" s="15"/>
       <c r="AR163" s="15">
@@ -26771,7 +26784,7 @@
         <v>73010003</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E164" s="15">
         <v>3</v>
@@ -26873,7 +26886,7 @@
         <v>0</v>
       </c>
       <c r="AL164" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM164" s="15">
         <v>0.5</v>
@@ -26885,7 +26898,7 @@
         <v>70000001</v>
       </c>
       <c r="AP164" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ164" s="15"/>
       <c r="AR164" s="15">
@@ -26899,7 +26912,7 @@
         <v>73011001</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E165" s="15">
         <v>1</v>
@@ -27001,7 +27014,7 @@
         <v>0</v>
       </c>
       <c r="AL165" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM165" s="15">
         <v>0</v>
@@ -27013,7 +27026,7 @@
         <v>70000001</v>
       </c>
       <c r="AP165" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ165" s="15"/>
       <c r="AR165" s="15">
@@ -27027,7 +27040,7 @@
         <v>73011002</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E166" s="15">
         <v>1</v>
@@ -27129,7 +27142,7 @@
         <v>0</v>
       </c>
       <c r="AL166" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM166" s="15">
         <v>0</v>
@@ -27141,7 +27154,7 @@
         <v>70000001</v>
       </c>
       <c r="AP166" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ166" s="15"/>
       <c r="AR166" s="15">
@@ -27155,7 +27168,7 @@
         <v>73011003</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E167" s="15">
         <v>3</v>
@@ -27257,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="AL167" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM167" s="15">
         <v>0.1</v>
@@ -27269,7 +27282,7 @@
         <v>70000001</v>
       </c>
       <c r="AP167" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ167" s="15"/>
       <c r="AR167" s="15">
@@ -27283,7 +27296,7 @@
         <v>73012001</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E168" s="15">
         <v>1</v>
@@ -27385,7 +27398,7 @@
         <v>0</v>
       </c>
       <c r="AL168" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM168" s="15">
         <v>0</v>
@@ -27397,7 +27410,7 @@
         <v>70000001</v>
       </c>
       <c r="AP168" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ168" s="15"/>
       <c r="AR168" s="15">
@@ -27411,7 +27424,7 @@
         <v>73012002</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E169" s="15">
         <v>1</v>
@@ -27513,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="AL169" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM169" s="15">
         <v>0</v>
@@ -27525,7 +27538,7 @@
         <v>70000001</v>
       </c>
       <c r="AP169" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ169" s="15"/>
       <c r="AR169" s="15">
@@ -27539,7 +27552,7 @@
         <v>73012003</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E170" s="15">
         <v>3</v>
@@ -27641,7 +27654,7 @@
         <v>0</v>
       </c>
       <c r="AL170" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM170" s="15">
         <v>0.1</v>
@@ -27653,7 +27666,7 @@
         <v>70000001</v>
       </c>
       <c r="AP170" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ170" s="15"/>
       <c r="AR170" s="15">
@@ -27667,7 +27680,7 @@
         <v>73013001</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E171" s="15">
         <v>1</v>
@@ -27769,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="AL171" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM171" s="15">
         <v>0</v>
@@ -27781,7 +27794,7 @@
         <v>70000001</v>
       </c>
       <c r="AP171" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ171" s="15"/>
       <c r="AR171" s="15">
@@ -27795,7 +27808,7 @@
         <v>73013002</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E172" s="15">
         <v>1</v>
@@ -27897,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="AL172" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM172" s="15">
         <v>0</v>
@@ -27909,7 +27922,7 @@
         <v>70000001</v>
       </c>
       <c r="AP172" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ172" s="15"/>
       <c r="AR172" s="15">
@@ -27923,7 +27936,7 @@
         <v>73013003</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E173" s="15">
         <v>3</v>
@@ -28025,7 +28038,7 @@
         <v>0</v>
       </c>
       <c r="AL173" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM173" s="15">
         <v>0.1</v>
@@ -28037,7 +28050,7 @@
         <v>70000001</v>
       </c>
       <c r="AP173" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ173" s="15"/>
       <c r="AR173" s="15">
@@ -28051,7 +28064,7 @@
         <v>73014001</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E174" s="15">
         <v>1</v>
@@ -28153,7 +28166,7 @@
         <v>0</v>
       </c>
       <c r="AL174" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM174" s="15">
         <v>0.1</v>
@@ -28165,7 +28178,7 @@
         <v>70000001</v>
       </c>
       <c r="AP174" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ174" s="15"/>
       <c r="AR174" s="15">
@@ -28179,7 +28192,7 @@
         <v>73014002</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E175" s="15">
         <v>1</v>
@@ -28281,7 +28294,7 @@
         <v>0</v>
       </c>
       <c r="AL175" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM175" s="15">
         <v>0.1</v>
@@ -28293,7 +28306,7 @@
         <v>70000001</v>
       </c>
       <c r="AP175" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ175" s="15"/>
       <c r="AR175" s="15">
@@ -28307,7 +28320,7 @@
         <v>73014003</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E176" s="15">
         <v>3</v>
@@ -28409,7 +28422,7 @@
         <v>0</v>
       </c>
       <c r="AL176" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM176" s="15">
         <v>0.1</v>
@@ -28421,7 +28434,7 @@
         <v>70000001</v>
       </c>
       <c r="AP176" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ176" s="15"/>
       <c r="AR176" s="15">
@@ -28435,7 +28448,7 @@
         <v>73015001</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E177" s="15">
         <v>1</v>
@@ -28537,7 +28550,7 @@
         <v>0</v>
       </c>
       <c r="AL177" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM177" s="15">
         <v>0.1</v>
@@ -28549,7 +28562,7 @@
         <v>70000001</v>
       </c>
       <c r="AP177" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ177" s="15"/>
       <c r="AR177" s="15">
@@ -28563,7 +28576,7 @@
         <v>73015002</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E178" s="15">
         <v>1</v>
@@ -28665,7 +28678,7 @@
         <v>0</v>
       </c>
       <c r="AL178" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM178" s="15">
         <v>0.1</v>
@@ -28677,7 +28690,7 @@
         <v>70000001</v>
       </c>
       <c r="AP178" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ178" s="15"/>
       <c r="AR178" s="15">
@@ -28691,7 +28704,7 @@
         <v>73015003</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E179" s="15">
         <v>3</v>
@@ -28793,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="AL179" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM179" s="15">
         <v>0.1</v>
@@ -28805,7 +28818,7 @@
         <v>70000001</v>
       </c>
       <c r="AP179" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ179" s="15"/>
       <c r="AR179" s="15">
@@ -28819,7 +28832,7 @@
         <v>73016001</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E180" s="15">
         <v>1</v>
@@ -28921,7 +28934,7 @@
         <v>0</v>
       </c>
       <c r="AL180" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM180" s="15">
         <v>0.1</v>
@@ -28933,7 +28946,7 @@
         <v>70000001</v>
       </c>
       <c r="AP180" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ180" s="15"/>
       <c r="AR180" s="15">
@@ -28947,7 +28960,7 @@
         <v>73016002</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E181" s="15">
         <v>1</v>
@@ -29049,7 +29062,7 @@
         <v>0</v>
       </c>
       <c r="AL181" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM181" s="15">
         <v>0.1</v>
@@ -29061,7 +29074,7 @@
         <v>70000001</v>
       </c>
       <c r="AP181" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ181" s="15"/>
       <c r="AR181" s="15">
@@ -29075,7 +29088,7 @@
         <v>73016003</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E182" s="15">
         <v>3</v>
@@ -29177,7 +29190,7 @@
         <v>0</v>
       </c>
       <c r="AL182" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM182" s="15">
         <v>0.1</v>
@@ -29189,7 +29202,7 @@
         <v>70000001</v>
       </c>
       <c r="AP182" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ182" s="15"/>
       <c r="AR182" s="15">
@@ -29203,7 +29216,7 @@
         <v>73017001</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E183" s="15">
         <v>1</v>
@@ -29293,7 +29306,7 @@
         <v>1000</v>
       </c>
       <c r="AH183" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AI183" s="15">
         <v>0</v>
@@ -29305,7 +29318,7 @@
         <v>0</v>
       </c>
       <c r="AL183" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM183" s="15">
         <v>0.1</v>
@@ -29317,7 +29330,7 @@
         <v>70000001</v>
       </c>
       <c r="AP183" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ183" s="15"/>
       <c r="AR183" s="15">
@@ -29331,7 +29344,7 @@
         <v>73017002</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E184" s="15">
         <v>1</v>
@@ -29433,7 +29446,7 @@
         <v>0</v>
       </c>
       <c r="AL184" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM184" s="15">
         <v>0.1</v>
@@ -29445,7 +29458,7 @@
         <v>70000001</v>
       </c>
       <c r="AP184" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ184" s="15"/>
       <c r="AR184" s="15">
@@ -29459,7 +29472,7 @@
         <v>73017003</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E185" s="15">
         <v>3</v>
@@ -29561,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="AL185" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM185" s="15">
         <v>0.1</v>
@@ -29573,7 +29586,7 @@
         <v>70000001</v>
       </c>
       <c r="AP185" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ185" s="15"/>
       <c r="AR185" s="15">
@@ -29587,7 +29600,7 @@
         <v>73018001</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E186" s="15">
         <v>1</v>
@@ -29689,7 +29702,7 @@
         <v>0</v>
       </c>
       <c r="AL186" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM186" s="15">
         <v>0</v>
@@ -29701,7 +29714,7 @@
         <v>70000001</v>
       </c>
       <c r="AP186" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ186" s="15"/>
       <c r="AR186" s="15">
@@ -29715,7 +29728,7 @@
         <v>73018002</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E187" s="15">
         <v>1</v>
@@ -29817,7 +29830,7 @@
         <v>0</v>
       </c>
       <c r="AL187" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM187" s="15">
         <v>0</v>
@@ -29829,7 +29842,7 @@
         <v>70000001</v>
       </c>
       <c r="AP187" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ187" s="15"/>
       <c r="AR187" s="15">
@@ -29843,7 +29856,7 @@
         <v>73018003</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E188" s="15">
         <v>3</v>
@@ -29945,7 +29958,7 @@
         <v>0</v>
       </c>
       <c r="AL188" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM188" s="15">
         <v>0.1</v>
@@ -29957,7 +29970,7 @@
         <v>70000001</v>
       </c>
       <c r="AP188" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ188" s="15"/>
       <c r="AR188" s="15">
@@ -29971,7 +29984,7 @@
         <v>73019001</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E189" s="15">
         <v>1</v>
@@ -30073,7 +30086,7 @@
         <v>0</v>
       </c>
       <c r="AL189" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM189" s="15">
         <v>0</v>
@@ -30085,7 +30098,7 @@
         <v>70000001</v>
       </c>
       <c r="AP189" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ189" s="15"/>
       <c r="AR189" s="15">
@@ -30099,7 +30112,7 @@
         <v>73019002</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E190" s="15">
         <v>1</v>
@@ -30201,7 +30214,7 @@
         <v>0</v>
       </c>
       <c r="AL190" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM190" s="15">
         <v>0</v>
@@ -30213,7 +30226,7 @@
         <v>70000001</v>
       </c>
       <c r="AP190" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ190" s="15"/>
       <c r="AR190" s="15">
@@ -30227,7 +30240,7 @@
         <v>73019003</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E191" s="15">
         <v>3</v>
@@ -30329,7 +30342,7 @@
         <v>0</v>
       </c>
       <c r="AL191" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM191" s="15">
         <v>0.1</v>
@@ -30341,7 +30354,7 @@
         <v>70000001</v>
       </c>
       <c r="AP191" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ191" s="15"/>
       <c r="AR191" s="15">
@@ -30355,7 +30368,7 @@
         <v>73020001</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E192" s="15">
         <v>1</v>
@@ -30457,7 +30470,7 @@
         <v>0</v>
       </c>
       <c r="AL192" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM192" s="15">
         <v>0</v>
@@ -30469,7 +30482,7 @@
         <v>70000001</v>
       </c>
       <c r="AP192" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ192" s="15"/>
       <c r="AR192" s="15">
@@ -30483,7 +30496,7 @@
         <v>73020002</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E193" s="15">
         <v>1</v>
@@ -30585,7 +30598,7 @@
         <v>0</v>
       </c>
       <c r="AL193" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM193" s="15">
         <v>0</v>
@@ -30597,7 +30610,7 @@
         <v>70000001</v>
       </c>
       <c r="AP193" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ193" s="15"/>
       <c r="AR193" s="15">
@@ -30611,7 +30624,7 @@
         <v>73020003</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E194" s="15">
         <v>3</v>
@@ -30713,7 +30726,7 @@
         <v>0</v>
       </c>
       <c r="AL194" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM194" s="15">
         <v>0.1</v>
@@ -30725,7 +30738,7 @@
         <v>70000001</v>
       </c>
       <c r="AP194" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ194" s="15"/>
       <c r="AR194" s="15">
@@ -30739,7 +30752,7 @@
         <v>73021001</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E195" s="15">
         <v>1</v>
@@ -30841,7 +30854,7 @@
         <v>0</v>
       </c>
       <c r="AL195" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM195" s="15">
         <v>0.1</v>
@@ -30853,7 +30866,7 @@
         <v>70000001</v>
       </c>
       <c r="AP195" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ195" s="15"/>
       <c r="AR195" s="15">
@@ -30867,7 +30880,7 @@
         <v>73021002</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E196" s="15">
         <v>1</v>
@@ -30969,7 +30982,7 @@
         <v>0</v>
       </c>
       <c r="AL196" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM196" s="15">
         <v>0.1</v>
@@ -30981,7 +30994,7 @@
         <v>70000001</v>
       </c>
       <c r="AP196" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ196" s="15"/>
       <c r="AR196" s="15">
@@ -30995,7 +31008,7 @@
         <v>73021003</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E197" s="15">
         <v>3</v>
@@ -31097,7 +31110,7 @@
         <v>0</v>
       </c>
       <c r="AL197" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM197" s="15">
         <v>0.1</v>
@@ -31109,7 +31122,7 @@
         <v>70000001</v>
       </c>
       <c r="AP197" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ197" s="15"/>
       <c r="AR197" s="15">
@@ -31123,7 +31136,7 @@
         <v>73022001</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E198" s="15">
         <v>1</v>
@@ -31225,7 +31238,7 @@
         <v>0</v>
       </c>
       <c r="AL198" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM198" s="15">
         <v>0.1</v>
@@ -31237,7 +31250,7 @@
         <v>70000001</v>
       </c>
       <c r="AP198" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ198" s="15"/>
       <c r="AR198" s="15">
@@ -31251,7 +31264,7 @@
         <v>73022002</v>
       </c>
       <c r="D199" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E199" s="15">
         <v>1</v>
@@ -31353,7 +31366,7 @@
         <v>0</v>
       </c>
       <c r="AL199" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM199" s="15">
         <v>0.1</v>
@@ -31365,7 +31378,7 @@
         <v>70000001</v>
       </c>
       <c r="AP199" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ199" s="15"/>
       <c r="AR199" s="15">
@@ -31379,7 +31392,7 @@
         <v>73022003</v>
       </c>
       <c r="D200" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E200" s="15">
         <v>3</v>
@@ -31481,7 +31494,7 @@
         <v>0</v>
       </c>
       <c r="AL200" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM200" s="15">
         <v>0.1</v>
@@ -31493,7 +31506,7 @@
         <v>70000001</v>
       </c>
       <c r="AP200" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ200" s="15"/>
       <c r="AR200" s="15">
@@ -31507,7 +31520,7 @@
         <v>73023001</v>
       </c>
       <c r="D201" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E201" s="15">
         <v>1</v>
@@ -31609,7 +31622,7 @@
         <v>0</v>
       </c>
       <c r="AL201" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM201" s="15">
         <v>0.1</v>
@@ -31621,7 +31634,7 @@
         <v>70000001</v>
       </c>
       <c r="AP201" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ201" s="15"/>
       <c r="AR201" s="15">
@@ -31635,7 +31648,7 @@
         <v>73023002</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E202" s="15">
         <v>1</v>
@@ -31737,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="AL202" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM202" s="15">
         <v>0.1</v>
@@ -31749,7 +31762,7 @@
         <v>70000001</v>
       </c>
       <c r="AP202" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ202" s="15"/>
       <c r="AR202" s="15">
@@ -31763,7 +31776,7 @@
         <v>73023003</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E203" s="15">
         <v>3</v>
@@ -31865,7 +31878,7 @@
         <v>0</v>
       </c>
       <c r="AL203" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM203" s="15">
         <v>0.1</v>
@@ -31877,7 +31890,7 @@
         <v>70000001</v>
       </c>
       <c r="AP203" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ203" s="15"/>
       <c r="AR203" s="15">
@@ -31891,7 +31904,7 @@
         <v>73024001</v>
       </c>
       <c r="D204" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E204" s="15">
         <v>1</v>
@@ -31993,7 +32006,7 @@
         <v>0</v>
       </c>
       <c r="AL204" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM204" s="15">
         <v>0.1</v>
@@ -32005,7 +32018,7 @@
         <v>70000001</v>
       </c>
       <c r="AP204" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ204" s="15"/>
       <c r="AR204" s="15">
@@ -32019,7 +32032,7 @@
         <v>73024002</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E205" s="15">
         <v>1</v>
@@ -32121,7 +32134,7 @@
         <v>0</v>
       </c>
       <c r="AL205" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM205" s="15">
         <v>0.1</v>
@@ -32133,7 +32146,7 @@
         <v>70000001</v>
       </c>
       <c r="AP205" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ205" s="15"/>
       <c r="AR205" s="15">
@@ -32147,7 +32160,7 @@
         <v>73024003</v>
       </c>
       <c r="D206" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E206" s="15">
         <v>3</v>
@@ -32249,7 +32262,7 @@
         <v>0</v>
       </c>
       <c r="AL206" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM206" s="15">
         <v>0.1</v>
@@ -32261,7 +32274,7 @@
         <v>70000001</v>
       </c>
       <c r="AP206" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ206" s="15"/>
       <c r="AR206" s="15">
@@ -32275,7 +32288,7 @@
         <v>73025001</v>
       </c>
       <c r="D207" s="15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E207" s="15">
         <v>1</v>
@@ -32377,7 +32390,7 @@
         <v>0</v>
       </c>
       <c r="AL207" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM207" s="15">
         <v>0</v>
@@ -32389,7 +32402,7 @@
         <v>70000001</v>
       </c>
       <c r="AP207" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ207" s="15"/>
       <c r="AR207" s="15">
@@ -32403,7 +32416,7 @@
         <v>73025002</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E208" s="15">
         <v>1</v>
@@ -32505,7 +32518,7 @@
         <v>0</v>
       </c>
       <c r="AL208" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM208" s="15">
         <v>0</v>
@@ -32517,7 +32530,7 @@
         <v>70000001</v>
       </c>
       <c r="AP208" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ208" s="15"/>
       <c r="AR208" s="15">
@@ -32531,7 +32544,7 @@
         <v>73025003</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E209" s="15">
         <v>3</v>
@@ -32633,7 +32646,7 @@
         <v>0</v>
       </c>
       <c r="AL209" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM209" s="15">
         <v>0.1</v>
@@ -32645,7 +32658,7 @@
         <v>70000001</v>
       </c>
       <c r="AP209" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ209" s="15"/>
       <c r="AR209" s="15">
@@ -32659,7 +32672,7 @@
         <v>73026001</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E210" s="15">
         <v>1</v>
@@ -32761,7 +32774,7 @@
         <v>0</v>
       </c>
       <c r="AL210" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM210" s="15">
         <v>0</v>
@@ -32773,7 +32786,7 @@
         <v>70000001</v>
       </c>
       <c r="AP210" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ210" s="15"/>
       <c r="AR210" s="15">
@@ -32787,7 +32800,7 @@
         <v>73026002</v>
       </c>
       <c r="D211" s="15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E211" s="15">
         <v>1</v>
@@ -32889,7 +32902,7 @@
         <v>0</v>
       </c>
       <c r="AL211" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM211" s="15">
         <v>0</v>
@@ -32901,7 +32914,7 @@
         <v>70000001</v>
       </c>
       <c r="AP211" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ211" s="15"/>
       <c r="AR211" s="15">
@@ -32915,7 +32928,7 @@
         <v>73026003</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E212" s="15">
         <v>3</v>
@@ -33017,7 +33030,7 @@
         <v>0</v>
       </c>
       <c r="AL212" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM212" s="15">
         <v>0.1</v>
@@ -33029,7 +33042,7 @@
         <v>70000001</v>
       </c>
       <c r="AP212" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ212" s="15"/>
       <c r="AR212" s="15">
@@ -33043,7 +33056,7 @@
         <v>73027001</v>
       </c>
       <c r="D213" s="15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E213" s="15">
         <v>1</v>
@@ -33145,7 +33158,7 @@
         <v>0</v>
       </c>
       <c r="AL213" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM213" s="15">
         <v>0</v>
@@ -33157,7 +33170,7 @@
         <v>70000001</v>
       </c>
       <c r="AP213" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ213" s="15"/>
       <c r="AR213" s="15">
@@ -33171,7 +33184,7 @@
         <v>73027002</v>
       </c>
       <c r="D214" s="15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E214" s="15">
         <v>1</v>
@@ -33273,7 +33286,7 @@
         <v>0</v>
       </c>
       <c r="AL214" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM214" s="15">
         <v>0</v>
@@ -33285,7 +33298,7 @@
         <v>70000001</v>
       </c>
       <c r="AP214" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ214" s="15"/>
       <c r="AR214" s="15">
@@ -33299,7 +33312,7 @@
         <v>73027003</v>
       </c>
       <c r="D215" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E215" s="15">
         <v>3</v>
@@ -33401,7 +33414,7 @@
         <v>0</v>
       </c>
       <c r="AL215" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM215" s="15">
         <v>0.1</v>
@@ -33413,7 +33426,7 @@
         <v>70000001</v>
       </c>
       <c r="AP215" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ215" s="15"/>
       <c r="AR215" s="15">
@@ -33427,7 +33440,7 @@
         <v>73028001</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E216" s="15">
         <v>1</v>
@@ -33529,7 +33542,7 @@
         <v>0</v>
       </c>
       <c r="AL216" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM216" s="15">
         <v>0.1</v>
@@ -33541,7 +33554,7 @@
         <v>70000001</v>
       </c>
       <c r="AP216" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ216" s="15"/>
       <c r="AR216" s="15">
@@ -33555,7 +33568,7 @@
         <v>73028002</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E217" s="15">
         <v>1</v>
@@ -33657,7 +33670,7 @@
         <v>0</v>
       </c>
       <c r="AL217" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM217" s="15">
         <v>0.1</v>
@@ -33669,7 +33682,7 @@
         <v>70000002</v>
       </c>
       <c r="AP217" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ217" s="15"/>
       <c r="AR217" s="15">
@@ -33683,7 +33696,7 @@
         <v>73028003</v>
       </c>
       <c r="D218" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E218" s="15">
         <v>3</v>
@@ -33785,7 +33798,7 @@
         <v>0</v>
       </c>
       <c r="AL218" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM218" s="15">
         <v>0.1</v>
@@ -33797,7 +33810,7 @@
         <v>70000002</v>
       </c>
       <c r="AP218" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ218" s="15"/>
       <c r="AR218" s="15">
@@ -33811,7 +33824,7 @@
         <v>73029001</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E219" s="15">
         <v>1</v>
@@ -33913,7 +33926,7 @@
         <v>0</v>
       </c>
       <c r="AL219" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM219" s="15">
         <v>0.1</v>
@@ -33925,7 +33938,7 @@
         <v>70000001</v>
       </c>
       <c r="AP219" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ219" s="15"/>
       <c r="AR219" s="15">
@@ -33939,7 +33952,7 @@
         <v>73029002</v>
       </c>
       <c r="D220" s="26" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E220" s="26">
         <v>1</v>
@@ -34041,7 +34054,7 @@
         <v>0</v>
       </c>
       <c r="AL220" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM220" s="26">
         <v>0.1</v>
@@ -34053,7 +34066,7 @@
         <v>70000001</v>
       </c>
       <c r="AP220" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ220" s="26"/>
       <c r="AR220" s="26">
@@ -34067,7 +34080,7 @@
         <v>73029003</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E221" s="15">
         <v>3</v>
@@ -34169,7 +34182,7 @@
         <v>0</v>
       </c>
       <c r="AL221" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM221" s="15">
         <v>0.1</v>
@@ -34181,7 +34194,7 @@
         <v>70000001</v>
       </c>
       <c r="AP221" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ221" s="15"/>
       <c r="AR221" s="15">
@@ -34195,7 +34208,7 @@
         <v>73030001</v>
       </c>
       <c r="D222" s="26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E222" s="26">
         <v>1</v>
@@ -34297,7 +34310,7 @@
         <v>0</v>
       </c>
       <c r="AL222" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM222" s="26">
         <v>0.1</v>
@@ -34309,7 +34322,7 @@
         <v>70000001</v>
       </c>
       <c r="AP222" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ222" s="26"/>
       <c r="AR222" s="26">
@@ -34323,7 +34336,7 @@
         <v>73030002</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E223" s="15">
         <v>1</v>
@@ -34425,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="AL223" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM223" s="15">
         <v>0.1</v>
@@ -34437,7 +34450,7 @@
         <v>70000002</v>
       </c>
       <c r="AP223" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ223" s="15"/>
       <c r="AR223" s="15">
@@ -34451,7 +34464,7 @@
         <v>73030003</v>
       </c>
       <c r="D224" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E224" s="15">
         <v>3</v>
@@ -34553,7 +34566,7 @@
         <v>0</v>
       </c>
       <c r="AL224" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM224" s="15">
         <v>0.1</v>
@@ -34565,7 +34578,7 @@
         <v>70000001</v>
       </c>
       <c r="AP224" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ224" s="15"/>
       <c r="AR224" s="15">
@@ -34579,7 +34592,7 @@
         <v>73031001</v>
       </c>
       <c r="D225" s="26" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E225" s="26">
         <v>1</v>
@@ -34681,7 +34694,7 @@
         <v>0</v>
       </c>
       <c r="AL225" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM225" s="26">
         <v>0.1</v>
@@ -34693,7 +34706,7 @@
         <v>70000001</v>
       </c>
       <c r="AP225" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ225" s="26"/>
       <c r="AR225" s="26">
@@ -34707,7 +34720,7 @@
         <v>73031002</v>
       </c>
       <c r="D226" s="26" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E226" s="26">
         <v>1</v>
@@ -34809,7 +34822,7 @@
         <v>0</v>
       </c>
       <c r="AL226" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM226" s="26">
         <v>0.1</v>
@@ -34821,7 +34834,7 @@
         <v>70000001</v>
       </c>
       <c r="AP226" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ226" s="26"/>
       <c r="AR226" s="26">
@@ -34835,7 +34848,7 @@
         <v>73031003</v>
       </c>
       <c r="D227" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E227" s="15">
         <v>3</v>
@@ -34937,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="AL227" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM227" s="15">
         <v>0.1</v>
@@ -34949,7 +34962,7 @@
         <v>70000001</v>
       </c>
       <c r="AP227" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ227" s="15"/>
       <c r="AR227" s="15">
@@ -34963,7 +34976,7 @@
         <v>73032001</v>
       </c>
       <c r="D228" s="26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E228" s="26">
         <v>1</v>
@@ -35065,7 +35078,7 @@
         <v>0</v>
       </c>
       <c r="AL228" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM228" s="26">
         <v>0.1</v>
@@ -35077,7 +35090,7 @@
         <v>70000001</v>
       </c>
       <c r="AP228" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ228" s="26"/>
       <c r="AR228" s="26">
@@ -35091,7 +35104,7 @@
         <v>73032002</v>
       </c>
       <c r="D229" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E229" s="15">
         <v>1</v>
@@ -35193,7 +35206,7 @@
         <v>0</v>
       </c>
       <c r="AL229" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM229" s="15">
         <v>0.1</v>
@@ -35205,7 +35218,7 @@
         <v>70000002</v>
       </c>
       <c r="AP229" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ229" s="15"/>
       <c r="AR229" s="15">
@@ -35219,7 +35232,7 @@
         <v>73032003</v>
       </c>
       <c r="D230" s="15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E230" s="15">
         <v>3</v>
@@ -35321,7 +35334,7 @@
         <v>0</v>
       </c>
       <c r="AL230" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM230" s="15">
         <v>0.1</v>
@@ -35333,7 +35346,7 @@
         <v>70000001</v>
       </c>
       <c r="AP230" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ230" s="15"/>
       <c r="AR230" s="15">
@@ -35347,7 +35360,7 @@
         <v>73033001</v>
       </c>
       <c r="D231" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E231" s="15">
         <v>1</v>
@@ -35449,7 +35462,7 @@
         <v>0</v>
       </c>
       <c r="AL231" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM231" s="15">
         <v>0</v>
@@ -35461,7 +35474,7 @@
         <v>70000001</v>
       </c>
       <c r="AP231" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ231" s="15"/>
       <c r="AR231" s="15">
@@ -35475,7 +35488,7 @@
         <v>73033002</v>
       </c>
       <c r="D232" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E232" s="15">
         <v>1</v>
@@ -35577,7 +35590,7 @@
         <v>0</v>
       </c>
       <c r="AL232" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM232" s="15">
         <v>0</v>
@@ -35589,7 +35602,7 @@
         <v>70000001</v>
       </c>
       <c r="AP232" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ232" s="15"/>
       <c r="AR232" s="15">
@@ -35603,7 +35616,7 @@
         <v>73033003</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E233" s="15">
         <v>3</v>
@@ -35705,7 +35718,7 @@
         <v>0</v>
       </c>
       <c r="AL233" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM233" s="15">
         <v>0.1</v>
@@ -35717,7 +35730,7 @@
         <v>70000001</v>
       </c>
       <c r="AP233" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ233" s="15"/>
       <c r="AR233" s="15">
@@ -35731,7 +35744,7 @@
         <v>73034001</v>
       </c>
       <c r="D234" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E234" s="15">
         <v>1</v>
@@ -35833,7 +35846,7 @@
         <v>0</v>
       </c>
       <c r="AL234" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM234" s="15">
         <v>0</v>
@@ -35845,7 +35858,7 @@
         <v>70000001</v>
       </c>
       <c r="AP234" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ234" s="15"/>
       <c r="AR234" s="15">
@@ -35859,7 +35872,7 @@
         <v>73034002</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E235" s="15">
         <v>1</v>
@@ -35961,7 +35974,7 @@
         <v>0</v>
       </c>
       <c r="AL235" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM235" s="15">
         <v>0</v>
@@ -35973,7 +35986,7 @@
         <v>70000001</v>
       </c>
       <c r="AP235" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ235" s="15"/>
       <c r="AR235" s="15">
@@ -35987,7 +36000,7 @@
         <v>73034003</v>
       </c>
       <c r="D236" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E236" s="15">
         <v>3</v>
@@ -36089,7 +36102,7 @@
         <v>0</v>
       </c>
       <c r="AL236" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM236" s="15">
         <v>0.1</v>
@@ -36101,7 +36114,7 @@
         <v>70000001</v>
       </c>
       <c r="AP236" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ236" s="15"/>
       <c r="AR236" s="15">
@@ -36115,7 +36128,7 @@
         <v>73035001</v>
       </c>
       <c r="D237" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E237" s="15">
         <v>1</v>
@@ -36217,7 +36230,7 @@
         <v>0</v>
       </c>
       <c r="AL237" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM237" s="15">
         <v>0</v>
@@ -36229,7 +36242,7 @@
         <v>70000001</v>
       </c>
       <c r="AP237" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ237" s="15"/>
       <c r="AR237" s="15">
@@ -36243,7 +36256,7 @@
         <v>73035002</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E238" s="15">
         <v>1</v>
@@ -36345,7 +36358,7 @@
         <v>0</v>
       </c>
       <c r="AL238" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM238" s="15">
         <v>0</v>
@@ -36357,7 +36370,7 @@
         <v>70000001</v>
       </c>
       <c r="AP238" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ238" s="15"/>
       <c r="AR238" s="15">
@@ -36371,7 +36384,7 @@
         <v>73035003</v>
       </c>
       <c r="D239" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E239" s="15">
         <v>3</v>
@@ -36473,7 +36486,7 @@
         <v>0</v>
       </c>
       <c r="AL239" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM239" s="15">
         <v>0.1</v>
@@ -36485,7 +36498,7 @@
         <v>70000002</v>
       </c>
       <c r="AP239" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ239" s="15"/>
       <c r="AR239" s="15">
@@ -36499,7 +36512,7 @@
         <v>80000001</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E240" s="6">
         <v>5</v>
@@ -36628,7 +36641,7 @@
         <v>80000002</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E241" s="6">
         <v>5</v>
@@ -36757,7 +36770,7 @@
         <v>80000101</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E242" s="6">
         <v>5</v>
@@ -36859,7 +36872,7 @@
         <v>0</v>
       </c>
       <c r="AL242" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AM242" s="6">
         <v>0</v>
@@ -36886,7 +36899,7 @@
         <v>80000201</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E243" s="6">
         <v>5</v>
@@ -36988,7 +37001,7 @@
         <v>0</v>
       </c>
       <c r="AL243" s="22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AM243" s="6">
         <v>0</v>
@@ -37015,7 +37028,7 @@
         <v>80000301</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E244" s="6">
         <v>5</v>
@@ -37117,7 +37130,7 @@
         <v>0</v>
       </c>
       <c r="AL244" s="22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AM244" s="6">
         <v>0</v>
@@ -37144,7 +37157,7 @@
         <v>80000401</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E245" s="6">
         <v>5</v>
@@ -37246,7 +37259,7 @@
         <v>0</v>
       </c>
       <c r="AL245" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AM245" s="6">
         <v>0</v>
@@ -37273,7 +37286,7 @@
         <v>80000501</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E246" s="6">
         <v>5</v>
@@ -37375,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="AL246" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AM246" s="6">
         <v>0</v>
@@ -37402,7 +37415,7 @@
         <v>90000001</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E247" s="6">
         <v>1</v>
@@ -37504,7 +37517,7 @@
         <v>0</v>
       </c>
       <c r="AL247" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AM247" s="6">
         <v>0</v>
@@ -37516,7 +37529,7 @@
         <v>60000331</v>
       </c>
       <c r="AP247" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AQ247" s="6"/>
       <c r="AR247" s="6">
@@ -37532,7 +37545,7 @@
         <v>90000002</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E248" s="6">
         <v>1</v>
@@ -37634,7 +37647,7 @@
         <v>0</v>
       </c>
       <c r="AL248" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AM248" s="6">
         <v>0</v>
@@ -37646,7 +37659,7 @@
         <v>70000001</v>
       </c>
       <c r="AP248" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AQ248" s="6"/>
       <c r="AR248" s="6">

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8538768B-A971-49A0-8C5E-11E40FE95F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8B5D9A-851F-41B0-9183-F25A8F527360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6109,10 +6109,10 @@
   <dimension ref="A1:AV272"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -10421,7 +10421,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6">
-        <v>70002012</v>
+        <v>70002009</v>
       </c>
       <c r="J36" s="6">
         <v>0</v>
@@ -10805,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6">
-        <v>70002009</v>
+        <v>70002012</v>
       </c>
       <c r="J39" s="6">
         <v>0</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8B5D9A-851F-41B0-9183-F25A8F527360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7357067-0531-45E7-9BCA-38FBBA8268C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -684,7 +684,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="440">
   <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -2196,6 +2196,10 @@
   <si>
     <t>70107001,70107002,70107003,70107004,70107005,70107006</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨石领主-卡布鲁</t>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6109,10 +6113,10 @@
   <dimension ref="A1:AV272"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AL63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="AL75" sqref="AL75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -7671,7 +7675,7 @@
         <v>3</v>
       </c>
       <c r="AE14" s="30">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF14" s="30">
         <v>7</v>
@@ -8183,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="AE18" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF18" s="6">
         <v>7</v>
@@ -8853,7 +8857,7 @@
         <v>1</v>
       </c>
       <c r="AO23" s="30">
-        <v>70000002</v>
+        <v>70000004</v>
       </c>
       <c r="AP23" s="32" t="s">
         <v>311</v>
@@ -8951,7 +8955,7 @@
         <v>1</v>
       </c>
       <c r="AE24" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF24" s="6">
         <v>7</v>
@@ -9335,7 +9339,7 @@
         <v>1</v>
       </c>
       <c r="AE27" s="30">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF27" s="30">
         <v>7</v>
@@ -9719,7 +9723,7 @@
         <v>3</v>
       </c>
       <c r="AE30" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF30" s="6">
         <v>7</v>
@@ -10103,7 +10107,7 @@
         <v>3</v>
       </c>
       <c r="AE33" s="27">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF33" s="27">
         <v>7</v>
@@ -10231,7 +10235,7 @@
         <v>3</v>
       </c>
       <c r="AE34" s="27">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF34" s="27">
         <v>7</v>
@@ -10790,7 +10794,7 @@
         <v>70002012</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>162</v>
+        <v>439</v>
       </c>
       <c r="E39" s="6">
         <v>3</v>
@@ -10871,7 +10875,7 @@
         <v>3</v>
       </c>
       <c r="AE39" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF39" s="6">
         <v>7</v>
@@ -11255,7 +11259,7 @@
         <v>3</v>
       </c>
       <c r="AE42" s="6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AF42" s="6">
         <v>7</v>
@@ -11332,7 +11336,7 @@
         <v>2</v>
       </c>
       <c r="N43" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O43" s="6">
         <v>2</v>
@@ -11413,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="AO43" s="6">
-        <v>70000001</v>
+        <v>70000003</v>
       </c>
       <c r="AP43" s="10" t="s">
         <v>136</v>
@@ -11460,7 +11464,7 @@
         <v>2</v>
       </c>
       <c r="N44" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O44" s="6">
         <v>2</v>
@@ -11541,7 +11545,7 @@
         <v>1</v>
       </c>
       <c r="AO44" s="6">
-        <v>70000001</v>
+        <v>70000002</v>
       </c>
       <c r="AP44" s="10" t="s">
         <v>136</v>
@@ -11639,7 +11643,7 @@
         <v>3</v>
       </c>
       <c r="AE45" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF45" s="6">
         <v>7</v>
@@ -12407,7 +12411,7 @@
         <v>3</v>
       </c>
       <c r="AE51" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF51" s="6">
         <v>7</v>
@@ -12612,7 +12616,7 @@
         <v>2</v>
       </c>
       <c r="N53" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O53" s="6">
         <v>2</v>
@@ -12693,7 +12697,7 @@
         <v>1</v>
       </c>
       <c r="AO53" s="6">
-        <v>70000001</v>
+        <v>70000003</v>
       </c>
       <c r="AP53" s="10" t="s">
         <v>136</v>
@@ -12740,7 +12744,7 @@
         <v>2</v>
       </c>
       <c r="N54" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O54" s="6">
         <v>2</v>
@@ -12821,7 +12825,7 @@
         <v>1</v>
       </c>
       <c r="AO54" s="6">
-        <v>70000001</v>
+        <v>70000002</v>
       </c>
       <c r="AP54" s="10" t="s">
         <v>136</v>
@@ -12919,7 +12923,7 @@
         <v>3</v>
       </c>
       <c r="AE55" s="6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AF55" s="6">
         <v>7</v>
@@ -13303,7 +13307,7 @@
         <v>3</v>
       </c>
       <c r="AE58" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF58" s="6">
         <v>7</v>
@@ -13687,7 +13691,7 @@
         <v>3</v>
       </c>
       <c r="AE61" s="27">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF61" s="27">
         <v>7</v>
@@ -14199,7 +14203,7 @@
         <v>3</v>
       </c>
       <c r="AE65" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF65" s="6">
         <v>7</v>
@@ -14967,7 +14971,7 @@
         <v>3</v>
       </c>
       <c r="AE71" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF71" s="6">
         <v>7</v>
@@ -15095,7 +15099,7 @@
         <v>3</v>
       </c>
       <c r="AE72" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF72" s="6">
         <v>7</v>
@@ -15863,7 +15867,7 @@
         <v>3</v>
       </c>
       <c r="AE78" s="18">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF78" s="18">
         <v>7</v>
@@ -16119,7 +16123,7 @@
         <v>3</v>
       </c>
       <c r="AE80" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF80" s="6">
         <v>7</v>
@@ -16247,7 +16251,7 @@
         <v>3</v>
       </c>
       <c r="AE81" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF81" s="6">
         <v>50</v>
@@ -16375,7 +16379,7 @@
         <v>3</v>
       </c>
       <c r="AE82" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF82" s="6">
         <v>50</v>
@@ -16503,7 +16507,7 @@
         <v>3</v>
       </c>
       <c r="AE83" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF83" s="6">
         <v>50</v>
@@ -16631,7 +16635,7 @@
         <v>3</v>
       </c>
       <c r="AE84" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF84" s="6">
         <v>50</v>
@@ -16759,7 +16763,7 @@
         <v>3</v>
       </c>
       <c r="AE85" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF85" s="6">
         <v>50</v>
@@ -16887,7 +16891,7 @@
         <v>3</v>
       </c>
       <c r="AE86" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF86" s="6">
         <v>50</v>
@@ -17015,7 +17019,7 @@
         <v>3</v>
       </c>
       <c r="AE87" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF87" s="6">
         <v>50</v>
@@ -17143,7 +17147,7 @@
         <v>3</v>
       </c>
       <c r="AE88" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF88" s="6">
         <v>50</v>
@@ -17399,7 +17403,7 @@
         <v>3</v>
       </c>
       <c r="AE90" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF90" s="6">
         <v>50</v>
@@ -17527,7 +17531,7 @@
         <v>3</v>
       </c>
       <c r="AE91" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF91" s="6">
         <v>50</v>
@@ -17655,7 +17659,7 @@
         <v>3</v>
       </c>
       <c r="AE92" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF92" s="6">
         <v>50</v>
@@ -17783,7 +17787,7 @@
         <v>3</v>
       </c>
       <c r="AE93" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF93" s="6">
         <v>50</v>
@@ -17911,7 +17915,7 @@
         <v>3</v>
       </c>
       <c r="AE94" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF94" s="6">
         <v>50</v>
@@ -18039,7 +18043,7 @@
         <v>3</v>
       </c>
       <c r="AE95" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF95" s="6">
         <v>50</v>
@@ -18167,7 +18171,7 @@
         <v>3</v>
       </c>
       <c r="AE96" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF96" s="6">
         <v>50</v>
@@ -18295,7 +18299,7 @@
         <v>3</v>
       </c>
       <c r="AE97" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF97" s="6">
         <v>50</v>
@@ -18423,7 +18427,7 @@
         <v>3</v>
       </c>
       <c r="AE98" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF98" s="6">
         <v>50</v>
@@ -18679,7 +18683,7 @@
         <v>3</v>
       </c>
       <c r="AE100" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF100" s="6">
         <v>7</v>
@@ -18807,7 +18811,7 @@
         <v>3</v>
       </c>
       <c r="AE101" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF101" s="6">
         <v>7</v>
@@ -18935,7 +18939,7 @@
         <v>3</v>
       </c>
       <c r="AE102" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF102" s="6">
         <v>7</v>
@@ -19063,7 +19067,7 @@
         <v>3</v>
       </c>
       <c r="AE103" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF103" s="6">
         <v>7</v>
@@ -19575,7 +19579,7 @@
         <v>3</v>
       </c>
       <c r="AE107" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF107" s="6">
         <v>7</v>
@@ -19703,7 +19707,7 @@
         <v>3</v>
       </c>
       <c r="AE108" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF108" s="6">
         <v>7</v>
@@ -19831,7 +19835,7 @@
         <v>3</v>
       </c>
       <c r="AE109" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF109" s="6">
         <v>7</v>
@@ -19959,7 +19963,7 @@
         <v>3</v>
       </c>
       <c r="AE110" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF110" s="6">
         <v>7</v>
@@ -20087,7 +20091,7 @@
         <v>3</v>
       </c>
       <c r="AE111" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF111" s="6">
         <v>7</v>
@@ -20599,7 +20603,7 @@
         <v>3</v>
       </c>
       <c r="AE115" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF115" s="6">
         <v>7</v>
@@ -20727,7 +20731,7 @@
         <v>3</v>
       </c>
       <c r="AE116" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF116" s="6">
         <v>7</v>
@@ -20855,7 +20859,7 @@
         <v>3</v>
       </c>
       <c r="AE117" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF117" s="6">
         <v>7</v>
@@ -20983,7 +20987,7 @@
         <v>3</v>
       </c>
       <c r="AE118" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF118" s="6">
         <v>7</v>
@@ -21111,7 +21115,7 @@
         <v>3</v>
       </c>
       <c r="AE119" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF119" s="6">
         <v>7</v>
@@ -21623,7 +21627,7 @@
         <v>3</v>
       </c>
       <c r="AE123" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF123" s="6">
         <v>7</v>
@@ -21751,7 +21755,7 @@
         <v>3</v>
       </c>
       <c r="AE124" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF124" s="6">
         <v>7</v>
@@ -21879,7 +21883,7 @@
         <v>3</v>
       </c>
       <c r="AE125" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF125" s="6">
         <v>7</v>
@@ -22007,7 +22011,7 @@
         <v>3</v>
       </c>
       <c r="AE126" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF126" s="6">
         <v>7</v>
@@ -22519,7 +22523,7 @@
         <v>3</v>
       </c>
       <c r="AE130" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF130" s="6">
         <v>50</v>
@@ -22647,7 +22651,7 @@
         <v>3</v>
       </c>
       <c r="AE131" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF131" s="6">
         <v>50</v>
@@ -24839,7 +24843,7 @@
         <v>3</v>
       </c>
       <c r="AE148" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF148" s="15">
         <v>7</v>
@@ -25223,7 +25227,7 @@
         <v>1</v>
       </c>
       <c r="AE151" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF151" s="15">
         <v>7</v>
@@ -25607,7 +25611,7 @@
         <v>1</v>
       </c>
       <c r="AE154" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF154" s="15">
         <v>7</v>
@@ -25991,7 +25995,7 @@
         <v>1</v>
       </c>
       <c r="AE157" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF157" s="15">
         <v>7</v>
@@ -26375,7 +26379,7 @@
         <v>3</v>
       </c>
       <c r="AE160" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF160" s="15">
         <v>7</v>
@@ -26759,7 +26763,7 @@
         <v>3</v>
       </c>
       <c r="AE163" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF163" s="15">
         <v>7</v>
@@ -27143,7 +27147,7 @@
         <v>3</v>
       </c>
       <c r="AE166" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF166" s="15">
         <v>7</v>
@@ -27271,7 +27275,7 @@
         <v>3</v>
       </c>
       <c r="AE167" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF167" s="15">
         <v>7</v>
@@ -27399,7 +27403,7 @@
         <v>3</v>
       </c>
       <c r="AE168" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF168" s="15">
         <v>7</v>
@@ -27655,7 +27659,7 @@
         <v>3</v>
       </c>
       <c r="AE170" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF170" s="15">
         <v>7</v>
@@ -27783,7 +27787,7 @@
         <v>3</v>
       </c>
       <c r="AE171" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF171" s="15">
         <v>7</v>
@@ -28039,7 +28043,7 @@
         <v>3</v>
       </c>
       <c r="AE173" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF173" s="15">
         <v>7</v>
@@ -28167,7 +28171,7 @@
         <v>3</v>
       </c>
       <c r="AE174" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF174" s="15">
         <v>7</v>
@@ -29063,7 +29067,7 @@
         <v>3</v>
       </c>
       <c r="AE181" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF181" s="15">
         <v>7</v>
@@ -29447,7 +29451,7 @@
         <v>3</v>
       </c>
       <c r="AE184" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF184" s="15">
         <v>7</v>
@@ -29959,7 +29963,7 @@
         <v>3</v>
       </c>
       <c r="AE188" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF188" s="15">
         <v>7</v>
@@ -30087,7 +30091,7 @@
         <v>3</v>
       </c>
       <c r="AE189" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF189" s="15">
         <v>7</v>
@@ -30343,7 +30347,7 @@
         <v>3</v>
       </c>
       <c r="AE191" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF191" s="15">
         <v>7</v>
@@ -30471,7 +30475,7 @@
         <v>3</v>
       </c>
       <c r="AE192" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF192" s="15">
         <v>7</v>
@@ -30727,7 +30731,7 @@
         <v>3</v>
       </c>
       <c r="AE194" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF194" s="15">
         <v>7</v>
@@ -30855,7 +30859,7 @@
         <v>3</v>
       </c>
       <c r="AE195" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF195" s="15">
         <v>7</v>
@@ -31367,7 +31371,7 @@
         <v>3</v>
       </c>
       <c r="AE199" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF199" s="15">
         <v>7</v>
@@ -31751,7 +31755,7 @@
         <v>3</v>
       </c>
       <c r="AE202" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF202" s="15">
         <v>7</v>
@@ -32135,7 +32139,7 @@
         <v>3</v>
       </c>
       <c r="AE205" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF205" s="15">
         <v>7</v>
@@ -32647,7 +32651,7 @@
         <v>3</v>
       </c>
       <c r="AE209" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF209" s="15">
         <v>7</v>
@@ -32775,7 +32779,7 @@
         <v>3</v>
       </c>
       <c r="AE210" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF210" s="15">
         <v>7</v>
@@ -33031,7 +33035,7 @@
         <v>3</v>
       </c>
       <c r="AE212" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF212" s="15">
         <v>7</v>
@@ -33159,7 +33163,7 @@
         <v>3</v>
       </c>
       <c r="AE213" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF213" s="15">
         <v>7</v>
@@ -33415,7 +33419,7 @@
         <v>3</v>
       </c>
       <c r="AE215" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF215" s="15">
         <v>7</v>
@@ -33543,7 +33547,7 @@
         <v>3</v>
       </c>
       <c r="AE216" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF216" s="15">
         <v>7</v>
@@ -34055,7 +34059,7 @@
         <v>3</v>
       </c>
       <c r="AE220" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF220" s="15">
         <v>7</v>
@@ -34439,7 +34443,7 @@
         <v>3</v>
       </c>
       <c r="AE223" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF223" s="15">
         <v>7</v>
@@ -34823,7 +34827,7 @@
         <v>3</v>
       </c>
       <c r="AE226" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF226" s="15">
         <v>7</v>
@@ -35591,7 +35595,7 @@
         <v>3</v>
       </c>
       <c r="AE232" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF232" s="15">
         <v>7</v>
@@ -35719,7 +35723,7 @@
         <v>3</v>
       </c>
       <c r="AE233" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF233" s="15">
         <v>7</v>
@@ -35847,7 +35851,7 @@
         <v>3</v>
       </c>
       <c r="AE234" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF234" s="15">
         <v>7</v>
@@ -36103,7 +36107,7 @@
         <v>3</v>
       </c>
       <c r="AE236" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF236" s="15">
         <v>7</v>
@@ -36231,7 +36235,7 @@
         <v>3</v>
       </c>
       <c r="AE237" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF237" s="15">
         <v>7</v>
@@ -36487,7 +36491,7 @@
         <v>3</v>
       </c>
       <c r="AE239" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF239" s="15">
         <v>7</v>
@@ -36615,7 +36619,7 @@
         <v>3</v>
       </c>
       <c r="AE240" s="15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF240" s="15">
         <v>7</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7357067-0531-45E7-9BCA-38FBBA8268C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8ADFB9-847A-4A57-AA07-CA9B715B7496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -684,7 +684,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="442">
   <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1187,9 +1187,6 @@
     <t>62001301,62001302,62001303,62001304,62001305</t>
   </si>
   <si>
-    <t>62002001,62002002,62002003</t>
-  </si>
-  <si>
     <t>62002101,62002102,62002103,62002104</t>
   </si>
   <si>
@@ -2199,6 +2196,18 @@
   </si>
   <si>
     <t>巨石领主-卡布鲁</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>70304002,70304003,70304004,70304005,70304006,70304007</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>62002001,62002002,62002003,62002004,62002005</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>62002201,62002202,62002203,62002204,62002205,62002206,62002207,62002208,62002209,62002210,62002211,62002212,62002213</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -6113,10 +6122,10 @@
   <dimension ref="A1:AV272"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AL63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AM37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL75" sqref="AL75"/>
+      <selection pane="bottomRight" activeCell="AP51" sqref="AP51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -6267,7 +6276,7 @@
         <v>59</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AL3" s="2" t="s">
         <v>60</v>
@@ -6294,7 +6303,7 @@
         <v>82</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="3:46" ht="20.100000000000001" customHeight="1">
@@ -6401,7 +6410,7 @@
         <v>25</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL4" s="3" t="s">
         <v>26</v>
@@ -6428,7 +6437,7 @@
         <v>83</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="3:46" ht="20.100000000000001" customHeight="1">
@@ -6672,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AM6" s="6">
         <v>0.1</v>
@@ -6800,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="AL7" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AM7" s="6">
         <v>0.1</v>
@@ -6928,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AM8" s="6">
         <v>0.1</v>
@@ -7056,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="AL9" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AM9" s="6">
         <v>0.5</v>
@@ -7068,7 +7077,7 @@
         <v>70000001</v>
       </c>
       <c r="AP9" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AQ9" s="6"/>
       <c r="AR9" s="6">
@@ -7184,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AM10" s="6">
         <v>0.1</v>
@@ -7312,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM11" s="6">
         <v>0.1</v>
@@ -7338,7 +7347,7 @@
         <v>70001007</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" s="27">
         <v>1</v>
@@ -7440,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM12" s="27">
         <v>0.1</v>
@@ -7452,7 +7461,7 @@
         <v>70000001</v>
       </c>
       <c r="AP12" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AQ12" s="27"/>
       <c r="AR12" s="27">
@@ -7568,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM13" s="6">
         <v>0.1</v>
@@ -7594,7 +7603,7 @@
         <v>70001011</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E14" s="30">
         <v>3</v>
@@ -7696,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AM14" s="30">
         <v>0.1</v>
@@ -7708,7 +7717,7 @@
         <v>70000001</v>
       </c>
       <c r="AP14" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AQ14" s="30"/>
       <c r="AR14" s="30">
@@ -7824,7 +7833,7 @@
         <v>0</v>
       </c>
       <c r="AL15" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM15" s="6">
         <v>0.1</v>
@@ -7836,7 +7845,7 @@
         <v>70000001</v>
       </c>
       <c r="AP15" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AQ15" s="6"/>
       <c r="AR15" s="6">
@@ -7850,7 +7859,7 @@
         <v>70001102</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E16" s="27">
         <v>1</v>
@@ -7952,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AM16" s="27">
         <v>0.1</v>
@@ -7978,7 +7987,7 @@
         <v>70001103</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E17" s="27">
         <v>1</v>
@@ -8080,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="AL17" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AM17" s="27">
         <v>0.1</v>
@@ -8208,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AM18" s="6">
         <v>0.5</v>
@@ -8220,7 +8229,7 @@
         <v>70000001</v>
       </c>
       <c r="AP18" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AQ18" s="6"/>
       <c r="AR18" s="6">
@@ -8234,7 +8243,7 @@
         <v>70001201</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E19" s="30">
         <v>1</v>
@@ -8336,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="AL19" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM19" s="30">
         <v>0.1</v>
@@ -8362,7 +8371,7 @@
         <v>70001202</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E20" s="30">
         <v>1</v>
@@ -8464,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM20" s="30">
         <v>0.1</v>
@@ -8490,7 +8499,7 @@
         <v>70001203</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E21" s="27">
         <v>1</v>
@@ -8592,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="AL21" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM21" s="27">
         <v>0.1</v>
@@ -8618,7 +8627,7 @@
         <v>70001204</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E22" s="27">
         <v>1</v>
@@ -8720,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM22" s="27">
         <v>0.1</v>
@@ -8746,7 +8755,7 @@
         <v>70001205</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E23" s="30">
         <v>1</v>
@@ -8848,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM23" s="30">
         <v>0.1</v>
@@ -8860,7 +8869,7 @@
         <v>70000004</v>
       </c>
       <c r="AP23" s="32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AQ23" s="30"/>
       <c r="AR23" s="30">
@@ -8874,7 +8883,7 @@
         <v>70001206</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E24" s="6">
         <v>3</v>
@@ -8976,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AM24" s="6">
         <v>0.1</v>
@@ -8988,7 +8997,7 @@
         <v>70000001</v>
       </c>
       <c r="AP24" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AQ24" s="6"/>
       <c r="AR24" s="6">
@@ -9002,7 +9011,7 @@
         <v>70001207</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E25" s="30">
         <v>1</v>
@@ -9104,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AM25" s="30">
         <v>0.1</v>
@@ -9130,7 +9139,7 @@
         <v>70001208</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E26" s="30">
         <v>1</v>
@@ -9232,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="AL26" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AM26" s="30">
         <v>0.1</v>
@@ -9258,7 +9267,7 @@
         <v>70001209</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E27" s="30">
         <v>3</v>
@@ -9360,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM27" s="30">
         <v>0.5</v>
@@ -9372,7 +9381,7 @@
         <v>70000001</v>
       </c>
       <c r="AP27" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AQ27" s="30"/>
       <c r="AR27" s="30">
@@ -9488,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AM28" s="6">
         <v>0.1</v>
@@ -9616,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AM29" s="6">
         <v>0.1</v>
@@ -9744,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="AL30" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM30" s="6">
         <v>0.5</v>
@@ -9756,7 +9765,7 @@
         <v>70000001</v>
       </c>
       <c r="AP30" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AQ30" s="6"/>
       <c r="AR30" s="6">
@@ -9770,7 +9779,7 @@
         <v>70002004</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E31" s="27">
         <v>1</v>
@@ -9872,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="AL31" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AM31" s="27">
         <v>0.1</v>
@@ -9898,7 +9907,7 @@
         <v>70002005</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E32" s="6">
         <v>1</v>
@@ -10000,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="AL32" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AM32" s="6">
         <v>0.1</v>
@@ -10026,7 +10035,7 @@
         <v>70002006</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E33" s="27">
         <v>3</v>
@@ -10128,7 +10137,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM33" s="27">
         <v>0</v>
@@ -10154,7 +10163,7 @@
         <v>70002007</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E34" s="27">
         <v>3</v>
@@ -10256,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="AL34" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AM34" s="27">
         <v>0.5</v>
@@ -10268,7 +10277,7 @@
         <v>70000002</v>
       </c>
       <c r="AP34" s="36" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AQ34" s="27"/>
       <c r="AR34" s="27">
@@ -10384,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="AL35" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AM35" s="6">
         <v>0.1</v>
@@ -10410,7 +10419,7 @@
         <v>70002009</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E36" s="6">
         <v>1</v>
@@ -10512,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM36" s="6">
         <v>0.1</v>
@@ -10538,7 +10547,7 @@
         <v>70002010</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E37" s="27">
         <v>1</v>
@@ -10640,7 +10649,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AM37" s="27">
         <v>0.1</v>
@@ -10666,7 +10675,7 @@
         <v>70002011</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E38" s="6">
         <v>1</v>
@@ -10768,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="AL38" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AM38" s="6">
         <v>0.1</v>
@@ -10794,7 +10803,7 @@
         <v>70002012</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E39" s="6">
         <v>3</v>
@@ -10896,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="AL39" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM39" s="6">
         <v>0.5</v>
@@ -10908,7 +10917,7 @@
         <v>70000001</v>
       </c>
       <c r="AP39" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ39" s="6"/>
       <c r="AR39" s="6">
@@ -11024,7 +11033,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AM40" s="6">
         <v>0.1</v>
@@ -11152,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="AL41" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM41" s="6">
         <v>0.1</v>
@@ -11280,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="AL42" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AM42" s="6">
         <v>0.1</v>
@@ -11292,7 +11301,7 @@
         <v>70000001</v>
       </c>
       <c r="AP42" s="10" t="s">
-        <v>142</v>
+        <v>440</v>
       </c>
       <c r="AQ42" s="6"/>
       <c r="AR42" s="6">
@@ -11408,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="AL43" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AM43" s="6">
         <v>0.1</v>
@@ -11434,7 +11443,7 @@
         <v>70003005</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E44" s="6">
         <v>1</v>
@@ -11536,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="AL44" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AM44" s="6">
         <v>0.1</v>
@@ -11664,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="AL45" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AM45" s="6">
         <v>0.1</v>
@@ -11676,7 +11685,7 @@
         <v>70000001</v>
       </c>
       <c r="AP45" s="10" t="s">
-        <v>143</v>
+        <v>439</v>
       </c>
       <c r="AQ45" s="6"/>
       <c r="AR45" s="6">
@@ -11792,7 +11801,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AM46" s="6">
         <v>0.1</v>
@@ -11920,7 +11929,7 @@
         <v>0</v>
       </c>
       <c r="AL47" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM47" s="6">
         <v>0.1</v>
@@ -12048,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="AL48" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AM48" s="6">
         <v>0.1</v>
@@ -12176,7 +12185,7 @@
         <v>0</v>
       </c>
       <c r="AL49" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM49" s="6">
         <v>0.1</v>
@@ -12202,7 +12211,7 @@
         <v>70003011</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E50" s="27">
         <v>1</v>
@@ -12304,7 +12313,7 @@
         <v>0</v>
       </c>
       <c r="AL50" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AM50" s="27">
         <v>0.1</v>
@@ -12432,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="AL51" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AM51" s="6">
         <v>0.1</v>
@@ -12444,7 +12453,7 @@
         <v>70000001</v>
       </c>
       <c r="AP51" s="10" t="s">
-        <v>144</v>
+        <v>441</v>
       </c>
       <c r="AQ51" s="6"/>
       <c r="AR51" s="6">
@@ -12458,7 +12467,7 @@
         <v>70003013</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E52" s="27">
         <v>1</v>
@@ -12560,7 +12569,7 @@
         <v>0</v>
       </c>
       <c r="AL52" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AM52" s="27">
         <v>0.1</v>
@@ -12688,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="AL53" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AM53" s="6">
         <v>0.1</v>
@@ -12714,7 +12723,7 @@
         <v>70003015</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
@@ -12816,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="AL54" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AM54" s="6">
         <v>0.1</v>
@@ -12944,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="AL55" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AM55" s="6">
         <v>0.1</v>
@@ -12956,7 +12965,7 @@
         <v>70000001</v>
       </c>
       <c r="AP55" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AQ55" s="6"/>
       <c r="AR55" s="6">
@@ -13072,7 +13081,7 @@
         <v>0</v>
       </c>
       <c r="AL56" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AM56" s="27">
         <v>0.1</v>
@@ -13098,7 +13107,7 @@
         <v>70004002</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E57" s="27">
         <v>1</v>
@@ -13200,7 +13209,7 @@
         <v>0</v>
       </c>
       <c r="AL57" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AM57" s="27">
         <v>0.1</v>
@@ -13328,7 +13337,7 @@
         <v>0</v>
       </c>
       <c r="AL58" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM58" s="6">
         <v>0.1</v>
@@ -13340,7 +13349,7 @@
         <v>70000001</v>
       </c>
       <c r="AP58" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AQ58" s="6"/>
       <c r="AR58" s="6">
@@ -13456,7 +13465,7 @@
         <v>0</v>
       </c>
       <c r="AL59" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AM59" s="27">
         <v>0.1</v>
@@ -13482,7 +13491,7 @@
         <v>70004005</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E60" s="27">
         <v>1</v>
@@ -13584,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="AL60" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AM60" s="27">
         <v>0.1</v>
@@ -13610,7 +13619,7 @@
         <v>70004006</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E61" s="27">
         <v>3</v>
@@ -13712,7 +13721,7 @@
         <v>0</v>
       </c>
       <c r="AL61" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AM61" s="27">
         <v>0.1</v>
@@ -13724,7 +13733,7 @@
         <v>70000001</v>
       </c>
       <c r="AP61" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AQ61" s="27"/>
       <c r="AR61" s="27">
@@ -13738,7 +13747,7 @@
         <v>70004007</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E62" s="6">
         <v>1</v>
@@ -13840,7 +13849,7 @@
         <v>0</v>
       </c>
       <c r="AL62" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM62" s="6">
         <v>0.1</v>
@@ -13866,7 +13875,7 @@
         <v>70004008</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
@@ -13968,7 +13977,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AM63" s="6">
         <v>0.1</v>
@@ -14096,7 +14105,7 @@
         <v>0</v>
       </c>
       <c r="AL64" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AM64" s="6">
         <v>0.1</v>
@@ -14224,7 +14233,7 @@
         <v>0</v>
       </c>
       <c r="AL65" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AM65" s="6">
         <v>0.1</v>
@@ -14236,7 +14245,7 @@
         <v>70000001</v>
       </c>
       <c r="AP65" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AQ65" s="6"/>
       <c r="AR65" s="6">
@@ -14250,7 +14259,7 @@
         <v>70004011</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E66" s="6">
         <v>1</v>
@@ -14352,7 +14361,7 @@
         <v>0</v>
       </c>
       <c r="AL66" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AM66" s="6">
         <v>0.1</v>
@@ -14378,7 +14387,7 @@
         <v>70004012</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E67" s="6">
         <v>1</v>
@@ -14480,7 +14489,7 @@
         <v>0</v>
       </c>
       <c r="AL67" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AM67" s="6">
         <v>0.1</v>
@@ -14608,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="AL68" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AM68" s="27">
         <v>0.1</v>
@@ -14620,7 +14629,7 @@
         <v>70000001</v>
       </c>
       <c r="AP68" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AQ68" s="27"/>
       <c r="AR68" s="27">
@@ -14736,7 +14745,7 @@
         <v>0</v>
       </c>
       <c r="AL69" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AM69" s="6">
         <v>0.1</v>
@@ -14762,7 +14771,7 @@
         <v>70005002</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E70" s="6">
         <v>1</v>
@@ -14864,7 +14873,7 @@
         <v>0</v>
       </c>
       <c r="AL70" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AM70" s="6">
         <v>0.1</v>
@@ -14876,7 +14885,7 @@
         <v>70000002</v>
       </c>
       <c r="AP70" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AQ70" s="6"/>
       <c r="AR70" s="6">
@@ -14992,7 +15001,7 @@
         <v>0</v>
       </c>
       <c r="AL71" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AM71" s="6">
         <v>0.1</v>
@@ -15004,7 +15013,7 @@
         <v>70000002</v>
       </c>
       <c r="AP71" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AQ71" s="6"/>
       <c r="AR71" s="6">
@@ -15018,7 +15027,7 @@
         <v>70005004</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E72" s="6">
         <v>3</v>
@@ -15120,7 +15129,7 @@
         <v>0</v>
       </c>
       <c r="AL72" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM72" s="6">
         <v>0.1</v>
@@ -15132,7 +15141,7 @@
         <v>70000001</v>
       </c>
       <c r="AP72" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AQ72" s="6"/>
       <c r="AR72" s="6">
@@ -15146,7 +15155,7 @@
         <v>70005006</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E73" s="6">
         <v>1</v>
@@ -15248,7 +15257,7 @@
         <v>0</v>
       </c>
       <c r="AL73" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AM73" s="6">
         <v>0.1</v>
@@ -15274,7 +15283,7 @@
         <v>70005007</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E74" s="27">
         <v>1</v>
@@ -15376,7 +15385,7 @@
         <v>0</v>
       </c>
       <c r="AL74" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AM74" s="27">
         <v>0.1</v>
@@ -15402,7 +15411,7 @@
         <v>70005008</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E75" s="27">
         <v>1</v>
@@ -15504,7 +15513,7 @@
         <v>0</v>
       </c>
       <c r="AL75" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AM75" s="27">
         <v>0.1</v>
@@ -15530,7 +15539,7 @@
         <v>70005009</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E76" s="27">
         <v>1</v>
@@ -15632,7 +15641,7 @@
         <v>0</v>
       </c>
       <c r="AL76" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AM76" s="27">
         <v>0.1</v>
@@ -15658,7 +15667,7 @@
         <v>70005010</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
@@ -15760,7 +15769,7 @@
         <v>0</v>
       </c>
       <c r="AL77" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AM77" s="6">
         <v>0.1</v>
@@ -15772,7 +15781,7 @@
         <v>70000002</v>
       </c>
       <c r="AP77" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AQ77" s="6"/>
       <c r="AR77" s="6">
@@ -15888,7 +15897,7 @@
         <v>0</v>
       </c>
       <c r="AL78" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AM78" s="18">
         <v>0.1</v>
@@ -15914,7 +15923,7 @@
         <v>70005012</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E79" s="6">
         <v>3</v>
@@ -16016,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="AL79" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM79" s="6">
         <v>0.1</v>
@@ -16028,7 +16037,7 @@
         <v>70000001</v>
       </c>
       <c r="AP79" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AQ79" s="6"/>
       <c r="AR79" s="6">
@@ -16144,7 +16153,7 @@
         <v>0</v>
       </c>
       <c r="AL80" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM80" s="6">
         <v>0.1</v>
@@ -16156,7 +16165,7 @@
         <v>70000001</v>
       </c>
       <c r="AP80" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AQ80" s="6"/>
       <c r="AR80" s="6">
@@ -16298,7 +16307,7 @@
         <v>70009002</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E82" s="6">
         <v>1</v>
@@ -16426,7 +16435,7 @@
         <v>70009003</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E83" s="6">
         <v>1</v>
@@ -16554,7 +16563,7 @@
         <v>70009004</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E84" s="6">
         <v>1</v>
@@ -16682,7 +16691,7 @@
         <v>70009005</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E85" s="6">
         <v>1</v>
@@ -16810,7 +16819,7 @@
         <v>70009006</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E86" s="6">
         <v>1</v>
@@ -16912,7 +16921,7 @@
         <v>0</v>
       </c>
       <c r="AL86" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AM86" s="6">
         <v>0</v>
@@ -16953,7 +16962,7 @@
         <v>0</v>
       </c>
       <c r="I87" s="6">
-        <v>70009301</v>
+        <v>70003001</v>
       </c>
       <c r="J87" s="6">
         <v>0</v>
@@ -17308,7 +17317,7 @@
         <v>70000001</v>
       </c>
       <c r="AP89" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ89" s="6"/>
       <c r="AR89" s="6">
@@ -17706,7 +17715,7 @@
         <v>70009404</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E93" s="6">
         <v>1</v>
@@ -17820,7 +17829,7 @@
         <v>70000002</v>
       </c>
       <c r="AP93" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AQ93" s="6"/>
       <c r="AR93" s="6">
@@ -17834,7 +17843,7 @@
         <v>70009410</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E94" s="6">
         <v>1</v>
@@ -18090,7 +18099,7 @@
         <v>70009502</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E96" s="6">
         <v>1</v>
@@ -18332,7 +18341,7 @@
         <v>70000001</v>
       </c>
       <c r="AP97" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AQ97" s="6"/>
       <c r="AR97" s="6">
@@ -18460,7 +18469,7 @@
         <v>70000001</v>
       </c>
       <c r="AP98" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AQ98" s="6"/>
       <c r="AR98" s="6">
@@ -18602,7 +18611,7 @@
         <v>72001001</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E100" s="6">
         <v>1</v>
@@ -18704,7 +18713,7 @@
         <v>0</v>
       </c>
       <c r="AL100" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM100" s="6">
         <v>0</v>
@@ -18730,7 +18739,7 @@
         <v>72001002</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E101" s="6">
         <v>1</v>
@@ -18832,7 +18841,7 @@
         <v>0</v>
       </c>
       <c r="AL101" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AM101" s="6">
         <v>0</v>
@@ -18858,7 +18867,7 @@
         <v>72001003</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E102" s="6">
         <v>1</v>
@@ -18960,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="AL102" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AM102" s="6">
         <v>0</v>
@@ -18986,7 +18995,7 @@
         <v>72001004</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E103" s="6">
         <v>1</v>
@@ -19088,7 +19097,7 @@
         <v>0</v>
       </c>
       <c r="AL103" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AM103" s="6">
         <v>0</v>
@@ -19114,7 +19123,7 @@
         <v>72001011</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E104" s="6">
         <v>3</v>
@@ -19216,7 +19225,7 @@
         <v>0</v>
       </c>
       <c r="AL104" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AM104" s="6">
         <v>0.1</v>
@@ -19242,7 +19251,7 @@
         <v>72001012</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="6">
         <v>3</v>
@@ -19344,7 +19353,7 @@
         <v>0</v>
       </c>
       <c r="AL105" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AM105" s="6">
         <v>0.1</v>
@@ -19370,7 +19379,7 @@
         <v>72001013</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E106" s="6">
         <v>3</v>
@@ -19472,7 +19481,7 @@
         <v>0</v>
       </c>
       <c r="AL106" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AM106" s="6">
         <v>0.1</v>
@@ -19484,7 +19493,7 @@
         <v>70000001</v>
       </c>
       <c r="AP106" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AQ106" s="6"/>
       <c r="AR106" s="6">
@@ -19498,7 +19507,7 @@
         <v>72002001</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E107" s="6">
         <v>1</v>
@@ -19600,7 +19609,7 @@
         <v>0</v>
       </c>
       <c r="AL107" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AM107" s="6">
         <v>0</v>
@@ -19626,7 +19635,7 @@
         <v>72002002</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E108" s="6">
         <v>1</v>
@@ -19728,7 +19737,7 @@
         <v>0</v>
       </c>
       <c r="AL108" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AM108" s="6">
         <v>0</v>
@@ -19754,7 +19763,7 @@
         <v>72002003</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E109" s="6">
         <v>1</v>
@@ -19856,7 +19865,7 @@
         <v>0</v>
       </c>
       <c r="AL109" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AM109" s="6">
         <v>0</v>
@@ -19882,7 +19891,7 @@
         <v>72002004</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E110" s="6">
         <v>1</v>
@@ -19984,7 +19993,7 @@
         <v>0</v>
       </c>
       <c r="AL110" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM110" s="6">
         <v>0</v>
@@ -20010,7 +20019,7 @@
         <v>72002005</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E111" s="6">
         <v>1</v>
@@ -20112,7 +20121,7 @@
         <v>0</v>
       </c>
       <c r="AL111" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AM111" s="6">
         <v>0</v>
@@ -20138,7 +20147,7 @@
         <v>72002011</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E112" s="6">
         <v>3</v>
@@ -20240,7 +20249,7 @@
         <v>0</v>
       </c>
       <c r="AL112" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AM112" s="6">
         <v>0.1</v>
@@ -20252,7 +20261,7 @@
         <v>70000001</v>
       </c>
       <c r="AP112" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AQ112" s="6"/>
       <c r="AR112" s="6">
@@ -20266,7 +20275,7 @@
         <v>72002012</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E113" s="6">
         <v>3</v>
@@ -20368,7 +20377,7 @@
         <v>0</v>
       </c>
       <c r="AL113" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AM113" s="6">
         <v>0.1</v>
@@ -20394,7 +20403,7 @@
         <v>72002013</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E114" s="6">
         <v>3</v>
@@ -20496,7 +20505,7 @@
         <v>0</v>
       </c>
       <c r="AL114" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AM114" s="6">
         <v>0.1</v>
@@ -20508,7 +20517,7 @@
         <v>70000001</v>
       </c>
       <c r="AP114" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AQ114" s="6"/>
       <c r="AR114" s="6">
@@ -20522,7 +20531,7 @@
         <v>72003001</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E115" s="6">
         <v>1</v>
@@ -20624,7 +20633,7 @@
         <v>0</v>
       </c>
       <c r="AL115" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AM115" s="6">
         <v>0</v>
@@ -20650,7 +20659,7 @@
         <v>72003002</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E116" s="6">
         <v>1</v>
@@ -20752,7 +20761,7 @@
         <v>0</v>
       </c>
       <c r="AL116" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AM116" s="6">
         <v>0</v>
@@ -20778,7 +20787,7 @@
         <v>72003003</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E117" s="6">
         <v>1</v>
@@ -20880,7 +20889,7 @@
         <v>0</v>
       </c>
       <c r="AL117" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AM117" s="6">
         <v>0</v>
@@ -20906,7 +20915,7 @@
         <v>72003004</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E118" s="6">
         <v>1</v>
@@ -21008,7 +21017,7 @@
         <v>0</v>
       </c>
       <c r="AL118" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AM118" s="6">
         <v>0</v>
@@ -21034,7 +21043,7 @@
         <v>72003005</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E119" s="6">
         <v>1</v>
@@ -21136,7 +21145,7 @@
         <v>0</v>
       </c>
       <c r="AL119" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AM119" s="6">
         <v>0</v>
@@ -21162,7 +21171,7 @@
         <v>72003011</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E120" s="6">
         <v>3</v>
@@ -21264,7 +21273,7 @@
         <v>0</v>
       </c>
       <c r="AL120" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM120" s="6">
         <v>0.1</v>
@@ -21276,7 +21285,7 @@
         <v>70000001</v>
       </c>
       <c r="AP120" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AQ120" s="6"/>
       <c r="AR120" s="6">
@@ -21290,7 +21299,7 @@
         <v>72003012</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E121" s="6">
         <v>3</v>
@@ -21392,7 +21401,7 @@
         <v>0</v>
       </c>
       <c r="AL121" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AM121" s="6">
         <v>0.1</v>
@@ -21404,7 +21413,7 @@
         <v>70000001</v>
       </c>
       <c r="AP121" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AQ121" s="6"/>
       <c r="AR121" s="6">
@@ -21418,7 +21427,7 @@
         <v>72003013</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E122" s="6">
         <v>3</v>
@@ -21520,7 +21529,7 @@
         <v>0</v>
       </c>
       <c r="AL122" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AM122" s="6">
         <v>0.1</v>
@@ -21532,7 +21541,7 @@
         <v>70000001</v>
       </c>
       <c r="AP122" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AQ122" s="6"/>
       <c r="AR122" s="6">
@@ -21546,7 +21555,7 @@
         <v>72004001</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E123" s="6">
         <v>1</v>
@@ -21648,7 +21657,7 @@
         <v>0</v>
       </c>
       <c r="AL123" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AM123" s="6">
         <v>0</v>
@@ -21674,7 +21683,7 @@
         <v>72004002</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E124" s="6">
         <v>1</v>
@@ -21776,7 +21785,7 @@
         <v>0</v>
       </c>
       <c r="AL124" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AM124" s="6">
         <v>0</v>
@@ -21802,7 +21811,7 @@
         <v>72004003</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E125" s="6">
         <v>1</v>
@@ -21904,7 +21913,7 @@
         <v>0</v>
       </c>
       <c r="AL125" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AM125" s="6">
         <v>0</v>
@@ -21930,7 +21939,7 @@
         <v>72004004</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E126" s="6">
         <v>1</v>
@@ -22032,7 +22041,7 @@
         <v>0</v>
       </c>
       <c r="AL126" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AM126" s="6">
         <v>0</v>
@@ -22058,7 +22067,7 @@
         <v>72004011</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E127" s="6">
         <v>3</v>
@@ -22160,7 +22169,7 @@
         <v>0</v>
       </c>
       <c r="AL127" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AM127" s="6">
         <v>0.1</v>
@@ -22186,7 +22195,7 @@
         <v>72004012</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E128" s="6">
         <v>3</v>
@@ -22288,7 +22297,7 @@
         <v>0</v>
       </c>
       <c r="AL128" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AM128" s="6">
         <v>0.1</v>
@@ -22300,7 +22309,7 @@
         <v>70000001</v>
       </c>
       <c r="AP128" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AQ128" s="6"/>
       <c r="AR128" s="6">
@@ -22314,7 +22323,7 @@
         <v>72004013</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E129" s="6">
         <v>3</v>
@@ -22416,7 +22425,7 @@
         <v>0</v>
       </c>
       <c r="AL129" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AM129" s="6">
         <v>0.1</v>
@@ -22428,7 +22437,7 @@
         <v>70000002</v>
       </c>
       <c r="AP129" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AQ129" s="6"/>
       <c r="AR129" s="6">
@@ -22698,7 +22707,7 @@
         <v>41001007</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E132" s="6">
         <v>5</v>
@@ -22827,7 +22836,7 @@
         <v>41001008</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E133" s="6">
         <v>5</v>
@@ -22958,7 +22967,7 @@
         <v>41001009</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E134" s="6">
         <v>5</v>
@@ -23088,7 +23097,7 @@
         <v>41001010</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E135" s="6">
         <v>5</v>
@@ -23218,7 +23227,7 @@
         <v>41002001</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E136" s="6">
         <v>5</v>
@@ -23348,7 +23357,7 @@
         <v>41002002</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E137" s="6">
         <v>5</v>
@@ -23478,7 +23487,7 @@
         <v>41003001</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E138" s="6">
         <v>5</v>
@@ -23608,7 +23617,7 @@
         <v>41004001</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E139" s="6">
         <v>5</v>
@@ -23738,7 +23747,7 @@
         <v>41005001</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E140" s="6">
         <v>5</v>
@@ -23866,7 +23875,7 @@
         <v>73001001</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E141" s="15">
         <v>1</v>
@@ -23968,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="AL141" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM141" s="15">
         <v>0.1</v>
@@ -23994,7 +24003,7 @@
         <v>73002001</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E142" s="15">
         <v>1</v>
@@ -24096,7 +24105,7 @@
         <v>0</v>
       </c>
       <c r="AL142" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM142" s="15">
         <v>0.1</v>
@@ -24122,7 +24131,7 @@
         <v>73002002</v>
       </c>
       <c r="D143" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E143" s="23">
         <v>1</v>
@@ -24224,7 +24233,7 @@
         <v>0</v>
       </c>
       <c r="AL143" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM143" s="23">
         <v>0.1</v>
@@ -24250,7 +24259,7 @@
         <v>73003001</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E144" s="15">
         <v>1</v>
@@ -24352,7 +24361,7 @@
         <v>0</v>
       </c>
       <c r="AL144" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM144" s="15">
         <v>0.1</v>
@@ -24378,7 +24387,7 @@
         <v>73003002</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E145" s="15">
         <v>3</v>
@@ -24480,7 +24489,7 @@
         <v>0</v>
       </c>
       <c r="AL145" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM145" s="15">
         <v>0.5</v>
@@ -24506,7 +24515,7 @@
         <v>73004001</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E146" s="15">
         <v>1</v>
@@ -24608,7 +24617,7 @@
         <v>0</v>
       </c>
       <c r="AL146" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM146" s="15">
         <v>0.1</v>
@@ -24634,7 +24643,7 @@
         <v>73004002</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E147" s="15">
         <v>1</v>
@@ -24736,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="AL147" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM147" s="15">
         <v>0.1</v>
@@ -24762,7 +24771,7 @@
         <v>73004003</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E148" s="15">
         <v>3</v>
@@ -24864,7 +24873,7 @@
         <v>0</v>
       </c>
       <c r="AL148" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM148" s="15">
         <v>0.1</v>
@@ -24890,7 +24899,7 @@
         <v>73005001</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E149" s="23">
         <v>1</v>
@@ -24992,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="AL149" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM149" s="23">
         <v>0.1</v>
@@ -25018,7 +25027,7 @@
         <v>73005002</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E150" s="15">
         <v>1</v>
@@ -25120,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="AL150" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM150" s="15">
         <v>0.1</v>
@@ -25146,7 +25155,7 @@
         <v>73005003</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E151" s="15">
         <v>3</v>
@@ -25248,7 +25257,7 @@
         <v>0</v>
       </c>
       <c r="AL151" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM151" s="15">
         <v>0.5</v>
@@ -25274,7 +25283,7 @@
         <v>73006001</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E152" s="15">
         <v>1</v>
@@ -25376,7 +25385,7 @@
         <v>0</v>
       </c>
       <c r="AL152" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM152" s="15">
         <v>0.1</v>
@@ -25402,7 +25411,7 @@
         <v>73006002</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E153" s="15">
         <v>1</v>
@@ -25504,7 +25513,7 @@
         <v>0</v>
       </c>
       <c r="AL153" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM153" s="15">
         <v>0.1</v>
@@ -25530,7 +25539,7 @@
         <v>73006003</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E154" s="15">
         <v>3</v>
@@ -25632,7 +25641,7 @@
         <v>0</v>
       </c>
       <c r="AL154" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM154" s="15">
         <v>0.1</v>
@@ -25658,7 +25667,7 @@
         <v>73007001</v>
       </c>
       <c r="D155" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E155" s="23">
         <v>1</v>
@@ -25760,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="AL155" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM155" s="23">
         <v>0.1</v>
@@ -25786,7 +25795,7 @@
         <v>73007002</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E156" s="15">
         <v>1</v>
@@ -25888,7 +25897,7 @@
         <v>0</v>
       </c>
       <c r="AL156" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM156" s="15">
         <v>0.1</v>
@@ -25914,7 +25923,7 @@
         <v>73007003</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E157" s="15">
         <v>3</v>
@@ -26016,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="AL157" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM157" s="15">
         <v>0.5</v>
@@ -26042,7 +26051,7 @@
         <v>73008001</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E158" s="15">
         <v>1</v>
@@ -26144,7 +26153,7 @@
         <v>0</v>
       </c>
       <c r="AL158" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM158" s="15">
         <v>0.1</v>
@@ -26170,7 +26179,7 @@
         <v>73008002</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E159" s="15">
         <v>1</v>
@@ -26272,7 +26281,7 @@
         <v>0</v>
       </c>
       <c r="AL159" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM159" s="15">
         <v>0.1</v>
@@ -26298,7 +26307,7 @@
         <v>73008003</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E160" s="15">
         <v>3</v>
@@ -26400,7 +26409,7 @@
         <v>0</v>
       </c>
       <c r="AL160" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM160" s="15">
         <v>0.5</v>
@@ -26426,7 +26435,7 @@
         <v>73009001</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E161" s="15">
         <v>1</v>
@@ -26528,7 +26537,7 @@
         <v>0</v>
       </c>
       <c r="AL161" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM161" s="15">
         <v>0.1</v>
@@ -26554,7 +26563,7 @@
         <v>73009002</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E162" s="15">
         <v>1</v>
@@ -26656,7 +26665,7 @@
         <v>0</v>
       </c>
       <c r="AL162" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM162" s="15">
         <v>0.1</v>
@@ -26682,7 +26691,7 @@
         <v>73009003</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E163" s="15">
         <v>3</v>
@@ -26784,7 +26793,7 @@
         <v>0</v>
       </c>
       <c r="AL163" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM163" s="15">
         <v>0.5</v>
@@ -26810,7 +26819,7 @@
         <v>73010001</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E164" s="15">
         <v>1</v>
@@ -26912,7 +26921,7 @@
         <v>0</v>
       </c>
       <c r="AL164" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM164" s="15">
         <v>0.1</v>
@@ -26938,7 +26947,7 @@
         <v>73010002</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E165" s="15">
         <v>1</v>
@@ -27040,7 +27049,7 @@
         <v>0</v>
       </c>
       <c r="AL165" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM165" s="15">
         <v>0.1</v>
@@ -27066,7 +27075,7 @@
         <v>73010003</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E166" s="15">
         <v>3</v>
@@ -27168,7 +27177,7 @@
         <v>0</v>
       </c>
       <c r="AL166" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM166" s="15">
         <v>0.5</v>
@@ -27194,7 +27203,7 @@
         <v>73011001</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E167" s="15">
         <v>1</v>
@@ -27296,7 +27305,7 @@
         <v>0</v>
       </c>
       <c r="AL167" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM167" s="15">
         <v>0</v>
@@ -27322,7 +27331,7 @@
         <v>73011002</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E168" s="15">
         <v>1</v>
@@ -27424,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="AL168" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM168" s="15">
         <v>0</v>
@@ -27450,7 +27459,7 @@
         <v>73011003</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E169" s="15">
         <v>3</v>
@@ -27552,7 +27561,7 @@
         <v>0</v>
       </c>
       <c r="AL169" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM169" s="15">
         <v>0.1</v>
@@ -27578,7 +27587,7 @@
         <v>73012001</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E170" s="15">
         <v>1</v>
@@ -27680,7 +27689,7 @@
         <v>0</v>
       </c>
       <c r="AL170" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM170" s="15">
         <v>0</v>
@@ -27706,7 +27715,7 @@
         <v>73012002</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E171" s="15">
         <v>1</v>
@@ -27808,7 +27817,7 @@
         <v>0</v>
       </c>
       <c r="AL171" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM171" s="15">
         <v>0</v>
@@ -27834,7 +27843,7 @@
         <v>73012003</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E172" s="15">
         <v>3</v>
@@ -27936,7 +27945,7 @@
         <v>0</v>
       </c>
       <c r="AL172" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM172" s="15">
         <v>0.1</v>
@@ -27962,7 +27971,7 @@
         <v>73013001</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E173" s="15">
         <v>1</v>
@@ -28064,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="AL173" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM173" s="15">
         <v>0</v>
@@ -28090,7 +28099,7 @@
         <v>73013002</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E174" s="15">
         <v>1</v>
@@ -28192,7 +28201,7 @@
         <v>0</v>
       </c>
       <c r="AL174" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM174" s="15">
         <v>0</v>
@@ -28218,7 +28227,7 @@
         <v>73013003</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E175" s="15">
         <v>3</v>
@@ -28320,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="AL175" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM175" s="15">
         <v>0.1</v>
@@ -28346,7 +28355,7 @@
         <v>73014001</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E176" s="15">
         <v>1</v>
@@ -28448,7 +28457,7 @@
         <v>0</v>
       </c>
       <c r="AL176" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM176" s="15">
         <v>0.1</v>
@@ -28474,7 +28483,7 @@
         <v>73014002</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E177" s="15">
         <v>1</v>
@@ -28576,7 +28585,7 @@
         <v>0</v>
       </c>
       <c r="AL177" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM177" s="15">
         <v>0.1</v>
@@ -28602,7 +28611,7 @@
         <v>73014003</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E178" s="15">
         <v>3</v>
@@ -28704,7 +28713,7 @@
         <v>0</v>
       </c>
       <c r="AL178" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM178" s="15">
         <v>0.1</v>
@@ -28730,7 +28739,7 @@
         <v>73015001</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E179" s="15">
         <v>1</v>
@@ -28832,7 +28841,7 @@
         <v>0</v>
       </c>
       <c r="AL179" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM179" s="15">
         <v>0.1</v>
@@ -28858,7 +28867,7 @@
         <v>73015002</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E180" s="15">
         <v>1</v>
@@ -28960,7 +28969,7 @@
         <v>0</v>
       </c>
       <c r="AL180" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM180" s="15">
         <v>0.1</v>
@@ -28986,7 +28995,7 @@
         <v>73015003</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E181" s="15">
         <v>3</v>
@@ -29088,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="AL181" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM181" s="15">
         <v>0.1</v>
@@ -29114,7 +29123,7 @@
         <v>73016001</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E182" s="15">
         <v>1</v>
@@ -29216,7 +29225,7 @@
         <v>0</v>
       </c>
       <c r="AL182" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM182" s="15">
         <v>0.1</v>
@@ -29242,7 +29251,7 @@
         <v>73016002</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E183" s="15">
         <v>1</v>
@@ -29344,7 +29353,7 @@
         <v>0</v>
       </c>
       <c r="AL183" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM183" s="15">
         <v>0.1</v>
@@ -29370,7 +29379,7 @@
         <v>73016003</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E184" s="15">
         <v>3</v>
@@ -29472,7 +29481,7 @@
         <v>0</v>
       </c>
       <c r="AL184" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM184" s="15">
         <v>0.1</v>
@@ -29498,7 +29507,7 @@
         <v>73017001</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E185" s="15">
         <v>1</v>
@@ -29588,7 +29597,7 @@
         <v>1000</v>
       </c>
       <c r="AH185" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AI185" s="15">
         <v>0</v>
@@ -29600,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="AL185" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM185" s="15">
         <v>0.1</v>
@@ -29626,7 +29635,7 @@
         <v>73017002</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E186" s="15">
         <v>1</v>
@@ -29728,7 +29737,7 @@
         <v>0</v>
       </c>
       <c r="AL186" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM186" s="15">
         <v>0.1</v>
@@ -29754,7 +29763,7 @@
         <v>73017003</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E187" s="15">
         <v>3</v>
@@ -29856,7 +29865,7 @@
         <v>0</v>
       </c>
       <c r="AL187" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM187" s="15">
         <v>0.1</v>
@@ -29882,7 +29891,7 @@
         <v>73018001</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E188" s="15">
         <v>1</v>
@@ -29984,7 +29993,7 @@
         <v>0</v>
       </c>
       <c r="AL188" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM188" s="15">
         <v>0</v>
@@ -30010,7 +30019,7 @@
         <v>73018002</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E189" s="15">
         <v>1</v>
@@ -30112,7 +30121,7 @@
         <v>0</v>
       </c>
       <c r="AL189" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM189" s="15">
         <v>0</v>
@@ -30138,7 +30147,7 @@
         <v>73018003</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E190" s="15">
         <v>3</v>
@@ -30240,7 +30249,7 @@
         <v>0</v>
       </c>
       <c r="AL190" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM190" s="15">
         <v>0.1</v>
@@ -30266,7 +30275,7 @@
         <v>73019001</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E191" s="15">
         <v>1</v>
@@ -30368,7 +30377,7 @@
         <v>0</v>
       </c>
       <c r="AL191" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM191" s="15">
         <v>0</v>
@@ -30394,7 +30403,7 @@
         <v>73019002</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E192" s="15">
         <v>1</v>
@@ -30496,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="AL192" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM192" s="15">
         <v>0</v>
@@ -30522,7 +30531,7 @@
         <v>73019003</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E193" s="15">
         <v>3</v>
@@ -30624,7 +30633,7 @@
         <v>0</v>
       </c>
       <c r="AL193" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM193" s="15">
         <v>0.1</v>
@@ -30650,7 +30659,7 @@
         <v>73020001</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E194" s="15">
         <v>1</v>
@@ -30752,7 +30761,7 @@
         <v>0</v>
       </c>
       <c r="AL194" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM194" s="15">
         <v>0</v>
@@ -30778,7 +30787,7 @@
         <v>73020002</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E195" s="15">
         <v>1</v>
@@ -30880,7 +30889,7 @@
         <v>0</v>
       </c>
       <c r="AL195" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM195" s="15">
         <v>0</v>
@@ -30906,7 +30915,7 @@
         <v>73020003</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E196" s="15">
         <v>3</v>
@@ -31008,7 +31017,7 @@
         <v>0</v>
       </c>
       <c r="AL196" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM196" s="15">
         <v>0.1</v>
@@ -31034,7 +31043,7 @@
         <v>73021001</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E197" s="15">
         <v>1</v>
@@ -31136,7 +31145,7 @@
         <v>0</v>
       </c>
       <c r="AL197" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM197" s="15">
         <v>0.1</v>
@@ -31162,7 +31171,7 @@
         <v>73021002</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E198" s="15">
         <v>1</v>
@@ -31264,7 +31273,7 @@
         <v>0</v>
       </c>
       <c r="AL198" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM198" s="15">
         <v>0.1</v>
@@ -31290,7 +31299,7 @@
         <v>73021003</v>
       </c>
       <c r="D199" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E199" s="15">
         <v>3</v>
@@ -31392,7 +31401,7 @@
         <v>0</v>
       </c>
       <c r="AL199" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM199" s="15">
         <v>0.1</v>
@@ -31418,7 +31427,7 @@
         <v>73022001</v>
       </c>
       <c r="D200" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E200" s="15">
         <v>1</v>
@@ -31520,7 +31529,7 @@
         <v>0</v>
       </c>
       <c r="AL200" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM200" s="15">
         <v>0.1</v>
@@ -31546,7 +31555,7 @@
         <v>73022002</v>
       </c>
       <c r="D201" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E201" s="15">
         <v>1</v>
@@ -31648,7 +31657,7 @@
         <v>0</v>
       </c>
       <c r="AL201" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM201" s="15">
         <v>0.1</v>
@@ -31674,7 +31683,7 @@
         <v>73022003</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E202" s="15">
         <v>3</v>
@@ -31776,7 +31785,7 @@
         <v>0</v>
       </c>
       <c r="AL202" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM202" s="15">
         <v>0.1</v>
@@ -31802,7 +31811,7 @@
         <v>73023001</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E203" s="15">
         <v>1</v>
@@ -31904,7 +31913,7 @@
         <v>0</v>
       </c>
       <c r="AL203" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM203" s="15">
         <v>0.1</v>
@@ -31930,7 +31939,7 @@
         <v>73023002</v>
       </c>
       <c r="D204" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E204" s="15">
         <v>1</v>
@@ -32032,7 +32041,7 @@
         <v>0</v>
       </c>
       <c r="AL204" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM204" s="15">
         <v>0.1</v>
@@ -32058,7 +32067,7 @@
         <v>73023003</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E205" s="15">
         <v>3</v>
@@ -32160,7 +32169,7 @@
         <v>0</v>
       </c>
       <c r="AL205" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM205" s="15">
         <v>0.1</v>
@@ -32186,7 +32195,7 @@
         <v>73024001</v>
       </c>
       <c r="D206" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E206" s="15">
         <v>1</v>
@@ -32288,7 +32297,7 @@
         <v>0</v>
       </c>
       <c r="AL206" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM206" s="15">
         <v>0.1</v>
@@ -32314,7 +32323,7 @@
         <v>73024002</v>
       </c>
       <c r="D207" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E207" s="15">
         <v>1</v>
@@ -32416,7 +32425,7 @@
         <v>0</v>
       </c>
       <c r="AL207" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM207" s="15">
         <v>0.1</v>
@@ -32442,7 +32451,7 @@
         <v>73024003</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E208" s="15">
         <v>3</v>
@@ -32544,7 +32553,7 @@
         <v>0</v>
       </c>
       <c r="AL208" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM208" s="15">
         <v>0.1</v>
@@ -32570,7 +32579,7 @@
         <v>73025001</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E209" s="15">
         <v>1</v>
@@ -32672,7 +32681,7 @@
         <v>0</v>
       </c>
       <c r="AL209" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM209" s="15">
         <v>0</v>
@@ -32698,7 +32707,7 @@
         <v>73025002</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E210" s="15">
         <v>1</v>
@@ -32800,7 +32809,7 @@
         <v>0</v>
       </c>
       <c r="AL210" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM210" s="15">
         <v>0</v>
@@ -32826,7 +32835,7 @@
         <v>73025003</v>
       </c>
       <c r="D211" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E211" s="15">
         <v>3</v>
@@ -32928,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="AL211" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM211" s="15">
         <v>0.1</v>
@@ -32954,7 +32963,7 @@
         <v>73026001</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E212" s="15">
         <v>1</v>
@@ -33056,7 +33065,7 @@
         <v>0</v>
       </c>
       <c r="AL212" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM212" s="15">
         <v>0</v>
@@ -33082,7 +33091,7 @@
         <v>73026002</v>
       </c>
       <c r="D213" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E213" s="15">
         <v>1</v>
@@ -33184,7 +33193,7 @@
         <v>0</v>
       </c>
       <c r="AL213" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM213" s="15">
         <v>0</v>
@@ -33210,7 +33219,7 @@
         <v>73026003</v>
       </c>
       <c r="D214" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E214" s="15">
         <v>3</v>
@@ -33312,7 +33321,7 @@
         <v>0</v>
       </c>
       <c r="AL214" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM214" s="15">
         <v>0.1</v>
@@ -33338,7 +33347,7 @@
         <v>73027001</v>
       </c>
       <c r="D215" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E215" s="15">
         <v>1</v>
@@ -33440,7 +33449,7 @@
         <v>0</v>
       </c>
       <c r="AL215" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM215" s="15">
         <v>0</v>
@@ -33466,7 +33475,7 @@
         <v>73027002</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E216" s="15">
         <v>1</v>
@@ -33568,7 +33577,7 @@
         <v>0</v>
       </c>
       <c r="AL216" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM216" s="15">
         <v>0</v>
@@ -33594,7 +33603,7 @@
         <v>73027003</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E217" s="15">
         <v>3</v>
@@ -33696,7 +33705,7 @@
         <v>0</v>
       </c>
       <c r="AL217" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM217" s="15">
         <v>0.1</v>
@@ -33722,7 +33731,7 @@
         <v>73028001</v>
       </c>
       <c r="D218" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E218" s="15">
         <v>1</v>
@@ -33824,7 +33833,7 @@
         <v>0</v>
       </c>
       <c r="AL218" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM218" s="15">
         <v>0.1</v>
@@ -33850,7 +33859,7 @@
         <v>73028002</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E219" s="15">
         <v>1</v>
@@ -33952,7 +33961,7 @@
         <v>0</v>
       </c>
       <c r="AL219" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM219" s="15">
         <v>0.1</v>
@@ -33978,7 +33987,7 @@
         <v>73028003</v>
       </c>
       <c r="D220" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E220" s="15">
         <v>3</v>
@@ -34080,7 +34089,7 @@
         <v>0</v>
       </c>
       <c r="AL220" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM220" s="15">
         <v>0.1</v>
@@ -34106,7 +34115,7 @@
         <v>73029001</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E221" s="15">
         <v>1</v>
@@ -34208,7 +34217,7 @@
         <v>0</v>
       </c>
       <c r="AL221" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM221" s="15">
         <v>0.1</v>
@@ -34234,7 +34243,7 @@
         <v>73029002</v>
       </c>
       <c r="D222" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E222" s="26">
         <v>1</v>
@@ -34336,7 +34345,7 @@
         <v>0</v>
       </c>
       <c r="AL222" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM222" s="26">
         <v>0.1</v>
@@ -34362,7 +34371,7 @@
         <v>73029003</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E223" s="15">
         <v>3</v>
@@ -34464,7 +34473,7 @@
         <v>0</v>
       </c>
       <c r="AL223" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM223" s="15">
         <v>0.1</v>
@@ -34490,7 +34499,7 @@
         <v>73030001</v>
       </c>
       <c r="D224" s="26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E224" s="26">
         <v>1</v>
@@ -34592,7 +34601,7 @@
         <v>0</v>
       </c>
       <c r="AL224" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM224" s="26">
         <v>0.1</v>
@@ -34618,7 +34627,7 @@
         <v>73030002</v>
       </c>
       <c r="D225" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E225" s="15">
         <v>1</v>
@@ -34720,7 +34729,7 @@
         <v>0</v>
       </c>
       <c r="AL225" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM225" s="15">
         <v>0.1</v>
@@ -34746,7 +34755,7 @@
         <v>73030003</v>
       </c>
       <c r="D226" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E226" s="15">
         <v>3</v>
@@ -34848,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="AL226" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM226" s="15">
         <v>0.1</v>
@@ -34874,7 +34883,7 @@
         <v>73031001</v>
       </c>
       <c r="D227" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E227" s="26">
         <v>1</v>
@@ -34976,7 +34985,7 @@
         <v>0</v>
       </c>
       <c r="AL227" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM227" s="26">
         <v>0.1</v>
@@ -35002,7 +35011,7 @@
         <v>73031002</v>
       </c>
       <c r="D228" s="26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E228" s="26">
         <v>1</v>
@@ -35104,7 +35113,7 @@
         <v>0</v>
       </c>
       <c r="AL228" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM228" s="26">
         <v>0.1</v>
@@ -35130,7 +35139,7 @@
         <v>73031003</v>
       </c>
       <c r="D229" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E229" s="15">
         <v>3</v>
@@ -35232,7 +35241,7 @@
         <v>0</v>
       </c>
       <c r="AL229" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM229" s="15">
         <v>0.1</v>
@@ -35258,7 +35267,7 @@
         <v>73032001</v>
       </c>
       <c r="D230" s="26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E230" s="26">
         <v>1</v>
@@ -35360,7 +35369,7 @@
         <v>0</v>
       </c>
       <c r="AL230" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM230" s="26">
         <v>0.1</v>
@@ -35386,7 +35395,7 @@
         <v>73032002</v>
       </c>
       <c r="D231" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E231" s="15">
         <v>1</v>
@@ -35488,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="AL231" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM231" s="15">
         <v>0.1</v>
@@ -35514,7 +35523,7 @@
         <v>73032003</v>
       </c>
       <c r="D232" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E232" s="15">
         <v>3</v>
@@ -35616,7 +35625,7 @@
         <v>0</v>
       </c>
       <c r="AL232" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM232" s="15">
         <v>0.1</v>
@@ -35642,7 +35651,7 @@
         <v>73033001</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E233" s="15">
         <v>1</v>
@@ -35744,7 +35753,7 @@
         <v>0</v>
       </c>
       <c r="AL233" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM233" s="15">
         <v>0</v>
@@ -35770,7 +35779,7 @@
         <v>73033002</v>
       </c>
       <c r="D234" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E234" s="15">
         <v>1</v>
@@ -35872,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="AL234" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM234" s="15">
         <v>0</v>
@@ -35898,7 +35907,7 @@
         <v>73033003</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E235" s="15">
         <v>3</v>
@@ -36000,7 +36009,7 @@
         <v>0</v>
       </c>
       <c r="AL235" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM235" s="15">
         <v>0.1</v>
@@ -36026,7 +36035,7 @@
         <v>73034001</v>
       </c>
       <c r="D236" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E236" s="15">
         <v>1</v>
@@ -36128,7 +36137,7 @@
         <v>0</v>
       </c>
       <c r="AL236" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM236" s="15">
         <v>0</v>
@@ -36154,7 +36163,7 @@
         <v>73034002</v>
       </c>
       <c r="D237" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E237" s="15">
         <v>1</v>
@@ -36256,7 +36265,7 @@
         <v>0</v>
       </c>
       <c r="AL237" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM237" s="15">
         <v>0</v>
@@ -36282,7 +36291,7 @@
         <v>73034003</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E238" s="15">
         <v>3</v>
@@ -36384,7 +36393,7 @@
         <v>0</v>
       </c>
       <c r="AL238" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM238" s="15">
         <v>0.1</v>
@@ -36410,7 +36419,7 @@
         <v>73035001</v>
       </c>
       <c r="D239" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E239" s="15">
         <v>1</v>
@@ -36512,7 +36521,7 @@
         <v>0</v>
       </c>
       <c r="AL239" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM239" s="15">
         <v>0</v>
@@ -36538,7 +36547,7 @@
         <v>73035002</v>
       </c>
       <c r="D240" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E240" s="15">
         <v>1</v>
@@ -36640,7 +36649,7 @@
         <v>0</v>
       </c>
       <c r="AL240" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM240" s="15">
         <v>0</v>
@@ -36666,7 +36675,7 @@
         <v>73035003</v>
       </c>
       <c r="D241" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E241" s="15">
         <v>3</v>
@@ -36768,7 +36777,7 @@
         <v>0</v>
       </c>
       <c r="AL241" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM241" s="15">
         <v>0.1</v>
@@ -36794,7 +36803,7 @@
         <v>80000001</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E242" s="6">
         <v>5</v>
@@ -36923,7 +36932,7 @@
         <v>80000002</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E243" s="6">
         <v>5</v>
@@ -37052,7 +37061,7 @@
         <v>80000101</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E244" s="6">
         <v>5</v>
@@ -37154,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="AL244" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AM244" s="6">
         <v>0</v>
@@ -37181,7 +37190,7 @@
         <v>80000201</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E245" s="6">
         <v>5</v>
@@ -37283,7 +37292,7 @@
         <v>0</v>
       </c>
       <c r="AL245" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM245" s="6">
         <v>0</v>
@@ -37310,7 +37319,7 @@
         <v>80000301</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E246" s="6">
         <v>5</v>
@@ -37412,7 +37421,7 @@
         <v>0</v>
       </c>
       <c r="AL246" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AM246" s="6">
         <v>0</v>
@@ -37439,7 +37448,7 @@
         <v>80000401</v>
       </c>
       <c r="D247" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E247" s="6">
         <v>5</v>
@@ -37541,7 +37550,7 @@
         <v>0</v>
       </c>
       <c r="AL247" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AM247" s="6">
         <v>0</v>
@@ -37568,7 +37577,7 @@
         <v>80000501</v>
       </c>
       <c r="D248" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E248" s="6">
         <v>5</v>
@@ -37670,7 +37679,7 @@
         <v>0</v>
       </c>
       <c r="AL248" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM248" s="6">
         <v>0</v>
@@ -37697,7 +37706,7 @@
         <v>90000001</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E249" s="6">
         <v>1</v>
@@ -37799,7 +37808,7 @@
         <v>0</v>
       </c>
       <c r="AL249" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AM249" s="6">
         <v>0</v>
@@ -37811,7 +37820,7 @@
         <v>60000331</v>
       </c>
       <c r="AP249" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AQ249" s="6"/>
       <c r="AR249" s="6">
@@ -37827,7 +37836,7 @@
         <v>90000002</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E250" s="6">
         <v>1</v>
@@ -37929,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="AL250" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM250" s="6">
         <v>0</v>
@@ -37941,7 +37950,7 @@
         <v>70000001</v>
       </c>
       <c r="AP250" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AQ250" s="6"/>
       <c r="AR250" s="6">

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8ADFB9-847A-4A57-AA07-CA9B715B7496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA45B909-0218-4DCD-8B77-3E77E5E30A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29640" yWindow="840" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="443">
   <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1193,9 +1193,6 @@
     <t>62002201,62002202,62002203,62002204,62002205,62002206,62002207,62002208,62002209,62002210,62002211,62002212,62002213</t>
   </si>
   <si>
-    <t>62002301,62002302,62002303,62002304</t>
-  </si>
-  <si>
     <t>62003001,62003002,62003003,62003004</t>
   </si>
   <si>
@@ -2207,8 +2204,16 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>62002201,62002202,62002203,62002204,62002205,62002206,62002207,62002208,62002209,62002210,62002211,62002212,62002213</t>
+    <t>70304002,70304003,70304004,70304005,70304006,70304007,70304008</t>
     <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>70205001,70205002,70205003,70205005,70205006,62002304,70304008</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>70104001,70104002,70104003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6122,10 +6127,10 @@
   <dimension ref="A1:AV272"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AM37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP51" sqref="AP51"/>
+      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -6276,7 +6281,7 @@
         <v>59</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AL3" s="2" t="s">
         <v>60</v>
@@ -6303,7 +6308,7 @@
         <v>82</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="3:46" ht="20.100000000000001" customHeight="1">
@@ -6410,7 +6415,7 @@
         <v>25</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AL4" s="3" t="s">
         <v>26</v>
@@ -6437,7 +6442,7 @@
         <v>83</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="3:46" ht="20.100000000000001" customHeight="1">
@@ -6681,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AM6" s="6">
         <v>0.1</v>
@@ -6809,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="AL7" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AM7" s="6">
         <v>0.1</v>
@@ -6937,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AM8" s="6">
         <v>0.1</v>
@@ -7065,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="AL9" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AM9" s="6">
         <v>0.5</v>
@@ -7077,7 +7082,7 @@
         <v>70000001</v>
       </c>
       <c r="AP9" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AQ9" s="6"/>
       <c r="AR9" s="6">
@@ -7193,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AM10" s="6">
         <v>0.1</v>
@@ -7321,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AM11" s="6">
         <v>0.1</v>
@@ -7347,7 +7352,7 @@
         <v>70001007</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12" s="27">
         <v>1</v>
@@ -7449,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AM12" s="27">
         <v>0.1</v>
@@ -7461,7 +7466,7 @@
         <v>70000001</v>
       </c>
       <c r="AP12" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AQ12" s="27"/>
       <c r="AR12" s="27">
@@ -7577,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM13" s="6">
         <v>0.1</v>
@@ -7603,7 +7608,7 @@
         <v>70001011</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E14" s="30">
         <v>3</v>
@@ -7699,13 +7704,13 @@
         <v>1</v>
       </c>
       <c r="AJ14" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK14" s="30">
         <v>0</v>
       </c>
       <c r="AL14" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM14" s="30">
         <v>0.1</v>
@@ -7717,7 +7722,7 @@
         <v>70000001</v>
       </c>
       <c r="AP14" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ14" s="30"/>
       <c r="AR14" s="30">
@@ -7833,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="AL15" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AM15" s="6">
         <v>0.1</v>
@@ -7845,7 +7850,7 @@
         <v>70000001</v>
       </c>
       <c r="AP15" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AQ15" s="6"/>
       <c r="AR15" s="6">
@@ -7859,7 +7864,7 @@
         <v>70001102</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E16" s="27">
         <v>1</v>
@@ -7961,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AM16" s="27">
         <v>0.1</v>
@@ -7987,7 +7992,7 @@
         <v>70001103</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E17" s="27">
         <v>1</v>
@@ -8089,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="AL17" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM17" s="27">
         <v>0.1</v>
@@ -8211,13 +8216,13 @@
         <v>1</v>
       </c>
       <c r="AJ18" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK18" s="6">
         <v>0</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AM18" s="6">
         <v>0.5</v>
@@ -8229,7 +8234,7 @@
         <v>70000001</v>
       </c>
       <c r="AP18" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AQ18" s="6"/>
       <c r="AR18" s="6">
@@ -8243,7 +8248,7 @@
         <v>70001201</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E19" s="30">
         <v>1</v>
@@ -8345,7 +8350,7 @@
         <v>0</v>
       </c>
       <c r="AL19" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AM19" s="30">
         <v>0.1</v>
@@ -8371,7 +8376,7 @@
         <v>70001202</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E20" s="30">
         <v>1</v>
@@ -8473,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AM20" s="30">
         <v>0.1</v>
@@ -8499,7 +8504,7 @@
         <v>70001203</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E21" s="27">
         <v>1</v>
@@ -8601,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="AL21" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AM21" s="27">
         <v>0.1</v>
@@ -8627,7 +8632,7 @@
         <v>70001204</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E22" s="27">
         <v>1</v>
@@ -8729,7 +8734,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AM22" s="27">
         <v>0.1</v>
@@ -8755,7 +8760,7 @@
         <v>70001205</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E23" s="30">
         <v>1</v>
@@ -8857,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AM23" s="30">
         <v>0.1</v>
@@ -8869,7 +8874,7 @@
         <v>70000004</v>
       </c>
       <c r="AP23" s="32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AQ23" s="30"/>
       <c r="AR23" s="30">
@@ -8883,7 +8888,7 @@
         <v>70001206</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E24" s="6">
         <v>3</v>
@@ -8979,13 +8984,13 @@
         <v>1</v>
       </c>
       <c r="AJ24" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK24" s="6">
         <v>0</v>
       </c>
       <c r="AL24" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM24" s="6">
         <v>0.1</v>
@@ -8997,7 +9002,7 @@
         <v>70000001</v>
       </c>
       <c r="AP24" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AQ24" s="6"/>
       <c r="AR24" s="6">
@@ -9011,7 +9016,7 @@
         <v>70001207</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E25" s="30">
         <v>1</v>
@@ -9113,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AM25" s="30">
         <v>0.1</v>
@@ -9139,7 +9144,7 @@
         <v>70001208</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E26" s="30">
         <v>1</v>
@@ -9241,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="AL26" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AM26" s="30">
         <v>0.1</v>
@@ -9267,7 +9272,7 @@
         <v>70001209</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E27" s="30">
         <v>3</v>
@@ -9363,13 +9368,13 @@
         <v>1</v>
       </c>
       <c r="AJ27" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK27" s="30">
         <v>0</v>
       </c>
       <c r="AL27" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AM27" s="30">
         <v>0.5</v>
@@ -9381,7 +9386,7 @@
         <v>70000001</v>
       </c>
       <c r="AP27" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AQ27" s="30"/>
       <c r="AR27" s="30">
@@ -9497,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM28" s="6">
         <v>0.1</v>
@@ -9625,7 +9630,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AM29" s="6">
         <v>0.1</v>
@@ -9747,13 +9752,13 @@
         <v>1</v>
       </c>
       <c r="AJ30" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK30" s="6">
         <v>0</v>
       </c>
       <c r="AL30" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AM30" s="6">
         <v>0.5</v>
@@ -9765,7 +9770,7 @@
         <v>70000001</v>
       </c>
       <c r="AP30" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AQ30" s="6"/>
       <c r="AR30" s="6">
@@ -9779,7 +9784,7 @@
         <v>70002004</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E31" s="27">
         <v>1</v>
@@ -9881,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="AL31" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM31" s="27">
         <v>0.1</v>
@@ -9907,7 +9912,7 @@
         <v>70002005</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E32" s="6">
         <v>1</v>
@@ -10009,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="AL32" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AM32" s="6">
         <v>0.1</v>
@@ -10035,7 +10040,7 @@
         <v>70002006</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E33" s="27">
         <v>3</v>
@@ -10131,13 +10136,13 @@
         <v>1</v>
       </c>
       <c r="AJ33" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK33" s="27">
         <v>0</v>
       </c>
       <c r="AL33" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AM33" s="27">
         <v>0</v>
@@ -10163,7 +10168,7 @@
         <v>70002007</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E34" s="27">
         <v>3</v>
@@ -10259,13 +10264,13 @@
         <v>1</v>
       </c>
       <c r="AJ34" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK34" s="27">
         <v>0</v>
       </c>
       <c r="AL34" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AM34" s="27">
         <v>0.5</v>
@@ -10277,7 +10282,7 @@
         <v>70000002</v>
       </c>
       <c r="AP34" s="36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AQ34" s="27"/>
       <c r="AR34" s="27">
@@ -10393,7 +10398,7 @@
         <v>0</v>
       </c>
       <c r="AL35" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM35" s="6">
         <v>0.1</v>
@@ -10419,7 +10424,7 @@
         <v>70002009</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E36" s="6">
         <v>1</v>
@@ -10521,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AM36" s="6">
         <v>0.1</v>
@@ -10547,7 +10552,7 @@
         <v>70002010</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E37" s="27">
         <v>1</v>
@@ -10649,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM37" s="27">
         <v>0.1</v>
@@ -10675,7 +10680,7 @@
         <v>70002011</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E38" s="6">
         <v>1</v>
@@ -10777,7 +10782,7 @@
         <v>0</v>
       </c>
       <c r="AL38" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AM38" s="6">
         <v>0.1</v>
@@ -10803,7 +10808,7 @@
         <v>70002012</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E39" s="6">
         <v>3</v>
@@ -10899,13 +10904,13 @@
         <v>1</v>
       </c>
       <c r="AJ39" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK39" s="6">
         <v>0</v>
       </c>
       <c r="AL39" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AM39" s="6">
         <v>0.5</v>
@@ -10917,7 +10922,7 @@
         <v>70000001</v>
       </c>
       <c r="AP39" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AQ39" s="6"/>
       <c r="AR39" s="6">
@@ -11033,7 +11038,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM40" s="6">
         <v>0.1</v>
@@ -11161,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="AL41" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AM41" s="6">
         <v>0.1</v>
@@ -11283,13 +11288,13 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AK42" s="6">
         <v>0</v>
       </c>
       <c r="AL42" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM42" s="6">
         <v>0.1</v>
@@ -11301,7 +11306,7 @@
         <v>70000001</v>
       </c>
       <c r="AP42" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AQ42" s="6"/>
       <c r="AR42" s="6">
@@ -11417,7 +11422,7 @@
         <v>0</v>
       </c>
       <c r="AL43" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AM43" s="6">
         <v>0.1</v>
@@ -11443,7 +11448,7 @@
         <v>70003005</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E44" s="6">
         <v>1</v>
@@ -11545,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="AL44" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AM44" s="6">
         <v>0.1</v>
@@ -11667,13 +11672,13 @@
         <v>1</v>
       </c>
       <c r="AJ45" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK45" s="6">
         <v>0</v>
       </c>
       <c r="AL45" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AM45" s="6">
         <v>0.1</v>
@@ -11685,7 +11690,7 @@
         <v>70000001</v>
       </c>
       <c r="AP45" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AQ45" s="6"/>
       <c r="AR45" s="6">
@@ -11801,7 +11806,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM46" s="6">
         <v>0.1</v>
@@ -11929,7 +11934,7 @@
         <v>0</v>
       </c>
       <c r="AL47" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AM47" s="6">
         <v>0.1</v>
@@ -12057,7 +12062,7 @@
         <v>0</v>
       </c>
       <c r="AL48" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM48" s="6">
         <v>0.1</v>
@@ -12185,7 +12190,7 @@
         <v>0</v>
       </c>
       <c r="AL49" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AM49" s="6">
         <v>0.1</v>
@@ -12211,7 +12216,7 @@
         <v>70003011</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E50" s="27">
         <v>1</v>
@@ -12307,13 +12312,13 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AK50" s="27">
         <v>0</v>
       </c>
       <c r="AL50" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AM50" s="27">
         <v>0.1</v>
@@ -12435,13 +12440,13 @@
         <v>1</v>
       </c>
       <c r="AJ51" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK51" s="6">
         <v>0</v>
       </c>
       <c r="AL51" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AM51" s="6">
         <v>0.1</v>
@@ -12452,10 +12457,10 @@
       <c r="AO51" s="6">
         <v>70000001</v>
       </c>
-      <c r="AP51" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="AQ51" s="6"/>
+      <c r="AP51" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="AQ51" s="12"/>
       <c r="AR51" s="6">
         <v>1</v>
       </c>
@@ -12467,7 +12472,7 @@
         <v>70003013</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E52" s="27">
         <v>1</v>
@@ -12563,13 +12568,13 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AK52" s="27">
         <v>0</v>
       </c>
       <c r="AL52" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AM52" s="27">
         <v>0.1</v>
@@ -12697,7 +12702,7 @@
         <v>0</v>
       </c>
       <c r="AL53" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AM53" s="6">
         <v>0.1</v>
@@ -12723,7 +12728,7 @@
         <v>70003015</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
@@ -12825,7 +12830,7 @@
         <v>0</v>
       </c>
       <c r="AL54" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AM54" s="6">
         <v>0.1</v>
@@ -12947,13 +12952,13 @@
         <v>1</v>
       </c>
       <c r="AJ55" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK55" s="6">
         <v>0</v>
       </c>
       <c r="AL55" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AM55" s="6">
         <v>0.1</v>
@@ -12965,7 +12970,7 @@
         <v>70000001</v>
       </c>
       <c r="AP55" s="10" t="s">
-        <v>144</v>
+        <v>441</v>
       </c>
       <c r="AQ55" s="6"/>
       <c r="AR55" s="6">
@@ -13081,7 +13086,7 @@
         <v>0</v>
       </c>
       <c r="AL56" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AM56" s="27">
         <v>0.1</v>
@@ -13107,7 +13112,7 @@
         <v>70004002</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E57" s="27">
         <v>1</v>
@@ -13203,13 +13208,13 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AK57" s="27">
         <v>0</v>
       </c>
       <c r="AL57" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AM57" s="27">
         <v>0.1</v>
@@ -13331,13 +13336,13 @@
         <v>1</v>
       </c>
       <c r="AJ58" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK58" s="6">
         <v>0</v>
       </c>
       <c r="AL58" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AM58" s="6">
         <v>0.1</v>
@@ -13348,8 +13353,8 @@
       <c r="AO58" s="6">
         <v>70000001</v>
       </c>
-      <c r="AP58" s="10" t="s">
-        <v>145</v>
+      <c r="AP58" s="12" t="s">
+        <v>442</v>
       </c>
       <c r="AQ58" s="6"/>
       <c r="AR58" s="6">
@@ -13465,7 +13470,7 @@
         <v>0</v>
       </c>
       <c r="AL59" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AM59" s="27">
         <v>0.1</v>
@@ -13491,7 +13496,7 @@
         <v>70004005</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E60" s="27">
         <v>1</v>
@@ -13587,13 +13592,13 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AK60" s="27">
         <v>0</v>
       </c>
       <c r="AL60" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AM60" s="27">
         <v>0.1</v>
@@ -13619,7 +13624,7 @@
         <v>70004006</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E61" s="27">
         <v>3</v>
@@ -13715,13 +13720,13 @@
         <v>1</v>
       </c>
       <c r="AJ61" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK61" s="27">
         <v>0</v>
       </c>
       <c r="AL61" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM61" s="27">
         <v>0.1</v>
@@ -13733,7 +13738,7 @@
         <v>70000001</v>
       </c>
       <c r="AP61" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AQ61" s="27"/>
       <c r="AR61" s="27">
@@ -13747,7 +13752,7 @@
         <v>70004007</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E62" s="6">
         <v>1</v>
@@ -13849,7 +13854,7 @@
         <v>0</v>
       </c>
       <c r="AL62" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AM62" s="6">
         <v>0.1</v>
@@ -13875,7 +13880,7 @@
         <v>70004008</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
@@ -13977,7 +13982,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM63" s="6">
         <v>0.1</v>
@@ -14105,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="AL64" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AM64" s="6">
         <v>0.1</v>
@@ -14227,13 +14232,13 @@
         <v>1</v>
       </c>
       <c r="AJ65" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK65" s="6">
         <v>0</v>
       </c>
       <c r="AL65" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AM65" s="6">
         <v>0.1</v>
@@ -14245,7 +14250,7 @@
         <v>70000001</v>
       </c>
       <c r="AP65" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AQ65" s="6"/>
       <c r="AR65" s="6">
@@ -14259,7 +14264,7 @@
         <v>70004011</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E66" s="6">
         <v>1</v>
@@ -14361,7 +14366,7 @@
         <v>0</v>
       </c>
       <c r="AL66" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AM66" s="6">
         <v>0.1</v>
@@ -14387,7 +14392,7 @@
         <v>70004012</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E67" s="6">
         <v>1</v>
@@ -14489,7 +14494,7 @@
         <v>0</v>
       </c>
       <c r="AL67" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AM67" s="6">
         <v>0.1</v>
@@ -14611,13 +14616,13 @@
         <v>1</v>
       </c>
       <c r="AJ68" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK68" s="27">
         <v>0</v>
       </c>
       <c r="AL68" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AM68" s="27">
         <v>0.1</v>
@@ -14629,7 +14634,7 @@
         <v>70000001</v>
       </c>
       <c r="AP68" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AQ68" s="27"/>
       <c r="AR68" s="27">
@@ -14745,7 +14750,7 @@
         <v>0</v>
       </c>
       <c r="AL69" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AM69" s="6">
         <v>0.1</v>
@@ -14771,7 +14776,7 @@
         <v>70005002</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E70" s="6">
         <v>1</v>
@@ -14873,7 +14878,7 @@
         <v>0</v>
       </c>
       <c r="AL70" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AM70" s="6">
         <v>0.1</v>
@@ -14885,7 +14890,7 @@
         <v>70000002</v>
       </c>
       <c r="AP70" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AQ70" s="6"/>
       <c r="AR70" s="6">
@@ -14995,13 +15000,13 @@
         <v>1</v>
       </c>
       <c r="AJ71" s="6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AK71" s="6">
         <v>0</v>
       </c>
       <c r="AL71" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AM71" s="6">
         <v>0.1</v>
@@ -15013,7 +15018,7 @@
         <v>70000002</v>
       </c>
       <c r="AP71" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AQ71" s="6"/>
       <c r="AR71" s="6">
@@ -15027,7 +15032,7 @@
         <v>70005004</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E72" s="6">
         <v>3</v>
@@ -15123,13 +15128,13 @@
         <v>1</v>
       </c>
       <c r="AJ72" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK72" s="6">
         <v>0</v>
       </c>
       <c r="AL72" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AM72" s="6">
         <v>0.1</v>
@@ -15141,7 +15146,7 @@
         <v>70000001</v>
       </c>
       <c r="AP72" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AQ72" s="6"/>
       <c r="AR72" s="6">
@@ -15155,7 +15160,7 @@
         <v>70005006</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E73" s="6">
         <v>1</v>
@@ -15257,7 +15262,7 @@
         <v>0</v>
       </c>
       <c r="AL73" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM73" s="6">
         <v>0.1</v>
@@ -15283,7 +15288,7 @@
         <v>70005007</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E74" s="27">
         <v>1</v>
@@ -15385,7 +15390,7 @@
         <v>0</v>
       </c>
       <c r="AL74" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AM74" s="27">
         <v>0.1</v>
@@ -15411,7 +15416,7 @@
         <v>70005008</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E75" s="27">
         <v>1</v>
@@ -15513,7 +15518,7 @@
         <v>0</v>
       </c>
       <c r="AL75" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AM75" s="27">
         <v>0.1</v>
@@ -15539,7 +15544,7 @@
         <v>70005009</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E76" s="27">
         <v>1</v>
@@ -15641,7 +15646,7 @@
         <v>0</v>
       </c>
       <c r="AL76" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AM76" s="27">
         <v>0.1</v>
@@ -15667,7 +15672,7 @@
         <v>70005010</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
@@ -15769,7 +15774,7 @@
         <v>0</v>
       </c>
       <c r="AL77" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AM77" s="6">
         <v>0.1</v>
@@ -15781,7 +15786,7 @@
         <v>70000002</v>
       </c>
       <c r="AP77" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AQ77" s="6"/>
       <c r="AR77" s="6">
@@ -15891,13 +15896,13 @@
         <v>1</v>
       </c>
       <c r="AJ78" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK78" s="18">
         <v>0</v>
       </c>
       <c r="AL78" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AM78" s="18">
         <v>0.1</v>
@@ -15923,7 +15928,7 @@
         <v>70005012</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E79" s="6">
         <v>3</v>
@@ -16019,13 +16024,13 @@
         <v>1</v>
       </c>
       <c r="AJ79" s="6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AK79" s="6">
         <v>0</v>
       </c>
       <c r="AL79" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AM79" s="6">
         <v>0.1</v>
@@ -16037,7 +16042,7 @@
         <v>70000001</v>
       </c>
       <c r="AP79" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AQ79" s="6"/>
       <c r="AR79" s="6">
@@ -16147,13 +16152,13 @@
         <v>1</v>
       </c>
       <c r="AJ80" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK80" s="6">
         <v>0</v>
       </c>
       <c r="AL80" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AM80" s="6">
         <v>0.1</v>
@@ -16165,7 +16170,7 @@
         <v>70000001</v>
       </c>
       <c r="AP80" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AQ80" s="6"/>
       <c r="AR80" s="6">
@@ -16307,7 +16312,7 @@
         <v>70009002</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E82" s="6">
         <v>1</v>
@@ -16435,7 +16440,7 @@
         <v>70009003</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E83" s="6">
         <v>1</v>
@@ -16563,7 +16568,7 @@
         <v>70009004</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E84" s="6">
         <v>1</v>
@@ -16691,7 +16696,7 @@
         <v>70009005</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E85" s="6">
         <v>1</v>
@@ -16819,7 +16824,7 @@
         <v>70009006</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E86" s="6">
         <v>1</v>
@@ -16921,7 +16926,7 @@
         <v>0</v>
       </c>
       <c r="AL86" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AM86" s="6">
         <v>0</v>
@@ -17317,7 +17322,7 @@
         <v>70000001</v>
       </c>
       <c r="AP89" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AQ89" s="6"/>
       <c r="AR89" s="6">
@@ -17715,7 +17720,7 @@
         <v>70009404</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E93" s="6">
         <v>1</v>
@@ -17829,7 +17834,7 @@
         <v>70000002</v>
       </c>
       <c r="AP93" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AQ93" s="6"/>
       <c r="AR93" s="6">
@@ -17843,7 +17848,7 @@
         <v>70009410</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E94" s="6">
         <v>1</v>
@@ -18099,7 +18104,7 @@
         <v>70009502</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E96" s="6">
         <v>1</v>
@@ -18341,7 +18346,7 @@
         <v>70000001</v>
       </c>
       <c r="AP97" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ97" s="6"/>
       <c r="AR97" s="6">
@@ -18469,7 +18474,7 @@
         <v>70000001</v>
       </c>
       <c r="AP98" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AQ98" s="6"/>
       <c r="AR98" s="6">
@@ -18611,7 +18616,7 @@
         <v>72001001</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E100" s="6">
         <v>1</v>
@@ -18713,7 +18718,7 @@
         <v>0</v>
       </c>
       <c r="AL100" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM100" s="6">
         <v>0</v>
@@ -18739,7 +18744,7 @@
         <v>72001002</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E101" s="6">
         <v>1</v>
@@ -18841,7 +18846,7 @@
         <v>0</v>
       </c>
       <c r="AL101" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM101" s="6">
         <v>0</v>
@@ -18867,7 +18872,7 @@
         <v>72001003</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E102" s="6">
         <v>1</v>
@@ -18969,7 +18974,7 @@
         <v>0</v>
       </c>
       <c r="AL102" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM102" s="6">
         <v>0</v>
@@ -18995,7 +19000,7 @@
         <v>72001004</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E103" s="6">
         <v>1</v>
@@ -19097,7 +19102,7 @@
         <v>0</v>
       </c>
       <c r="AL103" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM103" s="6">
         <v>0</v>
@@ -19123,7 +19128,7 @@
         <v>72001011</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E104" s="6">
         <v>3</v>
@@ -19225,7 +19230,7 @@
         <v>0</v>
       </c>
       <c r="AL104" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AM104" s="6">
         <v>0.1</v>
@@ -19251,7 +19256,7 @@
         <v>72001012</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E105" s="6">
         <v>3</v>
@@ -19353,7 +19358,7 @@
         <v>0</v>
       </c>
       <c r="AL105" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AM105" s="6">
         <v>0.1</v>
@@ -19379,7 +19384,7 @@
         <v>72001013</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E106" s="6">
         <v>3</v>
@@ -19481,7 +19486,7 @@
         <v>0</v>
       </c>
       <c r="AL106" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AM106" s="6">
         <v>0.1</v>
@@ -19507,7 +19512,7 @@
         <v>72002001</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E107" s="6">
         <v>1</v>
@@ -19609,7 +19614,7 @@
         <v>0</v>
       </c>
       <c r="AL107" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AM107" s="6">
         <v>0</v>
@@ -19635,7 +19640,7 @@
         <v>72002002</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E108" s="6">
         <v>1</v>
@@ -19737,7 +19742,7 @@
         <v>0</v>
       </c>
       <c r="AL108" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AM108" s="6">
         <v>0</v>
@@ -19763,7 +19768,7 @@
         <v>72002003</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E109" s="6">
         <v>1</v>
@@ -19865,7 +19870,7 @@
         <v>0</v>
       </c>
       <c r="AL109" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AM109" s="6">
         <v>0</v>
@@ -19891,7 +19896,7 @@
         <v>72002004</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E110" s="6">
         <v>1</v>
@@ -19993,7 +19998,7 @@
         <v>0</v>
       </c>
       <c r="AL110" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AM110" s="6">
         <v>0</v>
@@ -20019,7 +20024,7 @@
         <v>72002005</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E111" s="6">
         <v>1</v>
@@ -20121,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="AL111" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM111" s="6">
         <v>0</v>
@@ -20147,7 +20152,7 @@
         <v>72002011</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E112" s="6">
         <v>3</v>
@@ -20249,7 +20254,7 @@
         <v>0</v>
       </c>
       <c r="AL112" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AM112" s="6">
         <v>0.1</v>
@@ -20261,7 +20266,7 @@
         <v>70000001</v>
       </c>
       <c r="AP112" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AQ112" s="6"/>
       <c r="AR112" s="6">
@@ -20275,7 +20280,7 @@
         <v>72002012</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E113" s="6">
         <v>3</v>
@@ -20377,7 +20382,7 @@
         <v>0</v>
       </c>
       <c r="AL113" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AM113" s="6">
         <v>0.1</v>
@@ -20403,7 +20408,7 @@
         <v>72002013</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E114" s="6">
         <v>3</v>
@@ -20505,7 +20510,7 @@
         <v>0</v>
       </c>
       <c r="AL114" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AM114" s="6">
         <v>0.1</v>
@@ -20517,7 +20522,7 @@
         <v>70000001</v>
       </c>
       <c r="AP114" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AQ114" s="6"/>
       <c r="AR114" s="6">
@@ -20531,7 +20536,7 @@
         <v>72003001</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E115" s="6">
         <v>1</v>
@@ -20633,7 +20638,7 @@
         <v>0</v>
       </c>
       <c r="AL115" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AM115" s="6">
         <v>0</v>
@@ -20659,7 +20664,7 @@
         <v>72003002</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E116" s="6">
         <v>1</v>
@@ -20761,7 +20766,7 @@
         <v>0</v>
       </c>
       <c r="AL116" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AM116" s="6">
         <v>0</v>
@@ -20787,7 +20792,7 @@
         <v>72003003</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E117" s="6">
         <v>1</v>
@@ -20889,7 +20894,7 @@
         <v>0</v>
       </c>
       <c r="AL117" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AM117" s="6">
         <v>0</v>
@@ -20915,7 +20920,7 @@
         <v>72003004</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E118" s="6">
         <v>1</v>
@@ -21017,7 +21022,7 @@
         <v>0</v>
       </c>
       <c r="AL118" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AM118" s="6">
         <v>0</v>
@@ -21043,7 +21048,7 @@
         <v>72003005</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E119" s="6">
         <v>1</v>
@@ -21145,7 +21150,7 @@
         <v>0</v>
       </c>
       <c r="AL119" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AM119" s="6">
         <v>0</v>
@@ -21171,7 +21176,7 @@
         <v>72003011</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E120" s="6">
         <v>3</v>
@@ -21273,7 +21278,7 @@
         <v>0</v>
       </c>
       <c r="AL120" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AM120" s="6">
         <v>0.1</v>
@@ -21285,7 +21290,7 @@
         <v>70000001</v>
       </c>
       <c r="AP120" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AQ120" s="6"/>
       <c r="AR120" s="6">
@@ -21299,7 +21304,7 @@
         <v>72003012</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E121" s="6">
         <v>3</v>
@@ -21401,7 +21406,7 @@
         <v>0</v>
       </c>
       <c r="AL121" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM121" s="6">
         <v>0.1</v>
@@ -21427,7 +21432,7 @@
         <v>72003013</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E122" s="6">
         <v>3</v>
@@ -21529,7 +21534,7 @@
         <v>0</v>
       </c>
       <c r="AL122" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AM122" s="6">
         <v>0.1</v>
@@ -21541,7 +21546,7 @@
         <v>70000001</v>
       </c>
       <c r="AP122" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AQ122" s="6"/>
       <c r="AR122" s="6">
@@ -21555,7 +21560,7 @@
         <v>72004001</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E123" s="6">
         <v>1</v>
@@ -21657,7 +21662,7 @@
         <v>0</v>
       </c>
       <c r="AL123" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AM123" s="6">
         <v>0</v>
@@ -21683,7 +21688,7 @@
         <v>72004002</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E124" s="6">
         <v>1</v>
@@ -21785,7 +21790,7 @@
         <v>0</v>
       </c>
       <c r="AL124" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AM124" s="6">
         <v>0</v>
@@ -21811,7 +21816,7 @@
         <v>72004003</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E125" s="6">
         <v>1</v>
@@ -21913,7 +21918,7 @@
         <v>0</v>
       </c>
       <c r="AL125" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AM125" s="6">
         <v>0</v>
@@ -21939,7 +21944,7 @@
         <v>72004004</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E126" s="6">
         <v>1</v>
@@ -22041,7 +22046,7 @@
         <v>0</v>
       </c>
       <c r="AL126" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AM126" s="6">
         <v>0</v>
@@ -22067,7 +22072,7 @@
         <v>72004011</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E127" s="6">
         <v>3</v>
@@ -22169,7 +22174,7 @@
         <v>0</v>
       </c>
       <c r="AL127" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AM127" s="6">
         <v>0.1</v>
@@ -22195,7 +22200,7 @@
         <v>72004012</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E128" s="6">
         <v>3</v>
@@ -22297,7 +22302,7 @@
         <v>0</v>
       </c>
       <c r="AL128" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AM128" s="6">
         <v>0.1</v>
@@ -22323,7 +22328,7 @@
         <v>72004013</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E129" s="6">
         <v>3</v>
@@ -22425,7 +22430,7 @@
         <v>0</v>
       </c>
       <c r="AL129" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM129" s="6">
         <v>0.1</v>
@@ -22437,7 +22442,7 @@
         <v>70000002</v>
       </c>
       <c r="AP129" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AQ129" s="6"/>
       <c r="AR129" s="6">
@@ -22707,7 +22712,7 @@
         <v>41001007</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E132" s="6">
         <v>5</v>
@@ -22836,7 +22841,7 @@
         <v>41001008</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E133" s="6">
         <v>5</v>
@@ -22967,7 +22972,7 @@
         <v>41001009</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E134" s="6">
         <v>5</v>
@@ -23097,7 +23102,7 @@
         <v>41001010</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E135" s="6">
         <v>5</v>
@@ -23227,7 +23232,7 @@
         <v>41002001</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E136" s="6">
         <v>5</v>
@@ -23357,7 +23362,7 @@
         <v>41002002</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E137" s="6">
         <v>5</v>
@@ -23487,7 +23492,7 @@
         <v>41003001</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E138" s="6">
         <v>5</v>
@@ -23617,7 +23622,7 @@
         <v>41004001</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E139" s="6">
         <v>5</v>
@@ -23747,7 +23752,7 @@
         <v>41005001</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E140" s="6">
         <v>5</v>
@@ -23875,7 +23880,7 @@
         <v>73001001</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E141" s="15">
         <v>1</v>
@@ -23977,7 +23982,7 @@
         <v>0</v>
       </c>
       <c r="AL141" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM141" s="15">
         <v>0.1</v>
@@ -24003,7 +24008,7 @@
         <v>73002001</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E142" s="15">
         <v>1</v>
@@ -24105,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="AL142" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM142" s="15">
         <v>0.1</v>
@@ -24131,7 +24136,7 @@
         <v>73002002</v>
       </c>
       <c r="D143" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E143" s="23">
         <v>1</v>
@@ -24233,7 +24238,7 @@
         <v>0</v>
       </c>
       <c r="AL143" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM143" s="23">
         <v>0.1</v>
@@ -24259,7 +24264,7 @@
         <v>73003001</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E144" s="15">
         <v>1</v>
@@ -24361,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="AL144" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM144" s="15">
         <v>0.1</v>
@@ -24387,7 +24392,7 @@
         <v>73003002</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E145" s="15">
         <v>3</v>
@@ -24483,13 +24488,13 @@
         <v>1</v>
       </c>
       <c r="AJ145" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK145" s="15">
         <v>0</v>
       </c>
       <c r="AL145" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM145" s="15">
         <v>0.5</v>
@@ -24515,7 +24520,7 @@
         <v>73004001</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E146" s="15">
         <v>1</v>
@@ -24617,7 +24622,7 @@
         <v>0</v>
       </c>
       <c r="AL146" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM146" s="15">
         <v>0.1</v>
@@ -24643,7 +24648,7 @@
         <v>73004002</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E147" s="15">
         <v>1</v>
@@ -24745,7 +24750,7 @@
         <v>0</v>
       </c>
       <c r="AL147" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM147" s="15">
         <v>0.1</v>
@@ -24771,7 +24776,7 @@
         <v>73004003</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E148" s="15">
         <v>3</v>
@@ -24867,13 +24872,13 @@
         <v>1</v>
       </c>
       <c r="AJ148" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK148" s="15">
         <v>0</v>
       </c>
       <c r="AL148" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM148" s="15">
         <v>0.1</v>
@@ -24899,7 +24904,7 @@
         <v>73005001</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E149" s="23">
         <v>1</v>
@@ -25001,7 +25006,7 @@
         <v>0</v>
       </c>
       <c r="AL149" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM149" s="23">
         <v>0.1</v>
@@ -25027,7 +25032,7 @@
         <v>73005002</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E150" s="15">
         <v>1</v>
@@ -25129,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="AL150" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM150" s="15">
         <v>0.1</v>
@@ -25155,7 +25160,7 @@
         <v>73005003</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E151" s="15">
         <v>3</v>
@@ -25251,13 +25256,13 @@
         <v>1</v>
       </c>
       <c r="AJ151" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK151" s="15">
         <v>0</v>
       </c>
       <c r="AL151" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM151" s="15">
         <v>0.5</v>
@@ -25283,7 +25288,7 @@
         <v>73006001</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E152" s="15">
         <v>1</v>
@@ -25385,7 +25390,7 @@
         <v>0</v>
       </c>
       <c r="AL152" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM152" s="15">
         <v>0.1</v>
@@ -25411,7 +25416,7 @@
         <v>73006002</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E153" s="15">
         <v>1</v>
@@ -25513,7 +25518,7 @@
         <v>0</v>
       </c>
       <c r="AL153" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM153" s="15">
         <v>0.1</v>
@@ -25539,7 +25544,7 @@
         <v>73006003</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E154" s="15">
         <v>3</v>
@@ -25635,13 +25640,13 @@
         <v>1</v>
       </c>
       <c r="AJ154" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK154" s="15">
         <v>0</v>
       </c>
       <c r="AL154" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM154" s="15">
         <v>0.1</v>
@@ -25667,7 +25672,7 @@
         <v>73007001</v>
       </c>
       <c r="D155" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E155" s="23">
         <v>1</v>
@@ -25769,7 +25774,7 @@
         <v>0</v>
       </c>
       <c r="AL155" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM155" s="23">
         <v>0.1</v>
@@ -25795,7 +25800,7 @@
         <v>73007002</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E156" s="15">
         <v>1</v>
@@ -25897,7 +25902,7 @@
         <v>0</v>
       </c>
       <c r="AL156" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM156" s="15">
         <v>0.1</v>
@@ -25923,7 +25928,7 @@
         <v>73007003</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E157" s="15">
         <v>3</v>
@@ -26019,13 +26024,13 @@
         <v>1</v>
       </c>
       <c r="AJ157" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK157" s="15">
         <v>0</v>
       </c>
       <c r="AL157" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM157" s="15">
         <v>0.5</v>
@@ -26051,7 +26056,7 @@
         <v>73008001</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E158" s="15">
         <v>1</v>
@@ -26153,7 +26158,7 @@
         <v>0</v>
       </c>
       <c r="AL158" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM158" s="15">
         <v>0.1</v>
@@ -26179,7 +26184,7 @@
         <v>73008002</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E159" s="15">
         <v>1</v>
@@ -26281,7 +26286,7 @@
         <v>0</v>
       </c>
       <c r="AL159" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM159" s="15">
         <v>0.1</v>
@@ -26307,7 +26312,7 @@
         <v>73008003</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E160" s="15">
         <v>3</v>
@@ -26403,13 +26408,13 @@
         <v>1</v>
       </c>
       <c r="AJ160" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK160" s="15">
         <v>0</v>
       </c>
       <c r="AL160" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM160" s="15">
         <v>0.5</v>
@@ -26435,7 +26440,7 @@
         <v>73009001</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E161" s="15">
         <v>1</v>
@@ -26537,7 +26542,7 @@
         <v>0</v>
       </c>
       <c r="AL161" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM161" s="15">
         <v>0.1</v>
@@ -26563,7 +26568,7 @@
         <v>73009002</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E162" s="15">
         <v>1</v>
@@ -26665,7 +26670,7 @@
         <v>0</v>
       </c>
       <c r="AL162" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM162" s="15">
         <v>0.1</v>
@@ -26691,7 +26696,7 @@
         <v>73009003</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E163" s="15">
         <v>3</v>
@@ -26787,13 +26792,13 @@
         <v>1</v>
       </c>
       <c r="AJ163" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK163" s="15">
         <v>0</v>
       </c>
       <c r="AL163" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM163" s="15">
         <v>0.5</v>
@@ -26819,7 +26824,7 @@
         <v>73010001</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E164" s="15">
         <v>1</v>
@@ -26921,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="AL164" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM164" s="15">
         <v>0.1</v>
@@ -26947,7 +26952,7 @@
         <v>73010002</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E165" s="15">
         <v>1</v>
@@ -27049,7 +27054,7 @@
         <v>0</v>
       </c>
       <c r="AL165" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM165" s="15">
         <v>0.1</v>
@@ -27075,7 +27080,7 @@
         <v>73010003</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E166" s="15">
         <v>3</v>
@@ -27171,13 +27176,13 @@
         <v>1</v>
       </c>
       <c r="AJ166" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK166" s="15">
         <v>0</v>
       </c>
       <c r="AL166" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM166" s="15">
         <v>0.5</v>
@@ -27203,7 +27208,7 @@
         <v>73011001</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E167" s="15">
         <v>1</v>
@@ -27305,7 +27310,7 @@
         <v>0</v>
       </c>
       <c r="AL167" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM167" s="15">
         <v>0</v>
@@ -27331,7 +27336,7 @@
         <v>73011002</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E168" s="15">
         <v>1</v>
@@ -27433,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="AL168" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM168" s="15">
         <v>0</v>
@@ -27459,7 +27464,7 @@
         <v>73011003</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E169" s="15">
         <v>3</v>
@@ -27561,7 +27566,7 @@
         <v>0</v>
       </c>
       <c r="AL169" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM169" s="15">
         <v>0.1</v>
@@ -27587,7 +27592,7 @@
         <v>73012001</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E170" s="15">
         <v>1</v>
@@ -27689,7 +27694,7 @@
         <v>0</v>
       </c>
       <c r="AL170" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM170" s="15">
         <v>0</v>
@@ -27715,7 +27720,7 @@
         <v>73012002</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E171" s="15">
         <v>1</v>
@@ -27817,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="AL171" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM171" s="15">
         <v>0</v>
@@ -27843,7 +27848,7 @@
         <v>73012003</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E172" s="15">
         <v>3</v>
@@ -27945,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="AL172" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM172" s="15">
         <v>0.1</v>
@@ -27971,7 +27976,7 @@
         <v>73013001</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E173" s="15">
         <v>1</v>
@@ -28073,7 +28078,7 @@
         <v>0</v>
       </c>
       <c r="AL173" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM173" s="15">
         <v>0</v>
@@ -28099,7 +28104,7 @@
         <v>73013002</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E174" s="15">
         <v>1</v>
@@ -28201,7 +28206,7 @@
         <v>0</v>
       </c>
       <c r="AL174" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM174" s="15">
         <v>0</v>
@@ -28227,7 +28232,7 @@
         <v>73013003</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E175" s="15">
         <v>3</v>
@@ -28329,7 +28334,7 @@
         <v>0</v>
       </c>
       <c r="AL175" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM175" s="15">
         <v>0.1</v>
@@ -28355,7 +28360,7 @@
         <v>73014001</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E176" s="15">
         <v>1</v>
@@ -28457,7 +28462,7 @@
         <v>0</v>
       </c>
       <c r="AL176" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM176" s="15">
         <v>0.1</v>
@@ -28483,7 +28488,7 @@
         <v>73014002</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E177" s="15">
         <v>1</v>
@@ -28585,7 +28590,7 @@
         <v>0</v>
       </c>
       <c r="AL177" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM177" s="15">
         <v>0.1</v>
@@ -28611,7 +28616,7 @@
         <v>73014003</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E178" s="15">
         <v>3</v>
@@ -28707,13 +28712,13 @@
         <v>0</v>
       </c>
       <c r="AJ178" s="15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AK178" s="15">
         <v>0</v>
       </c>
       <c r="AL178" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM178" s="15">
         <v>0.1</v>
@@ -28739,7 +28744,7 @@
         <v>73015001</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E179" s="15">
         <v>1</v>
@@ -28841,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="AL179" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM179" s="15">
         <v>0.1</v>
@@ -28867,7 +28872,7 @@
         <v>73015002</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E180" s="15">
         <v>1</v>
@@ -28969,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="AL180" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM180" s="15">
         <v>0.1</v>
@@ -28995,7 +29000,7 @@
         <v>73015003</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E181" s="15">
         <v>3</v>
@@ -29091,13 +29096,13 @@
         <v>1</v>
       </c>
       <c r="AJ181" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK181" s="15">
         <v>0</v>
       </c>
       <c r="AL181" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM181" s="15">
         <v>0.1</v>
@@ -29123,7 +29128,7 @@
         <v>73016001</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E182" s="15">
         <v>1</v>
@@ -29225,7 +29230,7 @@
         <v>0</v>
       </c>
       <c r="AL182" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM182" s="15">
         <v>0.1</v>
@@ -29251,7 +29256,7 @@
         <v>73016002</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E183" s="15">
         <v>1</v>
@@ -29347,13 +29352,13 @@
         <v>0</v>
       </c>
       <c r="AJ183" s="15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AK183" s="15">
         <v>0</v>
       </c>
       <c r="AL183" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM183" s="15">
         <v>0.1</v>
@@ -29379,7 +29384,7 @@
         <v>73016003</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E184" s="15">
         <v>3</v>
@@ -29475,13 +29480,13 @@
         <v>1</v>
       </c>
       <c r="AJ184" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK184" s="15">
         <v>0</v>
       </c>
       <c r="AL184" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM184" s="15">
         <v>0.1</v>
@@ -29507,7 +29512,7 @@
         <v>73017001</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E185" s="15">
         <v>1</v>
@@ -29597,19 +29602,19 @@
         <v>1000</v>
       </c>
       <c r="AH185" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AI185" s="15">
         <v>0</v>
       </c>
       <c r="AJ185" s="15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AK185" s="15">
         <v>0</v>
       </c>
       <c r="AL185" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM185" s="15">
         <v>0.1</v>
@@ -29635,7 +29640,7 @@
         <v>73017002</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E186" s="15">
         <v>1</v>
@@ -29737,7 +29742,7 @@
         <v>0</v>
       </c>
       <c r="AL186" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM186" s="15">
         <v>0.1</v>
@@ -29763,7 +29768,7 @@
         <v>73017003</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E187" s="15">
         <v>3</v>
@@ -29859,13 +29864,13 @@
         <v>1</v>
       </c>
       <c r="AJ187" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK187" s="15">
         <v>0</v>
       </c>
       <c r="AL187" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM187" s="15">
         <v>0.1</v>
@@ -29891,7 +29896,7 @@
         <v>73018001</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E188" s="15">
         <v>1</v>
@@ -29993,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="AL188" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM188" s="15">
         <v>0</v>
@@ -30019,7 +30024,7 @@
         <v>73018002</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E189" s="15">
         <v>1</v>
@@ -30121,7 +30126,7 @@
         <v>0</v>
       </c>
       <c r="AL189" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM189" s="15">
         <v>0</v>
@@ -30147,7 +30152,7 @@
         <v>73018003</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E190" s="15">
         <v>3</v>
@@ -30249,7 +30254,7 @@
         <v>0</v>
       </c>
       <c r="AL190" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM190" s="15">
         <v>0.1</v>
@@ -30275,7 +30280,7 @@
         <v>73019001</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E191" s="15">
         <v>1</v>
@@ -30377,7 +30382,7 @@
         <v>0</v>
       </c>
       <c r="AL191" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM191" s="15">
         <v>0</v>
@@ -30403,7 +30408,7 @@
         <v>73019002</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E192" s="15">
         <v>1</v>
@@ -30505,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="AL192" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM192" s="15">
         <v>0</v>
@@ -30531,7 +30536,7 @@
         <v>73019003</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E193" s="15">
         <v>3</v>
@@ -30633,7 +30638,7 @@
         <v>0</v>
       </c>
       <c r="AL193" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM193" s="15">
         <v>0.1</v>
@@ -30659,7 +30664,7 @@
         <v>73020001</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E194" s="15">
         <v>1</v>
@@ -30761,7 +30766,7 @@
         <v>0</v>
       </c>
       <c r="AL194" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM194" s="15">
         <v>0</v>
@@ -30787,7 +30792,7 @@
         <v>73020002</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E195" s="15">
         <v>1</v>
@@ -30889,7 +30894,7 @@
         <v>0</v>
       </c>
       <c r="AL195" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM195" s="15">
         <v>0</v>
@@ -30915,7 +30920,7 @@
         <v>73020003</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E196" s="15">
         <v>3</v>
@@ -31017,7 +31022,7 @@
         <v>0</v>
       </c>
       <c r="AL196" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM196" s="15">
         <v>0.1</v>
@@ -31043,7 +31048,7 @@
         <v>73021001</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E197" s="15">
         <v>1</v>
@@ -31145,7 +31150,7 @@
         <v>0</v>
       </c>
       <c r="AL197" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM197" s="15">
         <v>0.1</v>
@@ -31171,7 +31176,7 @@
         <v>73021002</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E198" s="15">
         <v>1</v>
@@ -31267,13 +31272,13 @@
         <v>0</v>
       </c>
       <c r="AJ198" s="15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AK198" s="15">
         <v>0</v>
       </c>
       <c r="AL198" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM198" s="15">
         <v>0.1</v>
@@ -31299,7 +31304,7 @@
         <v>73021003</v>
       </c>
       <c r="D199" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E199" s="15">
         <v>3</v>
@@ -31395,13 +31400,13 @@
         <v>1</v>
       </c>
       <c r="AJ199" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK199" s="15">
         <v>0</v>
       </c>
       <c r="AL199" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM199" s="15">
         <v>0.1</v>
@@ -31427,7 +31432,7 @@
         <v>73022001</v>
       </c>
       <c r="D200" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E200" s="15">
         <v>1</v>
@@ -31529,7 +31534,7 @@
         <v>0</v>
       </c>
       <c r="AL200" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM200" s="15">
         <v>0.1</v>
@@ -31555,7 +31560,7 @@
         <v>73022002</v>
       </c>
       <c r="D201" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E201" s="15">
         <v>1</v>
@@ -31651,13 +31656,13 @@
         <v>0</v>
       </c>
       <c r="AJ201" s="15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AK201" s="15">
         <v>0</v>
       </c>
       <c r="AL201" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM201" s="15">
         <v>0.1</v>
@@ -31683,7 +31688,7 @@
         <v>73022003</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E202" s="15">
         <v>3</v>
@@ -31779,13 +31784,13 @@
         <v>1</v>
       </c>
       <c r="AJ202" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK202" s="15">
         <v>0</v>
       </c>
       <c r="AL202" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM202" s="15">
         <v>0.1</v>
@@ -31811,7 +31816,7 @@
         <v>73023001</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E203" s="15">
         <v>1</v>
@@ -31913,7 +31918,7 @@
         <v>0</v>
       </c>
       <c r="AL203" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM203" s="15">
         <v>0.1</v>
@@ -31939,7 +31944,7 @@
         <v>73023002</v>
       </c>
       <c r="D204" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E204" s="15">
         <v>1</v>
@@ -32041,7 +32046,7 @@
         <v>0</v>
       </c>
       <c r="AL204" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM204" s="15">
         <v>0.1</v>
@@ -32067,7 +32072,7 @@
         <v>73023003</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E205" s="15">
         <v>3</v>
@@ -32163,13 +32168,13 @@
         <v>1</v>
       </c>
       <c r="AJ205" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK205" s="15">
         <v>0</v>
       </c>
       <c r="AL205" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM205" s="15">
         <v>0.1</v>
@@ -32195,7 +32200,7 @@
         <v>73024001</v>
       </c>
       <c r="D206" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E206" s="15">
         <v>1</v>
@@ -32297,7 +32302,7 @@
         <v>0</v>
       </c>
       <c r="AL206" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM206" s="15">
         <v>0.1</v>
@@ -32323,7 +32328,7 @@
         <v>73024002</v>
       </c>
       <c r="D207" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E207" s="15">
         <v>1</v>
@@ -32425,7 +32430,7 @@
         <v>0</v>
       </c>
       <c r="AL207" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM207" s="15">
         <v>0.1</v>
@@ -32451,7 +32456,7 @@
         <v>73024003</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E208" s="15">
         <v>3</v>
@@ -32547,13 +32552,13 @@
         <v>1</v>
       </c>
       <c r="AJ208" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK208" s="15">
         <v>0</v>
       </c>
       <c r="AL208" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM208" s="15">
         <v>0.1</v>
@@ -32579,7 +32584,7 @@
         <v>73025001</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E209" s="15">
         <v>1</v>
@@ -32681,7 +32686,7 @@
         <v>0</v>
       </c>
       <c r="AL209" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM209" s="15">
         <v>0</v>
@@ -32707,7 +32712,7 @@
         <v>73025002</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E210" s="15">
         <v>1</v>
@@ -32809,7 +32814,7 @@
         <v>0</v>
       </c>
       <c r="AL210" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM210" s="15">
         <v>0</v>
@@ -32835,7 +32840,7 @@
         <v>73025003</v>
       </c>
       <c r="D211" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E211" s="15">
         <v>3</v>
@@ -32937,7 +32942,7 @@
         <v>0</v>
       </c>
       <c r="AL211" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM211" s="15">
         <v>0.1</v>
@@ -32963,7 +32968,7 @@
         <v>73026001</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E212" s="15">
         <v>1</v>
@@ -33065,7 +33070,7 @@
         <v>0</v>
       </c>
       <c r="AL212" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM212" s="15">
         <v>0</v>
@@ -33091,7 +33096,7 @@
         <v>73026002</v>
       </c>
       <c r="D213" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E213" s="15">
         <v>1</v>
@@ -33193,7 +33198,7 @@
         <v>0</v>
       </c>
       <c r="AL213" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM213" s="15">
         <v>0</v>
@@ -33219,7 +33224,7 @@
         <v>73026003</v>
       </c>
       <c r="D214" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E214" s="15">
         <v>3</v>
@@ -33321,7 +33326,7 @@
         <v>0</v>
       </c>
       <c r="AL214" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM214" s="15">
         <v>0.1</v>
@@ -33347,7 +33352,7 @@
         <v>73027001</v>
       </c>
       <c r="D215" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E215" s="15">
         <v>1</v>
@@ -33449,7 +33454,7 @@
         <v>0</v>
       </c>
       <c r="AL215" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM215" s="15">
         <v>0</v>
@@ -33475,7 +33480,7 @@
         <v>73027002</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E216" s="15">
         <v>1</v>
@@ -33577,7 +33582,7 @@
         <v>0</v>
       </c>
       <c r="AL216" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM216" s="15">
         <v>0</v>
@@ -33603,7 +33608,7 @@
         <v>73027003</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E217" s="15">
         <v>3</v>
@@ -33705,7 +33710,7 @@
         <v>0</v>
       </c>
       <c r="AL217" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM217" s="15">
         <v>0.1</v>
@@ -33731,7 +33736,7 @@
         <v>73028001</v>
       </c>
       <c r="D218" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E218" s="15">
         <v>1</v>
@@ -33833,7 +33838,7 @@
         <v>0</v>
       </c>
       <c r="AL218" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM218" s="15">
         <v>0.1</v>
@@ -33859,7 +33864,7 @@
         <v>73028002</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E219" s="15">
         <v>1</v>
@@ -33961,7 +33966,7 @@
         <v>0</v>
       </c>
       <c r="AL219" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM219" s="15">
         <v>0.1</v>
@@ -33987,7 +33992,7 @@
         <v>73028003</v>
       </c>
       <c r="D220" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E220" s="15">
         <v>3</v>
@@ -34083,13 +34088,13 @@
         <v>1</v>
       </c>
       <c r="AJ220" s="15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AK220" s="15">
         <v>0</v>
       </c>
       <c r="AL220" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM220" s="15">
         <v>0.1</v>
@@ -34115,7 +34120,7 @@
         <v>73029001</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E221" s="15">
         <v>1</v>
@@ -34217,7 +34222,7 @@
         <v>0</v>
       </c>
       <c r="AL221" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM221" s="15">
         <v>0.1</v>
@@ -34243,7 +34248,7 @@
         <v>73029002</v>
       </c>
       <c r="D222" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E222" s="26">
         <v>1</v>
@@ -34345,7 +34350,7 @@
         <v>0</v>
       </c>
       <c r="AL222" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM222" s="26">
         <v>0.1</v>
@@ -34371,7 +34376,7 @@
         <v>73029003</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E223" s="15">
         <v>3</v>
@@ -34467,13 +34472,13 @@
         <v>1</v>
       </c>
       <c r="AJ223" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK223" s="15">
         <v>0</v>
       </c>
       <c r="AL223" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM223" s="15">
         <v>0.1</v>
@@ -34499,7 +34504,7 @@
         <v>73030001</v>
       </c>
       <c r="D224" s="26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E224" s="26">
         <v>1</v>
@@ -34601,7 +34606,7 @@
         <v>0</v>
       </c>
       <c r="AL224" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM224" s="26">
         <v>0.1</v>
@@ -34627,7 +34632,7 @@
         <v>73030002</v>
       </c>
       <c r="D225" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E225" s="15">
         <v>1</v>
@@ -34729,7 +34734,7 @@
         <v>0</v>
       </c>
       <c r="AL225" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM225" s="15">
         <v>0.1</v>
@@ -34755,7 +34760,7 @@
         <v>73030003</v>
       </c>
       <c r="D226" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E226" s="15">
         <v>3</v>
@@ -34851,13 +34856,13 @@
         <v>1</v>
       </c>
       <c r="AJ226" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK226" s="15">
         <v>0</v>
       </c>
       <c r="AL226" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM226" s="15">
         <v>0.1</v>
@@ -34883,7 +34888,7 @@
         <v>73031001</v>
       </c>
       <c r="D227" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E227" s="26">
         <v>1</v>
@@ -34985,7 +34990,7 @@
         <v>0</v>
       </c>
       <c r="AL227" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM227" s="26">
         <v>0.1</v>
@@ -35011,7 +35016,7 @@
         <v>73031002</v>
       </c>
       <c r="D228" s="26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E228" s="26">
         <v>1</v>
@@ -35113,7 +35118,7 @@
         <v>0</v>
       </c>
       <c r="AL228" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM228" s="26">
         <v>0.1</v>
@@ -35139,7 +35144,7 @@
         <v>73031003</v>
       </c>
       <c r="D229" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E229" s="15">
         <v>3</v>
@@ -35235,13 +35240,13 @@
         <v>1</v>
       </c>
       <c r="AJ229" s="15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AK229" s="15">
         <v>0</v>
       </c>
       <c r="AL229" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM229" s="15">
         <v>0.1</v>
@@ -35267,7 +35272,7 @@
         <v>73032001</v>
       </c>
       <c r="D230" s="26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E230" s="26">
         <v>1</v>
@@ -35369,7 +35374,7 @@
         <v>0</v>
       </c>
       <c r="AL230" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM230" s="26">
         <v>0.1</v>
@@ -35395,7 +35400,7 @@
         <v>73032002</v>
       </c>
       <c r="D231" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E231" s="15">
         <v>1</v>
@@ -35497,7 +35502,7 @@
         <v>0</v>
       </c>
       <c r="AL231" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM231" s="15">
         <v>0.1</v>
@@ -35523,7 +35528,7 @@
         <v>73032003</v>
       </c>
       <c r="D232" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E232" s="15">
         <v>3</v>
@@ -35619,13 +35624,13 @@
         <v>1</v>
       </c>
       <c r="AJ232" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK232" s="15">
         <v>0</v>
       </c>
       <c r="AL232" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM232" s="15">
         <v>0.1</v>
@@ -35651,7 +35656,7 @@
         <v>73033001</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E233" s="15">
         <v>1</v>
@@ -35753,7 +35758,7 @@
         <v>0</v>
       </c>
       <c r="AL233" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM233" s="15">
         <v>0</v>
@@ -35779,7 +35784,7 @@
         <v>73033002</v>
       </c>
       <c r="D234" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E234" s="15">
         <v>1</v>
@@ -35881,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="AL234" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM234" s="15">
         <v>0</v>
@@ -35907,7 +35912,7 @@
         <v>73033003</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E235" s="15">
         <v>3</v>
@@ -36009,7 +36014,7 @@
         <v>0</v>
       </c>
       <c r="AL235" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM235" s="15">
         <v>0.1</v>
@@ -36035,7 +36040,7 @@
         <v>73034001</v>
       </c>
       <c r="D236" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E236" s="15">
         <v>1</v>
@@ -36137,7 +36142,7 @@
         <v>0</v>
       </c>
       <c r="AL236" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM236" s="15">
         <v>0</v>
@@ -36163,7 +36168,7 @@
         <v>73034002</v>
       </c>
       <c r="D237" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E237" s="15">
         <v>1</v>
@@ -36265,7 +36270,7 @@
         <v>0</v>
       </c>
       <c r="AL237" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM237" s="15">
         <v>0</v>
@@ -36291,7 +36296,7 @@
         <v>73034003</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E238" s="15">
         <v>3</v>
@@ -36393,7 +36398,7 @@
         <v>0</v>
       </c>
       <c r="AL238" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM238" s="15">
         <v>0.1</v>
@@ -36419,7 +36424,7 @@
         <v>73035001</v>
       </c>
       <c r="D239" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E239" s="15">
         <v>1</v>
@@ -36521,7 +36526,7 @@
         <v>0</v>
       </c>
       <c r="AL239" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM239" s="15">
         <v>0</v>
@@ -36547,7 +36552,7 @@
         <v>73035002</v>
       </c>
       <c r="D240" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E240" s="15">
         <v>1</v>
@@ -36649,7 +36654,7 @@
         <v>0</v>
       </c>
       <c r="AL240" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM240" s="15">
         <v>0</v>
@@ -36675,7 +36680,7 @@
         <v>73035003</v>
       </c>
       <c r="D241" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E241" s="15">
         <v>3</v>
@@ -36777,7 +36782,7 @@
         <v>0</v>
       </c>
       <c r="AL241" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM241" s="15">
         <v>0.1</v>
@@ -36803,7 +36808,7 @@
         <v>80000001</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E242" s="6">
         <v>5</v>
@@ -36932,7 +36937,7 @@
         <v>80000002</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E243" s="6">
         <v>5</v>
@@ -37061,7 +37066,7 @@
         <v>80000101</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E244" s="6">
         <v>5</v>
@@ -37163,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="AL244" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AM244" s="6">
         <v>0</v>
@@ -37190,7 +37195,7 @@
         <v>80000201</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E245" s="6">
         <v>5</v>
@@ -37292,7 +37297,7 @@
         <v>0</v>
       </c>
       <c r="AL245" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AM245" s="6">
         <v>0</v>
@@ -37319,7 +37324,7 @@
         <v>80000301</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E246" s="6">
         <v>5</v>
@@ -37421,7 +37426,7 @@
         <v>0</v>
       </c>
       <c r="AL246" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM246" s="6">
         <v>0</v>
@@ -37448,7 +37453,7 @@
         <v>80000401</v>
       </c>
       <c r="D247" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E247" s="6">
         <v>5</v>
@@ -37550,7 +37555,7 @@
         <v>0</v>
       </c>
       <c r="AL247" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AM247" s="6">
         <v>0</v>
@@ -37577,7 +37582,7 @@
         <v>80000501</v>
       </c>
       <c r="D248" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E248" s="6">
         <v>5</v>
@@ -37679,7 +37684,7 @@
         <v>0</v>
       </c>
       <c r="AL248" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AM248" s="6">
         <v>0</v>
@@ -37706,7 +37711,7 @@
         <v>90000001</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E249" s="6">
         <v>1</v>
@@ -37808,7 +37813,7 @@
         <v>0</v>
       </c>
       <c r="AL249" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AM249" s="6">
         <v>0</v>
@@ -37820,7 +37825,7 @@
         <v>60000331</v>
       </c>
       <c r="AP249" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AQ249" s="6"/>
       <c r="AR249" s="6">
@@ -37836,7 +37841,7 @@
         <v>90000002</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E250" s="6">
         <v>1</v>
@@ -37938,7 +37943,7 @@
         <v>0</v>
       </c>
       <c r="AL250" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AM250" s="6">
         <v>0</v>
@@ -37950,7 +37955,7 @@
         <v>70000001</v>
       </c>
       <c r="AP250" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AQ250" s="6"/>
       <c r="AR250" s="6">

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFBA317-4D39-4601-A35D-22D31E7F90F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABCA805-B556-4329-8037-39633228A904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29475" yWindow="360" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="452">
   <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -2248,6 +2248,10 @@
   </si>
   <si>
     <t>70504002,70504003,70504004,70504005,70504006</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -6203,10 +6207,10 @@
   <dimension ref="A1:BE274"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AM67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AM118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D77" sqref="D77"/>
+      <selection pane="bottomRight" activeCell="AN127" sqref="AN127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -15489,7 +15493,7 @@
         <v>70000001</v>
       </c>
       <c r="AP74" s="10" t="s">
-        <v>136</v>
+        <v>451</v>
       </c>
       <c r="AQ74" s="6"/>
       <c r="AR74" s="6">

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C34F53E-4FE9-42CF-8EBB-2DA2218A2996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065E4D97-1991-476A-ACEF-97B9FCBECE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="795" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="463">
   <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -2300,6 +2300,10 @@
   </si>
   <si>
     <t>73004101,73004102,73004103</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -6255,10 +6259,10 @@
   <dimension ref="A1:BE280"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AD126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AJ103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE139" sqref="AE139"/>
+      <selection pane="bottomRight" activeCell="AL109" sqref="AL109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -20009,7 +20013,7 @@
         <v>0</v>
       </c>
       <c r="AL109" s="10" t="s">
-        <v>260</v>
+        <v>462</v>
       </c>
       <c r="AM109" s="6">
         <v>0.1</v>
@@ -21289,7 +21293,7 @@
         <v>0</v>
       </c>
       <c r="AL119" s="10" t="s">
-        <v>261</v>
+        <v>462</v>
       </c>
       <c r="AM119" s="6">
         <v>0</v>
@@ -22241,7 +22245,7 @@
         <v>0</v>
       </c>
       <c r="N127" s="6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="O127" s="6">
         <v>2</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065E4D97-1991-476A-ACEF-97B9FCBECE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D391B4A-2041-43EF-B993-350C83BC3D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6259,10 +6259,10 @@
   <dimension ref="A1:BE280"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AJ103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL109" sqref="AL109"/>
+      <selection pane="bottomRight" activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D391B4A-2041-43EF-B993-350C83BC3D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D109F8-3640-4AAE-9B02-C3A83163475D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2145,10 +2145,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>70107001,70107002,70107003,70107004,70107005,70107006</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>巨石领主-卡布鲁</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -2305,6 +2301,10 @@
   <si>
     <t>0</t>
     <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>70107001,70107002,70107003,70107004,70107005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6259,10 +6259,10 @@
   <dimension ref="A1:BE280"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AM28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D120" sqref="D120"/>
+      <selection pane="bottomRight" activeCell="AP40" sqref="AP40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -10940,7 +10940,7 @@
         <v>70002012</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E39" s="6">
         <v>3</v>
@@ -11054,7 +11054,7 @@
         <v>70000001</v>
       </c>
       <c r="AP39" s="12" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="AQ39" s="6"/>
       <c r="AR39" s="6">
@@ -11438,7 +11438,7 @@
         <v>70000001</v>
       </c>
       <c r="AP42" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ42" s="6"/>
       <c r="AR42" s="6">
@@ -11822,7 +11822,7 @@
         <v>70000001</v>
       </c>
       <c r="AP45" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AQ45" s="6"/>
       <c r="AR45" s="6">
@@ -12590,7 +12590,7 @@
         <v>70000001</v>
       </c>
       <c r="AP51" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AQ51" s="12"/>
       <c r="AR51" s="6">
@@ -13102,7 +13102,7 @@
         <v>70000001</v>
       </c>
       <c r="AP55" s="36" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AQ55" s="6"/>
       <c r="AR55" s="6">
@@ -13116,7 +13116,7 @@
         <v>70003017</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E56" s="13">
         <v>3</v>
@@ -13497,7 +13497,7 @@
         <v>70000001</v>
       </c>
       <c r="AP58" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AQ58" s="27"/>
       <c r="AR58" s="27">
@@ -13625,7 +13625,7 @@
         <v>70000001</v>
       </c>
       <c r="AP59" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AQ59" s="6"/>
       <c r="AR59" s="6">
@@ -14009,7 +14009,7 @@
         <v>70000001</v>
       </c>
       <c r="AP62" s="37" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AQ62" s="27"/>
       <c r="AR62" s="27">
@@ -14393,7 +14393,7 @@
         <v>70000001</v>
       </c>
       <c r="AP65" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AQ65" s="6"/>
       <c r="AR65" s="6">
@@ -14521,7 +14521,7 @@
         <v>70000001</v>
       </c>
       <c r="AP66" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AQ66" s="6"/>
       <c r="AR66" s="6">
@@ -14905,7 +14905,7 @@
         <v>70000001</v>
       </c>
       <c r="AP69" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AQ69" s="27"/>
       <c r="AR69" s="27">
@@ -15289,7 +15289,7 @@
         <v>70000002</v>
       </c>
       <c r="AP72" s="43" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AQ72" s="6"/>
       <c r="AR72" s="6">
@@ -15417,7 +15417,7 @@
         <v>70000001</v>
       </c>
       <c r="AP73" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AQ73" s="6"/>
       <c r="AR73" s="6">
@@ -15545,7 +15545,7 @@
         <v>70000001</v>
       </c>
       <c r="AP74" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AQ74" s="6"/>
       <c r="AR74" s="6">
@@ -16313,7 +16313,7 @@
         <v>70000002</v>
       </c>
       <c r="AP80" s="43" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AQ80" s="6"/>
       <c r="AR80" s="6">
@@ -16441,7 +16441,7 @@
         <v>70000001</v>
       </c>
       <c r="AP81" s="43" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AQ81" s="6"/>
       <c r="AR81" s="6">
@@ -16455,7 +16455,7 @@
         <v>70005014</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E82" s="6">
         <v>3</v>
@@ -16557,7 +16557,7 @@
         <v>0</v>
       </c>
       <c r="AL82" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM82" s="6">
         <v>0</v>
@@ -16569,7 +16569,7 @@
         <v>70000001</v>
       </c>
       <c r="AP82" s="43" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AQ82" s="6"/>
       <c r="AR82" s="6">
@@ -19641,7 +19641,7 @@
         <v>70000001</v>
       </c>
       <c r="AP106" s="43" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AQ106" s="6"/>
       <c r="AR106" s="6">
@@ -19769,7 +19769,7 @@
         <v>70000001</v>
       </c>
       <c r="AP107" s="43" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AQ107" s="6"/>
       <c r="AR107" s="6">
@@ -19897,7 +19897,7 @@
         <v>70000001</v>
       </c>
       <c r="AP108" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AQ108" s="6"/>
       <c r="AR108" s="6">
@@ -19911,7 +19911,7 @@
         <v>72001014</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E109" s="6">
         <v>3</v>
@@ -20013,7 +20013,7 @@
         <v>0</v>
       </c>
       <c r="AL109" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AM109" s="6">
         <v>0.1</v>
@@ -20025,7 +20025,7 @@
         <v>70000001</v>
       </c>
       <c r="AP109" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AQ109" s="6"/>
       <c r="AR109" s="6">
@@ -20039,7 +20039,7 @@
         <v>72001015</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E110" s="6">
         <v>1</v>
@@ -20921,7 +20921,7 @@
         <v>70000001</v>
       </c>
       <c r="AP116" s="43" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AQ116" s="6"/>
       <c r="AR116" s="6">
@@ -21049,7 +21049,7 @@
         <v>70000001</v>
       </c>
       <c r="AP117" s="43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AQ117" s="6"/>
       <c r="AR117" s="6">
@@ -21177,7 +21177,7 @@
         <v>70000001</v>
       </c>
       <c r="AP118" s="43" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AQ118" s="6"/>
       <c r="AR118" s="6">
@@ -21191,7 +21191,7 @@
         <v>72002014</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E119" s="6">
         <v>1</v>
@@ -21293,7 +21293,7 @@
         <v>0</v>
       </c>
       <c r="AL119" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AM119" s="6">
         <v>0</v>
@@ -21305,7 +21305,7 @@
         <v>70000001</v>
       </c>
       <c r="AP119" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AQ119" s="6"/>
       <c r="AR119" s="6">
@@ -22073,7 +22073,7 @@
         <v>70000001</v>
       </c>
       <c r="AP125" s="43" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AQ125" s="6"/>
       <c r="AR125" s="6">
@@ -22201,7 +22201,7 @@
         <v>70000001</v>
       </c>
       <c r="AP126" s="43" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AQ126" s="6"/>
       <c r="AR126" s="6">
@@ -22329,7 +22329,7 @@
         <v>70000003</v>
       </c>
       <c r="AP127" s="43" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AQ127" s="6"/>
       <c r="AR127" s="6">
@@ -22343,7 +22343,7 @@
         <v>72003014</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E128" s="6">
         <v>3</v>
@@ -22457,7 +22457,7 @@
         <v>70000003</v>
       </c>
       <c r="AP128" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AQ128" s="6"/>
       <c r="AR128" s="6">
@@ -23097,7 +23097,7 @@
         <v>70000001</v>
       </c>
       <c r="AP133" s="43" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AQ133" s="6"/>
       <c r="AR133" s="6">
@@ -23225,7 +23225,7 @@
         <v>70000001</v>
       </c>
       <c r="AP134" s="43" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AQ134" s="6"/>
       <c r="AR134" s="6">
@@ -23353,7 +23353,7 @@
         <v>70000002</v>
       </c>
       <c r="AP135" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AQ135" s="6"/>
       <c r="AR135" s="6">
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="AL136" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AM136" s="6">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>72004015</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E137" s="6">
         <v>1</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFFE8C3-92B8-42D8-9325-BF3A3F5888DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDB9781-75D0-4C10-B82B-CC02A5549D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -872,7 +872,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="375">
   <si>
     <t>Id</t>
   </si>
@@ -1982,6 +1982,26 @@
   </si>
   <si>
     <t>62001101,62001102,62001103,62001104,62001105</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎魔守卫</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>曙光守卫</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎魔护卫弓手</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>曙光护卫弓手</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -5367,13 +5387,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE280"/>
+  <dimension ref="A1:BE284"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AK24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="J250" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP31" sqref="AP31"/>
+      <selection pane="bottomRight" activeCell="L260" sqref="L260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -37983,141 +38003,139 @@
       <c r="AU256" s="28"/>
     </row>
     <row r="257" spans="3:46" ht="20.100000000000001" customHeight="1">
-      <c r="C257" s="13">
-        <v>90000001</v>
-      </c>
-      <c r="D257" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="E257" s="13">
-        <v>1</v>
-      </c>
-      <c r="F257" s="13">
-        <v>0</v>
-      </c>
-      <c r="G257" s="13">
-        <v>0</v>
-      </c>
-      <c r="H257" s="13">
-        <v>0</v>
-      </c>
-      <c r="I257" s="13">
-        <v>90000001</v>
-      </c>
-      <c r="J257" s="13">
-        <v>0</v>
-      </c>
-      <c r="K257" s="13">
-        <v>0</v>
-      </c>
-      <c r="L257" s="13">
-        <v>51</v>
-      </c>
-      <c r="M257" s="13">
-        <v>2</v>
-      </c>
-      <c r="N257" s="13">
-        <v>6</v>
-      </c>
-      <c r="O257" s="13">
-        <v>2</v>
-      </c>
-      <c r="P257" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q257" s="13">
-        <v>55650</v>
+      <c r="C257" s="21">
+        <v>81000001</v>
+      </c>
+      <c r="D257" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="E257" s="21">
+        <v>1</v>
+      </c>
+      <c r="F257" s="21">
+        <v>0</v>
+      </c>
+      <c r="G257" s="21">
+        <v>0</v>
+      </c>
+      <c r="H257" s="21">
+        <v>0</v>
+      </c>
+      <c r="I257" s="21">
+        <v>72004004</v>
+      </c>
+      <c r="J257" s="21">
+        <v>0</v>
+      </c>
+      <c r="K257" s="21">
+        <v>0</v>
+      </c>
+      <c r="L257" s="21">
+        <v>20</v>
+      </c>
+      <c r="M257" s="21">
+        <v>2</v>
+      </c>
+      <c r="N257" s="21">
+        <v>2</v>
+      </c>
+      <c r="O257" s="21">
+        <v>2</v>
+      </c>
+      <c r="P257" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q257" s="21">
+        <v>38483</v>
       </c>
       <c r="R257" s="13">
-        <v>5300</v>
+        <v>1386</v>
       </c>
       <c r="S257" s="13">
-        <v>5300</v>
-      </c>
-      <c r="T257" s="13">
-        <v>1590</v>
-      </c>
-      <c r="U257" s="13">
-        <v>1590</v>
-      </c>
-      <c r="V257" s="13">
-        <v>0</v>
-      </c>
-      <c r="W257" s="13">
-        <v>0</v>
-      </c>
-      <c r="X257" s="13">
+        <v>1386</v>
+      </c>
+      <c r="T257" s="21">
+        <v>1100</v>
+      </c>
+      <c r="U257" s="21">
+        <v>1100</v>
+      </c>
+      <c r="V257" s="21">
+        <v>0</v>
+      </c>
+      <c r="W257" s="21">
+        <v>0</v>
+      </c>
+      <c r="X257" s="21">
         <v>0.75</v>
       </c>
-      <c r="Y257" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z257" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA257" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB257" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC257" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD257" s="13">
-        <v>3</v>
-      </c>
-      <c r="AE257" s="13">
-        <v>10</v>
-      </c>
-      <c r="AF257" s="13">
+      <c r="Y257" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z257" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA257" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB257" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC257" s="21">
+        <v>300</v>
+      </c>
+      <c r="AD257" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE257" s="21">
+        <v>30</v>
+      </c>
+      <c r="AF257" s="21">
         <v>7</v>
       </c>
-      <c r="AG257" s="13">
+      <c r="AG257" s="21">
         <v>1000</v>
       </c>
-      <c r="AH257" s="13">
-        <v>1210</v>
-      </c>
-      <c r="AI257" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ257" s="13">
-        <v>1</v>
-      </c>
-      <c r="AK257" s="13">
+      <c r="AH257" s="21">
+        <v>1180</v>
+      </c>
+      <c r="AI257" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ257" s="21">
+        <v>1</v>
+      </c>
+      <c r="AK257" s="21">
         <v>0</v>
       </c>
       <c r="AL257" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="AM257" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN257" s="13">
-        <v>1</v>
-      </c>
-      <c r="AO257" s="13">
-        <v>60000331</v>
+      <c r="AM257" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN257" s="21">
+        <v>1</v>
+      </c>
+      <c r="AO257" s="21">
+        <v>70000001</v>
       </c>
       <c r="AP257" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="AQ257" s="13"/>
-      <c r="AR257" s="13">
-        <v>1</v>
-      </c>
-      <c r="AS257" s="13"/>
-      <c r="AT257" s="13">
-        <v>30</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AQ257" s="21"/>
+      <c r="AR257" s="21">
+        <v>1</v>
+      </c>
+      <c r="AS257" s="21"/>
+      <c r="AT257" s="35"/>
     </row>
     <row r="258" spans="3:46" ht="20.100000000000001" customHeight="1">
-      <c r="C258" s="13">
-        <v>90000002</v>
+      <c r="C258" s="21">
+        <v>81000002</v>
       </c>
       <c r="D258" s="13" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E258" s="13">
         <v>1</v>
@@ -38132,7 +38150,7 @@
         <v>0</v>
       </c>
       <c r="I258" s="13">
-        <v>70001001</v>
+        <v>72001003</v>
       </c>
       <c r="J258" s="13">
         <v>0</v>
@@ -38141,13 +38159,13 @@
         <v>0</v>
       </c>
       <c r="L258" s="13">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="M258" s="13">
         <v>2</v>
       </c>
       <c r="N258" s="13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O258" s="13">
         <v>2</v>
@@ -38155,20 +38173,20 @@
       <c r="P258" s="13">
         <v>2</v>
       </c>
-      <c r="Q258" s="13">
-        <v>55650</v>
+      <c r="Q258" s="21">
+        <v>38483</v>
       </c>
       <c r="R258" s="13">
-        <v>5300</v>
+        <v>1386</v>
       </c>
       <c r="S258" s="13">
-        <v>5300</v>
+        <v>1386</v>
       </c>
       <c r="T258" s="13">
-        <v>1590</v>
+        <v>347</v>
       </c>
       <c r="U258" s="13">
-        <v>1590</v>
+        <v>347</v>
       </c>
       <c r="V258" s="13">
         <v>0</v>
@@ -38192,13 +38210,13 @@
         <v>0</v>
       </c>
       <c r="AC258" s="13">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AD258" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE258" s="13">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AF258" s="13">
         <v>7</v>
@@ -38207,7 +38225,7 @@
         <v>1000</v>
       </c>
       <c r="AH258" s="13">
-        <v>1210</v>
+        <v>280</v>
       </c>
       <c r="AI258" s="13">
         <v>0</v>
@@ -38219,7 +38237,7 @@
         <v>0</v>
       </c>
       <c r="AL258" s="23" t="s">
-        <v>92</v>
+        <v>374</v>
       </c>
       <c r="AM258" s="13">
         <v>0</v>
@@ -38227,7 +38245,7 @@
       <c r="AN258" s="13">
         <v>1</v>
       </c>
-      <c r="AO258" s="21">
+      <c r="AO258" s="13">
         <v>70000001</v>
       </c>
       <c r="AP258" s="23" t="s">
@@ -38238,14 +38256,524 @@
         <v>1</v>
       </c>
       <c r="AS258" s="13"/>
-      <c r="AT258" s="13">
+      <c r="AT258" s="18"/>
+    </row>
+    <row r="259" spans="3:46" ht="20.100000000000001" customHeight="1">
+      <c r="C259" s="21">
+        <v>81000011</v>
+      </c>
+      <c r="D259" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="E259" s="21">
+        <v>1</v>
+      </c>
+      <c r="F259" s="21">
+        <v>0</v>
+      </c>
+      <c r="G259" s="21">
+        <v>0</v>
+      </c>
+      <c r="H259" s="21">
+        <v>0</v>
+      </c>
+      <c r="I259" s="21">
+        <v>72004004</v>
+      </c>
+      <c r="J259" s="21">
+        <v>0</v>
+      </c>
+      <c r="K259" s="21">
+        <v>0</v>
+      </c>
+      <c r="L259" s="21">
         <v>20</v>
       </c>
+      <c r="M259" s="21">
+        <v>2</v>
+      </c>
+      <c r="N259" s="21">
+        <v>2</v>
+      </c>
+      <c r="O259" s="21">
+        <v>2</v>
+      </c>
+      <c r="P259" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q259" s="21">
+        <v>38483</v>
+      </c>
+      <c r="R259" s="13">
+        <v>1386</v>
+      </c>
+      <c r="S259" s="13">
+        <v>1386</v>
+      </c>
+      <c r="T259" s="21">
+        <v>1100</v>
+      </c>
+      <c r="U259" s="21">
+        <v>1100</v>
+      </c>
+      <c r="V259" s="21">
+        <v>0</v>
+      </c>
+      <c r="W259" s="21">
+        <v>0</v>
+      </c>
+      <c r="X259" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="Y259" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z259" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA259" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB259" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC259" s="21">
+        <v>300</v>
+      </c>
+      <c r="AD259" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE259" s="21">
+        <v>30</v>
+      </c>
+      <c r="AF259" s="21">
+        <v>7</v>
+      </c>
+      <c r="AG259" s="21">
+        <v>1000</v>
+      </c>
+      <c r="AH259" s="21">
+        <v>1180</v>
+      </c>
+      <c r="AI259" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ259" s="21">
+        <v>1</v>
+      </c>
+      <c r="AK259" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL259" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM259" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN259" s="21">
+        <v>1</v>
+      </c>
+      <c r="AO259" s="21">
+        <v>70000001</v>
+      </c>
+      <c r="AP259" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ259" s="21"/>
+      <c r="AR259" s="21">
+        <v>1</v>
+      </c>
+      <c r="AS259" s="21"/>
+      <c r="AT259" s="35"/>
     </row>
-    <row r="259" spans="3:46" ht="20.100000000000001" customHeight="1"/>
-    <row r="260" spans="3:46" ht="20.100000000000001" customHeight="1"/>
-    <row r="261" spans="3:46" ht="20.100000000000001" customHeight="1"/>
-    <row r="262" spans="3:46" ht="20.100000000000001" customHeight="1"/>
+    <row r="260" spans="3:46" ht="20.100000000000001" customHeight="1">
+      <c r="C260" s="21">
+        <v>81000012</v>
+      </c>
+      <c r="D260" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="E260" s="13">
+        <v>1</v>
+      </c>
+      <c r="F260" s="13">
+        <v>0</v>
+      </c>
+      <c r="G260" s="13">
+        <v>0</v>
+      </c>
+      <c r="H260" s="13">
+        <v>0</v>
+      </c>
+      <c r="I260" s="13">
+        <v>72001003</v>
+      </c>
+      <c r="J260" s="13">
+        <v>0</v>
+      </c>
+      <c r="K260" s="13">
+        <v>0</v>
+      </c>
+      <c r="L260" s="13">
+        <v>20</v>
+      </c>
+      <c r="M260" s="13">
+        <v>2</v>
+      </c>
+      <c r="N260" s="13">
+        <v>2</v>
+      </c>
+      <c r="O260" s="13">
+        <v>2</v>
+      </c>
+      <c r="P260" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q260" s="21">
+        <v>38483</v>
+      </c>
+      <c r="R260" s="13">
+        <v>1386</v>
+      </c>
+      <c r="S260" s="13">
+        <v>1386</v>
+      </c>
+      <c r="T260" s="13">
+        <v>347</v>
+      </c>
+      <c r="U260" s="13">
+        <v>347</v>
+      </c>
+      <c r="V260" s="13">
+        <v>0</v>
+      </c>
+      <c r="W260" s="13">
+        <v>0</v>
+      </c>
+      <c r="X260" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="Y260" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z260" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA260" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB260" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC260" s="13">
+        <v>300</v>
+      </c>
+      <c r="AD260" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE260" s="13">
+        <v>30</v>
+      </c>
+      <c r="AF260" s="13">
+        <v>7</v>
+      </c>
+      <c r="AG260" s="13">
+        <v>1000</v>
+      </c>
+      <c r="AH260" s="13">
+        <v>280</v>
+      </c>
+      <c r="AI260" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ260" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK260" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL260" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="AM260" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN260" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO260" s="13">
+        <v>70000001</v>
+      </c>
+      <c r="AP260" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ260" s="13"/>
+      <c r="AR260" s="13">
+        <v>1</v>
+      </c>
+      <c r="AS260" s="13"/>
+      <c r="AT260" s="18"/>
+    </row>
+    <row r="261" spans="3:46" ht="20.100000000000001" customHeight="1">
+      <c r="C261" s="13">
+        <v>90000001</v>
+      </c>
+      <c r="D261" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="E261" s="13">
+        <v>1</v>
+      </c>
+      <c r="F261" s="13">
+        <v>0</v>
+      </c>
+      <c r="G261" s="13">
+        <v>0</v>
+      </c>
+      <c r="H261" s="13">
+        <v>0</v>
+      </c>
+      <c r="I261" s="13">
+        <v>90000001</v>
+      </c>
+      <c r="J261" s="13">
+        <v>0</v>
+      </c>
+      <c r="K261" s="13">
+        <v>0</v>
+      </c>
+      <c r="L261" s="13">
+        <v>51</v>
+      </c>
+      <c r="M261" s="13">
+        <v>2</v>
+      </c>
+      <c r="N261" s="13">
+        <v>6</v>
+      </c>
+      <c r="O261" s="13">
+        <v>2</v>
+      </c>
+      <c r="P261" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q261" s="13">
+        <v>55650</v>
+      </c>
+      <c r="R261" s="13">
+        <v>5300</v>
+      </c>
+      <c r="S261" s="13">
+        <v>5300</v>
+      </c>
+      <c r="T261" s="13">
+        <v>1590</v>
+      </c>
+      <c r="U261" s="13">
+        <v>1590</v>
+      </c>
+      <c r="V261" s="13">
+        <v>0</v>
+      </c>
+      <c r="W261" s="13">
+        <v>0</v>
+      </c>
+      <c r="X261" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="Y261" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z261" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA261" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB261" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC261" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD261" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE261" s="13">
+        <v>10</v>
+      </c>
+      <c r="AF261" s="13">
+        <v>7</v>
+      </c>
+      <c r="AG261" s="13">
+        <v>1000</v>
+      </c>
+      <c r="AH261" s="13">
+        <v>1210</v>
+      </c>
+      <c r="AI261" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ261" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK261" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL261" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM261" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN261" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO261" s="13">
+        <v>60000331</v>
+      </c>
+      <c r="AP261" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="AQ261" s="13"/>
+      <c r="AR261" s="13">
+        <v>1</v>
+      </c>
+      <c r="AS261" s="13"/>
+      <c r="AT261" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="262" spans="3:46" ht="20.100000000000001" customHeight="1">
+      <c r="C262" s="13">
+        <v>90000002</v>
+      </c>
+      <c r="D262" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="E262" s="13">
+        <v>1</v>
+      </c>
+      <c r="F262" s="13">
+        <v>0</v>
+      </c>
+      <c r="G262" s="13">
+        <v>0</v>
+      </c>
+      <c r="H262" s="13">
+        <v>0</v>
+      </c>
+      <c r="I262" s="13">
+        <v>70001001</v>
+      </c>
+      <c r="J262" s="13">
+        <v>0</v>
+      </c>
+      <c r="K262" s="13">
+        <v>0</v>
+      </c>
+      <c r="L262" s="13">
+        <v>51</v>
+      </c>
+      <c r="M262" s="13">
+        <v>2</v>
+      </c>
+      <c r="N262" s="13">
+        <v>6</v>
+      </c>
+      <c r="O262" s="13">
+        <v>2</v>
+      </c>
+      <c r="P262" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q262" s="13">
+        <v>55650</v>
+      </c>
+      <c r="R262" s="13">
+        <v>5300</v>
+      </c>
+      <c r="S262" s="13">
+        <v>5300</v>
+      </c>
+      <c r="T262" s="13">
+        <v>1590</v>
+      </c>
+      <c r="U262" s="13">
+        <v>1590</v>
+      </c>
+      <c r="V262" s="13">
+        <v>0</v>
+      </c>
+      <c r="W262" s="13">
+        <v>0</v>
+      </c>
+      <c r="X262" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="Y262" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z262" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA262" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB262" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC262" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD262" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE262" s="13">
+        <v>10</v>
+      </c>
+      <c r="AF262" s="13">
+        <v>7</v>
+      </c>
+      <c r="AG262" s="13">
+        <v>1000</v>
+      </c>
+      <c r="AH262" s="13">
+        <v>1210</v>
+      </c>
+      <c r="AI262" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ262" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK262" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL262" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM262" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN262" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO262" s="21">
+        <v>70000001</v>
+      </c>
+      <c r="AP262" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ262" s="13"/>
+      <c r="AR262" s="13">
+        <v>1</v>
+      </c>
+      <c r="AS262" s="13"/>
+      <c r="AT262" s="13">
+        <v>20</v>
+      </c>
+    </row>
     <row r="263" spans="3:46" ht="20.100000000000001" customHeight="1"/>
     <row r="264" spans="3:46" ht="20.100000000000001" customHeight="1"/>
     <row r="265" spans="3:46" ht="20.100000000000001" customHeight="1"/>
@@ -38264,13 +38792,17 @@
     <row r="278" ht="20.100000000000001" customHeight="1"/>
     <row r="279" ht="20.100000000000001" customHeight="1"/>
     <row r="280" ht="20.100000000000001" customHeight="1"/>
+    <row r="281" ht="20.100000000000001" customHeight="1"/>
+    <row r="282" ht="20.100000000000001" customHeight="1"/>
+    <row r="283" ht="20.100000000000001" customHeight="1"/>
+    <row r="284" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231025FC-0E4D-44FF-B88E-FC2AF5FECC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3899AC77-EC11-4271-97FE-D22688071020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5416,7 +5416,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E250" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G260" sqref="G260"/>
+      <selection pane="bottomRight" activeCell="G269" sqref="G269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -38801,7 +38801,7 @@
         <v>101</v>
       </c>
       <c r="G257" s="13">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H257" s="21">
         <v>0</v>
@@ -38932,7 +38932,7 @@
         <v>101</v>
       </c>
       <c r="G258" s="13">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H258" s="13">
         <v>0</v>
@@ -39063,7 +39063,7 @@
         <v>102</v>
       </c>
       <c r="G259" s="13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H259" s="21">
         <v>0</v>
@@ -39194,7 +39194,7 @@
         <v>102</v>
       </c>
       <c r="G260" s="13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H260" s="13">
         <v>0</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3899AC77-EC11-4271-97FE-D22688071020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D626F00-4553-4407-9283-AE6AF9A478C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -5413,10 +5413,10 @@
   <dimension ref="A1:BF284"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E250" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E244" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G269" sqref="G269"/>
+      <selection pane="bottomRight" activeCell="J260" sqref="J260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -38809,8 +38809,8 @@
       <c r="I257" s="21">
         <v>0</v>
       </c>
-      <c r="J257" s="21">
-        <v>72004004</v>
+      <c r="J257" s="13">
+        <v>72001001</v>
       </c>
       <c r="K257" s="21">
         <v>0</v>
@@ -39071,8 +39071,8 @@
       <c r="I259" s="21">
         <v>0</v>
       </c>
-      <c r="J259" s="21">
-        <v>72004004</v>
+      <c r="J259" s="13">
+        <v>72001005</v>
       </c>
       <c r="K259" s="21">
         <v>0</v>
@@ -39203,7 +39203,7 @@
         <v>0</v>
       </c>
       <c r="J260" s="13">
-        <v>72001003</v>
+        <v>72001006</v>
       </c>
       <c r="K260" s="13">
         <v>0</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D626F00-4553-4407-9283-AE6AF9A478C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9957B673-DB7F-449A-81C7-FB81C2341BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,7 +868,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="381">
   <si>
     <t>Id</t>
   </si>
@@ -2011,6 +2011,17 @@
   <si>
     <t>int</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎魔骑兵</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>曙光骑兵</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>74001001</t>
   </si>
 </sst>
 </file>
@@ -5410,13 +5421,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BF284"/>
+  <dimension ref="A1:BF286"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E244" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AD244" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J260" sqref="J260"/>
+      <selection pane="bottomRight" activeCell="AE257" sqref="AE257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -38884,8 +38895,8 @@
       <c r="AH257" s="21">
         <v>1000</v>
       </c>
-      <c r="AI257" s="21">
-        <v>1180</v>
+      <c r="AI257" s="13">
+        <v>0</v>
       </c>
       <c r="AJ257" s="21">
         <v>0</v>
@@ -38909,7 +38920,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ257" s="23" t="s">
-        <v>92</v>
+        <v>380</v>
       </c>
       <c r="AR257" s="21"/>
       <c r="AS257" s="21">
@@ -38956,7 +38967,7 @@
         <v>2</v>
       </c>
       <c r="O258" s="13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P258" s="13">
         <v>2</v>
@@ -39016,7 +39027,7 @@
         <v>1000</v>
       </c>
       <c r="AI258" s="13">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AJ258" s="13">
         <v>0</v>
@@ -39037,7 +39048,7 @@
         <v>1</v>
       </c>
       <c r="AP258" s="13">
-        <v>70000001</v>
+        <v>70000004</v>
       </c>
       <c r="AQ258" s="23" t="s">
         <v>92</v>
@@ -39051,19 +39062,19 @@
     </row>
     <row r="259" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C259" s="21">
-        <v>81000011</v>
+        <v>81000003</v>
       </c>
       <c r="D259" s="21" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E259" s="21">
         <v>1</v>
       </c>
       <c r="F259" s="21">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G259" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H259" s="21">
         <v>0</v>
@@ -39072,7 +39083,7 @@
         <v>0</v>
       </c>
       <c r="J259" s="13">
-        <v>72001005</v>
+        <v>72001007</v>
       </c>
       <c r="K259" s="21">
         <v>0</v>
@@ -39146,8 +39157,8 @@
       <c r="AH259" s="21">
         <v>1000</v>
       </c>
-      <c r="AI259" s="21">
-        <v>1180</v>
+      <c r="AI259" s="13">
+        <v>0</v>
       </c>
       <c r="AJ259" s="21">
         <v>0</v>
@@ -39171,7 +39182,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ259" s="23" t="s">
-        <v>92</v>
+        <v>380</v>
       </c>
       <c r="AR259" s="21"/>
       <c r="AS259" s="21">
@@ -39182,48 +39193,48 @@
     </row>
     <row r="260" spans="3:47" ht="20.100000000000001" customHeight="1">
       <c r="C260" s="21">
-        <v>81000012</v>
+        <v>81000011</v>
       </c>
       <c r="D260" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="E260" s="13">
-        <v>1</v>
-      </c>
-      <c r="F260" s="13">
+        <v>371</v>
+      </c>
+      <c r="E260" s="21">
+        <v>1</v>
+      </c>
+      <c r="F260" s="21">
         <v>102</v>
       </c>
       <c r="G260" s="13">
         <v>2</v>
       </c>
-      <c r="H260" s="13">
-        <v>0</v>
-      </c>
-      <c r="I260" s="13">
+      <c r="H260" s="21">
+        <v>0</v>
+      </c>
+      <c r="I260" s="21">
         <v>0</v>
       </c>
       <c r="J260" s="13">
-        <v>72001006</v>
-      </c>
-      <c r="K260" s="13">
-        <v>0</v>
-      </c>
-      <c r="L260" s="13">
-        <v>0</v>
-      </c>
-      <c r="M260" s="13">
+        <v>72001005</v>
+      </c>
+      <c r="K260" s="21">
+        <v>0</v>
+      </c>
+      <c r="L260" s="21">
+        <v>0</v>
+      </c>
+      <c r="M260" s="21">
         <v>20</v>
       </c>
-      <c r="N260" s="13">
-        <v>2</v>
-      </c>
-      <c r="O260" s="13">
-        <v>2</v>
-      </c>
-      <c r="P260" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q260" s="13">
+      <c r="N260" s="21">
+        <v>2</v>
+      </c>
+      <c r="O260" s="21">
+        <v>2</v>
+      </c>
+      <c r="P260" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q260" s="21">
         <v>2</v>
       </c>
       <c r="R260" s="21">
@@ -39235,97 +39246,97 @@
       <c r="T260" s="13">
         <v>1386</v>
       </c>
-      <c r="U260" s="13">
-        <v>347</v>
-      </c>
-      <c r="V260" s="13">
-        <v>347</v>
-      </c>
-      <c r="W260" s="13">
-        <v>0</v>
-      </c>
-      <c r="X260" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y260" s="13">
+      <c r="U260" s="21">
+        <v>1100</v>
+      </c>
+      <c r="V260" s="21">
+        <v>1100</v>
+      </c>
+      <c r="W260" s="21">
+        <v>0</v>
+      </c>
+      <c r="X260" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y260" s="21">
         <v>0.75</v>
       </c>
-      <c r="Z260" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA260" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB260" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC260" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD260" s="13">
+      <c r="Z260" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA260" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB260" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC260" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD260" s="21">
         <v>300</v>
       </c>
-      <c r="AE260" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF260" s="13">
+      <c r="AE260" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF260" s="21">
         <v>30</v>
       </c>
-      <c r="AG260" s="13">
+      <c r="AG260" s="21">
         <v>7</v>
       </c>
-      <c r="AH260" s="13">
+      <c r="AH260" s="21">
         <v>1000</v>
       </c>
       <c r="AI260" s="13">
-        <v>280</v>
-      </c>
-      <c r="AJ260" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK260" s="13">
-        <v>1</v>
-      </c>
-      <c r="AL260" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ260" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK260" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL260" s="21">
         <v>0</v>
       </c>
       <c r="AM260" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="AN260" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO260" s="13">
-        <v>1</v>
-      </c>
-      <c r="AP260" s="13">
+        <v>92</v>
+      </c>
+      <c r="AN260" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO260" s="21">
+        <v>1</v>
+      </c>
+      <c r="AP260" s="21">
         <v>70000001</v>
       </c>
       <c r="AQ260" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR260" s="13"/>
-      <c r="AS260" s="13">
-        <v>1</v>
-      </c>
-      <c r="AT260" s="13"/>
-      <c r="AU260" s="18"/>
+        <v>380</v>
+      </c>
+      <c r="AR260" s="21"/>
+      <c r="AS260" s="21">
+        <v>1</v>
+      </c>
+      <c r="AT260" s="21"/>
+      <c r="AU260" s="35"/>
     </row>
     <row r="261" spans="3:47" ht="20.100000000000001" customHeight="1">
-      <c r="C261" s="13">
-        <v>90000001</v>
-      </c>
-      <c r="D261" s="13" t="s">
-        <v>366</v>
+      <c r="C261" s="21">
+        <v>81000012</v>
+      </c>
+      <c r="D261" s="21" t="s">
+        <v>373</v>
       </c>
       <c r="E261" s="13">
         <v>1</v>
       </c>
       <c r="F261" s="13">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G261" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H261" s="13">
         <v>0</v>
@@ -39334,7 +39345,7 @@
         <v>0</v>
       </c>
       <c r="J261" s="13">
-        <v>90000001</v>
+        <v>72001006</v>
       </c>
       <c r="K261" s="13">
         <v>0</v>
@@ -39343,13 +39354,13 @@
         <v>0</v>
       </c>
       <c r="M261" s="13">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N261" s="13">
         <v>2</v>
       </c>
       <c r="O261" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P261" s="13">
         <v>2</v>
@@ -39357,20 +39368,20 @@
       <c r="Q261" s="13">
         <v>2</v>
       </c>
-      <c r="R261" s="13">
-        <v>55650</v>
+      <c r="R261" s="21">
+        <v>38483</v>
       </c>
       <c r="S261" s="13">
-        <v>5300</v>
+        <v>1386</v>
       </c>
       <c r="T261" s="13">
-        <v>5300</v>
+        <v>1386</v>
       </c>
       <c r="U261" s="13">
-        <v>1590</v>
+        <v>347</v>
       </c>
       <c r="V261" s="13">
-        <v>1590</v>
+        <v>347</v>
       </c>
       <c r="W261" s="13">
         <v>0</v>
@@ -39394,13 +39405,13 @@
         <v>0</v>
       </c>
       <c r="AD261" s="13">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AE261" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF261" s="13">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AG261" s="13">
         <v>7</v>
@@ -39409,7 +39420,7 @@
         <v>1000</v>
       </c>
       <c r="AI261" s="13">
-        <v>1210</v>
+        <v>0</v>
       </c>
       <c r="AJ261" s="13">
         <v>0</v>
@@ -39421,44 +39432,42 @@
         <v>0</v>
       </c>
       <c r="AM261" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="AN261" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO261" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP261" s="13">
+        <v>70000004</v>
+      </c>
+      <c r="AQ261" s="23" t="s">
         <v>92</v>
-      </c>
-      <c r="AN261" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO261" s="13">
-        <v>1</v>
-      </c>
-      <c r="AP261" s="13">
-        <v>60000331</v>
-      </c>
-      <c r="AQ261" s="23" t="s">
-        <v>367</v>
       </c>
       <c r="AR261" s="13"/>
       <c r="AS261" s="13">
         <v>1</v>
       </c>
       <c r="AT261" s="13"/>
-      <c r="AU261" s="13">
-        <v>30</v>
-      </c>
+      <c r="AU261" s="18"/>
     </row>
     <row r="262" spans="3:47" ht="20.100000000000001" customHeight="1">
-      <c r="C262" s="13">
-        <v>90000002</v>
-      </c>
-      <c r="D262" s="13" t="s">
-        <v>368</v>
+      <c r="C262" s="21">
+        <v>81000013</v>
+      </c>
+      <c r="D262" s="21" t="s">
+        <v>379</v>
       </c>
       <c r="E262" s="13">
         <v>1</v>
       </c>
       <c r="F262" s="13">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G262" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H262" s="13">
         <v>0</v>
@@ -39467,7 +39476,7 @@
         <v>0</v>
       </c>
       <c r="J262" s="13">
-        <v>70001001</v>
+        <v>72001008</v>
       </c>
       <c r="K262" s="13">
         <v>0</v>
@@ -39476,13 +39485,13 @@
         <v>0</v>
       </c>
       <c r="M262" s="13">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N262" s="13">
         <v>2</v>
       </c>
       <c r="O262" s="13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P262" s="13">
         <v>2</v>
@@ -39490,20 +39499,20 @@
       <c r="Q262" s="13">
         <v>2</v>
       </c>
-      <c r="R262" s="13">
-        <v>55650</v>
+      <c r="R262" s="21">
+        <v>38483</v>
       </c>
       <c r="S262" s="13">
-        <v>5300</v>
+        <v>1386</v>
       </c>
       <c r="T262" s="13">
-        <v>5300</v>
+        <v>1386</v>
       </c>
       <c r="U262" s="13">
-        <v>1590</v>
+        <v>347</v>
       </c>
       <c r="V262" s="13">
-        <v>1590</v>
+        <v>347</v>
       </c>
       <c r="W262" s="13">
         <v>0</v>
@@ -39527,13 +39536,13 @@
         <v>0</v>
       </c>
       <c r="AD262" s="13">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AE262" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF262" s="13">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AG262" s="13">
         <v>7</v>
@@ -39542,7 +39551,7 @@
         <v>1000</v>
       </c>
       <c r="AI262" s="13">
-        <v>1210</v>
+        <v>0</v>
       </c>
       <c r="AJ262" s="13">
         <v>0</v>
@@ -39554,7 +39563,7 @@
         <v>0</v>
       </c>
       <c r="AM262" s="23" t="s">
-        <v>92</v>
+        <v>374</v>
       </c>
       <c r="AN262" s="13">
         <v>0</v>
@@ -39562,23 +39571,285 @@
       <c r="AO262" s="13">
         <v>1</v>
       </c>
-      <c r="AP262" s="21">
+      <c r="AP262" s="13">
         <v>70000001</v>
       </c>
       <c r="AQ262" s="23" t="s">
-        <v>92</v>
+        <v>380</v>
       </c>
       <c r="AR262" s="13"/>
       <c r="AS262" s="13">
         <v>1</v>
       </c>
       <c r="AT262" s="13"/>
-      <c r="AU262" s="13">
+      <c r="AU262" s="18"/>
+    </row>
+    <row r="263" spans="3:47" ht="20.100000000000001" customHeight="1">
+      <c r="C263" s="13">
+        <v>90000001</v>
+      </c>
+      <c r="D263" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="E263" s="13">
+        <v>1</v>
+      </c>
+      <c r="F263" s="13">
+        <v>0</v>
+      </c>
+      <c r="G263" s="13">
+        <v>0</v>
+      </c>
+      <c r="H263" s="13">
+        <v>0</v>
+      </c>
+      <c r="I263" s="13">
+        <v>0</v>
+      </c>
+      <c r="J263" s="13">
+        <v>90000001</v>
+      </c>
+      <c r="K263" s="13">
+        <v>0</v>
+      </c>
+      <c r="L263" s="13">
+        <v>0</v>
+      </c>
+      <c r="M263" s="13">
+        <v>51</v>
+      </c>
+      <c r="N263" s="13">
+        <v>2</v>
+      </c>
+      <c r="O263" s="13">
+        <v>6</v>
+      </c>
+      <c r="P263" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q263" s="13">
+        <v>2</v>
+      </c>
+      <c r="R263" s="13">
+        <v>55650</v>
+      </c>
+      <c r="S263" s="13">
+        <v>5300</v>
+      </c>
+      <c r="T263" s="13">
+        <v>5300</v>
+      </c>
+      <c r="U263" s="13">
+        <v>1590</v>
+      </c>
+      <c r="V263" s="13">
+        <v>1590</v>
+      </c>
+      <c r="W263" s="13">
+        <v>0</v>
+      </c>
+      <c r="X263" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y263" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="Z263" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA263" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB263" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC263" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD263" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE263" s="13">
+        <v>3</v>
+      </c>
+      <c r="AF263" s="13">
+        <v>10</v>
+      </c>
+      <c r="AG263" s="13">
+        <v>7</v>
+      </c>
+      <c r="AH263" s="13">
+        <v>1000</v>
+      </c>
+      <c r="AI263" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ263" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK263" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL263" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM263" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN263" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO263" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP263" s="13">
+        <v>60000331</v>
+      </c>
+      <c r="AQ263" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="AR263" s="13"/>
+      <c r="AS263" s="13">
+        <v>1</v>
+      </c>
+      <c r="AT263" s="13"/>
+      <c r="AU263" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="264" spans="3:47" ht="20.100000000000001" customHeight="1">
+      <c r="C264" s="13">
+        <v>90000002</v>
+      </c>
+      <c r="D264" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="E264" s="13">
+        <v>1</v>
+      </c>
+      <c r="F264" s="13">
+        <v>0</v>
+      </c>
+      <c r="G264" s="13">
+        <v>0</v>
+      </c>
+      <c r="H264" s="13">
+        <v>0</v>
+      </c>
+      <c r="I264" s="13">
+        <v>0</v>
+      </c>
+      <c r="J264" s="13">
+        <v>70001001</v>
+      </c>
+      <c r="K264" s="13">
+        <v>0</v>
+      </c>
+      <c r="L264" s="13">
+        <v>0</v>
+      </c>
+      <c r="M264" s="13">
+        <v>51</v>
+      </c>
+      <c r="N264" s="13">
+        <v>2</v>
+      </c>
+      <c r="O264" s="13">
+        <v>6</v>
+      </c>
+      <c r="P264" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q264" s="13">
+        <v>2</v>
+      </c>
+      <c r="R264" s="13">
+        <v>55650</v>
+      </c>
+      <c r="S264" s="13">
+        <v>5300</v>
+      </c>
+      <c r="T264" s="13">
+        <v>5300</v>
+      </c>
+      <c r="U264" s="13">
+        <v>1590</v>
+      </c>
+      <c r="V264" s="13">
+        <v>1590</v>
+      </c>
+      <c r="W264" s="13">
+        <v>0</v>
+      </c>
+      <c r="X264" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y264" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="Z264" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA264" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB264" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC264" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD264" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE264" s="13">
+        <v>3</v>
+      </c>
+      <c r="AF264" s="13">
+        <v>10</v>
+      </c>
+      <c r="AG264" s="13">
+        <v>7</v>
+      </c>
+      <c r="AH264" s="13">
+        <v>1000</v>
+      </c>
+      <c r="AI264" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ264" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK264" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL264" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM264" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN264" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO264" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP264" s="21">
+        <v>70000001</v>
+      </c>
+      <c r="AQ264" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR264" s="13"/>
+      <c r="AS264" s="13">
+        <v>1</v>
+      </c>
+      <c r="AT264" s="13"/>
+      <c r="AU264" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="3:47" ht="20.100000000000001" customHeight="1"/>
-    <row r="264" spans="3:47" ht="20.100000000000001" customHeight="1"/>
     <row r="265" spans="3:47" ht="20.100000000000001" customHeight="1"/>
     <row r="266" spans="3:47" ht="20.100000000000001" customHeight="1"/>
     <row r="267" spans="3:47" ht="20.100000000000001" customHeight="1"/>
@@ -39599,6 +39870,8 @@
     <row r="282" ht="20.100000000000001" customHeight="1"/>
     <row r="283" ht="20.100000000000001" customHeight="1"/>
     <row r="284" ht="20.100000000000001" customHeight="1"/>
+    <row r="285" ht="20.100000000000001" customHeight="1"/>
+    <row r="286" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9957B673-DB7F-449A-81C7-FB81C2341BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F3F10C-3F3A-4CC0-AC3F-7888A4EF3B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="165" yWindow="990" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -5424,10 +5424,10 @@
   <dimension ref="A1:BF286"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AD244" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AD69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE257" sqref="AE257"/>
+      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F3F10C-3F3A-4CC0-AC3F-7888A4EF3B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D906809-D06D-4184-BFCC-45BEF8CFE6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="990" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -5424,10 +5424,10 @@
   <dimension ref="A1:BF286"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AD69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AS252" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
+      <selection pane="bottomRight" activeCell="A257" sqref="A257:XFD259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -38809,7 +38809,7 @@
         <v>1</v>
       </c>
       <c r="F257" s="21">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G257" s="13">
         <v>1</v>
@@ -38924,7 +38924,7 @@
       </c>
       <c r="AR257" s="21"/>
       <c r="AS257" s="21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AT257" s="21"/>
       <c r="AU257" s="35"/>
@@ -38940,7 +38940,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="13">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G258" s="13">
         <v>1</v>
@@ -39055,7 +39055,7 @@
       </c>
       <c r="AR258" s="13"/>
       <c r="AS258" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AT258" s="13"/>
       <c r="AU258" s="18"/>
@@ -39071,7 +39071,7 @@
         <v>1</v>
       </c>
       <c r="F259" s="21">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G259" s="13">
         <v>1</v>
@@ -39186,7 +39186,7 @@
       </c>
       <c r="AR259" s="21"/>
       <c r="AS259" s="21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AT259" s="21"/>
       <c r="AU259" s="35"/>
@@ -39202,7 +39202,7 @@
         <v>1</v>
       </c>
       <c r="F260" s="21">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G260" s="13">
         <v>2</v>
@@ -39333,7 +39333,7 @@
         <v>1</v>
       </c>
       <c r="F261" s="13">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G261" s="13">
         <v>2</v>
@@ -39464,7 +39464,7 @@
         <v>1</v>
       </c>
       <c r="F262" s="13">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G262" s="13">
         <v>2</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D906809-D06D-4184-BFCC-45BEF8CFE6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3140ECE-A17A-486D-86A0-8B2D7CEB4F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -5424,10 +5424,10 @@
   <dimension ref="A1:BF286"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AS252" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E241" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A257" sqref="A257:XFD259"/>
+      <selection pane="bottomRight" activeCell="I252" sqref="I252:AT256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3140ECE-A17A-486D-86A0-8B2D7CEB4F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904497E7-5861-484B-91EF-7632BAE9FF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -5424,10 +5424,10 @@
   <dimension ref="A1:BF286"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E241" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AQ241" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I252" sqref="I252:AT256"/>
+      <selection pane="bottomRight" activeCell="AS259" sqref="AS259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -38000,7 +38000,7 @@
       </c>
       <c r="AR250" s="13"/>
       <c r="AS250" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AT250" s="13"/>
       <c r="AU250" s="13"/>
@@ -38132,7 +38132,7 @@
       </c>
       <c r="AR251" s="13"/>
       <c r="AS251" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AT251" s="13"/>
       <c r="AU251" s="13"/>
@@ -38924,7 +38924,7 @@
       </c>
       <c r="AR257" s="21"/>
       <c r="AS257" s="21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AT257" s="21"/>
       <c r="AU257" s="35"/>
@@ -39055,7 +39055,7 @@
       </c>
       <c r="AR258" s="13"/>
       <c r="AS258" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AT258" s="13"/>
       <c r="AU258" s="18"/>
@@ -39186,7 +39186,7 @@
       </c>
       <c r="AR259" s="21"/>
       <c r="AS259" s="21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AT259" s="21"/>
       <c r="AU259" s="35"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC3C854-8E61-4AF5-A0CF-AF3164310D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90BBF1F-74F5-4B1F-8CF9-16162BE3FA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29790" yWindow="285" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MonsterProto!$E$1:$E$256</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -970,7 +980,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="390">
   <si>
     <t>Id</t>
   </si>
@@ -1869,9 +1879,6 @@
     <t>601000311,600030201,601100107,601300101,601100308,601100309,601501301</t>
   </si>
   <si>
-    <t>73002301,73002302,73002303,73002304,73002305</t>
-  </si>
-  <si>
     <t>爆炸史莱姆</t>
   </si>
   <si>
@@ -1915,9 +1922,6 @@
   </si>
   <si>
     <t>601000411,600040201,601100106,601400101,601100408,601100409</t>
-  </si>
-  <si>
-    <t>73003201,73003202,73003203,73003204</t>
   </si>
   <si>
     <t>寒冰之王领主</t>
@@ -2110,6 +2114,55 @@
   </si>
   <si>
     <t>10010033,1</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>上</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>下</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>-36.61,0.34;-1.98@52.67;0.34;-3.16</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>-47.7;0.34;9.7@-25;0.34;35.26@2.82;0.34;43.8@31.8;0.34;42.1@57.64;0.34;23.84@62.92;0.34;9.11</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>-47.4;0.34;-12.06@-39.48;0.34;-27.5@-22.3;0.34;-38.8@-0.55;0.34;-43.9@21.93;0.34;-45.1@41.47;0.34;-39.51@55.61;0.34;-28.96@62.07;0.34;-15.09</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.67;0.34;-3.16@-36.61,0.34;-1.98</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>62.92;0.34;9.11@57.64;0.34;23.84@31.8;0.34;42.1@2.82;0.34;43.8@-25;0.34;35.26@-47.7;0.34;9.7</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">62.07;0.34;-15.09@55.61;0.34;-28.96@41.47;0.34;-39.51@21.93;0.34;-45.1@-0.55;0.34;-43.9@-22.3;0.34;-38.8@-39.48;0.34;-27.5@-47.4;0.34;-12.06
+</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>73003201,73003202,73003203,73003204</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>73002301,73002302,73002303,73002304,73002305</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -3768,7 +3821,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3879,6 +3932,13 @@
     </xf>
     <xf numFmtId="3" fontId="9" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="427">
@@ -5488,13 +5548,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BF286"/>
+  <dimension ref="A1:BF290"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AN244" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AN257" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AR255" sqref="AR255"/>
+      <selection pane="bottomRight" activeCell="AR263" sqref="AR263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -5938,7 +5998,7 @@
         <v>91</v>
       </c>
       <c r="AR5" s="11" t="s">
-        <v>91</v>
+        <v>389</v>
       </c>
       <c r="AS5" s="11" t="s">
         <v>88</v>
@@ -20755,7 +20815,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ118" s="41" t="s">
-        <v>299</v>
+        <v>388</v>
       </c>
       <c r="AR118" s="12"/>
       <c r="AS118" s="12">
@@ -20769,7 +20829,7 @@
         <v>72002014</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E119" s="12">
         <v>1</v>
@@ -20886,7 +20946,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ119" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AR119" s="12"/>
       <c r="AS119" s="12">
@@ -20900,7 +20960,7 @@
         <v>72003001</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E120" s="12">
         <v>1</v>
@@ -21005,7 +21065,7 @@
         <v>0</v>
       </c>
       <c r="AM120" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AN120" s="12">
         <v>0</v>
@@ -21031,7 +21091,7 @@
         <v>72003002</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E121" s="12">
         <v>1</v>
@@ -21136,7 +21196,7 @@
         <v>0</v>
       </c>
       <c r="AM121" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AN121" s="12">
         <v>0</v>
@@ -21162,7 +21222,7 @@
         <v>72003003</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E122" s="12">
         <v>1</v>
@@ -21267,7 +21327,7 @@
         <v>0</v>
       </c>
       <c r="AM122" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AN122" s="12">
         <v>0</v>
@@ -21293,7 +21353,7 @@
         <v>72003004</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E123" s="12">
         <v>1</v>
@@ -21398,7 +21458,7 @@
         <v>0</v>
       </c>
       <c r="AM123" s="23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AN123" s="12">
         <v>0</v>
@@ -21424,7 +21484,7 @@
         <v>72003005</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E124" s="12">
         <v>1</v>
@@ -21529,7 +21589,7 @@
         <v>0</v>
       </c>
       <c r="AM124" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AN124" s="12">
         <v>0</v>
@@ -21555,7 +21615,7 @@
         <v>72003011</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E125" s="12">
         <v>3</v>
@@ -21660,7 +21720,7 @@
         <v>0</v>
       </c>
       <c r="AM125" s="23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN125" s="12">
         <v>0.1</v>
@@ -21672,7 +21732,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ125" s="41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AR125" s="12"/>
       <c r="AS125" s="12">
@@ -21686,7 +21746,7 @@
         <v>72003012</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E126" s="12">
         <v>3</v>
@@ -21791,7 +21851,7 @@
         <v>0</v>
       </c>
       <c r="AM126" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AN126" s="12">
         <v>0.1</v>
@@ -21803,7 +21863,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ126" s="41" t="s">
-        <v>315</v>
+        <v>387</v>
       </c>
       <c r="AR126" s="12"/>
       <c r="AS126" s="12">
@@ -21817,7 +21877,7 @@
         <v>72003013</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E127" s="12">
         <v>3</v>
@@ -21922,7 +21982,7 @@
         <v>0</v>
       </c>
       <c r="AM127" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AN127" s="12">
         <v>0.1</v>
@@ -21934,7 +21994,7 @@
         <v>70000003</v>
       </c>
       <c r="AQ127" s="41" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AR127" s="12"/>
       <c r="AS127" s="12">
@@ -21948,7 +22008,7 @@
         <v>72003014</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E128" s="12">
         <v>3</v>
@@ -22065,7 +22125,7 @@
         <v>70000003</v>
       </c>
       <c r="AQ128" s="23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AR128" s="12"/>
       <c r="AS128" s="12">
@@ -22079,7 +22139,7 @@
         <v>72004001</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E129" s="12">
         <v>1</v>
@@ -22184,7 +22244,7 @@
         <v>0</v>
       </c>
       <c r="AM129" s="23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AN129" s="12">
         <v>0</v>
@@ -22210,7 +22270,7 @@
         <v>72004002</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E130" s="12">
         <v>1</v>
@@ -22315,7 +22375,7 @@
         <v>0</v>
       </c>
       <c r="AM130" s="23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AN130" s="12">
         <v>0</v>
@@ -22341,7 +22401,7 @@
         <v>72004003</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E131" s="12">
         <v>1</v>
@@ -22446,7 +22506,7 @@
         <v>0</v>
       </c>
       <c r="AM131" s="23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AN131" s="12">
         <v>0</v>
@@ -22472,7 +22532,7 @@
         <v>72004004</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E132" s="12">
         <v>1</v>
@@ -22577,7 +22637,7 @@
         <v>0</v>
       </c>
       <c r="AM132" s="23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AN132" s="12">
         <v>0</v>
@@ -22603,7 +22663,7 @@
         <v>72004011</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E133" s="12">
         <v>3</v>
@@ -22708,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="AM133" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AN133" s="12">
         <v>0.1</v>
@@ -22720,7 +22780,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ133" s="41" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR133" s="12"/>
       <c r="AS133" s="12">
@@ -22734,7 +22794,7 @@
         <v>72004012</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E134" s="12">
         <v>3</v>
@@ -22839,7 +22899,7 @@
         <v>0</v>
       </c>
       <c r="AM134" s="23" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AN134" s="12">
         <v>0.1</v>
@@ -22851,7 +22911,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ134" s="41" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AR134" s="12"/>
       <c r="AS134" s="12">
@@ -22865,7 +22925,7 @@
         <v>72004013</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E135" s="12">
         <v>3</v>
@@ -22970,7 +23030,7 @@
         <v>0</v>
       </c>
       <c r="AM135" s="23" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AN135" s="12">
         <v>0.1</v>
@@ -22982,7 +23042,7 @@
         <v>70000002</v>
       </c>
       <c r="AQ135" s="23" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AR135" s="12"/>
       <c r="AS135" s="12">
@@ -22996,7 +23056,7 @@
         <v>72004014</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E136" s="12">
         <v>1</v>
@@ -23127,7 +23187,7 @@
         <v>72004015</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E137" s="12">
         <v>1</v>
@@ -23258,7 +23318,7 @@
         <v>79999998</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E138" s="12">
         <v>1</v>
@@ -23389,7 +23449,7 @@
         <v>79999999</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E139" s="12">
         <v>1</v>
@@ -23520,7 +23580,7 @@
         <v>41001007</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E140" s="12">
         <v>5</v>
@@ -23652,7 +23712,7 @@
         <v>41001008</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E141" s="12">
         <v>5</v>
@@ -23786,7 +23846,7 @@
         <v>41001009</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E142" s="12">
         <v>5</v>
@@ -23919,7 +23979,7 @@
         <v>41001010</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E143" s="12">
         <v>5</v>
@@ -24052,7 +24112,7 @@
         <v>41002001</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E144" s="12">
         <v>5</v>
@@ -24185,7 +24245,7 @@
         <v>41002002</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E145" s="12">
         <v>5</v>
@@ -24318,7 +24378,7 @@
         <v>41003001</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E146" s="12">
         <v>5</v>
@@ -24451,7 +24511,7 @@
         <v>41004001</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E147" s="12">
         <v>5</v>
@@ -24584,7 +24644,7 @@
         <v>41005001</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E148" s="12">
         <v>5</v>
@@ -25632,7 +25692,7 @@
         <v>73004003</v>
       </c>
       <c r="D156" s="21" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E156" s="21">
         <v>3</v>
@@ -27335,7 +27395,7 @@
         <v>73009001</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E169" s="21">
         <v>1</v>
@@ -27597,7 +27657,7 @@
         <v>73009003</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E171" s="21">
         <v>3</v>
@@ -27990,7 +28050,7 @@
         <v>73010003</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E174" s="21">
         <v>3</v>
@@ -30217,7 +30277,7 @@
         <v>73016002</v>
       </c>
       <c r="D191" s="21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E191" s="21">
         <v>1</v>
@@ -30479,7 +30539,7 @@
         <v>73017001</v>
       </c>
       <c r="D193" s="21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E193" s="21">
         <v>1</v>
@@ -30572,7 +30632,7 @@
         <v>1000</v>
       </c>
       <c r="AI193" s="21" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AJ193" s="21">
         <v>0</v>
@@ -32182,7 +32242,7 @@
         <v>73021002</v>
       </c>
       <c r="D206" s="21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E206" s="21">
         <v>1</v>
@@ -32575,7 +32635,7 @@
         <v>73022002</v>
       </c>
       <c r="D209" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E209" s="21">
         <v>1</v>
@@ -32706,7 +32766,7 @@
         <v>73022003</v>
       </c>
       <c r="D210" s="21" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E210" s="21">
         <v>3</v>
@@ -33230,7 +33290,7 @@
         <v>73024001</v>
       </c>
       <c r="D214" s="21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E214" s="21">
         <v>1</v>
@@ -33623,7 +33683,7 @@
         <v>73025001</v>
       </c>
       <c r="D217" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E217" s="21">
         <v>1</v>
@@ -33754,7 +33814,7 @@
         <v>73025002</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E218" s="21">
         <v>1</v>
@@ -33885,7 +33945,7 @@
         <v>73025003</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E219" s="21">
         <v>3</v>
@@ -34016,7 +34076,7 @@
         <v>73026001</v>
       </c>
       <c r="D220" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E220" s="21">
         <v>1</v>
@@ -34147,7 +34207,7 @@
         <v>73026002</v>
       </c>
       <c r="D221" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E221" s="21">
         <v>1</v>
@@ -34278,7 +34338,7 @@
         <v>73026003</v>
       </c>
       <c r="D222" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E222" s="21">
         <v>3</v>
@@ -34409,7 +34469,7 @@
         <v>73027001</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E223" s="21">
         <v>1</v>
@@ -34540,7 +34600,7 @@
         <v>73027002</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E224" s="21">
         <v>1</v>
@@ -34671,7 +34731,7 @@
         <v>73027003</v>
       </c>
       <c r="D225" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E225" s="21">
         <v>3</v>
@@ -35457,7 +35517,7 @@
         <v>73029003</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E231" s="21">
         <v>3</v>
@@ -36243,7 +36303,7 @@
         <v>73031003</v>
       </c>
       <c r="D237" s="21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E237" s="21">
         <v>3</v>
@@ -36767,7 +36827,7 @@
         <v>73033001</v>
       </c>
       <c r="D241" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E241" s="21">
         <v>1</v>
@@ -36898,7 +36958,7 @@
         <v>73033002</v>
       </c>
       <c r="D242" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E242" s="21">
         <v>1</v>
@@ -37029,7 +37089,7 @@
         <v>73033003</v>
       </c>
       <c r="D243" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E243" s="21">
         <v>3</v>
@@ -37160,7 +37220,7 @@
         <v>73034001</v>
       </c>
       <c r="D244" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E244" s="21">
         <v>1</v>
@@ -37291,7 +37351,7 @@
         <v>73034002</v>
       </c>
       <c r="D245" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E245" s="21">
         <v>1</v>
@@ -37422,7 +37482,7 @@
         <v>73034003</v>
       </c>
       <c r="D246" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E246" s="21">
         <v>3</v>
@@ -37553,7 +37613,7 @@
         <v>73035001</v>
       </c>
       <c r="D247" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E247" s="21">
         <v>1</v>
@@ -37684,7 +37744,7 @@
         <v>73035002</v>
       </c>
       <c r="D248" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E248" s="21">
         <v>1</v>
@@ -37815,7 +37875,7 @@
         <v>73035003</v>
       </c>
       <c r="D249" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E249" s="21">
         <v>3</v>
@@ -37946,7 +38006,7 @@
         <v>80000001</v>
       </c>
       <c r="D250" s="23" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E250" s="12">
         <v>5</v>
@@ -38078,7 +38138,7 @@
         <v>80000002</v>
       </c>
       <c r="D251" s="23" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E251" s="12">
         <v>5</v>
@@ -38210,7 +38270,7 @@
         <v>80000101</v>
       </c>
       <c r="D252" s="23" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E252" s="12">
         <v>5</v>
@@ -38330,7 +38390,7 @@
         <v>0</v>
       </c>
       <c r="AR252" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AS252" s="12">
         <v>0</v>
@@ -38344,7 +38404,7 @@
         <v>80000201</v>
       </c>
       <c r="D253" s="23" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E253" s="12">
         <v>5</v>
@@ -38464,7 +38524,7 @@
         <v>0</v>
       </c>
       <c r="AR253" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AS253" s="12">
         <v>0</v>
@@ -38478,7 +38538,7 @@
         <v>80000301</v>
       </c>
       <c r="D254" s="23" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E254" s="12">
         <v>5</v>
@@ -38598,7 +38658,7 @@
         <v>0</v>
       </c>
       <c r="AR254" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AS254" s="12">
         <v>0</v>
@@ -38612,7 +38672,7 @@
         <v>80000401</v>
       </c>
       <c r="D255" s="23" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E255" s="12">
         <v>5</v>
@@ -38732,7 +38792,7 @@
         <v>0</v>
       </c>
       <c r="AR255" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AS255" s="12">
         <v>0</v>
@@ -38746,7 +38806,7 @@
         <v>80000501</v>
       </c>
       <c r="D256" s="23" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E256" s="12">
         <v>5</v>
@@ -38866,7 +38926,7 @@
         <v>0</v>
       </c>
       <c r="AR256" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AS256" s="12">
         <v>0</v>
@@ -38875,12 +38935,12 @@
       <c r="AU256" s="12"/>
       <c r="AV256" s="29"/>
     </row>
-    <row r="257" spans="3:47" ht="20.100000000000001" customHeight="1">
+    <row r="257" spans="3:48" ht="20.100000000000001" customHeight="1">
       <c r="C257" s="21">
         <v>81000001</v>
       </c>
       <c r="D257" s="21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E257" s="21">
         <v>1</v>
@@ -38997,21 +39057,21 @@
         <v>70000001</v>
       </c>
       <c r="AQ257" s="23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AR257" s="21"/>
       <c r="AS257" s="21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AT257" s="21"/>
       <c r="AU257" s="35"/>
     </row>
-    <row r="258" spans="3:47" ht="20.100000000000001" customHeight="1">
+    <row r="258" spans="3:48" ht="20.100000000000001" customHeight="1">
       <c r="C258" s="21">
         <v>81000002</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E258" s="12">
         <v>1</v>
@@ -39132,17 +39192,17 @@
       </c>
       <c r="AR258" s="12"/>
       <c r="AS258" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AT258" s="12"/>
       <c r="AU258" s="17"/>
     </row>
-    <row r="259" spans="3:47" ht="20.100000000000001" customHeight="1">
+    <row r="259" spans="3:48" ht="20.100000000000001" customHeight="1">
       <c r="C259" s="21">
         <v>81000003</v>
       </c>
       <c r="D259" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E259" s="21">
         <v>1</v>
@@ -39259,21 +39319,26 @@
         <v>70000001</v>
       </c>
       <c r="AQ259" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="AR259" s="21"/>
+        <v>368</v>
+      </c>
+      <c r="AR259" s="44"/>
       <c r="AS259" s="21">
         <v>6</v>
       </c>
-      <c r="AT259" s="21"/>
+      <c r="AT259" s="44" t="s">
+        <v>382</v>
+      </c>
       <c r="AU259" s="35"/>
+      <c r="AV259" s="43" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="260" spans="3:47" ht="20.100000000000001" customHeight="1">
+    <row r="260" spans="3:48" ht="20.100000000000001" customHeight="1">
       <c r="C260" s="21">
-        <v>81000011</v>
+        <v>81000004</v>
       </c>
       <c r="D260" s="21" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E260" s="21">
         <v>1</v>
@@ -39282,7 +39347,7 @@
         <v>0</v>
       </c>
       <c r="G260" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H260" s="21">
         <v>0</v>
@@ -39291,7 +39356,7 @@
         <v>0</v>
       </c>
       <c r="J260" s="12">
-        <v>72001005</v>
+        <v>72001007</v>
       </c>
       <c r="K260" s="21">
         <v>0</v>
@@ -39390,59 +39455,64 @@
         <v>70000001</v>
       </c>
       <c r="AQ260" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="AR260" s="44"/>
+      <c r="AS260" s="21">
+        <v>6</v>
+      </c>
+      <c r="AT260" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="AU260" s="35"/>
+      <c r="AV260" s="43" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="261" spans="3:48" ht="20.100000000000001" customHeight="1">
+      <c r="C261" s="21">
+        <v>81000005</v>
+      </c>
+      <c r="D261" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="AR260" s="21"/>
-      <c r="AS260" s="21">
-        <v>1</v>
-      </c>
-      <c r="AT260" s="21"/>
-      <c r="AU260" s="35"/>
-    </row>
-    <row r="261" spans="3:47" ht="20.100000000000001" customHeight="1">
-      <c r="C261" s="21">
-        <v>81000012</v>
-      </c>
-      <c r="D261" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="E261" s="12">
-        <v>1</v>
-      </c>
-      <c r="F261" s="12">
+      <c r="E261" s="21">
+        <v>1</v>
+      </c>
+      <c r="F261" s="21">
         <v>0</v>
       </c>
       <c r="G261" s="12">
-        <v>2</v>
-      </c>
-      <c r="H261" s="12">
-        <v>0</v>
-      </c>
-      <c r="I261" s="12">
+        <v>1</v>
+      </c>
+      <c r="H261" s="21">
+        <v>0</v>
+      </c>
+      <c r="I261" s="21">
         <v>0</v>
       </c>
       <c r="J261" s="12">
-        <v>72001006</v>
-      </c>
-      <c r="K261" s="12">
-        <v>0</v>
-      </c>
-      <c r="L261" s="12">
-        <v>0</v>
-      </c>
-      <c r="M261" s="12">
+        <v>72001007</v>
+      </c>
+      <c r="K261" s="21">
+        <v>0</v>
+      </c>
+      <c r="L261" s="21">
+        <v>0</v>
+      </c>
+      <c r="M261" s="21">
         <v>20</v>
       </c>
-      <c r="N261" s="12">
-        <v>2</v>
-      </c>
-      <c r="O261" s="12">
-        <v>8</v>
-      </c>
-      <c r="P261" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q261" s="12">
+      <c r="N261" s="21">
+        <v>2</v>
+      </c>
+      <c r="O261" s="21">
+        <v>2</v>
+      </c>
+      <c r="P261" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q261" s="21">
         <v>2</v>
       </c>
       <c r="R261" s="21">
@@ -39454,126 +39524,131 @@
       <c r="T261" s="12">
         <v>1386</v>
       </c>
-      <c r="U261" s="12">
-        <v>347</v>
-      </c>
-      <c r="V261" s="12">
-        <v>347</v>
-      </c>
-      <c r="W261" s="12">
-        <v>0</v>
-      </c>
-      <c r="X261" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y261" s="12">
+      <c r="U261" s="21">
+        <v>1100</v>
+      </c>
+      <c r="V261" s="21">
+        <v>1100</v>
+      </c>
+      <c r="W261" s="21">
+        <v>0</v>
+      </c>
+      <c r="X261" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y261" s="21">
         <v>0.75</v>
       </c>
-      <c r="Z261" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA261" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB261" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC261" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD261" s="12">
+      <c r="Z261" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA261" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB261" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC261" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD261" s="21">
         <v>300</v>
       </c>
-      <c r="AE261" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF261" s="12">
+      <c r="AE261" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF261" s="21">
         <v>30</v>
       </c>
-      <c r="AG261" s="12">
+      <c r="AG261" s="21">
         <v>7</v>
       </c>
-      <c r="AH261" s="12">
+      <c r="AH261" s="21">
         <v>1000</v>
       </c>
       <c r="AI261" s="12">
         <v>0</v>
       </c>
-      <c r="AJ261" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK261" s="12">
-        <v>1</v>
-      </c>
-      <c r="AL261" s="12">
+      <c r="AJ261" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK261" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL261" s="21">
         <v>0</v>
       </c>
       <c r="AM261" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="AN261" s="12">
-        <v>0</v>
-      </c>
-      <c r="AO261" s="12">
-        <v>1</v>
-      </c>
-      <c r="AP261" s="12">
-        <v>70000004</v>
+      <c r="AN261" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO261" s="21">
+        <v>1</v>
+      </c>
+      <c r="AP261" s="21">
+        <v>70000001</v>
       </c>
       <c r="AQ261" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR261" s="12"/>
-      <c r="AS261" s="12">
-        <v>1</v>
-      </c>
-      <c r="AT261" s="12"/>
-      <c r="AU261" s="17"/>
+        <v>368</v>
+      </c>
+      <c r="AR261" s="44"/>
+      <c r="AS261" s="21">
+        <v>6</v>
+      </c>
+      <c r="AT261" s="44" t="s">
+        <v>383</v>
+      </c>
+      <c r="AU261" s="35"/>
+      <c r="AV261" s="43" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="262" spans="3:47" ht="20.100000000000001" customHeight="1">
+    <row r="262" spans="3:48" ht="20.100000000000001" customHeight="1">
       <c r="C262" s="21">
-        <v>81000013</v>
+        <v>81000011</v>
       </c>
       <c r="D262" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="E262" s="12">
-        <v>1</v>
-      </c>
-      <c r="F262" s="12">
+        <v>371</v>
+      </c>
+      <c r="E262" s="21">
+        <v>1</v>
+      </c>
+      <c r="F262" s="21">
         <v>0</v>
       </c>
       <c r="G262" s="12">
         <v>2</v>
       </c>
-      <c r="H262" s="12">
-        <v>0</v>
-      </c>
-      <c r="I262" s="12">
+      <c r="H262" s="21">
+        <v>0</v>
+      </c>
+      <c r="I262" s="21">
         <v>0</v>
       </c>
       <c r="J262" s="12">
-        <v>72001008</v>
-      </c>
-      <c r="K262" s="12">
-        <v>0</v>
-      </c>
-      <c r="L262" s="12">
-        <v>0</v>
-      </c>
-      <c r="M262" s="12">
+        <v>72001005</v>
+      </c>
+      <c r="K262" s="21">
+        <v>0</v>
+      </c>
+      <c r="L262" s="21">
+        <v>0</v>
+      </c>
+      <c r="M262" s="21">
         <v>20</v>
       </c>
-      <c r="N262" s="12">
-        <v>2</v>
-      </c>
-      <c r="O262" s="12">
-        <v>2</v>
-      </c>
-      <c r="P262" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q262" s="12">
+      <c r="N262" s="21">
+        <v>2</v>
+      </c>
+      <c r="O262" s="21">
+        <v>2</v>
+      </c>
+      <c r="P262" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q262" s="21">
         <v>2</v>
       </c>
       <c r="R262" s="21">
@@ -39585,88 +39660,88 @@
       <c r="T262" s="12">
         <v>1386</v>
       </c>
-      <c r="U262" s="12">
-        <v>347</v>
-      </c>
-      <c r="V262" s="12">
-        <v>347</v>
-      </c>
-      <c r="W262" s="12">
-        <v>0</v>
-      </c>
-      <c r="X262" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y262" s="12">
+      <c r="U262" s="21">
+        <v>1100</v>
+      </c>
+      <c r="V262" s="21">
+        <v>1100</v>
+      </c>
+      <c r="W262" s="21">
+        <v>0</v>
+      </c>
+      <c r="X262" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y262" s="21">
         <v>0.75</v>
       </c>
-      <c r="Z262" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA262" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB262" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC262" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD262" s="12">
+      <c r="Z262" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA262" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB262" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC262" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD262" s="21">
         <v>300</v>
       </c>
-      <c r="AE262" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF262" s="12">
+      <c r="AE262" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF262" s="21">
         <v>30</v>
       </c>
-      <c r="AG262" s="12">
+      <c r="AG262" s="21">
         <v>7</v>
       </c>
-      <c r="AH262" s="12">
+      <c r="AH262" s="21">
         <v>1000</v>
       </c>
       <c r="AI262" s="12">
         <v>0</v>
       </c>
-      <c r="AJ262" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK262" s="12">
-        <v>1</v>
-      </c>
-      <c r="AL262" s="12">
+      <c r="AJ262" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK262" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL262" s="21">
         <v>0</v>
       </c>
       <c r="AM262" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="AN262" s="12">
-        <v>0</v>
-      </c>
-      <c r="AO262" s="12">
-        <v>1</v>
-      </c>
-      <c r="AP262" s="12">
+      <c r="AN262" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO262" s="21">
+        <v>1</v>
+      </c>
+      <c r="AP262" s="21">
         <v>70000001</v>
       </c>
       <c r="AQ262" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="AR262" s="12"/>
-      <c r="AS262" s="12">
-        <v>1</v>
-      </c>
-      <c r="AT262" s="12"/>
-      <c r="AU262" s="17"/>
+        <v>368</v>
+      </c>
+      <c r="AR262" s="44"/>
+      <c r="AS262" s="21">
+        <v>1</v>
+      </c>
+      <c r="AT262" s="44"/>
+      <c r="AU262" s="35"/>
     </row>
-    <row r="263" spans="3:47" ht="20.100000000000001" customHeight="1">
-      <c r="C263" s="12">
-        <v>90000001</v>
-      </c>
-      <c r="D263" s="12" t="s">
-        <v>376</v>
+    <row r="263" spans="3:48" ht="20.100000000000001" customHeight="1">
+      <c r="C263" s="21">
+        <v>81000012</v>
+      </c>
+      <c r="D263" s="21" t="s">
+        <v>372</v>
       </c>
       <c r="E263" s="12">
         <v>1</v>
@@ -39675,7 +39750,7 @@
         <v>0</v>
       </c>
       <c r="G263" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H263" s="12">
         <v>0</v>
@@ -39684,7 +39759,7 @@
         <v>0</v>
       </c>
       <c r="J263" s="12">
-        <v>90000001</v>
+        <v>72001006</v>
       </c>
       <c r="K263" s="12">
         <v>0</v>
@@ -39693,13 +39768,13 @@
         <v>0</v>
       </c>
       <c r="M263" s="12">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N263" s="12">
         <v>2</v>
       </c>
       <c r="O263" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P263" s="12">
         <v>2</v>
@@ -39707,20 +39782,20 @@
       <c r="Q263" s="12">
         <v>2</v>
       </c>
-      <c r="R263" s="12">
-        <v>55650</v>
+      <c r="R263" s="21">
+        <v>38483</v>
       </c>
       <c r="S263" s="12">
-        <v>5300</v>
+        <v>1386</v>
       </c>
       <c r="T263" s="12">
-        <v>5300</v>
+        <v>1386</v>
       </c>
       <c r="U263" s="12">
-        <v>1590</v>
+        <v>347</v>
       </c>
       <c r="V263" s="12">
-        <v>1590</v>
+        <v>347</v>
       </c>
       <c r="W263" s="12">
         <v>0</v>
@@ -39744,13 +39819,13 @@
         <v>0</v>
       </c>
       <c r="AD263" s="12">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AE263" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF263" s="12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AG263" s="12">
         <v>7</v>
@@ -39780,26 +39855,24 @@
         <v>1</v>
       </c>
       <c r="AP263" s="12">
-        <v>60000331</v>
+        <v>70000004</v>
       </c>
       <c r="AQ263" s="23" t="s">
-        <v>377</v>
+        <v>94</v>
       </c>
       <c r="AR263" s="12"/>
       <c r="AS263" s="12">
         <v>1</v>
       </c>
       <c r="AT263" s="12"/>
-      <c r="AU263" s="12">
-        <v>30</v>
-      </c>
+      <c r="AU263" s="17"/>
     </row>
-    <row r="264" spans="3:47" ht="20.100000000000001" customHeight="1">
-      <c r="C264" s="12">
-        <v>90000002</v>
-      </c>
-      <c r="D264" s="12" t="s">
-        <v>378</v>
+    <row r="264" spans="3:48" ht="20.100000000000001" customHeight="1">
+      <c r="C264" s="21">
+        <v>81000013</v>
+      </c>
+      <c r="D264" s="21" t="s">
+        <v>373</v>
       </c>
       <c r="E264" s="12">
         <v>1</v>
@@ -39808,7 +39881,7 @@
         <v>0</v>
       </c>
       <c r="G264" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H264" s="12">
         <v>0</v>
@@ -39817,7 +39890,7 @@
         <v>0</v>
       </c>
       <c r="J264" s="12">
-        <v>70001001</v>
+        <v>72001008</v>
       </c>
       <c r="K264" s="12">
         <v>0</v>
@@ -39826,13 +39899,13 @@
         <v>0</v>
       </c>
       <c r="M264" s="12">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N264" s="12">
         <v>2</v>
       </c>
       <c r="O264" s="12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P264" s="12">
         <v>2</v>
@@ -39840,20 +39913,20 @@
       <c r="Q264" s="12">
         <v>2</v>
       </c>
-      <c r="R264" s="12">
-        <v>55650</v>
+      <c r="R264" s="21">
+        <v>38483</v>
       </c>
       <c r="S264" s="12">
-        <v>5300</v>
+        <v>1386</v>
       </c>
       <c r="T264" s="12">
-        <v>5300</v>
+        <v>1386</v>
       </c>
       <c r="U264" s="12">
-        <v>1590</v>
+        <v>347</v>
       </c>
       <c r="V264" s="12">
-        <v>1590</v>
+        <v>347</v>
       </c>
       <c r="W264" s="12">
         <v>0</v>
@@ -39877,13 +39950,13 @@
         <v>0</v>
       </c>
       <c r="AD264" s="12">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AE264" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF264" s="12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AG264" s="12">
         <v>7</v>
@@ -39912,29 +39985,557 @@
       <c r="AO264" s="12">
         <v>1</v>
       </c>
-      <c r="AP264" s="21">
+      <c r="AP264" s="12">
         <v>70000001</v>
       </c>
       <c r="AQ264" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="AR264" s="44"/>
+      <c r="AS264" s="21">
+        <v>6</v>
+      </c>
+      <c r="AT264" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="AU264" s="17"/>
+    </row>
+    <row r="265" spans="3:48" ht="20.100000000000001" customHeight="1">
+      <c r="C265" s="21">
+        <v>81000014</v>
+      </c>
+      <c r="D265" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="E265" s="12">
+        <v>1</v>
+      </c>
+      <c r="F265" s="12">
+        <v>0</v>
+      </c>
+      <c r="G265" s="12">
+        <v>2</v>
+      </c>
+      <c r="H265" s="12">
+        <v>0</v>
+      </c>
+      <c r="I265" s="12">
+        <v>0</v>
+      </c>
+      <c r="J265" s="12">
+        <v>72001008</v>
+      </c>
+      <c r="K265" s="12">
+        <v>0</v>
+      </c>
+      <c r="L265" s="12">
+        <v>0</v>
+      </c>
+      <c r="M265" s="12">
+        <v>20</v>
+      </c>
+      <c r="N265" s="12">
+        <v>2</v>
+      </c>
+      <c r="O265" s="12">
+        <v>2</v>
+      </c>
+      <c r="P265" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q265" s="12">
+        <v>2</v>
+      </c>
+      <c r="R265" s="21">
+        <v>38483</v>
+      </c>
+      <c r="S265" s="12">
+        <v>1386</v>
+      </c>
+      <c r="T265" s="12">
+        <v>1386</v>
+      </c>
+      <c r="U265" s="12">
+        <v>347</v>
+      </c>
+      <c r="V265" s="12">
+        <v>347</v>
+      </c>
+      <c r="W265" s="12">
+        <v>0</v>
+      </c>
+      <c r="X265" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y265" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="Z265" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA265" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB265" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC265" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD265" s="12">
+        <v>300</v>
+      </c>
+      <c r="AE265" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF265" s="12">
+        <v>30</v>
+      </c>
+      <c r="AG265" s="12">
+        <v>7</v>
+      </c>
+      <c r="AH265" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AI265" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ265" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK265" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL265" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM265" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="AR264" s="12"/>
-      <c r="AS264" s="12">
-        <v>1</v>
-      </c>
-      <c r="AT264" s="12"/>
-      <c r="AU264" s="12">
+      <c r="AN265" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO265" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP265" s="12">
+        <v>70000001</v>
+      </c>
+      <c r="AQ265" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="AR265" s="44"/>
+      <c r="AS265" s="21">
+        <v>6</v>
+      </c>
+      <c r="AT265" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="AU265" s="17"/>
+    </row>
+    <row r="266" spans="3:48" ht="20.100000000000001" customHeight="1">
+      <c r="C266" s="21">
+        <v>81000015</v>
+      </c>
+      <c r="D266" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="E266" s="12">
+        <v>1</v>
+      </c>
+      <c r="F266" s="12">
+        <v>0</v>
+      </c>
+      <c r="G266" s="12">
+        <v>2</v>
+      </c>
+      <c r="H266" s="12">
+        <v>0</v>
+      </c>
+      <c r="I266" s="12">
+        <v>0</v>
+      </c>
+      <c r="J266" s="12">
+        <v>72001008</v>
+      </c>
+      <c r="K266" s="12">
+        <v>0</v>
+      </c>
+      <c r="L266" s="12">
+        <v>0</v>
+      </c>
+      <c r="M266" s="12">
         <v>20</v>
       </c>
+      <c r="N266" s="12">
+        <v>2</v>
+      </c>
+      <c r="O266" s="12">
+        <v>2</v>
+      </c>
+      <c r="P266" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q266" s="12">
+        <v>2</v>
+      </c>
+      <c r="R266" s="21">
+        <v>38483</v>
+      </c>
+      <c r="S266" s="12">
+        <v>1386</v>
+      </c>
+      <c r="T266" s="12">
+        <v>1386</v>
+      </c>
+      <c r="U266" s="12">
+        <v>347</v>
+      </c>
+      <c r="V266" s="12">
+        <v>347</v>
+      </c>
+      <c r="W266" s="12">
+        <v>0</v>
+      </c>
+      <c r="X266" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y266" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="Z266" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA266" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB266" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC266" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD266" s="12">
+        <v>300</v>
+      </c>
+      <c r="AE266" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF266" s="12">
+        <v>30</v>
+      </c>
+      <c r="AG266" s="12">
+        <v>7</v>
+      </c>
+      <c r="AH266" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AI266" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ266" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK266" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL266" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM266" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN266" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO266" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP266" s="12">
+        <v>70000001</v>
+      </c>
+      <c r="AQ266" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="AR266" s="45"/>
+      <c r="AS266" s="21">
+        <v>6</v>
+      </c>
+      <c r="AT266" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="AU266" s="17"/>
     </row>
-    <row r="265" spans="3:47" ht="20.100000000000001" customHeight="1"/>
-    <row r="266" spans="3:47" ht="20.100000000000001" customHeight="1"/>
-    <row r="267" spans="3:47" ht="20.100000000000001" customHeight="1"/>
-    <row r="268" spans="3:47" ht="20.100000000000001" customHeight="1"/>
-    <row r="269" spans="3:47" ht="20.100000000000001" customHeight="1"/>
-    <row r="270" spans="3:47" ht="20.100000000000001" customHeight="1"/>
-    <row r="271" spans="3:47" ht="20.100000000000001" customHeight="1"/>
-    <row r="272" spans="3:47" ht="20.100000000000001" customHeight="1"/>
+    <row r="267" spans="3:48" ht="20.100000000000001" customHeight="1">
+      <c r="C267" s="12">
+        <v>90000001</v>
+      </c>
+      <c r="D267" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E267" s="12">
+        <v>1</v>
+      </c>
+      <c r="F267" s="12">
+        <v>0</v>
+      </c>
+      <c r="G267" s="12">
+        <v>0</v>
+      </c>
+      <c r="H267" s="12">
+        <v>0</v>
+      </c>
+      <c r="I267" s="12">
+        <v>0</v>
+      </c>
+      <c r="J267" s="12">
+        <v>90000001</v>
+      </c>
+      <c r="K267" s="12">
+        <v>0</v>
+      </c>
+      <c r="L267" s="12">
+        <v>0</v>
+      </c>
+      <c r="M267" s="12">
+        <v>51</v>
+      </c>
+      <c r="N267" s="12">
+        <v>2</v>
+      </c>
+      <c r="O267" s="12">
+        <v>6</v>
+      </c>
+      <c r="P267" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q267" s="12">
+        <v>2</v>
+      </c>
+      <c r="R267" s="12">
+        <v>55650</v>
+      </c>
+      <c r="S267" s="12">
+        <v>5300</v>
+      </c>
+      <c r="T267" s="12">
+        <v>5300</v>
+      </c>
+      <c r="U267" s="12">
+        <v>1590</v>
+      </c>
+      <c r="V267" s="12">
+        <v>1590</v>
+      </c>
+      <c r="W267" s="12">
+        <v>0</v>
+      </c>
+      <c r="X267" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y267" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="Z267" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA267" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB267" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC267" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD267" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE267" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF267" s="12">
+        <v>10</v>
+      </c>
+      <c r="AG267" s="12">
+        <v>7</v>
+      </c>
+      <c r="AH267" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AI267" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ267" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK267" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL267" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM267" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN267" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO267" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP267" s="12">
+        <v>60000331</v>
+      </c>
+      <c r="AQ267" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="AR267" s="12"/>
+      <c r="AS267" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT267" s="12"/>
+      <c r="AU267" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="268" spans="3:48" ht="20.100000000000001" customHeight="1">
+      <c r="C268" s="12">
+        <v>90000002</v>
+      </c>
+      <c r="D268" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="E268" s="12">
+        <v>1</v>
+      </c>
+      <c r="F268" s="12">
+        <v>0</v>
+      </c>
+      <c r="G268" s="12">
+        <v>0</v>
+      </c>
+      <c r="H268" s="12">
+        <v>0</v>
+      </c>
+      <c r="I268" s="12">
+        <v>0</v>
+      </c>
+      <c r="J268" s="12">
+        <v>70001001</v>
+      </c>
+      <c r="K268" s="12">
+        <v>0</v>
+      </c>
+      <c r="L268" s="12">
+        <v>0</v>
+      </c>
+      <c r="M268" s="12">
+        <v>51</v>
+      </c>
+      <c r="N268" s="12">
+        <v>2</v>
+      </c>
+      <c r="O268" s="12">
+        <v>6</v>
+      </c>
+      <c r="P268" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q268" s="12">
+        <v>2</v>
+      </c>
+      <c r="R268" s="12">
+        <v>55650</v>
+      </c>
+      <c r="S268" s="12">
+        <v>5300</v>
+      </c>
+      <c r="T268" s="12">
+        <v>5300</v>
+      </c>
+      <c r="U268" s="12">
+        <v>1590</v>
+      </c>
+      <c r="V268" s="12">
+        <v>1590</v>
+      </c>
+      <c r="W268" s="12">
+        <v>0</v>
+      </c>
+      <c r="X268" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y268" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="Z268" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA268" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB268" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC268" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD268" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE268" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF268" s="12">
+        <v>10</v>
+      </c>
+      <c r="AG268" s="12">
+        <v>7</v>
+      </c>
+      <c r="AH268" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AI268" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ268" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK268" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL268" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM268" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN268" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO268" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP268" s="21">
+        <v>70000001</v>
+      </c>
+      <c r="AQ268" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR268" s="12"/>
+      <c r="AS268" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT268" s="12"/>
+      <c r="AU268" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="269" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="270" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="271" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="272" spans="3:48" ht="20.100000000000001" customHeight="1"/>
     <row r="273" ht="20.100000000000001" customHeight="1"/>
     <row r="274" ht="20.100000000000001" customHeight="1"/>
     <row r="275" ht="20.100000000000001" customHeight="1"/>
@@ -39949,6 +40550,10 @@
     <row r="284" ht="20.100000000000001" customHeight="1"/>
     <row r="285" ht="20.100000000000001" customHeight="1"/>
     <row r="286" ht="20.100000000000001" customHeight="1"/>
+    <row r="287" ht="20.100000000000001" customHeight="1"/>
+    <row r="288" ht="20.100000000000001" customHeight="1"/>
+    <row r="289" ht="20.100000000000001" customHeight="1"/>
+    <row r="290" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90BBF1F-74F5-4B1F-8CF9-16162BE3FA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E18DE2-1D4F-4F5E-A46E-ED166C471AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5551,10 +5551,10 @@
   <dimension ref="A1:BF290"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AN257" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AQ257" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AR263" sqref="AR263"/>
+      <selection pane="bottomRight" activeCell="C259" sqref="C259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E18DE2-1D4F-4F5E-A46E-ED166C471AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0B9B7B-895C-4D5A-9DCC-304E0B2B6933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="1770" windowWidth="27810" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -2141,10 +2141,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>52.67;0.34;-3.16@-36.61,0.34;-1.98</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>62.92;0.34;9.11@57.64;0.34;23.84@31.8;0.34;42.1@2.82;0.34;43.8@-25;0.34;35.26@-47.7;0.34;9.7</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -2163,6 +2159,10 @@
   </si>
   <si>
     <t>int[]</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.67;0.34;-3.16@-36.61;0.34;-1.98</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -5554,7 +5554,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="AQ257" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C259" sqref="C259"/>
+      <selection pane="bottomRight" activeCell="AT265" sqref="AT265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -5998,7 +5998,7 @@
         <v>91</v>
       </c>
       <c r="AR5" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AS5" s="11" t="s">
         <v>88</v>
@@ -20815,7 +20815,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ118" s="41" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AR118" s="12"/>
       <c r="AS118" s="12">
@@ -21863,7 +21863,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ126" s="41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AR126" s="12"/>
       <c r="AS126" s="12">
@@ -39996,7 +39996,7 @@
         <v>6</v>
       </c>
       <c r="AT264" s="44" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AU264" s="17"/>
     </row>
@@ -40129,7 +40129,7 @@
         <v>6</v>
       </c>
       <c r="AT265" s="44" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="AU265" s="17"/>
     </row>
@@ -40262,7 +40262,7 @@
         <v>6</v>
       </c>
       <c r="AT266" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AU266" s="17"/>
     </row>
@@ -40557,10 +40557,10 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0B9B7B-895C-4D5A-9DCC-304E0B2B6933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6C931B-9F29-4C44-BCC4-2883227647F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="405" yWindow="1770" windowWidth="27810" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2129,10 +2129,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>-36.61,0.34;-1.98@52.67;0.34;-3.16</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>-47.7;0.34;9.7@-25;0.34;35.26@2.82;0.34;43.8@31.8;0.34;42.1@57.64;0.34;23.84@62.92;0.34;9.11</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -2163,6 +2159,10 @@
   </si>
   <si>
     <t>52.67;0.34;-3.16@-36.61;0.34;-1.98</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>-36.61;0.34;-1.98@52.67;0.34;-3.16</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -5551,10 +5551,10 @@
   <dimension ref="A1:BF290"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AQ257" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AQ254" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT265" sqref="AT265"/>
+      <selection pane="bottomRight" activeCell="AT260" sqref="AT260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -5591,7 +5591,7 @@
     <col min="43" max="43" width="52" style="7" customWidth="1"/>
     <col min="44" max="44" width="35.125" style="7" customWidth="1"/>
     <col min="45" max="45" width="17.125" style="7" customWidth="1"/>
-    <col min="46" max="46" width="13.125" style="7" customWidth="1"/>
+    <col min="46" max="46" width="32.75" style="7" customWidth="1"/>
     <col min="47" max="47" width="16.875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5998,7 +5998,7 @@
         <v>91</v>
       </c>
       <c r="AR5" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AS5" s="11" t="s">
         <v>88</v>
@@ -20815,7 +20815,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ118" s="41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AR118" s="12"/>
       <c r="AS118" s="12">
@@ -21863,7 +21863,7 @@
         <v>70000001</v>
       </c>
       <c r="AQ126" s="41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AR126" s="12"/>
       <c r="AS126" s="12">
@@ -39326,7 +39326,7 @@
         <v>6</v>
       </c>
       <c r="AT259" s="44" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AU259" s="35"/>
       <c r="AV259" s="43" t="s">
@@ -39462,7 +39462,7 @@
         <v>6</v>
       </c>
       <c r="AT260" s="44" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="AU260" s="35"/>
       <c r="AV260" s="43" t="s">
@@ -39598,7 +39598,7 @@
         <v>6</v>
       </c>
       <c r="AT261" s="44" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AU261" s="35"/>
       <c r="AV261" s="43" t="s">
@@ -39996,7 +39996,7 @@
         <v>6</v>
       </c>
       <c r="AT264" s="44" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AU264" s="17"/>
     </row>
@@ -40129,7 +40129,7 @@
         <v>6</v>
       </c>
       <c r="AT265" s="44" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AU265" s="17"/>
     </row>
@@ -40262,7 +40262,7 @@
         <v>6</v>
       </c>
       <c r="AT266" s="45" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AU266" s="17"/>
     </row>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B088BC3-3BC8-49DB-8D22-1C792F2FC883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF56D75A-71EE-4EAB-936B-094317A3FB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5479,10 +5479,10 @@
   <dimension ref="A1:BF290"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="M251" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="R266" sqref="R266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -38910,7 +38910,7 @@
         <v>2</v>
       </c>
       <c r="R257" s="21">
-        <v>38483</v>
+        <v>12000</v>
       </c>
       <c r="S257" s="12">
         <v>1386</v>
@@ -38919,10 +38919,10 @@
         <v>1386</v>
       </c>
       <c r="U257" s="21">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="V257" s="21">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="W257" s="21">
         <v>0</v>
@@ -39041,19 +39041,19 @@
         <v>2</v>
       </c>
       <c r="R258" s="21">
-        <v>38483</v>
+        <v>9000</v>
       </c>
       <c r="S258" s="12">
-        <v>1386</v>
+        <v>1800</v>
       </c>
       <c r="T258" s="12">
-        <v>1386</v>
-      </c>
-      <c r="U258" s="12">
-        <v>347</v>
-      </c>
-      <c r="V258" s="12">
-        <v>347</v>
+        <v>1800</v>
+      </c>
+      <c r="U258" s="21">
+        <v>200</v>
+      </c>
+      <c r="V258" s="21">
+        <v>200</v>
       </c>
       <c r="W258" s="12">
         <v>0</v>
@@ -39160,7 +39160,7 @@
         <v>20</v>
       </c>
       <c r="N259" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O259" s="21">
         <v>2</v>
@@ -39172,7 +39172,7 @@
         <v>2</v>
       </c>
       <c r="R259" s="21">
-        <v>38483</v>
+        <v>12000</v>
       </c>
       <c r="S259" s="12">
         <v>1386</v>
@@ -39181,10 +39181,10 @@
         <v>1386</v>
       </c>
       <c r="U259" s="21">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="V259" s="21">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="W259" s="21">
         <v>0</v>
@@ -39296,7 +39296,7 @@
         <v>20</v>
       </c>
       <c r="N260" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O260" s="21">
         <v>2</v>
@@ -39308,7 +39308,7 @@
         <v>2</v>
       </c>
       <c r="R260" s="21">
-        <v>38483</v>
+        <v>12000</v>
       </c>
       <c r="S260" s="12">
         <v>1386</v>
@@ -39317,10 +39317,10 @@
         <v>1386</v>
       </c>
       <c r="U260" s="21">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="V260" s="21">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="W260" s="21">
         <v>0</v>
@@ -39432,7 +39432,7 @@
         <v>20</v>
       </c>
       <c r="N261" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O261" s="21">
         <v>2</v>
@@ -39444,7 +39444,7 @@
         <v>2</v>
       </c>
       <c r="R261" s="21">
-        <v>38483</v>
+        <v>12000</v>
       </c>
       <c r="S261" s="12">
         <v>1386</v>
@@ -39453,10 +39453,10 @@
         <v>1386</v>
       </c>
       <c r="U261" s="21">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="V261" s="21">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="W261" s="21">
         <v>0</v>
@@ -39580,7 +39580,7 @@
         <v>2</v>
       </c>
       <c r="R262" s="21">
-        <v>38483</v>
+        <v>12000</v>
       </c>
       <c r="S262" s="12">
         <v>1386</v>
@@ -39589,10 +39589,10 @@
         <v>1386</v>
       </c>
       <c r="U262" s="21">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="V262" s="21">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="W262" s="21">
         <v>0</v>
@@ -39711,19 +39711,19 @@
         <v>2</v>
       </c>
       <c r="R263" s="21">
-        <v>38483</v>
+        <v>9000</v>
       </c>
       <c r="S263" s="12">
-        <v>1386</v>
+        <v>1800</v>
       </c>
       <c r="T263" s="12">
-        <v>1386</v>
-      </c>
-      <c r="U263" s="12">
-        <v>347</v>
-      </c>
-      <c r="V263" s="12">
-        <v>347</v>
+        <v>1800</v>
+      </c>
+      <c r="U263" s="21">
+        <v>200</v>
+      </c>
+      <c r="V263" s="21">
+        <v>200</v>
       </c>
       <c r="W263" s="12">
         <v>0</v>
@@ -39830,7 +39830,7 @@
         <v>20</v>
       </c>
       <c r="N264" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O264" s="12">
         <v>2</v>
@@ -39842,7 +39842,7 @@
         <v>2</v>
       </c>
       <c r="R264" s="21">
-        <v>38483</v>
+        <v>12000</v>
       </c>
       <c r="S264" s="12">
         <v>1386</v>
@@ -39850,11 +39850,11 @@
       <c r="T264" s="12">
         <v>1386</v>
       </c>
-      <c r="U264" s="12">
-        <v>347</v>
-      </c>
-      <c r="V264" s="12">
-        <v>347</v>
+      <c r="U264" s="21">
+        <v>400</v>
+      </c>
+      <c r="V264" s="21">
+        <v>400</v>
       </c>
       <c r="W264" s="12">
         <v>0</v>
@@ -39963,7 +39963,7 @@
         <v>20</v>
       </c>
       <c r="N265" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O265" s="12">
         <v>2</v>
@@ -39975,7 +39975,7 @@
         <v>2</v>
       </c>
       <c r="R265" s="21">
-        <v>38483</v>
+        <v>12000</v>
       </c>
       <c r="S265" s="12">
         <v>1386</v>
@@ -39983,11 +39983,11 @@
       <c r="T265" s="12">
         <v>1386</v>
       </c>
-      <c r="U265" s="12">
-        <v>347</v>
-      </c>
-      <c r="V265" s="12">
-        <v>347</v>
+      <c r="U265" s="21">
+        <v>400</v>
+      </c>
+      <c r="V265" s="21">
+        <v>400</v>
       </c>
       <c r="W265" s="12">
         <v>0</v>
@@ -40096,7 +40096,7 @@
         <v>20</v>
       </c>
       <c r="N266" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O266" s="12">
         <v>2</v>
@@ -40108,7 +40108,7 @@
         <v>2</v>
       </c>
       <c r="R266" s="21">
-        <v>38483</v>
+        <v>12000</v>
       </c>
       <c r="S266" s="12">
         <v>1386</v>
@@ -40116,11 +40116,11 @@
       <c r="T266" s="12">
         <v>1386</v>
       </c>
-      <c r="U266" s="12">
-        <v>347</v>
-      </c>
-      <c r="V266" s="12">
-        <v>347</v>
+      <c r="U266" s="21">
+        <v>400</v>
+      </c>
+      <c r="V266" s="21">
+        <v>400</v>
       </c>
       <c r="W266" s="12">
         <v>0</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6C931B-9F29-4C44-BCC4-2883227647F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B088BC3-3BC8-49DB-8D22-1C792F2FC883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="1770" windowWidth="27810" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -200,15 +200,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0</t>
+0</t>
         </r>
         <r>
           <rPr>
@@ -271,16 +263,6 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：副本怪物
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -368,66 +350,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">54 场景怪   有AI 显示名称
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">55 宝箱类   无AI  
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">战场
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">101 猎魔
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>102 曙光</t>
+54 场景怪   有AI 显示名称
+55 宝箱类   无AI  
+56 宝箱类   刷新地图后即可刷新
+战场
+101 猎魔
+102 曙光</t>
         </r>
       </text>
     </comment>
@@ -5551,10 +5479,10 @@
   <dimension ref="A1:BF290"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AQ254" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT260" sqref="AT260"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B151E03-F6CC-41B1-85C3-0F059B93A18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E601D2C-76ED-447F-B8D1-EC2207121BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -908,7 +908,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="391">
   <si>
     <t>Id</t>
   </si>
@@ -2103,6 +2103,10 @@
   </si>
   <si>
     <t>601000511,600050201,601100203,601400101,601100508,602003001</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场无敌Buff</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -5490,11 +5494,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG290"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AL120" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="AP252" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM128" sqref="AM128"/>
+      <selection pane="bottomRight" activeCell="AK269" sqref="AK269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -40738,7 +40742,140 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="3:49" ht="20.100000000000001" customHeight="1"/>
+    <row r="269" spans="3:49" ht="20.100000000000001" customHeight="1">
+      <c r="C269" s="12">
+        <v>90000003</v>
+      </c>
+      <c r="D269" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="E269" s="12">
+        <v>1</v>
+      </c>
+      <c r="F269" s="12">
+        <v>51</v>
+      </c>
+      <c r="G269" s="12">
+        <v>1</v>
+      </c>
+      <c r="H269" s="12">
+        <v>0</v>
+      </c>
+      <c r="I269" s="12">
+        <v>0</v>
+      </c>
+      <c r="J269" s="12">
+        <v>90000003</v>
+      </c>
+      <c r="K269" s="12">
+        <v>0</v>
+      </c>
+      <c r="L269" s="12">
+        <v>0</v>
+      </c>
+      <c r="M269" s="12">
+        <v>51</v>
+      </c>
+      <c r="N269" s="12">
+        <v>0</v>
+      </c>
+      <c r="O269" s="12">
+        <v>6</v>
+      </c>
+      <c r="P269" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q269" s="12">
+        <v>2</v>
+      </c>
+      <c r="R269" s="12">
+        <v>0</v>
+      </c>
+      <c r="S269" s="12">
+        <v>0</v>
+      </c>
+      <c r="T269" s="12">
+        <v>0</v>
+      </c>
+      <c r="U269" s="12">
+        <v>0</v>
+      </c>
+      <c r="V269" s="12">
+        <v>0</v>
+      </c>
+      <c r="W269" s="12">
+        <v>0</v>
+      </c>
+      <c r="X269" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y269" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z269" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA269" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB269" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC269" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD269" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE269" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF269" s="12">
+        <v>10</v>
+      </c>
+      <c r="AG269" s="12">
+        <v>7</v>
+      </c>
+      <c r="AH269" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AI269" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ269" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK269" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL269" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM269" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN269" s="23"/>
+      <c r="AO269" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP269" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ269" s="21">
+        <v>70000001</v>
+      </c>
+      <c r="AR269" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS269" s="12"/>
+      <c r="AT269" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU269" s="12"/>
+      <c r="AV269" s="12">
+        <v>20</v>
+      </c>
+    </row>
     <row r="270" spans="3:49" ht="20.100000000000001" customHeight="1"/>
     <row r="271" spans="3:49" ht="20.100000000000001" customHeight="1"/>
     <row r="272" spans="3:49" ht="20.100000000000001" customHeight="1"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E601D2C-76ED-447F-B8D1-EC2207121BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588EF72C-88AF-422D-B0A0-0A27FE3BA30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5495,10 +5495,10 @@
   <dimension ref="A1:BG290"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AP252" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AP262" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK269" sqref="AK269"/>
+      <selection pane="bottomRight" activeCell="A269" sqref="A269:XFD269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -40756,7 +40756,7 @@
         <v>51</v>
       </c>
       <c r="G269" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H269" s="12">
         <v>0</v>
@@ -40789,7 +40789,7 @@
         <v>2</v>
       </c>
       <c r="R269" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S269" s="12">
         <v>0</v>
@@ -40862,18 +40862,18 @@
         <v>1</v>
       </c>
       <c r="AQ269" s="21">
-        <v>70000001</v>
+        <v>67000278</v>
       </c>
       <c r="AR269" s="23" t="s">
         <v>94</v>
       </c>
       <c r="AS269" s="12"/>
       <c r="AT269" s="12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AU269" s="12"/>
       <c r="AV269" s="12">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="3:49" ht="20.100000000000001" customHeight="1"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588EF72C-88AF-422D-B0A0-0A27FE3BA30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60695634-CF8D-49FE-B2D1-69897E57AC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -908,7 +908,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="392">
   <si>
     <t>Id</t>
   </si>
@@ -2106,7 +2106,11 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>战场无敌Buff</t>
+    <t>战场无敌Buff阵营2</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场无敌Buff阵营1</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -5495,10 +5499,10 @@
   <dimension ref="A1:BG290"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AP262" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E262" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A269" sqref="A269:XFD269"/>
+      <selection pane="bottomRight" activeCell="A269" sqref="A269:XFD270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -5529,7 +5533,8 @@
     <col min="35" max="35" width="12.25" style="7" customWidth="1"/>
     <col min="36" max="36" width="14.375" style="7" customWidth="1"/>
     <col min="37" max="38" width="10.25" style="7" customWidth="1"/>
-    <col min="39" max="40" width="78" style="7" customWidth="1"/>
+    <col min="39" max="39" width="59.125" style="7" customWidth="1"/>
+    <col min="40" max="40" width="26.75" style="7" customWidth="1"/>
     <col min="41" max="41" width="11.375" style="7" customWidth="1"/>
     <col min="42" max="43" width="14.125" style="7" customWidth="1"/>
     <col min="44" max="44" width="52" style="7" customWidth="1"/>
@@ -40774,7 +40779,7 @@
         <v>0</v>
       </c>
       <c r="M269" s="12">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="N269" s="12">
         <v>0</v>
@@ -40876,7 +40881,140 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="3:49" ht="20.100000000000001" customHeight="1"/>
+    <row r="270" spans="3:49" ht="20.100000000000001" customHeight="1">
+      <c r="C270" s="12">
+        <v>90000004</v>
+      </c>
+      <c r="D270" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="E270" s="12">
+        <v>1</v>
+      </c>
+      <c r="F270" s="12">
+        <v>51</v>
+      </c>
+      <c r="G270" s="12">
+        <v>1</v>
+      </c>
+      <c r="H270" s="12">
+        <v>0</v>
+      </c>
+      <c r="I270" s="12">
+        <v>0</v>
+      </c>
+      <c r="J270" s="12">
+        <v>90000003</v>
+      </c>
+      <c r="K270" s="12">
+        <v>0</v>
+      </c>
+      <c r="L270" s="12">
+        <v>0</v>
+      </c>
+      <c r="M270" s="12">
+        <v>1</v>
+      </c>
+      <c r="N270" s="12">
+        <v>0</v>
+      </c>
+      <c r="O270" s="12">
+        <v>6</v>
+      </c>
+      <c r="P270" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q270" s="12">
+        <v>2</v>
+      </c>
+      <c r="R270" s="12">
+        <v>1</v>
+      </c>
+      <c r="S270" s="12">
+        <v>0</v>
+      </c>
+      <c r="T270" s="12">
+        <v>0</v>
+      </c>
+      <c r="U270" s="12">
+        <v>0</v>
+      </c>
+      <c r="V270" s="12">
+        <v>0</v>
+      </c>
+      <c r="W270" s="12">
+        <v>0</v>
+      </c>
+      <c r="X270" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y270" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z270" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA270" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB270" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC270" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD270" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE270" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF270" s="12">
+        <v>10</v>
+      </c>
+      <c r="AG270" s="12">
+        <v>7</v>
+      </c>
+      <c r="AH270" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AI270" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ270" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK270" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL270" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM270" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN270" s="23"/>
+      <c r="AO270" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP270" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ270" s="21">
+        <v>67000278</v>
+      </c>
+      <c r="AR270" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS270" s="12"/>
+      <c r="AT270" s="12">
+        <v>7</v>
+      </c>
+      <c r="AU270" s="12"/>
+      <c r="AV270" s="12">
+        <v>0</v>
+      </c>
+    </row>
     <row r="271" spans="3:49" ht="20.100000000000001" customHeight="1"/>
     <row r="272" spans="3:49" ht="20.100000000000001" customHeight="1"/>
     <row r="273" ht="20.100000000000001" customHeight="1"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60695634-CF8D-49FE-B2D1-69897E57AC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C6192C-076A-4FF8-8CA6-E9A150674014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5499,10 +5499,10 @@
   <dimension ref="A1:BG290"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E262" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E229" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A269" sqref="A269:XFD270"/>
+      <selection pane="bottomRight" activeCell="J276" sqref="J276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C6192C-076A-4FF8-8CA6-E9A150674014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E1A6F4-D3C2-40BD-91C2-03E80A822D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -908,7 +908,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="392">
   <si>
     <t>Id</t>
   </si>
@@ -5496,13 +5496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG290"/>
+  <dimension ref="A1:BG300"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E229" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E258" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J276" sqref="J276"/>
+      <selection pane="bottomRight" activeCell="D275" sqref="D275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -40480,145 +40480,143 @@
       <c r="AV266" s="17"/>
     </row>
     <row r="267" spans="3:49" ht="20.100000000000001" customHeight="1">
-      <c r="C267" s="12">
-        <v>90000001</v>
-      </c>
-      <c r="D267" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="E267" s="12">
-        <v>1</v>
-      </c>
-      <c r="F267" s="12">
+      <c r="C267" s="21">
+        <v>82000001</v>
+      </c>
+      <c r="D267" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="E267" s="21">
+        <v>1</v>
+      </c>
+      <c r="F267" s="21">
         <v>0</v>
       </c>
       <c r="G267" s="12">
-        <v>0</v>
-      </c>
-      <c r="H267" s="12">
-        <v>0</v>
-      </c>
-      <c r="I267" s="12">
+        <v>1</v>
+      </c>
+      <c r="H267" s="21">
+        <v>0</v>
+      </c>
+      <c r="I267" s="21">
         <v>0</v>
       </c>
       <c r="J267" s="12">
-        <v>90000001</v>
-      </c>
-      <c r="K267" s="12">
-        <v>0</v>
-      </c>
-      <c r="L267" s="12">
-        <v>0</v>
-      </c>
-      <c r="M267" s="12">
-        <v>51</v>
-      </c>
-      <c r="N267" s="12">
-        <v>2</v>
-      </c>
-      <c r="O267" s="12">
-        <v>6</v>
-      </c>
-      <c r="P267" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q267" s="12">
-        <v>2</v>
-      </c>
-      <c r="R267" s="12">
-        <v>55650</v>
+        <v>72001001</v>
+      </c>
+      <c r="K267" s="21">
+        <v>0</v>
+      </c>
+      <c r="L267" s="21">
+        <v>0</v>
+      </c>
+      <c r="M267" s="21">
+        <v>20</v>
+      </c>
+      <c r="N267" s="21">
+        <v>2</v>
+      </c>
+      <c r="O267" s="21">
+        <v>2</v>
+      </c>
+      <c r="P267" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q267" s="21">
+        <v>2</v>
+      </c>
+      <c r="R267" s="21">
+        <v>32000</v>
       </c>
       <c r="S267" s="12">
-        <v>5300</v>
+        <v>3500</v>
       </c>
       <c r="T267" s="12">
-        <v>5300</v>
-      </c>
-      <c r="U267" s="12">
-        <v>1590</v>
-      </c>
-      <c r="V267" s="12">
-        <v>1590</v>
+        <v>3500</v>
+      </c>
+      <c r="U267" s="21">
+        <v>800</v>
+      </c>
+      <c r="V267" s="21">
+        <v>800</v>
       </c>
       <c r="W267" s="12">
         <v>0</v>
       </c>
-      <c r="X267" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y267" s="12">
+      <c r="X267" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y267" s="21">
         <v>0.75</v>
       </c>
-      <c r="Z267" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA267" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB267" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC267" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD267" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE267" s="12">
-        <v>3</v>
-      </c>
-      <c r="AF267" s="12">
-        <v>10</v>
-      </c>
-      <c r="AG267" s="12">
+      <c r="Z267" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA267" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB267" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC267" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD267" s="21">
+        <v>300</v>
+      </c>
+      <c r="AE267" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF267" s="21">
+        <v>30</v>
+      </c>
+      <c r="AG267" s="21">
         <v>7</v>
       </c>
-      <c r="AH267" s="12">
+      <c r="AH267" s="21">
         <v>1000</v>
       </c>
       <c r="AI267" s="12">
         <v>0</v>
       </c>
-      <c r="AJ267" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK267" s="12">
-        <v>1</v>
-      </c>
-      <c r="AL267" s="12">
+      <c r="AJ267" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK267" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL267" s="21">
         <v>0</v>
       </c>
       <c r="AM267" s="23" t="s">
         <v>94</v>
       </c>
       <c r="AN267" s="23"/>
-      <c r="AO267" s="12">
-        <v>0</v>
-      </c>
-      <c r="AP267" s="12">
-        <v>1</v>
-      </c>
-      <c r="AQ267" s="12">
-        <v>60000331</v>
+      <c r="AO267" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP267" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ267" s="21">
+        <v>70000001</v>
       </c>
       <c r="AR267" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="AS267" s="12"/>
-      <c r="AT267" s="12">
-        <v>1</v>
-      </c>
-      <c r="AU267" s="12"/>
-      <c r="AV267" s="12">
-        <v>30</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="AS267" s="21"/>
+      <c r="AT267" s="21">
+        <v>1</v>
+      </c>
+      <c r="AU267" s="21"/>
+      <c r="AV267" s="35"/>
     </row>
     <row r="268" spans="3:49" ht="20.100000000000001" customHeight="1">
-      <c r="C268" s="12">
-        <v>90000002</v>
+      <c r="C268" s="21">
+        <v>82000002</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E268" s="12">
         <v>1</v>
@@ -40627,7 +40625,7 @@
         <v>0</v>
       </c>
       <c r="G268" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H268" s="12">
         <v>0</v>
@@ -40636,7 +40634,7 @@
         <v>0</v>
       </c>
       <c r="J268" s="12">
-        <v>70001001</v>
+        <v>72001003</v>
       </c>
       <c r="K268" s="12">
         <v>0</v>
@@ -40645,13 +40643,13 @@
         <v>0</v>
       </c>
       <c r="M268" s="12">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N268" s="12">
         <v>2</v>
       </c>
       <c r="O268" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P268" s="12">
         <v>2</v>
@@ -40659,20 +40657,20 @@
       <c r="Q268" s="12">
         <v>2</v>
       </c>
-      <c r="R268" s="12">
-        <v>55650</v>
+      <c r="R268" s="21">
+        <v>25000</v>
       </c>
       <c r="S268" s="12">
-        <v>5300</v>
+        <v>4000</v>
       </c>
       <c r="T268" s="12">
-        <v>5300</v>
-      </c>
-      <c r="U268" s="12">
-        <v>1590</v>
-      </c>
-      <c r="V268" s="12">
-        <v>1590</v>
+        <v>4000</v>
+      </c>
+      <c r="U268" s="21">
+        <v>400</v>
+      </c>
+      <c r="V268" s="21">
+        <v>400</v>
       </c>
       <c r="W268" s="12">
         <v>0</v>
@@ -40696,13 +40694,13 @@
         <v>0</v>
       </c>
       <c r="AD268" s="12">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AE268" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF268" s="12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AG268" s="12">
         <v>7</v>
@@ -40732,8 +40730,8 @@
       <c r="AP268" s="12">
         <v>1</v>
       </c>
-      <c r="AQ268" s="21">
-        <v>70000001</v>
+      <c r="AQ268" s="12">
+        <v>70000004</v>
       </c>
       <c r="AR268" s="23" t="s">
         <v>94</v>
@@ -40743,298 +40741,1641 @@
         <v>1</v>
       </c>
       <c r="AU268" s="12"/>
-      <c r="AV268" s="12">
-        <v>20</v>
-      </c>
+      <c r="AV268" s="17"/>
     </row>
     <row r="269" spans="3:49" ht="20.100000000000001" customHeight="1">
-      <c r="C269" s="12">
-        <v>90000003</v>
-      </c>
-      <c r="D269" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="E269" s="12">
-        <v>1</v>
-      </c>
-      <c r="F269" s="12">
-        <v>51</v>
+      <c r="C269" s="21">
+        <v>82000003</v>
+      </c>
+      <c r="D269" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="E269" s="21">
+        <v>1</v>
+      </c>
+      <c r="F269" s="21">
+        <v>0</v>
       </c>
       <c r="G269" s="12">
-        <v>2</v>
-      </c>
-      <c r="H269" s="12">
-        <v>0</v>
-      </c>
-      <c r="I269" s="12">
+        <v>1</v>
+      </c>
+      <c r="H269" s="21">
+        <v>0</v>
+      </c>
+      <c r="I269" s="21">
         <v>0</v>
       </c>
       <c r="J269" s="12">
-        <v>90000003</v>
-      </c>
-      <c r="K269" s="12">
-        <v>0</v>
-      </c>
-      <c r="L269" s="12">
-        <v>0</v>
-      </c>
-      <c r="M269" s="12">
-        <v>1</v>
-      </c>
-      <c r="N269" s="12">
-        <v>0</v>
-      </c>
-      <c r="O269" s="12">
-        <v>6</v>
-      </c>
-      <c r="P269" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q269" s="12">
-        <v>2</v>
-      </c>
-      <c r="R269" s="12">
-        <v>1</v>
+        <v>72001007</v>
+      </c>
+      <c r="K269" s="21">
+        <v>0</v>
+      </c>
+      <c r="L269" s="21">
+        <v>0</v>
+      </c>
+      <c r="M269" s="21">
+        <v>20</v>
+      </c>
+      <c r="N269" s="21">
+        <v>3</v>
+      </c>
+      <c r="O269" s="21">
+        <v>2</v>
+      </c>
+      <c r="P269" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q269" s="21">
+        <v>2</v>
+      </c>
+      <c r="R269" s="21">
+        <v>32000</v>
       </c>
       <c r="S269" s="12">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="T269" s="12">
-        <v>0</v>
-      </c>
-      <c r="U269" s="12">
-        <v>0</v>
-      </c>
-      <c r="V269" s="12">
-        <v>0</v>
+        <v>3500</v>
+      </c>
+      <c r="U269" s="21">
+        <v>800</v>
+      </c>
+      <c r="V269" s="21">
+        <v>800</v>
       </c>
       <c r="W269" s="12">
         <v>0</v>
       </c>
-      <c r="X269" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y269" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z269" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA269" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB269" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC269" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD269" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE269" s="12">
-        <v>3</v>
-      </c>
-      <c r="AF269" s="12">
-        <v>10</v>
-      </c>
-      <c r="AG269" s="12">
+      <c r="X269" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y269" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="Z269" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA269" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB269" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC269" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD269" s="21">
+        <v>300</v>
+      </c>
+      <c r="AE269" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF269" s="21">
+        <v>30</v>
+      </c>
+      <c r="AG269" s="21">
         <v>7</v>
       </c>
-      <c r="AH269" s="12">
+      <c r="AH269" s="21">
         <v>1000</v>
       </c>
       <c r="AI269" s="12">
         <v>0</v>
       </c>
-      <c r="AJ269" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK269" s="12">
-        <v>1</v>
-      </c>
-      <c r="AL269" s="12">
+      <c r="AJ269" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK269" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL269" s="21">
         <v>0</v>
       </c>
       <c r="AM269" s="23" t="s">
         <v>94</v>
       </c>
       <c r="AN269" s="23"/>
-      <c r="AO269" s="12">
-        <v>0</v>
-      </c>
-      <c r="AP269" s="12">
+      <c r="AO269" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP269" s="21">
         <v>1</v>
       </c>
       <c r="AQ269" s="21">
-        <v>67000278</v>
+        <v>70000001</v>
       </c>
       <c r="AR269" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS269" s="12"/>
-      <c r="AT269" s="12">
-        <v>7</v>
-      </c>
-      <c r="AU269" s="12"/>
-      <c r="AV269" s="12">
-        <v>0</v>
+        <v>356</v>
+      </c>
+      <c r="AS269" s="44"/>
+      <c r="AT269" s="21">
+        <v>6</v>
+      </c>
+      <c r="AU269" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="AV269" s="35"/>
+      <c r="AW269" s="43" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="270" spans="3:49" ht="20.100000000000001" customHeight="1">
-      <c r="C270" s="12">
-        <v>90000004</v>
-      </c>
-      <c r="D270" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="E270" s="12">
-        <v>1</v>
-      </c>
-      <c r="F270" s="12">
-        <v>51</v>
+      <c r="C270" s="21">
+        <v>82000004</v>
+      </c>
+      <c r="D270" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="E270" s="21">
+        <v>1</v>
+      </c>
+      <c r="F270" s="21">
+        <v>0</v>
       </c>
       <c r="G270" s="12">
         <v>1</v>
       </c>
-      <c r="H270" s="12">
-        <v>0</v>
-      </c>
-      <c r="I270" s="12">
+      <c r="H270" s="21">
+        <v>0</v>
+      </c>
+      <c r="I270" s="21">
         <v>0</v>
       </c>
       <c r="J270" s="12">
-        <v>90000003</v>
-      </c>
-      <c r="K270" s="12">
-        <v>0</v>
-      </c>
-      <c r="L270" s="12">
-        <v>0</v>
-      </c>
-      <c r="M270" s="12">
-        <v>1</v>
-      </c>
-      <c r="N270" s="12">
-        <v>0</v>
-      </c>
-      <c r="O270" s="12">
-        <v>6</v>
-      </c>
-      <c r="P270" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q270" s="12">
-        <v>2</v>
-      </c>
-      <c r="R270" s="12">
-        <v>1</v>
+        <v>72001007</v>
+      </c>
+      <c r="K270" s="21">
+        <v>0</v>
+      </c>
+      <c r="L270" s="21">
+        <v>0</v>
+      </c>
+      <c r="M270" s="21">
+        <v>20</v>
+      </c>
+      <c r="N270" s="21">
+        <v>3</v>
+      </c>
+      <c r="O270" s="21">
+        <v>2</v>
+      </c>
+      <c r="P270" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q270" s="21">
+        <v>2</v>
+      </c>
+      <c r="R270" s="21">
+        <v>32000</v>
       </c>
       <c r="S270" s="12">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="T270" s="12">
-        <v>0</v>
-      </c>
-      <c r="U270" s="12">
-        <v>0</v>
-      </c>
-      <c r="V270" s="12">
-        <v>0</v>
+        <v>3500</v>
+      </c>
+      <c r="U270" s="21">
+        <v>800</v>
+      </c>
+      <c r="V270" s="21">
+        <v>800</v>
       </c>
       <c r="W270" s="12">
         <v>0</v>
       </c>
-      <c r="X270" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y270" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z270" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA270" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB270" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC270" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD270" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE270" s="12">
-        <v>3</v>
-      </c>
-      <c r="AF270" s="12">
-        <v>10</v>
-      </c>
-      <c r="AG270" s="12">
+      <c r="X270" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y270" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="Z270" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA270" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB270" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC270" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD270" s="21">
+        <v>300</v>
+      </c>
+      <c r="AE270" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF270" s="21">
+        <v>30</v>
+      </c>
+      <c r="AG270" s="21">
         <v>7</v>
       </c>
-      <c r="AH270" s="12">
+      <c r="AH270" s="21">
         <v>1000</v>
       </c>
       <c r="AI270" s="12">
         <v>0</v>
       </c>
-      <c r="AJ270" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK270" s="12">
-        <v>1</v>
-      </c>
-      <c r="AL270" s="12">
+      <c r="AJ270" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK270" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL270" s="21">
         <v>0</v>
       </c>
       <c r="AM270" s="23" t="s">
         <v>94</v>
       </c>
       <c r="AN270" s="23"/>
-      <c r="AO270" s="12">
-        <v>0</v>
-      </c>
-      <c r="AP270" s="12">
+      <c r="AO270" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP270" s="21">
         <v>1</v>
       </c>
       <c r="AQ270" s="21">
+        <v>70000001</v>
+      </c>
+      <c r="AR270" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="AS270" s="44"/>
+      <c r="AT270" s="21">
+        <v>6</v>
+      </c>
+      <c r="AU270" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="AV270" s="35"/>
+      <c r="AW270" s="43" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="271" spans="3:49" ht="20.100000000000001" customHeight="1">
+      <c r="C271" s="21">
+        <v>82000005</v>
+      </c>
+      <c r="D271" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="E271" s="21">
+        <v>1</v>
+      </c>
+      <c r="F271" s="21">
+        <v>0</v>
+      </c>
+      <c r="G271" s="12">
+        <v>1</v>
+      </c>
+      <c r="H271" s="21">
+        <v>0</v>
+      </c>
+      <c r="I271" s="21">
+        <v>0</v>
+      </c>
+      <c r="J271" s="12">
+        <v>72001007</v>
+      </c>
+      <c r="K271" s="21">
+        <v>0</v>
+      </c>
+      <c r="L271" s="21">
+        <v>0</v>
+      </c>
+      <c r="M271" s="21">
+        <v>20</v>
+      </c>
+      <c r="N271" s="21">
+        <v>3</v>
+      </c>
+      <c r="O271" s="21">
+        <v>2</v>
+      </c>
+      <c r="P271" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q271" s="21">
+        <v>2</v>
+      </c>
+      <c r="R271" s="21">
+        <v>32000</v>
+      </c>
+      <c r="S271" s="12">
+        <v>3500</v>
+      </c>
+      <c r="T271" s="12">
+        <v>3500</v>
+      </c>
+      <c r="U271" s="21">
+        <v>800</v>
+      </c>
+      <c r="V271" s="21">
+        <v>800</v>
+      </c>
+      <c r="W271" s="12">
+        <v>0</v>
+      </c>
+      <c r="X271" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y271" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="Z271" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA271" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB271" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC271" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD271" s="21">
+        <v>300</v>
+      </c>
+      <c r="AE271" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF271" s="21">
+        <v>30</v>
+      </c>
+      <c r="AG271" s="21">
+        <v>7</v>
+      </c>
+      <c r="AH271" s="21">
+        <v>1000</v>
+      </c>
+      <c r="AI271" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ271" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK271" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL271" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM271" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN271" s="23"/>
+      <c r="AO271" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP271" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ271" s="21">
+        <v>70000001</v>
+      </c>
+      <c r="AR271" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="AS271" s="44"/>
+      <c r="AT271" s="21">
+        <v>6</v>
+      </c>
+      <c r="AU271" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="AV271" s="35"/>
+      <c r="AW271" s="43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="272" spans="3:49" ht="20.100000000000001" customHeight="1">
+      <c r="C272" s="21">
+        <v>82000011</v>
+      </c>
+      <c r="D272" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="E272" s="21">
+        <v>1</v>
+      </c>
+      <c r="F272" s="21">
+        <v>0</v>
+      </c>
+      <c r="G272" s="12">
+        <v>2</v>
+      </c>
+      <c r="H272" s="21">
+        <v>0</v>
+      </c>
+      <c r="I272" s="21">
+        <v>0</v>
+      </c>
+      <c r="J272" s="12">
+        <v>72001005</v>
+      </c>
+      <c r="K272" s="21">
+        <v>0</v>
+      </c>
+      <c r="L272" s="21">
+        <v>0</v>
+      </c>
+      <c r="M272" s="21">
+        <v>20</v>
+      </c>
+      <c r="N272" s="21">
+        <v>2</v>
+      </c>
+      <c r="O272" s="21">
+        <v>2</v>
+      </c>
+      <c r="P272" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q272" s="21">
+        <v>2</v>
+      </c>
+      <c r="R272" s="21">
+        <v>32000</v>
+      </c>
+      <c r="S272" s="12">
+        <v>3500</v>
+      </c>
+      <c r="T272" s="12">
+        <v>3500</v>
+      </c>
+      <c r="U272" s="21">
+        <v>800</v>
+      </c>
+      <c r="V272" s="21">
+        <v>800</v>
+      </c>
+      <c r="W272" s="12">
+        <v>0</v>
+      </c>
+      <c r="X272" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y272" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="Z272" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA272" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB272" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC272" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD272" s="21">
+        <v>300</v>
+      </c>
+      <c r="AE272" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF272" s="21">
+        <v>30</v>
+      </c>
+      <c r="AG272" s="21">
+        <v>7</v>
+      </c>
+      <c r="AH272" s="21">
+        <v>1000</v>
+      </c>
+      <c r="AI272" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ272" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK272" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL272" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM272" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN272" s="23"/>
+      <c r="AO272" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP272" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ272" s="21">
+        <v>70000001</v>
+      </c>
+      <c r="AR272" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="AS272" s="44"/>
+      <c r="AT272" s="21">
+        <v>1</v>
+      </c>
+      <c r="AU272" s="44"/>
+      <c r="AV272" s="35"/>
+    </row>
+    <row r="273" spans="3:48" ht="20.100000000000001" customHeight="1">
+      <c r="C273" s="21">
+        <v>82000012</v>
+      </c>
+      <c r="D273" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="E273" s="12">
+        <v>1</v>
+      </c>
+      <c r="F273" s="12">
+        <v>0</v>
+      </c>
+      <c r="G273" s="12">
+        <v>2</v>
+      </c>
+      <c r="H273" s="12">
+        <v>0</v>
+      </c>
+      <c r="I273" s="12">
+        <v>0</v>
+      </c>
+      <c r="J273" s="12">
+        <v>72001006</v>
+      </c>
+      <c r="K273" s="12">
+        <v>0</v>
+      </c>
+      <c r="L273" s="12">
+        <v>0</v>
+      </c>
+      <c r="M273" s="12">
+        <v>20</v>
+      </c>
+      <c r="N273" s="12">
+        <v>2</v>
+      </c>
+      <c r="O273" s="12">
+        <v>8</v>
+      </c>
+      <c r="P273" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q273" s="12">
+        <v>2</v>
+      </c>
+      <c r="R273" s="21">
+        <v>25000</v>
+      </c>
+      <c r="S273" s="12">
+        <v>4000</v>
+      </c>
+      <c r="T273" s="12">
+        <v>4000</v>
+      </c>
+      <c r="U273" s="21">
+        <v>400</v>
+      </c>
+      <c r="V273" s="21">
+        <v>400</v>
+      </c>
+      <c r="W273" s="12">
+        <v>0</v>
+      </c>
+      <c r="X273" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y273" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="Z273" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA273" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB273" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC273" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD273" s="12">
+        <v>300</v>
+      </c>
+      <c r="AE273" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF273" s="12">
+        <v>30</v>
+      </c>
+      <c r="AG273" s="12">
+        <v>7</v>
+      </c>
+      <c r="AH273" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AI273" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ273" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK273" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL273" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM273" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN273" s="23"/>
+      <c r="AO273" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP273" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ273" s="12">
+        <v>70000004</v>
+      </c>
+      <c r="AR273" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS273" s="12"/>
+      <c r="AT273" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU273" s="12"/>
+      <c r="AV273" s="17"/>
+    </row>
+    <row r="274" spans="3:48" ht="20.100000000000001" customHeight="1">
+      <c r="C274" s="21">
+        <v>82000013</v>
+      </c>
+      <c r="D274" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="E274" s="12">
+        <v>1</v>
+      </c>
+      <c r="F274" s="12">
+        <v>0</v>
+      </c>
+      <c r="G274" s="12">
+        <v>2</v>
+      </c>
+      <c r="H274" s="12">
+        <v>0</v>
+      </c>
+      <c r="I274" s="12">
+        <v>0</v>
+      </c>
+      <c r="J274" s="12">
+        <v>72001008</v>
+      </c>
+      <c r="K274" s="12">
+        <v>0</v>
+      </c>
+      <c r="L274" s="12">
+        <v>0</v>
+      </c>
+      <c r="M274" s="12">
+        <v>20</v>
+      </c>
+      <c r="N274" s="12">
+        <v>3</v>
+      </c>
+      <c r="O274" s="12">
+        <v>2</v>
+      </c>
+      <c r="P274" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q274" s="12">
+        <v>2</v>
+      </c>
+      <c r="R274" s="21">
+        <v>32000</v>
+      </c>
+      <c r="S274" s="12">
+        <v>3500</v>
+      </c>
+      <c r="T274" s="12">
+        <v>3500</v>
+      </c>
+      <c r="U274" s="21">
+        <v>800</v>
+      </c>
+      <c r="V274" s="21">
+        <v>800</v>
+      </c>
+      <c r="W274" s="12">
+        <v>0</v>
+      </c>
+      <c r="X274" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y274" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="Z274" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA274" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB274" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC274" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD274" s="12">
+        <v>300</v>
+      </c>
+      <c r="AE274" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF274" s="12">
+        <v>30</v>
+      </c>
+      <c r="AG274" s="12">
+        <v>7</v>
+      </c>
+      <c r="AH274" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AI274" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ274" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK274" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL274" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM274" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN274" s="23"/>
+      <c r="AO274" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP274" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ274" s="12">
+        <v>70000001</v>
+      </c>
+      <c r="AR274" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="AS274" s="44"/>
+      <c r="AT274" s="21">
+        <v>6</v>
+      </c>
+      <c r="AU274" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="AV274" s="17"/>
+    </row>
+    <row r="275" spans="3:48" ht="20.100000000000001" customHeight="1">
+      <c r="C275" s="21">
+        <v>82000014</v>
+      </c>
+      <c r="D275" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="E275" s="12">
+        <v>1</v>
+      </c>
+      <c r="F275" s="12">
+        <v>0</v>
+      </c>
+      <c r="G275" s="12">
+        <v>2</v>
+      </c>
+      <c r="H275" s="12">
+        <v>0</v>
+      </c>
+      <c r="I275" s="12">
+        <v>0</v>
+      </c>
+      <c r="J275" s="12">
+        <v>72001008</v>
+      </c>
+      <c r="K275" s="12">
+        <v>0</v>
+      </c>
+      <c r="L275" s="12">
+        <v>0</v>
+      </c>
+      <c r="M275" s="12">
+        <v>20</v>
+      </c>
+      <c r="N275" s="12">
+        <v>3</v>
+      </c>
+      <c r="O275" s="12">
+        <v>2</v>
+      </c>
+      <c r="P275" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q275" s="12">
+        <v>2</v>
+      </c>
+      <c r="R275" s="21">
+        <v>32000</v>
+      </c>
+      <c r="S275" s="12">
+        <v>3500</v>
+      </c>
+      <c r="T275" s="12">
+        <v>3500</v>
+      </c>
+      <c r="U275" s="21">
+        <v>800</v>
+      </c>
+      <c r="V275" s="21">
+        <v>800</v>
+      </c>
+      <c r="W275" s="12">
+        <v>0</v>
+      </c>
+      <c r="X275" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y275" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="Z275" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA275" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB275" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC275" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD275" s="12">
+        <v>300</v>
+      </c>
+      <c r="AE275" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF275" s="12">
+        <v>30</v>
+      </c>
+      <c r="AG275" s="12">
+        <v>7</v>
+      </c>
+      <c r="AH275" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AI275" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ275" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK275" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL275" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM275" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN275" s="23"/>
+      <c r="AO275" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP275" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ275" s="12">
+        <v>70000001</v>
+      </c>
+      <c r="AR275" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="AS275" s="44"/>
+      <c r="AT275" s="21">
+        <v>6</v>
+      </c>
+      <c r="AU275" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="AV275" s="17"/>
+    </row>
+    <row r="276" spans="3:48" ht="20.100000000000001" customHeight="1">
+      <c r="C276" s="21">
+        <v>82000015</v>
+      </c>
+      <c r="D276" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="E276" s="12">
+        <v>1</v>
+      </c>
+      <c r="F276" s="12">
+        <v>0</v>
+      </c>
+      <c r="G276" s="12">
+        <v>2</v>
+      </c>
+      <c r="H276" s="12">
+        <v>0</v>
+      </c>
+      <c r="I276" s="12">
+        <v>0</v>
+      </c>
+      <c r="J276" s="12">
+        <v>72001008</v>
+      </c>
+      <c r="K276" s="12">
+        <v>0</v>
+      </c>
+      <c r="L276" s="12">
+        <v>0</v>
+      </c>
+      <c r="M276" s="12">
+        <v>20</v>
+      </c>
+      <c r="N276" s="12">
+        <v>3</v>
+      </c>
+      <c r="O276" s="12">
+        <v>2</v>
+      </c>
+      <c r="P276" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q276" s="12">
+        <v>2</v>
+      </c>
+      <c r="R276" s="21">
+        <v>32000</v>
+      </c>
+      <c r="S276" s="12">
+        <v>3500</v>
+      </c>
+      <c r="T276" s="12">
+        <v>3500</v>
+      </c>
+      <c r="U276" s="21">
+        <v>800</v>
+      </c>
+      <c r="V276" s="21">
+        <v>800</v>
+      </c>
+      <c r="W276" s="12">
+        <v>0</v>
+      </c>
+      <c r="X276" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y276" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="Z276" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA276" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB276" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC276" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD276" s="12">
+        <v>300</v>
+      </c>
+      <c r="AE276" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF276" s="12">
+        <v>30</v>
+      </c>
+      <c r="AG276" s="12">
+        <v>7</v>
+      </c>
+      <c r="AH276" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AI276" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ276" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK276" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL276" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM276" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN276" s="23"/>
+      <c r="AO276" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP276" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ276" s="12">
+        <v>70000001</v>
+      </c>
+      <c r="AR276" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="AS276" s="45"/>
+      <c r="AT276" s="21">
+        <v>6</v>
+      </c>
+      <c r="AU276" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="AV276" s="17"/>
+    </row>
+    <row r="277" spans="3:48" ht="20.100000000000001" customHeight="1">
+      <c r="C277" s="12">
+        <v>90000001</v>
+      </c>
+      <c r="D277" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="E277" s="12">
+        <v>1</v>
+      </c>
+      <c r="F277" s="12">
+        <v>0</v>
+      </c>
+      <c r="G277" s="12">
+        <v>0</v>
+      </c>
+      <c r="H277" s="12">
+        <v>0</v>
+      </c>
+      <c r="I277" s="12">
+        <v>0</v>
+      </c>
+      <c r="J277" s="12">
+        <v>90000001</v>
+      </c>
+      <c r="K277" s="12">
+        <v>0</v>
+      </c>
+      <c r="L277" s="12">
+        <v>0</v>
+      </c>
+      <c r="M277" s="12">
+        <v>51</v>
+      </c>
+      <c r="N277" s="12">
+        <v>2</v>
+      </c>
+      <c r="O277" s="12">
+        <v>6</v>
+      </c>
+      <c r="P277" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q277" s="12">
+        <v>2</v>
+      </c>
+      <c r="R277" s="12">
+        <v>55650</v>
+      </c>
+      <c r="S277" s="12">
+        <v>5300</v>
+      </c>
+      <c r="T277" s="12">
+        <v>5300</v>
+      </c>
+      <c r="U277" s="12">
+        <v>1590</v>
+      </c>
+      <c r="V277" s="12">
+        <v>1590</v>
+      </c>
+      <c r="W277" s="12">
+        <v>0</v>
+      </c>
+      <c r="X277" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y277" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="Z277" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA277" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB277" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC277" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD277" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE277" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF277" s="12">
+        <v>10</v>
+      </c>
+      <c r="AG277" s="12">
+        <v>7</v>
+      </c>
+      <c r="AH277" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AI277" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ277" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK277" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL277" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM277" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN277" s="23"/>
+      <c r="AO277" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP277" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ277" s="12">
+        <v>60000331</v>
+      </c>
+      <c r="AR277" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="AS277" s="12"/>
+      <c r="AT277" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU277" s="12"/>
+      <c r="AV277" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="278" spans="3:48" ht="20.100000000000001" customHeight="1">
+      <c r="C278" s="12">
+        <v>90000002</v>
+      </c>
+      <c r="D278" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="E278" s="12">
+        <v>1</v>
+      </c>
+      <c r="F278" s="12">
+        <v>0</v>
+      </c>
+      <c r="G278" s="12">
+        <v>0</v>
+      </c>
+      <c r="H278" s="12">
+        <v>0</v>
+      </c>
+      <c r="I278" s="12">
+        <v>0</v>
+      </c>
+      <c r="J278" s="12">
+        <v>70001001</v>
+      </c>
+      <c r="K278" s="12">
+        <v>0</v>
+      </c>
+      <c r="L278" s="12">
+        <v>0</v>
+      </c>
+      <c r="M278" s="12">
+        <v>51</v>
+      </c>
+      <c r="N278" s="12">
+        <v>2</v>
+      </c>
+      <c r="O278" s="12">
+        <v>6</v>
+      </c>
+      <c r="P278" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q278" s="12">
+        <v>2</v>
+      </c>
+      <c r="R278" s="12">
+        <v>55650</v>
+      </c>
+      <c r="S278" s="12">
+        <v>5300</v>
+      </c>
+      <c r="T278" s="12">
+        <v>5300</v>
+      </c>
+      <c r="U278" s="12">
+        <v>1590</v>
+      </c>
+      <c r="V278" s="12">
+        <v>1590</v>
+      </c>
+      <c r="W278" s="12">
+        <v>0</v>
+      </c>
+      <c r="X278" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y278" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="Z278" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA278" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB278" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC278" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD278" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE278" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF278" s="12">
+        <v>10</v>
+      </c>
+      <c r="AG278" s="12">
+        <v>7</v>
+      </c>
+      <c r="AH278" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AI278" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ278" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK278" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL278" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM278" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN278" s="23"/>
+      <c r="AO278" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP278" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ278" s="21">
+        <v>70000001</v>
+      </c>
+      <c r="AR278" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS278" s="12"/>
+      <c r="AT278" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU278" s="12"/>
+      <c r="AV278" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279" spans="3:48" ht="20.100000000000001" customHeight="1">
+      <c r="C279" s="12">
+        <v>90000003</v>
+      </c>
+      <c r="D279" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="E279" s="12">
+        <v>1</v>
+      </c>
+      <c r="F279" s="12">
+        <v>51</v>
+      </c>
+      <c r="G279" s="12">
+        <v>2</v>
+      </c>
+      <c r="H279" s="12">
+        <v>0</v>
+      </c>
+      <c r="I279" s="12">
+        <v>0</v>
+      </c>
+      <c r="J279" s="12">
+        <v>90000003</v>
+      </c>
+      <c r="K279" s="12">
+        <v>0</v>
+      </c>
+      <c r="L279" s="12">
+        <v>0</v>
+      </c>
+      <c r="M279" s="12">
+        <v>1</v>
+      </c>
+      <c r="N279" s="12">
+        <v>0</v>
+      </c>
+      <c r="O279" s="12">
+        <v>6</v>
+      </c>
+      <c r="P279" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q279" s="12">
+        <v>2</v>
+      </c>
+      <c r="R279" s="12">
+        <v>1</v>
+      </c>
+      <c r="S279" s="12">
+        <v>0</v>
+      </c>
+      <c r="T279" s="12">
+        <v>0</v>
+      </c>
+      <c r="U279" s="12">
+        <v>0</v>
+      </c>
+      <c r="V279" s="12">
+        <v>0</v>
+      </c>
+      <c r="W279" s="12">
+        <v>0</v>
+      </c>
+      <c r="X279" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y279" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z279" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA279" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB279" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC279" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD279" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE279" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF279" s="12">
+        <v>10</v>
+      </c>
+      <c r="AG279" s="12">
+        <v>7</v>
+      </c>
+      <c r="AH279" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AI279" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ279" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK279" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL279" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM279" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN279" s="23"/>
+      <c r="AO279" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP279" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ279" s="21">
         <v>67000278</v>
       </c>
-      <c r="AR270" s="23" t="s">
+      <c r="AR279" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="AS270" s="12"/>
-      <c r="AT270" s="12">
+      <c r="AS279" s="12"/>
+      <c r="AT279" s="12">
         <v>7</v>
       </c>
-      <c r="AU270" s="12"/>
-      <c r="AV270" s="12">
+      <c r="AU279" s="12"/>
+      <c r="AV279" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:49" ht="20.100000000000001" customHeight="1"/>
-    <row r="272" spans="3:49" ht="20.100000000000001" customHeight="1"/>
-    <row r="273" ht="20.100000000000001" customHeight="1"/>
-    <row r="274" ht="20.100000000000001" customHeight="1"/>
-    <row r="275" ht="20.100000000000001" customHeight="1"/>
-    <row r="276" ht="20.100000000000001" customHeight="1"/>
-    <row r="277" ht="20.100000000000001" customHeight="1"/>
-    <row r="278" ht="20.100000000000001" customHeight="1"/>
-    <row r="279" ht="20.100000000000001" customHeight="1"/>
-    <row r="280" ht="20.100000000000001" customHeight="1"/>
-    <row r="281" ht="20.100000000000001" customHeight="1"/>
-    <row r="282" ht="20.100000000000001" customHeight="1"/>
-    <row r="283" ht="20.100000000000001" customHeight="1"/>
-    <row r="284" ht="20.100000000000001" customHeight="1"/>
-    <row r="285" ht="20.100000000000001" customHeight="1"/>
-    <row r="286" ht="20.100000000000001" customHeight="1"/>
-    <row r="287" ht="20.100000000000001" customHeight="1"/>
-    <row r="288" ht="20.100000000000001" customHeight="1"/>
+    <row r="280" spans="3:48" ht="20.100000000000001" customHeight="1">
+      <c r="C280" s="12">
+        <v>90000004</v>
+      </c>
+      <c r="D280" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="E280" s="12">
+        <v>1</v>
+      </c>
+      <c r="F280" s="12">
+        <v>51</v>
+      </c>
+      <c r="G280" s="12">
+        <v>1</v>
+      </c>
+      <c r="H280" s="12">
+        <v>0</v>
+      </c>
+      <c r="I280" s="12">
+        <v>0</v>
+      </c>
+      <c r="J280" s="12">
+        <v>90000003</v>
+      </c>
+      <c r="K280" s="12">
+        <v>0</v>
+      </c>
+      <c r="L280" s="12">
+        <v>0</v>
+      </c>
+      <c r="M280" s="12">
+        <v>1</v>
+      </c>
+      <c r="N280" s="12">
+        <v>0</v>
+      </c>
+      <c r="O280" s="12">
+        <v>6</v>
+      </c>
+      <c r="P280" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q280" s="12">
+        <v>2</v>
+      </c>
+      <c r="R280" s="12">
+        <v>1</v>
+      </c>
+      <c r="S280" s="12">
+        <v>0</v>
+      </c>
+      <c r="T280" s="12">
+        <v>0</v>
+      </c>
+      <c r="U280" s="12">
+        <v>0</v>
+      </c>
+      <c r="V280" s="12">
+        <v>0</v>
+      </c>
+      <c r="W280" s="12">
+        <v>0</v>
+      </c>
+      <c r="X280" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y280" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z280" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA280" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB280" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC280" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD280" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE280" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF280" s="12">
+        <v>10</v>
+      </c>
+      <c r="AG280" s="12">
+        <v>7</v>
+      </c>
+      <c r="AH280" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AI280" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ280" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK280" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL280" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM280" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN280" s="23"/>
+      <c r="AO280" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP280" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ280" s="21">
+        <v>67000278</v>
+      </c>
+      <c r="AR280" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS280" s="12"/>
+      <c r="AT280" s="12">
+        <v>7</v>
+      </c>
+      <c r="AU280" s="12"/>
+      <c r="AV280" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="282" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="283" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="284" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="285" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="286" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="287" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="288" spans="3:48" ht="20.100000000000001" customHeight="1"/>
     <row r="289" ht="20.100000000000001" customHeight="1"/>
     <row r="290" ht="20.100000000000001" customHeight="1"/>
+    <row r="291" ht="20.100000000000001" customHeight="1"/>
+    <row r="292" ht="20.100000000000001" customHeight="1"/>
+    <row r="293" ht="20.100000000000001" customHeight="1"/>
+    <row r="294" ht="20.100000000000001" customHeight="1"/>
+    <row r="295" ht="20.100000000000001" customHeight="1"/>
+    <row r="296" ht="20.100000000000001" customHeight="1"/>
+    <row r="297" ht="20.100000000000001" customHeight="1"/>
+    <row r="298" ht="20.100000000000001" customHeight="1"/>
+    <row r="299" ht="20.100000000000001" customHeight="1"/>
+    <row r="300" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E1A6F4-D3C2-40BD-91C2-03E80A822D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304B5492-1A01-4F4D-9599-6007A043471D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5499,10 +5499,10 @@
   <dimension ref="A1:BG300"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E258" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AR131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D275" sqref="D275"/>
+      <selection pane="bottomRight" activeCell="AY141" sqref="AY141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -24058,7 +24058,7 @@
       <c r="AT142" s="12"/>
       <c r="AU142" s="12"/>
       <c r="AV142" s="12">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="143" spans="1:50" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6C6483-BDF4-4925-AA07-EE87EA5C44C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA50E78E-2514-4D3A-ADD6-6677B5EDBE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5583,10 +5583,10 @@
   <dimension ref="A1:BF304"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AN243" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AN261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AR255" sqref="AR255"/>
+      <selection pane="bottomRight" activeCell="AS262" sqref="AS262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -39235,10 +39235,12 @@
       </c>
       <c r="AR258" s="40"/>
       <c r="AS258" s="40">
+        <v>0</v>
+      </c>
+      <c r="AT258" s="12"/>
+      <c r="AU258" s="40">
         <v>3600</v>
       </c>
-      <c r="AT258" s="12"/>
-      <c r="AU258" s="12"/>
     </row>
     <row r="259" spans="3:48" ht="20.100000000000001" customHeight="1">
       <c r="C259" s="12">
@@ -39366,10 +39368,12 @@
       </c>
       <c r="AR259" s="40"/>
       <c r="AS259" s="40">
+        <v>0</v>
+      </c>
+      <c r="AT259" s="12"/>
+      <c r="AU259" s="40">
         <v>3600</v>
       </c>
-      <c r="AT259" s="12"/>
-      <c r="AU259" s="12"/>
     </row>
     <row r="260" spans="3:48" ht="20.100000000000001" customHeight="1">
       <c r="C260" s="12">
@@ -39497,10 +39501,12 @@
       </c>
       <c r="AR260" s="40"/>
       <c r="AS260" s="40">
+        <v>0</v>
+      </c>
+      <c r="AT260" s="12"/>
+      <c r="AU260" s="40">
         <v>3600</v>
       </c>
-      <c r="AT260" s="12"/>
-      <c r="AU260" s="12"/>
     </row>
     <row r="261" spans="3:48" ht="20.100000000000001" customHeight="1">
       <c r="C261" s="21">
@@ -42719,10 +42725,10 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A3B877-6129-42EE-984F-87C70B494D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F13736D-2E85-4704-8921-9CA3D8DCFA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1017,7 +1017,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="410">
   <si>
     <t>Id</t>
   </si>
@@ -2262,6 +2262,10 @@
   </si>
   <si>
     <t>胜利者的大宝箱</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗忘者的大宝箱</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -5674,13 +5678,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG308"/>
+  <dimension ref="A1:BG309"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AJ258" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AB15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN264" sqref="AN264"/>
+      <selection pane="bottomRight" activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -8604,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="AD24" s="12">
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="AE24" s="12">
         <v>1</v>
@@ -8999,8 +9003,8 @@
       <c r="AC27" s="14">
         <v>0</v>
       </c>
-      <c r="AD27" s="14">
-        <v>3600</v>
+      <c r="AD27" s="12">
+        <v>7200</v>
       </c>
       <c r="AE27" s="14">
         <v>1</v>
@@ -40455,409 +40459,410 @@
       </c>
     </row>
     <row r="265" spans="3:49" ht="20.100000000000001" customHeight="1">
-      <c r="C265" s="21">
-        <v>81000001</v>
-      </c>
-      <c r="D265" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="E265" s="21">
-        <v>1</v>
-      </c>
-      <c r="F265" s="21">
-        <v>0</v>
+      <c r="C265" s="12">
+        <v>80002004</v>
+      </c>
+      <c r="D265" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="E265" s="12">
+        <v>5</v>
+      </c>
+      <c r="F265" s="12">
+        <v>55</v>
       </c>
       <c r="G265" s="12">
         <v>1</v>
       </c>
-      <c r="H265" s="21">
-        <v>0</v>
-      </c>
-      <c r="I265" s="21">
+      <c r="H265" s="12">
+        <v>0</v>
+      </c>
+      <c r="I265" s="12">
         <v>0</v>
       </c>
       <c r="J265" s="12">
-        <v>72001001</v>
-      </c>
-      <c r="K265" s="21">
-        <v>0</v>
-      </c>
-      <c r="L265" s="21">
-        <v>0</v>
-      </c>
-      <c r="M265" s="21">
-        <v>20</v>
-      </c>
-      <c r="N265" s="21">
-        <v>2</v>
-      </c>
-      <c r="O265" s="21">
-        <v>2</v>
-      </c>
-      <c r="P265" s="21">
-        <v>2</v>
-      </c>
-      <c r="Q265" s="21">
-        <v>2</v>
-      </c>
-      <c r="R265" s="21">
-        <v>12000</v>
-      </c>
-      <c r="S265" s="12">
-        <v>1386</v>
+        <v>80002003</v>
+      </c>
+      <c r="K265" s="47">
+        <v>0</v>
+      </c>
+      <c r="L265" s="34">
+        <v>0</v>
+      </c>
+      <c r="M265" s="12">
+        <v>1</v>
+      </c>
+      <c r="N265" s="12">
+        <v>3</v>
+      </c>
+      <c r="O265" s="12">
+        <v>2</v>
+      </c>
+      <c r="P265" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q265" s="12">
+        <v>1</v>
+      </c>
+      <c r="R265" s="12">
+        <v>9449.9999999999982</v>
+      </c>
+      <c r="S265" s="21">
+        <v>675</v>
       </c>
       <c r="T265" s="12">
-        <v>1386</v>
-      </c>
-      <c r="U265" s="21">
-        <v>400</v>
-      </c>
-      <c r="V265" s="21">
-        <v>400</v>
-      </c>
-      <c r="W265" s="21">
-        <v>0</v>
-      </c>
-      <c r="X265" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y265" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="Z265" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA265" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB265" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC265" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD265" s="21">
-        <v>300</v>
-      </c>
-      <c r="AE265" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF265" s="21">
-        <v>30</v>
-      </c>
-      <c r="AG265" s="21">
-        <v>7</v>
-      </c>
-      <c r="AH265" s="21">
+        <v>675</v>
+      </c>
+      <c r="U265" s="12">
+        <v>269.99999999999994</v>
+      </c>
+      <c r="V265" s="12">
+        <v>269.99999999999994</v>
+      </c>
+      <c r="W265" s="12">
+        <v>0</v>
+      </c>
+      <c r="X265" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y265" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z265" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA265" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB265" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC265" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD265" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE265" s="12">
+        <v>5</v>
+      </c>
+      <c r="AF265" s="12">
+        <v>99</v>
+      </c>
+      <c r="AG265" s="12">
+        <v>8</v>
+      </c>
+      <c r="AH265" s="12">
         <v>1000</v>
       </c>
       <c r="AI265" s="12">
         <v>0</v>
       </c>
-      <c r="AJ265" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK265" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL265" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM265" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN265" s="23"/>
-      <c r="AO265" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP265" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ265" s="21">
-        <v>70000001</v>
-      </c>
-      <c r="AR265" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="AS265" s="21"/>
-      <c r="AT265" s="21">
-        <v>1</v>
-      </c>
-      <c r="AU265" s="21"/>
-      <c r="AV265" s="35"/>
+      <c r="AJ265" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK265" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL265" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM265" s="40">
+        <v>60300301</v>
+      </c>
+      <c r="AN265" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="AO265" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP265" s="40">
+        <v>0</v>
+      </c>
+      <c r="AQ265" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR265" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS265" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT265" s="40">
+        <v>0</v>
+      </c>
+      <c r="AU265" s="12"/>
+      <c r="AV265" s="40">
+        <v>3600</v>
+      </c>
     </row>
     <row r="266" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C266" s="21">
-        <v>81000002</v>
-      </c>
-      <c r="D266" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E266" s="12">
-        <v>1</v>
-      </c>
-      <c r="F266" s="12">
+        <v>81000001</v>
+      </c>
+      <c r="D266" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="E266" s="21">
+        <v>1</v>
+      </c>
+      <c r="F266" s="21">
         <v>0</v>
       </c>
       <c r="G266" s="12">
         <v>1</v>
       </c>
-      <c r="H266" s="12">
-        <v>0</v>
-      </c>
-      <c r="I266" s="12">
+      <c r="H266" s="21">
+        <v>0</v>
+      </c>
+      <c r="I266" s="21">
         <v>0</v>
       </c>
       <c r="J266" s="12">
-        <v>72001003</v>
-      </c>
-      <c r="K266" s="12">
-        <v>0</v>
-      </c>
-      <c r="L266" s="12">
-        <v>0</v>
-      </c>
-      <c r="M266" s="12">
+        <v>72001001</v>
+      </c>
+      <c r="K266" s="21">
+        <v>0</v>
+      </c>
+      <c r="L266" s="21">
+        <v>0</v>
+      </c>
+      <c r="M266" s="21">
         <v>20</v>
       </c>
-      <c r="N266" s="12">
-        <v>2</v>
-      </c>
-      <c r="O266" s="12">
-        <v>8</v>
-      </c>
-      <c r="P266" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q266" s="12">
+      <c r="N266" s="21">
+        <v>2</v>
+      </c>
+      <c r="O266" s="21">
+        <v>2</v>
+      </c>
+      <c r="P266" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q266" s="21">
         <v>2</v>
       </c>
       <c r="R266" s="21">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="S266" s="12">
-        <v>1800</v>
+        <v>1386</v>
       </c>
       <c r="T266" s="12">
-        <v>1800</v>
+        <v>1386</v>
       </c>
       <c r="U266" s="21">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="V266" s="21">
-        <v>200</v>
-      </c>
-      <c r="W266" s="12">
-        <v>0</v>
-      </c>
-      <c r="X266" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y266" s="12">
+        <v>400</v>
+      </c>
+      <c r="W266" s="21">
+        <v>0</v>
+      </c>
+      <c r="X266" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y266" s="21">
         <v>0.75</v>
       </c>
-      <c r="Z266" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA266" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB266" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC266" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD266" s="12">
+      <c r="Z266" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA266" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB266" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC266" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD266" s="21">
         <v>300</v>
       </c>
-      <c r="AE266" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF266" s="12">
+      <c r="AE266" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF266" s="21">
         <v>30</v>
       </c>
-      <c r="AG266" s="12">
+      <c r="AG266" s="21">
         <v>7</v>
       </c>
-      <c r="AH266" s="12">
+      <c r="AH266" s="21">
         <v>1000</v>
       </c>
       <c r="AI266" s="12">
         <v>0</v>
       </c>
-      <c r="AJ266" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK266" s="12">
-        <v>1</v>
-      </c>
-      <c r="AL266" s="12">
+      <c r="AJ266" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK266" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL266" s="21">
         <v>0</v>
       </c>
       <c r="AM266" s="23" t="s">
         <v>94</v>
       </c>
       <c r="AN266" s="23"/>
-      <c r="AO266" s="12">
-        <v>0</v>
-      </c>
-      <c r="AP266" s="12">
-        <v>1</v>
-      </c>
-      <c r="AQ266" s="12">
-        <v>70000004</v>
+      <c r="AO266" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP266" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ266" s="21">
+        <v>70000001</v>
       </c>
       <c r="AR266" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS266" s="12"/>
-      <c r="AT266" s="12">
-        <v>1</v>
-      </c>
-      <c r="AU266" s="12"/>
-      <c r="AV266" s="17"/>
+        <v>369</v>
+      </c>
+      <c r="AS266" s="21"/>
+      <c r="AT266" s="21">
+        <v>1</v>
+      </c>
+      <c r="AU266" s="21"/>
+      <c r="AV266" s="35"/>
     </row>
     <row r="267" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C267" s="21">
-        <v>81000003</v>
-      </c>
-      <c r="D267" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="E267" s="21">
-        <v>1</v>
-      </c>
-      <c r="F267" s="21">
+        <v>81000002</v>
+      </c>
+      <c r="D267" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E267" s="12">
+        <v>1</v>
+      </c>
+      <c r="F267" s="12">
         <v>0</v>
       </c>
       <c r="G267" s="12">
         <v>1</v>
       </c>
-      <c r="H267" s="21">
-        <v>0</v>
-      </c>
-      <c r="I267" s="21">
+      <c r="H267" s="12">
+        <v>0</v>
+      </c>
+      <c r="I267" s="12">
         <v>0</v>
       </c>
       <c r="J267" s="12">
-        <v>72001007</v>
-      </c>
-      <c r="K267" s="21">
-        <v>0</v>
-      </c>
-      <c r="L267" s="21">
-        <v>0</v>
-      </c>
-      <c r="M267" s="21">
+        <v>72001003</v>
+      </c>
+      <c r="K267" s="12">
+        <v>0</v>
+      </c>
+      <c r="L267" s="12">
+        <v>0</v>
+      </c>
+      <c r="M267" s="12">
         <v>20</v>
       </c>
-      <c r="N267" s="21">
-        <v>3</v>
-      </c>
-      <c r="O267" s="21">
-        <v>2</v>
-      </c>
-      <c r="P267" s="21">
-        <v>2</v>
-      </c>
-      <c r="Q267" s="21">
+      <c r="N267" s="12">
+        <v>2</v>
+      </c>
+      <c r="O267" s="12">
+        <v>8</v>
+      </c>
+      <c r="P267" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q267" s="12">
         <v>2</v>
       </c>
       <c r="R267" s="21">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="S267" s="12">
-        <v>1386</v>
+        <v>1800</v>
       </c>
       <c r="T267" s="12">
-        <v>1386</v>
+        <v>1800</v>
       </c>
       <c r="U267" s="21">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="V267" s="21">
-        <v>400</v>
-      </c>
-      <c r="W267" s="21">
-        <v>0</v>
-      </c>
-      <c r="X267" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y267" s="21">
+        <v>200</v>
+      </c>
+      <c r="W267" s="12">
+        <v>0</v>
+      </c>
+      <c r="X267" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y267" s="12">
         <v>0.75</v>
       </c>
-      <c r="Z267" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA267" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB267" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC267" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD267" s="21">
+      <c r="Z267" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA267" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB267" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC267" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD267" s="12">
         <v>300</v>
       </c>
-      <c r="AE267" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF267" s="21">
+      <c r="AE267" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF267" s="12">
         <v>30</v>
       </c>
-      <c r="AG267" s="21">
+      <c r="AG267" s="12">
         <v>7</v>
       </c>
-      <c r="AH267" s="21">
+      <c r="AH267" s="12">
         <v>1000</v>
       </c>
       <c r="AI267" s="12">
         <v>0</v>
       </c>
-      <c r="AJ267" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK267" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL267" s="21">
+      <c r="AJ267" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK267" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL267" s="12">
         <v>0</v>
       </c>
       <c r="AM267" s="23" t="s">
         <v>94</v>
       </c>
       <c r="AN267" s="23"/>
-      <c r="AO267" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP267" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ267" s="21">
-        <v>70000001</v>
+      <c r="AO267" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP267" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ267" s="12">
+        <v>70000004</v>
       </c>
       <c r="AR267" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="AS267" s="21"/>
-      <c r="AT267" s="21">
-        <v>6</v>
-      </c>
-      <c r="AU267" s="45" t="s">
-        <v>372</v>
-      </c>
-      <c r="AV267" s="35"/>
-      <c r="AW267" s="38" t="s">
-        <v>373</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AS267" s="12"/>
+      <c r="AT267" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU267" s="12"/>
+      <c r="AV267" s="17"/>
     </row>
     <row r="268" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C268" s="21">
-        <v>81000004</v>
+        <v>81000003</v>
       </c>
       <c r="D268" s="21" t="s">
         <v>371</v>
@@ -40985,16 +40990,16 @@
         <v>6</v>
       </c>
       <c r="AU268" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AV268" s="35"/>
       <c r="AW268" s="38" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="269" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C269" s="21">
-        <v>81000005</v>
+        <v>81000004</v>
       </c>
       <c r="D269" s="21" t="s">
         <v>371</v>
@@ -41122,19 +41127,19 @@
         <v>6</v>
       </c>
       <c r="AU269" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AV269" s="35"/>
       <c r="AW269" s="38" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="270" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C270" s="21">
-        <v>81000011</v>
+        <v>81000005</v>
       </c>
       <c r="D270" s="21" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E270" s="21">
         <v>1</v>
@@ -41143,7 +41148,7 @@
         <v>0</v>
       </c>
       <c r="G270" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H270" s="21">
         <v>0</v>
@@ -41152,7 +41157,7 @@
         <v>0</v>
       </c>
       <c r="J270" s="12">
-        <v>72001005</v>
+        <v>72001007</v>
       </c>
       <c r="K270" s="21">
         <v>0</v>
@@ -41164,7 +41169,7 @@
         <v>20</v>
       </c>
       <c r="N270" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O270" s="21">
         <v>2</v>
@@ -41256,149 +41261,154 @@
       </c>
       <c r="AS270" s="21"/>
       <c r="AT270" s="21">
-        <v>1</v>
-      </c>
-      <c r="AU270" s="21"/>
+        <v>6</v>
+      </c>
+      <c r="AU270" s="45" t="s">
+        <v>376</v>
+      </c>
       <c r="AV270" s="35"/>
+      <c r="AW270" s="38" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="271" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C271" s="21">
-        <v>81000012</v>
+        <v>81000011</v>
       </c>
       <c r="D271" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="E271" s="12">
-        <v>1</v>
-      </c>
-      <c r="F271" s="12">
+        <v>378</v>
+      </c>
+      <c r="E271" s="21">
+        <v>1</v>
+      </c>
+      <c r="F271" s="21">
         <v>0</v>
       </c>
       <c r="G271" s="12">
         <v>2</v>
       </c>
-      <c r="H271" s="12">
-        <v>0</v>
-      </c>
-      <c r="I271" s="12">
+      <c r="H271" s="21">
+        <v>0</v>
+      </c>
+      <c r="I271" s="21">
         <v>0</v>
       </c>
       <c r="J271" s="12">
-        <v>72001006</v>
-      </c>
-      <c r="K271" s="12">
-        <v>0</v>
-      </c>
-      <c r="L271" s="12">
-        <v>0</v>
-      </c>
-      <c r="M271" s="12">
+        <v>72001005</v>
+      </c>
+      <c r="K271" s="21">
+        <v>0</v>
+      </c>
+      <c r="L271" s="21">
+        <v>0</v>
+      </c>
+      <c r="M271" s="21">
         <v>20</v>
       </c>
-      <c r="N271" s="12">
-        <v>2</v>
-      </c>
-      <c r="O271" s="12">
-        <v>8</v>
-      </c>
-      <c r="P271" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q271" s="12">
+      <c r="N271" s="21">
+        <v>2</v>
+      </c>
+      <c r="O271" s="21">
+        <v>2</v>
+      </c>
+      <c r="P271" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q271" s="21">
         <v>2</v>
       </c>
       <c r="R271" s="21">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="S271" s="12">
-        <v>1800</v>
+        <v>1386</v>
       </c>
       <c r="T271" s="12">
-        <v>1800</v>
+        <v>1386</v>
       </c>
       <c r="U271" s="21">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="V271" s="21">
-        <v>200</v>
-      </c>
-      <c r="W271" s="12">
-        <v>0</v>
-      </c>
-      <c r="X271" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y271" s="12">
+        <v>400</v>
+      </c>
+      <c r="W271" s="21">
+        <v>0</v>
+      </c>
+      <c r="X271" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y271" s="21">
         <v>0.75</v>
       </c>
-      <c r="Z271" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA271" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB271" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC271" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD271" s="12">
+      <c r="Z271" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA271" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB271" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC271" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD271" s="21">
         <v>300</v>
       </c>
-      <c r="AE271" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF271" s="12">
+      <c r="AE271" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF271" s="21">
         <v>30</v>
       </c>
-      <c r="AG271" s="12">
+      <c r="AG271" s="21">
         <v>7</v>
       </c>
-      <c r="AH271" s="12">
+      <c r="AH271" s="21">
         <v>1000</v>
       </c>
       <c r="AI271" s="12">
         <v>0</v>
       </c>
-      <c r="AJ271" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK271" s="12">
-        <v>1</v>
-      </c>
-      <c r="AL271" s="12">
+      <c r="AJ271" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK271" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL271" s="21">
         <v>0</v>
       </c>
       <c r="AM271" s="23" t="s">
         <v>94</v>
       </c>
       <c r="AN271" s="23"/>
-      <c r="AO271" s="12">
-        <v>0</v>
-      </c>
-      <c r="AP271" s="12">
-        <v>1</v>
-      </c>
-      <c r="AQ271" s="12">
-        <v>70000004</v>
+      <c r="AO271" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP271" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ271" s="21">
+        <v>70000001</v>
       </c>
       <c r="AR271" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS271" s="12"/>
-      <c r="AT271" s="12">
-        <v>1</v>
-      </c>
-      <c r="AU271" s="12"/>
-      <c r="AV271" s="17"/>
+        <v>369</v>
+      </c>
+      <c r="AS271" s="21"/>
+      <c r="AT271" s="21">
+        <v>1</v>
+      </c>
+      <c r="AU271" s="21"/>
+      <c r="AV271" s="35"/>
     </row>
     <row r="272" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C272" s="21">
-        <v>81000013</v>
+        <v>81000012</v>
       </c>
       <c r="D272" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E272" s="12">
         <v>1</v>
@@ -41416,7 +41426,7 @@
         <v>0</v>
       </c>
       <c r="J272" s="12">
-        <v>72001008</v>
+        <v>72001006</v>
       </c>
       <c r="K272" s="12">
         <v>0</v>
@@ -41428,10 +41438,10 @@
         <v>20</v>
       </c>
       <c r="N272" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O272" s="12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P272" s="12">
         <v>2</v>
@@ -41440,19 +41450,19 @@
         <v>2</v>
       </c>
       <c r="R272" s="21">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="S272" s="12">
-        <v>1386</v>
+        <v>1800</v>
       </c>
       <c r="T272" s="12">
-        <v>1386</v>
+        <v>1800</v>
       </c>
       <c r="U272" s="21">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="V272" s="21">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="W272" s="12">
         <v>0</v>
@@ -41513,23 +41523,21 @@
         <v>1</v>
       </c>
       <c r="AQ272" s="12">
-        <v>70000001</v>
+        <v>70000004</v>
       </c>
       <c r="AR272" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="AS272" s="21"/>
-      <c r="AT272" s="21">
-        <v>6</v>
-      </c>
-      <c r="AU272" s="45" t="s">
-        <v>381</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AS272" s="12"/>
+      <c r="AT272" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU272" s="12"/>
       <c r="AV272" s="17"/>
     </row>
     <row r="273" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C273" s="21">
-        <v>81000014</v>
+        <v>81000013</v>
       </c>
       <c r="D273" s="21" t="s">
         <v>380</v>
@@ -41657,13 +41665,13 @@
         <v>6</v>
       </c>
       <c r="AU273" s="45" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AV273" s="17"/>
     </row>
     <row r="274" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C274" s="21">
-        <v>81000015</v>
+        <v>81000014</v>
       </c>
       <c r="D274" s="21" t="s">
         <v>380</v>
@@ -41786,419 +41794,416 @@
       <c r="AR274" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="AS274" s="37"/>
+      <c r="AS274" s="21"/>
       <c r="AT274" s="21">
         <v>6</v>
       </c>
-      <c r="AU274" s="46" t="s">
-        <v>383</v>
+      <c r="AU274" s="45" t="s">
+        <v>382</v>
       </c>
       <c r="AV274" s="17"/>
     </row>
     <row r="275" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C275" s="21">
-        <v>82000001</v>
+        <v>81000015</v>
       </c>
       <c r="D275" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="E275" s="21">
-        <v>1</v>
-      </c>
-      <c r="F275" s="21">
+        <v>380</v>
+      </c>
+      <c r="E275" s="12">
+        <v>1</v>
+      </c>
+      <c r="F275" s="12">
         <v>0</v>
       </c>
       <c r="G275" s="12">
-        <v>1</v>
-      </c>
-      <c r="H275" s="21">
-        <v>0</v>
-      </c>
-      <c r="I275" s="21">
+        <v>2</v>
+      </c>
+      <c r="H275" s="12">
+        <v>0</v>
+      </c>
+      <c r="I275" s="12">
         <v>0</v>
       </c>
       <c r="J275" s="12">
-        <v>72001001</v>
-      </c>
-      <c r="K275" s="21">
-        <v>0</v>
-      </c>
-      <c r="L275" s="21">
-        <v>0</v>
-      </c>
-      <c r="M275" s="21">
+        <v>72001008</v>
+      </c>
+      <c r="K275" s="12">
+        <v>0</v>
+      </c>
+      <c r="L275" s="12">
+        <v>0</v>
+      </c>
+      <c r="M275" s="12">
         <v>20</v>
       </c>
-      <c r="N275" s="21">
-        <v>2</v>
-      </c>
-      <c r="O275" s="21">
-        <v>2</v>
-      </c>
-      <c r="P275" s="21">
-        <v>2</v>
-      </c>
-      <c r="Q275" s="21">
+      <c r="N275" s="12">
+        <v>3</v>
+      </c>
+      <c r="O275" s="12">
+        <v>2</v>
+      </c>
+      <c r="P275" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q275" s="12">
         <v>2</v>
       </c>
       <c r="R275" s="21">
-        <v>32000</v>
+        <v>12000</v>
       </c>
       <c r="S275" s="12">
-        <v>3500</v>
+        <v>1386</v>
       </c>
       <c r="T275" s="12">
-        <v>3500</v>
+        <v>1386</v>
       </c>
       <c r="U275" s="21">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="V275" s="21">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="W275" s="12">
         <v>0</v>
       </c>
-      <c r="X275" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y275" s="21">
+      <c r="X275" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y275" s="12">
         <v>0.75</v>
       </c>
-      <c r="Z275" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA275" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB275" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC275" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD275" s="21">
+      <c r="Z275" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA275" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB275" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC275" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD275" s="12">
         <v>300</v>
       </c>
-      <c r="AE275" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF275" s="21">
+      <c r="AE275" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF275" s="12">
         <v>30</v>
       </c>
-      <c r="AG275" s="21">
+      <c r="AG275" s="12">
         <v>7</v>
       </c>
-      <c r="AH275" s="21">
+      <c r="AH275" s="12">
         <v>1000</v>
       </c>
       <c r="AI275" s="12">
         <v>0</v>
       </c>
-      <c r="AJ275" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK275" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL275" s="21">
+      <c r="AJ275" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK275" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL275" s="12">
         <v>0</v>
       </c>
       <c r="AM275" s="23" t="s">
         <v>94</v>
       </c>
       <c r="AN275" s="23"/>
-      <c r="AO275" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP275" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ275" s="21">
+      <c r="AO275" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP275" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ275" s="12">
         <v>70000001</v>
       </c>
       <c r="AR275" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="AS275" s="21"/>
+      <c r="AS275" s="37"/>
       <c r="AT275" s="21">
-        <v>1</v>
-      </c>
-      <c r="AU275" s="21"/>
-      <c r="AV275" s="35"/>
+        <v>6</v>
+      </c>
+      <c r="AU275" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="AV275" s="17"/>
     </row>
     <row r="276" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C276" s="21">
-        <v>82000002</v>
-      </c>
-      <c r="D276" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E276" s="12">
-        <v>1</v>
-      </c>
-      <c r="F276" s="12">
+        <v>82000001</v>
+      </c>
+      <c r="D276" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="E276" s="21">
+        <v>1</v>
+      </c>
+      <c r="F276" s="21">
         <v>0</v>
       </c>
       <c r="G276" s="12">
         <v>1</v>
       </c>
-      <c r="H276" s="12">
-        <v>0</v>
-      </c>
-      <c r="I276" s="12">
+      <c r="H276" s="21">
+        <v>0</v>
+      </c>
+      <c r="I276" s="21">
         <v>0</v>
       </c>
       <c r="J276" s="12">
-        <v>72001003</v>
-      </c>
-      <c r="K276" s="12">
-        <v>0</v>
-      </c>
-      <c r="L276" s="12">
-        <v>0</v>
-      </c>
-      <c r="M276" s="12">
+        <v>72001001</v>
+      </c>
+      <c r="K276" s="21">
+        <v>0</v>
+      </c>
+      <c r="L276" s="21">
+        <v>0</v>
+      </c>
+      <c r="M276" s="21">
         <v>20</v>
       </c>
-      <c r="N276" s="12">
-        <v>2</v>
-      </c>
-      <c r="O276" s="12">
-        <v>8</v>
-      </c>
-      <c r="P276" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q276" s="12">
+      <c r="N276" s="21">
+        <v>2</v>
+      </c>
+      <c r="O276" s="21">
+        <v>2</v>
+      </c>
+      <c r="P276" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q276" s="21">
         <v>2</v>
       </c>
       <c r="R276" s="21">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="S276" s="12">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="T276" s="12">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="U276" s="21">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="V276" s="21">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="W276" s="12">
         <v>0</v>
       </c>
-      <c r="X276" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y276" s="12">
+      <c r="X276" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y276" s="21">
         <v>0.75</v>
       </c>
-      <c r="Z276" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA276" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB276" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC276" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD276" s="12">
+      <c r="Z276" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA276" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB276" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC276" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD276" s="21">
         <v>300</v>
       </c>
-      <c r="AE276" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF276" s="12">
+      <c r="AE276" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF276" s="21">
         <v>30</v>
       </c>
-      <c r="AG276" s="12">
+      <c r="AG276" s="21">
         <v>7</v>
       </c>
-      <c r="AH276" s="12">
+      <c r="AH276" s="21">
         <v>1000</v>
       </c>
       <c r="AI276" s="12">
         <v>0</v>
       </c>
-      <c r="AJ276" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK276" s="12">
-        <v>1</v>
-      </c>
-      <c r="AL276" s="12">
+      <c r="AJ276" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK276" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL276" s="21">
         <v>0</v>
       </c>
       <c r="AM276" s="23" t="s">
         <v>94</v>
       </c>
       <c r="AN276" s="23"/>
-      <c r="AO276" s="12">
-        <v>0</v>
-      </c>
-      <c r="AP276" s="12">
-        <v>1</v>
-      </c>
-      <c r="AQ276" s="12">
-        <v>70000004</v>
+      <c r="AO276" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP276" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ276" s="21">
+        <v>70000001</v>
       </c>
       <c r="AR276" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS276" s="12"/>
-      <c r="AT276" s="12">
-        <v>1</v>
-      </c>
-      <c r="AU276" s="12"/>
-      <c r="AV276" s="17"/>
+        <v>369</v>
+      </c>
+      <c r="AS276" s="21"/>
+      <c r="AT276" s="21">
+        <v>1</v>
+      </c>
+      <c r="AU276" s="21"/>
+      <c r="AV276" s="35"/>
     </row>
     <row r="277" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C277" s="21">
-        <v>82000003</v>
-      </c>
-      <c r="D277" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="E277" s="21">
-        <v>1</v>
-      </c>
-      <c r="F277" s="21">
+        <v>82000002</v>
+      </c>
+      <c r="D277" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E277" s="12">
+        <v>1</v>
+      </c>
+      <c r="F277" s="12">
         <v>0</v>
       </c>
       <c r="G277" s="12">
         <v>1</v>
       </c>
-      <c r="H277" s="21">
-        <v>0</v>
-      </c>
-      <c r="I277" s="21">
+      <c r="H277" s="12">
+        <v>0</v>
+      </c>
+      <c r="I277" s="12">
         <v>0</v>
       </c>
       <c r="J277" s="12">
-        <v>72001007</v>
-      </c>
-      <c r="K277" s="21">
-        <v>0</v>
-      </c>
-      <c r="L277" s="21">
-        <v>0</v>
-      </c>
-      <c r="M277" s="21">
+        <v>72001003</v>
+      </c>
+      <c r="K277" s="12">
+        <v>0</v>
+      </c>
+      <c r="L277" s="12">
+        <v>0</v>
+      </c>
+      <c r="M277" s="12">
         <v>20</v>
       </c>
-      <c r="N277" s="21">
-        <v>3</v>
-      </c>
-      <c r="O277" s="21">
-        <v>2</v>
-      </c>
-      <c r="P277" s="21">
-        <v>2</v>
-      </c>
-      <c r="Q277" s="21">
+      <c r="N277" s="12">
+        <v>2</v>
+      </c>
+      <c r="O277" s="12">
+        <v>8</v>
+      </c>
+      <c r="P277" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q277" s="12">
         <v>2</v>
       </c>
       <c r="R277" s="21">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="S277" s="12">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="T277" s="12">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="U277" s="21">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="V277" s="21">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="W277" s="12">
         <v>0</v>
       </c>
-      <c r="X277" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y277" s="21">
+      <c r="X277" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y277" s="12">
         <v>0.75</v>
       </c>
-      <c r="Z277" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA277" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB277" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC277" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD277" s="21">
+      <c r="Z277" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA277" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB277" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC277" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD277" s="12">
         <v>300</v>
       </c>
-      <c r="AE277" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF277" s="21">
+      <c r="AE277" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF277" s="12">
         <v>30</v>
       </c>
-      <c r="AG277" s="21">
+      <c r="AG277" s="12">
         <v>7</v>
       </c>
-      <c r="AH277" s="21">
+      <c r="AH277" s="12">
         <v>1000</v>
       </c>
       <c r="AI277" s="12">
         <v>0</v>
       </c>
-      <c r="AJ277" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK277" s="21">
-        <v>1</v>
-      </c>
-      <c r="AL277" s="21">
+      <c r="AJ277" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK277" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL277" s="12">
         <v>0</v>
       </c>
       <c r="AM277" s="23" t="s">
         <v>94</v>
       </c>
       <c r="AN277" s="23"/>
-      <c r="AO277" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP277" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ277" s="21">
-        <v>70000001</v>
+      <c r="AO277" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP277" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ277" s="12">
+        <v>70000004</v>
       </c>
       <c r="AR277" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="AS277" s="21"/>
-      <c r="AT277" s="21">
-        <v>6</v>
-      </c>
-      <c r="AU277" s="45" t="s">
-        <v>372</v>
-      </c>
-      <c r="AV277" s="35"/>
-      <c r="AW277" s="38" t="s">
-        <v>373</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AS277" s="12"/>
+      <c r="AT277" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU277" s="12"/>
+      <c r="AV277" s="17"/>
     </row>
     <row r="278" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C278" s="21">
-        <v>82000004</v>
+        <v>82000003</v>
       </c>
       <c r="D278" s="21" t="s">
         <v>371</v>
@@ -42326,16 +42331,16 @@
         <v>6</v>
       </c>
       <c r="AU278" s="45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AV278" s="35"/>
       <c r="AW278" s="38" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="279" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C279" s="21">
-        <v>82000005</v>
+        <v>82000004</v>
       </c>
       <c r="D279" s="21" t="s">
         <v>371</v>
@@ -42463,19 +42468,19 @@
         <v>6</v>
       </c>
       <c r="AU279" s="45" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AV279" s="35"/>
       <c r="AW279" s="38" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="280" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C280" s="21">
-        <v>82000011</v>
+        <v>82000005</v>
       </c>
       <c r="D280" s="21" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E280" s="21">
         <v>1</v>
@@ -42484,7 +42489,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H280" s="21">
         <v>0</v>
@@ -42493,7 +42498,7 @@
         <v>0</v>
       </c>
       <c r="J280" s="12">
-        <v>72001005</v>
+        <v>72001007</v>
       </c>
       <c r="K280" s="21">
         <v>0</v>
@@ -42505,7 +42510,7 @@
         <v>20</v>
       </c>
       <c r="N280" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O280" s="21">
         <v>2</v>
@@ -42597,149 +42602,154 @@
       </c>
       <c r="AS280" s="21"/>
       <c r="AT280" s="21">
-        <v>1</v>
-      </c>
-      <c r="AU280" s="21"/>
+        <v>6</v>
+      </c>
+      <c r="AU280" s="45" t="s">
+        <v>376</v>
+      </c>
       <c r="AV280" s="35"/>
+      <c r="AW280" s="38" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="281" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C281" s="21">
-        <v>82000012</v>
+        <v>82000011</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="E281" s="12">
-        <v>1</v>
-      </c>
-      <c r="F281" s="12">
+        <v>378</v>
+      </c>
+      <c r="E281" s="21">
+        <v>1</v>
+      </c>
+      <c r="F281" s="21">
         <v>0</v>
       </c>
       <c r="G281" s="12">
         <v>2</v>
       </c>
-      <c r="H281" s="12">
-        <v>0</v>
-      </c>
-      <c r="I281" s="12">
+      <c r="H281" s="21">
+        <v>0</v>
+      </c>
+      <c r="I281" s="21">
         <v>0</v>
       </c>
       <c r="J281" s="12">
-        <v>72001006</v>
-      </c>
-      <c r="K281" s="12">
-        <v>0</v>
-      </c>
-      <c r="L281" s="12">
-        <v>0</v>
-      </c>
-      <c r="M281" s="12">
+        <v>72001005</v>
+      </c>
+      <c r="K281" s="21">
+        <v>0</v>
+      </c>
+      <c r="L281" s="21">
+        <v>0</v>
+      </c>
+      <c r="M281" s="21">
         <v>20</v>
       </c>
-      <c r="N281" s="12">
-        <v>2</v>
-      </c>
-      <c r="O281" s="12">
-        <v>8</v>
-      </c>
-      <c r="P281" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q281" s="12">
+      <c r="N281" s="21">
+        <v>2</v>
+      </c>
+      <c r="O281" s="21">
+        <v>2</v>
+      </c>
+      <c r="P281" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q281" s="21">
         <v>2</v>
       </c>
       <c r="R281" s="21">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="S281" s="12">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="T281" s="12">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="U281" s="21">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="V281" s="21">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="W281" s="12">
         <v>0</v>
       </c>
-      <c r="X281" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y281" s="12">
+      <c r="X281" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y281" s="21">
         <v>0.75</v>
       </c>
-      <c r="Z281" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA281" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB281" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC281" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD281" s="12">
+      <c r="Z281" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA281" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB281" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC281" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD281" s="21">
         <v>300</v>
       </c>
-      <c r="AE281" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF281" s="12">
+      <c r="AE281" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF281" s="21">
         <v>30</v>
       </c>
-      <c r="AG281" s="12">
+      <c r="AG281" s="21">
         <v>7</v>
       </c>
-      <c r="AH281" s="12">
+      <c r="AH281" s="21">
         <v>1000</v>
       </c>
       <c r="AI281" s="12">
         <v>0</v>
       </c>
-      <c r="AJ281" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK281" s="12">
-        <v>1</v>
-      </c>
-      <c r="AL281" s="12">
+      <c r="AJ281" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK281" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL281" s="21">
         <v>0</v>
       </c>
       <c r="AM281" s="23" t="s">
         <v>94</v>
       </c>
       <c r="AN281" s="23"/>
-      <c r="AO281" s="12">
-        <v>0</v>
-      </c>
-      <c r="AP281" s="12">
-        <v>1</v>
-      </c>
-      <c r="AQ281" s="12">
-        <v>70000004</v>
+      <c r="AO281" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP281" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ281" s="21">
+        <v>70000001</v>
       </c>
       <c r="AR281" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS281" s="12"/>
-      <c r="AT281" s="12">
-        <v>1</v>
-      </c>
-      <c r="AU281" s="12"/>
-      <c r="AV281" s="17"/>
+        <v>369</v>
+      </c>
+      <c r="AS281" s="21"/>
+      <c r="AT281" s="21">
+        <v>1</v>
+      </c>
+      <c r="AU281" s="21"/>
+      <c r="AV281" s="35"/>
     </row>
     <row r="282" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C282" s="21">
-        <v>82000013</v>
+        <v>82000012</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E282" s="12">
         <v>1</v>
@@ -42757,7 +42767,7 @@
         <v>0</v>
       </c>
       <c r="J282" s="12">
-        <v>72001008</v>
+        <v>72001006</v>
       </c>
       <c r="K282" s="12">
         <v>0</v>
@@ -42769,10 +42779,10 @@
         <v>20</v>
       </c>
       <c r="N282" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O282" s="12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P282" s="12">
         <v>2</v>
@@ -42781,19 +42791,19 @@
         <v>2</v>
       </c>
       <c r="R282" s="21">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="S282" s="12">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="T282" s="12">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="U282" s="21">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="V282" s="21">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="W282" s="12">
         <v>0</v>
@@ -42854,23 +42864,21 @@
         <v>1</v>
       </c>
       <c r="AQ282" s="12">
-        <v>70000001</v>
+        <v>70000004</v>
       </c>
       <c r="AR282" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="AS282" s="21"/>
-      <c r="AT282" s="21">
-        <v>6</v>
-      </c>
-      <c r="AU282" s="45" t="s">
-        <v>381</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AS282" s="12"/>
+      <c r="AT282" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU282" s="12"/>
       <c r="AV282" s="17"/>
     </row>
     <row r="283" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C283" s="21">
-        <v>82000014</v>
+        <v>82000013</v>
       </c>
       <c r="D283" s="21" t="s">
         <v>380</v>
@@ -42998,13 +43006,13 @@
         <v>6</v>
       </c>
       <c r="AU283" s="45" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AV283" s="17"/>
     </row>
     <row r="284" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C284" s="21">
-        <v>82000015</v>
+        <v>82000014</v>
       </c>
       <c r="D284" s="21" t="s">
         <v>380</v>
@@ -43127,21 +43135,21 @@
       <c r="AR284" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="AS284" s="37"/>
+      <c r="AS284" s="21"/>
       <c r="AT284" s="21">
         <v>6</v>
       </c>
-      <c r="AU284" s="46" t="s">
-        <v>383</v>
+      <c r="AU284" s="45" t="s">
+        <v>382</v>
       </c>
       <c r="AV284" s="17"/>
     </row>
     <row r="285" spans="3:49" ht="20.100000000000001" customHeight="1">
-      <c r="C285" s="12">
-        <v>90000001</v>
-      </c>
-      <c r="D285" s="12" t="s">
-        <v>384</v>
+      <c r="C285" s="21">
+        <v>82000015</v>
+      </c>
+      <c r="D285" s="21" t="s">
+        <v>380</v>
       </c>
       <c r="E285" s="12">
         <v>1</v>
@@ -43150,7 +43158,7 @@
         <v>0</v>
       </c>
       <c r="G285" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H285" s="12">
         <v>0</v>
@@ -43159,7 +43167,7 @@
         <v>0</v>
       </c>
       <c r="J285" s="12">
-        <v>90000001</v>
+        <v>72001008</v>
       </c>
       <c r="K285" s="12">
         <v>0</v>
@@ -43168,13 +43176,13 @@
         <v>0</v>
       </c>
       <c r="M285" s="12">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N285" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O285" s="12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P285" s="12">
         <v>2</v>
@@ -43182,20 +43190,20 @@
       <c r="Q285" s="12">
         <v>2</v>
       </c>
-      <c r="R285" s="12">
-        <v>55650</v>
+      <c r="R285" s="21">
+        <v>32000</v>
       </c>
       <c r="S285" s="12">
-        <v>5300</v>
+        <v>3500</v>
       </c>
       <c r="T285" s="12">
-        <v>5300</v>
-      </c>
-      <c r="U285" s="12">
-        <v>1590</v>
-      </c>
-      <c r="V285" s="12">
-        <v>1590</v>
+        <v>3500</v>
+      </c>
+      <c r="U285" s="21">
+        <v>800</v>
+      </c>
+      <c r="V285" s="21">
+        <v>800</v>
       </c>
       <c r="W285" s="12">
         <v>0</v>
@@ -43219,13 +43227,13 @@
         <v>0</v>
       </c>
       <c r="AD285" s="12">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AE285" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF285" s="12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AG285" s="12">
         <v>7</v>
@@ -43256,26 +43264,26 @@
         <v>1</v>
       </c>
       <c r="AQ285" s="12">
-        <v>60000331</v>
+        <v>70000001</v>
       </c>
       <c r="AR285" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="AS285" s="12"/>
-      <c r="AT285" s="12">
-        <v>1</v>
-      </c>
-      <c r="AU285" s="12"/>
-      <c r="AV285" s="12">
-        <v>30</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="AS285" s="37"/>
+      <c r="AT285" s="21">
+        <v>6</v>
+      </c>
+      <c r="AU285" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="AV285" s="17"/>
     </row>
     <row r="286" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C286" s="12">
-        <v>90000002</v>
+        <v>90000001</v>
       </c>
       <c r="D286" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E286" s="12">
         <v>1</v>
@@ -43293,7 +43301,7 @@
         <v>0</v>
       </c>
       <c r="J286" s="12">
-        <v>70001001</v>
+        <v>90000001</v>
       </c>
       <c r="K286" s="12">
         <v>0</v>
@@ -43389,11 +43397,11 @@
       <c r="AP286" s="12">
         <v>1</v>
       </c>
-      <c r="AQ286" s="21">
-        <v>70000001</v>
+      <c r="AQ286" s="12">
+        <v>60000331</v>
       </c>
       <c r="AR286" s="23" t="s">
-        <v>94</v>
+        <v>385</v>
       </c>
       <c r="AS286" s="12"/>
       <c r="AT286" s="12">
@@ -43401,45 +43409,45 @@
       </c>
       <c r="AU286" s="12"/>
       <c r="AV286" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="287" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C287" s="12">
-        <v>90000003</v>
+        <v>90000002</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E287" s="12">
         <v>1</v>
       </c>
       <c r="F287" s="12">
+        <v>0</v>
+      </c>
+      <c r="G287" s="12">
+        <v>0</v>
+      </c>
+      <c r="H287" s="12">
+        <v>0</v>
+      </c>
+      <c r="I287" s="12">
+        <v>0</v>
+      </c>
+      <c r="J287" s="12">
+        <v>70001001</v>
+      </c>
+      <c r="K287" s="12">
+        <v>0</v>
+      </c>
+      <c r="L287" s="12">
+        <v>0</v>
+      </c>
+      <c r="M287" s="12">
         <v>51</v>
       </c>
-      <c r="G287" s="12">
-        <v>2</v>
-      </c>
-      <c r="H287" s="12">
-        <v>0</v>
-      </c>
-      <c r="I287" s="12">
-        <v>0</v>
-      </c>
-      <c r="J287" s="12">
-        <v>90000003</v>
-      </c>
-      <c r="K287" s="12">
-        <v>0</v>
-      </c>
-      <c r="L287" s="12">
-        <v>0</v>
-      </c>
-      <c r="M287" s="12">
-        <v>1</v>
-      </c>
       <c r="N287" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O287" s="12">
         <v>6</v>
@@ -43451,19 +43459,19 @@
         <v>2</v>
       </c>
       <c r="R287" s="12">
-        <v>1</v>
+        <v>55650</v>
       </c>
       <c r="S287" s="12">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="T287" s="12">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="U287" s="12">
-        <v>0</v>
+        <v>1590</v>
       </c>
       <c r="V287" s="12">
-        <v>0</v>
+        <v>1590</v>
       </c>
       <c r="W287" s="12">
         <v>0</v>
@@ -43472,7 +43480,7 @@
         <v>0</v>
       </c>
       <c r="Y287" s="12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Z287" s="12">
         <v>0</v>
@@ -43524,26 +43532,26 @@
         <v>1</v>
       </c>
       <c r="AQ287" s="21">
-        <v>67000278</v>
+        <v>70000001</v>
       </c>
       <c r="AR287" s="23" t="s">
         <v>94</v>
       </c>
       <c r="AS287" s="12"/>
       <c r="AT287" s="12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AU287" s="12"/>
       <c r="AV287" s="12">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="288" spans="3:49" ht="20.100000000000001" customHeight="1">
       <c r="C288" s="12">
-        <v>90000004</v>
+        <v>90000003</v>
       </c>
       <c r="D288" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E288" s="12">
         <v>1</v>
@@ -43552,7 +43560,7 @@
         <v>51</v>
       </c>
       <c r="G288" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H288" s="12">
         <v>0</v>
@@ -43672,26 +43680,160 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" ht="20.100000000000001" customHeight="1"/>
-    <row r="290" ht="20.100000000000001" customHeight="1"/>
-    <row r="291" ht="20.100000000000001" customHeight="1"/>
-    <row r="292" ht="20.100000000000001" customHeight="1"/>
-    <row r="293" ht="20.100000000000001" customHeight="1"/>
-    <row r="294" ht="20.100000000000001" customHeight="1"/>
-    <row r="295" ht="20.100000000000001" customHeight="1"/>
-    <row r="296" ht="20.100000000000001" customHeight="1"/>
-    <row r="297" ht="20.100000000000001" customHeight="1"/>
-    <row r="298" ht="20.100000000000001" customHeight="1"/>
-    <row r="299" ht="20.100000000000001" customHeight="1"/>
-    <row r="300" ht="20.100000000000001" customHeight="1"/>
-    <row r="301" ht="20.100000000000001" customHeight="1"/>
-    <row r="302" ht="20.100000000000001" customHeight="1"/>
-    <row r="303" ht="20.100000000000001" customHeight="1"/>
-    <row r="304" ht="20.100000000000001" customHeight="1"/>
+    <row r="289" spans="3:48" ht="20.100000000000001" customHeight="1">
+      <c r="C289" s="12">
+        <v>90000004</v>
+      </c>
+      <c r="D289" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="E289" s="12">
+        <v>1</v>
+      </c>
+      <c r="F289" s="12">
+        <v>51</v>
+      </c>
+      <c r="G289" s="12">
+        <v>1</v>
+      </c>
+      <c r="H289" s="12">
+        <v>0</v>
+      </c>
+      <c r="I289" s="12">
+        <v>0</v>
+      </c>
+      <c r="J289" s="12">
+        <v>90000003</v>
+      </c>
+      <c r="K289" s="12">
+        <v>0</v>
+      </c>
+      <c r="L289" s="12">
+        <v>0</v>
+      </c>
+      <c r="M289" s="12">
+        <v>1</v>
+      </c>
+      <c r="N289" s="12">
+        <v>0</v>
+      </c>
+      <c r="O289" s="12">
+        <v>6</v>
+      </c>
+      <c r="P289" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q289" s="12">
+        <v>2</v>
+      </c>
+      <c r="R289" s="12">
+        <v>1</v>
+      </c>
+      <c r="S289" s="12">
+        <v>0</v>
+      </c>
+      <c r="T289" s="12">
+        <v>0</v>
+      </c>
+      <c r="U289" s="12">
+        <v>0</v>
+      </c>
+      <c r="V289" s="12">
+        <v>0</v>
+      </c>
+      <c r="W289" s="12">
+        <v>0</v>
+      </c>
+      <c r="X289" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y289" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z289" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA289" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB289" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC289" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD289" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE289" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF289" s="12">
+        <v>10</v>
+      </c>
+      <c r="AG289" s="12">
+        <v>7</v>
+      </c>
+      <c r="AH289" s="12">
+        <v>1000</v>
+      </c>
+      <c r="AI289" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ289" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK289" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL289" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM289" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN289" s="23"/>
+      <c r="AO289" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP289" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ289" s="21">
+        <v>67000278</v>
+      </c>
+      <c r="AR289" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS289" s="12"/>
+      <c r="AT289" s="12">
+        <v>7</v>
+      </c>
+      <c r="AU289" s="12"/>
+      <c r="AV289" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="291" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="292" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="293" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="294" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="295" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="296" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="297" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="298" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="299" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="300" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="301" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="302" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="303" spans="3:48" ht="20.100000000000001" customHeight="1"/>
+    <row r="304" spans="3:48" ht="20.100000000000001" customHeight="1"/>
     <row r="305" ht="20.100000000000001" customHeight="1"/>
     <row r="306" ht="20.100000000000001" customHeight="1"/>
     <row r="307" ht="20.100000000000001" customHeight="1"/>
     <row r="308" ht="20.100000000000001" customHeight="1"/>
+    <row r="309" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F13736D-2E85-4704-8921-9CA3D8DCFA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B5A36C-2EAD-4489-B24C-A9BC2D29AE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -830,26 +830,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">0:通用掉落
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">1：私有掉落
+0:通用掉落
+1：私有掉落
+2: 保护掉落  公共掉落  30秒内只能击杀的那个人拾取
 </t>
         </r>
       </text>
@@ -5681,10 +5664,10 @@
   <dimension ref="A1:BG309"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AB15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AD6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD24" sqref="AD24"/>
+      <selection pane="bottomRight" activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -6256,7 +6239,7 @@
         <v>1</v>
       </c>
       <c r="AL6" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM6" s="23" t="s">
         <v>93</v>
@@ -6388,7 +6371,7 @@
         <v>1</v>
       </c>
       <c r="AL7" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM7" s="23" t="s">
         <v>93</v>
@@ -6520,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="AL8" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM8" s="23" t="s">
         <v>93</v>
@@ -6652,7 +6635,7 @@
         <v>2</v>
       </c>
       <c r="AL9" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM9" s="23" t="s">
         <v>98</v>
@@ -6784,7 +6767,7 @@
         <v>1</v>
       </c>
       <c r="AL10" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM10" s="23" t="s">
         <v>101</v>
@@ -6916,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="AL11" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM11" s="23" t="s">
         <v>101</v>
@@ -7047,8 +7030,8 @@
       <c r="AK12" s="13">
         <v>1</v>
       </c>
-      <c r="AL12" s="13">
-        <v>0</v>
+      <c r="AL12" s="12">
+        <v>2</v>
       </c>
       <c r="AM12" s="24" t="s">
         <v>403</v>
@@ -7180,7 +7163,7 @@
         <v>1</v>
       </c>
       <c r="AL13" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM13" s="23" t="s">
         <v>105</v>
@@ -7311,8 +7294,8 @@
       <c r="AK14" s="14">
         <v>3</v>
       </c>
-      <c r="AL14" s="14">
-        <v>0</v>
+      <c r="AL14" s="12">
+        <v>2</v>
       </c>
       <c r="AM14" s="25" t="s">
         <v>107</v>
@@ -7444,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="AL15" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM15" s="23" t="s">
         <v>110</v>
@@ -7575,8 +7558,8 @@
       <c r="AK16" s="13">
         <v>1</v>
       </c>
-      <c r="AL16" s="13">
-        <v>0</v>
+      <c r="AL16" s="12">
+        <v>2</v>
       </c>
       <c r="AM16" s="24" t="s">
         <v>93</v>
@@ -7707,8 +7690,8 @@
       <c r="AK17" s="13">
         <v>1</v>
       </c>
-      <c r="AL17" s="13">
-        <v>0</v>
+      <c r="AL17" s="12">
+        <v>2</v>
       </c>
       <c r="AM17" s="24" t="s">
         <v>113</v>
@@ -7840,7 +7823,7 @@
         <v>3</v>
       </c>
       <c r="AL18" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM18" s="23" t="s">
         <v>115</v>
@@ -7971,8 +7954,8 @@
       <c r="AK19" s="14">
         <v>1</v>
       </c>
-      <c r="AL19" s="14">
-        <v>0</v>
+      <c r="AL19" s="12">
+        <v>2</v>
       </c>
       <c r="AM19" s="25" t="s">
         <v>118</v>
@@ -8103,8 +8086,8 @@
       <c r="AK20" s="14">
         <v>1</v>
       </c>
-      <c r="AL20" s="14">
-        <v>0</v>
+      <c r="AL20" s="12">
+        <v>2</v>
       </c>
       <c r="AM20" s="25" t="s">
         <v>118</v>
@@ -8235,8 +8218,8 @@
       <c r="AK21" s="13">
         <v>1</v>
       </c>
-      <c r="AL21" s="13">
-        <v>0</v>
+      <c r="AL21" s="12">
+        <v>2</v>
       </c>
       <c r="AM21" s="24" t="s">
         <v>118</v>
@@ -8367,8 +8350,8 @@
       <c r="AK22" s="13">
         <v>1</v>
       </c>
-      <c r="AL22" s="13">
-        <v>0</v>
+      <c r="AL22" s="12">
+        <v>2</v>
       </c>
       <c r="AM22" s="24" t="s">
         <v>118</v>
@@ -8499,8 +8482,8 @@
       <c r="AK23" s="14">
         <v>1</v>
       </c>
-      <c r="AL23" s="14">
-        <v>0</v>
+      <c r="AL23" s="12">
+        <v>2</v>
       </c>
       <c r="AM23" s="25" t="s">
         <v>118</v>
@@ -8632,7 +8615,7 @@
         <v>3</v>
       </c>
       <c r="AL24" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM24" s="23" t="s">
         <v>124</v>
@@ -8763,8 +8746,8 @@
       <c r="AK25" s="14">
         <v>1</v>
       </c>
-      <c r="AL25" s="14">
-        <v>0</v>
+      <c r="AL25" s="12">
+        <v>2</v>
       </c>
       <c r="AM25" s="25" t="s">
         <v>127</v>
@@ -8895,8 +8878,8 @@
       <c r="AK26" s="14">
         <v>1</v>
       </c>
-      <c r="AL26" s="14">
-        <v>0</v>
+      <c r="AL26" s="12">
+        <v>2</v>
       </c>
       <c r="AM26" s="25" t="s">
         <v>127</v>
@@ -9027,8 +9010,8 @@
       <c r="AK27" s="14">
         <v>3</v>
       </c>
-      <c r="AL27" s="14">
-        <v>0</v>
+      <c r="AL27" s="12">
+        <v>2</v>
       </c>
       <c r="AM27" s="25" t="s">
         <v>395</v>
@@ -9160,7 +9143,7 @@
         <v>1</v>
       </c>
       <c r="AL28" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM28" s="23" t="s">
         <v>132</v>
@@ -9292,7 +9275,7 @@
         <v>1</v>
       </c>
       <c r="AL29" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM29" s="23" t="s">
         <v>134</v>
@@ -9424,7 +9407,7 @@
         <v>3</v>
       </c>
       <c r="AL30" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM30" s="23" t="s">
         <v>136</v>
@@ -9555,8 +9538,8 @@
       <c r="AK31" s="13">
         <v>1</v>
       </c>
-      <c r="AL31" s="13">
-        <v>0</v>
+      <c r="AL31" s="12">
+        <v>2</v>
       </c>
       <c r="AM31" s="24" t="s">
         <v>139</v>
@@ -9688,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="AL32" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM32" s="23" t="s">
         <v>141</v>
@@ -9819,8 +9802,8 @@
       <c r="AK33" s="13">
         <v>3</v>
       </c>
-      <c r="AL33" s="13">
-        <v>0</v>
+      <c r="AL33" s="12">
+        <v>2</v>
       </c>
       <c r="AM33" s="24" t="s">
         <v>94</v>
@@ -9951,8 +9934,8 @@
       <c r="AK34" s="13">
         <v>3</v>
       </c>
-      <c r="AL34" s="13">
-        <v>0</v>
+      <c r="AL34" s="12">
+        <v>2</v>
       </c>
       <c r="AM34" s="24" t="s">
         <v>145</v>
@@ -10084,7 +10067,7 @@
         <v>1</v>
       </c>
       <c r="AL35" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM35" s="23" t="s">
         <v>148</v>
@@ -10216,7 +10199,7 @@
         <v>1</v>
       </c>
       <c r="AL36" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM36" s="23" t="s">
         <v>404</v>
@@ -10347,8 +10330,8 @@
       <c r="AK37" s="13">
         <v>1</v>
       </c>
-      <c r="AL37" s="13">
-        <v>0</v>
+      <c r="AL37" s="12">
+        <v>2</v>
       </c>
       <c r="AM37" s="24" t="s">
         <v>151</v>
@@ -10480,7 +10463,7 @@
         <v>1</v>
       </c>
       <c r="AL38" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM38" s="23" t="s">
         <v>153</v>
@@ -10612,7 +10595,7 @@
         <v>3</v>
       </c>
       <c r="AL39" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM39" s="23" t="s">
         <v>155</v>
@@ -10744,7 +10727,7 @@
         <v>1</v>
       </c>
       <c r="AL40" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM40" s="23" t="s">
         <v>158</v>
@@ -10876,7 +10859,7 @@
         <v>1</v>
       </c>
       <c r="AL41" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM41" s="23" t="s">
         <v>160</v>
@@ -11008,7 +10991,7 @@
         <v>2</v>
       </c>
       <c r="AL42" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM42" s="23" t="s">
         <v>162</v>
@@ -11140,7 +11123,7 @@
         <v>1</v>
       </c>
       <c r="AL43" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM43" s="23" t="s">
         <v>165</v>
@@ -11272,7 +11255,7 @@
         <v>1</v>
       </c>
       <c r="AL44" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM44" s="23" t="s">
         <v>165</v>
@@ -11404,7 +11387,7 @@
         <v>3</v>
       </c>
       <c r="AL45" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM45" s="23" t="s">
         <v>168</v>
@@ -11536,7 +11519,7 @@
         <v>1</v>
       </c>
       <c r="AL46" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM46" s="23" t="s">
         <v>158</v>
@@ -11668,7 +11651,7 @@
         <v>1</v>
       </c>
       <c r="AL47" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM47" s="23" t="s">
         <v>160</v>
@@ -11800,7 +11783,7 @@
         <v>1</v>
       </c>
       <c r="AL48" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM48" s="23" t="s">
         <v>158</v>
@@ -11932,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="AL49" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM49" s="23" t="s">
         <v>160</v>
@@ -12063,8 +12046,8 @@
       <c r="AK50" s="13">
         <v>2</v>
       </c>
-      <c r="AL50" s="13">
-        <v>0</v>
+      <c r="AL50" s="12">
+        <v>2</v>
       </c>
       <c r="AM50" s="24" t="s">
         <v>175</v>
@@ -12196,7 +12179,7 @@
         <v>3</v>
       </c>
       <c r="AL51" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM51" s="23" t="s">
         <v>177</v>
@@ -12327,8 +12310,8 @@
       <c r="AK52" s="13">
         <v>2</v>
       </c>
-      <c r="AL52" s="13">
-        <v>0</v>
+      <c r="AL52" s="12">
+        <v>2</v>
       </c>
       <c r="AM52" s="24" t="s">
         <v>175</v>
@@ -12460,7 +12443,7 @@
         <v>1</v>
       </c>
       <c r="AL53" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM53" s="23" t="s">
         <v>181</v>
@@ -12592,7 +12575,7 @@
         <v>1</v>
       </c>
       <c r="AL54" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM54" s="23" t="s">
         <v>183</v>
@@ -12724,7 +12707,7 @@
         <v>3</v>
       </c>
       <c r="AL55" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM55" s="23" t="s">
         <v>185</v>
@@ -12855,8 +12838,8 @@
       <c r="AK56" s="17">
         <v>1</v>
       </c>
-      <c r="AL56" s="17">
-        <v>0</v>
+      <c r="AL56" s="12">
+        <v>2</v>
       </c>
       <c r="AM56" s="17">
         <v>0</v>
@@ -12998,8 +12981,8 @@
       <c r="AK57" s="13">
         <v>1</v>
       </c>
-      <c r="AL57" s="13">
-        <v>0</v>
+      <c r="AL57" s="12">
+        <v>2</v>
       </c>
       <c r="AM57" s="24" t="s">
         <v>189</v>
@@ -13130,8 +13113,8 @@
       <c r="AK58" s="13">
         <v>2</v>
       </c>
-      <c r="AL58" s="13">
-        <v>0</v>
+      <c r="AL58" s="12">
+        <v>2</v>
       </c>
       <c r="AM58" s="24" t="s">
         <v>190</v>
@@ -13263,7 +13246,7 @@
         <v>3</v>
       </c>
       <c r="AL59" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM59" s="23" t="s">
         <v>192</v>
@@ -13394,8 +13377,8 @@
       <c r="AK60" s="13">
         <v>1</v>
       </c>
-      <c r="AL60" s="13">
-        <v>0</v>
+      <c r="AL60" s="12">
+        <v>2</v>
       </c>
       <c r="AM60" s="24" t="s">
         <v>189</v>
@@ -13526,8 +13509,8 @@
       <c r="AK61" s="13">
         <v>2</v>
       </c>
-      <c r="AL61" s="13">
-        <v>0</v>
+      <c r="AL61" s="12">
+        <v>2</v>
       </c>
       <c r="AM61" s="24" t="s">
         <v>190</v>
@@ -13658,8 +13641,8 @@
       <c r="AK62" s="13">
         <v>3</v>
       </c>
-      <c r="AL62" s="13">
-        <v>0</v>
+      <c r="AL62" s="12">
+        <v>2</v>
       </c>
       <c r="AM62" s="24" t="s">
         <v>197</v>
@@ -13791,7 +13774,7 @@
         <v>1</v>
       </c>
       <c r="AL63" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM63" s="23" t="s">
         <v>200</v>
@@ -13923,7 +13906,7 @@
         <v>1</v>
       </c>
       <c r="AL64" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM64" s="23" t="s">
         <v>202</v>
@@ -14055,7 +14038,7 @@
         <v>1</v>
       </c>
       <c r="AL65" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM65" s="23" t="s">
         <v>204</v>
@@ -14187,7 +14170,7 @@
         <v>3</v>
       </c>
       <c r="AL66" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM66" s="23" t="s">
         <v>206</v>
@@ -14319,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="AL67" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM67" s="23" t="s">
         <v>209</v>
@@ -14451,7 +14434,7 @@
         <v>1</v>
       </c>
       <c r="AL68" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM68" s="23" t="s">
         <v>209</v>
@@ -14582,8 +14565,8 @@
       <c r="AK69" s="13">
         <v>3</v>
       </c>
-      <c r="AL69" s="13">
-        <v>0</v>
+      <c r="AL69" s="12">
+        <v>2</v>
       </c>
       <c r="AM69" s="24" t="s">
         <v>396</v>
@@ -14715,7 +14698,7 @@
         <v>1</v>
       </c>
       <c r="AL70" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM70" s="23" t="s">
         <v>214</v>
@@ -14847,7 +14830,7 @@
         <v>1</v>
       </c>
       <c r="AL71" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM71" s="23" t="s">
         <v>216</v>
@@ -14979,7 +14962,7 @@
         <v>2</v>
       </c>
       <c r="AL72" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM72" s="23" t="s">
         <v>218</v>
@@ -15111,7 +15094,7 @@
         <v>3</v>
       </c>
       <c r="AL73" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM73" s="23" t="s">
         <v>221</v>
@@ -15243,7 +15226,7 @@
         <v>1</v>
       </c>
       <c r="AL74" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM74" s="23" t="s">
         <v>224</v>
@@ -15374,8 +15357,8 @@
       <c r="AK75" s="13">
         <v>1</v>
       </c>
-      <c r="AL75" s="13">
-        <v>0</v>
+      <c r="AL75" s="12">
+        <v>2</v>
       </c>
       <c r="AM75" s="24" t="s">
         <v>226</v>
@@ -15506,8 +15489,8 @@
       <c r="AK76" s="13">
         <v>1</v>
       </c>
-      <c r="AL76" s="13">
-        <v>0</v>
+      <c r="AL76" s="12">
+        <v>2</v>
       </c>
       <c r="AM76" s="24" t="s">
         <v>228</v>
@@ -15638,8 +15621,8 @@
       <c r="AK77" s="13">
         <v>1</v>
       </c>
-      <c r="AL77" s="13">
-        <v>0</v>
+      <c r="AL77" s="12">
+        <v>2</v>
       </c>
       <c r="AM77" s="24" t="s">
         <v>230</v>
@@ -15771,7 +15754,7 @@
         <v>1</v>
       </c>
       <c r="AL78" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM78" s="23" t="s">
         <v>232</v>
@@ -15902,8 +15885,8 @@
       <c r="AK79" s="30">
         <v>3</v>
       </c>
-      <c r="AL79" s="30">
-        <v>0</v>
+      <c r="AL79" s="12">
+        <v>2</v>
       </c>
       <c r="AM79" s="31" t="s">
         <v>234</v>
@@ -16035,7 +16018,7 @@
         <v>3</v>
       </c>
       <c r="AL80" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM80" s="23" t="s">
         <v>221</v>
@@ -16167,7 +16150,7 @@
         <v>3</v>
       </c>
       <c r="AL81" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM81" s="23" t="s">
         <v>397</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -2428,6 +2428,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -2436,14 +2458,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2474,19 +2489,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -2495,7 +2504,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2508,17 +2517,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2533,8 +2533,23 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2563,25 +2578,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2653,19 +2653,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2683,48 +2731,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2737,43 +2743,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2797,7 +2785,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2809,13 +2815,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79985961485641"/>
+        <fgColor theme="5" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2827,37 +2845,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799890133365886"/>
+        <fgColor theme="7" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799890133365886"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2869,7 +2881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2881,25 +2893,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3003,16 +3003,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3023,15 +3034,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3053,20 +3055,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3086,1393 +3092,1387 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="475">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="44" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4519,7 +4519,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="414" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="169" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="168" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4558,7 +4558,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="169" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="168" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4620,12 +4620,12 @@
   <cellStyles count="475">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="输入" xfId="2" builtinId="20"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 3" xfId="3"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2 3" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="3"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
     <cellStyle name="注释 2 3 5" xfId="5"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2 3" xfId="6"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="7"/>
+    <cellStyle name="输入" xfId="6" builtinId="20"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 3" xfId="7"/>
     <cellStyle name="货币" xfId="8" builtinId="4"/>
     <cellStyle name="40% - 强调文字颜色 1 3 5" xfId="9"/>
     <cellStyle name="千位分隔[0]" xfId="10" builtinId="6"/>
@@ -4654,30 +4654,30 @@
     <cellStyle name="常规 2 3 3 2 5" xfId="33"/>
     <cellStyle name="标题 1" xfId="34" builtinId="16"/>
     <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 4" xfId="36"/>
-    <cellStyle name="常规 5 2 2" xfId="37"/>
+    <cellStyle name="常规 5 2 2" xfId="36"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 4" xfId="37"/>
     <cellStyle name="标题 2" xfId="38" builtinId="17"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3 3" xfId="39"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="40" builtinId="32"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 5" xfId="41"/>
-    <cellStyle name="常规 5 2 3" xfId="42"/>
+    <cellStyle name="常规 5 2 3" xfId="41"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 5" xfId="42"/>
     <cellStyle name="标题 3" xfId="43" builtinId="18"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="44" builtinId="44"/>
     <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="45"/>
     <cellStyle name="输出" xfId="46" builtinId="21"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="47"/>
+    <cellStyle name="注释 2 2 2 2 2" xfId="47"/>
     <cellStyle name="常规 2 3 2 2 2 5" xfId="48"/>
-    <cellStyle name="注释 2 2 2 2 2" xfId="49"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="49"/>
     <cellStyle name="计算" xfId="50" builtinId="22"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 3" xfId="51"/>
+    <cellStyle name="常规 2 3 4 4" xfId="51"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="52"/>
-    <cellStyle name="常规 2 3 4 4" xfId="53"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 3" xfId="53"/>
     <cellStyle name="检查单元格" xfId="54" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="55" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 4 2 3 3" xfId="56"/>
     <cellStyle name="强调文字颜色 2" xfId="57" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="58"/>
-    <cellStyle name="注释 2 3" xfId="59"/>
+    <cellStyle name="注释 2 3" xfId="58"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 5" xfId="59"/>
     <cellStyle name="链接单元格" xfId="60" builtinId="24"/>
     <cellStyle name="20% - 强调文字颜色 6 4 3" xfId="61"/>
     <cellStyle name="汇总" xfId="62" builtinId="25"/>
@@ -4688,13 +4688,13 @@
     <cellStyle name="20% - 强调文字颜色 5" xfId="67" builtinId="46"/>
     <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="68"/>
     <cellStyle name="强调文字颜色 1" xfId="69" builtinId="29"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="70"/>
-    <cellStyle name="注释 2 3 3" xfId="71"/>
+    <cellStyle name="注释 2 3 3" xfId="70"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="71"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="72" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="73"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="74" builtinId="31"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="75"/>
-    <cellStyle name="注释 2 3 4" xfId="76"/>
+    <cellStyle name="注释 2 3 4" xfId="75"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="76"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="77" builtinId="34"/>
     <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="78"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="79" builtinId="35"/>
@@ -4710,64 +4710,64 @@
     <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="89"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="90" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="91" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="92"/>
+    <cellStyle name="常规 5 2 6" xfId="92"/>
     <cellStyle name="常规 2 3 2 3 3" xfId="93"/>
-    <cellStyle name="常规 5 2 6" xfId="94"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="95"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="94"/>
+    <cellStyle name="常规 2 3 2 4" xfId="95"/>
     <cellStyle name="40% - 强调文字颜色 2 2" xfId="96"/>
-    <cellStyle name="常规 2 3 2 4" xfId="97"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="97"/>
     <cellStyle name="20% - 强调文字颜色 1 3" xfId="98"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 4" xfId="99"/>
+    <cellStyle name="注释 2 4 2" xfId="99"/>
     <cellStyle name="常规 2 3 2 3 4" xfId="100"/>
-    <cellStyle name="注释 2 4 2" xfId="101"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="102"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="103"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 4" xfId="101"/>
+    <cellStyle name="常规 5 3 5" xfId="102"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="103"/>
     <cellStyle name="40% - 强调文字颜色 6 3 2 3" xfId="104"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="105"/>
-    <cellStyle name="常规 5 3 5" xfId="106"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 5" xfId="107"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="105"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="106"/>
+    <cellStyle name="注释 2 4 3" xfId="107"/>
     <cellStyle name="常规 2 3 2 3 5" xfId="108"/>
-    <cellStyle name="注释 2 4 3" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="110"/>
-    <cellStyle name="常规 2 3 2 3" xfId="111"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2 2" xfId="112"/>
-    <cellStyle name="常规 2 3 2 3 2 2" xfId="113"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2 3" xfId="114"/>
-    <cellStyle name="常规 2 3 2 3 2 3" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 3" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 5" xfId="109"/>
+    <cellStyle name="常规 2 3 2 3" xfId="110"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="111"/>
+    <cellStyle name="常规 2 3 2 3 2 2" xfId="112"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2 2" xfId="113"/>
+    <cellStyle name="常规 2 3 2 3 2 3" xfId="114"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2 3" xfId="115"/>
+    <cellStyle name="常规 2 3 2 4 3" xfId="116"/>
     <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="117"/>
-    <cellStyle name="常规 2 3 2 4 3" xfId="118"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="119"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 3" xfId="118"/>
+    <cellStyle name="常规 2 3 2 5" xfId="119"/>
     <cellStyle name="40% - 强调文字颜色 2 3" xfId="120"/>
-    <cellStyle name="常规 2 3 2 5" xfId="121"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="122"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="121"/>
+    <cellStyle name="常规 2 3 2 6" xfId="122"/>
     <cellStyle name="40% - 强调文字颜色 2 4" xfId="123"/>
-    <cellStyle name="常规 2 3 2 6" xfId="124"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="125"/>
-    <cellStyle name="常规 2 3 2 7" xfId="126"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="127"/>
-    <cellStyle name="常规 2 3 3 3" xfId="128"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2 2" xfId="129"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="124"/>
+    <cellStyle name="常规 2 3 2 7" xfId="125"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="126"/>
+    <cellStyle name="常规 2 3 3 3" xfId="127"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="128"/>
+    <cellStyle name="注释 2 5" xfId="129"/>
     <cellStyle name="常规 2 3 3 3 2" xfId="130"/>
-    <cellStyle name="注释 2 5" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2 3" xfId="132"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2 2" xfId="131"/>
+    <cellStyle name="注释 2 6" xfId="132"/>
     <cellStyle name="常规 2 3 3 3 3" xfId="133"/>
-    <cellStyle name="注释 2 6" xfId="134"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="135"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2 3" xfId="134"/>
+    <cellStyle name="常规 2 3 3 4" xfId="135"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="136"/>
-    <cellStyle name="常规 2 3 3 4" xfId="137"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="138"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="137"/>
+    <cellStyle name="常规 2 3 3 5" xfId="138"/>
     <cellStyle name="40% - 强调文字颜色 3 3" xfId="139"/>
-    <cellStyle name="常规 2 3 3 5" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="141"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 4" xfId="140"/>
+    <cellStyle name="常规 2 3 3 6" xfId="141"/>
     <cellStyle name="40% - 强调文字颜色 3 4" xfId="142"/>
-    <cellStyle name="常规 2 3 3 6" xfId="143"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 5" xfId="143"/>
     <cellStyle name="20% - 强调文字颜色 1 4" xfId="144"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="145"/>
-    <cellStyle name="常规 2 3 4 3" xfId="146"/>
+    <cellStyle name="常规 2 3 4 3" xfId="145"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="146"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="147"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="148"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 5" xfId="149"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 5" xfId="148"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="149"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="150"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2 2 2" xfId="151"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2 2 3" xfId="152"/>
@@ -4779,88 +4779,88 @@
     <cellStyle name="20% - 强调文字颜色 2 2 3 3" xfId="158"/>
     <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="159"/>
     <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="160"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="161"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="162"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="161"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="162"/>
     <cellStyle name="20% - 强调文字颜色 2 3" xfId="163"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="164"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2 2" xfId="165"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2 3" xfId="166"/>
     <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="167"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="168"/>
-    <cellStyle name="常规 2 2 2" xfId="169"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="170"/>
-    <cellStyle name="常规 2 2 3" xfId="171"/>
+    <cellStyle name="常规 2 2 2" xfId="168"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 4" xfId="169"/>
+    <cellStyle name="常规 2 2 3" xfId="170"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 5" xfId="171"/>
     <cellStyle name="20% - 强调文字颜色 2 4" xfId="172"/>
     <cellStyle name="20% - 强调文字颜色 2 4 3" xfId="173"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="174"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 5" xfId="175"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 5" xfId="174"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="175"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="176"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="177"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2 2" xfId="178"/>
-    <cellStyle name="注释 2 3 2 3" xfId="179"/>
+    <cellStyle name="注释 2 3 2 3" xfId="178"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2 2" xfId="179"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2 2 3" xfId="180"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="181"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 4" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="183"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 5" xfId="184"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 3" xfId="185"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="182"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 4" xfId="183"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 3" xfId="184"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 5" xfId="185"/>
     <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="186"/>
     <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="187"/>
     <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="188"/>
     <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="189"/>
     <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="190"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2 2" xfId="191"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="192"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2 3" xfId="193"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="194"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="191"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2 2" xfId="192"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="193"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2 3" xfId="194"/>
     <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="195"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="196"/>
+    <cellStyle name="常规 3 2 2" xfId="196"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="197"/>
-    <cellStyle name="常规 3 2 2" xfId="198"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="199"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="200"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 4" xfId="198"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="199"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 5" xfId="200"/>
     <cellStyle name="20% - 强调文字颜色 3 4" xfId="201"/>
     <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="202"/>
     <cellStyle name="20% - 强调文字颜色 3 4 3" xfId="203"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="204"/>
-    <cellStyle name="常规 3" xfId="205"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="206"/>
-    <cellStyle name="常规 3 2" xfId="207"/>
+    <cellStyle name="常规 3" xfId="204"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="205"/>
+    <cellStyle name="常规 3 2" xfId="206"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="207"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 2 2" xfId="208"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 2 3" xfId="209"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 4" xfId="210"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="211"/>
-    <cellStyle name="常规 3 3" xfId="212"/>
+    <cellStyle name="常规 3 3" xfId="211"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="212"/>
     <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="213"/>
     <cellStyle name="20% - 强调文字颜色 4 2 3 3" xfId="214"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="215"/>
-    <cellStyle name="常规 3 4" xfId="216"/>
+    <cellStyle name="常规 3 4" xfId="215"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="216"/>
     <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="217"/>
     <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="218"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="219"/>
+    <cellStyle name="常规 5 3 2 2" xfId="219"/>
     <cellStyle name="常规 4" xfId="220"/>
-    <cellStyle name="常规 5 3 2 2" xfId="221"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="222"/>
-    <cellStyle name="常规 4 2" xfId="223"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2 2" xfId="224"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="225"/>
-    <cellStyle name="常规 4 2 2" xfId="226"/>
-    <cellStyle name="常规 4 4" xfId="227"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2 3" xfId="228"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="221"/>
+    <cellStyle name="常规 4 2" xfId="222"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="223"/>
+    <cellStyle name="常规 4 4" xfId="224"/>
+    <cellStyle name="常规 4 2 2" xfId="225"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 4" xfId="226"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2 2" xfId="227"/>
+    <cellStyle name="常规 4 5" xfId="228"/>
     <cellStyle name="20% - 强调文字颜色 4 3 5" xfId="229"/>
-    <cellStyle name="常规 4 5" xfId="230"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="231"/>
-    <cellStyle name="常规 4 3" xfId="232"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="233"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2 3" xfId="230"/>
+    <cellStyle name="常规 4 3" xfId="231"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="232"/>
+    <cellStyle name="常规 5 3 2 3" xfId="233"/>
     <cellStyle name="常规 5" xfId="234"/>
-    <cellStyle name="常规 5 3 2 3" xfId="235"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 3" xfId="236"/>
-    <cellStyle name="常规 5 3" xfId="237"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="235"/>
+    <cellStyle name="常规 5 3" xfId="236"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 3" xfId="237"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="238"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="239"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="240"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2 2" xfId="241"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2 3" xfId="242"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2 3" xfId="241"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2 2" xfId="242"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 2 3" xfId="243"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="244"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 4" xfId="245"/>
@@ -4875,14 +4875,14 @@
     <cellStyle name="20% - 强调文字颜色 5 3 2 2" xfId="254"/>
     <cellStyle name="20% - 强调文字颜色 5 4" xfId="255"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="256"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="257"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="258"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="260"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="257"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="258"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="259"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="260"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 2 2" xfId="261"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 2 3" xfId="262"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="263"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 3" xfId="264"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 3" xfId="263"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="264"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 4" xfId="265"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 5" xfId="266"/>
     <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="267"/>
@@ -4892,47 +4892,47 @@
     <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="271"/>
     <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="272"/>
     <cellStyle name="20% - 强调文字颜色 6 3" xfId="273"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="274"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="275"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2 2" xfId="276"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="277"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2 3" xfId="278"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 3" xfId="279"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="274"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="275"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="276"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2 2" xfId="277"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 3" xfId="278"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2 3" xfId="279"/>
     <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="280"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="281"/>
-    <cellStyle name="注释 2 2" xfId="282"/>
+    <cellStyle name="注释 2 2" xfId="281"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 4" xfId="282"/>
     <cellStyle name="20% - 强调文字颜色 6 4" xfId="283"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="284"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="285"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="286"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2 2" xfId="287"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="288"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="284"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="285"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2 2" xfId="286"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="287"/>
+    <cellStyle name="常规 5 7" xfId="288"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="289"/>
-    <cellStyle name="常规 5 7" xfId="290"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="290"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="291"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2 2" xfId="292"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="293"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2 3" xfId="294"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="292"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2 2" xfId="293"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="294"/>
     <cellStyle name="40% - 强调文字颜色 3 3 2 2" xfId="295"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="296"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="297"/>
-    <cellStyle name="注释 2 2 3 2" xfId="298"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 4" xfId="299"/>
-    <cellStyle name="注释 2 2 3 3" xfId="300"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2 3" xfId="296"/>
+    <cellStyle name="注释 2 2 3 2" xfId="297"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="298"/>
+    <cellStyle name="注释 2 2 3 3" xfId="299"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 4" xfId="300"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 5" xfId="301"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="302"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 4" xfId="303"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 4" xfId="302"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="303"/>
     <cellStyle name="40% - 强调文字颜色 1 2 3 3" xfId="304"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="305"/>
+    <cellStyle name="常规 2 3 3 2 2 2" xfId="305"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 5" xfId="306"/>
-    <cellStyle name="常规 2 3 3 2 2 2" xfId="307"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="308"/>
-    <cellStyle name="常规 2 3 3 2 2 3" xfId="309"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="307"/>
+    <cellStyle name="常规 2 3 3 2 2 3" xfId="308"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="309"/>
     <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="310"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="311"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2 3" xfId="312"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="313"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 3" xfId="314"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2 3" xfId="311"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="312"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 3" xfId="313"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="314"/>
     <cellStyle name="40% - 强调文字颜色 1 3 2 2" xfId="315"/>
     <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="316"/>
     <cellStyle name="40% - 强调文字颜色 1 3 4" xfId="317"/>
@@ -4943,16 +4943,16 @@
     <cellStyle name="40% - 强调文字颜色 2 2 2 2 2" xfId="322"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2 2 3" xfId="323"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="324"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 4" xfId="325"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="326"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 5" xfId="327"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="328"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="325"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 4" xfId="326"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="327"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 5" xfId="328"/>
     <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="329"/>
     <cellStyle name="40% - 强调文字颜色 2 2 3 3" xfId="330"/>
     <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="331"/>
     <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="332"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="333"/>
-    <cellStyle name="常规 2 3 2 2" xfId="334"/>
+    <cellStyle name="常规 2 3 2 2" xfId="333"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="334"/>
     <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="335"/>
     <cellStyle name="40% - 强调文字颜色 2 3 2 2" xfId="336"/>
     <cellStyle name="40% - 强调文字颜色 2 3 2 3" xfId="337"/>
@@ -4962,46 +4962,46 @@
     <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="341"/>
     <cellStyle name="40% - 强调文字颜色 2 4 3" xfId="342"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="343"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="344"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="345"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="344"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="345"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2 2 2" xfId="346"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2 2 3" xfId="347"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="348"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="349"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 4" xfId="350"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="351"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="348"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="349"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="350"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 4" xfId="351"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="352"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="353"/>
+    <cellStyle name="注释 2 2 2 2 3" xfId="353"/>
     <cellStyle name="40% - 强调文字颜色 3 3 4" xfId="354"/>
-    <cellStyle name="注释 2 2 2 2 3" xfId="355"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 3" xfId="356"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 5" xfId="357"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="358"/>
-    <cellStyle name="常规 2 3 2 2 2 4" xfId="359"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2 3" xfId="360"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="361"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="355"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 5" xfId="356"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 3" xfId="357"/>
+    <cellStyle name="常规 2 3 2 2 2 4" xfId="358"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="359"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="360"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2 3" xfId="361"/>
     <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="362"/>
     <cellStyle name="40% - 强调文字颜色 3 4 3" xfId="363"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="364"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="365"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2 2" xfId="366"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="367"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2 3" xfId="368"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 4" xfId="369"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="366"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2 2" xfId="367"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 4" xfId="368"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2 3" xfId="369"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="370"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2 4" xfId="371"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2 5" xfId="372"/>
     <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="373"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="374"/>
-    <cellStyle name="常规 2 3 4 5" xfId="375"/>
+    <cellStyle name="常规 2 3 4 5" xfId="374"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="375"/>
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="376"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="377"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="378"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2 2 2" xfId="379"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2 3" xfId="380"/>
-    <cellStyle name="常规 5 2 2 2 2" xfId="381"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 5" xfId="382"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="383"/>
+    <cellStyle name="常规 5 2 2 2 2" xfId="380"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2 3" xfId="381"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="382"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 5" xfId="383"/>
     <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="384"/>
     <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="385"/>
     <cellStyle name="40% - 强调文字颜色 5 2 3 3" xfId="386"/>
@@ -5014,19 +5014,19 @@
     <cellStyle name="40% - 强调文字颜色 5 3 4" xfId="393"/>
     <cellStyle name="40% - 强调文字颜色 5 3 5" xfId="394"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="395"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="396"/>
-    <cellStyle name="常规 5 6" xfId="397"/>
+    <cellStyle name="常规 5 6" xfId="396"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="397"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 2 2" xfId="398"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2 3" xfId="399"/>
-    <cellStyle name="注释 2 2 2 2" xfId="400"/>
+    <cellStyle name="注释 2 2 2 2" xfId="399"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2 3" xfId="400"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="401"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="402"/>
     <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="403"/>
     <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="404"/>
     <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="405"/>
     <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="406"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2 2" xfId="407"/>
-    <cellStyle name="常规 5 3 4" xfId="408"/>
+    <cellStyle name="常规 5 3 4" xfId="407"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2 2" xfId="408"/>
     <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="409"/>
     <cellStyle name="40% - 强调文字颜色 6 3 4" xfId="410"/>
     <cellStyle name="40% - 强调文字颜色 6 3 5" xfId="411"/>
@@ -5043,8 +5043,8 @@
     <cellStyle name="常规 2 3 2 2 3" xfId="422"/>
     <cellStyle name="常规 2 3 2 2 3 2" xfId="423"/>
     <cellStyle name="常规 2 3 2 2 3 3" xfId="424"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="425"/>
-    <cellStyle name="注释 2 3 2" xfId="426"/>
+    <cellStyle name="注释 2 3 2" xfId="425"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="426"/>
     <cellStyle name="常规 2 3 3" xfId="427"/>
     <cellStyle name="常规 2 3 3 2" xfId="428"/>
     <cellStyle name="常规 2 3 3 2 2" xfId="429"/>
@@ -5052,18 +5052,18 @@
     <cellStyle name="常规 2 3 3 2 4" xfId="431"/>
     <cellStyle name="常规 2 3 4" xfId="432"/>
     <cellStyle name="常规 2 3 4 2" xfId="433"/>
-    <cellStyle name="常规 2 3 4 2 2" xfId="434"/>
+    <cellStyle name="常规 5 2 2 4" xfId="434"/>
     <cellStyle name="常规 2 3 8" xfId="435"/>
-    <cellStyle name="常规 5 2 2 4" xfId="436"/>
-    <cellStyle name="常规 2 3 4 2 3" xfId="437"/>
-    <cellStyle name="常规 5 2 2 5" xfId="438"/>
+    <cellStyle name="常规 2 3 4 2 2" xfId="436"/>
+    <cellStyle name="常规 5 2 2 5" xfId="437"/>
+    <cellStyle name="常规 2 3 4 2 3" xfId="438"/>
     <cellStyle name="常规 2 3 5" xfId="439"/>
     <cellStyle name="常规 2 3 5 2" xfId="440"/>
     <cellStyle name="常规 2 3 5 3" xfId="441"/>
-    <cellStyle name="常规 2 3 6" xfId="442"/>
-    <cellStyle name="常规 5 2 2 2" xfId="443"/>
-    <cellStyle name="常规 2 3 7" xfId="444"/>
-    <cellStyle name="常规 5 2 2 3" xfId="445"/>
+    <cellStyle name="常规 5 2 2 2" xfId="442"/>
+    <cellStyle name="常规 2 3 6" xfId="443"/>
+    <cellStyle name="常规 5 2 2 3" xfId="444"/>
+    <cellStyle name="常规 2 3 7" xfId="445"/>
     <cellStyle name="常规 2 4" xfId="446"/>
     <cellStyle name="常规 2 4 2" xfId="447"/>
     <cellStyle name="常规 2 5" xfId="448"/>
@@ -5078,8 +5078,8 @@
     <cellStyle name="常规 5 4 2" xfId="457"/>
     <cellStyle name="常规 5 4 3" xfId="458"/>
     <cellStyle name="常规 5 5" xfId="459"/>
-    <cellStyle name="常规 6 2" xfId="460"/>
-    <cellStyle name="注释 2" xfId="461"/>
+    <cellStyle name="注释 2" xfId="460"/>
+    <cellStyle name="常规 6 2" xfId="461"/>
     <cellStyle name="常规 7" xfId="462"/>
     <cellStyle name="常规 8" xfId="463"/>
     <cellStyle name="常规 9" xfId="464"/>
@@ -9391,11 +9391,11 @@
   <dimension ref="A1:BG489"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AF192" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E198" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C221" sqref="C221"/>
+      <selection pane="bottomRight" activeCell="E222" sqref="E222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -22551,7 +22551,7 @@
         <v>266</v>
       </c>
       <c r="E102" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F102" s="12">
         <v>0</v>
@@ -22695,7 +22695,7 @@
         <v>268</v>
       </c>
       <c r="E103" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F103" s="12">
         <v>0</v>
@@ -22839,7 +22839,7 @@
         <v>269</v>
       </c>
       <c r="E104" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F104" s="12">
         <v>0</v>
@@ -22983,7 +22983,7 @@
         <v>270</v>
       </c>
       <c r="E105" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F105" s="12">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>272</v>
       </c>
       <c r="E107" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F107" s="12">
         <v>0</v>
@@ -23417,7 +23417,7 @@
         <v>273</v>
       </c>
       <c r="E108" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F108" s="12">
         <v>0</v>
@@ -23562,7 +23562,7 @@
         <v>274</v>
       </c>
       <c r="E109" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F109" s="12">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>275</v>
       </c>
       <c r="E110" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F110" s="12">
         <v>0</v>
@@ -23999,7 +23999,7 @@
         <v>278</v>
       </c>
       <c r="E112" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F112" s="12">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>279</v>
       </c>
       <c r="E113" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F113" s="12">
         <v>0</v>
@@ -24289,7 +24289,7 @@
         <v>280</v>
       </c>
       <c r="E114" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F114" s="12">
         <v>0</v>
@@ -24434,7 +24434,7 @@
         <v>281</v>
       </c>
       <c r="E115" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F115" s="12">
         <v>0</v>
@@ -24724,7 +24724,7 @@
         <v>283</v>
       </c>
       <c r="E117" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F117" s="12">
         <v>0</v>
@@ -24869,7 +24869,7 @@
         <v>284</v>
       </c>
       <c r="E118" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F118" s="12">
         <v>0</v>
@@ -25014,7 +25014,7 @@
         <v>285</v>
       </c>
       <c r="E119" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F119" s="12">
         <v>0</v>
@@ -25159,7 +25159,7 @@
         <v>286</v>
       </c>
       <c r="E120" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F120" s="12">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>288</v>
       </c>
       <c r="E122" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F122" s="12">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>289</v>
       </c>
       <c r="E123" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F123" s="12">
         <v>0</v>
@@ -25738,7 +25738,7 @@
         <v>290</v>
       </c>
       <c r="E124" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F124" s="12">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>291</v>
       </c>
       <c r="E125" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F125" s="12">
         <v>0</v>
@@ -26170,7 +26170,7 @@
         <v>293</v>
       </c>
       <c r="E127" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F127" s="12">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>294</v>
       </c>
       <c r="E128" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F128" s="12">
         <v>0</v>
@@ -26458,7 +26458,7 @@
         <v>295</v>
       </c>
       <c r="E129" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F129" s="12">
         <v>0</v>
@@ -26602,7 +26602,7 @@
         <v>296</v>
       </c>
       <c r="E130" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F130" s="12">
         <v>0</v>
@@ -26892,7 +26892,7 @@
         <v>266</v>
       </c>
       <c r="E132" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F132" s="12">
         <v>0</v>
@@ -27036,7 +27036,7 @@
         <v>268</v>
       </c>
       <c r="E133" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F133" s="12">
         <v>0</v>
@@ -27180,7 +27180,7 @@
         <v>269</v>
       </c>
       <c r="E134" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F134" s="12">
         <v>0</v>
@@ -27324,7 +27324,7 @@
         <v>270</v>
       </c>
       <c r="E135" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F135" s="12">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         <v>272</v>
       </c>
       <c r="E137" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F137" s="12">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>273</v>
       </c>
       <c r="E138" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F138" s="12">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>274</v>
       </c>
       <c r="E139" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F139" s="12">
         <v>0</v>
@@ -28048,7 +28048,7 @@
         <v>275</v>
       </c>
       <c r="E140" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F140" s="12">
         <v>0</v>
@@ -28340,7 +28340,7 @@
         <v>278</v>
       </c>
       <c r="E142" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F142" s="12">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>279</v>
       </c>
       <c r="E143" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F143" s="12">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>280</v>
       </c>
       <c r="E144" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F144" s="12">
         <v>0</v>
@@ -28775,7 +28775,7 @@
         <v>281</v>
       </c>
       <c r="E145" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F145" s="12">
         <v>0</v>
@@ -29065,7 +29065,7 @@
         <v>283</v>
       </c>
       <c r="E147" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F147" s="12">
         <v>0</v>
@@ -29210,7 +29210,7 @@
         <v>284</v>
       </c>
       <c r="E148" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F148" s="12">
         <v>0</v>
@@ -29355,7 +29355,7 @@
         <v>285</v>
       </c>
       <c r="E149" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F149" s="12">
         <v>0</v>
@@ -29500,7 +29500,7 @@
         <v>286</v>
       </c>
       <c r="E150" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F150" s="12">
         <v>0</v>
@@ -29792,7 +29792,7 @@
         <v>288</v>
       </c>
       <c r="E152" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F152" s="12">
         <v>0</v>
@@ -29937,7 +29937,7 @@
         <v>289</v>
       </c>
       <c r="E153" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F153" s="12">
         <v>0</v>
@@ -30082,7 +30082,7 @@
         <v>290</v>
       </c>
       <c r="E154" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F154" s="12">
         <v>0</v>
@@ -30227,7 +30227,7 @@
         <v>291</v>
       </c>
       <c r="E155" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F155" s="12">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>293</v>
       </c>
       <c r="E157" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F157" s="12">
         <v>0</v>
@@ -30662,7 +30662,7 @@
         <v>294</v>
       </c>
       <c r="E158" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F158" s="12">
         <v>0</v>
@@ -30807,7 +30807,7 @@
         <v>295</v>
       </c>
       <c r="E159" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F159" s="12">
         <v>0</v>
@@ -30952,7 +30952,7 @@
         <v>296</v>
       </c>
       <c r="E160" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F160" s="12">
         <v>0</v>
@@ -31244,7 +31244,7 @@
         <v>300</v>
       </c>
       <c r="E162" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F162" s="12">
         <v>0</v>
@@ -31389,7 +31389,7 @@
         <v>301</v>
       </c>
       <c r="E163" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F163" s="12">
         <v>0</v>
@@ -31534,7 +31534,7 @@
         <v>302</v>
       </c>
       <c r="E164" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F164" s="12">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>303</v>
       </c>
       <c r="E165" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F165" s="12">
         <v>0</v>
@@ -31969,7 +31969,7 @@
         <v>305</v>
       </c>
       <c r="E167" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F167" s="12">
         <v>0</v>
@@ -32114,7 +32114,7 @@
         <v>306</v>
       </c>
       <c r="E168" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F168" s="12">
         <v>0</v>
@@ -32259,7 +32259,7 @@
         <v>307</v>
       </c>
       <c r="E169" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F169" s="12">
         <v>0</v>
@@ -32404,7 +32404,7 @@
         <v>308</v>
       </c>
       <c r="E170" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F170" s="12">
         <v>0</v>
@@ -32696,7 +32696,7 @@
         <v>266</v>
       </c>
       <c r="E172" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F172" s="12">
         <v>0</v>
@@ -32840,7 +32840,7 @@
         <v>268</v>
       </c>
       <c r="E173" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F173" s="12">
         <v>0</v>
@@ -32984,7 +32984,7 @@
         <v>269</v>
       </c>
       <c r="E174" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F174" s="12">
         <v>0</v>
@@ -33128,7 +33128,7 @@
         <v>270</v>
       </c>
       <c r="E175" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F175" s="12">
         <v>0</v>
@@ -33418,7 +33418,7 @@
         <v>272</v>
       </c>
       <c r="E177" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F177" s="12">
         <v>0</v>
@@ -33563,7 +33563,7 @@
         <v>273</v>
       </c>
       <c r="E178" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F178" s="12">
         <v>0</v>
@@ -33708,7 +33708,7 @@
         <v>274</v>
       </c>
       <c r="E179" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F179" s="12">
         <v>0</v>
@@ -33853,7 +33853,7 @@
         <v>275</v>
       </c>
       <c r="E180" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F180" s="12">
         <v>0</v>
@@ -34145,7 +34145,7 @@
         <v>278</v>
       </c>
       <c r="E182" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F182" s="12">
         <v>0</v>
@@ -34290,7 +34290,7 @@
         <v>279</v>
       </c>
       <c r="E183" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F183" s="12">
         <v>0</v>
@@ -34435,7 +34435,7 @@
         <v>280</v>
       </c>
       <c r="E184" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F184" s="12">
         <v>0</v>
@@ -34580,7 +34580,7 @@
         <v>281</v>
       </c>
       <c r="E185" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F185" s="12">
         <v>0</v>
@@ -34870,7 +34870,7 @@
         <v>283</v>
       </c>
       <c r="E187" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F187" s="12">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>284</v>
       </c>
       <c r="E188" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F188" s="12">
         <v>0</v>
@@ -35160,7 +35160,7 @@
         <v>285</v>
       </c>
       <c r="E189" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F189" s="12">
         <v>0</v>
@@ -35305,7 +35305,7 @@
         <v>286</v>
       </c>
       <c r="E190" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F190" s="12">
         <v>0</v>
@@ -35597,7 +35597,7 @@
         <v>288</v>
       </c>
       <c r="E192" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F192" s="12">
         <v>0</v>
@@ -35742,7 +35742,7 @@
         <v>289</v>
       </c>
       <c r="E193" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F193" s="12">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>290</v>
       </c>
       <c r="E194" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F194" s="12">
         <v>0</v>
@@ -36032,7 +36032,7 @@
         <v>291</v>
       </c>
       <c r="E195" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F195" s="12">
         <v>0</v>
@@ -36322,7 +36322,7 @@
         <v>293</v>
       </c>
       <c r="E197" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F197" s="12">
         <v>0</v>
@@ -36467,7 +36467,7 @@
         <v>294</v>
       </c>
       <c r="E198" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F198" s="12">
         <v>0</v>
@@ -36612,7 +36612,7 @@
         <v>295</v>
       </c>
       <c r="E199" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F199" s="12">
         <v>0</v>
@@ -36757,7 +36757,7 @@
         <v>296</v>
       </c>
       <c r="E200" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F200" s="12">
         <v>0</v>
@@ -37049,7 +37049,7 @@
         <v>300</v>
       </c>
       <c r="E202" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F202" s="12">
         <v>0</v>
@@ -37194,7 +37194,7 @@
         <v>301</v>
       </c>
       <c r="E203" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F203" s="12">
         <v>0</v>
@@ -37339,7 +37339,7 @@
         <v>302</v>
       </c>
       <c r="E204" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F204" s="12">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>303</v>
       </c>
       <c r="E205" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F205" s="12">
         <v>0</v>
@@ -37773,7 +37773,7 @@
         <v>305</v>
       </c>
       <c r="E207" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F207" s="12">
         <v>0</v>
@@ -37918,7 +37918,7 @@
         <v>306</v>
       </c>
       <c r="E208" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F208" s="12">
         <v>0</v>
@@ -38063,7 +38063,7 @@
         <v>307</v>
       </c>
       <c r="E209" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F209" s="12">
         <v>0</v>
@@ -38208,7 +38208,7 @@
         <v>308</v>
       </c>
       <c r="E210" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F210" s="12">
         <v>0</v>
@@ -38500,7 +38500,7 @@
         <v>312</v>
       </c>
       <c r="E212" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F212" s="12">
         <v>0</v>
@@ -38645,7 +38645,7 @@
         <v>313</v>
       </c>
       <c r="E213" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F213" s="12">
         <v>0</v>
@@ -38790,7 +38790,7 @@
         <v>314</v>
       </c>
       <c r="E214" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F214" s="12">
         <v>0</v>
@@ -38935,7 +38935,7 @@
         <v>315</v>
       </c>
       <c r="E215" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F215" s="12">
         <v>0</v>
@@ -39225,7 +39225,7 @@
         <v>317</v>
       </c>
       <c r="E217" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F217" s="12">
         <v>0</v>
@@ -39370,7 +39370,7 @@
         <v>318</v>
       </c>
       <c r="E218" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F218" s="12">
         <v>0</v>
@@ -39515,7 +39515,7 @@
         <v>319</v>
       </c>
       <c r="E219" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F219" s="12">
         <v>0</v>
@@ -39660,7 +39660,7 @@
         <v>320</v>
       </c>
       <c r="E220" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F220" s="12">
         <v>0</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677D61C8-58BA-4B5D-A4AB-53BD66AE2756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9184F828-08AC-46B7-BA6D-F513DAA50A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="345" windowWidth="27045" windowHeight="14625" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -8321,10 +8321,10 @@
   <dimension ref="A1:BG489"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="L408" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R421" sqref="R421"/>
+      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C0486F-2850-4BB1-9943-4BF7E4238337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB3C01A-74CB-473D-AFDE-9B765EE72114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30555" yWindow="975" windowWidth="27045" windowHeight="14625" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -1038,7 +1038,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="460">
   <si>
     <t>Id</t>
   </si>
@@ -2416,6 +2416,10 @@
   </si>
   <si>
     <t>620001021,620001031</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>70504001,70504002,70504003,70504004,70504005</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -8322,10 +8326,10 @@
   <dimension ref="A1:BG489"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AJ216" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="N198" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN230" sqref="AN230"/>
+      <selection pane="bottomRight" activeCell="R56" sqref="R56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -11210,7 +11214,7 @@
         <v>1</v>
       </c>
       <c r="R24" s="11">
-        <v>54600</v>
+        <v>70980</v>
       </c>
       <c r="S24" s="11">
         <v>813</v>
@@ -11606,7 +11610,7 @@
         <v>1</v>
       </c>
       <c r="R27" s="13">
-        <v>67200</v>
+        <v>87360</v>
       </c>
       <c r="S27" s="13">
         <v>1000</v>
@@ -12002,7 +12006,7 @@
         <v>2</v>
       </c>
       <c r="R30" s="11">
-        <v>100800</v>
+        <v>131040</v>
       </c>
       <c r="S30" s="11">
         <v>1500</v>
@@ -12398,7 +12402,7 @@
         <v>2</v>
       </c>
       <c r="R33" s="12">
-        <v>126000</v>
+        <v>163800</v>
       </c>
       <c r="S33" s="12">
         <v>1875</v>
@@ -12530,7 +12534,7 @@
         <v>2</v>
       </c>
       <c r="R34" s="12">
-        <v>126000</v>
+        <v>163800</v>
       </c>
       <c r="S34" s="12">
         <v>1875</v>
@@ -13190,7 +13194,7 @@
         <v>2</v>
       </c>
       <c r="R39" s="11">
-        <v>159600</v>
+        <v>207480</v>
       </c>
       <c r="S39" s="11">
         <v>2375</v>
@@ -13586,7 +13590,7 @@
         <v>2</v>
       </c>
       <c r="R42" s="11">
-        <v>218400</v>
+        <v>283920</v>
       </c>
       <c r="S42" s="11">
         <v>3250</v>
@@ -13982,7 +13986,7 @@
         <v>2</v>
       </c>
       <c r="R45" s="11">
-        <v>235200</v>
+        <v>305760</v>
       </c>
       <c r="S45" s="11">
         <v>3500</v>
@@ -14774,7 +14778,7 @@
         <v>2</v>
       </c>
       <c r="R51" s="11">
-        <v>252000</v>
+        <v>327600</v>
       </c>
       <c r="S51" s="11">
         <v>3750</v>
@@ -15302,7 +15306,7 @@
         <v>2</v>
       </c>
       <c r="R55" s="11">
-        <v>277200</v>
+        <v>360360</v>
       </c>
       <c r="S55" s="11">
         <v>4125</v>
@@ -15434,7 +15438,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="11">
-        <v>53655</v>
+        <v>69750</v>
       </c>
       <c r="S56" s="20">
         <v>4380</v>
@@ -15841,7 +15845,7 @@
         <v>2</v>
       </c>
       <c r="R59" s="11">
-        <v>336000</v>
+        <v>436800</v>
       </c>
       <c r="S59" s="11">
         <v>5000</v>
@@ -16237,7 +16241,7 @@
         <v>2</v>
       </c>
       <c r="R62" s="12">
-        <v>352800</v>
+        <v>458640</v>
       </c>
       <c r="S62" s="12">
         <v>5250</v>
@@ -16765,7 +16769,7 @@
         <v>2</v>
       </c>
       <c r="R66" s="11">
-        <v>369600</v>
+        <v>480480</v>
       </c>
       <c r="S66" s="11">
         <v>5500</v>
@@ -17161,7 +17165,7 @@
         <v>2</v>
       </c>
       <c r="R69" s="12">
-        <v>394800</v>
+        <v>513240</v>
       </c>
       <c r="S69" s="12">
         <v>5875</v>
@@ -17557,7 +17561,7 @@
         <v>2</v>
       </c>
       <c r="R72" s="11">
-        <v>453600</v>
+        <v>589680</v>
       </c>
       <c r="S72" s="11">
         <v>6750</v>
@@ -17689,7 +17693,7 @@
         <v>2</v>
       </c>
       <c r="R73" s="11">
-        <v>470400</v>
+        <v>611520</v>
       </c>
       <c r="S73" s="11">
         <v>7000</v>
@@ -18481,7 +18485,7 @@
         <v>2</v>
       </c>
       <c r="R79" s="29">
-        <v>487200</v>
+        <v>633360</v>
       </c>
       <c r="S79" s="29">
         <v>7250</v>
@@ -18613,7 +18617,7 @@
         <v>2</v>
       </c>
       <c r="R80" s="11">
-        <v>504000</v>
+        <v>655200</v>
       </c>
       <c r="S80" s="11">
         <v>7500</v>
@@ -18745,7 +18749,7 @@
         <v>2</v>
       </c>
       <c r="R81" s="11">
-        <v>520800</v>
+        <v>677040</v>
       </c>
       <c r="S81" s="11">
         <v>7750</v>
@@ -18877,7 +18881,7 @@
         <v>2</v>
       </c>
       <c r="R82" s="11">
-        <v>250000</v>
+        <v>325000</v>
       </c>
       <c r="S82" s="11">
         <v>7500</v>
@@ -38849,7 +38853,7 @@
         <v>70000002</v>
       </c>
       <c r="AR221" s="46" t="s">
-        <v>239</v>
+        <v>459</v>
       </c>
       <c r="AS221" s="29"/>
       <c r="AT221" s="29">
@@ -39641,7 +39645,7 @@
         <v>1</v>
       </c>
       <c r="R227" s="11">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="S227" s="11">
         <v>550</v>
@@ -39784,7 +39788,7 @@
         <v>1</v>
       </c>
       <c r="R228" s="11">
-        <v>45000</v>
+        <v>90000</v>
       </c>
       <c r="S228" s="11">
         <v>600</v>
@@ -39927,7 +39931,7 @@
         <v>1</v>
       </c>
       <c r="R229" s="11">
-        <v>51000</v>
+        <v>102000</v>
       </c>
       <c r="S229" s="11">
         <v>650</v>
@@ -40070,7 +40074,7 @@
         <v>1</v>
       </c>
       <c r="R230" s="11">
-        <v>58000</v>
+        <v>116000</v>
       </c>
       <c r="S230" s="11">
         <v>700</v>
@@ -40213,7 +40217,7 @@
         <v>1</v>
       </c>
       <c r="R231" s="11">
-        <v>66000</v>
+        <v>132000</v>
       </c>
       <c r="S231" s="11">
         <v>750</v>
@@ -40356,7 +40360,7 @@
         <v>1</v>
       </c>
       <c r="R232" s="11">
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="S232" s="11">
         <v>800</v>
@@ -40499,7 +40503,7 @@
         <v>1</v>
       </c>
       <c r="R233" s="11">
-        <v>85000</v>
+        <v>170000</v>
       </c>
       <c r="S233" s="11">
         <v>850</v>
@@ -40642,7 +40646,7 @@
         <v>1</v>
       </c>
       <c r="R234" s="11">
-        <v>96000</v>
+        <v>192000</v>
       </c>
       <c r="S234" s="11">
         <v>900</v>
@@ -40785,7 +40789,7 @@
         <v>1</v>
       </c>
       <c r="R235" s="11">
-        <v>108000</v>
+        <v>216000</v>
       </c>
       <c r="S235" s="11">
         <v>950</v>
@@ -40928,7 +40932,7 @@
         <v>1</v>
       </c>
       <c r="R236" s="11">
-        <v>121000</v>
+        <v>242000</v>
       </c>
       <c r="S236" s="11">
         <v>1000</v>
@@ -41071,7 +41075,7 @@
         <v>1</v>
       </c>
       <c r="R237" s="11">
-        <v>135000</v>
+        <v>270000</v>
       </c>
       <c r="S237" s="11">
         <v>1050</v>
@@ -41214,7 +41218,7 @@
         <v>1</v>
       </c>
       <c r="R238" s="11">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="S238" s="11">
         <v>1100</v>
@@ -41357,7 +41361,7 @@
         <v>1</v>
       </c>
       <c r="R239" s="11">
-        <v>166000</v>
+        <v>332000</v>
       </c>
       <c r="S239" s="11">
         <v>1200</v>
@@ -41500,7 +41504,7 @@
         <v>1</v>
       </c>
       <c r="R240" s="11">
-        <v>183000</v>
+        <v>366000</v>
       </c>
       <c r="S240" s="11">
         <v>1300</v>
@@ -41643,7 +41647,7 @@
         <v>1</v>
       </c>
       <c r="R241" s="11">
-        <v>201000</v>
+        <v>402000</v>
       </c>
       <c r="S241" s="11">
         <v>1400</v>
@@ -41786,7 +41790,7 @@
         <v>1</v>
       </c>
       <c r="R242" s="11">
-        <v>220000</v>
+        <v>440000</v>
       </c>
       <c r="S242" s="11">
         <v>1500</v>
@@ -41929,7 +41933,7 @@
         <v>1</v>
       </c>
       <c r="R243" s="11">
-        <v>240000</v>
+        <v>480000</v>
       </c>
       <c r="S243" s="11">
         <v>1600</v>
@@ -42072,7 +42076,7 @@
         <v>1</v>
       </c>
       <c r="R244" s="11">
-        <v>262000</v>
+        <v>524000</v>
       </c>
       <c r="S244" s="11">
         <v>1700</v>
@@ -42215,7 +42219,7 @@
         <v>1</v>
       </c>
       <c r="R245" s="11">
-        <v>286000</v>
+        <v>572000</v>
       </c>
       <c r="S245" s="11">
         <v>1800</v>
@@ -42358,7 +42362,7 @@
         <v>1</v>
       </c>
       <c r="R246" s="11">
-        <v>312000</v>
+        <v>624000</v>
       </c>
       <c r="S246" s="11">
         <v>1900</v>
@@ -42501,7 +42505,7 @@
         <v>1</v>
       </c>
       <c r="R247" s="11">
-        <v>340000</v>
+        <v>680000</v>
       </c>
       <c r="S247" s="11">
         <v>2000</v>
@@ -42644,7 +42648,7 @@
         <v>1</v>
       </c>
       <c r="R248" s="11">
-        <v>370000</v>
+        <v>740000</v>
       </c>
       <c r="S248" s="11">
         <v>2500</v>
@@ -42787,7 +42791,7 @@
         <v>1</v>
       </c>
       <c r="R249" s="11">
-        <v>402000</v>
+        <v>804000</v>
       </c>
       <c r="S249" s="11">
         <v>2600</v>
@@ -42930,7 +42934,7 @@
         <v>1</v>
       </c>
       <c r="R250" s="11">
-        <v>436000</v>
+        <v>872000</v>
       </c>
       <c r="S250" s="11">
         <v>2700</v>
@@ -43073,7 +43077,7 @@
         <v>1</v>
       </c>
       <c r="R251" s="11">
-        <v>472000</v>
+        <v>944000</v>
       </c>
       <c r="S251" s="11">
         <v>2800</v>
@@ -43216,7 +43220,7 @@
         <v>1</v>
       </c>
       <c r="R252" s="11">
-        <v>510000</v>
+        <v>1020000</v>
       </c>
       <c r="S252" s="11">
         <v>2900</v>
@@ -43359,7 +43363,7 @@
         <v>1</v>
       </c>
       <c r="R253" s="11">
-        <v>550000</v>
+        <v>1100000</v>
       </c>
       <c r="S253" s="11">
         <v>3000</v>
@@ -43502,7 +43506,7 @@
         <v>1</v>
       </c>
       <c r="R254" s="11">
-        <v>592000</v>
+        <v>1184000</v>
       </c>
       <c r="S254" s="11">
         <v>3100</v>
@@ -43645,7 +43649,7 @@
         <v>1</v>
       </c>
       <c r="R255" s="11">
-        <v>636000</v>
+        <v>1272000</v>
       </c>
       <c r="S255" s="11">
         <v>3200</v>
@@ -43788,7 +43792,7 @@
         <v>1</v>
       </c>
       <c r="R256" s="11">
-        <v>682000</v>
+        <v>1364000</v>
       </c>
       <c r="S256" s="11">
         <v>3300</v>
@@ -43931,7 +43935,7 @@
         <v>1</v>
       </c>
       <c r="R257" s="11">
-        <v>730000</v>
+        <v>1460000</v>
       </c>
       <c r="S257" s="11">
         <v>3400</v>
@@ -44074,7 +44078,7 @@
         <v>1</v>
       </c>
       <c r="R258" s="11">
-        <v>780000</v>
+        <v>1560000</v>
       </c>
       <c r="S258" s="11">
         <v>3900</v>
@@ -44217,7 +44221,7 @@
         <v>1</v>
       </c>
       <c r="R259" s="11">
-        <v>832000</v>
+        <v>1664000</v>
       </c>
       <c r="S259" s="11">
         <v>4000</v>
@@ -44360,7 +44364,7 @@
         <v>1</v>
       </c>
       <c r="R260" s="11">
-        <v>886000</v>
+        <v>1772000</v>
       </c>
       <c r="S260" s="11">
         <v>4100</v>
@@ -44503,7 +44507,7 @@
         <v>1</v>
       </c>
       <c r="R261" s="11">
-        <v>942000</v>
+        <v>1884000</v>
       </c>
       <c r="S261" s="11">
         <v>4200</v>
@@ -44646,7 +44650,7 @@
         <v>1</v>
       </c>
       <c r="R262" s="11">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="S262" s="11">
         <v>4300</v>
@@ -44789,7 +44793,7 @@
         <v>1</v>
       </c>
       <c r="R263" s="11">
-        <v>1060000</v>
+        <v>2120000</v>
       </c>
       <c r="S263" s="11">
         <v>4400</v>
@@ -44932,7 +44936,7 @@
         <v>1</v>
       </c>
       <c r="R264" s="11">
-        <v>1122000</v>
+        <v>2244000</v>
       </c>
       <c r="S264" s="11">
         <v>4500</v>
@@ -45075,7 +45079,7 @@
         <v>1</v>
       </c>
       <c r="R265" s="11">
-        <v>1186000</v>
+        <v>2372000</v>
       </c>
       <c r="S265" s="11">
         <v>4600</v>
@@ -45218,7 +45222,7 @@
         <v>1</v>
       </c>
       <c r="R266" s="11">
-        <v>1252000</v>
+        <v>2504000</v>
       </c>
       <c r="S266" s="11">
         <v>4700</v>
@@ -45361,7 +45365,7 @@
         <v>1</v>
       </c>
       <c r="R267" s="11">
-        <v>1320000</v>
+        <v>2640000</v>
       </c>
       <c r="S267" s="11">
         <v>4800</v>
@@ -45504,7 +45508,7 @@
         <v>1</v>
       </c>
       <c r="R268" s="11">
-        <v>1390000</v>
+        <v>2780000</v>
       </c>
       <c r="S268" s="11">
         <v>5300</v>
@@ -45647,7 +45651,7 @@
         <v>1</v>
       </c>
       <c r="R269" s="11">
-        <v>1462000</v>
+        <v>2924000</v>
       </c>
       <c r="S269" s="11">
         <v>5400</v>
@@ -45790,7 +45794,7 @@
         <v>1</v>
       </c>
       <c r="R270" s="11">
-        <v>1536000</v>
+        <v>3072000</v>
       </c>
       <c r="S270" s="11">
         <v>5500</v>
@@ -45933,7 +45937,7 @@
         <v>1</v>
       </c>
       <c r="R271" s="11">
-        <v>1612000</v>
+        <v>3224000</v>
       </c>
       <c r="S271" s="11">
         <v>5600</v>
@@ -46076,7 +46080,7 @@
         <v>1</v>
       </c>
       <c r="R272" s="11">
-        <v>1690000</v>
+        <v>3380000</v>
       </c>
       <c r="S272" s="11">
         <v>5700</v>
@@ -46219,7 +46223,7 @@
         <v>1</v>
       </c>
       <c r="R273" s="11">
-        <v>1770000</v>
+        <v>3540000</v>
       </c>
       <c r="S273" s="11">
         <v>5800</v>
@@ -46362,7 +46366,7 @@
         <v>1</v>
       </c>
       <c r="R274" s="11">
-        <v>1852000</v>
+        <v>3704000</v>
       </c>
       <c r="S274" s="11">
         <v>5900</v>
@@ -46505,7 +46509,7 @@
         <v>1</v>
       </c>
       <c r="R275" s="11">
-        <v>1936000</v>
+        <v>3872000</v>
       </c>
       <c r="S275" s="11">
         <v>6000</v>
@@ -46648,7 +46652,7 @@
         <v>1</v>
       </c>
       <c r="R276" s="11">
-        <v>2022000</v>
+        <v>4044000</v>
       </c>
       <c r="S276" s="11">
         <v>6100</v>
@@ -46791,7 +46795,7 @@
         <v>1</v>
       </c>
       <c r="R277" s="11">
-        <v>2110000</v>
+        <v>4220000</v>
       </c>
       <c r="S277" s="11">
         <v>6200</v>
@@ -46934,7 +46938,7 @@
         <v>1</v>
       </c>
       <c r="R278" s="11">
-        <v>2200000</v>
+        <v>4400000</v>
       </c>
       <c r="S278" s="11">
         <v>6200</v>
@@ -47077,7 +47081,7 @@
         <v>1</v>
       </c>
       <c r="R279" s="11">
-        <v>2292000</v>
+        <v>4584000</v>
       </c>
       <c r="S279" s="11">
         <v>6200</v>
@@ -47220,7 +47224,7 @@
         <v>1</v>
       </c>
       <c r="R280" s="11">
-        <v>2386000</v>
+        <v>4772000</v>
       </c>
       <c r="S280" s="11">
         <v>6200</v>
@@ -47363,7 +47367,7 @@
         <v>1</v>
       </c>
       <c r="R281" s="11">
-        <v>2482000</v>
+        <v>4964000</v>
       </c>
       <c r="S281" s="11">
         <v>6200</v>
@@ -47506,7 +47510,7 @@
         <v>1</v>
       </c>
       <c r="R282" s="11">
-        <v>2580000</v>
+        <v>5160000</v>
       </c>
       <c r="S282" s="11">
         <v>6200</v>
@@ -47649,7 +47653,7 @@
         <v>1</v>
       </c>
       <c r="R283" s="11">
-        <v>2680000</v>
+        <v>5360000</v>
       </c>
       <c r="S283" s="11">
         <v>6200</v>
@@ -47792,7 +47796,7 @@
         <v>1</v>
       </c>
       <c r="R284" s="11">
-        <v>2782000</v>
+        <v>5564000</v>
       </c>
       <c r="S284" s="11">
         <v>6200</v>
@@ -47935,7 +47939,7 @@
         <v>1</v>
       </c>
       <c r="R285" s="11">
-        <v>2886000</v>
+        <v>5772000</v>
       </c>
       <c r="S285" s="11">
         <v>6200</v>
@@ -48078,7 +48082,7 @@
         <v>1</v>
       </c>
       <c r="R286" s="11">
-        <v>2992000</v>
+        <v>5984000</v>
       </c>
       <c r="S286" s="11">
         <v>6200</v>
@@ -72454,10 +72458,10 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB3C01A-74CB-473D-AFDE-9B765EE72114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2DC2DC-B273-49E4-9191-33B27986C95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30555" yWindow="975" windowWidth="27045" windowHeight="14625" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProto" sheetId="1" r:id="rId1"/>
@@ -8326,10 +8326,10 @@
   <dimension ref="A1:BG489"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="N198" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="AD123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R56" sqref="R56"/>
+      <selection pane="bottomRight" activeCell="AF127" sqref="AF127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -24105,7 +24105,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="13">
-        <v>70001209</v>
+        <v>70001010</v>
       </c>
       <c r="K120" s="31">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="J121" s="30">
-        <v>70001010</v>
+        <v>70001209</v>
       </c>
       <c r="K121" s="31">
         <v>0</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -2351,12 +2351,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2435,7 +2435,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2450,7 +2502,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -2458,23 +2533,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2489,60 +2549,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -2561,55 +2578,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="60">
+  <fills count="53">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2666,73 +2653,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2750,6 +2677,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2762,13 +2707,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2780,19 +2725,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2810,31 +2773,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799798577837458"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799798577837458"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799829096346934"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2846,7 +2803,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799798577837458"/>
+        <fgColor theme="8" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2858,61 +2815,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799829096346934"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2930,13 +2851,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2954,7 +2887,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799798577837458"/>
+        <fgColor theme="4" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3058,6 +3003,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3077,17 +3040,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3108,11 +3060,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3134,70 +3092,57 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="475">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -3206,59 +3151,41 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -3267,22 +3194,187 @@
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -3291,163 +3383,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="45" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -3456,37 +3419,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -3498,22 +3440,49 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3522,10 +3491,296 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -3534,52 +3789,13 @@
     <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3588,323 +3804,52 @@
     <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" b